--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dalia\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelance\FantasyLeague\Project\lagartija\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="599" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="599" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="General Schedule" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="138">
   <si>
     <t>Página</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t xml:space="preserve">Subject to Prizing Definitions </t>
+  </si>
+  <si>
+    <t>getNotifications(Start Date, End Date)</t>
+  </si>
+  <si>
+    <t>getNotifications/getNotifications(StartDate,EndDate)</t>
   </si>
 </sst>
 </file>
@@ -513,7 +519,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -656,14 +662,134 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -674,150 +800,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1101,7 +1122,7 @@
   <dimension ref="A1:F57"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1115,37 +1136,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="63" t="s">
+      <c r="B1" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="102" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="63" t="s">
+      <c r="D1" s="102" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="66" t="s">
+      <c r="E1" s="102"/>
+      <c r="F1" s="104" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
+      <c r="C2" s="103"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="67"/>
+      <c r="F2" s="105"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1165,7 +1186,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1181,12 +1202,12 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>137</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>34</v>
@@ -1197,7 +1218,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1213,7 +1234,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1229,7 +1250,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="8" t="s">
         <v>116</v>
       </c>
@@ -1243,7 +1264,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1252,7 +1273,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="55" t="s">
+      <c r="D9" s="88" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1263,14 +1284,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="60"/>
+      <c r="D10" s="85"/>
       <c r="E10" s="33">
         <v>0.3</v>
       </c>
@@ -1279,14 +1300,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="56"/>
+      <c r="D11" s="87"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1329,47 +1350,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="89" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="75" t="s">
+      <c r="C14" s="92" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="54" t="s">
+      <c r="D14" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="54">
+      <c r="E14" s="86">
         <v>0.5</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="99" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="76"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="88"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="100"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="56"/>
-      <c r="E16" s="56"/>
-      <c r="F16" s="59"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="101"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1378,7 +1399,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="54" t="s">
+      <c r="D17" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1389,53 +1410,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="55"/>
+      <c r="D18" s="88"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>129</v>
       </c>
-      <c r="D19" s="55"/>
+      <c r="D19" s="88"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>130</v>
       </c>
-      <c r="D20" s="55"/>
+      <c r="D20" s="88"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="56"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1498,7 +1519,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="82" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1507,7 +1528,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="54" t="s">
+      <c r="D25" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1518,27 +1539,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="60"/>
+      <c r="D26" s="85"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="56"/>
+      <c r="D27" s="87"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1565,7 +1586,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="82" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1582,7 +1603,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1597,14 +1618,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="96" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="60">
+      <c r="D31" s="85">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1615,25 +1636,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="96"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="60"/>
+      <c r="D32" s="85"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="96" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="60">
+      <c r="D33" s="85">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1644,12 +1665,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="96"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="60"/>
+      <c r="D34" s="85"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1658,7 +1679,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1696,7 +1717,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1716,7 +1737,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1731,7 +1752,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1746,8 +1767,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="70"/>
-      <c r="B40" s="71" t="s">
+      <c r="A40" s="83"/>
+      <c r="B40" s="96" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1761,8 +1782,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="69"/>
-      <c r="B41" s="72"/>
+      <c r="A41" s="84"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -1793,7 +1814,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="68" t="s">
+      <c r="A43" s="82" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1802,7 +1823,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="54" t="s">
+      <c r="D43" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -1813,14 +1834,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="69"/>
+      <c r="A44" s="84"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="56"/>
+      <c r="D44" s="87"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -1829,7 +1850,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="68" t="s">
+      <c r="A45" s="82" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1838,7 +1859,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="54" t="s">
+      <c r="D45" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -1846,56 +1867,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="60"/>
-      <c r="E46" s="60" t="s">
+      <c r="D46" s="85"/>
+      <c r="E46" s="85" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="60"/>
+      <c r="D47" s="85"/>
+      <c r="E47" s="85"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="70"/>
+      <c r="A48" s="83"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
+      <c r="D48" s="85"/>
+      <c r="E48" s="85"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="69"/>
+      <c r="A49" s="84"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="56"/>
+      <c r="D49" s="87"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="68" t="s">
+      <c r="A50" s="82" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1904,7 +1925,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="54" t="s">
+      <c r="D50" s="86" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -1912,27 +1933,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="70"/>
+      <c r="A51" s="83"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="60"/>
+      <c r="D51" s="85"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="69"/>
+      <c r="A52" s="84"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="56"/>
+      <c r="D52" s="87"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2013,27 +2034,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2044,6 +2044,27 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2052,10 +2073,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I134"/>
+  <dimension ref="A1:I138"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:XFD2"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2064,54 +2085,54 @@
     <col min="2" max="2" width="29.85546875" style="53" customWidth="1"/>
     <col min="3" max="3" width="14" style="45" customWidth="1"/>
     <col min="4" max="5" width="11.42578125" style="50"/>
-    <col min="6" max="6" width="13.42578125" style="102" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="76" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="50"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="100" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="81"/>
-      <c r="F1" s="102" t="s">
+      <c r="E1" s="114"/>
+      <c r="F1" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G1" s="81" t="s">
+      <c r="G1" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="H1" s="81"/>
+      <c r="H1" s="114"/>
       <c r="I1" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="101"/>
+      <c r="B2" s="101"/>
       <c r="C2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="103" t="s">
+      <c r="F2" s="77" t="s">
         <v>124</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="58" t="s">
         <v>128</v>
       </c>
       <c r="I2" s="48" t="s">
@@ -2119,1492 +2140,1502 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+      <c r="A3" s="99" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="86" t="s">
+      <c r="B3" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C3" s="44"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="98">
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="78"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="64"/>
+      <c r="I3" s="113">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="58"/>
+      <c r="A4" s="100"/>
       <c r="B4" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="105"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="62"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="60"/>
+      <c r="I4" s="95"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="58"/>
+      <c r="A5" s="100"/>
       <c r="B5" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="105"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="62"/>
+      <c r="D5" s="60"/>
+      <c r="E5" s="60"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="60"/>
+      <c r="H5" s="60"/>
+      <c r="I5" s="95"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="59"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="46"/>
-      <c r="D6" s="79"/>
-      <c r="E6" s="79"/>
-      <c r="F6" s="103"/>
-      <c r="G6" s="79"/>
-      <c r="H6" s="79"/>
-      <c r="I6" s="65"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="91"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+      <c r="A7" s="99" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="B7" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C7" s="44">
         <v>1</v>
       </c>
-      <c r="D7" s="84">
+      <c r="D7" s="62">
         <v>43118</v>
       </c>
-      <c r="E7" s="84">
+      <c r="E7" s="62">
         <v>42753</v>
       </c>
-      <c r="F7" s="102">
-        <v>1</v>
-      </c>
-      <c r="G7" s="100">
+      <c r="F7" s="76">
+        <v>1</v>
+      </c>
+      <c r="G7" s="74">
         <v>43118</v>
       </c>
-      <c r="H7" s="94">
+      <c r="H7" s="69">
         <v>43118</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="95"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="58"/>
+      <c r="A8" s="100"/>
       <c r="B8" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="84"/>
-      <c r="E8" s="84"/>
-      <c r="G8" s="101"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="62"/>
+      <c r="I8" s="95"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="58"/>
+      <c r="A9" s="100"/>
       <c r="B9" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="84"/>
-      <c r="E9" s="84"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="G9" s="75"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="95"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="59"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C10" s="46"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="90"/>
-      <c r="I10" s="65"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="70"/>
+      <c r="F10" s="77"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="91"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="86" t="s">
+      <c r="A11" s="99" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="80" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="84">
+      <c r="C11" s="54">
+        <v>1</v>
+      </c>
+      <c r="D11" s="62">
         <v>43118</v>
       </c>
-      <c r="E11" s="84">
+      <c r="E11" s="62">
+        <v>42753</v>
+      </c>
+      <c r="F11" s="76">
+        <v>1</v>
+      </c>
+      <c r="G11" s="74">
         <v>43118</v>
       </c>
-      <c r="F11" s="102">
-        <v>1</v>
-      </c>
-      <c r="G11" s="100">
+      <c r="H11" s="69">
         <v>43118</v>
       </c>
-      <c r="H11" s="94">
-        <v>43118</v>
-      </c>
-      <c r="I11" s="62"/>
+      <c r="I11" s="95"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="58"/>
-      <c r="B12" s="52" t="s">
+      <c r="A12" s="100"/>
+      <c r="B12" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="84"/>
-      <c r="E12" s="84"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="62"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="62"/>
+      <c r="E12" s="62"/>
+      <c r="G12" s="75"/>
+      <c r="H12" s="62"/>
+      <c r="I12" s="95"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="58"/>
-      <c r="B13" s="52" t="s">
+      <c r="A13" s="100"/>
+      <c r="B13" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="84"/>
-      <c r="E13" s="84"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="62"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="62"/>
+      <c r="E13" s="62"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="95"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="59"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="79"/>
-      <c r="I14" s="65"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="91"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="86" t="s">
+      <c r="A15" s="99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C15" s="44">
         <v>1</v>
       </c>
-      <c r="D15" s="94">
+      <c r="D15" s="62">
         <v>43118</v>
       </c>
-      <c r="E15" s="94">
+      <c r="E15" s="62">
         <v>43118</v>
       </c>
-      <c r="F15" s="102">
-        <v>1</v>
-      </c>
-      <c r="G15" s="100">
+      <c r="F15" s="76">
+        <v>1</v>
+      </c>
+      <c r="G15" s="74">
         <v>43118</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="69">
         <v>43118</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="95"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="58"/>
+      <c r="A16" s="100"/>
       <c r="B16" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C16" s="49"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="82"/>
-      <c r="I16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="95"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="58"/>
+      <c r="A17" s="100"/>
       <c r="B17" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="82"/>
-      <c r="I17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
+      <c r="G17" s="75"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="95"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="59"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C18" s="46"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="79"/>
-      <c r="I18" s="65"/>
+      <c r="D18" s="70"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="91"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="86" t="s">
+      <c r="A19" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C19" s="44">
         <v>1</v>
       </c>
-      <c r="D19" s="94">
-        <v>43119</v>
-      </c>
-      <c r="E19" s="94">
-        <v>43119</v>
-      </c>
-      <c r="F19" s="102">
-        <v>1</v>
-      </c>
-      <c r="G19" s="100">
-        <v>43119</v>
-      </c>
-      <c r="H19" s="94">
-        <v>43119</v>
-      </c>
-      <c r="I19" s="62"/>
+      <c r="D19" s="69">
+        <v>43118</v>
+      </c>
+      <c r="E19" s="69">
+        <v>43118</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1</v>
+      </c>
+      <c r="G19" s="74">
+        <v>43118</v>
+      </c>
+      <c r="H19" s="69">
+        <v>43118</v>
+      </c>
+      <c r="I19" s="95"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="58"/>
+      <c r="A20" s="100"/>
       <c r="B20" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C20" s="49"/>
-      <c r="D20" s="78"/>
-      <c r="E20" s="78"/>
-      <c r="G20" s="101"/>
-      <c r="H20" s="82"/>
-      <c r="I20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="G20" s="75"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="95"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="58"/>
+      <c r="A21" s="100"/>
       <c r="B21" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C21" s="49"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="82"/>
-      <c r="I21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="G21" s="75"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="95"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="59"/>
+      <c r="A22" s="101"/>
       <c r="B22" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C22" s="46"/>
-      <c r="D22" s="93"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="79"/>
-      <c r="I22" s="65"/>
+      <c r="D22" s="70"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="91"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="91" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="86" t="s">
+      <c r="A23" s="99" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C23" s="44">
         <v>1</v>
       </c>
-      <c r="D23" s="94">
+      <c r="D23" s="69">
         <v>43119</v>
       </c>
-      <c r="E23" s="94">
+      <c r="E23" s="69">
         <v>43119</v>
       </c>
-      <c r="F23" s="102">
-        <v>1</v>
-      </c>
-      <c r="G23" s="100">
+      <c r="F23" s="76">
+        <v>1</v>
+      </c>
+      <c r="G23" s="74">
         <v>43119</v>
       </c>
-      <c r="H23" s="94">
+      <c r="H23" s="69">
         <v>43119</v>
       </c>
-      <c r="I23" s="62"/>
+      <c r="I23" s="95"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="85"/>
+      <c r="A24" s="100"/>
       <c r="B24" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C24" s="49"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="82"/>
-      <c r="H24" s="82"/>
-      <c r="I24" s="62"/>
+      <c r="D24" s="57"/>
+      <c r="E24" s="57"/>
+      <c r="G24" s="75"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="95"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="85"/>
+      <c r="A25" s="100"/>
       <c r="B25" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C25" s="49"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="105"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="82"/>
-      <c r="I25" s="62"/>
+      <c r="D25" s="57"/>
+      <c r="E25" s="57"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="95"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92"/>
+      <c r="A26" s="101"/>
       <c r="B26" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C26" s="46"/>
-      <c r="D26" s="93"/>
-      <c r="E26" s="93"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="79"/>
-      <c r="I26" s="65"/>
+      <c r="D26" s="68"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="91"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B27" s="86" t="s">
+      <c r="A27" s="110" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C27" s="44">
         <v>1</v>
       </c>
-      <c r="D27" s="94">
-        <v>43120</v>
-      </c>
-      <c r="E27" s="94">
-        <v>43120</v>
-      </c>
-      <c r="F27" s="102">
-        <v>1</v>
-      </c>
-      <c r="G27" s="100">
-        <v>43120</v>
-      </c>
-      <c r="H27" s="88">
-        <v>43120</v>
-      </c>
-      <c r="I27" s="62"/>
+      <c r="D27" s="69">
+        <v>43119</v>
+      </c>
+      <c r="E27" s="69">
+        <v>43119</v>
+      </c>
+      <c r="F27" s="76">
+        <v>1</v>
+      </c>
+      <c r="G27" s="74">
+        <v>43119</v>
+      </c>
+      <c r="H27" s="69">
+        <v>43119</v>
+      </c>
+      <c r="I27" s="95"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="111"/>
       <c r="B28" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C28" s="49"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="82"/>
-      <c r="H28" s="82"/>
-      <c r="I28" s="62"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="95"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="111"/>
       <c r="B29" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C29" s="49"/>
-      <c r="D29" s="96"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="105"/>
-      <c r="G29" s="82"/>
-      <c r="H29" s="82"/>
-      <c r="I29" s="62"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="95"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="65"/>
+      <c r="A30" s="112"/>
       <c r="B30" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C30" s="46"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="79"/>
-      <c r="I30" s="65"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="77"/>
+      <c r="G30" s="58"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="91"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="86" t="s">
+      <c r="A31" s="89" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C31" s="44">
         <v>1</v>
       </c>
-      <c r="D31" s="94">
+      <c r="D31" s="69">
         <v>43120</v>
       </c>
-      <c r="E31" s="94">
+      <c r="E31" s="69">
         <v>43120</v>
       </c>
-      <c r="F31" s="102">
-        <v>1</v>
-      </c>
-      <c r="G31" s="100">
+      <c r="F31" s="76">
+        <v>1</v>
+      </c>
+      <c r="G31" s="74">
         <v>43120</v>
       </c>
-      <c r="H31" s="88">
+      <c r="H31" s="65">
         <v>43120</v>
       </c>
-      <c r="I31" s="62"/>
+      <c r="I31" s="95"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="62"/>
+      <c r="A32" s="95"/>
       <c r="B32" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C32" s="49"/>
-      <c r="D32" s="96"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="105"/>
-      <c r="G32" s="82"/>
-      <c r="H32" s="82"/>
-      <c r="I32" s="62"/>
+      <c r="D32" s="71"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="95"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="62"/>
+      <c r="A33" s="95"/>
       <c r="B33" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
-      <c r="I33" s="62"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="95"/>
     </row>
     <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="65"/>
+      <c r="A34" s="91"/>
       <c r="B34" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="79"/>
-      <c r="I34" s="65"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="77"/>
+      <c r="G34" s="58"/>
+      <c r="H34" s="58"/>
+      <c r="I34" s="91"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="91" t="s">
-        <v>46</v>
-      </c>
-      <c r="B35" s="86" t="s">
+      <c r="A35" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="B35" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C35" s="44">
         <v>1</v>
       </c>
-      <c r="D35" s="94">
+      <c r="D35" s="69">
         <v>43120</v>
       </c>
-      <c r="E35" s="94">
+      <c r="E35" s="69">
         <v>43120</v>
       </c>
-      <c r="F35" s="102">
-        <v>1</v>
-      </c>
-      <c r="G35" s="100">
+      <c r="F35" s="76">
+        <v>1</v>
+      </c>
+      <c r="G35" s="74">
         <v>43120</v>
       </c>
-      <c r="H35" s="88">
+      <c r="H35" s="65">
         <v>43120</v>
       </c>
-      <c r="I35" s="62"/>
+      <c r="I35" s="95"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
+      <c r="A36" s="95"/>
       <c r="B36" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C36" s="49"/>
-      <c r="D36" s="82"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="62"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="95"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="85"/>
+      <c r="A37" s="95"/>
       <c r="B37" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C37" s="49"/>
-      <c r="D37" s="82"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="105"/>
-      <c r="G37" s="82"/>
-      <c r="H37" s="82"/>
-      <c r="I37" s="62"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="95"/>
     </row>
     <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
+      <c r="A38" s="91"/>
       <c r="B38" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C38" s="46"/>
-      <c r="D38" s="79"/>
-      <c r="E38" s="79"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="65"/>
+      <c r="D38" s="72"/>
+      <c r="E38" s="58"/>
+      <c r="F38" s="77"/>
+      <c r="G38" s="58"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="91"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="91" t="s">
-        <v>56</v>
-      </c>
-      <c r="B39" s="86" t="s">
+      <c r="A39" s="110" t="s">
+        <v>46</v>
+      </c>
+      <c r="B39" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C39" s="44">
         <v>1</v>
       </c>
-      <c r="D39" s="94">
-        <v>43121</v>
-      </c>
-      <c r="E39" s="94">
-        <v>43121</v>
-      </c>
-      <c r="F39" s="104">
-        <v>1</v>
-      </c>
-      <c r="G39" s="94">
-        <v>43121</v>
-      </c>
-      <c r="H39" s="94">
-        <v>43121</v>
-      </c>
-      <c r="I39" s="62"/>
+      <c r="D39" s="69">
+        <v>43120</v>
+      </c>
+      <c r="E39" s="69">
+        <v>43120</v>
+      </c>
+      <c r="F39" s="76">
+        <v>1</v>
+      </c>
+      <c r="G39" s="74">
+        <v>43120</v>
+      </c>
+      <c r="H39" s="65">
+        <v>43120</v>
+      </c>
+      <c r="I39" s="95"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="85"/>
+      <c r="A40" s="111"/>
       <c r="B40" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C40" s="49"/>
-      <c r="D40" s="96"/>
-      <c r="E40" s="82"/>
-      <c r="F40" s="105"/>
-      <c r="G40" s="82"/>
-      <c r="H40" s="82"/>
-      <c r="I40" s="62"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="95"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="85"/>
+      <c r="A41" s="111"/>
       <c r="B41" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="96"/>
-      <c r="E41" s="82"/>
-      <c r="F41" s="105"/>
-      <c r="G41" s="82"/>
-      <c r="H41" s="82"/>
-      <c r="I41" s="62"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="95"/>
     </row>
     <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92"/>
+      <c r="A42" s="112"/>
       <c r="B42" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C42" s="46"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79"/>
-      <c r="I42" s="65"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="58"/>
+      <c r="F42" s="77"/>
+      <c r="G42" s="58"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="91"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="B43" s="86" t="s">
+      <c r="A43" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C43" s="44">
         <v>1</v>
       </c>
-      <c r="D43" s="94">
-        <v>43122</v>
-      </c>
-      <c r="E43" s="94">
-        <v>43122</v>
-      </c>
-      <c r="F43" s="104">
-        <v>1</v>
-      </c>
-      <c r="G43" s="94">
-        <v>43122</v>
-      </c>
-      <c r="H43" s="94">
-        <v>43122</v>
-      </c>
-      <c r="I43" s="62"/>
+      <c r="D43" s="69">
+        <v>43121</v>
+      </c>
+      <c r="E43" s="69">
+        <v>43121</v>
+      </c>
+      <c r="F43" s="78">
+        <v>1</v>
+      </c>
+      <c r="G43" s="69">
+        <v>43121</v>
+      </c>
+      <c r="H43" s="69">
+        <v>43121</v>
+      </c>
+      <c r="I43" s="95"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="85"/>
+      <c r="A44" s="111"/>
       <c r="B44" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C44" s="49"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="82"/>
-      <c r="F44" s="105"/>
-      <c r="G44" s="82"/>
-      <c r="H44" s="82"/>
-      <c r="I44" s="62"/>
+      <c r="D44" s="71"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="85"/>
+      <c r="A45" s="111"/>
       <c r="B45" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C45" s="49"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="82"/>
-      <c r="F45" s="105"/>
-      <c r="G45" s="82"/>
-      <c r="H45" s="82"/>
-      <c r="I45" s="62"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="60"/>
+      <c r="F45" s="79"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="95"/>
     </row>
     <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92"/>
+      <c r="A46" s="112"/>
       <c r="B46" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C46" s="46"/>
-      <c r="D46" s="79"/>
-      <c r="E46" s="79"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="79"/>
-      <c r="H46" s="79"/>
-      <c r="I46" s="65"/>
+      <c r="D46" s="72"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="77"/>
+      <c r="G46" s="58"/>
+      <c r="H46" s="58"/>
+      <c r="I46" s="91"/>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="91" t="s">
-        <v>85</v>
-      </c>
-      <c r="B47" s="86" t="s">
+      <c r="A47" s="110" t="s">
+        <v>61</v>
+      </c>
+      <c r="B47" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C47" s="44">
         <v>1</v>
       </c>
-      <c r="D47" s="94">
+      <c r="D47" s="69">
         <v>43122</v>
       </c>
-      <c r="E47" s="94">
+      <c r="E47" s="69">
         <v>43122</v>
       </c>
-      <c r="F47" s="104">
-        <v>1</v>
-      </c>
-      <c r="G47" s="94">
+      <c r="F47" s="78">
+        <v>1</v>
+      </c>
+      <c r="G47" s="69">
         <v>43122</v>
       </c>
-      <c r="H47" s="94">
+      <c r="H47" s="69">
         <v>43122</v>
       </c>
-      <c r="I47" s="62"/>
+      <c r="I47" s="95"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="85"/>
+      <c r="A48" s="111"/>
       <c r="B48" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C48" s="49"/>
-      <c r="D48" s="82"/>
-      <c r="E48" s="82"/>
-      <c r="F48" s="105"/>
-      <c r="G48" s="82"/>
-      <c r="H48" s="82"/>
-      <c r="I48" s="62"/>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="79"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="95"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="85"/>
+      <c r="A49" s="111"/>
       <c r="B49" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C49" s="49"/>
-      <c r="D49" s="82"/>
-      <c r="E49" s="82"/>
-      <c r="F49" s="105"/>
-      <c r="G49" s="82"/>
-      <c r="H49" s="82"/>
-      <c r="I49" s="62"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="60"/>
+      <c r="F49" s="79"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="95"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92"/>
+      <c r="A50" s="112"/>
       <c r="B50" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C50" s="46"/>
-      <c r="D50" s="79"/>
-      <c r="E50" s="79"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="79"/>
-      <c r="H50" s="79"/>
-      <c r="I50" s="65"/>
+      <c r="D50" s="58"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="77"/>
+      <c r="G50" s="58"/>
+      <c r="H50" s="58"/>
+      <c r="I50" s="91"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="57" t="s">
-        <v>62</v>
-      </c>
-      <c r="B51" s="86" t="s">
+      <c r="A51" s="110" t="s">
+        <v>85</v>
+      </c>
+      <c r="B51" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C51" s="44">
         <v>1</v>
       </c>
-      <c r="D51" s="94">
+      <c r="D51" s="69">
         <v>43122</v>
       </c>
-      <c r="E51" s="94">
+      <c r="E51" s="69">
         <v>43122</v>
       </c>
-      <c r="F51" s="104">
-        <v>1</v>
-      </c>
-      <c r="G51" s="94">
+      <c r="F51" s="78">
+        <v>1</v>
+      </c>
+      <c r="G51" s="69">
         <v>43122</v>
       </c>
-      <c r="H51" s="94">
+      <c r="H51" s="69">
         <v>43122</v>
       </c>
-      <c r="I51" s="62"/>
+      <c r="I51" s="95"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="58"/>
+      <c r="A52" s="111"/>
       <c r="B52" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C52" s="49"/>
-      <c r="D52" s="82"/>
-      <c r="E52" s="82"/>
-      <c r="F52" s="105"/>
-      <c r="G52" s="82"/>
-      <c r="H52" s="82"/>
-      <c r="I52" s="62"/>
+      <c r="D52" s="60"/>
+      <c r="E52" s="60"/>
+      <c r="F52" s="79"/>
+      <c r="G52" s="60"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="95"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
+      <c r="A53" s="111"/>
       <c r="B53" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C53" s="49"/>
-      <c r="D53" s="82"/>
-      <c r="E53" s="82"/>
-      <c r="F53" s="105"/>
-      <c r="G53" s="82"/>
-      <c r="H53" s="82"/>
-      <c r="I53" s="62"/>
+      <c r="D53" s="60"/>
+      <c r="E53" s="60"/>
+      <c r="F53" s="79"/>
+      <c r="G53" s="60"/>
+      <c r="H53" s="60"/>
+      <c r="I53" s="95"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="59"/>
+      <c r="A54" s="112"/>
       <c r="B54" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C54" s="46"/>
-      <c r="D54" s="79"/>
-      <c r="E54" s="79"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="79"/>
-      <c r="H54" s="79"/>
-      <c r="I54" s="65"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
+      <c r="F54" s="77"/>
+      <c r="G54" s="58"/>
+      <c r="H54" s="58"/>
+      <c r="I54" s="91"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="57" t="s">
-        <v>66</v>
-      </c>
-      <c r="B55" s="86" t="s">
+      <c r="A55" s="99" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C55" s="44">
         <v>1</v>
       </c>
-      <c r="D55" s="94">
-        <v>43123</v>
-      </c>
-      <c r="E55" s="94">
-        <v>43123</v>
-      </c>
-      <c r="F55" s="104">
-        <v>1</v>
-      </c>
-      <c r="G55" s="94">
-        <v>43123</v>
-      </c>
-      <c r="H55" s="94">
-        <v>43123</v>
-      </c>
-      <c r="I55" s="62"/>
+      <c r="D55" s="69">
+        <v>43122</v>
+      </c>
+      <c r="E55" s="69">
+        <v>43122</v>
+      </c>
+      <c r="F55" s="78">
+        <v>1</v>
+      </c>
+      <c r="G55" s="69">
+        <v>43122</v>
+      </c>
+      <c r="H55" s="69">
+        <v>43122</v>
+      </c>
+      <c r="I55" s="95"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="58"/>
+      <c r="A56" s="100"/>
       <c r="B56" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C56" s="49"/>
-      <c r="D56" s="82"/>
-      <c r="E56" s="82"/>
-      <c r="F56" s="105"/>
-      <c r="G56" s="82"/>
-      <c r="H56" s="82"/>
-      <c r="I56" s="62"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="79"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
+      <c r="I56" s="95"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="58"/>
+      <c r="A57" s="100"/>
       <c r="B57" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C57" s="49"/>
-      <c r="D57" s="82"/>
-      <c r="E57" s="82"/>
-      <c r="F57" s="105"/>
-      <c r="G57" s="82"/>
-      <c r="H57" s="82"/>
-      <c r="I57" s="62"/>
+      <c r="D57" s="60"/>
+      <c r="E57" s="60"/>
+      <c r="F57" s="79"/>
+      <c r="G57" s="60"/>
+      <c r="H57" s="60"/>
+      <c r="I57" s="95"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="59"/>
+      <c r="A58" s="101"/>
       <c r="B58" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C58" s="46"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="103"/>
-      <c r="G58" s="79"/>
-      <c r="H58" s="79"/>
-      <c r="I58" s="65"/>
+      <c r="D58" s="58"/>
+      <c r="E58" s="58"/>
+      <c r="F58" s="77"/>
+      <c r="G58" s="58"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="91"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="57" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59" s="86" t="s">
+      <c r="A59" s="99" t="s">
+        <v>66</v>
+      </c>
+      <c r="B59" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C59" s="44">
         <v>1</v>
       </c>
-      <c r="D59" s="94">
+      <c r="D59" s="69">
         <v>43123</v>
       </c>
-      <c r="E59" s="94">
+      <c r="E59" s="69">
         <v>43123</v>
       </c>
-      <c r="F59" s="104">
-        <v>1</v>
-      </c>
-      <c r="G59" s="94">
+      <c r="F59" s="78">
+        <v>1</v>
+      </c>
+      <c r="G59" s="69">
         <v>43123</v>
       </c>
-      <c r="H59" s="94">
+      <c r="H59" s="69">
         <v>43123</v>
       </c>
-      <c r="I59" s="62"/>
+      <c r="I59" s="95"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="58"/>
+      <c r="A60" s="100"/>
       <c r="B60" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C60" s="49"/>
-      <c r="D60" s="82"/>
-      <c r="E60" s="82"/>
-      <c r="F60" s="105"/>
-      <c r="G60" s="82"/>
-      <c r="H60" s="82"/>
-      <c r="I60" s="62"/>
+      <c r="D60" s="60"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="79"/>
+      <c r="G60" s="60"/>
+      <c r="H60" s="60"/>
+      <c r="I60" s="95"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="58"/>
+      <c r="A61" s="100"/>
       <c r="B61" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C61" s="49"/>
-      <c r="D61" s="82"/>
-      <c r="E61" s="82"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="82"/>
-      <c r="H61" s="82"/>
-      <c r="I61" s="62"/>
+      <c r="D61" s="60"/>
+      <c r="E61" s="60"/>
+      <c r="F61" s="79"/>
+      <c r="G61" s="60"/>
+      <c r="H61" s="60"/>
+      <c r="I61" s="95"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="59"/>
+      <c r="A62" s="101"/>
       <c r="B62" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C62" s="46"/>
-      <c r="D62" s="79"/>
-      <c r="E62" s="79"/>
-      <c r="F62" s="103"/>
-      <c r="G62" s="79"/>
-      <c r="H62" s="79"/>
-      <c r="I62" s="65"/>
+      <c r="D62" s="58"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="77"/>
+      <c r="G62" s="58"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="91"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="91" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="86" t="s">
+      <c r="A63" s="99" t="s">
+        <v>67</v>
+      </c>
+      <c r="B63" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C63" s="44">
         <v>1</v>
       </c>
-      <c r="D63" s="94">
-        <v>43124</v>
-      </c>
-      <c r="E63" s="94">
-        <v>43124</v>
-      </c>
-      <c r="F63" s="104">
-        <v>1</v>
-      </c>
-      <c r="G63" s="94">
-        <v>43124</v>
-      </c>
-      <c r="H63" s="94">
-        <v>43124</v>
-      </c>
-      <c r="I63" s="62"/>
+      <c r="D63" s="69">
+        <v>43123</v>
+      </c>
+      <c r="E63" s="69">
+        <v>43123</v>
+      </c>
+      <c r="F63" s="78">
+        <v>1</v>
+      </c>
+      <c r="G63" s="69">
+        <v>43123</v>
+      </c>
+      <c r="H63" s="69">
+        <v>43123</v>
+      </c>
+      <c r="I63" s="95"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="85"/>
+      <c r="A64" s="100"/>
       <c r="B64" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C64" s="49"/>
-      <c r="D64" s="82"/>
-      <c r="E64" s="82"/>
-      <c r="F64" s="105"/>
-      <c r="G64" s="82"/>
-      <c r="H64" s="82"/>
-      <c r="I64" s="62"/>
+      <c r="D64" s="60"/>
+      <c r="E64" s="60"/>
+      <c r="F64" s="79"/>
+      <c r="G64" s="60"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="95"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="85"/>
+      <c r="A65" s="100"/>
       <c r="B65" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C65" s="49"/>
-      <c r="D65" s="82"/>
-      <c r="E65" s="82"/>
-      <c r="F65" s="105"/>
-      <c r="G65" s="82"/>
-      <c r="H65" s="82"/>
-      <c r="I65" s="62"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="60"/>
+      <c r="F65" s="79"/>
+      <c r="G65" s="60"/>
+      <c r="H65" s="60"/>
+      <c r="I65" s="95"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92"/>
+      <c r="A66" s="101"/>
       <c r="B66" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C66" s="46"/>
-      <c r="D66" s="79"/>
-      <c r="E66" s="79"/>
-      <c r="F66" s="103"/>
-      <c r="G66" s="79"/>
-      <c r="H66" s="79"/>
-      <c r="I66" s="65"/>
+      <c r="D66" s="58"/>
+      <c r="E66" s="58"/>
+      <c r="F66" s="77"/>
+      <c r="G66" s="58"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="91"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="91" t="s">
-        <v>69</v>
-      </c>
-      <c r="B67" s="86" t="s">
+      <c r="A67" s="110" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C67" s="44">
         <v>1</v>
       </c>
-      <c r="D67" s="94">
+      <c r="D67" s="69">
         <v>43124</v>
       </c>
-      <c r="E67" s="94">
+      <c r="E67" s="69">
         <v>43124</v>
       </c>
-      <c r="F67" s="104">
-        <v>1</v>
-      </c>
-      <c r="G67" s="94">
+      <c r="F67" s="78">
+        <v>1</v>
+      </c>
+      <c r="G67" s="69">
         <v>43124</v>
       </c>
-      <c r="H67" s="94">
+      <c r="H67" s="69">
         <v>43124</v>
       </c>
-      <c r="I67" s="62"/>
+      <c r="I67" s="95"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="85"/>
+      <c r="A68" s="111"/>
       <c r="B68" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C68" s="49"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="82"/>
-      <c r="F68" s="105"/>
-      <c r="G68" s="82"/>
-      <c r="H68" s="82"/>
-      <c r="I68" s="62"/>
+      <c r="D68" s="60"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="79"/>
+      <c r="G68" s="60"/>
+      <c r="H68" s="60"/>
+      <c r="I68" s="95"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="85"/>
+      <c r="A69" s="111"/>
       <c r="B69" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C69" s="49"/>
-      <c r="D69" s="82"/>
-      <c r="E69" s="82"/>
-      <c r="F69" s="105"/>
-      <c r="G69" s="82"/>
-      <c r="H69" s="82"/>
-      <c r="I69" s="62"/>
+      <c r="D69" s="60"/>
+      <c r="E69" s="60"/>
+      <c r="F69" s="79"/>
+      <c r="G69" s="60"/>
+      <c r="H69" s="60"/>
+      <c r="I69" s="95"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="92"/>
+      <c r="A70" s="112"/>
       <c r="B70" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C70" s="46"/>
-      <c r="D70" s="79"/>
-      <c r="E70" s="79"/>
-      <c r="F70" s="103"/>
-      <c r="G70" s="79"/>
-      <c r="H70" s="79"/>
-      <c r="I70" s="65"/>
+      <c r="D70" s="58"/>
+      <c r="E70" s="58"/>
+      <c r="F70" s="77"/>
+      <c r="G70" s="58"/>
+      <c r="H70" s="58"/>
+      <c r="I70" s="91"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="B71" s="86" t="s">
+      <c r="A71" s="110" t="s">
+        <v>69</v>
+      </c>
+      <c r="B71" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C71" s="44">
         <v>1</v>
       </c>
-      <c r="D71" s="94">
-        <v>43125</v>
-      </c>
-      <c r="E71" s="94">
-        <v>43125</v>
-      </c>
-      <c r="F71" s="104">
-        <v>1</v>
-      </c>
-      <c r="G71" s="94">
-        <v>43125</v>
-      </c>
-      <c r="H71" s="94">
-        <v>43125</v>
-      </c>
-      <c r="I71" s="62"/>
+      <c r="D71" s="69">
+        <v>43124</v>
+      </c>
+      <c r="E71" s="69">
+        <v>43124</v>
+      </c>
+      <c r="F71" s="78">
+        <v>1</v>
+      </c>
+      <c r="G71" s="69">
+        <v>43124</v>
+      </c>
+      <c r="H71" s="69">
+        <v>43124</v>
+      </c>
+      <c r="I71" s="95"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="58"/>
+      <c r="A72" s="111"/>
       <c r="B72" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C72" s="49"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="105"/>
-      <c r="G72" s="82"/>
-      <c r="H72" s="82"/>
-      <c r="I72" s="62"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="79"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="95"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="58"/>
+      <c r="A73" s="111"/>
       <c r="B73" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C73" s="49"/>
-      <c r="D73" s="82"/>
-      <c r="E73" s="82"/>
-      <c r="F73" s="105"/>
-      <c r="G73" s="82"/>
-      <c r="H73" s="82"/>
-      <c r="I73" s="62"/>
+      <c r="D73" s="60"/>
+      <c r="E73" s="60"/>
+      <c r="F73" s="79"/>
+      <c r="G73" s="60"/>
+      <c r="H73" s="60"/>
+      <c r="I73" s="95"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="59"/>
+      <c r="A74" s="112"/>
       <c r="B74" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C74" s="46"/>
-      <c r="D74" s="79"/>
-      <c r="E74" s="79"/>
-      <c r="F74" s="103"/>
-      <c r="G74" s="79"/>
-      <c r="H74" s="79"/>
-      <c r="I74" s="65"/>
+      <c r="D74" s="58"/>
+      <c r="E74" s="58"/>
+      <c r="F74" s="77"/>
+      <c r="G74" s="58"/>
+      <c r="H74" s="58"/>
+      <c r="I74" s="91"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="57" t="s">
-        <v>56</v>
-      </c>
-      <c r="B75" s="86" t="s">
+      <c r="A75" s="99" t="s">
+        <v>15</v>
+      </c>
+      <c r="B75" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C75" s="44">
         <v>1</v>
       </c>
-      <c r="D75" s="94">
+      <c r="D75" s="69">
         <v>43125</v>
       </c>
-      <c r="E75" s="94">
+      <c r="E75" s="69">
         <v>43125</v>
       </c>
-      <c r="F75" s="104">
-        <v>1</v>
-      </c>
-      <c r="G75" s="94">
+      <c r="F75" s="78">
+        <v>1</v>
+      </c>
+      <c r="G75" s="69">
         <v>43125</v>
       </c>
-      <c r="H75" s="94">
+      <c r="H75" s="69">
         <v>43125</v>
       </c>
-      <c r="I75" s="62"/>
+      <c r="I75" s="95"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="58"/>
+      <c r="A76" s="100"/>
       <c r="B76" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C76" s="49"/>
-      <c r="D76" s="82"/>
-      <c r="E76" s="82"/>
-      <c r="F76" s="105"/>
-      <c r="G76" s="82"/>
-      <c r="I76" s="62"/>
+      <c r="D76" s="60"/>
+      <c r="E76" s="60"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="60"/>
+      <c r="H76" s="60"/>
+      <c r="I76" s="95"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="58"/>
+      <c r="A77" s="100"/>
       <c r="B77" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C77" s="49"/>
-      <c r="D77" s="82"/>
-      <c r="E77" s="82"/>
-      <c r="F77" s="105"/>
-      <c r="G77" s="82"/>
-      <c r="I77" s="62"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="60"/>
+      <c r="F77" s="79"/>
+      <c r="G77" s="60"/>
+      <c r="H77" s="60"/>
+      <c r="I77" s="95"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="59"/>
+      <c r="A78" s="101"/>
       <c r="B78" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C78" s="46"/>
-      <c r="D78" s="79"/>
-      <c r="E78" s="79"/>
-      <c r="F78" s="103"/>
-      <c r="G78" s="79"/>
-      <c r="H78" s="79"/>
-      <c r="I78" s="65"/>
+      <c r="D78" s="58"/>
+      <c r="E78" s="58"/>
+      <c r="F78" s="77"/>
+      <c r="G78" s="58"/>
+      <c r="H78" s="58"/>
+      <c r="I78" s="91"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="57" t="s">
-        <v>82</v>
-      </c>
-      <c r="B79" s="86" t="s">
+      <c r="A79" s="99" t="s">
+        <v>56</v>
+      </c>
+      <c r="B79" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C79" s="44">
         <v>1</v>
       </c>
-      <c r="D79" s="94">
-        <v>43126</v>
-      </c>
-      <c r="E79" s="94">
-        <v>43126</v>
-      </c>
-      <c r="F79" s="104">
-        <v>1</v>
-      </c>
-      <c r="G79" s="94">
-        <v>43126</v>
-      </c>
-      <c r="H79" s="94">
-        <v>43126</v>
-      </c>
-      <c r="I79" s="62"/>
+      <c r="D79" s="69">
+        <v>43125</v>
+      </c>
+      <c r="E79" s="69">
+        <v>43125</v>
+      </c>
+      <c r="F79" s="78">
+        <v>1</v>
+      </c>
+      <c r="G79" s="69">
+        <v>43125</v>
+      </c>
+      <c r="H79" s="69">
+        <v>43125</v>
+      </c>
+      <c r="I79" s="95"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="100"/>
       <c r="B80" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C80" s="49"/>
-      <c r="D80" s="82"/>
-      <c r="E80" s="82"/>
-      <c r="F80" s="105"/>
-      <c r="G80" s="82"/>
-      <c r="H80" s="82"/>
-      <c r="I80" s="62"/>
+      <c r="D80" s="60"/>
+      <c r="E80" s="60"/>
+      <c r="F80" s="79"/>
+      <c r="G80" s="60"/>
+      <c r="I80" s="95"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="100"/>
       <c r="B81" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C81" s="49"/>
-      <c r="D81" s="82"/>
-      <c r="E81" s="82"/>
-      <c r="F81" s="105"/>
-      <c r="G81" s="82"/>
-      <c r="H81" s="82"/>
-      <c r="I81" s="62"/>
+      <c r="D81" s="60"/>
+      <c r="E81" s="60"/>
+      <c r="F81" s="79"/>
+      <c r="G81" s="60"/>
+      <c r="I81" s="95"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="59"/>
+      <c r="A82" s="101"/>
       <c r="B82" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C82" s="46"/>
-      <c r="D82" s="79"/>
-      <c r="E82" s="79"/>
-      <c r="F82" s="103"/>
-      <c r="G82" s="79"/>
-      <c r="H82" s="79"/>
-      <c r="I82" s="65"/>
+      <c r="D82" s="58"/>
+      <c r="E82" s="58"/>
+      <c r="F82" s="77"/>
+      <c r="G82" s="58"/>
+      <c r="H82" s="58"/>
+      <c r="I82" s="91"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="57" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" s="86" t="s">
+      <c r="A83" s="99" t="s">
+        <v>82</v>
+      </c>
+      <c r="B83" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C83" s="44">
         <v>1</v>
       </c>
-      <c r="D83" s="94">
+      <c r="D83" s="69">
         <v>43126</v>
       </c>
-      <c r="E83" s="94">
+      <c r="E83" s="69">
         <v>43126</v>
       </c>
-      <c r="F83" s="104">
-        <v>1</v>
-      </c>
-      <c r="G83" s="94">
+      <c r="F83" s="78">
+        <v>1</v>
+      </c>
+      <c r="G83" s="69">
         <v>43126</v>
       </c>
-      <c r="H83" s="94">
+      <c r="H83" s="69">
         <v>43126</v>
       </c>
-      <c r="I83" s="62"/>
+      <c r="I83" s="95"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="100"/>
       <c r="B84" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C84" s="49"/>
-      <c r="D84" s="82"/>
-      <c r="E84" s="82"/>
-      <c r="F84" s="105"/>
-      <c r="G84" s="82"/>
-      <c r="H84" s="82"/>
-      <c r="I84" s="62"/>
+      <c r="D84" s="60"/>
+      <c r="E84" s="60"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="60"/>
+      <c r="H84" s="60"/>
+      <c r="I84" s="95"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="100"/>
       <c r="B85" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C85" s="49"/>
-      <c r="D85" s="82"/>
-      <c r="E85" s="82"/>
-      <c r="F85" s="105"/>
-      <c r="G85" s="82"/>
-      <c r="H85" s="82"/>
-      <c r="I85" s="62"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="60"/>
+      <c r="F85" s="79"/>
+      <c r="G85" s="60"/>
+      <c r="H85" s="60"/>
+      <c r="I85" s="95"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="59"/>
+      <c r="A86" s="101"/>
       <c r="B86" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C86" s="46"/>
-      <c r="D86" s="79"/>
-      <c r="E86" s="79"/>
-      <c r="F86" s="103"/>
-      <c r="G86" s="79"/>
-      <c r="H86" s="79"/>
-      <c r="I86" s="65"/>
+      <c r="D86" s="58"/>
+      <c r="E86" s="58"/>
+      <c r="F86" s="77"/>
+      <c r="G86" s="58"/>
+      <c r="H86" s="58"/>
+      <c r="I86" s="91"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="B87" s="86" t="s">
+      <c r="A87" s="99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B87" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C87" s="44">
         <v>1</v>
       </c>
-      <c r="D87" s="94">
-        <v>43127</v>
-      </c>
-      <c r="E87" s="94">
-        <v>43127</v>
-      </c>
-      <c r="F87" s="104">
-        <v>1</v>
-      </c>
-      <c r="G87" s="94">
-        <v>43127</v>
-      </c>
-      <c r="H87" s="94">
-        <v>43127</v>
-      </c>
-      <c r="I87" s="62"/>
+      <c r="D87" s="69">
+        <v>43126</v>
+      </c>
+      <c r="E87" s="69">
+        <v>43126</v>
+      </c>
+      <c r="F87" s="78">
+        <v>1</v>
+      </c>
+      <c r="G87" s="69">
+        <v>43126</v>
+      </c>
+      <c r="H87" s="69">
+        <v>43126</v>
+      </c>
+      <c r="I87" s="95"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="85"/>
+      <c r="A88" s="100"/>
       <c r="B88" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C88" s="49"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="105"/>
-      <c r="G88" s="82"/>
-      <c r="I88" s="62"/>
+      <c r="D88" s="60"/>
+      <c r="E88" s="60"/>
+      <c r="F88" s="79"/>
+      <c r="G88" s="60"/>
+      <c r="H88" s="60"/>
+      <c r="I88" s="95"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="85"/>
+      <c r="A89" s="100"/>
       <c r="B89" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C89" s="49"/>
-      <c r="D89" s="82"/>
-      <c r="E89" s="82"/>
-      <c r="F89" s="105"/>
-      <c r="G89" s="82"/>
-      <c r="I89" s="62"/>
+      <c r="D89" s="60"/>
+      <c r="E89" s="60"/>
+      <c r="F89" s="79"/>
+      <c r="G89" s="60"/>
+      <c r="H89" s="60"/>
+      <c r="I89" s="95"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92"/>
+      <c r="A90" s="101"/>
       <c r="B90" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C90" s="46"/>
-      <c r="D90" s="79"/>
-      <c r="E90" s="79"/>
-      <c r="F90" s="103"/>
-      <c r="G90" s="79"/>
-      <c r="H90" s="79"/>
-      <c r="I90" s="65"/>
+      <c r="D90" s="58"/>
+      <c r="E90" s="58"/>
+      <c r="F90" s="77"/>
+      <c r="G90" s="58"/>
+      <c r="H90" s="58"/>
+      <c r="I90" s="91"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="B91" s="52" t="s">
+      <c r="A91" s="110" t="s">
+        <v>101</v>
+      </c>
+      <c r="B91" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C91" s="44">
         <v>1</v>
       </c>
-      <c r="D91" s="94">
+      <c r="D91" s="69">
         <v>43127</v>
       </c>
-      <c r="E91" s="94">
+      <c r="E91" s="69">
         <v>43127</v>
       </c>
-      <c r="F91" s="104">
-        <v>1</v>
-      </c>
-      <c r="G91" s="94">
+      <c r="F91" s="78">
+        <v>1</v>
+      </c>
+      <c r="G91" s="69">
         <v>43127</v>
       </c>
-      <c r="H91" s="94">
+      <c r="H91" s="69">
         <v>43127</v>
       </c>
-      <c r="I91" s="61"/>
+      <c r="I91" s="95"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="85"/>
+      <c r="A92" s="111"/>
       <c r="B92" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I92" s="62"/>
+      <c r="C92" s="49"/>
+      <c r="D92" s="60"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="79"/>
+      <c r="G92" s="60"/>
+      <c r="I92" s="95"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="85"/>
+      <c r="A93" s="111"/>
       <c r="B93" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I93" s="62"/>
+      <c r="C93" s="49"/>
+      <c r="D93" s="60"/>
+      <c r="E93" s="60"/>
+      <c r="F93" s="79"/>
+      <c r="G93" s="60"/>
+      <c r="I93" s="95"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="92"/>
+      <c r="A94" s="112"/>
       <c r="B94" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C94" s="46"/>
-      <c r="D94" s="79"/>
-      <c r="E94" s="79"/>
-      <c r="F94" s="103"/>
-      <c r="G94" s="79"/>
-      <c r="H94" s="79"/>
-      <c r="I94" s="65"/>
+      <c r="D94" s="58"/>
+      <c r="E94" s="58"/>
+      <c r="F94" s="77"/>
+      <c r="G94" s="58"/>
+      <c r="H94" s="58"/>
+      <c r="I94" s="91"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="91" t="s">
-        <v>102</v>
+      <c r="A95" s="110" t="s">
+        <v>109</v>
       </c>
       <c r="B95" s="52" t="s">
         <v>119</v>
@@ -3612,53 +3643,53 @@
       <c r="C95" s="44">
         <v>1</v>
       </c>
-      <c r="D95" s="94">
+      <c r="D95" s="69">
         <v>43127</v>
       </c>
-      <c r="E95" s="94">
+      <c r="E95" s="69">
         <v>43127</v>
       </c>
-      <c r="F95" s="104">
-        <v>1</v>
-      </c>
-      <c r="G95" s="94">
+      <c r="F95" s="78">
+        <v>1</v>
+      </c>
+      <c r="G95" s="69">
         <v>43127</v>
       </c>
-      <c r="H95" s="94">
+      <c r="H95" s="69">
         <v>43127</v>
       </c>
-      <c r="I95" s="62"/>
+      <c r="I95" s="89"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="85"/>
+      <c r="A96" s="111"/>
       <c r="B96" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I96" s="62"/>
+      <c r="I96" s="95"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="85"/>
+      <c r="A97" s="111"/>
       <c r="B97" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I97" s="62"/>
+      <c r="I97" s="95"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="92"/>
+      <c r="A98" s="112"/>
       <c r="B98" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C98" s="46"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="103"/>
-      <c r="G98" s="79"/>
-      <c r="H98" s="79"/>
-      <c r="I98" s="65"/>
+      <c r="D98" s="58"/>
+      <c r="E98" s="58"/>
+      <c r="F98" s="77"/>
+      <c r="G98" s="58"/>
+      <c r="H98" s="58"/>
+      <c r="I98" s="91"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="91" t="s">
-        <v>104</v>
+      <c r="A99" s="110" t="s">
+        <v>102</v>
       </c>
       <c r="B99" s="52" t="s">
         <v>119</v>
@@ -3666,173 +3697,173 @@
       <c r="C99" s="44">
         <v>1</v>
       </c>
-      <c r="D99" s="94">
-        <v>43128</v>
-      </c>
-      <c r="E99" s="94">
-        <v>43128</v>
-      </c>
-      <c r="F99" s="104">
-        <v>1</v>
-      </c>
-      <c r="G99" s="94">
-        <v>43128</v>
-      </c>
-      <c r="H99" s="94">
-        <v>43128</v>
-      </c>
-      <c r="I99" s="62"/>
+      <c r="D99" s="69">
+        <v>43127</v>
+      </c>
+      <c r="E99" s="69">
+        <v>43127</v>
+      </c>
+      <c r="F99" s="78">
+        <v>1</v>
+      </c>
+      <c r="G99" s="69">
+        <v>43127</v>
+      </c>
+      <c r="H99" s="69">
+        <v>43127</v>
+      </c>
+      <c r="I99" s="95"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="85"/>
+      <c r="A100" s="111"/>
       <c r="B100" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I100" s="62"/>
+      <c r="I100" s="95"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
+      <c r="A101" s="111"/>
       <c r="B101" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I101" s="62"/>
+      <c r="I101" s="95"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92"/>
+      <c r="A102" s="112"/>
       <c r="B102" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C102" s="46"/>
-      <c r="D102" s="79"/>
-      <c r="E102" s="79"/>
-      <c r="F102" s="103"/>
-      <c r="G102" s="79"/>
-      <c r="H102" s="79"/>
-      <c r="I102" s="65"/>
+      <c r="D102" s="58"/>
+      <c r="E102" s="58"/>
+      <c r="F102" s="77"/>
+      <c r="G102" s="58"/>
+      <c r="H102" s="58"/>
+      <c r="I102" s="91"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="57" t="s">
-        <v>103</v>
-      </c>
-      <c r="B103" s="86" t="s">
+      <c r="A103" s="110" t="s">
+        <v>104</v>
+      </c>
+      <c r="B103" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C103" s="44">
         <v>1</v>
       </c>
-      <c r="D103" s="94">
+      <c r="D103" s="69">
         <v>43128</v>
       </c>
-      <c r="E103" s="94">
+      <c r="E103" s="69">
         <v>43128</v>
       </c>
-      <c r="F103" s="104">
-        <v>1</v>
-      </c>
-      <c r="G103" s="94">
+      <c r="F103" s="78">
+        <v>1</v>
+      </c>
+      <c r="G103" s="69">
         <v>43128</v>
       </c>
-      <c r="H103" s="94">
+      <c r="H103" s="69">
         <v>43128</v>
       </c>
-      <c r="I103" s="62"/>
+      <c r="I103" s="95"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="58"/>
+      <c r="A104" s="111"/>
       <c r="B104" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C104" s="49"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="105"/>
-      <c r="G104" s="82"/>
-      <c r="H104" s="82"/>
-      <c r="I104" s="62"/>
+      <c r="I104" s="95"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="58"/>
+      <c r="A105" s="111"/>
       <c r="B105" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="82"/>
-      <c r="E105" s="82"/>
-      <c r="F105" s="105"/>
-      <c r="G105" s="82"/>
-      <c r="H105" s="82"/>
-      <c r="I105" s="62"/>
+      <c r="I105" s="95"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="59"/>
+      <c r="A106" s="112"/>
       <c r="B106" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C106" s="46"/>
-      <c r="D106" s="79"/>
-      <c r="E106" s="79"/>
-      <c r="F106" s="103"/>
-      <c r="G106" s="79"/>
-      <c r="H106" s="79"/>
-      <c r="I106" s="65"/>
+      <c r="D106" s="58"/>
+      <c r="E106" s="58"/>
+      <c r="F106" s="77"/>
+      <c r="G106" s="58"/>
+      <c r="H106" s="58"/>
+      <c r="I106" s="91"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="57" t="s">
-        <v>105</v>
-      </c>
-      <c r="B107" s="52" t="s">
+      <c r="A107" s="99" t="s">
+        <v>103</v>
+      </c>
+      <c r="B107" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C107" s="44">
         <v>1</v>
       </c>
-      <c r="D107" s="94">
-        <v>43129</v>
-      </c>
-      <c r="E107" s="94">
-        <v>43129</v>
-      </c>
-      <c r="F107" s="104">
-        <v>1</v>
-      </c>
-      <c r="G107" s="94">
-        <v>43129</v>
-      </c>
-      <c r="H107" s="94">
-        <v>43129</v>
-      </c>
-      <c r="I107" s="62"/>
+      <c r="D107" s="69">
+        <v>43128</v>
+      </c>
+      <c r="E107" s="69">
+        <v>43128</v>
+      </c>
+      <c r="F107" s="78">
+        <v>1</v>
+      </c>
+      <c r="G107" s="69">
+        <v>43128</v>
+      </c>
+      <c r="H107" s="69">
+        <v>43128</v>
+      </c>
+      <c r="I107" s="95"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="58"/>
+      <c r="A108" s="100"/>
       <c r="B108" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I108" s="62"/>
+      <c r="C108" s="49"/>
+      <c r="D108" s="60"/>
+      <c r="E108" s="60"/>
+      <c r="F108" s="79"/>
+      <c r="G108" s="60"/>
+      <c r="H108" s="60"/>
+      <c r="I108" s="95"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="58"/>
+      <c r="A109" s="100"/>
       <c r="B109" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I109" s="62"/>
+      <c r="C109" s="49"/>
+      <c r="D109" s="60"/>
+      <c r="E109" s="60"/>
+      <c r="F109" s="79"/>
+      <c r="G109" s="60"/>
+      <c r="H109" s="60"/>
+      <c r="I109" s="95"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="59"/>
+      <c r="A110" s="101"/>
       <c r="B110" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C110" s="46"/>
-      <c r="D110" s="79"/>
-      <c r="E110" s="79"/>
-      <c r="F110" s="103"/>
-      <c r="G110" s="79"/>
-      <c r="H110" s="79"/>
-      <c r="I110" s="65"/>
+      <c r="D110" s="58"/>
+      <c r="E110" s="58"/>
+      <c r="F110" s="77"/>
+      <c r="G110" s="58"/>
+      <c r="H110" s="58"/>
+      <c r="I110" s="91"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="57" t="s">
-        <v>108</v>
+      <c r="A111" s="99" t="s">
+        <v>105</v>
       </c>
       <c r="B111" s="52" t="s">
         <v>119</v>
@@ -3840,398 +3871,454 @@
       <c r="C111" s="44">
         <v>1</v>
       </c>
-      <c r="D111" s="94">
+      <c r="D111" s="69">
         <v>43129</v>
       </c>
-      <c r="E111" s="94">
+      <c r="E111" s="69">
         <v>43129</v>
       </c>
-      <c r="F111" s="104">
-        <v>1</v>
-      </c>
-      <c r="G111" s="94">
+      <c r="F111" s="78">
+        <v>1</v>
+      </c>
+      <c r="G111" s="69">
         <v>43129</v>
       </c>
-      <c r="H111" s="94">
+      <c r="H111" s="69">
         <v>43129</v>
       </c>
-      <c r="I111" s="62"/>
+      <c r="I111" s="95"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="58"/>
+      <c r="A112" s="100"/>
       <c r="B112" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="I112" s="62"/>
+      <c r="I112" s="95"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="58"/>
+      <c r="A113" s="100"/>
       <c r="B113" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="I113" s="62"/>
+      <c r="I113" s="95"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="59"/>
+      <c r="A114" s="101"/>
       <c r="B114" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C114" s="46"/>
-      <c r="D114" s="79"/>
-      <c r="E114" s="79"/>
-      <c r="F114" s="103"/>
-      <c r="G114" s="79"/>
-      <c r="H114" s="79"/>
-      <c r="I114" s="65"/>
-    </row>
-    <row r="115" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="57" t="s">
+      <c r="D114" s="58"/>
+      <c r="E114" s="58"/>
+      <c r="F114" s="77"/>
+      <c r="G114" s="58"/>
+      <c r="H114" s="58"/>
+      <c r="I114" s="91"/>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A115" s="99" t="s">
+        <v>108</v>
+      </c>
+      <c r="B115" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C115" s="44">
+        <v>1</v>
+      </c>
+      <c r="D115" s="69">
+        <v>43129</v>
+      </c>
+      <c r="E115" s="69">
+        <v>43129</v>
+      </c>
+      <c r="F115" s="78">
+        <v>1</v>
+      </c>
+      <c r="G115" s="69">
+        <v>43129</v>
+      </c>
+      <c r="H115" s="69">
+        <v>43129</v>
+      </c>
+      <c r="I115" s="95"/>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A116" s="100"/>
+      <c r="B116" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="I116" s="95"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="100"/>
+      <c r="B117" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I117" s="95"/>
+    </row>
+    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="101"/>
+      <c r="B118" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C118" s="46"/>
+      <c r="D118" s="58"/>
+      <c r="E118" s="58"/>
+      <c r="F118" s="77"/>
+      <c r="G118" s="58"/>
+      <c r="H118" s="58"/>
+      <c r="I118" s="91"/>
+    </row>
+    <row r="119" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="99" t="s">
         <v>27</v>
       </c>
-      <c r="B115" s="86" t="s">
+      <c r="B119" s="63" t="s">
         <v>122</v>
       </c>
-      <c r="C115" s="44"/>
-      <c r="D115" s="94"/>
-      <c r="E115" s="94"/>
-      <c r="F115" s="83"/>
-      <c r="G115" s="100"/>
-      <c r="H115" s="100"/>
-      <c r="I115" s="62"/>
-    </row>
-    <row r="116" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="58"/>
-      <c r="B116" s="52" t="s">
+      <c r="C119" s="44"/>
+      <c r="D119" s="69"/>
+      <c r="E119" s="69"/>
+      <c r="F119" s="61"/>
+      <c r="G119" s="74"/>
+      <c r="H119" s="74"/>
+      <c r="I119" s="95"/>
+    </row>
+    <row r="120" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="100"/>
+      <c r="B120" s="52" t="s">
         <v>120</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="78"/>
-      <c r="E116" s="84"/>
-      <c r="F116" s="83"/>
-      <c r="G116" s="101"/>
-      <c r="H116" s="82"/>
-      <c r="I116" s="62"/>
-    </row>
-    <row r="117" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="58"/>
-      <c r="B117" s="52" t="s">
+      <c r="C120" s="49"/>
+      <c r="D120" s="57"/>
+      <c r="E120" s="62"/>
+      <c r="F120" s="61"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="60"/>
+      <c r="I120" s="95"/>
+    </row>
+    <row r="121" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="100"/>
+      <c r="B121" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C117" s="49"/>
-      <c r="D117" s="78"/>
-      <c r="E117" s="84"/>
-      <c r="F117" s="83"/>
-      <c r="G117" s="101"/>
-      <c r="H117" s="82"/>
-      <c r="I117" s="62"/>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="59"/>
-      <c r="B118" s="51" t="s">
+      <c r="C121" s="49"/>
+      <c r="D121" s="57"/>
+      <c r="E121" s="62"/>
+      <c r="F121" s="61"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="60"/>
+      <c r="I121" s="95"/>
+    </row>
+    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="101"/>
+      <c r="B122" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="93"/>
-      <c r="E118" s="95"/>
-      <c r="F118" s="103"/>
-      <c r="G118" s="99"/>
-      <c r="H118" s="79"/>
-      <c r="I118" s="65"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="91" t="s">
+      <c r="C122" s="46"/>
+      <c r="D122" s="68"/>
+      <c r="E122" s="70"/>
+      <c r="F122" s="77"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="58"/>
+      <c r="I122" s="91"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A123" s="110" t="s">
         <v>54</v>
       </c>
-      <c r="B119" s="86" t="s">
+      <c r="B123" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="C119" s="44"/>
-      <c r="D119" s="94"/>
-      <c r="E119" s="94"/>
-      <c r="F119" s="104"/>
-      <c r="G119" s="94"/>
-      <c r="H119" s="94"/>
-      <c r="I119" s="62"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
-      <c r="B120" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C120" s="49"/>
-      <c r="D120" s="82"/>
-      <c r="E120" s="82"/>
-      <c r="F120" s="105"/>
-      <c r="G120" s="82"/>
-      <c r="H120" s="82"/>
-      <c r="I120" s="62"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
-      <c r="B121" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="C121" s="49"/>
-      <c r="D121" s="82"/>
-      <c r="E121" s="82"/>
-      <c r="F121" s="105"/>
-      <c r="G121" s="82"/>
-      <c r="H121" s="82"/>
-      <c r="I121" s="62"/>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="92"/>
-      <c r="B122" s="51" t="s">
-        <v>122</v>
-      </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="79"/>
-      <c r="E122" s="79"/>
-      <c r="F122" s="103"/>
-      <c r="G122" s="79"/>
-      <c r="H122" s="79"/>
-      <c r="I122" s="65"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="57" t="s">
-        <v>55</v>
-      </c>
-      <c r="B123" s="86" t="s">
-        <v>119</v>
-      </c>
       <c r="C123" s="44"/>
-      <c r="D123" s="94"/>
-      <c r="E123" s="94"/>
-      <c r="F123" s="104"/>
-      <c r="G123" s="94"/>
-      <c r="H123" s="94"/>
-      <c r="I123" s="62"/>
+      <c r="D123" s="69"/>
+      <c r="E123" s="69"/>
+      <c r="F123" s="78"/>
+      <c r="G123" s="69"/>
+      <c r="H123" s="69"/>
+      <c r="I123" s="95"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="58"/>
+      <c r="A124" s="111"/>
       <c r="B124" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C124" s="49"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="105"/>
-      <c r="G124" s="82"/>
-      <c r="H124" s="82"/>
-      <c r="I124" s="62"/>
+      <c r="D124" s="60"/>
+      <c r="E124" s="60"/>
+      <c r="F124" s="79"/>
+      <c r="G124" s="60"/>
+      <c r="H124" s="60"/>
+      <c r="I124" s="95"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="58"/>
+      <c r="A125" s="111"/>
       <c r="B125" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C125" s="49"/>
-      <c r="D125" s="82"/>
-      <c r="E125" s="82"/>
-      <c r="F125" s="105"/>
-      <c r="G125" s="82"/>
-      <c r="H125" s="82"/>
-      <c r="I125" s="62"/>
+      <c r="D125" s="60"/>
+      <c r="E125" s="60"/>
+      <c r="F125" s="79"/>
+      <c r="G125" s="60"/>
+      <c r="H125" s="60"/>
+      <c r="I125" s="95"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="59"/>
+      <c r="A126" s="112"/>
       <c r="B126" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C126" s="46"/>
-      <c r="D126" s="79"/>
-      <c r="E126" s="79"/>
-      <c r="F126" s="103"/>
-      <c r="G126" s="79"/>
-      <c r="H126" s="79"/>
-      <c r="I126" s="65"/>
+      <c r="D126" s="58"/>
+      <c r="E126" s="58"/>
+      <c r="F126" s="77"/>
+      <c r="G126" s="58"/>
+      <c r="H126" s="58"/>
+      <c r="I126" s="91"/>
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="108" t="s">
-        <v>84</v>
-      </c>
-      <c r="B127" s="86" t="s">
+      <c r="A127" s="99" t="s">
+        <v>55</v>
+      </c>
+      <c r="B127" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C127" s="44"/>
-      <c r="D127" s="94"/>
-      <c r="E127" s="94"/>
-      <c r="F127" s="104"/>
-      <c r="G127" s="94"/>
-      <c r="H127" s="94"/>
-      <c r="I127" s="62"/>
+      <c r="D127" s="69"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="78"/>
+      <c r="G127" s="69"/>
+      <c r="H127" s="69"/>
+      <c r="I127" s="95"/>
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="80"/>
+      <c r="A128" s="100"/>
       <c r="B128" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C128" s="49"/>
-      <c r="D128" s="82"/>
-      <c r="E128" s="82"/>
-      <c r="F128" s="105"/>
-      <c r="G128" s="82"/>
-      <c r="H128" s="82"/>
-      <c r="I128" s="62"/>
+      <c r="D128" s="60"/>
+      <c r="E128" s="60"/>
+      <c r="F128" s="79"/>
+      <c r="G128" s="60"/>
+      <c r="H128" s="60"/>
+      <c r="I128" s="95"/>
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="106" t="s">
-        <v>135</v>
-      </c>
+      <c r="A129" s="100"/>
       <c r="B129" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C129" s="49"/>
-      <c r="D129" s="82"/>
-      <c r="E129" s="82"/>
-      <c r="F129" s="105"/>
-      <c r="G129" s="82"/>
-      <c r="H129" s="82"/>
-      <c r="I129" s="62"/>
+      <c r="D129" s="60"/>
+      <c r="E129" s="60"/>
+      <c r="F129" s="79"/>
+      <c r="G129" s="60"/>
+      <c r="H129" s="60"/>
+      <c r="I129" s="95"/>
     </row>
     <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="107"/>
+      <c r="A130" s="101"/>
       <c r="B130" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C130" s="46"/>
-      <c r="D130" s="79"/>
-      <c r="E130" s="79"/>
-      <c r="F130" s="103"/>
-      <c r="G130" s="79"/>
-      <c r="H130" s="79"/>
-      <c r="I130" s="65"/>
+      <c r="D130" s="58"/>
+      <c r="E130" s="58"/>
+      <c r="F130" s="77"/>
+      <c r="G130" s="58"/>
+      <c r="H130" s="58"/>
+      <c r="I130" s="91"/>
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="108" t="s">
-        <v>43</v>
-      </c>
-      <c r="B131" s="86" t="s">
+      <c r="A131" s="106" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="63" t="s">
         <v>119</v>
       </c>
       <c r="C131" s="44"/>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="104"/>
-      <c r="G131" s="94"/>
-      <c r="H131" s="94"/>
-      <c r="I131" s="62"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="69"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="95"/>
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="80"/>
+      <c r="A132" s="107"/>
       <c r="B132" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C132" s="49"/>
-      <c r="D132" s="82"/>
-      <c r="E132" s="82"/>
-      <c r="F132" s="105"/>
-      <c r="G132" s="82"/>
-      <c r="H132" s="82"/>
-      <c r="I132" s="62"/>
+      <c r="D132" s="60"/>
+      <c r="E132" s="60"/>
+      <c r="F132" s="79"/>
+      <c r="G132" s="60"/>
+      <c r="H132" s="60"/>
+      <c r="I132" s="95"/>
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="106" t="s">
+      <c r="A133" s="108" t="s">
         <v>135</v>
       </c>
       <c r="B133" s="52" t="s">
         <v>120</v>
       </c>
       <c r="C133" s="49"/>
-      <c r="D133" s="82"/>
-      <c r="E133" s="82"/>
-      <c r="F133" s="105"/>
-      <c r="G133" s="82"/>
-      <c r="H133" s="82"/>
-      <c r="I133" s="62"/>
+      <c r="D133" s="60"/>
+      <c r="E133" s="60"/>
+      <c r="F133" s="79"/>
+      <c r="G133" s="60"/>
+      <c r="H133" s="60"/>
+      <c r="I133" s="95"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="107"/>
+      <c r="A134" s="109"/>
       <c r="B134" s="51" t="s">
         <v>122</v>
       </c>
       <c r="C134" s="46"/>
-      <c r="D134" s="79"/>
-      <c r="E134" s="79"/>
-      <c r="F134" s="103"/>
-      <c r="G134" s="79"/>
-      <c r="H134" s="79"/>
-      <c r="I134" s="65"/>
+      <c r="D134" s="58"/>
+      <c r="E134" s="58"/>
+      <c r="F134" s="77"/>
+      <c r="G134" s="58"/>
+      <c r="H134" s="58"/>
+      <c r="I134" s="91"/>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A135" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="B135" s="63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C135" s="44"/>
+      <c r="D135" s="69"/>
+      <c r="E135" s="69"/>
+      <c r="F135" s="78"/>
+      <c r="G135" s="69"/>
+      <c r="H135" s="69"/>
+      <c r="I135" s="95"/>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A136" s="107"/>
+      <c r="B136" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C136" s="49"/>
+      <c r="D136" s="60"/>
+      <c r="E136" s="60"/>
+      <c r="F136" s="79"/>
+      <c r="G136" s="60"/>
+      <c r="H136" s="60"/>
+      <c r="I136" s="95"/>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A137" s="108" t="s">
+        <v>135</v>
+      </c>
+      <c r="B137" s="52" t="s">
+        <v>120</v>
+      </c>
+      <c r="C137" s="49"/>
+      <c r="D137" s="60"/>
+      <c r="E137" s="60"/>
+      <c r="F137" s="79"/>
+      <c r="G137" s="60"/>
+      <c r="H137" s="60"/>
+      <c r="I137" s="95"/>
+    </row>
+    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="109"/>
+      <c r="B138" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="C138" s="46"/>
+      <c r="D138" s="58"/>
+      <c r="E138" s="58"/>
+      <c r="F138" s="77"/>
+      <c r="G138" s="58"/>
+      <c r="H138" s="58"/>
+      <c r="I138" s="91"/>
     </row>
   </sheetData>
-  <mergeCells count="72">
-    <mergeCell ref="I107:I110"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="A131:A132"/>
-    <mergeCell ref="A133:A134"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="I127:I130"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
+  <mergeCells count="74">
     <mergeCell ref="I11:I14"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="I131:I134"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A127:A128"/>
-    <mergeCell ref="A129:A130"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A14"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A123:A126"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A71:A74"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A55:A58"/>
+    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A91:A94"/>
+    <mergeCell ref="A107:A110"/>
+    <mergeCell ref="A99:A102"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I7:I10"/>
+    <mergeCell ref="I15:I18"/>
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I27:I30"/>
+    <mergeCell ref="I31:I34"/>
+    <mergeCell ref="I35:I38"/>
+    <mergeCell ref="I39:I42"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="I47:I50"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="A79:A82"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="I51:I54"/>
+    <mergeCell ref="I91:I94"/>
+    <mergeCell ref="I107:I110"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="I103:I106"/>
+    <mergeCell ref="I75:I78"/>
+    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="I87:I90"/>
+    <mergeCell ref="I55:I58"/>
+    <mergeCell ref="I59:I62"/>
+    <mergeCell ref="I63:I66"/>
+    <mergeCell ref="I67:I70"/>
+    <mergeCell ref="I71:I74"/>
+    <mergeCell ref="I111:I114"/>
+    <mergeCell ref="I115:I118"/>
+    <mergeCell ref="I95:I98"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
+    <mergeCell ref="A95:A98"/>
+    <mergeCell ref="I131:I134"/>
+    <mergeCell ref="I119:I122"/>
+    <mergeCell ref="I135:I138"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="A131:A132"/>
+    <mergeCell ref="A133:A134"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4241,7 +4328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4253,33 +4340,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="102" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="102" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="81" t="s">
+      <c r="D1" s="114" t="s">
         <v>126</v>
       </c>
-      <c r="E1" s="81"/>
+      <c r="E1" s="114"/>
       <c r="F1" s="47" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="64"/>
-      <c r="B2" s="64"/>
+      <c r="A2" s="103"/>
+      <c r="B2" s="103"/>
       <c r="C2" s="46" t="s">
         <v>123</v>
       </c>
-      <c r="D2" s="79" t="s">
+      <c r="D2" s="58" t="s">
         <v>127</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="58" t="s">
         <v>128</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -4287,7 +4374,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="89" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4296,15 +4383,15 @@
       <c r="C3" s="30">
         <v>10</v>
       </c>
-      <c r="D3" s="109">
+      <c r="D3" s="81">
         <v>43118</v>
       </c>
-      <c r="E3" s="109">
+      <c r="E3" s="81">
         <v>43128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="62"/>
+      <c r="A4" s="95"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4313,7 +4400,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="62"/>
+      <c r="A5" s="95"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4322,7 +4409,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="62"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -4331,7 +4418,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
+      <c r="A7" s="95"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4340,7 +4427,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="62"/>
+      <c r="A8" s="95"/>
       <c r="B8" s="8" t="s">
         <v>116</v>
       </c>
@@ -4352,7 +4439,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="61" t="s">
+      <c r="A9" s="89" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4360,13 +4447,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="62"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="65"/>
+      <c r="A11" s="91"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -4396,7 +4483,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="61" t="s">
+      <c r="A14" s="89" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -4404,13 +4491,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="62"/>
+      <c r="A15" s="95"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="65"/>
+      <c r="A16" s="91"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -4420,7 +4507,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="61" t="s">
+      <c r="A17" s="89" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4428,25 +4515,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="90"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="90"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="74"/>
+      <c r="A20" s="90"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="65"/>
+      <c r="A21" s="91"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -4492,7 +4579,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
+      <c r="A25" s="82" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4500,13 +4587,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="70"/>
+      <c r="A26" s="83"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="69"/>
+      <c r="A27" s="84"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -4528,7 +4615,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="68" t="s">
+      <c r="A29" s="82" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4536,33 +4623,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="71" t="s">
+      <c r="A31" s="98"/>
+      <c r="B31" s="96" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="71"/>
+      <c r="A32" s="98"/>
+      <c r="B32" s="96"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="71" t="s">
+      <c r="A33" s="98"/>
+      <c r="B33" s="96" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="71"/>
+      <c r="A34" s="98"/>
+      <c r="B34" s="96"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="69"/>
+      <c r="A35" s="84"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -4584,7 +4671,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="68" t="s">
+      <c r="A37" s="82" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4592,19 +4679,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="70"/>
+      <c r="A38" s="83"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="70"/>
+      <c r="A39" s="83"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="70"/>
+      <c r="A40" s="83"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -4626,7 +4713,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="68" t="s">
+      <c r="A42" s="82" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4634,7 +4721,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="69"/>
+      <c r="A43" s="84"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -4644,7 +4731,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="68" t="s">
+      <c r="A44" s="82" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4652,25 +4739,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="70"/>
+      <c r="A45" s="83"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="70"/>
+      <c r="A46" s="83"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="70"/>
+      <c r="A47" s="83"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="69"/>
+      <c r="A48" s="84"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -4680,7 +4767,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="68" t="s">
+      <c r="A49" s="82" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4688,13 +4775,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="70"/>
+      <c r="A50" s="83"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="69"/>
+      <c r="A51" s="84"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -4729,6 +4816,10 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
@@ -4740,10 +4831,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="144">
   <si>
     <t>Página</t>
   </si>
@@ -450,13 +450,22 @@
   </si>
   <si>
     <t>getInformations/getInformations(StartDate,EndDate)</t>
+  </si>
+  <si>
+    <t>getActiveContests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We need to Add filter by Prizing Rule, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">but we don't have defined the prizings yet </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +486,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -528,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -749,6 +765,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -821,6 +861,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -832,9 +875,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1145,37 +1185,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="91" t="s">
+      <c r="B1" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="99" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="91" t="s">
+      <c r="D1" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="91"/>
-      <c r="F1" s="94" t="s">
+      <c r="E1" s="99"/>
+      <c r="F1" s="102" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="95"/>
+      <c r="F2" s="103"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1195,7 +1235,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1211,7 +1251,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1227,7 +1267,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1243,7 +1283,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1259,7 +1299,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1273,7 +1313,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1282,7 +1322,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="83" t="s">
+      <c r="D9" s="91" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1293,27 +1333,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="88"/>
+      <c r="D10" s="96"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="92"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1356,47 +1396,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="90" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="82">
+      <c r="E14" s="90">
         <v>0.5</v>
       </c>
-      <c r="F14" s="85" t="s">
+      <c r="F14" s="93" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="86"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="94"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="87"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="95"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1405,7 +1445,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="82" t="s">
+      <c r="D17" s="90" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1416,53 +1456,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="83"/>
+      <c r="D18" s="91"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="83"/>
+      <c r="D19" s="91"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="83"/>
+      <c r="D20" s="91"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="84"/>
+      <c r="D21" s="92"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1525,7 +1565,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="106" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1534,7 +1574,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="82" t="s">
+      <c r="D25" s="90" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1545,27 +1585,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="88"/>
+      <c r="D26" s="96"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="84"/>
+      <c r="D27" s="92"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1592,7 +1632,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="106" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1609,7 +1649,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1624,14 +1664,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="104" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="88">
+      <c r="D31" s="96">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1642,25 +1682,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="96"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="104"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="88"/>
+      <c r="D32" s="96"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="109"/>
+      <c r="B33" s="104" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="88">
+      <c r="D33" s="96">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1671,12 +1711,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="104"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="88"/>
+      <c r="D34" s="96"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1685,7 +1725,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1723,7 +1763,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="106" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1743,7 +1783,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1758,7 +1798,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1773,8 +1813,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="99"/>
-      <c r="B40" s="96" t="s">
+      <c r="A40" s="107"/>
+      <c r="B40" s="104" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1788,8 +1828,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="100"/>
-      <c r="B41" s="97"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="105"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -1820,7 +1860,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1829,7 +1869,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="82" t="s">
+      <c r="D43" s="90" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -1840,14 +1880,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="100"/>
+      <c r="A44" s="108"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="84"/>
+      <c r="D44" s="92"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -1856,7 +1896,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="106" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1865,7 +1905,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="82" t="s">
+      <c r="D45" s="90" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -1873,56 +1913,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="88"/>
-      <c r="E46" s="88" t="s">
+      <c r="D46" s="96"/>
+      <c r="E46" s="96" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="88"/>
-      <c r="E47" s="88"/>
+      <c r="D47" s="96"/>
+      <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="99"/>
+      <c r="A48" s="107"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="88"/>
-      <c r="E48" s="88"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="100"/>
+      <c r="A49" s="108"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="84"/>
+      <c r="D49" s="92"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="98" t="s">
+      <c r="A50" s="106" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1931,7 +1971,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="82" t="s">
+      <c r="D50" s="90" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -1939,27 +1979,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="99"/>
+      <c r="A51" s="107"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="88"/>
+      <c r="D51" s="96"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="100"/>
+      <c r="A52" s="108"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="84"/>
+      <c r="D52" s="92"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2079,10 +2119,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I146"/>
+  <dimension ref="A1:J150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,36 +2133,37 @@
     <col min="4" max="5" width="11.42578125" style="50"/>
     <col min="6" max="6" width="13.42578125" style="72" customWidth="1"/>
     <col min="7" max="8" width="11.42578125" style="50"/>
+    <col min="10" max="10" width="45.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="94" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="94" t="s">
         <v>120</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="106"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="106" t="s">
+      <c r="G1" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="106"/>
+      <c r="H1" s="115"/>
       <c r="I1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="87"/>
+      <c r="A2" s="95"/>
+      <c r="B2" s="95"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2146,7 +2187,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85" t="s">
+      <c r="A3" s="93" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="59" t="s">
@@ -2158,12 +2199,12 @@
       <c r="F3" s="74"/>
       <c r="G3" s="60"/>
       <c r="H3" s="60"/>
-      <c r="I3" s="110">
+      <c r="I3" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="A4" s="94"/>
       <c r="B4" s="52" t="s">
         <v>117</v>
       </c>
@@ -2173,10 +2214,10 @@
       <c r="F4" s="75"/>
       <c r="G4" s="56"/>
       <c r="H4" s="56"/>
-      <c r="I4" s="90"/>
+      <c r="I4" s="98"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="A5" s="94"/>
       <c r="B5" s="52" t="s">
         <v>119</v>
       </c>
@@ -2186,10 +2227,10 @@
       <c r="F5" s="75"/>
       <c r="G5" s="56"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="90"/>
+      <c r="I5" s="98"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="87"/>
+      <c r="A6" s="95"/>
       <c r="B6" s="51" t="s">
         <v>121</v>
       </c>
@@ -2199,82 +2240,82 @@
       <c r="F6" s="73"/>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
-      <c r="I6" s="93"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="B7" s="59" t="s">
+      <c r="I6" s="101"/>
+    </row>
+    <row r="7" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="44">
-        <v>1</v>
-      </c>
-      <c r="D7" s="58">
-        <v>43118</v>
-      </c>
-      <c r="E7" s="58">
-        <v>42753</v>
-      </c>
-      <c r="F7" s="72">
-        <v>1</v>
-      </c>
-      <c r="G7" s="70">
-        <v>43118</v>
-      </c>
-      <c r="H7" s="65">
-        <v>43118</v>
-      </c>
-      <c r="I7" s="110">
-        <v>0.25</v>
-      </c>
+      <c r="C7" s="82">
+        <v>1</v>
+      </c>
+      <c r="D7" s="61">
+        <v>43121</v>
+      </c>
+      <c r="E7" s="61">
+        <v>43121</v>
+      </c>
+      <c r="F7" s="74">
+        <v>1</v>
+      </c>
+      <c r="G7" s="61">
+        <v>43121</v>
+      </c>
+      <c r="H7" s="61">
+        <v>43121</v>
+      </c>
+      <c r="I7" s="114"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="86"/>
-      <c r="B8" s="52" t="s">
+      <c r="A8" s="94"/>
+      <c r="B8" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
-      <c r="G8" s="71"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="90"/>
+      <c r="C8" s="83"/>
+      <c r="D8" s="56"/>
+      <c r="E8" s="56"/>
+      <c r="F8" s="75"/>
+      <c r="G8" s="56"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="98"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="86"/>
-      <c r="B9" s="52" t="s">
+      <c r="A9" s="94"/>
+      <c r="B9" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="G9" s="71"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="90"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="75"/>
+      <c r="G9" s="56"/>
+      <c r="H9" s="56"/>
+      <c r="I9" s="98"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="87"/>
+      <c r="A10" s="95"/>
       <c r="B10" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="66"/>
+      <c r="C10" s="84"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
       <c r="F10" s="73"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="93"/>
+      <c r="G10" s="55"/>
+      <c r="H10" s="55"/>
+      <c r="I10" s="101"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
-        <v>138</v>
-      </c>
-      <c r="B11" s="80" t="s">
+      <c r="A11" s="93" t="s">
+        <v>137</v>
+      </c>
+      <c r="B11" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="77">
+      <c r="C11" s="44">
         <v>1</v>
       </c>
       <c r="D11" s="58">
@@ -2292,50 +2333,50 @@
       <c r="H11" s="65">
         <v>43118</v>
       </c>
-      <c r="I11" s="110">
+      <c r="I11" s="114">
         <v>0.25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="86"/>
-      <c r="B12" s="81" t="s">
+      <c r="A12" s="94"/>
+      <c r="B12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="49"/>
       <c r="D12" s="58"/>
       <c r="E12" s="58"/>
       <c r="G12" s="71"/>
       <c r="H12" s="58"/>
-      <c r="I12" s="90"/>
+      <c r="I12" s="98"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="86"/>
-      <c r="B13" s="81" t="s">
+      <c r="A13" s="94"/>
+      <c r="B13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="58"/>
       <c r="E13" s="58"/>
       <c r="G13" s="71"/>
       <c r="H13" s="62"/>
-      <c r="I13" s="90"/>
+      <c r="I13" s="98"/>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="87"/>
+      <c r="A14" s="95"/>
       <c r="B14" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="78"/>
+      <c r="C14" s="46"/>
       <c r="D14" s="66"/>
       <c r="E14" s="66"/>
       <c r="F14" s="73"/>
       <c r="G14" s="69"/>
       <c r="H14" s="63"/>
-      <c r="I14" s="93"/>
+      <c r="I14" s="101"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="85" t="s">
-        <v>135</v>
+      <c r="A15" s="93" t="s">
+        <v>138</v>
       </c>
       <c r="B15" s="80" t="s">
         <v>118</v>
@@ -2358,12 +2399,12 @@
       <c r="H15" s="65">
         <v>43118</v>
       </c>
-      <c r="I15" s="110">
+      <c r="I15" s="114">
         <v>0.25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="86"/>
+      <c r="A16" s="94"/>
       <c r="B16" s="81" t="s">
         <v>117</v>
       </c>
@@ -2372,10 +2413,10 @@
       <c r="E16" s="58"/>
       <c r="G16" s="71"/>
       <c r="H16" s="58"/>
-      <c r="I16" s="90"/>
+      <c r="I16" s="98"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="86"/>
+      <c r="A17" s="94"/>
       <c r="B17" s="81" t="s">
         <v>119</v>
       </c>
@@ -2384,10 +2425,10 @@
       <c r="E17" s="58"/>
       <c r="G17" s="71"/>
       <c r="H17" s="62"/>
-      <c r="I17" s="90"/>
+      <c r="I17" s="98"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="87"/>
+      <c r="A18" s="95"/>
       <c r="B18" s="51" t="s">
         <v>121</v>
       </c>
@@ -2397,11 +2438,11 @@
       <c r="F18" s="73"/>
       <c r="G18" s="69"/>
       <c r="H18" s="63"/>
-      <c r="I18" s="93"/>
+      <c r="I18" s="101"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="85" t="s">
-        <v>136</v>
+      <c r="A19" s="93" t="s">
+        <v>135</v>
       </c>
       <c r="B19" s="80" t="s">
         <v>118</v>
@@ -2424,12 +2465,12 @@
       <c r="H19" s="65">
         <v>43118</v>
       </c>
-      <c r="I19" s="110">
+      <c r="I19" s="114">
         <v>0.25</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="86"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="81" t="s">
         <v>117</v>
       </c>
@@ -2438,10 +2479,10 @@
       <c r="E20" s="58"/>
       <c r="G20" s="71"/>
       <c r="H20" s="58"/>
-      <c r="I20" s="90"/>
+      <c r="I20" s="98"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="86"/>
+      <c r="A21" s="94"/>
       <c r="B21" s="81" t="s">
         <v>119</v>
       </c>
@@ -2450,10 +2491,10 @@
       <c r="E21" s="58"/>
       <c r="G21" s="71"/>
       <c r="H21" s="62"/>
-      <c r="I21" s="90"/>
+      <c r="I21" s="98"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="87"/>
+      <c r="A22" s="95"/>
       <c r="B22" s="51" t="s">
         <v>121</v>
       </c>
@@ -2463,75 +2504,77 @@
       <c r="F22" s="73"/>
       <c r="G22" s="69"/>
       <c r="H22" s="63"/>
-      <c r="I22" s="93"/>
+      <c r="I22" s="101"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="85" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="59" t="s">
+      <c r="A23" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="B23" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="44">
-        <v>1</v>
-      </c>
-      <c r="D23" s="65">
-        <v>43119</v>
-      </c>
-      <c r="E23" s="65">
-        <v>43119</v>
+      <c r="C23" s="77">
+        <v>1</v>
+      </c>
+      <c r="D23" s="58">
+        <v>43118</v>
+      </c>
+      <c r="E23" s="58">
+        <v>42753</v>
       </c>
       <c r="F23" s="72">
         <v>1</v>
       </c>
       <c r="G23" s="70">
-        <v>43119</v>
+        <v>43118</v>
       </c>
       <c r="H23" s="65">
-        <v>43119</v>
-      </c>
-      <c r="I23" s="90"/>
+        <v>43118</v>
+      </c>
+      <c r="I23" s="114">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="52" t="s">
+      <c r="A24" s="94"/>
+      <c r="B24" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="79"/>
       <c r="D24" s="58"/>
       <c r="E24" s="58"/>
       <c r="G24" s="71"/>
-      <c r="H24" s="56"/>
-      <c r="I24" s="90"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="98"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="86"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="94"/>
+      <c r="B25" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="49"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="58"/>
       <c r="E25" s="58"/>
       <c r="G25" s="71"/>
-      <c r="H25" s="56"/>
-      <c r="I25" s="90"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="98"/>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="87"/>
+      <c r="A26" s="95"/>
       <c r="B26" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="46"/>
+      <c r="C26" s="78"/>
       <c r="D26" s="66"/>
       <c r="E26" s="66"/>
       <c r="F26" s="73"/>
       <c r="G26" s="69"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="93"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="101"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="85" t="s">
-        <v>13</v>
+      <c r="A27" s="93" t="s">
+        <v>12</v>
       </c>
       <c r="B27" s="59" t="s">
         <v>118</v>
@@ -2554,10 +2597,10 @@
       <c r="H27" s="65">
         <v>43119</v>
       </c>
-      <c r="I27" s="90"/>
+      <c r="I27" s="98"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="86"/>
+      <c r="A28" s="94"/>
       <c r="B28" s="52" t="s">
         <v>117</v>
       </c>
@@ -2566,10 +2609,10 @@
       <c r="E28" s="58"/>
       <c r="G28" s="71"/>
       <c r="H28" s="56"/>
-      <c r="I28" s="90"/>
+      <c r="I28" s="98"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="86"/>
+      <c r="A29" s="94"/>
       <c r="B29" s="52" t="s">
         <v>119</v>
       </c>
@@ -2578,10 +2621,10 @@
       <c r="E29" s="58"/>
       <c r="G29" s="71"/>
       <c r="H29" s="56"/>
-      <c r="I29" s="90"/>
+      <c r="I29" s="98"/>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="87"/>
+      <c r="A30" s="95"/>
       <c r="B30" s="51" t="s">
         <v>121</v>
       </c>
@@ -2591,11 +2634,11 @@
       <c r="F30" s="73"/>
       <c r="G30" s="69"/>
       <c r="H30" s="55"/>
-      <c r="I30" s="93"/>
+      <c r="I30" s="101"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="85" t="s">
-        <v>14</v>
+      <c r="A31" s="93" t="s">
+        <v>13</v>
       </c>
       <c r="B31" s="59" t="s">
         <v>118</v>
@@ -2618,48 +2661,48 @@
       <c r="H31" s="65">
         <v>43119</v>
       </c>
-      <c r="I31" s="90"/>
+      <c r="I31" s="98"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="86"/>
+      <c r="A32" s="94"/>
       <c r="B32" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C32" s="49"/>
-      <c r="D32" s="54"/>
-      <c r="E32" s="54"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58"/>
       <c r="G32" s="71"/>
       <c r="H32" s="56"/>
-      <c r="I32" s="90"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="86"/>
+      <c r="I32" s="98"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="94"/>
       <c r="B33" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C33" s="49"/>
-      <c r="D33" s="54"/>
-      <c r="E33" s="54"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="58"/>
       <c r="G33" s="71"/>
       <c r="H33" s="56"/>
-      <c r="I33" s="90"/>
-    </row>
-    <row r="34" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="87"/>
+      <c r="I33" s="98"/>
+    </row>
+    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="95"/>
       <c r="B34" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="46"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="64"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
       <c r="F34" s="73"/>
       <c r="G34" s="69"/>
       <c r="H34" s="55"/>
-      <c r="I34" s="93"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="107" t="s">
-        <v>33</v>
+      <c r="I34" s="101"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="93" t="s">
+        <v>14</v>
       </c>
       <c r="B35" s="59" t="s">
         <v>118</v>
@@ -2682,36 +2725,41 @@
       <c r="H35" s="65">
         <v>43119</v>
       </c>
-      <c r="I35" s="90"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="108"/>
+      <c r="I35" s="98"/>
+      <c r="J35" s="89" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="94"/>
       <c r="B36" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C36" s="49"/>
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
-      <c r="F36" s="75"/>
-      <c r="G36" s="56"/>
+      <c r="G36" s="71"/>
       <c r="H36" s="56"/>
-      <c r="I36" s="90"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="108"/>
+      <c r="I36" s="98"/>
+      <c r="J36" s="89" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="94"/>
       <c r="B37" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C37" s="49"/>
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="56"/>
+      <c r="G37" s="71"/>
       <c r="H37" s="56"/>
-      <c r="I37" s="90"/>
-    </row>
-    <row r="38" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="109"/>
+      <c r="I37" s="98"/>
+      <c r="J37" s="88"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="95"/>
       <c r="B38" s="51" t="s">
         <v>121</v>
       </c>
@@ -2719,13 +2767,14 @@
       <c r="D38" s="64"/>
       <c r="E38" s="64"/>
       <c r="F38" s="73"/>
-      <c r="G38" s="55"/>
+      <c r="G38" s="69"/>
       <c r="H38" s="55"/>
-      <c r="I38" s="93"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="89" t="s">
-        <v>128</v>
+      <c r="I38" s="101"/>
+      <c r="J38" s="88"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="116" t="s">
+        <v>33</v>
       </c>
       <c r="B39" s="59" t="s">
         <v>118</v>
@@ -2734,64 +2783,64 @@
         <v>1</v>
       </c>
       <c r="D39" s="65">
-        <v>43120</v>
+        <v>43119</v>
       </c>
       <c r="E39" s="65">
-        <v>43120</v>
+        <v>43119</v>
       </c>
       <c r="F39" s="72">
         <v>1</v>
       </c>
       <c r="G39" s="70">
-        <v>43120</v>
-      </c>
-      <c r="H39" s="61">
-        <v>43120</v>
-      </c>
-      <c r="I39" s="90"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="90"/>
+        <v>43119</v>
+      </c>
+      <c r="H39" s="65">
+        <v>43119</v>
+      </c>
+      <c r="I39" s="98"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="117"/>
       <c r="B40" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C40" s="49"/>
-      <c r="D40" s="67"/>
-      <c r="E40" s="56"/>
+      <c r="D40" s="54"/>
+      <c r="E40" s="54"/>
       <c r="F40" s="75"/>
       <c r="G40" s="56"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="90"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="90"/>
+      <c r="I40" s="98"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="117"/>
       <c r="B41" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C41" s="49"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="56"/>
+      <c r="D41" s="54"/>
+      <c r="E41" s="54"/>
       <c r="F41" s="75"/>
       <c r="G41" s="56"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="90"/>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="93"/>
+      <c r="I41" s="98"/>
+    </row>
+    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="118"/>
       <c r="B42" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="46"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="55"/>
+      <c r="D42" s="64"/>
+      <c r="E42" s="64"/>
       <c r="F42" s="73"/>
       <c r="G42" s="55"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="93"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="89" t="s">
-        <v>129</v>
+      <c r="I42" s="101"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="97" t="s">
+        <v>128</v>
       </c>
       <c r="B43" s="59" t="s">
         <v>118</v>
@@ -2814,10 +2863,10 @@
       <c r="H43" s="61">
         <v>43120</v>
       </c>
-      <c r="I43" s="90"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="90"/>
+      <c r="I43" s="98"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="98"/>
       <c r="B44" s="52" t="s">
         <v>117</v>
       </c>
@@ -2827,10 +2876,10 @@
       <c r="F44" s="75"/>
       <c r="G44" s="56"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="90"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="90"/>
+      <c r="I44" s="98"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="98"/>
       <c r="B45" s="52" t="s">
         <v>119</v>
       </c>
@@ -2840,10 +2889,10 @@
       <c r="F45" s="75"/>
       <c r="G45" s="56"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="90"/>
-    </row>
-    <row r="46" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="93"/>
+      <c r="I45" s="98"/>
+    </row>
+    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="101"/>
       <c r="B46" s="51" t="s">
         <v>121</v>
       </c>
@@ -2853,11 +2902,11 @@
       <c r="F46" s="73"/>
       <c r="G46" s="55"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="93"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="107" t="s">
-        <v>46</v>
+      <c r="I46" s="101"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="97" t="s">
+        <v>129</v>
       </c>
       <c r="B47" s="59" t="s">
         <v>118</v>
@@ -2880,50 +2929,50 @@
       <c r="H47" s="61">
         <v>43120</v>
       </c>
-      <c r="I47" s="90"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="108"/>
+      <c r="I47" s="98"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="98"/>
       <c r="B48" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C48" s="49"/>
-      <c r="D48" s="56"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="56"/>
       <c r="F48" s="75"/>
       <c r="G48" s="56"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="90"/>
+      <c r="I48" s="98"/>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="108"/>
+      <c r="A49" s="98"/>
       <c r="B49" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C49" s="49"/>
-      <c r="D49" s="56"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="56"/>
       <c r="F49" s="75"/>
       <c r="G49" s="56"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="90"/>
+      <c r="I49" s="98"/>
     </row>
     <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="109"/>
+      <c r="A50" s="101"/>
       <c r="B50" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C50" s="46"/>
-      <c r="D50" s="55"/>
+      <c r="D50" s="68"/>
       <c r="E50" s="55"/>
       <c r="F50" s="73"/>
       <c r="G50" s="55"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="93"/>
+      <c r="I50" s="101"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="107" t="s">
-        <v>56</v>
+      <c r="A51" s="116" t="s">
+        <v>46</v>
       </c>
       <c r="B51" s="59" t="s">
         <v>118</v>
@@ -2932,64 +2981,64 @@
         <v>1</v>
       </c>
       <c r="D51" s="65">
-        <v>43121</v>
+        <v>43120</v>
       </c>
       <c r="E51" s="65">
-        <v>43121</v>
-      </c>
-      <c r="F51" s="74">
-        <v>1</v>
-      </c>
-      <c r="G51" s="65">
-        <v>43121</v>
-      </c>
-      <c r="H51" s="65">
-        <v>43121</v>
-      </c>
-      <c r="I51" s="90"/>
+        <v>43120</v>
+      </c>
+      <c r="F51" s="72">
+        <v>1</v>
+      </c>
+      <c r="G51" s="70">
+        <v>43120</v>
+      </c>
+      <c r="H51" s="61">
+        <v>43120</v>
+      </c>
+      <c r="I51" s="98"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="108"/>
+      <c r="A52" s="117"/>
       <c r="B52" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C52" s="49"/>
-      <c r="D52" s="67"/>
+      <c r="D52" s="56"/>
       <c r="E52" s="56"/>
       <c r="F52" s="75"/>
       <c r="G52" s="56"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="90"/>
+      <c r="I52" s="98"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="108"/>
+      <c r="A53" s="117"/>
       <c r="B53" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C53" s="49"/>
-      <c r="D53" s="67"/>
+      <c r="D53" s="56"/>
       <c r="E53" s="56"/>
       <c r="F53" s="75"/>
       <c r="G53" s="56"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="90"/>
+      <c r="I53" s="98"/>
     </row>
     <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="109"/>
+      <c r="A54" s="118"/>
       <c r="B54" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C54" s="46"/>
-      <c r="D54" s="68"/>
+      <c r="D54" s="55"/>
       <c r="E54" s="55"/>
       <c r="F54" s="73"/>
       <c r="G54" s="55"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="93"/>
+      <c r="I54" s="101"/>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="107" t="s">
-        <v>61</v>
+      <c r="A55" s="116" t="s">
+        <v>56</v>
       </c>
       <c r="B55" s="59" t="s">
         <v>118</v>
@@ -2998,64 +3047,64 @@
         <v>1</v>
       </c>
       <c r="D55" s="65">
-        <v>43122</v>
+        <v>43121</v>
       </c>
       <c r="E55" s="65">
-        <v>43122</v>
+        <v>43121</v>
       </c>
       <c r="F55" s="74">
         <v>1</v>
       </c>
       <c r="G55" s="65">
-        <v>43122</v>
+        <v>43121</v>
       </c>
       <c r="H55" s="65">
-        <v>43122</v>
-      </c>
-      <c r="I55" s="90"/>
+        <v>43121</v>
+      </c>
+      <c r="I55" s="98"/>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="108"/>
+      <c r="A56" s="117"/>
       <c r="B56" s="52" t="s">
         <v>117</v>
       </c>
       <c r="C56" s="49"/>
-      <c r="D56" s="56"/>
+      <c r="D56" s="67"/>
       <c r="E56" s="56"/>
       <c r="F56" s="75"/>
       <c r="G56" s="56"/>
       <c r="H56" s="56"/>
-      <c r="I56" s="90"/>
+      <c r="I56" s="98"/>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="108"/>
+      <c r="A57" s="117"/>
       <c r="B57" s="52" t="s">
         <v>119</v>
       </c>
       <c r="C57" s="49"/>
-      <c r="D57" s="56"/>
+      <c r="D57" s="67"/>
       <c r="E57" s="56"/>
       <c r="F57" s="75"/>
       <c r="G57" s="56"/>
       <c r="H57" s="56"/>
-      <c r="I57" s="90"/>
+      <c r="I57" s="98"/>
     </row>
     <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="109"/>
+      <c r="A58" s="118"/>
       <c r="B58" s="51" t="s">
         <v>121</v>
       </c>
       <c r="C58" s="46"/>
-      <c r="D58" s="55"/>
+      <c r="D58" s="68"/>
       <c r="E58" s="55"/>
       <c r="F58" s="73"/>
       <c r="G58" s="55"/>
       <c r="H58" s="55"/>
-      <c r="I58" s="93"/>
+      <c r="I58" s="101"/>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="107" t="s">
-        <v>85</v>
+      <c r="A59" s="116" t="s">
+        <v>61</v>
       </c>
       <c r="B59" s="59" t="s">
         <v>118</v>
@@ -3078,10 +3127,10 @@
       <c r="H59" s="65">
         <v>43122</v>
       </c>
-      <c r="I59" s="90"/>
+      <c r="I59" s="98"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="108"/>
+      <c r="A60" s="117"/>
       <c r="B60" s="52" t="s">
         <v>117</v>
       </c>
@@ -3091,10 +3140,10 @@
       <c r="F60" s="75"/>
       <c r="G60" s="56"/>
       <c r="H60" s="56"/>
-      <c r="I60" s="90"/>
+      <c r="I60" s="98"/>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="108"/>
+      <c r="A61" s="117"/>
       <c r="B61" s="52" t="s">
         <v>119</v>
       </c>
@@ -3104,10 +3153,10 @@
       <c r="F61" s="75"/>
       <c r="G61" s="56"/>
       <c r="H61" s="56"/>
-      <c r="I61" s="90"/>
+      <c r="I61" s="98"/>
     </row>
     <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="109"/>
+      <c r="A62" s="118"/>
       <c r="B62" s="51" t="s">
         <v>121</v>
       </c>
@@ -3117,11 +3166,11 @@
       <c r="F62" s="73"/>
       <c r="G62" s="55"/>
       <c r="H62" s="55"/>
-      <c r="I62" s="93"/>
+      <c r="I62" s="101"/>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="85" t="s">
-        <v>62</v>
+      <c r="A63" s="116" t="s">
+        <v>85</v>
       </c>
       <c r="B63" s="59" t="s">
         <v>118</v>
@@ -3144,10 +3193,10 @@
       <c r="H63" s="65">
         <v>43122</v>
       </c>
-      <c r="I63" s="90"/>
+      <c r="I63" s="98"/>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="86"/>
+      <c r="A64" s="117"/>
       <c r="B64" s="52" t="s">
         <v>117</v>
       </c>
@@ -3157,10 +3206,10 @@
       <c r="F64" s="75"/>
       <c r="G64" s="56"/>
       <c r="H64" s="56"/>
-      <c r="I64" s="90"/>
+      <c r="I64" s="98"/>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="86"/>
+      <c r="A65" s="117"/>
       <c r="B65" s="52" t="s">
         <v>119</v>
       </c>
@@ -3170,10 +3219,10 @@
       <c r="F65" s="75"/>
       <c r="G65" s="56"/>
       <c r="H65" s="56"/>
-      <c r="I65" s="90"/>
+      <c r="I65" s="98"/>
     </row>
     <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="87"/>
+      <c r="A66" s="118"/>
       <c r="B66" s="51" t="s">
         <v>121</v>
       </c>
@@ -3183,11 +3232,11 @@
       <c r="F66" s="73"/>
       <c r="G66" s="55"/>
       <c r="H66" s="55"/>
-      <c r="I66" s="93"/>
+      <c r="I66" s="101"/>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="85" t="s">
-        <v>66</v>
+      <c r="A67" s="93" t="s">
+        <v>62</v>
       </c>
       <c r="B67" s="59" t="s">
         <v>118</v>
@@ -3196,24 +3245,24 @@
         <v>1</v>
       </c>
       <c r="D67" s="65">
-        <v>43123</v>
+        <v>43122</v>
       </c>
       <c r="E67" s="65">
-        <v>43123</v>
+        <v>43122</v>
       </c>
       <c r="F67" s="74">
         <v>1</v>
       </c>
       <c r="G67" s="65">
-        <v>43123</v>
+        <v>43122</v>
       </c>
       <c r="H67" s="65">
-        <v>43123</v>
-      </c>
-      <c r="I67" s="90"/>
+        <v>43122</v>
+      </c>
+      <c r="I67" s="98"/>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="86"/>
+      <c r="A68" s="94"/>
       <c r="B68" s="52" t="s">
         <v>117</v>
       </c>
@@ -3223,10 +3272,10 @@
       <c r="F68" s="75"/>
       <c r="G68" s="56"/>
       <c r="H68" s="56"/>
-      <c r="I68" s="90"/>
+      <c r="I68" s="98"/>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="86"/>
+      <c r="A69" s="94"/>
       <c r="B69" s="52" t="s">
         <v>119</v>
       </c>
@@ -3236,10 +3285,10 @@
       <c r="F69" s="75"/>
       <c r="G69" s="56"/>
       <c r="H69" s="56"/>
-      <c r="I69" s="90"/>
+      <c r="I69" s="98"/>
     </row>
     <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="87"/>
+      <c r="A70" s="95"/>
       <c r="B70" s="51" t="s">
         <v>121</v>
       </c>
@@ -3249,11 +3298,11 @@
       <c r="F70" s="73"/>
       <c r="G70" s="55"/>
       <c r="H70" s="55"/>
-      <c r="I70" s="93"/>
+      <c r="I70" s="101"/>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="85" t="s">
-        <v>67</v>
+      <c r="A71" s="93" t="s">
+        <v>66</v>
       </c>
       <c r="B71" s="59" t="s">
         <v>118</v>
@@ -3276,10 +3325,10 @@
       <c r="H71" s="65">
         <v>43123</v>
       </c>
-      <c r="I71" s="90"/>
+      <c r="I71" s="98"/>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="86"/>
+      <c r="A72" s="94"/>
       <c r="B72" s="52" t="s">
         <v>117</v>
       </c>
@@ -3289,10 +3338,10 @@
       <c r="F72" s="75"/>
       <c r="G72" s="56"/>
       <c r="H72" s="56"/>
-      <c r="I72" s="90"/>
+      <c r="I72" s="98"/>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="86"/>
+      <c r="A73" s="94"/>
       <c r="B73" s="52" t="s">
         <v>119</v>
       </c>
@@ -3302,10 +3351,10 @@
       <c r="F73" s="75"/>
       <c r="G73" s="56"/>
       <c r="H73" s="56"/>
-      <c r="I73" s="90"/>
+      <c r="I73" s="98"/>
     </row>
     <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="87"/>
+      <c r="A74" s="95"/>
       <c r="B74" s="51" t="s">
         <v>121</v>
       </c>
@@ -3315,11 +3364,11 @@
       <c r="F74" s="73"/>
       <c r="G74" s="55"/>
       <c r="H74" s="55"/>
-      <c r="I74" s="93"/>
+      <c r="I74" s="101"/>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="107" t="s">
-        <v>68</v>
+      <c r="A75" s="93" t="s">
+        <v>67</v>
       </c>
       <c r="B75" s="59" t="s">
         <v>118</v>
@@ -3328,24 +3377,24 @@
         <v>1</v>
       </c>
       <c r="D75" s="65">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="E75" s="65">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="F75" s="74">
         <v>1</v>
       </c>
       <c r="G75" s="65">
-        <v>43124</v>
+        <v>43123</v>
       </c>
       <c r="H75" s="65">
-        <v>43124</v>
-      </c>
-      <c r="I75" s="90"/>
+        <v>43123</v>
+      </c>
+      <c r="I75" s="98"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="108"/>
+      <c r="A76" s="94"/>
       <c r="B76" s="52" t="s">
         <v>117</v>
       </c>
@@ -3355,10 +3404,10 @@
       <c r="F76" s="75"/>
       <c r="G76" s="56"/>
       <c r="H76" s="56"/>
-      <c r="I76" s="90"/>
+      <c r="I76" s="98"/>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="108"/>
+      <c r="A77" s="94"/>
       <c r="B77" s="52" t="s">
         <v>119</v>
       </c>
@@ -3368,10 +3417,10 @@
       <c r="F77" s="75"/>
       <c r="G77" s="56"/>
       <c r="H77" s="56"/>
-      <c r="I77" s="90"/>
+      <c r="I77" s="98"/>
     </row>
     <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="109"/>
+      <c r="A78" s="95"/>
       <c r="B78" s="51" t="s">
         <v>121</v>
       </c>
@@ -3381,11 +3430,11 @@
       <c r="F78" s="73"/>
       <c r="G78" s="55"/>
       <c r="H78" s="55"/>
-      <c r="I78" s="93"/>
+      <c r="I78" s="101"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="107" t="s">
-        <v>69</v>
+      <c r="A79" s="116" t="s">
+        <v>68</v>
       </c>
       <c r="B79" s="59" t="s">
         <v>118</v>
@@ -3408,10 +3457,10 @@
       <c r="H79" s="65">
         <v>43124</v>
       </c>
-      <c r="I79" s="90"/>
+      <c r="I79" s="98"/>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="108"/>
+      <c r="A80" s="117"/>
       <c r="B80" s="52" t="s">
         <v>117</v>
       </c>
@@ -3421,10 +3470,10 @@
       <c r="F80" s="75"/>
       <c r="G80" s="56"/>
       <c r="H80" s="56"/>
-      <c r="I80" s="90"/>
+      <c r="I80" s="98"/>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="108"/>
+      <c r="A81" s="117"/>
       <c r="B81" s="52" t="s">
         <v>119</v>
       </c>
@@ -3434,10 +3483,10 @@
       <c r="F81" s="75"/>
       <c r="G81" s="56"/>
       <c r="H81" s="56"/>
-      <c r="I81" s="90"/>
+      <c r="I81" s="98"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="109"/>
+      <c r="A82" s="118"/>
       <c r="B82" s="51" t="s">
         <v>121</v>
       </c>
@@ -3447,11 +3496,11 @@
       <c r="F82" s="73"/>
       <c r="G82" s="55"/>
       <c r="H82" s="55"/>
-      <c r="I82" s="93"/>
+      <c r="I82" s="101"/>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="85" t="s">
-        <v>15</v>
+      <c r="A83" s="116" t="s">
+        <v>69</v>
       </c>
       <c r="B83" s="59" t="s">
         <v>118</v>
@@ -3460,24 +3509,24 @@
         <v>1</v>
       </c>
       <c r="D83" s="65">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="E83" s="65">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="F83" s="74">
         <v>1</v>
       </c>
       <c r="G83" s="65">
-        <v>43125</v>
+        <v>43124</v>
       </c>
       <c r="H83" s="65">
-        <v>43125</v>
-      </c>
-      <c r="I83" s="90"/>
+        <v>43124</v>
+      </c>
+      <c r="I83" s="98"/>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="86"/>
+      <c r="A84" s="117"/>
       <c r="B84" s="52" t="s">
         <v>117</v>
       </c>
@@ -3487,10 +3536,10 @@
       <c r="F84" s="75"/>
       <c r="G84" s="56"/>
       <c r="H84" s="56"/>
-      <c r="I84" s="90"/>
+      <c r="I84" s="98"/>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="86"/>
+      <c r="A85" s="117"/>
       <c r="B85" s="52" t="s">
         <v>119</v>
       </c>
@@ -3500,10 +3549,10 @@
       <c r="F85" s="75"/>
       <c r="G85" s="56"/>
       <c r="H85" s="56"/>
-      <c r="I85" s="90"/>
+      <c r="I85" s="98"/>
     </row>
     <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="87"/>
+      <c r="A86" s="118"/>
       <c r="B86" s="51" t="s">
         <v>121</v>
       </c>
@@ -3513,11 +3562,11 @@
       <c r="F86" s="73"/>
       <c r="G86" s="55"/>
       <c r="H86" s="55"/>
-      <c r="I86" s="93"/>
+      <c r="I86" s="101"/>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="85" t="s">
-        <v>56</v>
+      <c r="A87" s="93" t="s">
+        <v>15</v>
       </c>
       <c r="B87" s="59" t="s">
         <v>118</v>
@@ -3540,10 +3589,10 @@
       <c r="H87" s="65">
         <v>43125</v>
       </c>
-      <c r="I87" s="90"/>
+      <c r="I87" s="98"/>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
+      <c r="A88" s="94"/>
       <c r="B88" s="52" t="s">
         <v>117</v>
       </c>
@@ -3552,10 +3601,11 @@
       <c r="E88" s="56"/>
       <c r="F88" s="75"/>
       <c r="G88" s="56"/>
-      <c r="I88" s="90"/>
+      <c r="H88" s="56"/>
+      <c r="I88" s="98"/>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="86"/>
+      <c r="A89" s="94"/>
       <c r="B89" s="52" t="s">
         <v>119</v>
       </c>
@@ -3564,10 +3614,11 @@
       <c r="E89" s="56"/>
       <c r="F89" s="75"/>
       <c r="G89" s="56"/>
-      <c r="I89" s="90"/>
+      <c r="H89" s="56"/>
+      <c r="I89" s="98"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="87"/>
+      <c r="A90" s="95"/>
       <c r="B90" s="51" t="s">
         <v>121</v>
       </c>
@@ -3577,11 +3628,11 @@
       <c r="F90" s="73"/>
       <c r="G90" s="55"/>
       <c r="H90" s="55"/>
-      <c r="I90" s="93"/>
+      <c r="I90" s="101"/>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="85" t="s">
-        <v>82</v>
+      <c r="A91" s="93" t="s">
+        <v>56</v>
       </c>
       <c r="B91" s="59" t="s">
         <v>118</v>
@@ -3590,24 +3641,24 @@
         <v>1</v>
       </c>
       <c r="D91" s="65">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="E91" s="65">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="F91" s="74">
         <v>1</v>
       </c>
       <c r="G91" s="65">
-        <v>43126</v>
+        <v>43125</v>
       </c>
       <c r="H91" s="65">
-        <v>43126</v>
-      </c>
-      <c r="I91" s="90"/>
+        <v>43125</v>
+      </c>
+      <c r="I91" s="98"/>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="86"/>
+      <c r="A92" s="94"/>
       <c r="B92" s="52" t="s">
         <v>117</v>
       </c>
@@ -3616,11 +3667,10 @@
       <c r="E92" s="56"/>
       <c r="F92" s="75"/>
       <c r="G92" s="56"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="90"/>
+      <c r="I92" s="98"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="86"/>
+      <c r="A93" s="94"/>
       <c r="B93" s="52" t="s">
         <v>119</v>
       </c>
@@ -3629,11 +3679,10 @@
       <c r="E93" s="56"/>
       <c r="F93" s="75"/>
       <c r="G93" s="56"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="90"/>
+      <c r="I93" s="98"/>
     </row>
     <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="87"/>
+      <c r="A94" s="95"/>
       <c r="B94" s="51" t="s">
         <v>121</v>
       </c>
@@ -3643,11 +3692,11 @@
       <c r="F94" s="73"/>
       <c r="G94" s="55"/>
       <c r="H94" s="55"/>
-      <c r="I94" s="93"/>
+      <c r="I94" s="101"/>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="85" t="s">
-        <v>83</v>
+      <c r="A95" s="93" t="s">
+        <v>82</v>
       </c>
       <c r="B95" s="59" t="s">
         <v>118</v>
@@ -3670,10 +3719,10 @@
       <c r="H95" s="65">
         <v>43126</v>
       </c>
-      <c r="I95" s="90"/>
+      <c r="I95" s="98"/>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="86"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="52" t="s">
         <v>117</v>
       </c>
@@ -3683,10 +3732,10 @@
       <c r="F96" s="75"/>
       <c r="G96" s="56"/>
       <c r="H96" s="56"/>
-      <c r="I96" s="90"/>
+      <c r="I96" s="98"/>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="86"/>
+      <c r="A97" s="94"/>
       <c r="B97" s="52" t="s">
         <v>119</v>
       </c>
@@ -3696,10 +3745,10 @@
       <c r="F97" s="75"/>
       <c r="G97" s="56"/>
       <c r="H97" s="56"/>
-      <c r="I97" s="90"/>
+      <c r="I97" s="98"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="87"/>
+      <c r="A98" s="95"/>
       <c r="B98" s="51" t="s">
         <v>121</v>
       </c>
@@ -3709,11 +3758,11 @@
       <c r="F98" s="73"/>
       <c r="G98" s="55"/>
       <c r="H98" s="55"/>
-      <c r="I98" s="93"/>
+      <c r="I98" s="101"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="107" t="s">
-        <v>101</v>
+      <c r="A99" s="93" t="s">
+        <v>83</v>
       </c>
       <c r="B99" s="59" t="s">
         <v>118</v>
@@ -3722,24 +3771,24 @@
         <v>1</v>
       </c>
       <c r="D99" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="E99" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="F99" s="74">
         <v>1</v>
       </c>
       <c r="G99" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="H99" s="65">
-        <v>43127</v>
-      </c>
-      <c r="I99" s="90"/>
+        <v>43126</v>
+      </c>
+      <c r="I99" s="98"/>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="108"/>
+      <c r="A100" s="94"/>
       <c r="B100" s="52" t="s">
         <v>117</v>
       </c>
@@ -3748,10 +3797,11 @@
       <c r="E100" s="56"/>
       <c r="F100" s="75"/>
       <c r="G100" s="56"/>
-      <c r="I100" s="90"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="98"/>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="108"/>
+      <c r="A101" s="94"/>
       <c r="B101" s="52" t="s">
         <v>119</v>
       </c>
@@ -3760,10 +3810,11 @@
       <c r="E101" s="56"/>
       <c r="F101" s="75"/>
       <c r="G101" s="56"/>
-      <c r="I101" s="90"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="98"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="109"/>
+      <c r="A102" s="95"/>
       <c r="B102" s="51" t="s">
         <v>121</v>
       </c>
@@ -3773,13 +3824,13 @@
       <c r="F102" s="73"/>
       <c r="G102" s="55"/>
       <c r="H102" s="55"/>
-      <c r="I102" s="93"/>
+      <c r="I102" s="101"/>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="107" t="s">
-        <v>109</v>
-      </c>
-      <c r="B103" s="52" t="s">
+      <c r="A103" s="116" t="s">
+        <v>101</v>
+      </c>
+      <c r="B103" s="59" t="s">
         <v>118</v>
       </c>
       <c r="C103" s="44">
@@ -3800,24 +3851,34 @@
       <c r="H103" s="65">
         <v>43127</v>
       </c>
-      <c r="I103" s="89"/>
+      <c r="I103" s="98"/>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="108"/>
+      <c r="A104" s="117"/>
       <c r="B104" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I104" s="90"/>
+      <c r="C104" s="49"/>
+      <c r="D104" s="56"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="75"/>
+      <c r="G104" s="56"/>
+      <c r="I104" s="98"/>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="108"/>
+      <c r="A105" s="117"/>
       <c r="B105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I105" s="90"/>
+      <c r="C105" s="49"/>
+      <c r="D105" s="56"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="75"/>
+      <c r="G105" s="56"/>
+      <c r="I105" s="98"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="109"/>
+      <c r="A106" s="118"/>
       <c r="B106" s="51" t="s">
         <v>121</v>
       </c>
@@ -3827,11 +3888,11 @@
       <c r="F106" s="73"/>
       <c r="G106" s="55"/>
       <c r="H106" s="55"/>
-      <c r="I106" s="93"/>
+      <c r="I106" s="101"/>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="107" t="s">
-        <v>102</v>
+      <c r="A107" s="116" t="s">
+        <v>109</v>
       </c>
       <c r="B107" s="52" t="s">
         <v>118</v>
@@ -3854,24 +3915,24 @@
       <c r="H107" s="65">
         <v>43127</v>
       </c>
-      <c r="I107" s="90"/>
+      <c r="I107" s="97"/>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="108"/>
+      <c r="A108" s="117"/>
       <c r="B108" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I108" s="90"/>
+      <c r="I108" s="98"/>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="108"/>
+      <c r="A109" s="117"/>
       <c r="B109" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I109" s="90"/>
+      <c r="I109" s="98"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="109"/>
+      <c r="A110" s="118"/>
       <c r="B110" s="51" t="s">
         <v>121</v>
       </c>
@@ -3881,11 +3942,11 @@
       <c r="F110" s="73"/>
       <c r="G110" s="55"/>
       <c r="H110" s="55"/>
-      <c r="I110" s="93"/>
+      <c r="I110" s="101"/>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="107" t="s">
-        <v>104</v>
+      <c r="A111" s="116" t="s">
+        <v>102</v>
       </c>
       <c r="B111" s="52" t="s">
         <v>118</v>
@@ -3894,38 +3955,38 @@
         <v>1</v>
       </c>
       <c r="D111" s="65">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="E111" s="65">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="F111" s="74">
         <v>1</v>
       </c>
       <c r="G111" s="65">
-        <v>43128</v>
+        <v>43127</v>
       </c>
       <c r="H111" s="65">
-        <v>43128</v>
-      </c>
-      <c r="I111" s="90"/>
+        <v>43127</v>
+      </c>
+      <c r="I111" s="98"/>
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="108"/>
+      <c r="A112" s="117"/>
       <c r="B112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I112" s="90"/>
+      <c r="I112" s="98"/>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="108"/>
+      <c r="A113" s="117"/>
       <c r="B113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I113" s="90"/>
+      <c r="I113" s="98"/>
     </row>
     <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="109"/>
+      <c r="A114" s="118"/>
       <c r="B114" s="51" t="s">
         <v>121</v>
       </c>
@@ -3935,13 +3996,13 @@
       <c r="F114" s="73"/>
       <c r="G114" s="55"/>
       <c r="H114" s="55"/>
-      <c r="I114" s="93"/>
+      <c r="I114" s="101"/>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="85" t="s">
-        <v>103</v>
-      </c>
-      <c r="B115" s="59" t="s">
+      <c r="A115" s="116" t="s">
+        <v>104</v>
+      </c>
+      <c r="B115" s="52" t="s">
         <v>118</v>
       </c>
       <c r="C115" s="44">
@@ -3962,36 +4023,24 @@
       <c r="H115" s="65">
         <v>43128</v>
       </c>
-      <c r="I115" s="90"/>
+      <c r="I115" s="98"/>
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="86"/>
+      <c r="A116" s="117"/>
       <c r="B116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C116" s="49"/>
-      <c r="D116" s="56"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="75"/>
-      <c r="G116" s="56"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="90"/>
+      <c r="I116" s="98"/>
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="86"/>
+      <c r="A117" s="117"/>
       <c r="B117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C117" s="49"/>
-      <c r="D117" s="56"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="75"/>
-      <c r="G117" s="56"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="90"/>
+      <c r="I117" s="98"/>
     </row>
     <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="87"/>
+      <c r="A118" s="118"/>
       <c r="B118" s="51" t="s">
         <v>121</v>
       </c>
@@ -4001,51 +4050,63 @@
       <c r="F118" s="73"/>
       <c r="G118" s="55"/>
       <c r="H118" s="55"/>
-      <c r="I118" s="93"/>
+      <c r="I118" s="101"/>
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="85" t="s">
-        <v>105</v>
-      </c>
-      <c r="B119" s="52" t="s">
+      <c r="A119" s="93" t="s">
+        <v>103</v>
+      </c>
+      <c r="B119" s="59" t="s">
         <v>118</v>
       </c>
       <c r="C119" s="44">
         <v>1</v>
       </c>
       <c r="D119" s="65">
-        <v>43129</v>
+        <v>43128</v>
       </c>
       <c r="E119" s="65">
-        <v>43129</v>
+        <v>43128</v>
       </c>
       <c r="F119" s="74">
         <v>1</v>
       </c>
       <c r="G119" s="65">
-        <v>43129</v>
+        <v>43128</v>
       </c>
       <c r="H119" s="65">
-        <v>43129</v>
-      </c>
-      <c r="I119" s="90"/>
+        <v>43128</v>
+      </c>
+      <c r="I119" s="98"/>
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="86"/>
+      <c r="A120" s="94"/>
       <c r="B120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I120" s="90"/>
+      <c r="C120" s="49"/>
+      <c r="D120" s="56"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="75"/>
+      <c r="G120" s="56"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="98"/>
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="86"/>
+      <c r="A121" s="94"/>
       <c r="B121" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I121" s="90"/>
+      <c r="C121" s="49"/>
+      <c r="D121" s="56"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="75"/>
+      <c r="G121" s="56"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="98"/>
     </row>
     <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="87"/>
+      <c r="A122" s="95"/>
       <c r="B122" s="51" t="s">
         <v>121</v>
       </c>
@@ -4055,11 +4116,11 @@
       <c r="F122" s="73"/>
       <c r="G122" s="55"/>
       <c r="H122" s="55"/>
-      <c r="I122" s="93"/>
+      <c r="I122" s="101"/>
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="85" t="s">
-        <v>108</v>
+      <c r="A123" s="93" t="s">
+        <v>105</v>
       </c>
       <c r="B123" s="52" t="s">
         <v>118</v>
@@ -4082,24 +4143,24 @@
       <c r="H123" s="65">
         <v>43129</v>
       </c>
-      <c r="I123" s="90"/>
+      <c r="I123" s="98"/>
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="86"/>
+      <c r="A124" s="94"/>
       <c r="B124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I124" s="90"/>
+      <c r="I124" s="98"/>
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="86"/>
+      <c r="A125" s="94"/>
       <c r="B125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I125" s="90"/>
+      <c r="I125" s="98"/>
     </row>
     <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="87"/>
+      <c r="A126" s="95"/>
       <c r="B126" s="51" t="s">
         <v>121</v>
       </c>
@@ -4109,119 +4170,119 @@
       <c r="F126" s="73"/>
       <c r="G126" s="55"/>
       <c r="H126" s="55"/>
-      <c r="I126" s="93"/>
-    </row>
-    <row r="127" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="85" t="s">
+      <c r="I126" s="101"/>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A127" s="93" t="s">
+        <v>108</v>
+      </c>
+      <c r="B127" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="C127" s="44">
+        <v>1</v>
+      </c>
+      <c r="D127" s="65">
+        <v>43129</v>
+      </c>
+      <c r="E127" s="65">
+        <v>43129</v>
+      </c>
+      <c r="F127" s="74">
+        <v>1</v>
+      </c>
+      <c r="G127" s="65">
+        <v>43129</v>
+      </c>
+      <c r="H127" s="65">
+        <v>43129</v>
+      </c>
+      <c r="I127" s="98"/>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A128" s="94"/>
+      <c r="B128" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="I128" s="98"/>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A129" s="94"/>
+      <c r="B129" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="I129" s="98"/>
+    </row>
+    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="95"/>
+      <c r="B130" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C130" s="46"/>
+      <c r="D130" s="55"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="73"/>
+      <c r="G130" s="55"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="101"/>
+    </row>
+    <row r="131" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="93" t="s">
         <v>27</v>
       </c>
-      <c r="B127" s="59" t="s">
+      <c r="B131" s="59" t="s">
         <v>121</v>
-      </c>
-      <c r="C127" s="44"/>
-      <c r="D127" s="65"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="57"/>
-      <c r="G127" s="70"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="90"/>
-    </row>
-    <row r="128" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="86"/>
-      <c r="B128" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C128" s="49"/>
-      <c r="D128" s="54"/>
-      <c r="E128" s="58"/>
-      <c r="F128" s="57"/>
-      <c r="G128" s="71"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="90"/>
-    </row>
-    <row r="129" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="86"/>
-      <c r="B129" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C129" s="49"/>
-      <c r="D129" s="54"/>
-      <c r="E129" s="58"/>
-      <c r="F129" s="57"/>
-      <c r="G129" s="71"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="90"/>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="87"/>
-      <c r="B130" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="64"/>
-      <c r="E130" s="66"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="69"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="93"/>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A131" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="B131" s="59" t="s">
-        <v>118</v>
       </c>
       <c r="C131" s="44"/>
       <c r="D131" s="65"/>
       <c r="E131" s="65"/>
-      <c r="F131" s="74"/>
-      <c r="G131" s="65"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="90"/>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A132" s="108"/>
+      <c r="F131" s="57"/>
+      <c r="G131" s="70"/>
+      <c r="H131" s="70"/>
+      <c r="I131" s="98"/>
+    </row>
+    <row r="132" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="94"/>
       <c r="B132" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C132" s="49"/>
+      <c r="D132" s="54"/>
+      <c r="E132" s="58"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="71"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="98"/>
+    </row>
+    <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="94"/>
+      <c r="B133" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C132" s="49"/>
-      <c r="D132" s="56"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="75"/>
-      <c r="G132" s="56"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="90"/>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A133" s="108"/>
-      <c r="B133" s="52" t="s">
-        <v>119</v>
-      </c>
       <c r="C133" s="49"/>
-      <c r="D133" s="56"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="75"/>
-      <c r="G133" s="56"/>
+      <c r="D133" s="54"/>
+      <c r="E133" s="58"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="71"/>
       <c r="H133" s="56"/>
-      <c r="I133" s="90"/>
+      <c r="I133" s="98"/>
     </row>
     <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="109"/>
+      <c r="A134" s="95"/>
       <c r="B134" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C134" s="46"/>
-      <c r="D134" s="55"/>
-      <c r="E134" s="55"/>
+      <c r="D134" s="64"/>
+      <c r="E134" s="66"/>
       <c r="F134" s="73"/>
-      <c r="G134" s="55"/>
+      <c r="G134" s="69"/>
       <c r="H134" s="55"/>
-      <c r="I134" s="93"/>
+      <c r="I134" s="101"/>
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="85" t="s">
-        <v>55</v>
+      <c r="A135" s="116" t="s">
+        <v>54</v>
       </c>
       <c r="B135" s="59" t="s">
         <v>118</v>
@@ -4232,10 +4293,10 @@
       <c r="F135" s="74"/>
       <c r="G135" s="65"/>
       <c r="H135" s="65"/>
-      <c r="I135" s="90"/>
+      <c r="I135" s="98"/>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="86"/>
+      <c r="A136" s="117"/>
       <c r="B136" s="52" t="s">
         <v>117</v>
       </c>
@@ -4245,10 +4306,10 @@
       <c r="F136" s="75"/>
       <c r="G136" s="56"/>
       <c r="H136" s="56"/>
-      <c r="I136" s="90"/>
+      <c r="I136" s="98"/>
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="86"/>
+      <c r="A137" s="117"/>
       <c r="B137" s="52" t="s">
         <v>119</v>
       </c>
@@ -4258,10 +4319,10 @@
       <c r="F137" s="75"/>
       <c r="G137" s="56"/>
       <c r="H137" s="56"/>
-      <c r="I137" s="90"/>
+      <c r="I137" s="98"/>
     </row>
     <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="87"/>
+      <c r="A138" s="118"/>
       <c r="B138" s="51" t="s">
         <v>121</v>
       </c>
@@ -4271,11 +4332,11 @@
       <c r="F138" s="73"/>
       <c r="G138" s="55"/>
       <c r="H138" s="55"/>
-      <c r="I138" s="93"/>
+      <c r="I138" s="101"/>
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="111" t="s">
-        <v>84</v>
+      <c r="A139" s="93" t="s">
+        <v>55</v>
       </c>
       <c r="B139" s="59" t="s">
         <v>118</v>
@@ -4286,10 +4347,10 @@
       <c r="F139" s="74"/>
       <c r="G139" s="65"/>
       <c r="H139" s="65"/>
-      <c r="I139" s="90"/>
+      <c r="I139" s="98"/>
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="112"/>
+      <c r="A140" s="94"/>
       <c r="B140" s="52" t="s">
         <v>117</v>
       </c>
@@ -4299,12 +4360,10 @@
       <c r="F140" s="75"/>
       <c r="G140" s="56"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="90"/>
+      <c r="I140" s="98"/>
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="113" t="s">
-        <v>134</v>
-      </c>
+      <c r="A141" s="94"/>
       <c r="B141" s="52" t="s">
         <v>119</v>
       </c>
@@ -4314,10 +4373,10 @@
       <c r="F141" s="75"/>
       <c r="G141" s="56"/>
       <c r="H141" s="56"/>
-      <c r="I141" s="90"/>
+      <c r="I141" s="98"/>
     </row>
     <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="114"/>
+      <c r="A142" s="95"/>
       <c r="B142" s="51" t="s">
         <v>121</v>
       </c>
@@ -4327,11 +4386,11 @@
       <c r="F142" s="73"/>
       <c r="G142" s="55"/>
       <c r="H142" s="55"/>
-      <c r="I142" s="93"/>
+      <c r="I142" s="101"/>
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="111" t="s">
-        <v>43</v>
+      <c r="A143" s="119" t="s">
+        <v>84</v>
       </c>
       <c r="B143" s="59" t="s">
         <v>118</v>
@@ -4342,10 +4401,10 @@
       <c r="F143" s="74"/>
       <c r="G143" s="65"/>
       <c r="H143" s="65"/>
-      <c r="I143" s="90"/>
+      <c r="I143" s="98"/>
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="112"/>
+      <c r="A144" s="120"/>
       <c r="B144" s="52" t="s">
         <v>117</v>
       </c>
@@ -4355,10 +4414,10 @@
       <c r="F144" s="75"/>
       <c r="G144" s="56"/>
       <c r="H144" s="56"/>
-      <c r="I144" s="90"/>
+      <c r="I144" s="98"/>
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="113" t="s">
+      <c r="A145" s="121" t="s">
         <v>134</v>
       </c>
       <c r="B145" s="52" t="s">
@@ -4370,10 +4429,10 @@
       <c r="F145" s="75"/>
       <c r="G145" s="56"/>
       <c r="H145" s="56"/>
-      <c r="I145" s="90"/>
+      <c r="I145" s="98"/>
     </row>
     <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="114"/>
+      <c r="A146" s="122"/>
       <c r="B146" s="51" t="s">
         <v>121</v>
       </c>
@@ -4383,90 +4442,149 @@
       <c r="F146" s="73"/>
       <c r="G146" s="55"/>
       <c r="H146" s="55"/>
-      <c r="I146" s="93"/>
+      <c r="I146" s="101"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A147" s="119" t="s">
+        <v>43</v>
+      </c>
+      <c r="B147" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="C147" s="44"/>
+      <c r="D147" s="65"/>
+      <c r="E147" s="65"/>
+      <c r="F147" s="74"/>
+      <c r="G147" s="65"/>
+      <c r="H147" s="65"/>
+      <c r="I147" s="98"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A148" s="120"/>
+      <c r="B148" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="C148" s="49"/>
+      <c r="D148" s="56"/>
+      <c r="E148" s="56"/>
+      <c r="F148" s="75"/>
+      <c r="G148" s="56"/>
+      <c r="H148" s="56"/>
+      <c r="I148" s="98"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A149" s="121" t="s">
+        <v>134</v>
+      </c>
+      <c r="B149" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="C149" s="49"/>
+      <c r="D149" s="56"/>
+      <c r="E149" s="56"/>
+      <c r="F149" s="75"/>
+      <c r="G149" s="56"/>
+      <c r="H149" s="56"/>
+      <c r="I149" s="98"/>
+    </row>
+    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="122"/>
+      <c r="B150" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C150" s="46"/>
+      <c r="D150" s="55"/>
+      <c r="E150" s="55"/>
+      <c r="F150" s="73"/>
+      <c r="G150" s="55"/>
+      <c r="H150" s="55"/>
+      <c r="I150" s="101"/>
     </row>
   </sheetData>
-  <mergeCells count="78">
+  <mergeCells count="80">
+    <mergeCell ref="I19:I22"/>
+    <mergeCell ref="A23:A26"/>
+    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="A15:A18"/>
     <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A149:A150"/>
     <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="I139:I142"/>
-    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="A127:A130"/>
+    <mergeCell ref="A107:A110"/>
     <mergeCell ref="I143:I146"/>
     <mergeCell ref="I131:I134"/>
+    <mergeCell ref="I147:I150"/>
     <mergeCell ref="I135:I138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="I79:I82"/>
+    <mergeCell ref="I139:I142"/>
+    <mergeCell ref="A143:A144"/>
+    <mergeCell ref="A145:A146"/>
+    <mergeCell ref="I83:I86"/>
+    <mergeCell ref="I123:I126"/>
+    <mergeCell ref="I127:I130"/>
+    <mergeCell ref="I107:I110"/>
+    <mergeCell ref="A147:A148"/>
+    <mergeCell ref="I103:I106"/>
     <mergeCell ref="I119:I122"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="I111:I114"/>
     <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I107:I110"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="I83:I86"/>
     <mergeCell ref="I87:I90"/>
     <mergeCell ref="I91:I94"/>
     <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="I99:I102"/>
+    <mergeCell ref="A135:A138"/>
     <mergeCell ref="I47:I50"/>
     <mergeCell ref="I51:I54"/>
     <mergeCell ref="I55:I58"/>
-    <mergeCell ref="A75:A78"/>
     <mergeCell ref="I59:I62"/>
+    <mergeCell ref="A79:A82"/>
     <mergeCell ref="I63:I66"/>
     <mergeCell ref="I67:I70"/>
     <mergeCell ref="I71:I74"/>
     <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I23:I26"/>
+    <mergeCell ref="I79:I82"/>
     <mergeCell ref="I27:I30"/>
     <mergeCell ref="I31:I34"/>
     <mergeCell ref="I35:I38"/>
     <mergeCell ref="I39:I42"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="I43:I46"/>
+    <mergeCell ref="A139:A142"/>
+    <mergeCell ref="A59:A62"/>
     <mergeCell ref="A67:A70"/>
     <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A59:A62"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A63:A66"/>
+    <mergeCell ref="A103:A106"/>
+    <mergeCell ref="A119:A122"/>
+    <mergeCell ref="A111:A114"/>
+    <mergeCell ref="A115:A118"/>
     <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="A111:A114"/>
     <mergeCell ref="A95:A98"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A131:A134"/>
+    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A35:A38"/>
+    <mergeCell ref="A11:A14"/>
+    <mergeCell ref="A27:A30"/>
+    <mergeCell ref="A51:A54"/>
+    <mergeCell ref="A55:A58"/>
     <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A31:A34"/>
+    <mergeCell ref="A87:A90"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A43:A46"/>
+    <mergeCell ref="A47:A50"/>
+    <mergeCell ref="A83:A86"/>
+    <mergeCell ref="I3:I6"/>
+    <mergeCell ref="I11:I14"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="I7:I10"/>
     <mergeCell ref="G1:H1"/>
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I7:I10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4486,26 +4604,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="91" t="s">
+      <c r="B1" s="99" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="106" t="s">
+      <c r="D1" s="115" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="106"/>
+      <c r="E1" s="115"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="92"/>
-      <c r="B2" s="92"/>
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -4520,7 +4638,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="89" t="s">
+      <c r="A3" s="97" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4537,7 +4655,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="90"/>
+      <c r="A4" s="98"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4546,7 +4664,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="90"/>
+      <c r="A5" s="98"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4555,7 +4673,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="90"/>
+      <c r="A6" s="98"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -4564,7 +4682,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="90"/>
+      <c r="A7" s="98"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4573,7 +4691,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90"/>
+      <c r="A8" s="98"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -4585,7 +4703,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="97" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4593,13 +4711,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="90"/>
+      <c r="A10" s="98"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="93"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -4629,7 +4747,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="89" t="s">
+      <c r="A14" s="97" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -4637,13 +4755,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
+      <c r="A15" s="98"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -4653,7 +4771,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89" t="s">
+      <c r="A17" s="97" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4661,25 +4779,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="102"/>
+      <c r="A18" s="110"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="102"/>
+      <c r="A19" s="110"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="102"/>
+      <c r="A20" s="110"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="93"/>
+      <c r="A21" s="101"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -4725,7 +4843,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="98" t="s">
+      <c r="A25" s="106" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4733,13 +4851,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="99"/>
+      <c r="A26" s="107"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="100"/>
+      <c r="A27" s="108"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -4761,7 +4879,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="98" t="s">
+      <c r="A29" s="106" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4769,33 +4887,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="101"/>
+      <c r="A30" s="109"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="101"/>
-      <c r="B31" s="96" t="s">
+      <c r="A31" s="109"/>
+      <c r="B31" s="104" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="101"/>
-      <c r="B32" s="96"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="104"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="101"/>
-      <c r="B33" s="96" t="s">
+      <c r="A33" s="109"/>
+      <c r="B33" s="104" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="101"/>
-      <c r="B34" s="96"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="104"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="100"/>
+      <c r="A35" s="108"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -4817,7 +4935,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="98" t="s">
+      <c r="A37" s="106" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4825,19 +4943,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="99"/>
+      <c r="A38" s="107"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="99"/>
+      <c r="A39" s="107"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="99"/>
+      <c r="A40" s="107"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -4859,7 +4977,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="s">
+      <c r="A42" s="106" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4867,7 +4985,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="100"/>
+      <c r="A43" s="108"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -4877,7 +4995,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="106" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4885,25 +5003,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="107"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
+      <c r="A46" s="107"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="99"/>
+      <c r="A47" s="107"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="100"/>
+      <c r="A48" s="108"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -4913,7 +5031,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="106" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -4921,13 +5039,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="99"/>
+      <c r="A50" s="107"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="100"/>
+      <c r="A51" s="108"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="148">
   <si>
     <t>Página</t>
   </si>
@@ -459,6 +459,18 @@
   </si>
   <si>
     <t xml:space="preserve">but we don't have defined the prizings yet </t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>getActiveLineups(actualUser)</t>
+  </si>
+  <si>
+    <t>Task No.</t>
+  </si>
+  <si>
+    <t>This depends upon the definition of Prizing Sructures</t>
   </si>
 </sst>
 </file>
@@ -495,15 +507,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -540,11 +558,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="153">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -783,20 +847,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -807,86 +922,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -894,6 +1036,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1185,37 +1332,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="99" t="s">
+      <c r="B1" s="113" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="99" t="s">
+      <c r="D1" s="113" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="99"/>
-      <c r="F1" s="102" t="s">
+      <c r="E1" s="113"/>
+      <c r="F1" s="115" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
+      <c r="C2" s="114"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="116"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1235,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1251,7 +1398,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1267,7 +1414,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1283,7 +1430,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1299,7 +1446,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1313,7 +1460,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1322,7 +1469,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="91" t="s">
+      <c r="D9" s="99" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1333,7 +1480,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -1346,14 +1493,14 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="92"/>
+      <c r="D11" s="98"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1396,47 +1543,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="111" t="s">
+      <c r="C14" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="90" t="s">
+      <c r="D14" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="90">
+      <c r="E14" s="97">
         <v>0.5</v>
       </c>
-      <c r="F14" s="93" t="s">
+      <c r="F14" s="110" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="112"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="94"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="99"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="111"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="95"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="112"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="100" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1445,7 +1592,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="90" t="s">
+      <c r="D17" s="97" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1456,53 +1603,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="91"/>
+      <c r="D18" s="99"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="91"/>
+      <c r="D19" s="99"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="91"/>
+      <c r="D20" s="99"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="92"/>
+      <c r="D21" s="98"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1565,7 +1712,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="93" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1574,7 +1721,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="90" t="s">
+      <c r="D25" s="97" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1585,7 +1732,7 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
@@ -1598,14 +1745,14 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="92"/>
+      <c r="D27" s="98"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1632,7 +1779,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="93" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1665,7 +1812,7 @@
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="107" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
@@ -1683,7 +1830,7 @@
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
-      <c r="B32" s="104"/>
+      <c r="B32" s="107"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
@@ -1694,7 +1841,7 @@
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="107" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
@@ -1712,7 +1859,7 @@
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
-      <c r="B34" s="104"/>
+      <c r="B34" s="107"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
@@ -1725,7 +1872,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1763,7 +1910,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1783,7 +1930,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1798,7 +1945,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1813,8 +1960,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="107"/>
-      <c r="B40" s="104" t="s">
+      <c r="A40" s="94"/>
+      <c r="B40" s="107" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1828,8 +1975,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="108"/>
-      <c r="B41" s="105"/>
+      <c r="A41" s="95"/>
+      <c r="B41" s="108"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -1860,7 +2007,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="106" t="s">
+      <c r="A43" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -1869,7 +2016,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="90" t="s">
+      <c r="D43" s="97" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -1880,14 +2027,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="108"/>
+      <c r="A44" s="95"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="92"/>
+      <c r="D44" s="98"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -1896,7 +2043,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="106" t="s">
+      <c r="A45" s="93" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -1905,7 +2052,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="90" t="s">
+      <c r="D45" s="97" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -1913,7 +2060,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
@@ -1926,7 +2073,7 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
@@ -1937,7 +2084,7 @@
       <c r="E47" s="96"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="107"/>
+      <c r="A48" s="94"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
@@ -1948,21 +2095,21 @@
       <c r="E48" s="96"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="108"/>
+      <c r="A49" s="95"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="92"/>
+      <c r="D49" s="98"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="106" t="s">
+      <c r="A50" s="93" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -1971,7 +2118,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="90" t="s">
+      <c r="D50" s="97" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -1979,7 +2126,7 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="107"/>
+      <c r="A51" s="94"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
@@ -1992,14 +2139,14 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="108"/>
+      <c r="A52" s="95"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="92"/>
+      <c r="D52" s="98"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2080,27 +2227,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2111,6 +2237,27 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2119,2469 +2266,3086 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J150"/>
+  <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:A58"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L147" sqref="L147"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="61" style="53" customWidth="1"/>
-    <col min="2" max="2" width="29.85546875" style="53" customWidth="1"/>
-    <col min="3" max="3" width="14" style="45" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="50"/>
-    <col min="6" max="6" width="13.42578125" style="72" customWidth="1"/>
-    <col min="7" max="8" width="11.42578125" style="50"/>
-    <col min="10" max="10" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="2" max="2" width="61" style="53" customWidth="1"/>
+    <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="14" style="45" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="50"/>
+    <col min="7" max="7" width="13.42578125" style="72" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="50"/>
+    <col min="11" max="11" width="21.28515625" style="133" customWidth="1"/>
+    <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="94" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="147" t="s">
+        <v>146</v>
+      </c>
+      <c r="B1" s="111" t="s">
         <v>116</v>
       </c>
-      <c r="B1" s="94" t="s">
+      <c r="C1" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="E1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="115"/>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="125"/>
+      <c r="G1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="G1" s="115" t="s">
+      <c r="H1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="H1" s="115"/>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="95"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="46" t="s">
+      <c r="K1" s="130" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="147"/>
+      <c r="B2" s="112"/>
+      <c r="C2" s="112"/>
+      <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="G2" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="55" t="s">
+      <c r="H2" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="I2" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="I2" s="48" t="s">
+      <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="93" t="s">
+      <c r="K2" s="130"/>
+    </row>
+    <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="148">
+        <v>1</v>
+      </c>
+      <c r="B3" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="C3" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="60"/>
+      <c r="D3" s="44"/>
       <c r="E3" s="60"/>
-      <c r="F3" s="74"/>
-      <c r="G3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="74"/>
       <c r="H3" s="60"/>
-      <c r="I3" s="114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="94"/>
-      <c r="B4" s="52" t="s">
+      <c r="I3" s="60"/>
+      <c r="J3" s="117">
+        <v>1</v>
+      </c>
+      <c r="K3" s="131"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="149">
+        <v>2</v>
+      </c>
+      <c r="B4" s="111"/>
+      <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="49"/>
-      <c r="D4" s="56"/>
+      <c r="D4" s="49"/>
       <c r="E4" s="56"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="56"/>
+      <c r="F4" s="56"/>
+      <c r="G4" s="75"/>
       <c r="H4" s="56"/>
-      <c r="I4" s="98"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="94"/>
-      <c r="B5" s="52" t="s">
+      <c r="I4" s="56"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="132"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="149">
+        <v>3</v>
+      </c>
+      <c r="B5" s="111"/>
+      <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="56"/>
+      <c r="D5" s="49"/>
       <c r="E5" s="56"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="75"/>
       <c r="H5" s="56"/>
-      <c r="I5" s="98"/>
-    </row>
-    <row r="6" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="95"/>
-      <c r="B6" s="51" t="s">
+      <c r="I5" s="56"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="132"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="150">
+        <v>4</v>
+      </c>
+      <c r="B6" s="112"/>
+      <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="55"/>
+      <c r="D6" s="46"/>
       <c r="E6" s="55"/>
-      <c r="F6" s="73"/>
-      <c r="G6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="73"/>
       <c r="H6" s="55"/>
-      <c r="I6" s="101"/>
-    </row>
-    <row r="7" spans="1:9" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="93" t="s">
+      <c r="I6" s="55"/>
+      <c r="J6" s="102"/>
+      <c r="K6" s="132"/>
+    </row>
+    <row r="7" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="148">
+        <v>5</v>
+      </c>
+      <c r="B7" s="110" t="s">
         <v>141</v>
       </c>
-      <c r="B7" s="86" t="s">
+      <c r="C7" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="C7" s="82">
-        <v>1</v>
-      </c>
-      <c r="D7" s="61">
-        <v>43121</v>
+      <c r="D7" s="82">
+        <v>1</v>
       </c>
       <c r="E7" s="61">
         <v>43121</v>
       </c>
-      <c r="F7" s="74">
-        <v>1</v>
-      </c>
-      <c r="G7" s="61">
+      <c r="F7" s="61">
         <v>43121</v>
+      </c>
+      <c r="G7" s="74">
+        <v>1</v>
       </c>
       <c r="H7" s="61">
         <v>43121</v>
       </c>
-      <c r="I7" s="114"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="94"/>
-      <c r="B8" s="87" t="s">
+      <c r="I7" s="61">
+        <v>43121</v>
+      </c>
+      <c r="J7" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K7" s="131"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="149">
+        <v>6</v>
+      </c>
+      <c r="B8" s="111"/>
+      <c r="C8" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="C8" s="83"/>
-      <c r="D8" s="56"/>
+      <c r="D8" s="83"/>
       <c r="E8" s="56"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="56"/>
+      <c r="F8" s="56"/>
+      <c r="G8" s="75"/>
       <c r="H8" s="56"/>
-      <c r="I8" s="98"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="94"/>
-      <c r="B9" s="87" t="s">
+      <c r="I8" s="56"/>
+      <c r="J8" s="106"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="149">
+        <v>7</v>
+      </c>
+      <c r="B9" s="111"/>
+      <c r="C9" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="83"/>
-      <c r="D9" s="56"/>
+      <c r="D9" s="83"/>
       <c r="E9" s="56"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="75"/>
       <c r="H9" s="56"/>
-      <c r="I9" s="98"/>
-    </row>
-    <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="95"/>
-      <c r="B10" s="51" t="s">
+      <c r="I9" s="56"/>
+      <c r="J9" s="106"/>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="150">
+        <v>8</v>
+      </c>
+      <c r="B10" s="112"/>
+      <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C10" s="84"/>
-      <c r="D10" s="55"/>
+      <c r="D10" s="84"/>
       <c r="E10" s="55"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="55"/>
+      <c r="G10" s="73"/>
       <c r="H10" s="55"/>
-      <c r="I10" s="101"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="93" t="s">
+      <c r="I10" s="55"/>
+      <c r="J10" s="102"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="148">
+        <v>9</v>
+      </c>
+      <c r="B11" s="110" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="59" t="s">
+      <c r="C11" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C11" s="44">
-        <v>1</v>
-      </c>
-      <c r="D11" s="58">
+      <c r="D11" s="44">
+        <v>1</v>
+      </c>
+      <c r="E11" s="58">
         <v>43118</v>
       </c>
-      <c r="E11" s="58">
+      <c r="F11" s="58">
         <v>42753</v>
       </c>
-      <c r="F11" s="72">
-        <v>1</v>
-      </c>
-      <c r="G11" s="70">
+      <c r="G11" s="72">
+        <v>1</v>
+      </c>
+      <c r="H11" s="70">
         <v>43118</v>
       </c>
-      <c r="H11" s="65">
+      <c r="I11" s="65">
         <v>43118</v>
       </c>
-      <c r="I11" s="114">
+      <c r="J11" s="117">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="94"/>
-      <c r="B12" s="52" t="s">
+      <c r="K11" s="132"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="149">
+        <v>10</v>
+      </c>
+      <c r="B12" s="111"/>
+      <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="58"/>
+      <c r="D12" s="49"/>
       <c r="E12" s="58"/>
-      <c r="G12" s="71"/>
-      <c r="H12" s="58"/>
-      <c r="I12" s="98"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="94"/>
-      <c r="B13" s="52" t="s">
+      <c r="F12" s="58"/>
+      <c r="H12" s="71"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="106"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="149">
+        <v>11</v>
+      </c>
+      <c r="B13" s="111"/>
+      <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C13" s="49"/>
-      <c r="D13" s="58"/>
+      <c r="D13" s="49"/>
       <c r="E13" s="58"/>
-      <c r="G13" s="71"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="98"/>
-    </row>
-    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="95"/>
-      <c r="B14" s="51" t="s">
+      <c r="F13" s="58"/>
+      <c r="H13" s="71"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="106"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="150">
+        <v>12</v>
+      </c>
+      <c r="B14" s="112"/>
+      <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="66"/>
+      <c r="D14" s="46"/>
       <c r="E14" s="66"/>
-      <c r="F14" s="73"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="101"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="93" t="s">
+      <c r="F14" s="66"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="63"/>
+      <c r="J14" s="102"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="148">
+        <v>13</v>
+      </c>
+      <c r="B15" s="110" t="s">
         <v>138</v>
       </c>
-      <c r="B15" s="80" t="s">
+      <c r="C15" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C15" s="77">
-        <v>1</v>
-      </c>
-      <c r="D15" s="58">
+      <c r="D15" s="77">
+        <v>1</v>
+      </c>
+      <c r="E15" s="58">
         <v>43118</v>
       </c>
-      <c r="E15" s="58">
+      <c r="F15" s="58">
         <v>42753</v>
       </c>
-      <c r="F15" s="72">
-        <v>1</v>
-      </c>
-      <c r="G15" s="70">
+      <c r="G15" s="72">
+        <v>1</v>
+      </c>
+      <c r="H15" s="70">
         <v>43118</v>
       </c>
-      <c r="H15" s="65">
+      <c r="I15" s="65">
         <v>43118</v>
       </c>
-      <c r="I15" s="114">
+      <c r="J15" s="117">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="94"/>
-      <c r="B16" s="81" t="s">
+      <c r="K15" s="132"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="149">
+        <v>14</v>
+      </c>
+      <c r="B16" s="111"/>
+      <c r="C16" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C16" s="79"/>
-      <c r="D16" s="58"/>
+      <c r="D16" s="79"/>
       <c r="E16" s="58"/>
-      <c r="G16" s="71"/>
-      <c r="H16" s="58"/>
-      <c r="I16" s="98"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="94"/>
-      <c r="B17" s="81" t="s">
+      <c r="F16" s="58"/>
+      <c r="H16" s="71"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="106"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="149">
+        <v>15</v>
+      </c>
+      <c r="B17" s="111"/>
+      <c r="C17" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="79"/>
-      <c r="D17" s="58"/>
+      <c r="D17" s="79"/>
       <c r="E17" s="58"/>
-      <c r="G17" s="71"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="98"/>
-    </row>
-    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
-      <c r="B18" s="51" t="s">
+      <c r="F17" s="58"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="150">
+        <v>16</v>
+      </c>
+      <c r="B18" s="112"/>
+      <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C18" s="78"/>
-      <c r="D18" s="66"/>
+      <c r="D18" s="78"/>
       <c r="E18" s="66"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="101"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="93" t="s">
+      <c r="F18" s="66"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="102"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="148">
+        <v>17</v>
+      </c>
+      <c r="B19" s="110" t="s">
         <v>135</v>
       </c>
-      <c r="B19" s="80" t="s">
+      <c r="C19" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C19" s="77">
-        <v>1</v>
-      </c>
-      <c r="D19" s="58">
+      <c r="D19" s="77">
+        <v>1</v>
+      </c>
+      <c r="E19" s="58">
         <v>43118</v>
       </c>
-      <c r="E19" s="58">
+      <c r="F19" s="58">
         <v>42753</v>
       </c>
-      <c r="F19" s="72">
-        <v>1</v>
-      </c>
-      <c r="G19" s="70">
+      <c r="G19" s="72">
+        <v>1</v>
+      </c>
+      <c r="H19" s="70">
         <v>43118</v>
       </c>
-      <c r="H19" s="65">
+      <c r="I19" s="65">
         <v>43118</v>
       </c>
-      <c r="I19" s="114">
+      <c r="J19" s="117">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="94"/>
-      <c r="B20" s="81" t="s">
+      <c r="K19" s="132"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="149">
+        <v>18</v>
+      </c>
+      <c r="B20" s="111"/>
+      <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C20" s="79"/>
-      <c r="D20" s="58"/>
+      <c r="D20" s="79"/>
       <c r="E20" s="58"/>
-      <c r="G20" s="71"/>
-      <c r="H20" s="58"/>
-      <c r="I20" s="98"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="94"/>
-      <c r="B21" s="81" t="s">
+      <c r="F20" s="58"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="106"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="149">
+        <v>19</v>
+      </c>
+      <c r="B21" s="111"/>
+      <c r="C21" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="58"/>
+      <c r="D21" s="79"/>
       <c r="E21" s="58"/>
-      <c r="G21" s="71"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="98"/>
-    </row>
-    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="95"/>
-      <c r="B22" s="51" t="s">
+      <c r="F21" s="58"/>
+      <c r="H21" s="71"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="106"/>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="150">
+        <v>20</v>
+      </c>
+      <c r="B22" s="112"/>
+      <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="66"/>
+      <c r="D22" s="78"/>
       <c r="E22" s="66"/>
-      <c r="F22" s="73"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="101"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+      <c r="F22" s="66"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="102"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="148">
+        <v>21</v>
+      </c>
+      <c r="B23" s="110" t="s">
         <v>136</v>
       </c>
-      <c r="B23" s="80" t="s">
+      <c r="C23" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="77">
-        <v>1</v>
-      </c>
-      <c r="D23" s="58">
+      <c r="D23" s="77">
+        <v>1</v>
+      </c>
+      <c r="E23" s="58">
         <v>43118</v>
       </c>
-      <c r="E23" s="58">
+      <c r="F23" s="58">
         <v>42753</v>
       </c>
-      <c r="F23" s="72">
-        <v>1</v>
-      </c>
-      <c r="G23" s="70">
+      <c r="G23" s="72">
+        <v>1</v>
+      </c>
+      <c r="H23" s="70">
         <v>43118</v>
       </c>
-      <c r="H23" s="65">
+      <c r="I23" s="65">
         <v>43118</v>
       </c>
-      <c r="I23" s="114">
+      <c r="J23" s="117">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="81" t="s">
+      <c r="K23" s="132"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="149">
+        <v>22</v>
+      </c>
+      <c r="B24" s="111"/>
+      <c r="C24" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="58"/>
+      <c r="D24" s="79"/>
       <c r="E24" s="58"/>
-      <c r="G24" s="71"/>
-      <c r="H24" s="58"/>
-      <c r="I24" s="98"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="81" t="s">
+      <c r="F24" s="58"/>
+      <c r="H24" s="71"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="106"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="149">
+        <v>23</v>
+      </c>
+      <c r="B25" s="111"/>
+      <c r="C25" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="79"/>
-      <c r="D25" s="58"/>
+      <c r="D25" s="79"/>
       <c r="E25" s="58"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="98"/>
-    </row>
-    <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="95"/>
-      <c r="B26" s="51" t="s">
+      <c r="F25" s="58"/>
+      <c r="H25" s="71"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="106"/>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="150">
+        <v>24</v>
+      </c>
+      <c r="B26" s="112"/>
+      <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C26" s="78"/>
-      <c r="D26" s="66"/>
+      <c r="D26" s="78"/>
       <c r="E26" s="66"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="63"/>
-      <c r="I26" s="101"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="93" t="s">
+      <c r="F26" s="66"/>
+      <c r="G26" s="73"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="102"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="148">
+        <v>25</v>
+      </c>
+      <c r="B27" s="110" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="C27" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="44">
-        <v>1</v>
-      </c>
-      <c r="D27" s="65">
-        <v>43119</v>
+      <c r="D27" s="44">
+        <v>1</v>
       </c>
       <c r="E27" s="65">
         <v>43119</v>
       </c>
-      <c r="F27" s="72">
-        <v>1</v>
-      </c>
-      <c r="G27" s="70">
+      <c r="F27" s="65">
         <v>43119</v>
       </c>
-      <c r="H27" s="65">
-        <v>43119</v>
-      </c>
-      <c r="I27" s="98"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="94"/>
-      <c r="B28" s="52" t="s">
+      <c r="G27" s="72">
+        <v>1</v>
+      </c>
+      <c r="H27" s="70">
+        <v>43121</v>
+      </c>
+      <c r="I27" s="65">
+        <v>43121</v>
+      </c>
+      <c r="J27" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K27" s="132"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="149">
+        <v>26</v>
+      </c>
+      <c r="B28" s="111"/>
+      <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C28" s="49"/>
-      <c r="D28" s="58"/>
+      <c r="D28" s="49"/>
       <c r="E28" s="58"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="56"/>
-      <c r="I28" s="98"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="94"/>
-      <c r="B29" s="52" t="s">
+      <c r="F28" s="58"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="56"/>
+      <c r="J28" s="106"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="149">
+        <v>27</v>
+      </c>
+      <c r="B29" s="111"/>
+      <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C29" s="49"/>
-      <c r="D29" s="58"/>
+      <c r="D29" s="49"/>
       <c r="E29" s="58"/>
-      <c r="G29" s="71"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="98"/>
-    </row>
-    <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="95"/>
-      <c r="B30" s="51" t="s">
+      <c r="F29" s="58"/>
+      <c r="H29" s="71"/>
+      <c r="I29" s="56"/>
+      <c r="J29" s="106"/>
+    </row>
+    <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="150">
+        <v>28</v>
+      </c>
+      <c r="B30" s="112"/>
+      <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C30" s="46"/>
-      <c r="D30" s="66"/>
+      <c r="D30" s="46"/>
       <c r="E30" s="66"/>
-      <c r="F30" s="73"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="101"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="93" t="s">
+      <c r="F30" s="66"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="102"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="148">
+        <v>29</v>
+      </c>
+      <c r="B31" s="110" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="C31" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C31" s="44">
-        <v>1</v>
-      </c>
-      <c r="D31" s="65">
-        <v>43119</v>
+      <c r="D31" s="44">
+        <v>1</v>
       </c>
       <c r="E31" s="65">
         <v>43119</v>
       </c>
-      <c r="F31" s="72">
-        <v>1</v>
-      </c>
-      <c r="G31" s="70">
+      <c r="F31" s="65">
         <v>43119</v>
       </c>
-      <c r="H31" s="65">
-        <v>43119</v>
-      </c>
-      <c r="I31" s="98"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="94"/>
-      <c r="B32" s="52" t="s">
+      <c r="G31" s="72">
+        <v>1</v>
+      </c>
+      <c r="H31" s="70">
+        <v>43121</v>
+      </c>
+      <c r="I31" s="65">
+        <v>43121</v>
+      </c>
+      <c r="J31" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K31" s="132"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="149">
+        <v>30</v>
+      </c>
+      <c r="B32" s="111"/>
+      <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="49"/>
-      <c r="D32" s="58"/>
+      <c r="D32" s="49"/>
       <c r="E32" s="58"/>
-      <c r="G32" s="71"/>
-      <c r="H32" s="56"/>
-      <c r="I32" s="98"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="94"/>
-      <c r="B33" s="52" t="s">
+      <c r="F32" s="58"/>
+      <c r="H32" s="71"/>
+      <c r="I32" s="56"/>
+      <c r="J32" s="106"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="149">
+        <v>31</v>
+      </c>
+      <c r="B33" s="111"/>
+      <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C33" s="49"/>
-      <c r="D33" s="58"/>
+      <c r="D33" s="49"/>
       <c r="E33" s="58"/>
-      <c r="G33" s="71"/>
-      <c r="H33" s="56"/>
-      <c r="I33" s="98"/>
-    </row>
-    <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="95"/>
-      <c r="B34" s="51" t="s">
+      <c r="F33" s="58"/>
+      <c r="H33" s="71"/>
+      <c r="I33" s="56"/>
+      <c r="J33" s="106"/>
+    </row>
+    <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="150">
+        <v>32</v>
+      </c>
+      <c r="B34" s="112"/>
+      <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="66"/>
+      <c r="D34" s="46"/>
       <c r="E34" s="66"/>
-      <c r="F34" s="73"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="101"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="93" t="s">
+      <c r="F34" s="66"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="55"/>
+      <c r="J34" s="102"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="148">
+        <v>33</v>
+      </c>
+      <c r="B35" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="B35" s="59" t="s">
+      <c r="C35" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C35" s="44">
-        <v>1</v>
-      </c>
-      <c r="D35" s="65">
-        <v>43119</v>
+      <c r="D35" s="44">
+        <v>1</v>
       </c>
       <c r="E35" s="65">
         <v>43119</v>
       </c>
-      <c r="F35" s="72">
-        <v>1</v>
-      </c>
-      <c r="G35" s="70">
+      <c r="F35" s="65">
         <v>43119</v>
       </c>
-      <c r="H35" s="65">
-        <v>43119</v>
-      </c>
-      <c r="I35" s="98"/>
-      <c r="J35" s="89" t="s">
+      <c r="G35" s="72">
+        <v>1</v>
+      </c>
+      <c r="H35" s="126">
+        <v>43121</v>
+      </c>
+      <c r="I35" s="127">
+        <v>43121</v>
+      </c>
+      <c r="J35" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K35" s="132"/>
+      <c r="L35" s="134" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="94"/>
-      <c r="B36" s="52" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="149">
+        <v>34</v>
+      </c>
+      <c r="B36" s="111"/>
+      <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C36" s="49"/>
-      <c r="D36" s="54"/>
+      <c r="D36" s="49"/>
       <c r="E36" s="54"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="56"/>
-      <c r="I36" s="98"/>
-      <c r="J36" s="89" t="s">
+      <c r="F36" s="54"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="56"/>
+      <c r="J36" s="106"/>
+      <c r="L36" s="134" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="52" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="149">
+        <v>35</v>
+      </c>
+      <c r="B37" s="111"/>
+      <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C37" s="49"/>
-      <c r="D37" s="54"/>
+      <c r="D37" s="49"/>
       <c r="E37" s="54"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="56"/>
-      <c r="I37" s="98"/>
-      <c r="J37" s="88"/>
-    </row>
-    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="95"/>
-      <c r="B38" s="51" t="s">
+      <c r="F37" s="54"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="56"/>
+      <c r="J37" s="106"/>
+      <c r="K37" s="135"/>
+    </row>
+    <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="150">
+        <v>36</v>
+      </c>
+      <c r="B38" s="112"/>
+      <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C38" s="46"/>
-      <c r="D38" s="64"/>
+      <c r="D38" s="46"/>
       <c r="E38" s="64"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="101"/>
-      <c r="J38" s="88"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="116" t="s">
+      <c r="F38" s="64"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="55"/>
+      <c r="J38" s="102"/>
+      <c r="K38" s="135"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="148">
+        <v>37</v>
+      </c>
+      <c r="B39" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="59" t="s">
+      <c r="C39" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C39" s="44">
-        <v>1</v>
-      </c>
-      <c r="D39" s="65">
-        <v>43119</v>
+      <c r="D39" s="44">
+        <v>1</v>
       </c>
       <c r="E39" s="65">
         <v>43119</v>
       </c>
-      <c r="F39" s="72">
-        <v>1</v>
-      </c>
-      <c r="G39" s="70">
+      <c r="F39" s="65">
         <v>43119</v>
       </c>
-      <c r="H39" s="65">
-        <v>43119</v>
-      </c>
-      <c r="I39" s="98"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="117"/>
-      <c r="B40" s="52" t="s">
+      <c r="G39" s="72">
+        <v>1</v>
+      </c>
+      <c r="H39" s="126">
+        <v>43121</v>
+      </c>
+      <c r="I39" s="127">
+        <v>43121</v>
+      </c>
+      <c r="J39" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K39" s="132"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="149">
+        <v>38</v>
+      </c>
+      <c r="B40" s="121"/>
+      <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="54"/>
+      <c r="D40" s="49"/>
       <c r="E40" s="54"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="56"/>
+      <c r="F40" s="54"/>
+      <c r="G40" s="75"/>
       <c r="H40" s="56"/>
-      <c r="I40" s="98"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="117"/>
-      <c r="B41" s="52" t="s">
+      <c r="I40" s="56"/>
+      <c r="J40" s="106"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="149">
+        <v>39</v>
+      </c>
+      <c r="B41" s="121"/>
+      <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="54"/>
+      <c r="D41" s="49"/>
       <c r="E41" s="54"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="56"/>
+      <c r="F41" s="54"/>
+      <c r="G41" s="75"/>
       <c r="H41" s="56"/>
-      <c r="I41" s="98"/>
-    </row>
-    <row r="42" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="118"/>
-      <c r="B42" s="51" t="s">
+      <c r="I41" s="56"/>
+      <c r="J41" s="106"/>
+    </row>
+    <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="150">
+        <v>40</v>
+      </c>
+      <c r="B42" s="122"/>
+      <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C42" s="46"/>
-      <c r="D42" s="64"/>
+      <c r="D42" s="46"/>
       <c r="E42" s="64"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="55"/>
+      <c r="F42" s="64"/>
+      <c r="G42" s="73"/>
       <c r="H42" s="55"/>
-      <c r="I42" s="101"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" s="97" t="s">
+      <c r="I42" s="55"/>
+      <c r="J42" s="102"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="148">
+        <v>41</v>
+      </c>
+      <c r="B43" s="110" t="s">
         <v>128</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="C43" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="44">
-        <v>1</v>
-      </c>
-      <c r="D43" s="65">
-        <v>43120</v>
+      <c r="D43" s="44">
+        <v>1</v>
       </c>
       <c r="E43" s="65">
         <v>43120</v>
       </c>
-      <c r="F43" s="72">
-        <v>1</v>
-      </c>
-      <c r="G43" s="70">
+      <c r="F43" s="65">
         <v>43120</v>
       </c>
-      <c r="H43" s="61">
-        <v>43120</v>
-      </c>
-      <c r="I43" s="98"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" s="98"/>
-      <c r="B44" s="52" t="s">
+      <c r="G43" s="72">
+        <v>1</v>
+      </c>
+      <c r="H43" s="126">
+        <v>43121</v>
+      </c>
+      <c r="I43" s="127">
+        <v>43121</v>
+      </c>
+      <c r="J43" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K43" s="132"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="149">
+        <v>42</v>
+      </c>
+      <c r="B44" s="111"/>
+      <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C44" s="49"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="56"/>
-      <c r="F44" s="75"/>
-      <c r="G44" s="56"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="67"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="75"/>
       <c r="H44" s="56"/>
-      <c r="I44" s="98"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" s="98"/>
-      <c r="B45" s="52" t="s">
+      <c r="I44" s="56"/>
+      <c r="J44" s="106"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="149">
+        <v>43</v>
+      </c>
+      <c r="B45" s="111"/>
+      <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="49"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="56"/>
-      <c r="F45" s="75"/>
-      <c r="G45" s="56"/>
+      <c r="D45" s="49"/>
+      <c r="E45" s="67"/>
+      <c r="F45" s="56"/>
+      <c r="G45" s="75"/>
       <c r="H45" s="56"/>
-      <c r="I45" s="98"/>
-    </row>
-    <row r="46" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="101"/>
-      <c r="B46" s="51" t="s">
+      <c r="I45" s="56"/>
+      <c r="J45" s="106"/>
+    </row>
+    <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="150">
+        <v>44</v>
+      </c>
+      <c r="B46" s="112"/>
+      <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C46" s="46"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="73"/>
-      <c r="G46" s="55"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="68"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="73"/>
       <c r="H46" s="55"/>
-      <c r="I46" s="101"/>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="97" t="s">
+      <c r="I46" s="55"/>
+      <c r="J46" s="102"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="148">
+        <v>45</v>
+      </c>
+      <c r="B47" s="110" t="s">
         <v>129</v>
       </c>
-      <c r="B47" s="59" t="s">
+      <c r="C47" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C47" s="44">
-        <v>1</v>
-      </c>
-      <c r="D47" s="65">
-        <v>43120</v>
+      <c r="D47" s="44">
+        <v>1</v>
       </c>
       <c r="E47" s="65">
         <v>43120</v>
       </c>
-      <c r="F47" s="72">
-        <v>1</v>
-      </c>
-      <c r="G47" s="70">
+      <c r="F47" s="65">
         <v>43120</v>
       </c>
-      <c r="H47" s="61">
-        <v>43120</v>
-      </c>
-      <c r="I47" s="98"/>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="98"/>
-      <c r="B48" s="52" t="s">
+      <c r="G47" s="72">
+        <v>1</v>
+      </c>
+      <c r="H47" s="126">
+        <v>43121</v>
+      </c>
+      <c r="I47" s="127">
+        <v>43121</v>
+      </c>
+      <c r="J47" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K47" s="132"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="149">
+        <v>46</v>
+      </c>
+      <c r="B48" s="111"/>
+      <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="49"/>
-      <c r="D48" s="67"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="75"/>
-      <c r="G48" s="56"/>
+      <c r="D48" s="49"/>
+      <c r="E48" s="67"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="75"/>
       <c r="H48" s="56"/>
-      <c r="I48" s="98"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="98"/>
-      <c r="B49" s="52" t="s">
+      <c r="I48" s="56"/>
+      <c r="J48" s="106"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="149">
+        <v>47</v>
+      </c>
+      <c r="B49" s="111"/>
+      <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C49" s="49"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="56"/>
-      <c r="F49" s="75"/>
-      <c r="G49" s="56"/>
+      <c r="D49" s="49"/>
+      <c r="E49" s="67"/>
+      <c r="F49" s="56"/>
+      <c r="G49" s="75"/>
       <c r="H49" s="56"/>
-      <c r="I49" s="98"/>
-    </row>
-    <row r="50" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="101"/>
-      <c r="B50" s="51" t="s">
+      <c r="I49" s="56"/>
+      <c r="J49" s="106"/>
+    </row>
+    <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="150">
+        <v>48</v>
+      </c>
+      <c r="B50" s="112"/>
+      <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C50" s="46"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="55"/>
-      <c r="F50" s="73"/>
-      <c r="G50" s="55"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="68"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="73"/>
       <c r="H50" s="55"/>
-      <c r="I50" s="101"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="116" t="s">
+      <c r="I50" s="55"/>
+      <c r="J50" s="102"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="148">
+        <v>49</v>
+      </c>
+      <c r="B51" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="59" t="s">
+      <c r="C51" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C51" s="44">
-        <v>1</v>
-      </c>
-      <c r="D51" s="65">
-        <v>43120</v>
+      <c r="D51" s="44">
+        <v>1</v>
       </c>
       <c r="E51" s="65">
         <v>43120</v>
       </c>
-      <c r="F51" s="72">
-        <v>1</v>
-      </c>
-      <c r="G51" s="70">
+      <c r="F51" s="65">
         <v>43120</v>
       </c>
-      <c r="H51" s="61">
-        <v>43120</v>
-      </c>
-      <c r="I51" s="98"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="117"/>
-      <c r="B52" s="52" t="s">
+      <c r="G51" s="72">
+        <v>1</v>
+      </c>
+      <c r="H51" s="126">
+        <v>43121</v>
+      </c>
+      <c r="I51" s="127">
+        <v>43121</v>
+      </c>
+      <c r="J51" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K51" s="132"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="149">
+        <v>50</v>
+      </c>
+      <c r="B52" s="121"/>
+      <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C52" s="49"/>
-      <c r="D52" s="56"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="56"/>
-      <c r="F52" s="75"/>
-      <c r="G52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="75"/>
       <c r="H52" s="56"/>
-      <c r="I52" s="98"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="117"/>
-      <c r="B53" s="52" t="s">
+      <c r="I52" s="56"/>
+      <c r="J52" s="106"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="149">
+        <v>51</v>
+      </c>
+      <c r="B53" s="121"/>
+      <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C53" s="49"/>
-      <c r="D53" s="56"/>
+      <c r="D53" s="49"/>
       <c r="E53" s="56"/>
-      <c r="F53" s="75"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="56"/>
+      <c r="G53" s="75"/>
       <c r="H53" s="56"/>
-      <c r="I53" s="98"/>
-    </row>
-    <row r="54" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="118"/>
-      <c r="B54" s="51" t="s">
+      <c r="I53" s="56"/>
+      <c r="J53" s="106"/>
+    </row>
+    <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="150">
+        <v>52</v>
+      </c>
+      <c r="B54" s="122"/>
+      <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C54" s="46"/>
-      <c r="D54" s="55"/>
+      <c r="D54" s="46"/>
       <c r="E54" s="55"/>
-      <c r="F54" s="73"/>
-      <c r="G54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="73"/>
       <c r="H54" s="55"/>
-      <c r="I54" s="101"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="116" t="s">
+      <c r="I54" s="55"/>
+      <c r="J54" s="102"/>
+    </row>
+    <row r="55" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="148">
+        <v>53</v>
+      </c>
+      <c r="B55" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="59" t="s">
+      <c r="C55" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C55" s="44">
-        <v>1</v>
-      </c>
-      <c r="D55" s="65">
+      <c r="D55" s="90">
+        <v>1</v>
+      </c>
+      <c r="E55" s="136">
         <v>43121</v>
       </c>
-      <c r="E55" s="65">
+      <c r="F55" s="136">
         <v>43121</v>
       </c>
-      <c r="F55" s="74">
-        <v>1</v>
-      </c>
-      <c r="G55" s="65">
+      <c r="G55" s="129">
+        <v>1</v>
+      </c>
+      <c r="H55" s="136">
         <v>43121</v>
       </c>
-      <c r="H55" s="65">
+      <c r="I55" s="136">
         <v>43121</v>
       </c>
-      <c r="I55" s="98"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="117"/>
-      <c r="B56" s="52" t="s">
+      <c r="J55" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K55" s="132"/>
+    </row>
+    <row r="56" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="149">
+        <v>54</v>
+      </c>
+      <c r="B56" s="121"/>
+      <c r="C56" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="C56" s="49"/>
-      <c r="D56" s="67"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="75"/>
-      <c r="G56" s="56"/>
-      <c r="H56" s="56"/>
-      <c r="I56" s="98"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="117"/>
-      <c r="B57" s="52" t="s">
+      <c r="D56" s="91"/>
+      <c r="E56" s="140"/>
+      <c r="F56" s="141"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="141"/>
+      <c r="I56" s="141"/>
+      <c r="J56" s="106"/>
+      <c r="K56" s="137"/>
+    </row>
+    <row r="57" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="149">
+        <v>55</v>
+      </c>
+      <c r="B57" s="121"/>
+      <c r="C57" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="C57" s="49"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="56"/>
-      <c r="F57" s="75"/>
-      <c r="G57" s="56"/>
-      <c r="H57" s="56"/>
-      <c r="I57" s="98"/>
-    </row>
-    <row r="58" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="118"/>
-      <c r="B58" s="51" t="s">
+      <c r="D57" s="91"/>
+      <c r="E57" s="140"/>
+      <c r="F57" s="141"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="141"/>
+      <c r="I57" s="141"/>
+      <c r="J57" s="106"/>
+      <c r="K57" s="137"/>
+    </row>
+    <row r="58" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="150">
+        <v>56</v>
+      </c>
+      <c r="B58" s="122"/>
+      <c r="C58" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C58" s="46"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="55"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="55"/>
-      <c r="H58" s="55"/>
-      <c r="I58" s="101"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="116" t="s">
+      <c r="D58" s="92"/>
+      <c r="E58" s="144"/>
+      <c r="F58" s="145"/>
+      <c r="G58" s="146"/>
+      <c r="H58" s="145"/>
+      <c r="I58" s="145"/>
+      <c r="J58" s="102"/>
+      <c r="K58" s="137"/>
+    </row>
+    <row r="59" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="148">
+        <v>57</v>
+      </c>
+      <c r="B59" s="120" t="s">
+        <v>145</v>
+      </c>
+      <c r="C59" s="128" t="s">
+        <v>118</v>
+      </c>
+      <c r="D59" s="90">
+        <v>1</v>
+      </c>
+      <c r="E59" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F59" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G59" s="129">
+        <v>1</v>
+      </c>
+      <c r="H59" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I59" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J59" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K59" s="132"/>
+    </row>
+    <row r="60" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="149">
+        <v>58</v>
+      </c>
+      <c r="B60" s="121"/>
+      <c r="C60" s="139" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="91"/>
+      <c r="E60" s="140"/>
+      <c r="F60" s="141"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="141"/>
+      <c r="I60" s="141"/>
+      <c r="J60" s="106"/>
+      <c r="K60" s="137"/>
+    </row>
+    <row r="61" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="149">
+        <v>59</v>
+      </c>
+      <c r="B61" s="121"/>
+      <c r="C61" s="139" t="s">
+        <v>119</v>
+      </c>
+      <c r="D61" s="91"/>
+      <c r="E61" s="140"/>
+      <c r="F61" s="141"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="141"/>
+      <c r="I61" s="141"/>
+      <c r="J61" s="106"/>
+      <c r="K61" s="137"/>
+    </row>
+    <row r="62" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="150">
+        <v>60</v>
+      </c>
+      <c r="B62" s="122"/>
+      <c r="C62" s="143" t="s">
+        <v>121</v>
+      </c>
+      <c r="D62" s="92"/>
+      <c r="E62" s="144"/>
+      <c r="F62" s="145"/>
+      <c r="G62" s="146"/>
+      <c r="H62" s="145"/>
+      <c r="I62" s="145"/>
+      <c r="J62" s="102"/>
+      <c r="K62" s="137"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="148">
         <v>61</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B63" s="120" t="s">
+        <v>61</v>
+      </c>
+      <c r="C63" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="44">
-        <v>1</v>
-      </c>
-      <c r="D59" s="65">
-        <v>43122</v>
-      </c>
-      <c r="E59" s="65">
-        <v>43122</v>
-      </c>
-      <c r="F59" s="74">
-        <v>1</v>
-      </c>
-      <c r="G59" s="65">
-        <v>43122</v>
-      </c>
-      <c r="H59" s="65">
-        <v>43122</v>
-      </c>
-      <c r="I59" s="98"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="117"/>
-      <c r="B60" s="52" t="s">
+      <c r="D63" s="44">
+        <v>1</v>
+      </c>
+      <c r="E63" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F63" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G63" s="129">
+        <v>1</v>
+      </c>
+      <c r="H63" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I63" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J63" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K63" s="132"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="149">
+        <v>62</v>
+      </c>
+      <c r="B64" s="121"/>
+      <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="49"/>
-      <c r="D60" s="56"/>
-      <c r="E60" s="56"/>
-      <c r="F60" s="75"/>
-      <c r="G60" s="56"/>
-      <c r="H60" s="56"/>
-      <c r="I60" s="98"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="117"/>
-      <c r="B61" s="52" t="s">
+      <c r="D64" s="49"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="75"/>
+      <c r="H64" s="56"/>
+      <c r="I64" s="56"/>
+      <c r="J64" s="106"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="149">
+        <v>63</v>
+      </c>
+      <c r="B65" s="121"/>
+      <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="49"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="75"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
-      <c r="I61" s="98"/>
-    </row>
-    <row r="62" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="118"/>
-      <c r="B62" s="51" t="s">
+      <c r="D65" s="49"/>
+      <c r="E65" s="56"/>
+      <c r="F65" s="56"/>
+      <c r="G65" s="75"/>
+      <c r="H65" s="56"/>
+      <c r="I65" s="56"/>
+      <c r="J65" s="106"/>
+    </row>
+    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="150">
+        <v>64</v>
+      </c>
+      <c r="B66" s="122"/>
+      <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="46"/>
-      <c r="D62" s="55"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="73"/>
-      <c r="G62" s="55"/>
-      <c r="H62" s="55"/>
-      <c r="I62" s="101"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="116" t="s">
+      <c r="D66" s="46"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="73"/>
+      <c r="H66" s="55"/>
+      <c r="I66" s="55"/>
+      <c r="J66" s="102"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="148">
+        <v>65</v>
+      </c>
+      <c r="B67" s="120" t="s">
         <v>85</v>
       </c>
-      <c r="B63" s="59" t="s">
+      <c r="C67" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="44">
-        <v>1</v>
-      </c>
-      <c r="D63" s="65">
-        <v>43122</v>
-      </c>
-      <c r="E63" s="65">
-        <v>43122</v>
-      </c>
-      <c r="F63" s="74">
-        <v>1</v>
-      </c>
-      <c r="G63" s="65">
-        <v>43122</v>
-      </c>
-      <c r="H63" s="65">
-        <v>43122</v>
-      </c>
-      <c r="I63" s="98"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="117"/>
-      <c r="B64" s="52" t="s">
+      <c r="D67" s="44">
+        <v>1</v>
+      </c>
+      <c r="E67" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F67" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G67" s="129">
+        <v>1</v>
+      </c>
+      <c r="H67" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I67" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J67" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K67" s="132"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="149">
+        <v>66</v>
+      </c>
+      <c r="B68" s="121"/>
+      <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C64" s="49"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="75"/>
-      <c r="G64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="98"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="117"/>
-      <c r="B65" s="52" t="s">
+      <c r="D68" s="49"/>
+      <c r="E68" s="56"/>
+      <c r="F68" s="56"/>
+      <c r="G68" s="75"/>
+      <c r="H68" s="56"/>
+      <c r="I68" s="56"/>
+      <c r="J68" s="106"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="149">
+        <v>67</v>
+      </c>
+      <c r="B69" s="121"/>
+      <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C65" s="49"/>
-      <c r="D65" s="56"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="75"/>
-      <c r="G65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="98"/>
-    </row>
-    <row r="66" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="118"/>
-      <c r="B66" s="51" t="s">
+      <c r="D69" s="49"/>
+      <c r="E69" s="56"/>
+      <c r="F69" s="56"/>
+      <c r="G69" s="75"/>
+      <c r="H69" s="56"/>
+      <c r="I69" s="56"/>
+      <c r="J69" s="106"/>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="150">
+        <v>68</v>
+      </c>
+      <c r="B70" s="122"/>
+      <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C66" s="46"/>
-      <c r="D66" s="55"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="73"/>
-      <c r="G66" s="55"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="101"/>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A67" s="93" t="s">
+      <c r="D70" s="46"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="73"/>
+      <c r="H70" s="55"/>
+      <c r="I70" s="55"/>
+      <c r="J70" s="102"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71" s="148">
+        <v>69</v>
+      </c>
+      <c r="B71" s="110" t="s">
         <v>62</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="C71" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C67" s="44">
-        <v>1</v>
-      </c>
-      <c r="D67" s="65">
-        <v>43122</v>
-      </c>
-      <c r="E67" s="65">
-        <v>43122</v>
-      </c>
-      <c r="F67" s="74">
-        <v>1</v>
-      </c>
-      <c r="G67" s="65">
-        <v>43122</v>
-      </c>
-      <c r="H67" s="65">
-        <v>43122</v>
-      </c>
-      <c r="I67" s="98"/>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A68" s="94"/>
-      <c r="B68" s="52" t="s">
+      <c r="D71" s="44">
+        <v>1</v>
+      </c>
+      <c r="E71" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F71" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G71" s="129">
+        <v>1</v>
+      </c>
+      <c r="H71" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I71" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J71" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K71" s="132"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72" s="149">
+        <v>70</v>
+      </c>
+      <c r="B72" s="111"/>
+      <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C68" s="49"/>
-      <c r="D68" s="56"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="75"/>
-      <c r="G68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="98"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="94"/>
-      <c r="B69" s="52" t="s">
+      <c r="D72" s="49"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="75"/>
+      <c r="H72" s="56"/>
+      <c r="I72" s="56"/>
+      <c r="J72" s="106"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73" s="149">
+        <v>71</v>
+      </c>
+      <c r="B73" s="111"/>
+      <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="75"/>
-      <c r="G69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="98"/>
-    </row>
-    <row r="70" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="95"/>
-      <c r="B70" s="51" t="s">
+      <c r="D73" s="49"/>
+      <c r="E73" s="56"/>
+      <c r="F73" s="56"/>
+      <c r="G73" s="75"/>
+      <c r="H73" s="56"/>
+      <c r="I73" s="56"/>
+      <c r="J73" s="106"/>
+    </row>
+    <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="150">
+        <v>72</v>
+      </c>
+      <c r="B74" s="112"/>
+      <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C70" s="46"/>
-      <c r="D70" s="55"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="73"/>
-      <c r="G70" s="55"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="101"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="93" t="s">
+      <c r="D74" s="46"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="73"/>
+      <c r="H74" s="55"/>
+      <c r="I74" s="55"/>
+      <c r="J74" s="102"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75" s="148">
+        <v>73</v>
+      </c>
+      <c r="B75" s="110" t="s">
         <v>66</v>
       </c>
-      <c r="B71" s="59" t="s">
+      <c r="C75" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C71" s="44">
-        <v>1</v>
-      </c>
-      <c r="D71" s="65">
-        <v>43123</v>
-      </c>
-      <c r="E71" s="65">
-        <v>43123</v>
-      </c>
-      <c r="F71" s="74">
-        <v>1</v>
-      </c>
-      <c r="G71" s="65">
-        <v>43123</v>
-      </c>
-      <c r="H71" s="65">
-        <v>43123</v>
-      </c>
-      <c r="I71" s="98"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="94"/>
-      <c r="B72" s="52" t="s">
+      <c r="D75" s="44">
+        <v>1</v>
+      </c>
+      <c r="E75" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F75" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G75" s="129">
+        <v>1</v>
+      </c>
+      <c r="H75" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I75" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J75" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K75" s="132"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" s="149">
+        <v>74</v>
+      </c>
+      <c r="B76" s="111"/>
+      <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C72" s="49"/>
-      <c r="D72" s="56"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="75"/>
-      <c r="G72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="98"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="94"/>
-      <c r="B73" s="52" t="s">
+      <c r="D76" s="49"/>
+      <c r="E76" s="56"/>
+      <c r="F76" s="56"/>
+      <c r="G76" s="75"/>
+      <c r="H76" s="56"/>
+      <c r="I76" s="56"/>
+      <c r="J76" s="106"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77" s="149">
+        <v>75</v>
+      </c>
+      <c r="B77" s="111"/>
+      <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="56"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="75"/>
-      <c r="G73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="98"/>
-    </row>
-    <row r="74" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="95"/>
-      <c r="B74" s="51" t="s">
+      <c r="D77" s="49"/>
+      <c r="E77" s="56"/>
+      <c r="F77" s="56"/>
+      <c r="G77" s="75"/>
+      <c r="H77" s="56"/>
+      <c r="I77" s="56"/>
+      <c r="J77" s="106"/>
+    </row>
+    <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="150">
+        <v>76</v>
+      </c>
+      <c r="B78" s="112"/>
+      <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C74" s="46"/>
-      <c r="D74" s="55"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="73"/>
-      <c r="G74" s="55"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="101"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="93" t="s">
+      <c r="D78" s="46"/>
+      <c r="E78" s="55"/>
+      <c r="F78" s="55"/>
+      <c r="G78" s="73"/>
+      <c r="H78" s="55"/>
+      <c r="I78" s="55"/>
+      <c r="J78" s="102"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79" s="148">
+        <v>77</v>
+      </c>
+      <c r="B79" s="110" t="s">
         <v>67</v>
       </c>
-      <c r="B75" s="59" t="s">
+      <c r="C79" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C75" s="44">
-        <v>1</v>
-      </c>
-      <c r="D75" s="65">
-        <v>43123</v>
-      </c>
-      <c r="E75" s="65">
-        <v>43123</v>
-      </c>
-      <c r="F75" s="74">
-        <v>1</v>
-      </c>
-      <c r="G75" s="65">
-        <v>43123</v>
-      </c>
-      <c r="H75" s="65">
-        <v>43123</v>
-      </c>
-      <c r="I75" s="98"/>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="94"/>
-      <c r="B76" s="52" t="s">
+      <c r="D79" s="44">
+        <v>1</v>
+      </c>
+      <c r="E79" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F79" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G79" s="129">
+        <v>1</v>
+      </c>
+      <c r="H79" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I79" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J79" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K79" s="132"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80" s="149">
+        <v>78</v>
+      </c>
+      <c r="B80" s="111"/>
+      <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C76" s="49"/>
-      <c r="D76" s="56"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="75"/>
-      <c r="G76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="98"/>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="94"/>
-      <c r="B77" s="52" t="s">
+      <c r="D80" s="49"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="75"/>
+      <c r="H80" s="56"/>
+      <c r="I80" s="56"/>
+      <c r="J80" s="106"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81" s="149">
+        <v>79</v>
+      </c>
+      <c r="B81" s="111"/>
+      <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C77" s="49"/>
-      <c r="D77" s="56"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="75"/>
-      <c r="G77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="98"/>
-    </row>
-    <row r="78" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="95"/>
-      <c r="B78" s="51" t="s">
+      <c r="D81" s="49"/>
+      <c r="E81" s="56"/>
+      <c r="F81" s="56"/>
+      <c r="G81" s="75"/>
+      <c r="H81" s="56"/>
+      <c r="I81" s="56"/>
+      <c r="J81" s="106"/>
+    </row>
+    <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="150">
+        <v>80</v>
+      </c>
+      <c r="B82" s="112"/>
+      <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C78" s="46"/>
-      <c r="D78" s="55"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="73"/>
-      <c r="G78" s="55"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="101"/>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="116" t="s">
+      <c r="D82" s="46"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="73"/>
+      <c r="H82" s="55"/>
+      <c r="I82" s="55"/>
+      <c r="J82" s="102"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83" s="148">
+        <v>81</v>
+      </c>
+      <c r="B83" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="B79" s="59" t="s">
+      <c r="C83" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C79" s="44">
-        <v>1</v>
-      </c>
-      <c r="D79" s="65">
-        <v>43124</v>
-      </c>
-      <c r="E79" s="65">
-        <v>43124</v>
-      </c>
-      <c r="F79" s="74">
-        <v>1</v>
-      </c>
-      <c r="G79" s="65">
-        <v>43124</v>
-      </c>
-      <c r="H79" s="65">
-        <v>43124</v>
-      </c>
-      <c r="I79" s="98"/>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A80" s="117"/>
-      <c r="B80" s="52" t="s">
+      <c r="D83" s="90">
+        <v>1</v>
+      </c>
+      <c r="E83" s="136">
+        <v>43121</v>
+      </c>
+      <c r="F83" s="136">
+        <v>43121</v>
+      </c>
+      <c r="G83" s="129">
+        <v>1</v>
+      </c>
+      <c r="H83" s="136">
+        <v>43121</v>
+      </c>
+      <c r="I83" s="136">
+        <v>43121</v>
+      </c>
+      <c r="J83" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K83" s="132"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="149">
+        <v>82</v>
+      </c>
+      <c r="B84" s="121"/>
+      <c r="C84" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="C80" s="49"/>
-      <c r="D80" s="56"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="75"/>
-      <c r="G80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="98"/>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A81" s="117"/>
-      <c r="B81" s="52" t="s">
+      <c r="D84" s="91"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="141"/>
+      <c r="I84" s="141"/>
+      <c r="J84" s="106"/>
+      <c r="K84" s="137"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="149">
+        <v>83</v>
+      </c>
+      <c r="B85" s="121"/>
+      <c r="C85" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="56"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="75"/>
-      <c r="G81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="98"/>
-    </row>
-    <row r="82" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="118"/>
-      <c r="B82" s="51" t="s">
+      <c r="D85" s="91"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="141"/>
+      <c r="I85" s="141"/>
+      <c r="J85" s="106"/>
+      <c r="K85" s="137"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="150">
+        <v>84</v>
+      </c>
+      <c r="B86" s="122"/>
+      <c r="C86" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C82" s="46"/>
-      <c r="D82" s="55"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="73"/>
-      <c r="G82" s="55"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="101"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="116" t="s">
+      <c r="D86" s="92"/>
+      <c r="E86" s="145"/>
+      <c r="F86" s="145"/>
+      <c r="G86" s="146"/>
+      <c r="H86" s="145"/>
+      <c r="I86" s="145"/>
+      <c r="J86" s="102"/>
+      <c r="K86" s="137"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="148">
+        <v>85</v>
+      </c>
+      <c r="B87" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="B83" s="59" t="s">
+      <c r="C87" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="44">
-        <v>1</v>
-      </c>
-      <c r="D83" s="65">
-        <v>43124</v>
-      </c>
-      <c r="E83" s="65">
-        <v>43124</v>
-      </c>
-      <c r="F83" s="74">
-        <v>1</v>
-      </c>
-      <c r="G83" s="65">
-        <v>43124</v>
-      </c>
-      <c r="H83" s="65">
-        <v>43124</v>
-      </c>
-      <c r="I83" s="98"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="117"/>
-      <c r="B84" s="52" t="s">
+      <c r="D87" s="90">
+        <v>1</v>
+      </c>
+      <c r="E87" s="151">
+        <v>43121</v>
+      </c>
+      <c r="F87" s="151">
+        <v>43121</v>
+      </c>
+      <c r="G87" s="152">
+        <v>1</v>
+      </c>
+      <c r="H87" s="151">
+        <v>43121</v>
+      </c>
+      <c r="I87" s="151">
+        <v>43121</v>
+      </c>
+      <c r="J87" s="117">
+        <v>0.25</v>
+      </c>
+      <c r="K87" s="132"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="149">
+        <v>86</v>
+      </c>
+      <c r="B88" s="121"/>
+      <c r="C88" s="139" t="s">
         <v>117</v>
       </c>
-      <c r="C84" s="49"/>
-      <c r="D84" s="56"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="75"/>
-      <c r="G84" s="56"/>
-      <c r="H84" s="56"/>
-      <c r="I84" s="98"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="117"/>
-      <c r="B85" s="52" t="s">
+      <c r="D88" s="91"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="141"/>
+      <c r="I88" s="141"/>
+      <c r="J88" s="106"/>
+      <c r="K88" s="137"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="149">
+        <v>87</v>
+      </c>
+      <c r="B89" s="121"/>
+      <c r="C89" s="139" t="s">
         <v>119</v>
       </c>
-      <c r="C85" s="49"/>
-      <c r="D85" s="56"/>
-      <c r="E85" s="56"/>
-      <c r="F85" s="75"/>
-      <c r="G85" s="56"/>
-      <c r="H85" s="56"/>
-      <c r="I85" s="98"/>
-    </row>
-    <row r="86" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="118"/>
-      <c r="B86" s="51" t="s">
+      <c r="D89" s="91"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="141"/>
+      <c r="I89" s="141"/>
+      <c r="J89" s="106"/>
+      <c r="K89" s="137"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="150">
+        <v>88</v>
+      </c>
+      <c r="B90" s="122"/>
+      <c r="C90" s="143" t="s">
         <v>121</v>
       </c>
-      <c r="C86" s="46"/>
-      <c r="D86" s="55"/>
-      <c r="E86" s="55"/>
-      <c r="F86" s="73"/>
-      <c r="G86" s="55"/>
-      <c r="H86" s="55"/>
-      <c r="I86" s="101"/>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A87" s="93" t="s">
-        <v>15</v>
-      </c>
-      <c r="B87" s="59" t="s">
+      <c r="D90" s="92"/>
+      <c r="E90" s="145"/>
+      <c r="F90" s="145"/>
+      <c r="G90" s="146"/>
+      <c r="H90" s="145"/>
+      <c r="I90" s="145"/>
+      <c r="J90" s="102"/>
+      <c r="K90" s="137"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="148">
+        <v>89</v>
+      </c>
+      <c r="B91" s="110" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C87" s="44">
-        <v>1</v>
-      </c>
-      <c r="D87" s="65">
-        <v>43125</v>
-      </c>
-      <c r="E87" s="65">
-        <v>43125</v>
-      </c>
-      <c r="F87" s="74">
-        <v>1</v>
-      </c>
-      <c r="G87" s="65">
-        <v>43125</v>
-      </c>
-      <c r="H87" s="65">
-        <v>43125</v>
-      </c>
-      <c r="I87" s="98"/>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C88" s="49"/>
-      <c r="D88" s="56"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="75"/>
-      <c r="G88" s="56"/>
-      <c r="H88" s="56"/>
-      <c r="I88" s="98"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="94"/>
-      <c r="B89" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C89" s="49"/>
-      <c r="D89" s="56"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="75"/>
-      <c r="G89" s="56"/>
-      <c r="H89" s="56"/>
-      <c r="I89" s="98"/>
-    </row>
-    <row r="90" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="95"/>
-      <c r="B90" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" s="46"/>
-      <c r="D90" s="55"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="73"/>
-      <c r="G90" s="55"/>
-      <c r="H90" s="55"/>
-      <c r="I90" s="101"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="93" t="s">
-        <v>56</v>
-      </c>
-      <c r="B91" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C91" s="44">
-        <v>1</v>
-      </c>
-      <c r="D91" s="65">
-        <v>43125</v>
+      <c r="D91" s="44">
+        <v>1</v>
       </c>
       <c r="E91" s="65">
         <v>43125</v>
       </c>
-      <c r="F91" s="74">
-        <v>1</v>
-      </c>
-      <c r="G91" s="65">
+      <c r="F91" s="65">
         <v>43125</v>
+      </c>
+      <c r="G91" s="74">
+        <v>1</v>
       </c>
       <c r="H91" s="65">
         <v>43125</v>
       </c>
-      <c r="I91" s="98"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="94"/>
-      <c r="B92" s="52" t="s">
+      <c r="I91" s="65">
+        <v>43125</v>
+      </c>
+      <c r="J91" s="106"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92" s="149">
+        <v>90</v>
+      </c>
+      <c r="B92" s="111"/>
+      <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C92" s="49"/>
-      <c r="D92" s="56"/>
+      <c r="D92" s="49"/>
       <c r="E92" s="56"/>
-      <c r="F92" s="75"/>
-      <c r="G92" s="56"/>
-      <c r="I92" s="98"/>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="94"/>
-      <c r="B93" s="52" t="s">
+      <c r="F92" s="56"/>
+      <c r="G92" s="75"/>
+      <c r="H92" s="56"/>
+      <c r="J92" s="106"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93" s="149">
+        <v>91</v>
+      </c>
+      <c r="B93" s="111"/>
+      <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C93" s="49"/>
-      <c r="D93" s="56"/>
+      <c r="D93" s="49"/>
       <c r="E93" s="56"/>
-      <c r="F93" s="75"/>
-      <c r="G93" s="56"/>
-      <c r="I93" s="98"/>
-    </row>
-    <row r="94" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="95"/>
-      <c r="B94" s="51" t="s">
+      <c r="F93" s="56"/>
+      <c r="G93" s="75"/>
+      <c r="H93" s="56"/>
+      <c r="J93" s="106"/>
+    </row>
+    <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="150">
+        <v>92</v>
+      </c>
+      <c r="B94" s="112"/>
+      <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C94" s="46"/>
-      <c r="D94" s="55"/>
+      <c r="D94" s="46"/>
       <c r="E94" s="55"/>
-      <c r="F94" s="73"/>
-      <c r="G94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="73"/>
       <c r="H94" s="55"/>
-      <c r="I94" s="101"/>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A95" s="93" t="s">
+      <c r="I94" s="55"/>
+      <c r="J94" s="102"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95" s="148">
+        <v>93</v>
+      </c>
+      <c r="B95" s="110" t="s">
         <v>82</v>
       </c>
-      <c r="B95" s="59" t="s">
+      <c r="C95" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C95" s="44">
-        <v>1</v>
-      </c>
-      <c r="D95" s="65">
+      <c r="D95" s="44">
+        <v>1</v>
+      </c>
+      <c r="E95" s="65">
+        <v>43125</v>
+      </c>
+      <c r="F95" s="65">
+        <v>43125</v>
+      </c>
+      <c r="G95" s="74">
+        <v>1</v>
+      </c>
+      <c r="H95" s="65">
+        <v>43125</v>
+      </c>
+      <c r="I95" s="65">
+        <v>43125</v>
+      </c>
+      <c r="J95" s="106"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96" s="149">
+        <v>94</v>
+      </c>
+      <c r="B96" s="111"/>
+      <c r="C96" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D96" s="49"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="75"/>
+      <c r="H96" s="56"/>
+      <c r="I96" s="56"/>
+      <c r="J96" s="106"/>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" s="149">
+        <v>95</v>
+      </c>
+      <c r="B97" s="111"/>
+      <c r="C97" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D97" s="49"/>
+      <c r="E97" s="56"/>
+      <c r="F97" s="56"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="56"/>
+      <c r="I97" s="56"/>
+      <c r="J97" s="106"/>
+    </row>
+    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="150">
+        <v>96</v>
+      </c>
+      <c r="B98" s="112"/>
+      <c r="C98" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D98" s="46"/>
+      <c r="E98" s="55"/>
+      <c r="F98" s="55"/>
+      <c r="G98" s="73"/>
+      <c r="H98" s="55"/>
+      <c r="I98" s="55"/>
+      <c r="J98" s="102"/>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" s="148">
+        <v>97</v>
+      </c>
+      <c r="B99" s="110" t="s">
+        <v>83</v>
+      </c>
+      <c r="C99" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" s="44">
+        <v>1</v>
+      </c>
+      <c r="E99" s="65">
+        <v>43125</v>
+      </c>
+      <c r="F99" s="65">
+        <v>43125</v>
+      </c>
+      <c r="G99" s="74">
+        <v>1</v>
+      </c>
+      <c r="H99" s="65">
+        <v>43125</v>
+      </c>
+      <c r="I99" s="65">
+        <v>43125</v>
+      </c>
+      <c r="J99" s="106"/>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" s="149">
+        <v>98</v>
+      </c>
+      <c r="B100" s="111"/>
+      <c r="C100" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D100" s="49"/>
+      <c r="E100" s="56"/>
+      <c r="F100" s="56"/>
+      <c r="G100" s="75"/>
+      <c r="H100" s="56"/>
+      <c r="I100" s="56"/>
+      <c r="J100" s="106"/>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" s="149">
+        <v>99</v>
+      </c>
+      <c r="B101" s="111"/>
+      <c r="C101" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" s="49"/>
+      <c r="E101" s="56"/>
+      <c r="F101" s="56"/>
+      <c r="G101" s="75"/>
+      <c r="H101" s="56"/>
+      <c r="I101" s="56"/>
+      <c r="J101" s="106"/>
+    </row>
+    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="150">
+        <v>100</v>
+      </c>
+      <c r="B102" s="112"/>
+      <c r="C102" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" s="46"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="73"/>
+      <c r="H102" s="55"/>
+      <c r="I102" s="55"/>
+      <c r="J102" s="102"/>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" s="148">
+        <v>101</v>
+      </c>
+      <c r="B103" s="120" t="s">
+        <v>101</v>
+      </c>
+      <c r="C103" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D103" s="44">
+        <v>1</v>
+      </c>
+      <c r="E103" s="65">
         <v>43126</v>
       </c>
-      <c r="E95" s="65">
+      <c r="F103" s="65">
         <v>43126</v>
       </c>
-      <c r="F95" s="74">
-        <v>1</v>
-      </c>
-      <c r="G95" s="65">
+      <c r="G103" s="74">
+        <v>1</v>
+      </c>
+      <c r="H103" s="65">
         <v>43126</v>
       </c>
-      <c r="H95" s="65">
+      <c r="I103" s="65">
         <v>43126</v>
       </c>
-      <c r="I95" s="98"/>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A96" s="94"/>
-      <c r="B96" s="52" t="s">
+      <c r="J103" s="106"/>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A104" s="149">
+        <v>102</v>
+      </c>
+      <c r="B104" s="121"/>
+      <c r="C104" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C96" s="49"/>
-      <c r="D96" s="56"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="75"/>
-      <c r="G96" s="56"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="98"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="94"/>
-      <c r="B97" s="52" t="s">
+      <c r="D104" s="49"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="75"/>
+      <c r="H104" s="56"/>
+      <c r="J104" s="106"/>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A105" s="149">
+        <v>103</v>
+      </c>
+      <c r="B105" s="121"/>
+      <c r="C105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C97" s="49"/>
-      <c r="D97" s="56"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="75"/>
-      <c r="G97" s="56"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="98"/>
-    </row>
-    <row r="98" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="95"/>
-      <c r="B98" s="51" t="s">
+      <c r="D105" s="49"/>
+      <c r="E105" s="56"/>
+      <c r="F105" s="56"/>
+      <c r="G105" s="75"/>
+      <c r="H105" s="56"/>
+      <c r="J105" s="106"/>
+    </row>
+    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="150">
+        <v>104</v>
+      </c>
+      <c r="B106" s="122"/>
+      <c r="C106" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C98" s="46"/>
-      <c r="D98" s="55"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="55"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="101"/>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A99" s="93" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" s="59" t="s">
+      <c r="D106" s="46"/>
+      <c r="E106" s="55"/>
+      <c r="F106" s="55"/>
+      <c r="G106" s="73"/>
+      <c r="H106" s="55"/>
+      <c r="I106" s="55"/>
+      <c r="J106" s="102"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="148">
+        <v>105</v>
+      </c>
+      <c r="B107" s="120" t="s">
+        <v>109</v>
+      </c>
+      <c r="C107" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C99" s="44">
-        <v>1</v>
-      </c>
-      <c r="D99" s="65">
+      <c r="D107" s="88">
+        <v>1</v>
+      </c>
+      <c r="E107" s="65">
         <v>43126</v>
       </c>
-      <c r="E99" s="65">
+      <c r="F107" s="65">
         <v>43126</v>
       </c>
-      <c r="F99" s="74">
-        <v>1</v>
-      </c>
-      <c r="G99" s="65">
+      <c r="G107" s="74">
+        <v>1</v>
+      </c>
+      <c r="H107" s="65">
         <v>43126</v>
       </c>
-      <c r="H99" s="65">
+      <c r="I107" s="65">
         <v>43126</v>
       </c>
-      <c r="I99" s="98"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A100" s="94"/>
-      <c r="B100" s="52" t="s">
+      <c r="J107" s="100"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="149">
+        <v>106</v>
+      </c>
+      <c r="B108" s="121"/>
+      <c r="C108" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C100" s="49"/>
-      <c r="D100" s="56"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="75"/>
-      <c r="G100" s="56"/>
-      <c r="H100" s="56"/>
-      <c r="I100" s="98"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A101" s="94"/>
-      <c r="B101" s="52" t="s">
+      <c r="J108" s="106"/>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A109" s="149">
+        <v>107</v>
+      </c>
+      <c r="B109" s="121"/>
+      <c r="C109" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C101" s="49"/>
-      <c r="D101" s="56"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="75"/>
-      <c r="G101" s="56"/>
-      <c r="H101" s="56"/>
-      <c r="I101" s="98"/>
-    </row>
-    <row r="102" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="95"/>
-      <c r="B102" s="51" t="s">
+      <c r="J109" s="106"/>
+    </row>
+    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="150">
+        <v>108</v>
+      </c>
+      <c r="B110" s="122"/>
+      <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C102" s="46"/>
-      <c r="D102" s="55"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="73"/>
-      <c r="G102" s="55"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="101"/>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A103" s="116" t="s">
-        <v>101</v>
-      </c>
-      <c r="B103" s="59" t="s">
+      <c r="D110" s="46"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="73"/>
+      <c r="H110" s="55"/>
+      <c r="I110" s="55"/>
+      <c r="J110" s="102"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A111" s="148">
+        <v>109</v>
+      </c>
+      <c r="B111" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C103" s="44">
-        <v>1</v>
-      </c>
-      <c r="D103" s="65">
+      <c r="D111" s="88">
+        <v>1</v>
+      </c>
+      <c r="E111" s="65">
+        <v>43126</v>
+      </c>
+      <c r="F111" s="65">
+        <v>43126</v>
+      </c>
+      <c r="G111" s="74">
+        <v>1</v>
+      </c>
+      <c r="H111" s="65">
+        <v>43126</v>
+      </c>
+      <c r="I111" s="65">
+        <v>43126</v>
+      </c>
+      <c r="J111" s="106"/>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A112" s="149">
+        <v>110</v>
+      </c>
+      <c r="B112" s="121"/>
+      <c r="C112" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="J112" s="106"/>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A113" s="149">
+        <v>111</v>
+      </c>
+      <c r="B113" s="121"/>
+      <c r="C113" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="J113" s="106"/>
+    </row>
+    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="150">
+        <v>112</v>
+      </c>
+      <c r="B114" s="122"/>
+      <c r="C114" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D114" s="46"/>
+      <c r="E114" s="55"/>
+      <c r="F114" s="55"/>
+      <c r="G114" s="73"/>
+      <c r="H114" s="55"/>
+      <c r="I114" s="55"/>
+      <c r="J114" s="102"/>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A115" s="148">
+        <v>113</v>
+      </c>
+      <c r="B115" s="120" t="s">
+        <v>104</v>
+      </c>
+      <c r="C115" s="52" t="s">
+        <v>118</v>
+      </c>
+      <c r="D115" s="44">
+        <v>1</v>
+      </c>
+      <c r="E115" s="65">
         <v>43127</v>
       </c>
-      <c r="E103" s="65">
+      <c r="F115" s="65">
         <v>43127</v>
       </c>
-      <c r="F103" s="74">
-        <v>1</v>
-      </c>
-      <c r="G103" s="65">
+      <c r="G115" s="74">
+        <v>1</v>
+      </c>
+      <c r="H115" s="65">
         <v>43127</v>
       </c>
-      <c r="H103" s="65">
+      <c r="I115" s="65">
         <v>43127</v>
       </c>
-      <c r="I103" s="98"/>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A104" s="117"/>
-      <c r="B104" s="52" t="s">
+      <c r="J115" s="106"/>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A116" s="149">
+        <v>114</v>
+      </c>
+      <c r="B116" s="121"/>
+      <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C104" s="49"/>
-      <c r="D104" s="56"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="75"/>
-      <c r="G104" s="56"/>
-      <c r="I104" s="98"/>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A105" s="117"/>
-      <c r="B105" s="52" t="s">
+      <c r="J116" s="106"/>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A117" s="149">
+        <v>115</v>
+      </c>
+      <c r="B117" s="121"/>
+      <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C105" s="49"/>
-      <c r="D105" s="56"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="75"/>
-      <c r="G105" s="56"/>
-      <c r="I105" s="98"/>
-    </row>
-    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="118"/>
-      <c r="B106" s="51" t="s">
+      <c r="J117" s="106"/>
+    </row>
+    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="150">
+        <v>116</v>
+      </c>
+      <c r="B118" s="122"/>
+      <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C106" s="46"/>
-      <c r="D106" s="55"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="73"/>
-      <c r="G106" s="55"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="101"/>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A107" s="116" t="s">
-        <v>109</v>
-      </c>
-      <c r="B107" s="52" t="s">
+      <c r="D118" s="46"/>
+      <c r="E118" s="55"/>
+      <c r="F118" s="55"/>
+      <c r="G118" s="73"/>
+      <c r="H118" s="55"/>
+      <c r="I118" s="55"/>
+      <c r="J118" s="102"/>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A119" s="148">
+        <v>117</v>
+      </c>
+      <c r="B119" s="110" t="s">
+        <v>103</v>
+      </c>
+      <c r="C119" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C107" s="44">
-        <v>1</v>
-      </c>
-      <c r="D107" s="65">
+      <c r="D119" s="88">
+        <v>1</v>
+      </c>
+      <c r="E119" s="65">
         <v>43127</v>
       </c>
-      <c r="E107" s="65">
+      <c r="F119" s="65">
         <v>43127</v>
       </c>
-      <c r="F107" s="74">
-        <v>1</v>
-      </c>
-      <c r="G107" s="65">
+      <c r="G119" s="74">
+        <v>1</v>
+      </c>
+      <c r="H119" s="65">
         <v>43127</v>
       </c>
-      <c r="H107" s="65">
+      <c r="I119" s="65">
         <v>43127</v>
       </c>
-      <c r="I107" s="97"/>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A108" s="117"/>
-      <c r="B108" s="52" t="s">
+      <c r="J119" s="106"/>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A120" s="149">
+        <v>118</v>
+      </c>
+      <c r="B120" s="111"/>
+      <c r="C120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I108" s="98"/>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A109" s="117"/>
-      <c r="B109" s="52" t="s">
+      <c r="D120" s="49"/>
+      <c r="E120" s="56"/>
+      <c r="F120" s="56"/>
+      <c r="G120" s="75"/>
+      <c r="H120" s="56"/>
+      <c r="I120" s="56"/>
+      <c r="J120" s="106"/>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A121" s="149">
         <v>119</v>
       </c>
-      <c r="I109" s="98"/>
-    </row>
-    <row r="110" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="118"/>
-      <c r="B110" s="51" t="s">
+      <c r="B121" s="111"/>
+      <c r="C121" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D121" s="49"/>
+      <c r="E121" s="56"/>
+      <c r="F121" s="56"/>
+      <c r="G121" s="75"/>
+      <c r="H121" s="56"/>
+      <c r="I121" s="56"/>
+      <c r="J121" s="106"/>
+    </row>
+    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="150">
+        <v>120</v>
+      </c>
+      <c r="B122" s="112"/>
+      <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C110" s="46"/>
-      <c r="D110" s="55"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="73"/>
-      <c r="G110" s="55"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="101"/>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A111" s="116" t="s">
-        <v>102</v>
-      </c>
-      <c r="B111" s="52" t="s">
+      <c r="D122" s="46"/>
+      <c r="E122" s="55"/>
+      <c r="F122" s="55"/>
+      <c r="G122" s="73"/>
+      <c r="H122" s="55"/>
+      <c r="I122" s="55"/>
+      <c r="J122" s="102"/>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A123" s="148">
+        <v>121</v>
+      </c>
+      <c r="B123" s="110" t="s">
+        <v>105</v>
+      </c>
+      <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C111" s="44">
-        <v>1</v>
-      </c>
-      <c r="D111" s="65">
+      <c r="D123" s="88">
+        <v>1</v>
+      </c>
+      <c r="E123" s="65">
         <v>43127</v>
       </c>
-      <c r="E111" s="65">
+      <c r="F123" s="65">
         <v>43127</v>
       </c>
-      <c r="F111" s="74">
-        <v>1</v>
-      </c>
-      <c r="G111" s="65">
+      <c r="G123" s="74">
+        <v>1</v>
+      </c>
+      <c r="H123" s="65">
         <v>43127</v>
       </c>
-      <c r="H111" s="65">
+      <c r="I123" s="65">
         <v>43127</v>
       </c>
-      <c r="I111" s="98"/>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A112" s="117"/>
-      <c r="B112" s="52" t="s">
+      <c r="J123" s="106"/>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A124" s="149">
+        <v>122</v>
+      </c>
+      <c r="B124" s="111"/>
+      <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I112" s="98"/>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A113" s="117"/>
-      <c r="B113" s="52" t="s">
+      <c r="J124" s="106"/>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A125" s="149">
+        <v>123</v>
+      </c>
+      <c r="B125" s="111"/>
+      <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I113" s="98"/>
-    </row>
-    <row r="114" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="118"/>
-      <c r="B114" s="51" t="s">
+      <c r="J125" s="106"/>
+    </row>
+    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="150">
+        <v>124</v>
+      </c>
+      <c r="B126" s="112"/>
+      <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C114" s="46"/>
-      <c r="D114" s="55"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="73"/>
-      <c r="G114" s="55"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="101"/>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A115" s="116" t="s">
-        <v>104</v>
-      </c>
-      <c r="B115" s="52" t="s">
+      <c r="D126" s="46"/>
+      <c r="E126" s="55"/>
+      <c r="F126" s="55"/>
+      <c r="G126" s="73"/>
+      <c r="H126" s="55"/>
+      <c r="I126" s="55"/>
+      <c r="J126" s="102"/>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A127" s="148">
+        <v>125</v>
+      </c>
+      <c r="B127" s="110" t="s">
+        <v>108</v>
+      </c>
+      <c r="C127" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="C115" s="44">
-        <v>1</v>
-      </c>
-      <c r="D115" s="65">
-        <v>43128</v>
-      </c>
-      <c r="E115" s="65">
-        <v>43128</v>
-      </c>
-      <c r="F115" s="74">
-        <v>1</v>
-      </c>
-      <c r="G115" s="65">
-        <v>43128</v>
-      </c>
-      <c r="H115" s="65">
-        <v>43128</v>
-      </c>
-      <c r="I115" s="98"/>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A116" s="117"/>
-      <c r="B116" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="I116" s="98"/>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A117" s="117"/>
-      <c r="B117" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="I117" s="98"/>
-    </row>
-    <row r="118" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="118"/>
-      <c r="B118" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C118" s="46"/>
-      <c r="D118" s="55"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="73"/>
-      <c r="G118" s="55"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="101"/>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A119" s="93" t="s">
-        <v>103</v>
-      </c>
-      <c r="B119" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="C119" s="44">
-        <v>1</v>
-      </c>
-      <c r="D119" s="65">
-        <v>43128</v>
-      </c>
-      <c r="E119" s="65">
-        <v>43128</v>
-      </c>
-      <c r="F119" s="74">
-        <v>1</v>
-      </c>
-      <c r="G119" s="65">
-        <v>43128</v>
-      </c>
-      <c r="H119" s="65">
-        <v>43128</v>
-      </c>
-      <c r="I119" s="98"/>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A120" s="94"/>
-      <c r="B120" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="C120" s="49"/>
-      <c r="D120" s="56"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="75"/>
-      <c r="G120" s="56"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="98"/>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A121" s="94"/>
-      <c r="B121" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="49"/>
-      <c r="D121" s="56"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="75"/>
-      <c r="G121" s="56"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="98"/>
-    </row>
-    <row r="122" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="95"/>
-      <c r="B122" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C122" s="46"/>
-      <c r="D122" s="55"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="73"/>
-      <c r="G122" s="55"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="101"/>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A123" s="93" t="s">
-        <v>105</v>
-      </c>
-      <c r="B123" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C123" s="44">
-        <v>1</v>
-      </c>
-      <c r="D123" s="65">
-        <v>43129</v>
-      </c>
-      <c r="E123" s="65">
-        <v>43129</v>
-      </c>
-      <c r="F123" s="74">
-        <v>1</v>
-      </c>
-      <c r="G123" s="65">
-        <v>43129</v>
-      </c>
-      <c r="H123" s="65">
-        <v>43129</v>
-      </c>
-      <c r="I123" s="98"/>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A124" s="94"/>
-      <c r="B124" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="I124" s="98"/>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A125" s="94"/>
-      <c r="B125" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="I125" s="98"/>
-    </row>
-    <row r="126" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="95"/>
-      <c r="B126" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="C126" s="46"/>
-      <c r="D126" s="55"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="55"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="101"/>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A127" s="93" t="s">
-        <v>108</v>
-      </c>
-      <c r="B127" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="C127" s="44">
-        <v>1</v>
-      </c>
-      <c r="D127" s="65">
-        <v>43129</v>
+      <c r="D127" s="44">
+        <v>1</v>
       </c>
       <c r="E127" s="65">
         <v>43129</v>
       </c>
-      <c r="F127" s="74">
-        <v>1</v>
-      </c>
-      <c r="G127" s="65">
+      <c r="F127" s="65">
         <v>43129</v>
+      </c>
+      <c r="G127" s="74">
+        <v>1</v>
       </c>
       <c r="H127" s="65">
         <v>43129</v>
       </c>
-      <c r="I127" s="98"/>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A128" s="94"/>
-      <c r="B128" s="52" t="s">
+      <c r="I127" s="65">
+        <v>43129</v>
+      </c>
+      <c r="J127" s="106"/>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A128" s="149">
+        <v>126</v>
+      </c>
+      <c r="B128" s="111"/>
+      <c r="C128" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="I128" s="98"/>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A129" s="94"/>
-      <c r="B129" s="52" t="s">
+      <c r="J128" s="106"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="149">
+        <v>127</v>
+      </c>
+      <c r="B129" s="111"/>
+      <c r="C129" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="I129" s="98"/>
-    </row>
-    <row r="130" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="95"/>
-      <c r="B130" s="51" t="s">
+      <c r="J129" s="106"/>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="150">
+        <v>128</v>
+      </c>
+      <c r="B130" s="112"/>
+      <c r="C130" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C130" s="46"/>
-      <c r="D130" s="55"/>
+      <c r="D130" s="46"/>
       <c r="E130" s="55"/>
-      <c r="F130" s="73"/>
-      <c r="G130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="73"/>
       <c r="H130" s="55"/>
-      <c r="I130" s="101"/>
-    </row>
-    <row r="131" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="93" t="s">
+      <c r="I130" s="55"/>
+      <c r="J130" s="102"/>
+    </row>
+    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="148">
+        <v>129</v>
+      </c>
+      <c r="B131" s="110" t="s">
         <v>27</v>
       </c>
-      <c r="B131" s="59" t="s">
+      <c r="C131" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C131" s="44"/>
-      <c r="D131" s="65"/>
+      <c r="D131" s="44"/>
       <c r="E131" s="65"/>
-      <c r="F131" s="57"/>
-      <c r="G131" s="70"/>
+      <c r="F131" s="65"/>
+      <c r="G131" s="57"/>
       <c r="H131" s="70"/>
-      <c r="I131" s="98"/>
-    </row>
-    <row r="132" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="94"/>
-      <c r="B132" s="52" t="s">
+      <c r="I131" s="70"/>
+      <c r="J131" s="106"/>
+      <c r="K131" s="133"/>
+    </row>
+    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="149">
+        <v>130</v>
+      </c>
+      <c r="B132" s="111"/>
+      <c r="C132" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C132" s="49"/>
-      <c r="D132" s="54"/>
-      <c r="E132" s="58"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="71"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="98"/>
-    </row>
-    <row r="133" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="94"/>
-      <c r="B133" s="52" t="s">
+      <c r="D132" s="49"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="58"/>
+      <c r="G132" s="57"/>
+      <c r="H132" s="71"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="106"/>
+      <c r="K132" s="133"/>
+    </row>
+    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="149">
+        <v>131</v>
+      </c>
+      <c r="B133" s="111"/>
+      <c r="C133" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C133" s="49"/>
-      <c r="D133" s="54"/>
-      <c r="E133" s="58"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="71"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="98"/>
-    </row>
-    <row r="134" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="95"/>
-      <c r="B134" s="51" t="s">
+      <c r="D133" s="49"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="58"/>
+      <c r="G133" s="57"/>
+      <c r="H133" s="71"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="106"/>
+      <c r="K133" s="133"/>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="150">
+        <v>132</v>
+      </c>
+      <c r="B134" s="112"/>
+      <c r="C134" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="C134" s="46"/>
-      <c r="D134" s="64"/>
-      <c r="E134" s="66"/>
-      <c r="F134" s="73"/>
-      <c r="G134" s="69"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="101"/>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A135" s="116" t="s">
+      <c r="D134" s="46"/>
+      <c r="E134" s="64"/>
+      <c r="F134" s="66"/>
+      <c r="G134" s="73"/>
+      <c r="H134" s="69"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="102"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="148">
+        <v>133</v>
+      </c>
+      <c r="B135" s="120" t="s">
         <v>54</v>
       </c>
-      <c r="B135" s="59" t="s">
+      <c r="C135" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C135" s="44"/>
-      <c r="D135" s="65"/>
+      <c r="D135" s="44"/>
       <c r="E135" s="65"/>
-      <c r="F135" s="74"/>
-      <c r="G135" s="65"/>
+      <c r="F135" s="65"/>
+      <c r="G135" s="74"/>
       <c r="H135" s="65"/>
-      <c r="I135" s="98"/>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A136" s="117"/>
-      <c r="B136" s="52" t="s">
+      <c r="I135" s="65"/>
+      <c r="J135" s="106"/>
+      <c r="L135" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A136" s="149">
+        <v>134</v>
+      </c>
+      <c r="B136" s="121"/>
+      <c r="C136" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C136" s="49"/>
-      <c r="D136" s="56"/>
+      <c r="D136" s="49"/>
       <c r="E136" s="56"/>
-      <c r="F136" s="75"/>
-      <c r="G136" s="56"/>
+      <c r="F136" s="56"/>
+      <c r="G136" s="75"/>
       <c r="H136" s="56"/>
-      <c r="I136" s="98"/>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A137" s="117"/>
-      <c r="B137" s="52" t="s">
+      <c r="I136" s="56"/>
+      <c r="J136" s="106"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A137" s="149">
+        <v>135</v>
+      </c>
+      <c r="B137" s="121"/>
+      <c r="C137" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C137" s="49"/>
-      <c r="D137" s="56"/>
+      <c r="D137" s="49"/>
       <c r="E137" s="56"/>
-      <c r="F137" s="75"/>
-      <c r="G137" s="56"/>
+      <c r="F137" s="56"/>
+      <c r="G137" s="75"/>
       <c r="H137" s="56"/>
-      <c r="I137" s="98"/>
-    </row>
-    <row r="138" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="118"/>
-      <c r="B138" s="51" t="s">
+      <c r="I137" s="56"/>
+      <c r="J137" s="106"/>
+    </row>
+    <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="150">
+        <v>136</v>
+      </c>
+      <c r="B138" s="122"/>
+      <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="46"/>
-      <c r="D138" s="55"/>
+      <c r="D138" s="46"/>
       <c r="E138" s="55"/>
-      <c r="F138" s="73"/>
-      <c r="G138" s="55"/>
+      <c r="F138" s="55"/>
+      <c r="G138" s="73"/>
       <c r="H138" s="55"/>
-      <c r="I138" s="101"/>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A139" s="93" t="s">
+      <c r="I138" s="55"/>
+      <c r="J138" s="102"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A139" s="148">
+        <v>137</v>
+      </c>
+      <c r="B139" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="B139" s="59" t="s">
+      <c r="C139" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C139" s="44"/>
-      <c r="D139" s="65"/>
+      <c r="D139" s="44"/>
       <c r="E139" s="65"/>
-      <c r="F139" s="74"/>
-      <c r="G139" s="65"/>
+      <c r="F139" s="65"/>
+      <c r="G139" s="74"/>
       <c r="H139" s="65"/>
-      <c r="I139" s="98"/>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A140" s="94"/>
-      <c r="B140" s="52" t="s">
+      <c r="I139" s="65"/>
+      <c r="J139" s="106"/>
+      <c r="L139" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A140" s="149">
+        <v>138</v>
+      </c>
+      <c r="B140" s="111"/>
+      <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C140" s="49"/>
-      <c r="D140" s="56"/>
+      <c r="D140" s="49"/>
       <c r="E140" s="56"/>
-      <c r="F140" s="75"/>
-      <c r="G140" s="56"/>
+      <c r="F140" s="56"/>
+      <c r="G140" s="75"/>
       <c r="H140" s="56"/>
-      <c r="I140" s="98"/>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A141" s="94"/>
-      <c r="B141" s="52" t="s">
+      <c r="I140" s="56"/>
+      <c r="J140" s="106"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A141" s="149">
+        <v>139</v>
+      </c>
+      <c r="B141" s="111"/>
+      <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C141" s="49"/>
-      <c r="D141" s="56"/>
+      <c r="D141" s="49"/>
       <c r="E141" s="56"/>
-      <c r="F141" s="75"/>
-      <c r="G141" s="56"/>
+      <c r="F141" s="56"/>
+      <c r="G141" s="75"/>
       <c r="H141" s="56"/>
-      <c r="I141" s="98"/>
-    </row>
-    <row r="142" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="95"/>
-      <c r="B142" s="51" t="s">
+      <c r="I141" s="56"/>
+      <c r="J141" s="106"/>
+    </row>
+    <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="150">
+        <v>140</v>
+      </c>
+      <c r="B142" s="112"/>
+      <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C142" s="46"/>
-      <c r="D142" s="55"/>
+      <c r="D142" s="46"/>
       <c r="E142" s="55"/>
-      <c r="F142" s="73"/>
-      <c r="G142" s="55"/>
+      <c r="F142" s="55"/>
+      <c r="G142" s="73"/>
       <c r="H142" s="55"/>
-      <c r="I142" s="101"/>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A143" s="119" t="s">
+      <c r="I142" s="55"/>
+      <c r="J142" s="102"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A143" s="148">
+        <v>141</v>
+      </c>
+      <c r="B143" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B143" s="59" t="s">
+      <c r="C143" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C143" s="44"/>
-      <c r="D143" s="65"/>
+      <c r="D143" s="44"/>
       <c r="E143" s="65"/>
-      <c r="F143" s="74"/>
-      <c r="G143" s="65"/>
+      <c r="F143" s="65"/>
+      <c r="G143" s="74"/>
       <c r="H143" s="65"/>
-      <c r="I143" s="98"/>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A144" s="120"/>
-      <c r="B144" s="52" t="s">
+      <c r="I143" s="65"/>
+      <c r="J143" s="106"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A144" s="149">
+        <v>142</v>
+      </c>
+      <c r="B144" s="124"/>
+      <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C144" s="49"/>
-      <c r="D144" s="56"/>
+      <c r="D144" s="49"/>
       <c r="E144" s="56"/>
-      <c r="F144" s="75"/>
-      <c r="G144" s="56"/>
+      <c r="F144" s="56"/>
+      <c r="G144" s="75"/>
       <c r="H144" s="56"/>
-      <c r="I144" s="98"/>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A145" s="121" t="s">
+      <c r="I144" s="56"/>
+      <c r="J144" s="106"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="149">
+        <v>143</v>
+      </c>
+      <c r="B145" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B145" s="52" t="s">
+      <c r="C145" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C145" s="49"/>
-      <c r="D145" s="56"/>
+      <c r="D145" s="49"/>
       <c r="E145" s="56"/>
-      <c r="F145" s="75"/>
-      <c r="G145" s="56"/>
+      <c r="F145" s="56"/>
+      <c r="G145" s="75"/>
       <c r="H145" s="56"/>
-      <c r="I145" s="98"/>
-    </row>
-    <row r="146" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="122"/>
-      <c r="B146" s="51" t="s">
+      <c r="I145" s="56"/>
+      <c r="J145" s="106"/>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="150">
+        <v>144</v>
+      </c>
+      <c r="B146" s="119"/>
+      <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C146" s="46"/>
-      <c r="D146" s="55"/>
+      <c r="D146" s="46"/>
       <c r="E146" s="55"/>
-      <c r="F146" s="73"/>
-      <c r="G146" s="55"/>
+      <c r="F146" s="55"/>
+      <c r="G146" s="73"/>
       <c r="H146" s="55"/>
-      <c r="I146" s="101"/>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A147" s="119" t="s">
+      <c r="I146" s="55"/>
+      <c r="J146" s="102"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="148">
+        <v>145</v>
+      </c>
+      <c r="B147" s="123" t="s">
         <v>43</v>
       </c>
-      <c r="B147" s="59" t="s">
+      <c r="C147" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="C147" s="44"/>
-      <c r="D147" s="65"/>
+      <c r="D147" s="44"/>
       <c r="E147" s="65"/>
-      <c r="F147" s="74"/>
-      <c r="G147" s="65"/>
+      <c r="F147" s="65"/>
+      <c r="G147" s="74"/>
       <c r="H147" s="65"/>
-      <c r="I147" s="98"/>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A148" s="120"/>
-      <c r="B148" s="52" t="s">
+      <c r="I147" s="65"/>
+      <c r="J147" s="106"/>
+      <c r="L147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="149">
+        <v>146</v>
+      </c>
+      <c r="B148" s="124"/>
+      <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="C148" s="49"/>
-      <c r="D148" s="56"/>
+      <c r="D148" s="49"/>
       <c r="E148" s="56"/>
-      <c r="F148" s="75"/>
-      <c r="G148" s="56"/>
+      <c r="F148" s="56"/>
+      <c r="G148" s="75"/>
       <c r="H148" s="56"/>
-      <c r="I148" s="98"/>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A149" s="121" t="s">
+      <c r="I148" s="56"/>
+      <c r="J148" s="106"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="149">
+        <v>147</v>
+      </c>
+      <c r="B149" s="118" t="s">
         <v>134</v>
       </c>
-      <c r="B149" s="52" t="s">
+      <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="C149" s="49"/>
-      <c r="D149" s="56"/>
+      <c r="D149" s="49"/>
       <c r="E149" s="56"/>
-      <c r="F149" s="75"/>
-      <c r="G149" s="56"/>
+      <c r="F149" s="56"/>
+      <c r="G149" s="75"/>
       <c r="H149" s="56"/>
-      <c r="I149" s="98"/>
-    </row>
-    <row r="150" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="122"/>
-      <c r="B150" s="51" t="s">
+      <c r="I149" s="56"/>
+      <c r="J149" s="106"/>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="150">
+        <v>148</v>
+      </c>
+      <c r="B150" s="119"/>
+      <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="C150" s="46"/>
-      <c r="D150" s="55"/>
+      <c r="D150" s="46"/>
       <c r="E150" s="55"/>
-      <c r="F150" s="73"/>
-      <c r="G150" s="55"/>
+      <c r="F150" s="55"/>
+      <c r="G150" s="73"/>
       <c r="H150" s="55"/>
-      <c r="I150" s="101"/>
+      <c r="I150" s="55"/>
+      <c r="J150" s="102"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="148">
+        <v>149</v>
+      </c>
+      <c r="B151" s="110" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="D151" s="44"/>
+      <c r="E151" s="65">
+        <v>43125</v>
+      </c>
+      <c r="F151" s="65">
+        <v>43125</v>
+      </c>
+      <c r="G151" s="74">
+        <v>1</v>
+      </c>
+      <c r="H151" s="65">
+        <v>43125</v>
+      </c>
+      <c r="I151" s="65">
+        <v>43125</v>
+      </c>
+      <c r="J151" s="106"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="149">
+        <v>150</v>
+      </c>
+      <c r="B152" s="111"/>
+      <c r="C152" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="49"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="75"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="106"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="149">
+        <v>151</v>
+      </c>
+      <c r="B153" s="111"/>
+      <c r="C153" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D153" s="49"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="75"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="106"/>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="150">
+        <v>152</v>
+      </c>
+      <c r="B154" s="112"/>
+      <c r="C154" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" s="46"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="73"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="102"/>
     </row>
   </sheetData>
-  <mergeCells count="80">
-    <mergeCell ref="I19:I22"/>
-    <mergeCell ref="A23:A26"/>
-    <mergeCell ref="I23:I26"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="I15:I18"/>
-    <mergeCell ref="A149:A150"/>
-    <mergeCell ref="A123:A126"/>
-    <mergeCell ref="A127:A130"/>
-    <mergeCell ref="A107:A110"/>
-    <mergeCell ref="I143:I146"/>
-    <mergeCell ref="I131:I134"/>
-    <mergeCell ref="I147:I150"/>
-    <mergeCell ref="I135:I138"/>
-    <mergeCell ref="I139:I142"/>
-    <mergeCell ref="A143:A144"/>
-    <mergeCell ref="A145:A146"/>
-    <mergeCell ref="I83:I86"/>
-    <mergeCell ref="I123:I126"/>
-    <mergeCell ref="I127:I130"/>
-    <mergeCell ref="I107:I110"/>
-    <mergeCell ref="A147:A148"/>
-    <mergeCell ref="I103:I106"/>
-    <mergeCell ref="I119:I122"/>
-    <mergeCell ref="I111:I114"/>
-    <mergeCell ref="I115:I118"/>
-    <mergeCell ref="I87:I90"/>
-    <mergeCell ref="I91:I94"/>
-    <mergeCell ref="I95:I98"/>
-    <mergeCell ref="I99:I102"/>
-    <mergeCell ref="A135:A138"/>
-    <mergeCell ref="I47:I50"/>
-    <mergeCell ref="I51:I54"/>
-    <mergeCell ref="I55:I58"/>
-    <mergeCell ref="I59:I62"/>
-    <mergeCell ref="A79:A82"/>
-    <mergeCell ref="I63:I66"/>
-    <mergeCell ref="I67:I70"/>
-    <mergeCell ref="I71:I74"/>
-    <mergeCell ref="I75:I78"/>
-    <mergeCell ref="I79:I82"/>
-    <mergeCell ref="I27:I30"/>
-    <mergeCell ref="I31:I34"/>
-    <mergeCell ref="I35:I38"/>
-    <mergeCell ref="I39:I42"/>
-    <mergeCell ref="I43:I46"/>
-    <mergeCell ref="A139:A142"/>
-    <mergeCell ref="A59:A62"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A71:A74"/>
-    <mergeCell ref="A75:A78"/>
-    <mergeCell ref="A63:A66"/>
-    <mergeCell ref="A103:A106"/>
-    <mergeCell ref="A119:A122"/>
-    <mergeCell ref="A111:A114"/>
-    <mergeCell ref="A115:A118"/>
-    <mergeCell ref="A99:A102"/>
-    <mergeCell ref="A95:A98"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A131:A134"/>
-    <mergeCell ref="A31:A34"/>
-    <mergeCell ref="A35:A38"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A27:A30"/>
-    <mergeCell ref="A51:A54"/>
-    <mergeCell ref="A55:A58"/>
-    <mergeCell ref="A91:A94"/>
-    <mergeCell ref="A87:A90"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A47:A50"/>
-    <mergeCell ref="A83:A86"/>
-    <mergeCell ref="I3:I6"/>
-    <mergeCell ref="I11:I14"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="I7:I10"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A3:A6"/>
+  <mergeCells count="84">
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="J59:J62"/>
     <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B6"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J151:J154"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="J143:J146"/>
+    <mergeCell ref="J131:J134"/>
+    <mergeCell ref="J147:J150"/>
+    <mergeCell ref="J135:J138"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4604,26 +5368,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="99" t="s">
+      <c r="B1" s="113" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="115" t="s">
+      <c r="D1" s="125" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="115"/>
+      <c r="E1" s="125"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="100"/>
-      <c r="B2" s="100"/>
+      <c r="A2" s="114"/>
+      <c r="B2" s="114"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -4638,7 +5402,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="100" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -4655,7 +5419,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="98"/>
+      <c r="A4" s="106"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -4664,7 +5428,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
+      <c r="A5" s="106"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -4673,7 +5437,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
+      <c r="A6" s="106"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -4682,7 +5446,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
+      <c r="A7" s="106"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -4691,7 +5455,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="98"/>
+      <c r="A8" s="106"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -4703,7 +5467,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
+      <c r="A9" s="100" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -4711,13 +5475,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
+      <c r="A10" s="106"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="101"/>
+      <c r="A11" s="102"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -4747,7 +5511,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="100" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -4755,13 +5519,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
+      <c r="A15" s="106"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="101"/>
+      <c r="A16" s="102"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -4771,7 +5535,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+      <c r="A17" s="100" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -4779,25 +5543,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="110"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="110"/>
+      <c r="A19" s="101"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="110"/>
+      <c r="A20" s="101"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="101"/>
+      <c r="A21" s="102"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -4843,7 +5607,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="106" t="s">
+      <c r="A25" s="93" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -4851,13 +5615,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="107"/>
+      <c r="A26" s="94"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="108"/>
+      <c r="A27" s="95"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -4879,7 +5643,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="106" t="s">
+      <c r="A29" s="93" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4894,26 +5658,26 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="109"/>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="107" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="109"/>
-      <c r="B32" s="104"/>
+      <c r="B32" s="107"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="109"/>
-      <c r="B33" s="104" t="s">
+      <c r="B33" s="107" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="109"/>
-      <c r="B34" s="104"/>
+      <c r="B34" s="107"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="108"/>
+      <c r="A35" s="95"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -4935,7 +5699,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="106" t="s">
+      <c r="A37" s="93" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -4943,19 +5707,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="107"/>
+      <c r="A38" s="94"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="107"/>
+      <c r="A39" s="94"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="107"/>
+      <c r="A40" s="94"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -4977,7 +5741,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="106" t="s">
+      <c r="A42" s="93" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -4985,7 +5749,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="108"/>
+      <c r="A43" s="95"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -4995,7 +5759,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="106" t="s">
+      <c r="A44" s="93" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5003,25 +5767,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="107"/>
+      <c r="A45" s="94"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="107"/>
+      <c r="A46" s="94"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="107"/>
+      <c r="A47" s="94"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="108"/>
+      <c r="A48" s="95"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -5031,7 +5795,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="106" t="s">
+      <c r="A49" s="93" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5039,13 +5803,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="107"/>
+      <c r="A50" s="94"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="108"/>
+      <c r="A51" s="95"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -5080,6 +5844,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A1:A2"/>
@@ -5090,11 +5859,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L147" sqref="L147"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J91" sqref="J91:J114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -862,105 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -971,9 +872,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,23 +910,125 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,37 +1332,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="127"/>
+      <c r="F1" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1469,7 +1469,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="119" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1480,27 +1480,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1543,47 +1543,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="118">
         <v>0.5</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="121" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="111"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="112"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="123"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1592,7 +1592,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1603,53 +1603,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1721,7 +1721,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1732,27 +1732,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1811,14 +1811,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="124">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1829,25 +1829,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="96"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="124">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1858,12 +1858,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="96"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1960,8 +1960,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="107" t="s">
+      <c r="A40" s="135"/>
+      <c r="B40" s="132" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1975,8 +1975,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2016,7 +2016,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2027,14 +2027,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="98"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2052,7 +2052,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2060,56 +2060,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96" t="s">
+      <c r="D46" s="124"/>
+      <c r="E46" s="124" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="98"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2118,7 +2118,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2126,27 +2126,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="96"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="95"/>
+      <c r="A52" s="136"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="98"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2227,6 +2227,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2237,27 +2258,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2268,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91:J114"/>
+    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B91" sqref="B91:B94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2281,7 @@
     <col min="5" max="6" width="11.42578125" style="50"/>
     <col min="7" max="7" width="13.42578125" style="72" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="11" max="11" width="21.28515625" style="133" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="99" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2289,37 +2289,37 @@
       <c r="A1" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="122" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="125"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="125"/>
+      <c r="I1" s="148"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="142" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2341,13 +2341,13 @@
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="130"/>
+      <c r="K2" s="142"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148">
-        <v>1</v>
-      </c>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="113">
+        <v>1</v>
+      </c>
+      <c r="B3" s="121" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -2359,16 +2359,16 @@
       <c r="G3" s="74"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="J3" s="117">
-        <v>1</v>
-      </c>
-      <c r="K3" s="131"/>
+      <c r="J3" s="146">
+        <v>1</v>
+      </c>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="149">
+      <c r="A4" s="114">
         <v>2</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
@@ -2378,14 +2378,14 @@
       <c r="G4" s="75"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="132"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="149">
+      <c r="A5" s="114">
         <v>3</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="G5" s="75"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="132"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="150">
+      <c r="A6" s="115">
         <v>4</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
@@ -2412,14 +2412,14 @@
       <c r="G6" s="73"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="132"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148">
+      <c r="A7" s="113">
         <v>5</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="121" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="86" t="s">
@@ -2443,16 +2443,16 @@
       <c r="I7" s="61">
         <v>43121</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="146">
         <v>0.25</v>
       </c>
-      <c r="K7" s="131"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="149">
+      <c r="A8" s="114">
         <v>6</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="87" t="s">
         <v>117</v>
       </c>
@@ -2462,13 +2462,13 @@
       <c r="G8" s="75"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="106"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="149">
+      <c r="A9" s="114">
         <v>7</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="87" t="s">
         <v>119</v>
       </c>
@@ -2478,13 +2478,13 @@
       <c r="G9" s="75"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="106"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150">
+      <c r="A10" s="115">
         <v>8</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
@@ -2494,13 +2494,13 @@
       <c r="G10" s="73"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="102"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="148">
+      <c r="A11" s="113">
         <v>9</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="121" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -2524,16 +2524,16 @@
       <c r="I11" s="65">
         <v>43118</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="146">
         <v>0.25</v>
       </c>
-      <c r="K11" s="132"/>
+      <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="149">
+      <c r="A12" s="114">
         <v>10</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
@@ -2542,13 +2542,13 @@
       <c r="F12" s="58"/>
       <c r="H12" s="71"/>
       <c r="I12" s="58"/>
-      <c r="J12" s="106"/>
+      <c r="J12" s="126"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="149">
+      <c r="A13" s="114">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
@@ -2557,13 +2557,13 @@
       <c r="F13" s="58"/>
       <c r="H13" s="71"/>
       <c r="I13" s="62"/>
-      <c r="J13" s="106"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150">
+      <c r="A14" s="115">
         <v>12</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
@@ -2573,13 +2573,13 @@
       <c r="G14" s="73"/>
       <c r="H14" s="69"/>
       <c r="I14" s="63"/>
-      <c r="J14" s="102"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="148">
+      <c r="A15" s="113">
         <v>13</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="121" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -2603,16 +2603,16 @@
       <c r="I15" s="65">
         <v>43118</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="146">
         <v>0.25</v>
       </c>
-      <c r="K15" s="132"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="149">
+      <c r="A16" s="114">
         <v>14</v>
       </c>
-      <c r="B16" s="111"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="81" t="s">
         <v>117</v>
       </c>
@@ -2621,13 +2621,13 @@
       <c r="F16" s="58"/>
       <c r="H16" s="71"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="106"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="149">
+      <c r="A17" s="114">
         <v>15</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="81" t="s">
         <v>119</v>
       </c>
@@ -2636,13 +2636,13 @@
       <c r="F17" s="58"/>
       <c r="H17" s="71"/>
       <c r="I17" s="62"/>
-      <c r="J17" s="106"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="150">
+      <c r="A18" s="115">
         <v>16</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
@@ -2652,13 +2652,13 @@
       <c r="G18" s="73"/>
       <c r="H18" s="69"/>
       <c r="I18" s="63"/>
-      <c r="J18" s="102"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="148">
+      <c r="A19" s="113">
         <v>17</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="121" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -2682,16 +2682,16 @@
       <c r="I19" s="65">
         <v>43118</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="146">
         <v>0.25</v>
       </c>
-      <c r="K19" s="132"/>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="149">
+      <c r="A20" s="114">
         <v>18</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
@@ -2700,13 +2700,13 @@
       <c r="F20" s="58"/>
       <c r="H20" s="71"/>
       <c r="I20" s="58"/>
-      <c r="J20" s="106"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="149">
+      <c r="A21" s="114">
         <v>19</v>
       </c>
-      <c r="B21" s="111"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="81" t="s">
         <v>119</v>
       </c>
@@ -2715,13 +2715,13 @@
       <c r="F21" s="58"/>
       <c r="H21" s="71"/>
       <c r="I21" s="62"/>
-      <c r="J21" s="106"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="150">
+      <c r="A22" s="115">
         <v>20</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
@@ -2731,13 +2731,13 @@
       <c r="G22" s="73"/>
       <c r="H22" s="69"/>
       <c r="I22" s="63"/>
-      <c r="J22" s="102"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="148">
+      <c r="A23" s="113">
         <v>21</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="121" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="80" t="s">
@@ -2761,16 +2761,16 @@
       <c r="I23" s="65">
         <v>43118</v>
       </c>
-      <c r="J23" s="117">
+      <c r="J23" s="146">
         <v>0.25</v>
       </c>
-      <c r="K23" s="132"/>
+      <c r="K23" s="98"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="149">
+      <c r="A24" s="114">
         <v>22</v>
       </c>
-      <c r="B24" s="111"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="81" t="s">
         <v>117</v>
       </c>
@@ -2779,13 +2779,13 @@
       <c r="F24" s="58"/>
       <c r="H24" s="71"/>
       <c r="I24" s="58"/>
-      <c r="J24" s="106"/>
+      <c r="J24" s="126"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="149">
+      <c r="A25" s="114">
         <v>23</v>
       </c>
-      <c r="B25" s="111"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="81" t="s">
         <v>119</v>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="F25" s="58"/>
       <c r="H25" s="71"/>
       <c r="I25" s="62"/>
-      <c r="J25" s="106"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="150">
+      <c r="A26" s="115">
         <v>24</v>
       </c>
-      <c r="B26" s="112"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
@@ -2810,13 +2810,13 @@
       <c r="G26" s="73"/>
       <c r="H26" s="69"/>
       <c r="I26" s="63"/>
-      <c r="J26" s="102"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="148">
+      <c r="A27" s="113">
         <v>25</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="59" t="s">
@@ -2840,16 +2840,16 @@
       <c r="I27" s="65">
         <v>43121</v>
       </c>
-      <c r="J27" s="117">
+      <c r="J27" s="146">
         <v>0.25</v>
       </c>
-      <c r="K27" s="132"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="149">
+      <c r="A28" s="114">
         <v>26</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
@@ -2858,13 +2858,13 @@
       <c r="F28" s="58"/>
       <c r="H28" s="71"/>
       <c r="I28" s="56"/>
-      <c r="J28" s="106"/>
+      <c r="J28" s="126"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="149">
+      <c r="A29" s="114">
         <v>27</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
@@ -2873,13 +2873,13 @@
       <c r="F29" s="58"/>
       <c r="H29" s="71"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="106"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150">
+      <c r="A30" s="115">
         <v>28</v>
       </c>
-      <c r="B30" s="112"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
@@ -2889,13 +2889,13 @@
       <c r="G30" s="73"/>
       <c r="H30" s="69"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="102"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="148">
+      <c r="A31" s="113">
         <v>29</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -2919,16 +2919,16 @@
       <c r="I31" s="65">
         <v>43121</v>
       </c>
-      <c r="J31" s="117">
+      <c r="J31" s="146">
         <v>0.25</v>
       </c>
-      <c r="K31" s="132"/>
+      <c r="K31" s="98"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="149">
+      <c r="A32" s="114">
         <v>30</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
@@ -2937,13 +2937,13 @@
       <c r="F32" s="58"/>
       <c r="H32" s="71"/>
       <c r="I32" s="56"/>
-      <c r="J32" s="106"/>
+      <c r="J32" s="126"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="149">
+      <c r="A33" s="114">
         <v>31</v>
       </c>
-      <c r="B33" s="111"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
@@ -2952,13 +2952,13 @@
       <c r="F33" s="58"/>
       <c r="H33" s="71"/>
       <c r="I33" s="56"/>
-      <c r="J33" s="106"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150">
+      <c r="A34" s="115">
         <v>32</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
@@ -2968,13 +2968,13 @@
       <c r="G34" s="73"/>
       <c r="H34" s="69"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="102"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="148">
+      <c r="A35" s="113">
         <v>33</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="59" t="s">
@@ -2992,25 +2992,25 @@
       <c r="G35" s="72">
         <v>1</v>
       </c>
-      <c r="H35" s="126">
+      <c r="H35" s="93">
         <v>43121</v>
       </c>
-      <c r="I35" s="127">
+      <c r="I35" s="94">
         <v>43121</v>
       </c>
-      <c r="J35" s="117">
+      <c r="J35" s="146">
         <v>0.25</v>
       </c>
-      <c r="K35" s="132"/>
-      <c r="L35" s="134" t="s">
+      <c r="K35" s="98"/>
+      <c r="L35" s="100" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="149">
+      <c r="A36" s="114">
         <v>34</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
@@ -3019,16 +3019,16 @@
       <c r="F36" s="54"/>
       <c r="H36" s="71"/>
       <c r="I36" s="56"/>
-      <c r="J36" s="106"/>
-      <c r="L36" s="134" t="s">
+      <c r="J36" s="126"/>
+      <c r="L36" s="100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="149">
+      <c r="A37" s="114">
         <v>35</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
@@ -3037,14 +3037,14 @@
       <c r="F37" s="54"/>
       <c r="H37" s="71"/>
       <c r="I37" s="56"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="135"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150">
+      <c r="A38" s="115">
         <v>36</v>
       </c>
-      <c r="B38" s="112"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
@@ -3054,14 +3054,14 @@
       <c r="G38" s="73"/>
       <c r="H38" s="69"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="135"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="148">
+      <c r="A39" s="113">
         <v>37</v>
       </c>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="143" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="59" t="s">
@@ -3079,22 +3079,22 @@
       <c r="G39" s="72">
         <v>1</v>
       </c>
-      <c r="H39" s="126">
+      <c r="H39" s="93">
         <v>43121</v>
       </c>
-      <c r="I39" s="127">
+      <c r="I39" s="94">
         <v>43121</v>
       </c>
-      <c r="J39" s="117">
+      <c r="J39" s="146">
         <v>0.25</v>
       </c>
-      <c r="K39" s="132"/>
+      <c r="K39" s="98"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="149">
+      <c r="A40" s="114">
         <v>38</v>
       </c>
-      <c r="B40" s="121"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="G40" s="75"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
-      <c r="J40" s="106"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="149">
+      <c r="A41" s="114">
         <v>39</v>
       </c>
-      <c r="B41" s="121"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
@@ -3120,13 +3120,13 @@
       <c r="G41" s="75"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="106"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="150">
+      <c r="A42" s="115">
         <v>40</v>
       </c>
-      <c r="B42" s="122"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
@@ -3136,13 +3136,13 @@
       <c r="G42" s="73"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="102"/>
+      <c r="J42" s="129"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="148">
+      <c r="A43" s="113">
         <v>41</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="121" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="59" t="s">
@@ -3160,22 +3160,22 @@
       <c r="G43" s="72">
         <v>1</v>
       </c>
-      <c r="H43" s="126">
+      <c r="H43" s="93">
         <v>43121</v>
       </c>
-      <c r="I43" s="127">
+      <c r="I43" s="94">
         <v>43121</v>
       </c>
-      <c r="J43" s="117">
+      <c r="J43" s="146">
         <v>0.25</v>
       </c>
-      <c r="K43" s="132"/>
+      <c r="K43" s="98"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="149">
+      <c r="A44" s="114">
         <v>42</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
@@ -3185,13 +3185,13 @@
       <c r="G44" s="75"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="106"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="149">
+      <c r="A45" s="114">
         <v>43</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
@@ -3201,13 +3201,13 @@
       <c r="G45" s="75"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="106"/>
+      <c r="J45" s="126"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="150">
+      <c r="A46" s="115">
         <v>44</v>
       </c>
-      <c r="B46" s="112"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
@@ -3217,13 +3217,13 @@
       <c r="G46" s="73"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="102"/>
+      <c r="J46" s="129"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="148">
+      <c r="A47" s="113">
         <v>45</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="121" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="59" t="s">
@@ -3241,22 +3241,22 @@
       <c r="G47" s="72">
         <v>1</v>
       </c>
-      <c r="H47" s="126">
+      <c r="H47" s="93">
         <v>43121</v>
       </c>
-      <c r="I47" s="127">
+      <c r="I47" s="94">
         <v>43121</v>
       </c>
-      <c r="J47" s="117">
+      <c r="J47" s="146">
         <v>0.25</v>
       </c>
-      <c r="K47" s="132"/>
+      <c r="K47" s="98"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="149">
+      <c r="A48" s="114">
         <v>46</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
@@ -3266,13 +3266,13 @@
       <c r="G48" s="75"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="106"/>
+      <c r="J48" s="126"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="149">
+      <c r="A49" s="114">
         <v>47</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
@@ -3282,13 +3282,13 @@
       <c r="G49" s="75"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="106"/>
+      <c r="J49" s="126"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="150">
+      <c r="A50" s="115">
         <v>48</v>
       </c>
-      <c r="B50" s="112"/>
+      <c r="B50" s="123"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
@@ -3298,13 +3298,13 @@
       <c r="G50" s="73"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
-      <c r="J50" s="102"/>
+      <c r="J50" s="129"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="148">
+      <c r="A51" s="113">
         <v>49</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="143" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="59" t="s">
@@ -3322,22 +3322,22 @@
       <c r="G51" s="72">
         <v>1</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="93">
         <v>43121</v>
       </c>
-      <c r="I51" s="127">
+      <c r="I51" s="94">
         <v>43121</v>
       </c>
-      <c r="J51" s="117">
+      <c r="J51" s="146">
         <v>0.25</v>
       </c>
-      <c r="K51" s="132"/>
+      <c r="K51" s="98"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="149">
+      <c r="A52" s="114">
         <v>50</v>
       </c>
-      <c r="B52" s="121"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
@@ -3347,13 +3347,13 @@
       <c r="G52" s="75"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="106"/>
+      <c r="J52" s="126"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="149">
+      <c r="A53" s="114">
         <v>51</v>
       </c>
-      <c r="B53" s="121"/>
+      <c r="B53" s="144"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
@@ -3363,13 +3363,13 @@
       <c r="G53" s="75"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="106"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="150">
+      <c r="A54" s="115">
         <v>52</v>
       </c>
-      <c r="B54" s="122"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
@@ -3379,181 +3379,181 @@
       <c r="G54" s="73"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="102"/>
-    </row>
-    <row r="55" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="148">
+      <c r="J54" s="129"/>
+    </row>
+    <row r="55" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="113">
         <v>53</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="90">
         <v>1</v>
       </c>
-      <c r="E55" s="136">
+      <c r="E55" s="102">
         <v>43121</v>
       </c>
-      <c r="F55" s="136">
+      <c r="F55" s="102">
         <v>43121</v>
       </c>
-      <c r="G55" s="129">
-        <v>1</v>
-      </c>
-      <c r="H55" s="136">
+      <c r="G55" s="96">
+        <v>1</v>
+      </c>
+      <c r="H55" s="102">
         <v>43121</v>
       </c>
-      <c r="I55" s="136">
+      <c r="I55" s="102">
         <v>43121</v>
       </c>
-      <c r="J55" s="117">
+      <c r="J55" s="146">
         <v>0.25</v>
       </c>
-      <c r="K55" s="132"/>
-    </row>
-    <row r="56" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="149">
+      <c r="K55" s="98"/>
+    </row>
+    <row r="56" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="114">
         <v>54</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="139" t="s">
+      <c r="B56" s="144"/>
+      <c r="C56" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="137"/>
-    </row>
-    <row r="57" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="149">
+      <c r="E56" s="106"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="103"/>
+    </row>
+    <row r="57" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114">
         <v>55</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="139" t="s">
+      <c r="B57" s="144"/>
+      <c r="C57" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D57" s="91"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="137"/>
-    </row>
-    <row r="58" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="150">
+      <c r="E57" s="106"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="103"/>
+    </row>
+    <row r="58" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="115">
         <v>56</v>
       </c>
-      <c r="B58" s="122"/>
-      <c r="C58" s="143" t="s">
+      <c r="B58" s="145"/>
+      <c r="C58" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="92"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="137"/>
-    </row>
-    <row r="59" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="148">
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="103"/>
+    </row>
+    <row r="59" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="113">
         <v>57</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="B59" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="C59" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="90">
         <v>1</v>
       </c>
-      <c r="E59" s="136">
+      <c r="E59" s="102">
         <v>43121</v>
       </c>
-      <c r="F59" s="136">
+      <c r="F59" s="102">
         <v>43121</v>
       </c>
-      <c r="G59" s="129">
-        <v>1</v>
-      </c>
-      <c r="H59" s="136">
+      <c r="G59" s="96">
+        <v>1</v>
+      </c>
+      <c r="H59" s="102">
         <v>43121</v>
       </c>
-      <c r="I59" s="136">
+      <c r="I59" s="102">
         <v>43121</v>
       </c>
-      <c r="J59" s="117">
+      <c r="J59" s="146">
         <v>0.25</v>
       </c>
-      <c r="K59" s="132"/>
-    </row>
-    <row r="60" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="149">
+      <c r="K59" s="98"/>
+    </row>
+    <row r="60" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="114">
         <v>58</v>
       </c>
-      <c r="B60" s="121"/>
-      <c r="C60" s="139" t="s">
+      <c r="B60" s="144"/>
+      <c r="C60" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D60" s="91"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="137"/>
-    </row>
-    <row r="61" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="149">
+      <c r="E60" s="106"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="103"/>
+    </row>
+    <row r="61" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="114">
         <v>59</v>
       </c>
-      <c r="B61" s="121"/>
-      <c r="C61" s="139" t="s">
+      <c r="B61" s="144"/>
+      <c r="C61" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="91"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="137"/>
-    </row>
-    <row r="62" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="150">
+      <c r="E61" s="106"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="103"/>
+    </row>
+    <row r="62" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="115">
         <v>60</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="143" t="s">
+      <c r="B62" s="145"/>
+      <c r="C62" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D62" s="92"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="137"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="103"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="148">
+      <c r="A63" s="113">
         <v>61</v>
       </c>
-      <c r="B63" s="120" t="s">
+      <c r="B63" s="143" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="59" t="s">
@@ -3562,31 +3562,31 @@
       <c r="D63" s="44">
         <v>1</v>
       </c>
-      <c r="E63" s="136">
+      <c r="E63" s="102">
         <v>43121</v>
       </c>
-      <c r="F63" s="136">
+      <c r="F63" s="102">
         <v>43121</v>
       </c>
-      <c r="G63" s="129">
-        <v>1</v>
-      </c>
-      <c r="H63" s="136">
+      <c r="G63" s="96">
+        <v>1</v>
+      </c>
+      <c r="H63" s="102">
         <v>43121</v>
       </c>
-      <c r="I63" s="136">
+      <c r="I63" s="102">
         <v>43121</v>
       </c>
-      <c r="J63" s="117">
+      <c r="J63" s="146">
         <v>0.25</v>
       </c>
-      <c r="K63" s="132"/>
+      <c r="K63" s="98"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="149">
+      <c r="A64" s="114">
         <v>62</v>
       </c>
-      <c r="B64" s="121"/>
+      <c r="B64" s="144"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
@@ -3596,13 +3596,13 @@
       <c r="G64" s="75"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
-      <c r="J64" s="106"/>
+      <c r="J64" s="126"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="149">
+      <c r="A65" s="114">
         <v>63</v>
       </c>
-      <c r="B65" s="121"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
@@ -3612,13 +3612,13 @@
       <c r="G65" s="75"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
-      <c r="J65" s="106"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="150">
+      <c r="A66" s="115">
         <v>64</v>
       </c>
-      <c r="B66" s="122"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
@@ -3628,13 +3628,13 @@
       <c r="G66" s="73"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="102"/>
+      <c r="J66" s="129"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="148">
+      <c r="A67" s="113">
         <v>65</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="143" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="59" t="s">
@@ -3643,31 +3643,31 @@
       <c r="D67" s="44">
         <v>1</v>
       </c>
-      <c r="E67" s="136">
+      <c r="E67" s="102">
         <v>43121</v>
       </c>
-      <c r="F67" s="136">
+      <c r="F67" s="102">
         <v>43121</v>
       </c>
-      <c r="G67" s="129">
-        <v>1</v>
-      </c>
-      <c r="H67" s="136">
+      <c r="G67" s="96">
+        <v>1</v>
+      </c>
+      <c r="H67" s="102">
         <v>43121</v>
       </c>
-      <c r="I67" s="136">
+      <c r="I67" s="102">
         <v>43121</v>
       </c>
-      <c r="J67" s="117">
+      <c r="J67" s="146">
         <v>0.25</v>
       </c>
-      <c r="K67" s="132"/>
+      <c r="K67" s="98"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="149">
+      <c r="A68" s="114">
         <v>66</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="144"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
@@ -3677,13 +3677,13 @@
       <c r="G68" s="75"/>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
-      <c r="J68" s="106"/>
+      <c r="J68" s="126"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="149">
+      <c r="A69" s="114">
         <v>67</v>
       </c>
-      <c r="B69" s="121"/>
+      <c r="B69" s="144"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
@@ -3693,13 +3693,13 @@
       <c r="G69" s="75"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
-      <c r="J69" s="106"/>
+      <c r="J69" s="126"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="150">
+      <c r="A70" s="115">
         <v>68</v>
       </c>
-      <c r="B70" s="122"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
@@ -3709,13 +3709,13 @@
       <c r="G70" s="73"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
-      <c r="J70" s="102"/>
+      <c r="J70" s="129"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="148">
+      <c r="A71" s="113">
         <v>69</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59" t="s">
@@ -3724,31 +3724,31 @@
       <c r="D71" s="44">
         <v>1</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E71" s="102">
         <v>43121</v>
       </c>
-      <c r="F71" s="136">
+      <c r="F71" s="102">
         <v>43121</v>
       </c>
-      <c r="G71" s="129">
-        <v>1</v>
-      </c>
-      <c r="H71" s="136">
+      <c r="G71" s="96">
+        <v>1</v>
+      </c>
+      <c r="H71" s="102">
         <v>43121</v>
       </c>
-      <c r="I71" s="136">
+      <c r="I71" s="102">
         <v>43121</v>
       </c>
-      <c r="J71" s="117">
+      <c r="J71" s="146">
         <v>0.25</v>
       </c>
-      <c r="K71" s="132"/>
+      <c r="K71" s="98"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="149">
+      <c r="A72" s="114">
         <v>70</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
@@ -3758,13 +3758,13 @@
       <c r="G72" s="75"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
-      <c r="J72" s="106"/>
+      <c r="J72" s="126"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="149">
+      <c r="A73" s="114">
         <v>71</v>
       </c>
-      <c r="B73" s="111"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
@@ -3774,13 +3774,13 @@
       <c r="G73" s="75"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
-      <c r="J73" s="106"/>
+      <c r="J73" s="126"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="150">
+      <c r="A74" s="115">
         <v>72</v>
       </c>
-      <c r="B74" s="112"/>
+      <c r="B74" s="123"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
@@ -3790,13 +3790,13 @@
       <c r="G74" s="73"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
-      <c r="J74" s="102"/>
+      <c r="J74" s="129"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="148">
+      <c r="A75" s="113">
         <v>73</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="121" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="59" t="s">
@@ -3805,31 +3805,31 @@
       <c r="D75" s="44">
         <v>1</v>
       </c>
-      <c r="E75" s="136">
+      <c r="E75" s="102">
         <v>43121</v>
       </c>
-      <c r="F75" s="136">
+      <c r="F75" s="102">
         <v>43121</v>
       </c>
-      <c r="G75" s="129">
-        <v>1</v>
-      </c>
-      <c r="H75" s="136">
+      <c r="G75" s="96">
+        <v>1</v>
+      </c>
+      <c r="H75" s="102">
         <v>43121</v>
       </c>
-      <c r="I75" s="136">
+      <c r="I75" s="102">
         <v>43121</v>
       </c>
-      <c r="J75" s="117">
+      <c r="J75" s="146">
         <v>0.25</v>
       </c>
-      <c r="K75" s="132"/>
+      <c r="K75" s="98"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="149">
+      <c r="A76" s="114">
         <v>74</v>
       </c>
-      <c r="B76" s="111"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
@@ -3839,13 +3839,13 @@
       <c r="G76" s="75"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
-      <c r="J76" s="106"/>
+      <c r="J76" s="126"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="149">
+      <c r="A77" s="114">
         <v>75</v>
       </c>
-      <c r="B77" s="111"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
@@ -3855,13 +3855,13 @@
       <c r="G77" s="75"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
-      <c r="J77" s="106"/>
+      <c r="J77" s="126"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150">
+      <c r="A78" s="115">
         <v>76</v>
       </c>
-      <c r="B78" s="112"/>
+      <c r="B78" s="123"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
@@ -3871,13 +3871,13 @@
       <c r="G78" s="73"/>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
-      <c r="J78" s="102"/>
+      <c r="J78" s="129"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="148">
+      <c r="A79" s="113">
         <v>77</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="121" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="59" t="s">
@@ -3886,31 +3886,31 @@
       <c r="D79" s="44">
         <v>1</v>
       </c>
-      <c r="E79" s="136">
+      <c r="E79" s="102">
         <v>43121</v>
       </c>
-      <c r="F79" s="136">
+      <c r="F79" s="102">
         <v>43121</v>
       </c>
-      <c r="G79" s="129">
-        <v>1</v>
-      </c>
-      <c r="H79" s="136">
+      <c r="G79" s="96">
+        <v>1</v>
+      </c>
+      <c r="H79" s="102">
         <v>43121</v>
       </c>
-      <c r="I79" s="136">
+      <c r="I79" s="102">
         <v>43121</v>
       </c>
-      <c r="J79" s="117">
+      <c r="J79" s="146">
         <v>0.25</v>
       </c>
-      <c r="K79" s="132"/>
+      <c r="K79" s="98"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="149">
+      <c r="A80" s="114">
         <v>78</v>
       </c>
-      <c r="B80" s="111"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
@@ -3920,13 +3920,13 @@
       <c r="G80" s="75"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
-      <c r="J80" s="106"/>
+      <c r="J80" s="126"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="149">
+      <c r="A81" s="114">
         <v>79</v>
       </c>
-      <c r="B81" s="111"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
@@ -3936,13 +3936,13 @@
       <c r="G81" s="75"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
-      <c r="J81" s="106"/>
+      <c r="J81" s="126"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="150">
+      <c r="A82" s="115">
         <v>80</v>
       </c>
-      <c r="B82" s="112"/>
+      <c r="B82" s="123"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
@@ -3952,181 +3952,181 @@
       <c r="G82" s="73"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="102"/>
+      <c r="J82" s="129"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="148">
+      <c r="A83" s="113">
         <v>81</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="128" t="s">
+      <c r="C83" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D83" s="90">
         <v>1</v>
       </c>
-      <c r="E83" s="136">
+      <c r="E83" s="102">
         <v>43121</v>
       </c>
-      <c r="F83" s="136">
+      <c r="F83" s="102">
         <v>43121</v>
       </c>
-      <c r="G83" s="129">
-        <v>1</v>
-      </c>
-      <c r="H83" s="136">
+      <c r="G83" s="96">
+        <v>1</v>
+      </c>
+      <c r="H83" s="102">
         <v>43121</v>
       </c>
-      <c r="I83" s="136">
+      <c r="I83" s="102">
         <v>43121</v>
       </c>
-      <c r="J83" s="117">
+      <c r="J83" s="146">
         <v>0.25</v>
       </c>
-      <c r="K83" s="132"/>
+      <c r="K83" s="98"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="149">
+      <c r="A84" s="114">
         <v>82</v>
       </c>
-      <c r="B84" s="121"/>
-      <c r="C84" s="139" t="s">
+      <c r="B84" s="144"/>
+      <c r="C84" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D84" s="91"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="141"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="137"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="103"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="149">
+      <c r="A85" s="114">
         <v>83</v>
       </c>
-      <c r="B85" s="121"/>
-      <c r="C85" s="139" t="s">
+      <c r="B85" s="144"/>
+      <c r="C85" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="91"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
-      <c r="J85" s="106"/>
-      <c r="K85" s="137"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="103"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="150">
+      <c r="A86" s="115">
         <v>84</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="143" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="92"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="145"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="145"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="137"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="103"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="148">
+      <c r="A87" s="113">
         <v>85</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="128" t="s">
+      <c r="C87" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="90">
         <v>1</v>
       </c>
-      <c r="E87" s="151">
+      <c r="E87" s="116">
         <v>43121</v>
       </c>
-      <c r="F87" s="151">
+      <c r="F87" s="116">
         <v>43121</v>
       </c>
-      <c r="G87" s="152">
-        <v>1</v>
-      </c>
-      <c r="H87" s="151">
+      <c r="G87" s="117">
+        <v>1</v>
+      </c>
+      <c r="H87" s="116">
         <v>43121</v>
       </c>
-      <c r="I87" s="151">
+      <c r="I87" s="116">
         <v>43121</v>
       </c>
-      <c r="J87" s="117">
+      <c r="J87" s="146">
         <v>0.25</v>
       </c>
-      <c r="K87" s="132"/>
+      <c r="K87" s="98"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="149">
+      <c r="A88" s="114">
         <v>86</v>
       </c>
-      <c r="B88" s="121"/>
-      <c r="C88" s="139" t="s">
+      <c r="B88" s="144"/>
+      <c r="C88" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="91"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="141"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="137"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="126"/>
+      <c r="K88" s="103"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="149">
+      <c r="A89" s="114">
         <v>87</v>
       </c>
-      <c r="B89" s="121"/>
-      <c r="C89" s="139" t="s">
+      <c r="B89" s="144"/>
+      <c r="C89" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="91"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
-      <c r="J89" s="106"/>
-      <c r="K89" s="137"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="126"/>
+      <c r="K89" s="103"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="150">
+      <c r="A90" s="115">
         <v>88</v>
       </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="143" t="s">
+      <c r="B90" s="145"/>
+      <c r="C90" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="92"/>
-      <c r="E90" s="145"/>
-      <c r="F90" s="145"/>
-      <c r="G90" s="146"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="145"/>
-      <c r="J90" s="102"/>
-      <c r="K90" s="137"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="103"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="148">
+      <c r="A91" s="113">
         <v>89</v>
       </c>
-      <c r="B91" s="110" t="s">
+      <c r="B91" s="121" t="s">
         <v>56</v>
       </c>
       <c r="C91" s="59" t="s">
@@ -4150,13 +4150,13 @@
       <c r="I91" s="65">
         <v>43125</v>
       </c>
-      <c r="J91" s="106"/>
+      <c r="J91" s="126"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="149">
+      <c r="A92" s="114">
         <v>90</v>
       </c>
-      <c r="B92" s="111"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
@@ -4165,13 +4165,13 @@
       <c r="F92" s="56"/>
       <c r="G92" s="75"/>
       <c r="H92" s="56"/>
-      <c r="J92" s="106"/>
+      <c r="J92" s="126"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="149">
+      <c r="A93" s="114">
         <v>91</v>
       </c>
-      <c r="B93" s="111"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
@@ -4180,13 +4180,13 @@
       <c r="F93" s="56"/>
       <c r="G93" s="75"/>
       <c r="H93" s="56"/>
-      <c r="J93" s="106"/>
+      <c r="J93" s="126"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="150">
+      <c r="A94" s="115">
         <v>92</v>
       </c>
-      <c r="B94" s="112"/>
+      <c r="B94" s="123"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
@@ -4196,13 +4196,13 @@
       <c r="G94" s="73"/>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
-      <c r="J94" s="102"/>
+      <c r="J94" s="129"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="148">
+      <c r="A95" s="113">
         <v>93</v>
       </c>
-      <c r="B95" s="110" t="s">
+      <c r="B95" s="121" t="s">
         <v>82</v>
       </c>
       <c r="C95" s="59" t="s">
@@ -4226,13 +4226,13 @@
       <c r="I95" s="65">
         <v>43125</v>
       </c>
-      <c r="J95" s="106"/>
+      <c r="J95" s="126"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="149">
+      <c r="A96" s="114">
         <v>94</v>
       </c>
-      <c r="B96" s="111"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
@@ -4242,13 +4242,13 @@
       <c r="G96" s="75"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
-      <c r="J96" s="106"/>
+      <c r="J96" s="126"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="149">
+      <c r="A97" s="114">
         <v>95</v>
       </c>
-      <c r="B97" s="111"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
@@ -4258,13 +4258,13 @@
       <c r="G97" s="75"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
-      <c r="J97" s="106"/>
+      <c r="J97" s="126"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="150">
+      <c r="A98" s="115">
         <v>96</v>
       </c>
-      <c r="B98" s="112"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
@@ -4274,13 +4274,13 @@
       <c r="G98" s="73"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="102"/>
+      <c r="J98" s="129"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="148">
+      <c r="A99" s="113">
         <v>97</v>
       </c>
-      <c r="B99" s="110" t="s">
+      <c r="B99" s="121" t="s">
         <v>83</v>
       </c>
       <c r="C99" s="59" t="s">
@@ -4304,13 +4304,13 @@
       <c r="I99" s="65">
         <v>43125</v>
       </c>
-      <c r="J99" s="106"/>
+      <c r="J99" s="126"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="149">
+      <c r="A100" s="114">
         <v>98</v>
       </c>
-      <c r="B100" s="111"/>
+      <c r="B100" s="122"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
@@ -4320,13 +4320,13 @@
       <c r="G100" s="75"/>
       <c r="H100" s="56"/>
       <c r="I100" s="56"/>
-      <c r="J100" s="106"/>
+      <c r="J100" s="126"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="149">
+      <c r="A101" s="114">
         <v>99</v>
       </c>
-      <c r="B101" s="111"/>
+      <c r="B101" s="122"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
@@ -4336,13 +4336,13 @@
       <c r="G101" s="75"/>
       <c r="H101" s="56"/>
       <c r="I101" s="56"/>
-      <c r="J101" s="106"/>
+      <c r="J101" s="126"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="150">
+      <c r="A102" s="115">
         <v>100</v>
       </c>
-      <c r="B102" s="112"/>
+      <c r="B102" s="123"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
@@ -4352,13 +4352,13 @@
       <c r="G102" s="73"/>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
-      <c r="J102" s="102"/>
+      <c r="J102" s="129"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="148">
+      <c r="A103" s="113">
         <v>101</v>
       </c>
-      <c r="B103" s="120" t="s">
+      <c r="B103" s="143" t="s">
         <v>101</v>
       </c>
       <c r="C103" s="59" t="s">
@@ -4382,13 +4382,13 @@
       <c r="I103" s="65">
         <v>43126</v>
       </c>
-      <c r="J103" s="106"/>
+      <c r="J103" s="126"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="149">
+      <c r="A104" s="114">
         <v>102</v>
       </c>
-      <c r="B104" s="121"/>
+      <c r="B104" s="144"/>
       <c r="C104" s="52" t="s">
         <v>117</v>
       </c>
@@ -4397,13 +4397,13 @@
       <c r="F104" s="56"/>
       <c r="G104" s="75"/>
       <c r="H104" s="56"/>
-      <c r="J104" s="106"/>
+      <c r="J104" s="126"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="149">
+      <c r="A105" s="114">
         <v>103</v>
       </c>
-      <c r="B105" s="121"/>
+      <c r="B105" s="144"/>
       <c r="C105" s="52" t="s">
         <v>119</v>
       </c>
@@ -4412,13 +4412,13 @@
       <c r="F105" s="56"/>
       <c r="G105" s="75"/>
       <c r="H105" s="56"/>
-      <c r="J105" s="106"/>
+      <c r="J105" s="126"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="150">
+      <c r="A106" s="115">
         <v>104</v>
       </c>
-      <c r="B106" s="122"/>
+      <c r="B106" s="145"/>
       <c r="C106" s="51" t="s">
         <v>121</v>
       </c>
@@ -4428,13 +4428,13 @@
       <c r="G106" s="73"/>
       <c r="H106" s="55"/>
       <c r="I106" s="55"/>
-      <c r="J106" s="102"/>
+      <c r="J106" s="129"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="148">
+      <c r="A107" s="113">
         <v>105</v>
       </c>
-      <c r="B107" s="120" t="s">
+      <c r="B107" s="143" t="s">
         <v>109</v>
       </c>
       <c r="C107" s="52" t="s">
@@ -4458,33 +4458,33 @@
       <c r="I107" s="65">
         <v>43126</v>
       </c>
-      <c r="J107" s="100"/>
+      <c r="J107" s="125"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="149">
+      <c r="A108" s="114">
         <v>106</v>
       </c>
-      <c r="B108" s="121"/>
+      <c r="B108" s="144"/>
       <c r="C108" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J108" s="106"/>
+      <c r="J108" s="126"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="149">
+      <c r="A109" s="114">
         <v>107</v>
       </c>
-      <c r="B109" s="121"/>
+      <c r="B109" s="144"/>
       <c r="C109" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="106"/>
+      <c r="J109" s="126"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="150">
+      <c r="A110" s="115">
         <v>108</v>
       </c>
-      <c r="B110" s="122"/>
+      <c r="B110" s="145"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
@@ -4494,13 +4494,13 @@
       <c r="G110" s="73"/>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
-      <c r="J110" s="102"/>
+      <c r="J110" s="129"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="148">
+      <c r="A111" s="113">
         <v>109</v>
       </c>
-      <c r="B111" s="120" t="s">
+      <c r="B111" s="143" t="s">
         <v>102</v>
       </c>
       <c r="C111" s="52" t="s">
@@ -4524,33 +4524,33 @@
       <c r="I111" s="65">
         <v>43126</v>
       </c>
-      <c r="J111" s="106"/>
+      <c r="J111" s="126"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="149">
+      <c r="A112" s="114">
         <v>110</v>
       </c>
-      <c r="B112" s="121"/>
+      <c r="B112" s="144"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J112" s="106"/>
+      <c r="J112" s="126"/>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="149">
+      <c r="A113" s="114">
         <v>111</v>
       </c>
-      <c r="B113" s="121"/>
+      <c r="B113" s="144"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J113" s="106"/>
+      <c r="J113" s="126"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="150">
+      <c r="A114" s="115">
         <v>112</v>
       </c>
-      <c r="B114" s="122"/>
+      <c r="B114" s="145"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
@@ -4560,13 +4560,13 @@
       <c r="G114" s="73"/>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
-      <c r="J114" s="102"/>
+      <c r="J114" s="129"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="148">
+      <c r="A115" s="113">
         <v>113</v>
       </c>
-      <c r="B115" s="120" t="s">
+      <c r="B115" s="143" t="s">
         <v>104</v>
       </c>
       <c r="C115" s="52" t="s">
@@ -4590,33 +4590,33 @@
       <c r="I115" s="65">
         <v>43127</v>
       </c>
-      <c r="J115" s="106"/>
+      <c r="J115" s="126"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="149">
+      <c r="A116" s="114">
         <v>114</v>
       </c>
-      <c r="B116" s="121"/>
+      <c r="B116" s="144"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J116" s="106"/>
+      <c r="J116" s="126"/>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="149">
+      <c r="A117" s="114">
         <v>115</v>
       </c>
-      <c r="B117" s="121"/>
+      <c r="B117" s="144"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J117" s="106"/>
+      <c r="J117" s="126"/>
     </row>
     <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="150">
+      <c r="A118" s="115">
         <v>116</v>
       </c>
-      <c r="B118" s="122"/>
+      <c r="B118" s="145"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
@@ -4626,13 +4626,13 @@
       <c r="G118" s="73"/>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
-      <c r="J118" s="102"/>
+      <c r="J118" s="129"/>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="148">
+      <c r="A119" s="113">
         <v>117</v>
       </c>
-      <c r="B119" s="110" t="s">
+      <c r="B119" s="121" t="s">
         <v>103</v>
       </c>
       <c r="C119" s="59" t="s">
@@ -4656,13 +4656,13 @@
       <c r="I119" s="65">
         <v>43127</v>
       </c>
-      <c r="J119" s="106"/>
+      <c r="J119" s="126"/>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="149">
+      <c r="A120" s="114">
         <v>118</v>
       </c>
-      <c r="B120" s="111"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="52" t="s">
         <v>117</v>
       </c>
@@ -4672,13 +4672,13 @@
       <c r="G120" s="75"/>
       <c r="H120" s="56"/>
       <c r="I120" s="56"/>
-      <c r="J120" s="106"/>
+      <c r="J120" s="126"/>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="149">
+      <c r="A121" s="114">
         <v>119</v>
       </c>
-      <c r="B121" s="111"/>
+      <c r="B121" s="122"/>
       <c r="C121" s="52" t="s">
         <v>119</v>
       </c>
@@ -4688,13 +4688,13 @@
       <c r="G121" s="75"/>
       <c r="H121" s="56"/>
       <c r="I121" s="56"/>
-      <c r="J121" s="106"/>
+      <c r="J121" s="126"/>
     </row>
     <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="150">
+      <c r="A122" s="115">
         <v>120</v>
       </c>
-      <c r="B122" s="112"/>
+      <c r="B122" s="123"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
@@ -4704,13 +4704,13 @@
       <c r="G122" s="73"/>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
-      <c r="J122" s="102"/>
+      <c r="J122" s="129"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="148">
+      <c r="A123" s="113">
         <v>121</v>
       </c>
-      <c r="B123" s="110" t="s">
+      <c r="B123" s="121" t="s">
         <v>105</v>
       </c>
       <c r="C123" s="52" t="s">
@@ -4734,33 +4734,33 @@
       <c r="I123" s="65">
         <v>43127</v>
       </c>
-      <c r="J123" s="106"/>
+      <c r="J123" s="126"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="149">
+      <c r="A124" s="114">
         <v>122</v>
       </c>
-      <c r="B124" s="111"/>
+      <c r="B124" s="122"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J124" s="106"/>
+      <c r="J124" s="126"/>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="149">
+      <c r="A125" s="114">
         <v>123</v>
       </c>
-      <c r="B125" s="111"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J125" s="106"/>
+      <c r="J125" s="126"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="150">
+      <c r="A126" s="115">
         <v>124</v>
       </c>
-      <c r="B126" s="112"/>
+      <c r="B126" s="123"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
@@ -4770,13 +4770,13 @@
       <c r="G126" s="73"/>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
-      <c r="J126" s="102"/>
+      <c r="J126" s="129"/>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="148">
+      <c r="A127" s="113">
         <v>125</v>
       </c>
-      <c r="B127" s="110" t="s">
+      <c r="B127" s="121" t="s">
         <v>108</v>
       </c>
       <c r="C127" s="52" t="s">
@@ -4800,33 +4800,33 @@
       <c r="I127" s="65">
         <v>43129</v>
       </c>
-      <c r="J127" s="106"/>
+      <c r="J127" s="126"/>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="149">
+      <c r="A128" s="114">
         <v>126</v>
       </c>
-      <c r="B128" s="111"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J128" s="106"/>
+      <c r="J128" s="126"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="149">
+      <c r="A129" s="114">
         <v>127</v>
       </c>
-      <c r="B129" s="111"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J129" s="106"/>
+      <c r="J129" s="126"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="150">
+      <c r="A130" s="115">
         <v>128</v>
       </c>
-      <c r="B130" s="112"/>
+      <c r="B130" s="123"/>
       <c r="C130" s="51" t="s">
         <v>121</v>
       </c>
@@ -4836,13 +4836,13 @@
       <c r="G130" s="73"/>
       <c r="H130" s="55"/>
       <c r="I130" s="55"/>
-      <c r="J130" s="102"/>
+      <c r="J130" s="129"/>
     </row>
     <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="148">
+      <c r="A131" s="113">
         <v>129</v>
       </c>
-      <c r="B131" s="110" t="s">
+      <c r="B131" s="121" t="s">
         <v>27</v>
       </c>
       <c r="C131" s="59" t="s">
@@ -4854,14 +4854,14 @@
       <c r="G131" s="57"/>
       <c r="H131" s="70"/>
       <c r="I131" s="70"/>
-      <c r="J131" s="106"/>
-      <c r="K131" s="133"/>
+      <c r="J131" s="126"/>
+      <c r="K131" s="99"/>
     </row>
     <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="149">
+      <c r="A132" s="114">
         <v>130</v>
       </c>
-      <c r="B132" s="111"/>
+      <c r="B132" s="122"/>
       <c r="C132" s="52" t="s">
         <v>119</v>
       </c>
@@ -4871,14 +4871,14 @@
       <c r="G132" s="57"/>
       <c r="H132" s="71"/>
       <c r="I132" s="56"/>
-      <c r="J132" s="106"/>
-      <c r="K132" s="133"/>
+      <c r="J132" s="126"/>
+      <c r="K132" s="99"/>
     </row>
     <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="149">
+      <c r="A133" s="114">
         <v>131</v>
       </c>
-      <c r="B133" s="111"/>
+      <c r="B133" s="122"/>
       <c r="C133" s="52" t="s">
         <v>117</v>
       </c>
@@ -4888,14 +4888,14 @@
       <c r="G133" s="57"/>
       <c r="H133" s="71"/>
       <c r="I133" s="56"/>
-      <c r="J133" s="106"/>
-      <c r="K133" s="133"/>
+      <c r="J133" s="126"/>
+      <c r="K133" s="99"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="150">
+      <c r="A134" s="115">
         <v>132</v>
       </c>
-      <c r="B134" s="112"/>
+      <c r="B134" s="123"/>
       <c r="C134" s="51" t="s">
         <v>118</v>
       </c>
@@ -4905,13 +4905,13 @@
       <c r="G134" s="73"/>
       <c r="H134" s="69"/>
       <c r="I134" s="55"/>
-      <c r="J134" s="102"/>
+      <c r="J134" s="129"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="148">
+      <c r="A135" s="113">
         <v>133</v>
       </c>
-      <c r="B135" s="120" t="s">
+      <c r="B135" s="143" t="s">
         <v>54</v>
       </c>
       <c r="C135" s="59" t="s">
@@ -4923,16 +4923,16 @@
       <c r="G135" s="74"/>
       <c r="H135" s="65"/>
       <c r="I135" s="65"/>
-      <c r="J135" s="106"/>
+      <c r="J135" s="126"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="149">
+      <c r="A136" s="114">
         <v>134</v>
       </c>
-      <c r="B136" s="121"/>
+      <c r="B136" s="144"/>
       <c r="C136" s="52" t="s">
         <v>117</v>
       </c>
@@ -4942,13 +4942,13 @@
       <c r="G136" s="75"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
-      <c r="J136" s="106"/>
+      <c r="J136" s="126"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="149">
+      <c r="A137" s="114">
         <v>135</v>
       </c>
-      <c r="B137" s="121"/>
+      <c r="B137" s="144"/>
       <c r="C137" s="52" t="s">
         <v>119</v>
       </c>
@@ -4958,13 +4958,13 @@
       <c r="G137" s="75"/>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
-      <c r="J137" s="106"/>
+      <c r="J137" s="126"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="150">
+      <c r="A138" s="115">
         <v>136</v>
       </c>
-      <c r="B138" s="122"/>
+      <c r="B138" s="145"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
@@ -4974,13 +4974,13 @@
       <c r="G138" s="73"/>
       <c r="H138" s="55"/>
       <c r="I138" s="55"/>
-      <c r="J138" s="102"/>
+      <c r="J138" s="129"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="148">
+      <c r="A139" s="113">
         <v>137</v>
       </c>
-      <c r="B139" s="110" t="s">
+      <c r="B139" s="121" t="s">
         <v>55</v>
       </c>
       <c r="C139" s="59" t="s">
@@ -4992,16 +4992,16 @@
       <c r="G139" s="74"/>
       <c r="H139" s="65"/>
       <c r="I139" s="65"/>
-      <c r="J139" s="106"/>
+      <c r="J139" s="126"/>
       <c r="L139" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="149">
+      <c r="A140" s="114">
         <v>138</v>
       </c>
-      <c r="B140" s="111"/>
+      <c r="B140" s="122"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
@@ -5011,13 +5011,13 @@
       <c r="G140" s="75"/>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
-      <c r="J140" s="106"/>
+      <c r="J140" s="126"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="149">
+      <c r="A141" s="114">
         <v>139</v>
       </c>
-      <c r="B141" s="111"/>
+      <c r="B141" s="122"/>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
@@ -5027,13 +5027,13 @@
       <c r="G141" s="75"/>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
-      <c r="J141" s="106"/>
+      <c r="J141" s="126"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="150">
+      <c r="A142" s="115">
         <v>140</v>
       </c>
-      <c r="B142" s="112"/>
+      <c r="B142" s="123"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
@@ -5043,13 +5043,13 @@
       <c r="G142" s="73"/>
       <c r="H142" s="55"/>
       <c r="I142" s="55"/>
-      <c r="J142" s="102"/>
+      <c r="J142" s="129"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="148">
+      <c r="A143" s="113">
         <v>141</v>
       </c>
-      <c r="B143" s="123" t="s">
+      <c r="B143" s="149" t="s">
         <v>84</v>
       </c>
       <c r="C143" s="59" t="s">
@@ -5061,13 +5061,13 @@
       <c r="G143" s="74"/>
       <c r="H143" s="65"/>
       <c r="I143" s="65"/>
-      <c r="J143" s="106"/>
+      <c r="J143" s="126"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="149">
+      <c r="A144" s="114">
         <v>142</v>
       </c>
-      <c r="B144" s="124"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
@@ -5077,13 +5077,13 @@
       <c r="G144" s="75"/>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
-      <c r="J144" s="106"/>
+      <c r="J144" s="126"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="149">
+      <c r="A145" s="114">
         <v>143</v>
       </c>
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="151" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
@@ -5095,13 +5095,13 @@
       <c r="G145" s="75"/>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
-      <c r="J145" s="106"/>
+      <c r="J145" s="126"/>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="150">
+      <c r="A146" s="115">
         <v>144</v>
       </c>
-      <c r="B146" s="119"/>
+      <c r="B146" s="152"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
@@ -5111,13 +5111,13 @@
       <c r="G146" s="73"/>
       <c r="H146" s="55"/>
       <c r="I146" s="55"/>
-      <c r="J146" s="102"/>
+      <c r="J146" s="129"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="148">
+      <c r="A147" s="113">
         <v>145</v>
       </c>
-      <c r="B147" s="123" t="s">
+      <c r="B147" s="149" t="s">
         <v>43</v>
       </c>
       <c r="C147" s="59" t="s">
@@ -5129,16 +5129,16 @@
       <c r="G147" s="74"/>
       <c r="H147" s="65"/>
       <c r="I147" s="65"/>
-      <c r="J147" s="106"/>
+      <c r="J147" s="126"/>
       <c r="L147" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="149">
+      <c r="A148" s="114">
         <v>146</v>
       </c>
-      <c r="B148" s="124"/>
+      <c r="B148" s="150"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
@@ -5148,13 +5148,13 @@
       <c r="G148" s="75"/>
       <c r="H148" s="56"/>
       <c r="I148" s="56"/>
-      <c r="J148" s="106"/>
+      <c r="J148" s="126"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="149">
+      <c r="A149" s="114">
         <v>147</v>
       </c>
-      <c r="B149" s="118" t="s">
+      <c r="B149" s="151" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="52" t="s">
@@ -5166,13 +5166,13 @@
       <c r="G149" s="75"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
-      <c r="J149" s="106"/>
+      <c r="J149" s="126"/>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="150">
+      <c r="A150" s="115">
         <v>148</v>
       </c>
-      <c r="B150" s="119"/>
+      <c r="B150" s="152"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
@@ -5182,13 +5182,13 @@
       <c r="G150" s="73"/>
       <c r="H150" s="55"/>
       <c r="I150" s="55"/>
-      <c r="J150" s="102"/>
+      <c r="J150" s="129"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="148">
+      <c r="A151" s="113">
         <v>149</v>
       </c>
-      <c r="B151" s="110" t="s">
+      <c r="B151" s="121" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="59" t="s">
@@ -5210,13 +5210,13 @@
       <c r="I151" s="65">
         <v>43125</v>
       </c>
-      <c r="J151" s="106"/>
+      <c r="J151" s="126"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="149">
+      <c r="A152" s="114">
         <v>150</v>
       </c>
-      <c r="B152" s="111"/>
+      <c r="B152" s="122"/>
       <c r="C152" s="52" t="s">
         <v>117</v>
       </c>
@@ -5226,13 +5226,13 @@
       <c r="G152" s="75"/>
       <c r="H152" s="56"/>
       <c r="I152" s="56"/>
-      <c r="J152" s="106"/>
+      <c r="J152" s="126"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="149">
+      <c r="A153" s="114">
         <v>151</v>
       </c>
-      <c r="B153" s="111"/>
+      <c r="B153" s="122"/>
       <c r="C153" s="52" t="s">
         <v>119</v>
       </c>
@@ -5242,13 +5242,13 @@
       <c r="G153" s="75"/>
       <c r="H153" s="56"/>
       <c r="I153" s="56"/>
-      <c r="J153" s="106"/>
+      <c r="J153" s="126"/>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="150">
+      <c r="A154" s="115">
         <v>152</v>
       </c>
-      <c r="B154" s="112"/>
+      <c r="B154" s="123"/>
       <c r="C154" s="51" t="s">
         <v>121</v>
       </c>
@@ -5258,10 +5258,78 @@
       <c r="G154" s="73"/>
       <c r="H154" s="55"/>
       <c r="I154" s="55"/>
-      <c r="J154" s="102"/>
+      <c r="J154" s="129"/>
     </row>
   </sheetData>
   <mergeCells count="84">
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J151:J154"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="J143:J146"/>
+    <mergeCell ref="J131:J134"/>
+    <mergeCell ref="J147:J150"/>
+    <mergeCell ref="J135:J138"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="J59:J62"/>
@@ -5278,74 +5346,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="J83:J86"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J151:J154"/>
-    <mergeCell ref="J91:J94"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="J143:J146"/>
-    <mergeCell ref="J131:J134"/>
-    <mergeCell ref="J147:J150"/>
-    <mergeCell ref="J135:J138"/>
-    <mergeCell ref="J139:J142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5368,26 +5368,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="125"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -5402,7 +5402,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5419,7 +5419,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5428,7 +5428,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5437,7 +5437,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -5446,7 +5446,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5455,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5467,7 +5467,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5475,13 +5475,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5511,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -5519,13 +5519,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -5535,7 +5535,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5543,25 +5543,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5607,7 +5607,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5615,13 +5615,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -5643,7 +5643,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5651,33 +5651,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -5699,7 +5699,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5707,19 +5707,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -5741,7 +5741,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5749,7 +5749,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -5759,7 +5759,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5767,25 +5767,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -5795,7 +5795,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5803,13 +5803,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -5844,11 +5844,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A1:A2"/>
@@ -5859,6 +5854,11 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="148">
   <si>
     <t>Página</t>
   </si>
@@ -2266,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B91" sqref="B91:B94"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4127,7 +4127,7 @@
         <v>89</v>
       </c>
       <c r="B91" s="121" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="C91" s="59" t="s">
         <v>118</v>
@@ -4165,6 +4165,7 @@
       <c r="F92" s="56"/>
       <c r="G92" s="75"/>
       <c r="H92" s="56"/>
+      <c r="I92" s="56"/>
       <c r="J92" s="126"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
@@ -4180,6 +4181,7 @@
       <c r="F93" s="56"/>
       <c r="G93" s="75"/>
       <c r="H93" s="56"/>
+      <c r="I93" s="56"/>
       <c r="J93" s="126"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4203,7 +4205,7 @@
         <v>93</v>
       </c>
       <c r="B95" s="121" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C95" s="59" t="s">
         <v>118</v>
@@ -4280,8 +4282,8 @@
       <c r="A99" s="113">
         <v>97</v>
       </c>
-      <c r="B99" s="121" t="s">
-        <v>83</v>
+      <c r="B99" s="143" t="s">
+        <v>101</v>
       </c>
       <c r="C99" s="59" t="s">
         <v>118</v>
@@ -4290,19 +4292,19 @@
         <v>1</v>
       </c>
       <c r="E99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="G99" s="74">
         <v>1</v>
       </c>
       <c r="H99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="I99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="J99" s="126"/>
     </row>
@@ -4310,7 +4312,7 @@
       <c r="A100" s="114">
         <v>98</v>
       </c>
-      <c r="B100" s="122"/>
+      <c r="B100" s="144"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
@@ -4319,14 +4321,13 @@
       <c r="F100" s="56"/>
       <c r="G100" s="75"/>
       <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
       <c r="J100" s="126"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101" s="114">
         <v>99</v>
       </c>
-      <c r="B101" s="122"/>
+      <c r="B101" s="144"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
@@ -4335,14 +4336,13 @@
       <c r="F101" s="56"/>
       <c r="G101" s="75"/>
       <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
       <c r="J101" s="126"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="115">
         <v>100</v>
       </c>
-      <c r="B102" s="123"/>
+      <c r="B102" s="145"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
@@ -4359,12 +4359,12 @@
         <v>101</v>
       </c>
       <c r="B103" s="143" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="59" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="44">
+      <c r="D103" s="88">
         <v>1</v>
       </c>
       <c r="E103" s="65">
@@ -4382,7 +4382,7 @@
       <c r="I103" s="65">
         <v>43126</v>
       </c>
-      <c r="J103" s="126"/>
+      <c r="J103" s="125"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" s="114">
@@ -4392,11 +4392,6 @@
       <c r="C104" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="49"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="56"/>
       <c r="J104" s="126"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
@@ -4407,11 +4402,6 @@
       <c r="C105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="49"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="56"/>
       <c r="J105" s="126"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4435,7 +4425,7 @@
         <v>105</v>
       </c>
       <c r="B107" s="143" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>118</v>
@@ -4458,7 +4448,7 @@
       <c r="I107" s="65">
         <v>43126</v>
       </c>
-      <c r="J107" s="125"/>
+      <c r="J107" s="126"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" s="114">
@@ -4501,28 +4491,28 @@
         <v>109</v>
       </c>
       <c r="B111" s="143" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="88">
+      <c r="D111" s="44">
         <v>1</v>
       </c>
       <c r="E111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="F111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="G111" s="74">
         <v>1</v>
       </c>
       <c r="H111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="I111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="J111" s="126"/>
     </row>
@@ -4536,7 +4526,7 @@
       </c>
       <c r="J112" s="126"/>
     </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="114">
         <v>111</v>
       </c>
@@ -4546,7 +4536,7 @@
       </c>
       <c r="J113" s="126"/>
     </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="115">
         <v>112</v>
       </c>
@@ -4562,17 +4552,17 @@
       <c r="I114" s="55"/>
       <c r="J114" s="129"/>
     </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="113">
         <v>113</v>
       </c>
-      <c r="B115" s="143" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="52" t="s">
+      <c r="B115" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="88">
         <v>1</v>
       </c>
       <c r="E115" s="65">
@@ -4592,31 +4582,43 @@
       </c>
       <c r="J115" s="126"/>
     </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="114">
         <v>114</v>
       </c>
-      <c r="B116" s="144"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
+      <c r="D116" s="49"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
       <c r="J116" s="126"/>
     </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="114">
         <v>115</v>
       </c>
-      <c r="B117" s="144"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
+      <c r="D117" s="49"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="56"/>
       <c r="J117" s="126"/>
     </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="115">
         <v>116</v>
       </c>
-      <c r="B118" s="145"/>
+      <c r="B118" s="123"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
@@ -4628,14 +4630,14 @@
       <c r="I118" s="55"/>
       <c r="J118" s="129"/>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="113">
         <v>117</v>
       </c>
       <c r="B119" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="59" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="52" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="88">
@@ -4658,7 +4660,7 @@
       </c>
       <c r="J119" s="126"/>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="114">
         <v>118</v>
       </c>
@@ -4666,15 +4668,9 @@
       <c r="C120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="75"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
       <c r="J120" s="126"/>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="114">
         <v>119</v>
       </c>
@@ -4682,15 +4678,9 @@
       <c r="C121" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="49"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
       <c r="J121" s="126"/>
     </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="115">
         <v>120</v>
       </c>
@@ -4706,37 +4696,37 @@
       <c r="I122" s="55"/>
       <c r="J122" s="129"/>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="113">
         <v>121</v>
       </c>
       <c r="B123" s="121" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="88">
+      <c r="D123" s="44">
         <v>1</v>
       </c>
       <c r="E123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="F123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="G123" s="74">
         <v>1</v>
       </c>
       <c r="H123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="I123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="J123" s="126"/>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="114">
         <v>122</v>
       </c>
@@ -4746,7 +4736,7 @@
       </c>
       <c r="J124" s="126"/>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="114">
         <v>123</v>
       </c>
@@ -4756,7 +4746,7 @@
       </c>
       <c r="J125" s="126"/>
     </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="115">
         <v>124</v>
       </c>
@@ -4772,55 +4762,58 @@
       <c r="I126" s="55"/>
       <c r="J126" s="129"/>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A127" s="113">
         <v>125</v>
       </c>
       <c r="B127" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="52" t="s">
-        <v>118</v>
-      </c>
-      <c r="D127" s="44">
-        <v>1</v>
-      </c>
-      <c r="E127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="F127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="G127" s="74">
-        <v>1</v>
-      </c>
-      <c r="H127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="I127" s="65">
-        <v>43129</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
       <c r="J127" s="126"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K127" s="99"/>
+    </row>
+    <row r="128" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A128" s="114">
         <v>126</v>
       </c>
       <c r="B128" s="122"/>
       <c r="C128" s="52" t="s">
-        <v>117</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D128" s="49"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="56"/>
       <c r="J128" s="126"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K128" s="99"/>
+    </row>
+    <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A129" s="114">
         <v>127</v>
       </c>
       <c r="B129" s="122"/>
       <c r="C129" s="52" t="s">
-        <v>119</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="D129" s="49"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="56"/>
       <c r="J129" s="126"/>
+      <c r="K129" s="99"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="115">
@@ -4828,82 +4821,82 @@
       </c>
       <c r="B130" s="123"/>
       <c r="C130" s="51" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D130" s="46"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="66"/>
       <c r="G130" s="73"/>
-      <c r="H130" s="55"/>
+      <c r="H130" s="69"/>
       <c r="I130" s="55"/>
       <c r="J130" s="129"/>
     </row>
-    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A131" s="113">
         <v>129</v>
       </c>
-      <c r="B131" s="121" t="s">
-        <v>27</v>
+      <c r="B131" s="143" t="s">
+        <v>54</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D131" s="44"/>
       <c r="E131" s="65"/>
       <c r="F131" s="65"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
+      <c r="G131" s="74"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
       <c r="J131" s="126"/>
-      <c r="K131" s="99"/>
-    </row>
-    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="L131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A132" s="114">
         <v>130</v>
       </c>
-      <c r="B132" s="122"/>
+      <c r="B132" s="144"/>
       <c r="C132" s="52" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D132" s="49"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="71"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="56"/>
       <c r="I132" s="56"/>
       <c r="J132" s="126"/>
-      <c r="K132" s="99"/>
-    </row>
-    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A133" s="114">
         <v>131</v>
       </c>
-      <c r="B133" s="122"/>
+      <c r="B133" s="144"/>
       <c r="C133" s="52" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D133" s="49"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="71"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="56"/>
       <c r="I133" s="56"/>
       <c r="J133" s="126"/>
-      <c r="K133" s="99"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="115">
         <v>132</v>
       </c>
-      <c r="B134" s="123"/>
+      <c r="B134" s="145"/>
       <c r="C134" s="51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D134" s="46"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="66"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
       <c r="G134" s="73"/>
-      <c r="H134" s="69"/>
+      <c r="H134" s="55"/>
       <c r="I134" s="55"/>
       <c r="J134" s="129"/>
     </row>
@@ -4911,8 +4904,8 @@
       <c r="A135" s="113">
         <v>133</v>
       </c>
-      <c r="B135" s="143" t="s">
-        <v>54</v>
+      <c r="B135" s="121" t="s">
+        <v>55</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>118</v>
@@ -4932,7 +4925,7 @@
       <c r="A136" s="114">
         <v>134</v>
       </c>
-      <c r="B136" s="144"/>
+      <c r="B136" s="122"/>
       <c r="C136" s="52" t="s">
         <v>117</v>
       </c>
@@ -4948,7 +4941,7 @@
       <c r="A137" s="114">
         <v>135</v>
       </c>
-      <c r="B137" s="144"/>
+      <c r="B137" s="122"/>
       <c r="C137" s="52" t="s">
         <v>119</v>
       </c>
@@ -4964,7 +4957,7 @@
       <c r="A138" s="115">
         <v>136</v>
       </c>
-      <c r="B138" s="145"/>
+      <c r="B138" s="123"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
@@ -4980,8 +4973,8 @@
       <c r="A139" s="113">
         <v>137</v>
       </c>
-      <c r="B139" s="121" t="s">
-        <v>55</v>
+      <c r="B139" s="149" t="s">
+        <v>84</v>
       </c>
       <c r="C139" s="59" t="s">
         <v>118</v>
@@ -4993,15 +4986,12 @@
       <c r="H139" s="65"/>
       <c r="I139" s="65"/>
       <c r="J139" s="126"/>
-      <c r="L139" t="s">
-        <v>147</v>
-      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="114">
         <v>138</v>
       </c>
-      <c r="B140" s="122"/>
+      <c r="B140" s="150"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
@@ -5017,7 +5007,9 @@
       <c r="A141" s="114">
         <v>139</v>
       </c>
-      <c r="B141" s="122"/>
+      <c r="B141" s="151" t="s">
+        <v>134</v>
+      </c>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
@@ -5033,7 +5025,7 @@
       <c r="A142" s="115">
         <v>140</v>
       </c>
-      <c r="B142" s="123"/>
+      <c r="B142" s="152"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
@@ -5050,7 +5042,7 @@
         <v>141</v>
       </c>
       <c r="B143" s="149" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C143" s="59" t="s">
         <v>118</v>
@@ -5062,6 +5054,9 @@
       <c r="H143" s="65"/>
       <c r="I143" s="65"/>
       <c r="J143" s="126"/>
+      <c r="L143" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="114">
@@ -5079,7 +5074,7 @@
       <c r="I144" s="56"/>
       <c r="J144" s="126"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A145" s="114">
         <v>143</v>
       </c>
@@ -5097,7 +5092,7 @@
       <c r="I145" s="56"/>
       <c r="J145" s="126"/>
     </row>
-    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="115">
         <v>144</v>
       </c>
@@ -5113,32 +5108,39 @@
       <c r="I146" s="55"/>
       <c r="J146" s="129"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A147" s="113">
         <v>145</v>
       </c>
-      <c r="B147" s="149" t="s">
-        <v>43</v>
+      <c r="B147" s="121" t="s">
+        <v>15</v>
       </c>
       <c r="C147" s="59" t="s">
         <v>118</v>
       </c>
       <c r="D147" s="44"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="65"/>
-      <c r="I147" s="65"/>
+      <c r="E147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="F147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="G147" s="74">
+        <v>1</v>
+      </c>
+      <c r="H147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="I147" s="65">
+        <v>43125</v>
+      </c>
       <c r="J147" s="126"/>
-      <c r="L147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148" s="114">
         <v>146</v>
       </c>
-      <c r="B148" s="150"/>
+      <c r="B148" s="122"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
@@ -5150,13 +5152,11 @@
       <c r="I148" s="56"/>
       <c r="J148" s="126"/>
     </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149" s="114">
         <v>147</v>
       </c>
-      <c r="B149" s="151" t="s">
-        <v>134</v>
-      </c>
+      <c r="B149" s="122"/>
       <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
@@ -5168,11 +5168,11 @@
       <c r="I149" s="56"/>
       <c r="J149" s="126"/>
     </row>
-    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="115">
         <v>148</v>
       </c>
-      <c r="B150" s="152"/>
+      <c r="B150" s="123"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
@@ -5184,119 +5184,42 @@
       <c r="I150" s="55"/>
       <c r="J150" s="129"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="113">
-        <v>149</v>
-      </c>
-      <c r="B151" s="121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D151" s="44"/>
-      <c r="E151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="F151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="G151" s="74">
-        <v>1</v>
-      </c>
-      <c r="H151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="I151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J151" s="126"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="114">
-        <v>150</v>
-      </c>
-      <c r="B152" s="122"/>
-      <c r="C152" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="56"/>
-      <c r="J152" s="126"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="114">
-        <v>151</v>
-      </c>
-      <c r="B153" s="122"/>
-      <c r="C153" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" s="49"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="75"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="126"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="115">
-        <v>152</v>
-      </c>
-      <c r="B154" s="123"/>
-      <c r="C154" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D154" s="46"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="129"/>
-    </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="82">
     <mergeCell ref="J19:J22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="J23:J26"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J151:J154"/>
+    <mergeCell ref="J147:J150"/>
     <mergeCell ref="J91:J94"/>
     <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="B131:B134"/>
     <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
     <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="J127:J130"/>
     <mergeCell ref="J143:J146"/>
     <mergeCell ref="J131:J134"/>
-    <mergeCell ref="J147:J150"/>
     <mergeCell ref="J135:J138"/>
-    <mergeCell ref="J139:J142"/>
     <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J119:J122"/>
     <mergeCell ref="J123:J126"/>
-    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="J115:J118"/>
     <mergeCell ref="J107:J110"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="J119:J122"/>
     <mergeCell ref="J111:J114"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B107:B110"/>
     <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
     <mergeCell ref="J47:J50"/>
     <mergeCell ref="J51:J54"/>
     <mergeCell ref="J55:J58"/>
@@ -5318,16 +5241,15 @@
     <mergeCell ref="J39:J42"/>
     <mergeCell ref="J43:J46"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B147:B150"/>
     <mergeCell ref="B19:B22"/>
     <mergeCell ref="B43:B46"/>
     <mergeCell ref="B47:B50"/>
     <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B99:B102"/>
     <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B91:B94"/>
     <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B127:B130"/>
     <mergeCell ref="B31:B34"/>
     <mergeCell ref="B35:B38"/>
     <mergeCell ref="K1:K2"/>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="148">
   <si>
     <t>Página</t>
   </si>
@@ -862,105 +862,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -971,9 +872,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1012,23 +910,125 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,37 +1332,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="113" t="s">
+      <c r="B1" s="127" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="113" t="s">
+      <c r="D1" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="113"/>
-      <c r="F1" s="115" t="s">
+      <c r="E1" s="127"/>
+      <c r="F1" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
-      <c r="C2" s="114"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1398,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1414,7 +1414,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1446,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1469,7 +1469,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="99" t="s">
+      <c r="D9" s="119" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1480,27 +1480,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="96"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="98"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1543,47 +1543,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="103" t="s">
+      <c r="C14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="97" t="s">
+      <c r="D14" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="97">
+      <c r="E14" s="118">
         <v>0.5</v>
       </c>
-      <c r="F14" s="110" t="s">
+      <c r="F14" s="121" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="111"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="98"/>
-      <c r="F16" s="112"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="123"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1592,7 +1592,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="97" t="s">
+      <c r="D17" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1603,53 +1603,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="99"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="99"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="99"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="98"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1721,7 +1721,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="97" t="s">
+      <c r="D25" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1732,27 +1732,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="96"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="98"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1779,7 +1779,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1796,7 +1796,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1811,14 +1811,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="96">
+      <c r="D31" s="124">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1829,25 +1829,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="96"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="96">
+      <c r="D33" s="124">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1858,12 +1858,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="96"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1872,7 +1872,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +1910,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1930,7 +1930,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +1945,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1960,8 +1960,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="94"/>
-      <c r="B40" s="107" t="s">
+      <c r="A40" s="135"/>
+      <c r="B40" s="132" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1975,8 +1975,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="95"/>
-      <c r="B41" s="108"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="93" t="s">
+      <c r="A43" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2016,7 +2016,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="97" t="s">
+      <c r="D43" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2027,14 +2027,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="95"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="98"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2043,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="93" t="s">
+      <c r="A45" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2052,7 +2052,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="97" t="s">
+      <c r="D45" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2060,56 +2060,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="96"/>
-      <c r="E46" s="96" t="s">
+      <c r="D46" s="124"/>
+      <c r="E46" s="124" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="96"/>
-      <c r="E47" s="96"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="94"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="96"/>
-      <c r="E48" s="96"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="95"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="98"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="93" t="s">
+      <c r="A50" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2118,7 +2118,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="97" t="s">
+      <c r="D50" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2126,27 +2126,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="94"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="96"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="95"/>
+      <c r="A52" s="136"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="98"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2227,6 +2227,27 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2237,27 +2258,6 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2266,10 +2266,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L154"/>
+  <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J91" sqref="J91:J114"/>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A91" sqref="A91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,7 +2281,7 @@
     <col min="5" max="6" width="11.42578125" style="50"/>
     <col min="7" max="7" width="13.42578125" style="72" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="11" max="11" width="21.28515625" style="133" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="99" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2289,37 +2289,37 @@
       <c r="A1" s="147" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="111" t="s">
+      <c r="B1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="111" t="s">
+      <c r="C1" s="122" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="125" t="s">
+      <c r="E1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="125"/>
+      <c r="F1" s="148"/>
       <c r="G1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="125" t="s">
+      <c r="H1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="125"/>
+      <c r="I1" s="148"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="130" t="s">
+      <c r="K1" s="142" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="147"/>
-      <c r="B2" s="112"/>
-      <c r="C2" s="112"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2341,13 +2341,13 @@
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="130"/>
+      <c r="K2" s="142"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="148">
-        <v>1</v>
-      </c>
-      <c r="B3" s="110" t="s">
+      <c r="A3" s="113">
+        <v>1</v>
+      </c>
+      <c r="B3" s="121" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -2359,16 +2359,16 @@
       <c r="G3" s="74"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="J3" s="117">
-        <v>1</v>
-      </c>
-      <c r="K3" s="131"/>
+      <c r="J3" s="146">
+        <v>1</v>
+      </c>
+      <c r="K3" s="97"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="149">
+      <c r="A4" s="114">
         <v>2</v>
       </c>
-      <c r="B4" s="111"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
@@ -2378,14 +2378,14 @@
       <c r="G4" s="75"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="132"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="98"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="149">
+      <c r="A5" s="114">
         <v>3</v>
       </c>
-      <c r="B5" s="111"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
@@ -2395,14 +2395,14 @@
       <c r="G5" s="75"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="132"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="98"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="150">
+      <c r="A6" s="115">
         <v>4</v>
       </c>
-      <c r="B6" s="112"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
@@ -2412,14 +2412,14 @@
       <c r="G6" s="73"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="102"/>
-      <c r="K6" s="132"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="98"/>
     </row>
     <row r="7" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="148">
+      <c r="A7" s="113">
         <v>5</v>
       </c>
-      <c r="B7" s="110" t="s">
+      <c r="B7" s="121" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="86" t="s">
@@ -2443,16 +2443,16 @@
       <c r="I7" s="61">
         <v>43121</v>
       </c>
-      <c r="J7" s="117">
+      <c r="J7" s="146">
         <v>0.25</v>
       </c>
-      <c r="K7" s="131"/>
+      <c r="K7" s="97"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="149">
+      <c r="A8" s="114">
         <v>6</v>
       </c>
-      <c r="B8" s="111"/>
+      <c r="B8" s="122"/>
       <c r="C8" s="87" t="s">
         <v>117</v>
       </c>
@@ -2462,13 +2462,13 @@
       <c r="G8" s="75"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="106"/>
+      <c r="J8" s="126"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="149">
+      <c r="A9" s="114">
         <v>7</v>
       </c>
-      <c r="B9" s="111"/>
+      <c r="B9" s="122"/>
       <c r="C9" s="87" t="s">
         <v>119</v>
       </c>
@@ -2478,13 +2478,13 @@
       <c r="G9" s="75"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="106"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="150">
+      <c r="A10" s="115">
         <v>8</v>
       </c>
-      <c r="B10" s="112"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
@@ -2494,13 +2494,13 @@
       <c r="G10" s="73"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="102"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="148">
+      <c r="A11" s="113">
         <v>9</v>
       </c>
-      <c r="B11" s="110" t="s">
+      <c r="B11" s="121" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -2524,16 +2524,16 @@
       <c r="I11" s="65">
         <v>43118</v>
       </c>
-      <c r="J11" s="117">
+      <c r="J11" s="146">
         <v>0.25</v>
       </c>
-      <c r="K11" s="132"/>
+      <c r="K11" s="98"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="149">
+      <c r="A12" s="114">
         <v>10</v>
       </c>
-      <c r="B12" s="111"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
@@ -2542,13 +2542,13 @@
       <c r="F12" s="58"/>
       <c r="H12" s="71"/>
       <c r="I12" s="58"/>
-      <c r="J12" s="106"/>
+      <c r="J12" s="126"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="149">
+      <c r="A13" s="114">
         <v>11</v>
       </c>
-      <c r="B13" s="111"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
@@ -2557,13 +2557,13 @@
       <c r="F13" s="58"/>
       <c r="H13" s="71"/>
       <c r="I13" s="62"/>
-      <c r="J13" s="106"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="150">
+      <c r="A14" s="115">
         <v>12</v>
       </c>
-      <c r="B14" s="112"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
@@ -2573,13 +2573,13 @@
       <c r="G14" s="73"/>
       <c r="H14" s="69"/>
       <c r="I14" s="63"/>
-      <c r="J14" s="102"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="148">
+      <c r="A15" s="113">
         <v>13</v>
       </c>
-      <c r="B15" s="110" t="s">
+      <c r="B15" s="121" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -2603,16 +2603,16 @@
       <c r="I15" s="65">
         <v>43118</v>
       </c>
-      <c r="J15" s="117">
+      <c r="J15" s="146">
         <v>0.25</v>
       </c>
-      <c r="K15" s="132"/>
+      <c r="K15" s="98"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="149">
+      <c r="A16" s="114">
         <v>14</v>
       </c>
-      <c r="B16" s="111"/>
+      <c r="B16" s="122"/>
       <c r="C16" s="81" t="s">
         <v>117</v>
       </c>
@@ -2621,13 +2621,13 @@
       <c r="F16" s="58"/>
       <c r="H16" s="71"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="106"/>
+      <c r="J16" s="126"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="149">
+      <c r="A17" s="114">
         <v>15</v>
       </c>
-      <c r="B17" s="111"/>
+      <c r="B17" s="122"/>
       <c r="C17" s="81" t="s">
         <v>119</v>
       </c>
@@ -2636,13 +2636,13 @@
       <c r="F17" s="58"/>
       <c r="H17" s="71"/>
       <c r="I17" s="62"/>
-      <c r="J17" s="106"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="150">
+      <c r="A18" s="115">
         <v>16</v>
       </c>
-      <c r="B18" s="112"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
@@ -2652,13 +2652,13 @@
       <c r="G18" s="73"/>
       <c r="H18" s="69"/>
       <c r="I18" s="63"/>
-      <c r="J18" s="102"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="148">
+      <c r="A19" s="113">
         <v>17</v>
       </c>
-      <c r="B19" s="110" t="s">
+      <c r="B19" s="121" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -2682,16 +2682,16 @@
       <c r="I19" s="65">
         <v>43118</v>
       </c>
-      <c r="J19" s="117">
+      <c r="J19" s="146">
         <v>0.25</v>
       </c>
-      <c r="K19" s="132"/>
+      <c r="K19" s="98"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="149">
+      <c r="A20" s="114">
         <v>18</v>
       </c>
-      <c r="B20" s="111"/>
+      <c r="B20" s="122"/>
       <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
@@ -2700,13 +2700,13 @@
       <c r="F20" s="58"/>
       <c r="H20" s="71"/>
       <c r="I20" s="58"/>
-      <c r="J20" s="106"/>
+      <c r="J20" s="126"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="149">
+      <c r="A21" s="114">
         <v>19</v>
       </c>
-      <c r="B21" s="111"/>
+      <c r="B21" s="122"/>
       <c r="C21" s="81" t="s">
         <v>119</v>
       </c>
@@ -2715,13 +2715,13 @@
       <c r="F21" s="58"/>
       <c r="H21" s="71"/>
       <c r="I21" s="62"/>
-      <c r="J21" s="106"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="150">
+      <c r="A22" s="115">
         <v>20</v>
       </c>
-      <c r="B22" s="112"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
@@ -2731,13 +2731,13 @@
       <c r="G22" s="73"/>
       <c r="H22" s="69"/>
       <c r="I22" s="63"/>
-      <c r="J22" s="102"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="148">
+      <c r="A23" s="113">
         <v>21</v>
       </c>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="121" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="80" t="s">
@@ -2761,16 +2761,16 @@
       <c r="I23" s="65">
         <v>43118</v>
       </c>
-      <c r="J23" s="117">
+      <c r="J23" s="146">
         <v>0.25</v>
       </c>
-      <c r="K23" s="132"/>
+      <c r="K23" s="98"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="149">
+      <c r="A24" s="114">
         <v>22</v>
       </c>
-      <c r="B24" s="111"/>
+      <c r="B24" s="122"/>
       <c r="C24" s="81" t="s">
         <v>117</v>
       </c>
@@ -2779,13 +2779,13 @@
       <c r="F24" s="58"/>
       <c r="H24" s="71"/>
       <c r="I24" s="58"/>
-      <c r="J24" s="106"/>
+      <c r="J24" s="126"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="149">
+      <c r="A25" s="114">
         <v>23</v>
       </c>
-      <c r="B25" s="111"/>
+      <c r="B25" s="122"/>
       <c r="C25" s="81" t="s">
         <v>119</v>
       </c>
@@ -2794,13 +2794,13 @@
       <c r="F25" s="58"/>
       <c r="H25" s="71"/>
       <c r="I25" s="62"/>
-      <c r="J25" s="106"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="150">
+      <c r="A26" s="115">
         <v>24</v>
       </c>
-      <c r="B26" s="112"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
@@ -2810,13 +2810,13 @@
       <c r="G26" s="73"/>
       <c r="H26" s="69"/>
       <c r="I26" s="63"/>
-      <c r="J26" s="102"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="148">
+      <c r="A27" s="113">
         <v>25</v>
       </c>
-      <c r="B27" s="110" t="s">
+      <c r="B27" s="121" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="59" t="s">
@@ -2840,16 +2840,16 @@
       <c r="I27" s="65">
         <v>43121</v>
       </c>
-      <c r="J27" s="117">
+      <c r="J27" s="146">
         <v>0.25</v>
       </c>
-      <c r="K27" s="132"/>
+      <c r="K27" s="98"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="149">
+      <c r="A28" s="114">
         <v>26</v>
       </c>
-      <c r="B28" s="111"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
@@ -2858,13 +2858,13 @@
       <c r="F28" s="58"/>
       <c r="H28" s="71"/>
       <c r="I28" s="56"/>
-      <c r="J28" s="106"/>
+      <c r="J28" s="126"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="149">
+      <c r="A29" s="114">
         <v>27</v>
       </c>
-      <c r="B29" s="111"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
@@ -2873,13 +2873,13 @@
       <c r="F29" s="58"/>
       <c r="H29" s="71"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="106"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="150">
+      <c r="A30" s="115">
         <v>28</v>
       </c>
-      <c r="B30" s="112"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
@@ -2889,13 +2889,13 @@
       <c r="G30" s="73"/>
       <c r="H30" s="69"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="102"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="148">
+      <c r="A31" s="113">
         <v>29</v>
       </c>
-      <c r="B31" s="110" t="s">
+      <c r="B31" s="121" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -2919,16 +2919,16 @@
       <c r="I31" s="65">
         <v>43121</v>
       </c>
-      <c r="J31" s="117">
+      <c r="J31" s="146">
         <v>0.25</v>
       </c>
-      <c r="K31" s="132"/>
+      <c r="K31" s="98"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="149">
+      <c r="A32" s="114">
         <v>30</v>
       </c>
-      <c r="B32" s="111"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
@@ -2937,13 +2937,13 @@
       <c r="F32" s="58"/>
       <c r="H32" s="71"/>
       <c r="I32" s="56"/>
-      <c r="J32" s="106"/>
+      <c r="J32" s="126"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="149">
+      <c r="A33" s="114">
         <v>31</v>
       </c>
-      <c r="B33" s="111"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
@@ -2952,13 +2952,13 @@
       <c r="F33" s="58"/>
       <c r="H33" s="71"/>
       <c r="I33" s="56"/>
-      <c r="J33" s="106"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="150">
+      <c r="A34" s="115">
         <v>32</v>
       </c>
-      <c r="B34" s="112"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
@@ -2968,13 +2968,13 @@
       <c r="G34" s="73"/>
       <c r="H34" s="69"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="102"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="148">
+      <c r="A35" s="113">
         <v>33</v>
       </c>
-      <c r="B35" s="110" t="s">
+      <c r="B35" s="121" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="59" t="s">
@@ -2992,25 +2992,25 @@
       <c r="G35" s="72">
         <v>1</v>
       </c>
-      <c r="H35" s="126">
+      <c r="H35" s="93">
         <v>43121</v>
       </c>
-      <c r="I35" s="127">
+      <c r="I35" s="94">
         <v>43121</v>
       </c>
-      <c r="J35" s="117">
+      <c r="J35" s="146">
         <v>0.25</v>
       </c>
-      <c r="K35" s="132"/>
-      <c r="L35" s="134" t="s">
+      <c r="K35" s="98"/>
+      <c r="L35" s="100" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="149">
+      <c r="A36" s="114">
         <v>34</v>
       </c>
-      <c r="B36" s="111"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
@@ -3019,16 +3019,16 @@
       <c r="F36" s="54"/>
       <c r="H36" s="71"/>
       <c r="I36" s="56"/>
-      <c r="J36" s="106"/>
-      <c r="L36" s="134" t="s">
+      <c r="J36" s="126"/>
+      <c r="L36" s="100" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="149">
+      <c r="A37" s="114">
         <v>35</v>
       </c>
-      <c r="B37" s="111"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
@@ -3037,14 +3037,14 @@
       <c r="F37" s="54"/>
       <c r="H37" s="71"/>
       <c r="I37" s="56"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="135"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="101"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="150">
+      <c r="A38" s="115">
         <v>36</v>
       </c>
-      <c r="B38" s="112"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
@@ -3054,14 +3054,14 @@
       <c r="G38" s="73"/>
       <c r="H38" s="69"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="102"/>
-      <c r="K38" s="135"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="101"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="148">
+      <c r="A39" s="113">
         <v>37</v>
       </c>
-      <c r="B39" s="120" t="s">
+      <c r="B39" s="143" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="59" t="s">
@@ -3079,22 +3079,22 @@
       <c r="G39" s="72">
         <v>1</v>
       </c>
-      <c r="H39" s="126">
+      <c r="H39" s="93">
         <v>43121</v>
       </c>
-      <c r="I39" s="127">
+      <c r="I39" s="94">
         <v>43121</v>
       </c>
-      <c r="J39" s="117">
+      <c r="J39" s="146">
         <v>0.25</v>
       </c>
-      <c r="K39" s="132"/>
+      <c r="K39" s="98"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="149">
+      <c r="A40" s="114">
         <v>38</v>
       </c>
-      <c r="B40" s="121"/>
+      <c r="B40" s="144"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
@@ -3104,13 +3104,13 @@
       <c r="G40" s="75"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
-      <c r="J40" s="106"/>
+      <c r="J40" s="126"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="149">
+      <c r="A41" s="114">
         <v>39</v>
       </c>
-      <c r="B41" s="121"/>
+      <c r="B41" s="144"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
@@ -3120,13 +3120,13 @@
       <c r="G41" s="75"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="106"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="150">
+      <c r="A42" s="115">
         <v>40</v>
       </c>
-      <c r="B42" s="122"/>
+      <c r="B42" s="145"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
@@ -3136,13 +3136,13 @@
       <c r="G42" s="73"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="102"/>
+      <c r="J42" s="129"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="148">
+      <c r="A43" s="113">
         <v>41</v>
       </c>
-      <c r="B43" s="110" t="s">
+      <c r="B43" s="121" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="59" t="s">
@@ -3160,22 +3160,22 @@
       <c r="G43" s="72">
         <v>1</v>
       </c>
-      <c r="H43" s="126">
+      <c r="H43" s="93">
         <v>43121</v>
       </c>
-      <c r="I43" s="127">
+      <c r="I43" s="94">
         <v>43121</v>
       </c>
-      <c r="J43" s="117">
+      <c r="J43" s="146">
         <v>0.25</v>
       </c>
-      <c r="K43" s="132"/>
+      <c r="K43" s="98"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="149">
+      <c r="A44" s="114">
         <v>42</v>
       </c>
-      <c r="B44" s="111"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
@@ -3185,13 +3185,13 @@
       <c r="G44" s="75"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="106"/>
+      <c r="J44" s="126"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="149">
+      <c r="A45" s="114">
         <v>43</v>
       </c>
-      <c r="B45" s="111"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
@@ -3201,13 +3201,13 @@
       <c r="G45" s="75"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="106"/>
+      <c r="J45" s="126"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="150">
+      <c r="A46" s="115">
         <v>44</v>
       </c>
-      <c r="B46" s="112"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
@@ -3217,13 +3217,13 @@
       <c r="G46" s="73"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="102"/>
+      <c r="J46" s="129"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="148">
+      <c r="A47" s="113">
         <v>45</v>
       </c>
-      <c r="B47" s="110" t="s">
+      <c r="B47" s="121" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="59" t="s">
@@ -3241,22 +3241,22 @@
       <c r="G47" s="72">
         <v>1</v>
       </c>
-      <c r="H47" s="126">
+      <c r="H47" s="93">
         <v>43121</v>
       </c>
-      <c r="I47" s="127">
+      <c r="I47" s="94">
         <v>43121</v>
       </c>
-      <c r="J47" s="117">
+      <c r="J47" s="146">
         <v>0.25</v>
       </c>
-      <c r="K47" s="132"/>
+      <c r="K47" s="98"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="149">
+      <c r="A48" s="114">
         <v>46</v>
       </c>
-      <c r="B48" s="111"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
@@ -3266,13 +3266,13 @@
       <c r="G48" s="75"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="106"/>
+      <c r="J48" s="126"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="149">
+      <c r="A49" s="114">
         <v>47</v>
       </c>
-      <c r="B49" s="111"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
@@ -3282,13 +3282,13 @@
       <c r="G49" s="75"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="106"/>
+      <c r="J49" s="126"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="150">
+      <c r="A50" s="115">
         <v>48</v>
       </c>
-      <c r="B50" s="112"/>
+      <c r="B50" s="123"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
@@ -3298,13 +3298,13 @@
       <c r="G50" s="73"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
-      <c r="J50" s="102"/>
+      <c r="J50" s="129"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="148">
+      <c r="A51" s="113">
         <v>49</v>
       </c>
-      <c r="B51" s="120" t="s">
+      <c r="B51" s="143" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="59" t="s">
@@ -3322,22 +3322,22 @@
       <c r="G51" s="72">
         <v>1</v>
       </c>
-      <c r="H51" s="126">
+      <c r="H51" s="93">
         <v>43121</v>
       </c>
-      <c r="I51" s="127">
+      <c r="I51" s="94">
         <v>43121</v>
       </c>
-      <c r="J51" s="117">
+      <c r="J51" s="146">
         <v>0.25</v>
       </c>
-      <c r="K51" s="132"/>
+      <c r="K51" s="98"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="149">
+      <c r="A52" s="114">
         <v>50</v>
       </c>
-      <c r="B52" s="121"/>
+      <c r="B52" s="144"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
@@ -3347,13 +3347,13 @@
       <c r="G52" s="75"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="106"/>
+      <c r="J52" s="126"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="149">
+      <c r="A53" s="114">
         <v>51</v>
       </c>
-      <c r="B53" s="121"/>
+      <c r="B53" s="144"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
@@ -3363,13 +3363,13 @@
       <c r="G53" s="75"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="106"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="150">
+      <c r="A54" s="115">
         <v>52</v>
       </c>
-      <c r="B54" s="122"/>
+      <c r="B54" s="145"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
@@ -3379,181 +3379,181 @@
       <c r="G54" s="73"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="102"/>
-    </row>
-    <row r="55" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="148">
+      <c r="J54" s="129"/>
+    </row>
+    <row r="55" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="113">
         <v>53</v>
       </c>
-      <c r="B55" s="120" t="s">
+      <c r="B55" s="143" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="128" t="s">
+      <c r="C55" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="90">
         <v>1</v>
       </c>
-      <c r="E55" s="136">
+      <c r="E55" s="102">
         <v>43121</v>
       </c>
-      <c r="F55" s="136">
+      <c r="F55" s="102">
         <v>43121</v>
       </c>
-      <c r="G55" s="129">
-        <v>1</v>
-      </c>
-      <c r="H55" s="136">
+      <c r="G55" s="96">
+        <v>1</v>
+      </c>
+      <c r="H55" s="102">
         <v>43121</v>
       </c>
-      <c r="I55" s="136">
+      <c r="I55" s="102">
         <v>43121</v>
       </c>
-      <c r="J55" s="117">
+      <c r="J55" s="146">
         <v>0.25</v>
       </c>
-      <c r="K55" s="132"/>
-    </row>
-    <row r="56" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="149">
+      <c r="K55" s="98"/>
+    </row>
+    <row r="56" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="114">
         <v>54</v>
       </c>
-      <c r="B56" s="121"/>
-      <c r="C56" s="139" t="s">
+      <c r="B56" s="144"/>
+      <c r="C56" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="141"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="141"/>
-      <c r="I56" s="141"/>
-      <c r="J56" s="106"/>
-      <c r="K56" s="137"/>
-    </row>
-    <row r="57" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="149">
+      <c r="E56" s="106"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
+      <c r="J56" s="126"/>
+      <c r="K56" s="103"/>
+    </row>
+    <row r="57" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="114">
         <v>55</v>
       </c>
-      <c r="B57" s="121"/>
-      <c r="C57" s="139" t="s">
+      <c r="B57" s="144"/>
+      <c r="C57" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D57" s="91"/>
-      <c r="E57" s="140"/>
-      <c r="F57" s="141"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="141"/>
-      <c r="I57" s="141"/>
-      <c r="J57" s="106"/>
-      <c r="K57" s="137"/>
-    </row>
-    <row r="58" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="150">
+      <c r="E57" s="106"/>
+      <c r="F57" s="107"/>
+      <c r="G57" s="108"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="103"/>
+    </row>
+    <row r="58" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="115">
         <v>56</v>
       </c>
-      <c r="B58" s="122"/>
-      <c r="C58" s="143" t="s">
+      <c r="B58" s="145"/>
+      <c r="C58" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="92"/>
-      <c r="E58" s="144"/>
-      <c r="F58" s="145"/>
-      <c r="G58" s="146"/>
-      <c r="H58" s="145"/>
-      <c r="I58" s="145"/>
-      <c r="J58" s="102"/>
-      <c r="K58" s="137"/>
-    </row>
-    <row r="59" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="148">
+      <c r="E58" s="110"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="103"/>
+    </row>
+    <row r="59" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="113">
         <v>57</v>
       </c>
-      <c r="B59" s="120" t="s">
+      <c r="B59" s="143" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="128" t="s">
+      <c r="C59" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="90">
         <v>1</v>
       </c>
-      <c r="E59" s="136">
+      <c r="E59" s="102">
         <v>43121</v>
       </c>
-      <c r="F59" s="136">
+      <c r="F59" s="102">
         <v>43121</v>
       </c>
-      <c r="G59" s="129">
-        <v>1</v>
-      </c>
-      <c r="H59" s="136">
+      <c r="G59" s="96">
+        <v>1</v>
+      </c>
+      <c r="H59" s="102">
         <v>43121</v>
       </c>
-      <c r="I59" s="136">
+      <c r="I59" s="102">
         <v>43121</v>
       </c>
-      <c r="J59" s="117">
+      <c r="J59" s="146">
         <v>0.25</v>
       </c>
-      <c r="K59" s="132"/>
-    </row>
-    <row r="60" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="149">
+      <c r="K59" s="98"/>
+    </row>
+    <row r="60" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="114">
         <v>58</v>
       </c>
-      <c r="B60" s="121"/>
-      <c r="C60" s="139" t="s">
+      <c r="B60" s="144"/>
+      <c r="C60" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D60" s="91"/>
-      <c r="E60" s="140"/>
-      <c r="F60" s="141"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="141"/>
-      <c r="I60" s="141"/>
-      <c r="J60" s="106"/>
-      <c r="K60" s="137"/>
-    </row>
-    <row r="61" spans="1:11" s="138" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="149">
+      <c r="E60" s="106"/>
+      <c r="F60" s="107"/>
+      <c r="G60" s="108"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
+      <c r="J60" s="126"/>
+      <c r="K60" s="103"/>
+    </row>
+    <row r="61" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="114">
         <v>59</v>
       </c>
-      <c r="B61" s="121"/>
-      <c r="C61" s="139" t="s">
+      <c r="B61" s="144"/>
+      <c r="C61" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="91"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="141"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="141"/>
-      <c r="I61" s="141"/>
-      <c r="J61" s="106"/>
-      <c r="K61" s="137"/>
-    </row>
-    <row r="62" spans="1:11" s="138" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="150">
+      <c r="E61" s="106"/>
+      <c r="F61" s="107"/>
+      <c r="G61" s="108"/>
+      <c r="H61" s="107"/>
+      <c r="I61" s="107"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="103"/>
+    </row>
+    <row r="62" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="115">
         <v>60</v>
       </c>
-      <c r="B62" s="122"/>
-      <c r="C62" s="143" t="s">
+      <c r="B62" s="145"/>
+      <c r="C62" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D62" s="92"/>
-      <c r="E62" s="144"/>
-      <c r="F62" s="145"/>
-      <c r="G62" s="146"/>
-      <c r="H62" s="145"/>
-      <c r="I62" s="145"/>
-      <c r="J62" s="102"/>
-      <c r="K62" s="137"/>
+      <c r="E62" s="110"/>
+      <c r="F62" s="111"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="111"/>
+      <c r="I62" s="111"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="103"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="148">
+      <c r="A63" s="113">
         <v>61</v>
       </c>
-      <c r="B63" s="120" t="s">
+      <c r="B63" s="143" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="59" t="s">
@@ -3562,31 +3562,31 @@
       <c r="D63" s="44">
         <v>1</v>
       </c>
-      <c r="E63" s="136">
+      <c r="E63" s="102">
         <v>43121</v>
       </c>
-      <c r="F63" s="136">
+      <c r="F63" s="102">
         <v>43121</v>
       </c>
-      <c r="G63" s="129">
-        <v>1</v>
-      </c>
-      <c r="H63" s="136">
+      <c r="G63" s="96">
+        <v>1</v>
+      </c>
+      <c r="H63" s="102">
         <v>43121</v>
       </c>
-      <c r="I63" s="136">
+      <c r="I63" s="102">
         <v>43121</v>
       </c>
-      <c r="J63" s="117">
+      <c r="J63" s="146">
         <v>0.25</v>
       </c>
-      <c r="K63" s="132"/>
+      <c r="K63" s="98"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="149">
+      <c r="A64" s="114">
         <v>62</v>
       </c>
-      <c r="B64" s="121"/>
+      <c r="B64" s="144"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
@@ -3596,13 +3596,13 @@
       <c r="G64" s="75"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
-      <c r="J64" s="106"/>
+      <c r="J64" s="126"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="149">
+      <c r="A65" s="114">
         <v>63</v>
       </c>
-      <c r="B65" s="121"/>
+      <c r="B65" s="144"/>
       <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
@@ -3612,13 +3612,13 @@
       <c r="G65" s="75"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
-      <c r="J65" s="106"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="150">
+      <c r="A66" s="115">
         <v>64</v>
       </c>
-      <c r="B66" s="122"/>
+      <c r="B66" s="145"/>
       <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
@@ -3628,13 +3628,13 @@
       <c r="G66" s="73"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="102"/>
+      <c r="J66" s="129"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="148">
+      <c r="A67" s="113">
         <v>65</v>
       </c>
-      <c r="B67" s="120" t="s">
+      <c r="B67" s="143" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="59" t="s">
@@ -3643,31 +3643,31 @@
       <c r="D67" s="44">
         <v>1</v>
       </c>
-      <c r="E67" s="136">
+      <c r="E67" s="102">
         <v>43121</v>
       </c>
-      <c r="F67" s="136">
+      <c r="F67" s="102">
         <v>43121</v>
       </c>
-      <c r="G67" s="129">
-        <v>1</v>
-      </c>
-      <c r="H67" s="136">
+      <c r="G67" s="96">
+        <v>1</v>
+      </c>
+      <c r="H67" s="102">
         <v>43121</v>
       </c>
-      <c r="I67" s="136">
+      <c r="I67" s="102">
         <v>43121</v>
       </c>
-      <c r="J67" s="117">
+      <c r="J67" s="146">
         <v>0.25</v>
       </c>
-      <c r="K67" s="132"/>
+      <c r="K67" s="98"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="149">
+      <c r="A68" s="114">
         <v>66</v>
       </c>
-      <c r="B68" s="121"/>
+      <c r="B68" s="144"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
@@ -3677,13 +3677,13 @@
       <c r="G68" s="75"/>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
-      <c r="J68" s="106"/>
+      <c r="J68" s="126"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="149">
+      <c r="A69" s="114">
         <v>67</v>
       </c>
-      <c r="B69" s="121"/>
+      <c r="B69" s="144"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
@@ -3693,13 +3693,13 @@
       <c r="G69" s="75"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
-      <c r="J69" s="106"/>
+      <c r="J69" s="126"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="150">
+      <c r="A70" s="115">
         <v>68</v>
       </c>
-      <c r="B70" s="122"/>
+      <c r="B70" s="145"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
@@ -3709,13 +3709,13 @@
       <c r="G70" s="73"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
-      <c r="J70" s="102"/>
+      <c r="J70" s="129"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="148">
+      <c r="A71" s="113">
         <v>69</v>
       </c>
-      <c r="B71" s="110" t="s">
+      <c r="B71" s="121" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59" t="s">
@@ -3724,31 +3724,31 @@
       <c r="D71" s="44">
         <v>1</v>
       </c>
-      <c r="E71" s="136">
+      <c r="E71" s="102">
         <v>43121</v>
       </c>
-      <c r="F71" s="136">
+      <c r="F71" s="102">
         <v>43121</v>
       </c>
-      <c r="G71" s="129">
-        <v>1</v>
-      </c>
-      <c r="H71" s="136">
+      <c r="G71" s="96">
+        <v>1</v>
+      </c>
+      <c r="H71" s="102">
         <v>43121</v>
       </c>
-      <c r="I71" s="136">
+      <c r="I71" s="102">
         <v>43121</v>
       </c>
-      <c r="J71" s="117">
+      <c r="J71" s="146">
         <v>0.25</v>
       </c>
-      <c r="K71" s="132"/>
+      <c r="K71" s="98"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="149">
+      <c r="A72" s="114">
         <v>70</v>
       </c>
-      <c r="B72" s="111"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
@@ -3758,13 +3758,13 @@
       <c r="G72" s="75"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
-      <c r="J72" s="106"/>
+      <c r="J72" s="126"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="149">
+      <c r="A73" s="114">
         <v>71</v>
       </c>
-      <c r="B73" s="111"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
@@ -3774,13 +3774,13 @@
       <c r="G73" s="75"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
-      <c r="J73" s="106"/>
+      <c r="J73" s="126"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="150">
+      <c r="A74" s="115">
         <v>72</v>
       </c>
-      <c r="B74" s="112"/>
+      <c r="B74" s="123"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
@@ -3790,13 +3790,13 @@
       <c r="G74" s="73"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
-      <c r="J74" s="102"/>
+      <c r="J74" s="129"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="148">
+      <c r="A75" s="113">
         <v>73</v>
       </c>
-      <c r="B75" s="110" t="s">
+      <c r="B75" s="121" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="59" t="s">
@@ -3805,31 +3805,31 @@
       <c r="D75" s="44">
         <v>1</v>
       </c>
-      <c r="E75" s="136">
+      <c r="E75" s="102">
         <v>43121</v>
       </c>
-      <c r="F75" s="136">
+      <c r="F75" s="102">
         <v>43121</v>
       </c>
-      <c r="G75" s="129">
-        <v>1</v>
-      </c>
-      <c r="H75" s="136">
+      <c r="G75" s="96">
+        <v>1</v>
+      </c>
+      <c r="H75" s="102">
         <v>43121</v>
       </c>
-      <c r="I75" s="136">
+      <c r="I75" s="102">
         <v>43121</v>
       </c>
-      <c r="J75" s="117">
+      <c r="J75" s="146">
         <v>0.25</v>
       </c>
-      <c r="K75" s="132"/>
+      <c r="K75" s="98"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="149">
+      <c r="A76" s="114">
         <v>74</v>
       </c>
-      <c r="B76" s="111"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
@@ -3839,13 +3839,13 @@
       <c r="G76" s="75"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
-      <c r="J76" s="106"/>
+      <c r="J76" s="126"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="149">
+      <c r="A77" s="114">
         <v>75</v>
       </c>
-      <c r="B77" s="111"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
@@ -3855,13 +3855,13 @@
       <c r="G77" s="75"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
-      <c r="J77" s="106"/>
+      <c r="J77" s="126"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="150">
+      <c r="A78" s="115">
         <v>76</v>
       </c>
-      <c r="B78" s="112"/>
+      <c r="B78" s="123"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
@@ -3871,13 +3871,13 @@
       <c r="G78" s="73"/>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
-      <c r="J78" s="102"/>
+      <c r="J78" s="129"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="148">
+      <c r="A79" s="113">
         <v>77</v>
       </c>
-      <c r="B79" s="110" t="s">
+      <c r="B79" s="121" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="59" t="s">
@@ -3886,31 +3886,31 @@
       <c r="D79" s="44">
         <v>1</v>
       </c>
-      <c r="E79" s="136">
+      <c r="E79" s="102">
         <v>43121</v>
       </c>
-      <c r="F79" s="136">
+      <c r="F79" s="102">
         <v>43121</v>
       </c>
-      <c r="G79" s="129">
-        <v>1</v>
-      </c>
-      <c r="H79" s="136">
+      <c r="G79" s="96">
+        <v>1</v>
+      </c>
+      <c r="H79" s="102">
         <v>43121</v>
       </c>
-      <c r="I79" s="136">
+      <c r="I79" s="102">
         <v>43121</v>
       </c>
-      <c r="J79" s="117">
+      <c r="J79" s="146">
         <v>0.25</v>
       </c>
-      <c r="K79" s="132"/>
+      <c r="K79" s="98"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="149">
+      <c r="A80" s="114">
         <v>78</v>
       </c>
-      <c r="B80" s="111"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
@@ -3920,13 +3920,13 @@
       <c r="G80" s="75"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
-      <c r="J80" s="106"/>
+      <c r="J80" s="126"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="149">
+      <c r="A81" s="114">
         <v>79</v>
       </c>
-      <c r="B81" s="111"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
@@ -3936,13 +3936,13 @@
       <c r="G81" s="75"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
-      <c r="J81" s="106"/>
+      <c r="J81" s="126"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="150">
+      <c r="A82" s="115">
         <v>80</v>
       </c>
-      <c r="B82" s="112"/>
+      <c r="B82" s="123"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
@@ -3952,182 +3952,182 @@
       <c r="G82" s="73"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="102"/>
+      <c r="J82" s="129"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="148">
+      <c r="A83" s="113">
         <v>81</v>
       </c>
-      <c r="B83" s="120" t="s">
+      <c r="B83" s="143" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="128" t="s">
+      <c r="C83" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D83" s="90">
         <v>1</v>
       </c>
-      <c r="E83" s="136">
+      <c r="E83" s="102">
         <v>43121</v>
       </c>
-      <c r="F83" s="136">
+      <c r="F83" s="102">
         <v>43121</v>
       </c>
-      <c r="G83" s="129">
-        <v>1</v>
-      </c>
-      <c r="H83" s="136">
+      <c r="G83" s="96">
+        <v>1</v>
+      </c>
+      <c r="H83" s="102">
         <v>43121</v>
       </c>
-      <c r="I83" s="136">
+      <c r="I83" s="102">
         <v>43121</v>
       </c>
-      <c r="J83" s="117">
+      <c r="J83" s="146">
         <v>0.25</v>
       </c>
-      <c r="K83" s="132"/>
+      <c r="K83" s="98"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="149">
+      <c r="A84" s="114">
         <v>82</v>
       </c>
-      <c r="B84" s="121"/>
-      <c r="C84" s="139" t="s">
+      <c r="B84" s="144"/>
+      <c r="C84" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D84" s="91"/>
-      <c r="E84" s="141"/>
-      <c r="F84" s="141"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="141"/>
-      <c r="I84" s="141"/>
-      <c r="J84" s="106"/>
-      <c r="K84" s="137"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="108"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="126"/>
+      <c r="K84" s="103"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="149">
+      <c r="A85" s="114">
         <v>83</v>
       </c>
-      <c r="B85" s="121"/>
-      <c r="C85" s="139" t="s">
+      <c r="B85" s="144"/>
+      <c r="C85" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="91"/>
-      <c r="E85" s="141"/>
-      <c r="F85" s="141"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="141"/>
-      <c r="I85" s="141"/>
-      <c r="J85" s="106"/>
-      <c r="K85" s="137"/>
+      <c r="E85" s="107"/>
+      <c r="F85" s="107"/>
+      <c r="G85" s="108"/>
+      <c r="H85" s="107"/>
+      <c r="I85" s="107"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="103"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="150">
+      <c r="A86" s="115">
         <v>84</v>
       </c>
-      <c r="B86" s="122"/>
-      <c r="C86" s="143" t="s">
+      <c r="B86" s="145"/>
+      <c r="C86" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="92"/>
-      <c r="E86" s="145"/>
-      <c r="F86" s="145"/>
-      <c r="G86" s="146"/>
-      <c r="H86" s="145"/>
-      <c r="I86" s="145"/>
-      <c r="J86" s="102"/>
-      <c r="K86" s="137"/>
+      <c r="E86" s="111"/>
+      <c r="F86" s="111"/>
+      <c r="G86" s="112"/>
+      <c r="H86" s="111"/>
+      <c r="I86" s="111"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="103"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="148">
+      <c r="A87" s="113">
         <v>85</v>
       </c>
-      <c r="B87" s="120" t="s">
+      <c r="B87" s="143" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="128" t="s">
+      <c r="C87" s="95" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="90">
         <v>1</v>
       </c>
-      <c r="E87" s="151">
+      <c r="E87" s="116">
         <v>43121</v>
       </c>
-      <c r="F87" s="151">
+      <c r="F87" s="116">
         <v>43121</v>
       </c>
-      <c r="G87" s="152">
-        <v>1</v>
-      </c>
-      <c r="H87" s="151">
+      <c r="G87" s="117">
+        <v>1</v>
+      </c>
+      <c r="H87" s="116">
         <v>43121</v>
       </c>
-      <c r="I87" s="151">
+      <c r="I87" s="116">
         <v>43121</v>
       </c>
-      <c r="J87" s="117">
+      <c r="J87" s="146">
         <v>0.25</v>
       </c>
-      <c r="K87" s="132"/>
+      <c r="K87" s="98"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="149">
+      <c r="A88" s="114">
         <v>86</v>
       </c>
-      <c r="B88" s="121"/>
-      <c r="C88" s="139" t="s">
+      <c r="B88" s="144"/>
+      <c r="C88" s="105" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="91"/>
-      <c r="E88" s="141"/>
-      <c r="F88" s="141"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="141"/>
-      <c r="I88" s="141"/>
-      <c r="J88" s="106"/>
-      <c r="K88" s="137"/>
+      <c r="E88" s="107"/>
+      <c r="F88" s="107"/>
+      <c r="G88" s="108"/>
+      <c r="H88" s="107"/>
+      <c r="I88" s="107"/>
+      <c r="J88" s="126"/>
+      <c r="K88" s="103"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="149">
+      <c r="A89" s="114">
         <v>87</v>
       </c>
-      <c r="B89" s="121"/>
-      <c r="C89" s="139" t="s">
+      <c r="B89" s="144"/>
+      <c r="C89" s="105" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="91"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
-      <c r="J89" s="106"/>
-      <c r="K89" s="137"/>
+      <c r="E89" s="107"/>
+      <c r="F89" s="107"/>
+      <c r="G89" s="108"/>
+      <c r="H89" s="107"/>
+      <c r="I89" s="107"/>
+      <c r="J89" s="126"/>
+      <c r="K89" s="103"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="150">
+      <c r="A90" s="115">
         <v>88</v>
       </c>
-      <c r="B90" s="122"/>
-      <c r="C90" s="143" t="s">
+      <c r="B90" s="145"/>
+      <c r="C90" s="109" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="92"/>
-      <c r="E90" s="145"/>
-      <c r="F90" s="145"/>
-      <c r="G90" s="146"/>
-      <c r="H90" s="145"/>
-      <c r="I90" s="145"/>
-      <c r="J90" s="102"/>
-      <c r="K90" s="137"/>
+      <c r="E90" s="111"/>
+      <c r="F90" s="111"/>
+      <c r="G90" s="112"/>
+      <c r="H90" s="111"/>
+      <c r="I90" s="111"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="103"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="148">
+      <c r="A91" s="113">
         <v>89</v>
       </c>
-      <c r="B91" s="110" t="s">
-        <v>56</v>
+      <c r="B91" s="121" t="s">
+        <v>82</v>
       </c>
       <c r="C91" s="59" t="s">
         <v>118</v>
@@ -4150,13 +4150,13 @@
       <c r="I91" s="65">
         <v>43125</v>
       </c>
-      <c r="J91" s="106"/>
+      <c r="J91" s="126"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="149">
+      <c r="A92" s="114">
         <v>90</v>
       </c>
-      <c r="B92" s="111"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
@@ -4165,13 +4165,14 @@
       <c r="F92" s="56"/>
       <c r="G92" s="75"/>
       <c r="H92" s="56"/>
-      <c r="J92" s="106"/>
+      <c r="I92" s="56"/>
+      <c r="J92" s="126"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="149">
+      <c r="A93" s="114">
         <v>91</v>
       </c>
-      <c r="B93" s="111"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
@@ -4180,13 +4181,14 @@
       <c r="F93" s="56"/>
       <c r="G93" s="75"/>
       <c r="H93" s="56"/>
-      <c r="J93" s="106"/>
+      <c r="I93" s="56"/>
+      <c r="J93" s="126"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="150">
+      <c r="A94" s="115">
         <v>92</v>
       </c>
-      <c r="B94" s="112"/>
+      <c r="B94" s="123"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
@@ -4196,14 +4198,14 @@
       <c r="G94" s="73"/>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
-      <c r="J94" s="102"/>
+      <c r="J94" s="129"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="148">
+      <c r="A95" s="113">
         <v>93</v>
       </c>
-      <c r="B95" s="110" t="s">
-        <v>82</v>
+      <c r="B95" s="121" t="s">
+        <v>83</v>
       </c>
       <c r="C95" s="59" t="s">
         <v>118</v>
@@ -4226,13 +4228,13 @@
       <c r="I95" s="65">
         <v>43125</v>
       </c>
-      <c r="J95" s="106"/>
+      <c r="J95" s="126"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="149">
+      <c r="A96" s="114">
         <v>94</v>
       </c>
-      <c r="B96" s="111"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
@@ -4242,13 +4244,13 @@
       <c r="G96" s="75"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
-      <c r="J96" s="106"/>
+      <c r="J96" s="126"/>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="149">
+      <c r="A97" s="114">
         <v>95</v>
       </c>
-      <c r="B97" s="111"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
@@ -4258,13 +4260,13 @@
       <c r="G97" s="75"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
-      <c r="J97" s="106"/>
+      <c r="J97" s="126"/>
     </row>
     <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="150">
+      <c r="A98" s="115">
         <v>96</v>
       </c>
-      <c r="B98" s="112"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
@@ -4274,14 +4276,14 @@
       <c r="G98" s="73"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="102"/>
+      <c r="J98" s="129"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="148">
+      <c r="A99" s="113">
         <v>97</v>
       </c>
-      <c r="B99" s="110" t="s">
-        <v>83</v>
+      <c r="B99" s="143" t="s">
+        <v>101</v>
       </c>
       <c r="C99" s="59" t="s">
         <v>118</v>
@@ -4290,27 +4292,27 @@
         <v>1</v>
       </c>
       <c r="E99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="F99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="G99" s="74">
         <v>1</v>
       </c>
       <c r="H99" s="65">
-        <v>43125</v>
+        <v>43126</v>
       </c>
       <c r="I99" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J99" s="106"/>
+        <v>43126</v>
+      </c>
+      <c r="J99" s="126"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="149">
+      <c r="A100" s="114">
         <v>98</v>
       </c>
-      <c r="B100" s="111"/>
+      <c r="B100" s="144"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
@@ -4319,14 +4321,13 @@
       <c r="F100" s="56"/>
       <c r="G100" s="75"/>
       <c r="H100" s="56"/>
-      <c r="I100" s="56"/>
-      <c r="J100" s="106"/>
+      <c r="J100" s="126"/>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="149">
+      <c r="A101" s="114">
         <v>99</v>
       </c>
-      <c r="B101" s="111"/>
+      <c r="B101" s="144"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
@@ -4335,14 +4336,13 @@
       <c r="F101" s="56"/>
       <c r="G101" s="75"/>
       <c r="H101" s="56"/>
-      <c r="I101" s="56"/>
-      <c r="J101" s="106"/>
+      <c r="J101" s="126"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="150">
+      <c r="A102" s="115">
         <v>100</v>
       </c>
-      <c r="B102" s="112"/>
+      <c r="B102" s="145"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
@@ -4352,19 +4352,19 @@
       <c r="G102" s="73"/>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
-      <c r="J102" s="102"/>
+      <c r="J102" s="129"/>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="148">
+      <c r="A103" s="113">
         <v>101</v>
       </c>
-      <c r="B103" s="120" t="s">
-        <v>101</v>
-      </c>
-      <c r="C103" s="59" t="s">
+      <c r="B103" s="143" t="s">
+        <v>109</v>
+      </c>
+      <c r="C103" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="44">
+      <c r="D103" s="88">
         <v>1</v>
       </c>
       <c r="E103" s="65">
@@ -4382,43 +4382,33 @@
       <c r="I103" s="65">
         <v>43126</v>
       </c>
-      <c r="J103" s="106"/>
+      <c r="J103" s="125"/>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="149">
+      <c r="A104" s="114">
         <v>102</v>
       </c>
-      <c r="B104" s="121"/>
+      <c r="B104" s="144"/>
       <c r="C104" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="49"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="75"/>
-      <c r="H104" s="56"/>
-      <c r="J104" s="106"/>
+      <c r="J104" s="126"/>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="149">
+      <c r="A105" s="114">
         <v>103</v>
       </c>
-      <c r="B105" s="121"/>
+      <c r="B105" s="144"/>
       <c r="C105" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="49"/>
-      <c r="E105" s="56"/>
-      <c r="F105" s="56"/>
-      <c r="G105" s="75"/>
-      <c r="H105" s="56"/>
-      <c r="J105" s="106"/>
+      <c r="J105" s="126"/>
     </row>
     <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="150">
+      <c r="A106" s="115">
         <v>104</v>
       </c>
-      <c r="B106" s="122"/>
+      <c r="B106" s="145"/>
       <c r="C106" s="51" t="s">
         <v>121</v>
       </c>
@@ -4428,14 +4418,14 @@
       <c r="G106" s="73"/>
       <c r="H106" s="55"/>
       <c r="I106" s="55"/>
-      <c r="J106" s="102"/>
+      <c r="J106" s="129"/>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="148">
+      <c r="A107" s="113">
         <v>105</v>
       </c>
-      <c r="B107" s="120" t="s">
-        <v>109</v>
+      <c r="B107" s="143" t="s">
+        <v>102</v>
       </c>
       <c r="C107" s="52" t="s">
         <v>118</v>
@@ -4458,33 +4448,33 @@
       <c r="I107" s="65">
         <v>43126</v>
       </c>
-      <c r="J107" s="100"/>
+      <c r="J107" s="126"/>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="149">
+      <c r="A108" s="114">
         <v>106</v>
       </c>
-      <c r="B108" s="121"/>
+      <c r="B108" s="144"/>
       <c r="C108" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J108" s="106"/>
+      <c r="J108" s="126"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="149">
+      <c r="A109" s="114">
         <v>107</v>
       </c>
-      <c r="B109" s="121"/>
+      <c r="B109" s="144"/>
       <c r="C109" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="106"/>
+      <c r="J109" s="126"/>
     </row>
     <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="150">
+      <c r="A110" s="115">
         <v>108</v>
       </c>
-      <c r="B110" s="122"/>
+      <c r="B110" s="145"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
@@ -4494,63 +4484,63 @@
       <c r="G110" s="73"/>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
-      <c r="J110" s="102"/>
+      <c r="J110" s="129"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="148">
+      <c r="A111" s="113">
         <v>109</v>
       </c>
-      <c r="B111" s="120" t="s">
-        <v>102</v>
+      <c r="B111" s="143" t="s">
+        <v>104</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="88">
+      <c r="D111" s="44">
         <v>1</v>
       </c>
       <c r="E111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="F111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="G111" s="74">
         <v>1</v>
       </c>
       <c r="H111" s="65">
-        <v>43126</v>
+        <v>43127</v>
       </c>
       <c r="I111" s="65">
-        <v>43126</v>
-      </c>
-      <c r="J111" s="106"/>
+        <v>43127</v>
+      </c>
+      <c r="J111" s="126"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="149">
+      <c r="A112" s="114">
         <v>110</v>
       </c>
-      <c r="B112" s="121"/>
+      <c r="B112" s="144"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J112" s="106"/>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A113" s="149">
+      <c r="J112" s="126"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113" s="114">
         <v>111</v>
       </c>
-      <c r="B113" s="121"/>
+      <c r="B113" s="144"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J113" s="106"/>
-    </row>
-    <row r="114" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="150">
+      <c r="J113" s="126"/>
+    </row>
+    <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="115">
         <v>112</v>
       </c>
-      <c r="B114" s="122"/>
+      <c r="B114" s="145"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
@@ -4560,19 +4550,19 @@
       <c r="G114" s="73"/>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
-      <c r="J114" s="102"/>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="148">
+      <c r="J114" s="129"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115" s="113">
         <v>113</v>
       </c>
-      <c r="B115" s="120" t="s">
-        <v>104</v>
-      </c>
-      <c r="C115" s="52" t="s">
+      <c r="B115" s="121" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="44">
+      <c r="D115" s="88">
         <v>1</v>
       </c>
       <c r="E115" s="65">
@@ -4590,33 +4580,45 @@
       <c r="I115" s="65">
         <v>43127</v>
       </c>
-      <c r="J115" s="106"/>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="149">
+      <c r="J115" s="126"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116" s="114">
         <v>114</v>
       </c>
-      <c r="B116" s="121"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J116" s="106"/>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A117" s="149">
+      <c r="D116" s="49"/>
+      <c r="E116" s="56"/>
+      <c r="F116" s="56"/>
+      <c r="G116" s="75"/>
+      <c r="H116" s="56"/>
+      <c r="I116" s="56"/>
+      <c r="J116" s="126"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117" s="114">
         <v>115</v>
       </c>
-      <c r="B117" s="121"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J117" s="106"/>
-    </row>
-    <row r="118" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="150">
+      <c r="D117" s="49"/>
+      <c r="E117" s="56"/>
+      <c r="F117" s="56"/>
+      <c r="G117" s="75"/>
+      <c r="H117" s="56"/>
+      <c r="I117" s="56"/>
+      <c r="J117" s="126"/>
+    </row>
+    <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="115">
         <v>116</v>
       </c>
-      <c r="B118" s="122"/>
+      <c r="B118" s="123"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
@@ -4626,16 +4628,16 @@
       <c r="G118" s="73"/>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
-      <c r="J118" s="102"/>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A119" s="148">
+      <c r="J118" s="129"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119" s="113">
         <v>117</v>
       </c>
-      <c r="B119" s="110" t="s">
-        <v>103</v>
-      </c>
-      <c r="C119" s="59" t="s">
+      <c r="B119" s="121" t="s">
+        <v>105</v>
+      </c>
+      <c r="C119" s="52" t="s">
         <v>118</v>
       </c>
       <c r="D119" s="88">
@@ -4656,45 +4658,33 @@
       <c r="I119" s="65">
         <v>43127</v>
       </c>
-      <c r="J119" s="106"/>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="149">
+      <c r="J119" s="126"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120" s="114">
         <v>118</v>
       </c>
-      <c r="B120" s="111"/>
+      <c r="B120" s="122"/>
       <c r="C120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="49"/>
-      <c r="E120" s="56"/>
-      <c r="F120" s="56"/>
-      <c r="G120" s="75"/>
-      <c r="H120" s="56"/>
-      <c r="I120" s="56"/>
-      <c r="J120" s="106"/>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A121" s="149">
+      <c r="J120" s="126"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121" s="114">
         <v>119</v>
       </c>
-      <c r="B121" s="111"/>
+      <c r="B121" s="122"/>
       <c r="C121" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="49"/>
-      <c r="E121" s="56"/>
-      <c r="F121" s="56"/>
-      <c r="G121" s="75"/>
-      <c r="H121" s="56"/>
-      <c r="I121" s="56"/>
-      <c r="J121" s="106"/>
-    </row>
-    <row r="122" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="150">
+      <c r="J121" s="126"/>
+    </row>
+    <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="115">
         <v>120</v>
       </c>
-      <c r="B122" s="112"/>
+      <c r="B122" s="123"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
@@ -4704,63 +4694,63 @@
       <c r="G122" s="73"/>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
-      <c r="J122" s="102"/>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="148">
+      <c r="J122" s="129"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123" s="113">
         <v>121</v>
       </c>
-      <c r="B123" s="110" t="s">
-        <v>105</v>
+      <c r="B123" s="121" t="s">
+        <v>108</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="88">
+      <c r="D123" s="44">
         <v>1</v>
       </c>
       <c r="E123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="F123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="G123" s="74">
         <v>1</v>
       </c>
       <c r="H123" s="65">
-        <v>43127</v>
+        <v>43129</v>
       </c>
       <c r="I123" s="65">
-        <v>43127</v>
-      </c>
-      <c r="J123" s="106"/>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="149">
+        <v>43129</v>
+      </c>
+      <c r="J123" s="126"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="114">
         <v>122</v>
       </c>
-      <c r="B124" s="111"/>
+      <c r="B124" s="122"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J124" s="106"/>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A125" s="149">
+      <c r="J124" s="126"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125" s="114">
         <v>123</v>
       </c>
-      <c r="B125" s="111"/>
+      <c r="B125" s="122"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J125" s="106"/>
-    </row>
-    <row r="126" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="150">
+      <c r="J125" s="126"/>
+    </row>
+    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="115">
         <v>124</v>
       </c>
-      <c r="B126" s="112"/>
+      <c r="B126" s="123"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
@@ -4770,149 +4760,152 @@
       <c r="G126" s="73"/>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
-      <c r="J126" s="102"/>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A127" s="148">
+      <c r="J126" s="129"/>
+    </row>
+    <row r="127" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="113">
         <v>125</v>
       </c>
-      <c r="B127" s="110" t="s">
-        <v>108</v>
-      </c>
-      <c r="C127" s="52" t="s">
+      <c r="B127" s="121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C127" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="D127" s="44"/>
+      <c r="E127" s="65"/>
+      <c r="F127" s="65"/>
+      <c r="G127" s="57"/>
+      <c r="H127" s="70"/>
+      <c r="I127" s="70"/>
+      <c r="J127" s="126"/>
+      <c r="K127" s="99"/>
+    </row>
+    <row r="128" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A128" s="114">
+        <v>126</v>
+      </c>
+      <c r="B128" s="122"/>
+      <c r="C128" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D128" s="49"/>
+      <c r="E128" s="54"/>
+      <c r="F128" s="58"/>
+      <c r="G128" s="57"/>
+      <c r="H128" s="71"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="126"/>
+      <c r="K128" s="99"/>
+    </row>
+    <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="114">
+        <v>127</v>
+      </c>
+      <c r="B129" s="122"/>
+      <c r="C129" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D129" s="49"/>
+      <c r="E129" s="54"/>
+      <c r="F129" s="58"/>
+      <c r="G129" s="57"/>
+      <c r="H129" s="71"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="126"/>
+      <c r="K129" s="99"/>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="115">
+        <v>128</v>
+      </c>
+      <c r="B130" s="123"/>
+      <c r="C130" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="44">
-        <v>1</v>
-      </c>
-      <c r="E127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="F127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="G127" s="74">
-        <v>1</v>
-      </c>
-      <c r="H127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="I127" s="65">
-        <v>43129</v>
-      </c>
-      <c r="J127" s="106"/>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A128" s="149">
-        <v>126</v>
-      </c>
-      <c r="B128" s="111"/>
-      <c r="C128" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="J128" s="106"/>
-    </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="149">
-        <v>127</v>
-      </c>
-      <c r="B129" s="111"/>
-      <c r="C129" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="J129" s="106"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="150">
-        <v>128</v>
-      </c>
-      <c r="B130" s="112"/>
-      <c r="C130" s="51" t="s">
-        <v>121</v>
-      </c>
       <c r="D130" s="46"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
+      <c r="E130" s="64"/>
+      <c r="F130" s="66"/>
       <c r="G130" s="73"/>
-      <c r="H130" s="55"/>
+      <c r="H130" s="69"/>
       <c r="I130" s="55"/>
-      <c r="J130" s="102"/>
-    </row>
-    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="148">
+      <c r="J130" s="129"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="113">
         <v>129</v>
       </c>
-      <c r="B131" s="110" t="s">
-        <v>27</v>
+      <c r="B131" s="143" t="s">
+        <v>54</v>
       </c>
       <c r="C131" s="59" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D131" s="44"/>
       <c r="E131" s="65"/>
       <c r="F131" s="65"/>
-      <c r="G131" s="57"/>
-      <c r="H131" s="70"/>
-      <c r="I131" s="70"/>
-      <c r="J131" s="106"/>
-      <c r="K131" s="133"/>
-    </row>
-    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="149">
+      <c r="G131" s="74"/>
+      <c r="H131" s="65"/>
+      <c r="I131" s="65"/>
+      <c r="J131" s="126"/>
+      <c r="L131" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="114">
         <v>130</v>
       </c>
-      <c r="B132" s="111"/>
+      <c r="B132" s="144"/>
       <c r="C132" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D132" s="49"/>
+      <c r="E132" s="56"/>
+      <c r="F132" s="56"/>
+      <c r="G132" s="75"/>
+      <c r="H132" s="56"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="126"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="114">
+        <v>131</v>
+      </c>
+      <c r="B133" s="144"/>
+      <c r="C133" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="49"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="58"/>
-      <c r="G132" s="57"/>
-      <c r="H132" s="71"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="106"/>
-      <c r="K132" s="133"/>
-    </row>
-    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="149">
-        <v>131</v>
-      </c>
-      <c r="B133" s="111"/>
-      <c r="C133" s="52" t="s">
-        <v>117</v>
-      </c>
       <c r="D133" s="49"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="58"/>
-      <c r="G133" s="57"/>
-      <c r="H133" s="71"/>
+      <c r="E133" s="56"/>
+      <c r="F133" s="56"/>
+      <c r="G133" s="75"/>
+      <c r="H133" s="56"/>
       <c r="I133" s="56"/>
-      <c r="J133" s="106"/>
-      <c r="K133" s="133"/>
+      <c r="J133" s="126"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="150">
+      <c r="A134" s="115">
         <v>132</v>
       </c>
-      <c r="B134" s="112"/>
+      <c r="B134" s="145"/>
       <c r="C134" s="51" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D134" s="46"/>
-      <c r="E134" s="64"/>
-      <c r="F134" s="66"/>
+      <c r="E134" s="55"/>
+      <c r="F134" s="55"/>
       <c r="G134" s="73"/>
-      <c r="H134" s="69"/>
+      <c r="H134" s="55"/>
       <c r="I134" s="55"/>
-      <c r="J134" s="102"/>
+      <c r="J134" s="129"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="148">
+      <c r="A135" s="113">
         <v>133</v>
       </c>
-      <c r="B135" s="120" t="s">
-        <v>54</v>
+      <c r="B135" s="121" t="s">
+        <v>55</v>
       </c>
       <c r="C135" s="59" t="s">
         <v>118</v>
@@ -4923,16 +4916,16 @@
       <c r="G135" s="74"/>
       <c r="H135" s="65"/>
       <c r="I135" s="65"/>
-      <c r="J135" s="106"/>
+      <c r="J135" s="126"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="149">
+      <c r="A136" s="114">
         <v>134</v>
       </c>
-      <c r="B136" s="121"/>
+      <c r="B136" s="122"/>
       <c r="C136" s="52" t="s">
         <v>117</v>
       </c>
@@ -4942,13 +4935,13 @@
       <c r="G136" s="75"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
-      <c r="J136" s="106"/>
+      <c r="J136" s="126"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="149">
+      <c r="A137" s="114">
         <v>135</v>
       </c>
-      <c r="B137" s="121"/>
+      <c r="B137" s="122"/>
       <c r="C137" s="52" t="s">
         <v>119</v>
       </c>
@@ -4958,13 +4951,13 @@
       <c r="G137" s="75"/>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
-      <c r="J137" s="106"/>
+      <c r="J137" s="126"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="150">
+      <c r="A138" s="115">
         <v>136</v>
       </c>
-      <c r="B138" s="122"/>
+      <c r="B138" s="123"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
@@ -4974,14 +4967,14 @@
       <c r="G138" s="73"/>
       <c r="H138" s="55"/>
       <c r="I138" s="55"/>
-      <c r="J138" s="102"/>
+      <c r="J138" s="129"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="148">
+      <c r="A139" s="113">
         <v>137</v>
       </c>
-      <c r="B139" s="110" t="s">
-        <v>55</v>
+      <c r="B139" s="149" t="s">
+        <v>84</v>
       </c>
       <c r="C139" s="59" t="s">
         <v>118</v>
@@ -4992,16 +4985,13 @@
       <c r="G139" s="74"/>
       <c r="H139" s="65"/>
       <c r="I139" s="65"/>
-      <c r="J139" s="106"/>
-      <c r="L139" t="s">
-        <v>147</v>
-      </c>
+      <c r="J139" s="126"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="149">
+      <c r="A140" s="114">
         <v>138</v>
       </c>
-      <c r="B140" s="111"/>
+      <c r="B140" s="150"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
@@ -5011,13 +5001,15 @@
       <c r="G140" s="75"/>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
-      <c r="J140" s="106"/>
+      <c r="J140" s="126"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="149">
+      <c r="A141" s="114">
         <v>139</v>
       </c>
-      <c r="B141" s="111"/>
+      <c r="B141" s="151" t="s">
+        <v>134</v>
+      </c>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
@@ -5027,13 +5019,13 @@
       <c r="G141" s="75"/>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
-      <c r="J141" s="106"/>
+      <c r="J141" s="126"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="150">
+      <c r="A142" s="115">
         <v>140</v>
       </c>
-      <c r="B142" s="112"/>
+      <c r="B142" s="152"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
@@ -5043,14 +5035,14 @@
       <c r="G142" s="73"/>
       <c r="H142" s="55"/>
       <c r="I142" s="55"/>
-      <c r="J142" s="102"/>
+      <c r="J142" s="129"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="148">
+      <c r="A143" s="113">
         <v>141</v>
       </c>
-      <c r="B143" s="123" t="s">
-        <v>84</v>
+      <c r="B143" s="149" t="s">
+        <v>43</v>
       </c>
       <c r="C143" s="59" t="s">
         <v>118</v>
@@ -5061,13 +5053,16 @@
       <c r="G143" s="74"/>
       <c r="H143" s="65"/>
       <c r="I143" s="65"/>
-      <c r="J143" s="106"/>
+      <c r="J143" s="126"/>
+      <c r="L143" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="149">
+      <c r="A144" s="114">
         <v>142</v>
       </c>
-      <c r="B144" s="124"/>
+      <c r="B144" s="150"/>
       <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
@@ -5077,13 +5072,13 @@
       <c r="G144" s="75"/>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
-      <c r="J144" s="106"/>
-    </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="149">
+      <c r="J144" s="126"/>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A145" s="114">
         <v>143</v>
       </c>
-      <c r="B145" s="118" t="s">
+      <c r="B145" s="151" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
@@ -5095,13 +5090,13 @@
       <c r="G145" s="75"/>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
-      <c r="J145" s="106"/>
-    </row>
-    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="150">
+      <c r="J145" s="126"/>
+    </row>
+    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="115">
         <v>144</v>
       </c>
-      <c r="B146" s="119"/>
+      <c r="B146" s="152"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
@@ -5111,34 +5106,41 @@
       <c r="G146" s="73"/>
       <c r="H146" s="55"/>
       <c r="I146" s="55"/>
-      <c r="J146" s="102"/>
-    </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="148">
+      <c r="J146" s="129"/>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A147" s="113">
         <v>145</v>
       </c>
-      <c r="B147" s="123" t="s">
-        <v>43</v>
+      <c r="B147" s="121" t="s">
+        <v>15</v>
       </c>
       <c r="C147" s="59" t="s">
         <v>118</v>
       </c>
       <c r="D147" s="44"/>
-      <c r="E147" s="65"/>
-      <c r="F147" s="65"/>
-      <c r="G147" s="74"/>
-      <c r="H147" s="65"/>
-      <c r="I147" s="65"/>
-      <c r="J147" s="106"/>
-      <c r="L147" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="149">
+      <c r="E147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="F147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="G147" s="74">
+        <v>1</v>
+      </c>
+      <c r="H147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="I147" s="65">
+        <v>43125</v>
+      </c>
+      <c r="J147" s="126"/>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A148" s="114">
         <v>146</v>
       </c>
-      <c r="B148" s="124"/>
+      <c r="B148" s="122"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
@@ -5148,15 +5150,13 @@
       <c r="G148" s="75"/>
       <c r="H148" s="56"/>
       <c r="I148" s="56"/>
-      <c r="J148" s="106"/>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="149">
+      <c r="J148" s="126"/>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A149" s="114">
         <v>147</v>
       </c>
-      <c r="B149" s="118" t="s">
-        <v>134</v>
-      </c>
+      <c r="B149" s="122"/>
       <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
@@ -5166,13 +5166,13 @@
       <c r="G149" s="75"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
-      <c r="J149" s="106"/>
-    </row>
-    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="150">
+      <c r="J149" s="126"/>
+    </row>
+    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="115">
         <v>148</v>
       </c>
-      <c r="B150" s="119"/>
+      <c r="B150" s="123"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
@@ -5182,86 +5182,76 @@
       <c r="G150" s="73"/>
       <c r="H150" s="55"/>
       <c r="I150" s="55"/>
-      <c r="J150" s="102"/>
-    </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="148">
-        <v>149</v>
-      </c>
-      <c r="B151" s="110" t="s">
-        <v>15</v>
-      </c>
-      <c r="C151" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D151" s="44"/>
-      <c r="E151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="F151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="G151" s="74">
-        <v>1</v>
-      </c>
-      <c r="H151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="I151" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J151" s="106"/>
-    </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="149">
-        <v>150</v>
-      </c>
-      <c r="B152" s="111"/>
-      <c r="C152" s="52" t="s">
-        <v>117</v>
-      </c>
-      <c r="D152" s="49"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="75"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="56"/>
-      <c r="J152" s="106"/>
-    </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="149">
-        <v>151</v>
-      </c>
-      <c r="B153" s="111"/>
-      <c r="C153" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="D153" s="49"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="75"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="106"/>
-    </row>
-    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="150">
-        <v>152</v>
-      </c>
-      <c r="B154" s="112"/>
-      <c r="C154" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D154" s="46"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="73"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="102"/>
+      <c r="J150" s="129"/>
     </row>
   </sheetData>
-  <mergeCells count="84">
+  <mergeCells count="82">
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="J147:J150"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J143:J146"/>
+    <mergeCell ref="J131:J134"/>
+    <mergeCell ref="J135:J138"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="B139:B140"/>
+    <mergeCell ref="B141:B142"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="B59:B62"/>
     <mergeCell ref="J59:J62"/>
@@ -5278,74 +5268,6 @@
     <mergeCell ref="B11:B14"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="J83:J86"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J151:J154"/>
-    <mergeCell ref="J91:J94"/>
-    <mergeCell ref="J95:J98"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B139:B142"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="B149:B150"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="J143:J146"/>
-    <mergeCell ref="J131:J134"/>
-    <mergeCell ref="J147:J150"/>
-    <mergeCell ref="J135:J138"/>
-    <mergeCell ref="J139:J142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="J15:J18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5368,26 +5290,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="113" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="113" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="125" t="s">
+      <c r="D1" s="148" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="125"/>
+      <c r="E1" s="148"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="114"/>
-      <c r="B2" s="114"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -5402,7 +5324,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="100" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5419,7 +5341,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="106"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5428,7 +5350,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="106"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5437,7 +5359,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="106"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -5446,7 +5368,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="106"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5455,7 +5377,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="106"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5467,7 +5389,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="100" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5475,13 +5397,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="106"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="102"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5511,7 +5433,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="100" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -5519,13 +5441,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="106"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="102"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -5535,7 +5457,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="100" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5543,25 +5465,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="101"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="101"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="102"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5607,7 +5529,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="93" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5615,13 +5537,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="94"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="95"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -5643,7 +5565,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="93" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5651,33 +5573,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="109"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="109"/>
-      <c r="B31" s="107" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="109"/>
-      <c r="B32" s="107"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="109"/>
-      <c r="B33" s="107" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="109"/>
-      <c r="B34" s="107"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="95"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -5699,7 +5621,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5707,19 +5629,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="94"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="94"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="94"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -5741,7 +5663,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="93" t="s">
+      <c r="A42" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5749,7 +5671,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="95"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -5759,7 +5681,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="93" t="s">
+      <c r="A44" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5767,25 +5689,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="94"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="94"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="94"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="95"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -5795,7 +5717,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="93" t="s">
+      <c r="A49" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5803,13 +5725,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="94"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="95"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -5844,11 +5766,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A1:A2"/>
@@ -5859,6 +5776,11 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="149">
   <si>
     <t>Página</t>
   </si>
@@ -471,6 +471,9 @@
   </si>
   <si>
     <t>This depends upon the definition of Prizing Sructures</t>
+  </si>
+  <si>
+    <t>getTeam(Id)</t>
   </si>
 </sst>
 </file>
@@ -521,7 +524,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -604,11 +607,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="153">
+  <cellXfs count="176">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,6 +896,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1029,6 +1090,48 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1332,37 +1435,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="127" t="s">
+      <c r="B1" s="136" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="136" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="136" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="130" t="s">
+      <c r="E1" s="136"/>
+      <c r="F1" s="139" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
+      <c r="C2" s="137"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="131"/>
+      <c r="F2" s="140"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1382,7 +1485,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1398,7 +1501,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1414,7 +1517,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1430,7 +1533,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1446,7 +1549,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1460,7 +1563,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="134" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1469,7 +1572,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="128" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1480,27 +1583,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="133"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="120"/>
+      <c r="D11" s="129"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1543,47 +1646,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="134" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="127" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="118">
+      <c r="E14" s="127">
         <v>0.5</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="130" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="149"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="131"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="123"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="132"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="134" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1592,7 +1695,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="127" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1603,53 +1706,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="128"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="128"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="128"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="120"/>
+      <c r="D21" s="129"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1712,7 +1815,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="143" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1721,7 +1824,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="127" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1732,27 +1835,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="133"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="129"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1779,7 +1882,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1796,7 +1899,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1811,14 +1914,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="132" t="s">
+      <c r="A31" s="146"/>
+      <c r="B31" s="141" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="124">
+      <c r="D31" s="133">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1829,25 +1932,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="141"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="133"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="146"/>
+      <c r="B33" s="141" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="133">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1858,12 +1961,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="141"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="124"/>
+      <c r="D34" s="133"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1872,7 +1975,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -1910,7 +2013,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="143" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -1930,7 +2033,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
+      <c r="A38" s="144"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -1945,7 +2048,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -1960,8 +2063,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="132" t="s">
+      <c r="A40" s="144"/>
+      <c r="B40" s="141" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -1975,8 +2078,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="145"/>
+      <c r="B41" s="142"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2007,7 +2110,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="143" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2016,7 +2119,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="127" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2027,14 +2130,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="136"/>
+      <c r="A44" s="145"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="120"/>
+      <c r="D44" s="129"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2043,7 +2146,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="143" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2052,7 +2155,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="118" t="s">
+      <c r="D45" s="127" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2060,56 +2163,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124" t="s">
+      <c r="D46" s="133"/>
+      <c r="E46" s="133" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
+      <c r="A48" s="144"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136"/>
+      <c r="A49" s="145"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="120"/>
+      <c r="D49" s="129"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="143" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2118,7 +2221,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="127" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2126,27 +2229,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="135"/>
+      <c r="A51" s="144"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="124"/>
+      <c r="D51" s="133"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136"/>
+      <c r="A52" s="145"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="120"/>
+      <c r="D52" s="129"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2268,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2281,45 +2384,45 @@
     <col min="5" max="6" width="11.42578125" style="50"/>
     <col min="7" max="7" width="13.42578125" style="72" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="11" max="11" width="21.28515625" style="99" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="108" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="147" t="s">
+      <c r="A1" s="156" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="131" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="148" t="s">
+      <c r="E1" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="148"/>
+      <c r="F1" s="157"/>
       <c r="G1" s="72" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="157"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="151" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="147"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="A2" s="156"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2341,13 +2444,13 @@
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="142"/>
+      <c r="K2" s="151"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="113">
-        <v>1</v>
-      </c>
-      <c r="B3" s="121" t="s">
+      <c r="A3" s="122">
+        <v>1</v>
+      </c>
+      <c r="B3" s="130" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="59" t="s">
@@ -2359,16 +2462,16 @@
       <c r="G3" s="74"/>
       <c r="H3" s="60"/>
       <c r="I3" s="60"/>
-      <c r="J3" s="146">
-        <v>1</v>
-      </c>
-      <c r="K3" s="97"/>
+      <c r="J3" s="155">
+        <v>1</v>
+      </c>
+      <c r="K3" s="106"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="114">
+      <c r="A4" s="123">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="131"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
@@ -2378,14 +2481,14 @@
       <c r="G4" s="75"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="98"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="107"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="114">
+      <c r="A5" s="123">
         <v>3</v>
       </c>
-      <c r="B5" s="122"/>
+      <c r="B5" s="131"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
@@ -2395,14 +2498,14 @@
       <c r="G5" s="75"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="98"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="107"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="115">
+      <c r="A6" s="124">
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="132"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
@@ -2412,14 +2515,14 @@
       <c r="G6" s="73"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="98"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="107"/>
     </row>
     <row r="7" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="113">
+      <c r="A7" s="122">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="130" t="s">
         <v>141</v>
       </c>
       <c r="C7" s="86" t="s">
@@ -2443,16 +2546,16 @@
       <c r="I7" s="61">
         <v>43121</v>
       </c>
-      <c r="J7" s="146">
+      <c r="J7" s="155">
         <v>0.25</v>
       </c>
-      <c r="K7" s="97"/>
+      <c r="K7" s="106"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="114">
+      <c r="A8" s="123">
         <v>6</v>
       </c>
-      <c r="B8" s="122"/>
+      <c r="B8" s="131"/>
       <c r="C8" s="87" t="s">
         <v>117</v>
       </c>
@@ -2462,13 +2565,13 @@
       <c r="G8" s="75"/>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
-      <c r="J8" s="126"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="114">
+      <c r="A9" s="123">
         <v>7</v>
       </c>
-      <c r="B9" s="122"/>
+      <c r="B9" s="131"/>
       <c r="C9" s="87" t="s">
         <v>119</v>
       </c>
@@ -2478,13 +2581,13 @@
       <c r="G9" s="75"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="126"/>
+      <c r="J9" s="135"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="115">
+      <c r="A10" s="124">
         <v>8</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
@@ -2494,13 +2597,13 @@
       <c r="G10" s="73"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="129"/>
+      <c r="J10" s="138"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="113">
+      <c r="A11" s="122">
         <v>9</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="130" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -2524,16 +2627,16 @@
       <c r="I11" s="65">
         <v>43118</v>
       </c>
-      <c r="J11" s="146">
+      <c r="J11" s="155">
         <v>0.25</v>
       </c>
-      <c r="K11" s="98"/>
+      <c r="K11" s="107"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="114">
+      <c r="A12" s="123">
         <v>10</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="131"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
@@ -2542,13 +2645,13 @@
       <c r="F12" s="58"/>
       <c r="H12" s="71"/>
       <c r="I12" s="58"/>
-      <c r="J12" s="126"/>
+      <c r="J12" s="135"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="114">
+      <c r="A13" s="123">
         <v>11</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="131"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
@@ -2557,13 +2660,13 @@
       <c r="F13" s="58"/>
       <c r="H13" s="71"/>
       <c r="I13" s="62"/>
-      <c r="J13" s="126"/>
+      <c r="J13" s="135"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="115">
+      <c r="A14" s="124">
         <v>12</v>
       </c>
-      <c r="B14" s="123"/>
+      <c r="B14" s="132"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
@@ -2573,13 +2676,13 @@
       <c r="G14" s="73"/>
       <c r="H14" s="69"/>
       <c r="I14" s="63"/>
-      <c r="J14" s="129"/>
+      <c r="J14" s="138"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="113">
+      <c r="A15" s="122">
         <v>13</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="130" t="s">
         <v>138</v>
       </c>
       <c r="C15" s="80" t="s">
@@ -2603,16 +2706,16 @@
       <c r="I15" s="65">
         <v>43118</v>
       </c>
-      <c r="J15" s="146">
+      <c r="J15" s="155">
         <v>0.25</v>
       </c>
-      <c r="K15" s="98"/>
+      <c r="K15" s="107"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="114">
+      <c r="A16" s="123">
         <v>14</v>
       </c>
-      <c r="B16" s="122"/>
+      <c r="B16" s="131"/>
       <c r="C16" s="81" t="s">
         <v>117</v>
       </c>
@@ -2621,13 +2724,13 @@
       <c r="F16" s="58"/>
       <c r="H16" s="71"/>
       <c r="I16" s="58"/>
-      <c r="J16" s="126"/>
+      <c r="J16" s="135"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="114">
+      <c r="A17" s="123">
         <v>15</v>
       </c>
-      <c r="B17" s="122"/>
+      <c r="B17" s="131"/>
       <c r="C17" s="81" t="s">
         <v>119</v>
       </c>
@@ -2636,13 +2739,13 @@
       <c r="F17" s="58"/>
       <c r="H17" s="71"/>
       <c r="I17" s="62"/>
-      <c r="J17" s="126"/>
+      <c r="J17" s="135"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="115">
+      <c r="A18" s="124">
         <v>16</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="132"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
@@ -2652,13 +2755,13 @@
       <c r="G18" s="73"/>
       <c r="H18" s="69"/>
       <c r="I18" s="63"/>
-      <c r="J18" s="129"/>
+      <c r="J18" s="138"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="113">
+      <c r="A19" s="122">
         <v>17</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="130" t="s">
         <v>135</v>
       </c>
       <c r="C19" s="80" t="s">
@@ -2682,16 +2785,16 @@
       <c r="I19" s="65">
         <v>43118</v>
       </c>
-      <c r="J19" s="146">
+      <c r="J19" s="155">
         <v>0.25</v>
       </c>
-      <c r="K19" s="98"/>
+      <c r="K19" s="107"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="114">
+      <c r="A20" s="123">
         <v>18</v>
       </c>
-      <c r="B20" s="122"/>
+      <c r="B20" s="131"/>
       <c r="C20" s="81" t="s">
         <v>117</v>
       </c>
@@ -2700,13 +2803,13 @@
       <c r="F20" s="58"/>
       <c r="H20" s="71"/>
       <c r="I20" s="58"/>
-      <c r="J20" s="126"/>
+      <c r="J20" s="135"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="114">
+      <c r="A21" s="123">
         <v>19</v>
       </c>
-      <c r="B21" s="122"/>
+      <c r="B21" s="131"/>
       <c r="C21" s="81" t="s">
         <v>119</v>
       </c>
@@ -2715,13 +2818,13 @@
       <c r="F21" s="58"/>
       <c r="H21" s="71"/>
       <c r="I21" s="62"/>
-      <c r="J21" s="126"/>
+      <c r="J21" s="135"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="115">
+      <c r="A22" s="124">
         <v>20</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="132"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
@@ -2731,13 +2834,13 @@
       <c r="G22" s="73"/>
       <c r="H22" s="69"/>
       <c r="I22" s="63"/>
-      <c r="J22" s="129"/>
+      <c r="J22" s="138"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="113">
+      <c r="A23" s="122">
         <v>21</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="130" t="s">
         <v>136</v>
       </c>
       <c r="C23" s="80" t="s">
@@ -2761,16 +2864,16 @@
       <c r="I23" s="65">
         <v>43118</v>
       </c>
-      <c r="J23" s="146">
+      <c r="J23" s="155">
         <v>0.25</v>
       </c>
-      <c r="K23" s="98"/>
+      <c r="K23" s="107"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="114">
+      <c r="A24" s="123">
         <v>22</v>
       </c>
-      <c r="B24" s="122"/>
+      <c r="B24" s="131"/>
       <c r="C24" s="81" t="s">
         <v>117</v>
       </c>
@@ -2779,13 +2882,13 @@
       <c r="F24" s="58"/>
       <c r="H24" s="71"/>
       <c r="I24" s="58"/>
-      <c r="J24" s="126"/>
+      <c r="J24" s="135"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="114">
+      <c r="A25" s="123">
         <v>23</v>
       </c>
-      <c r="B25" s="122"/>
+      <c r="B25" s="131"/>
       <c r="C25" s="81" t="s">
         <v>119</v>
       </c>
@@ -2794,13 +2897,13 @@
       <c r="F25" s="58"/>
       <c r="H25" s="71"/>
       <c r="I25" s="62"/>
-      <c r="J25" s="126"/>
+      <c r="J25" s="135"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="115">
+      <c r="A26" s="124">
         <v>24</v>
       </c>
-      <c r="B26" s="123"/>
+      <c r="B26" s="132"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
@@ -2810,13 +2913,13 @@
       <c r="G26" s="73"/>
       <c r="H26" s="69"/>
       <c r="I26" s="63"/>
-      <c r="J26" s="129"/>
+      <c r="J26" s="138"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="113">
+      <c r="A27" s="122">
         <v>25</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="130" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="59" t="s">
@@ -2840,16 +2943,16 @@
       <c r="I27" s="65">
         <v>43121</v>
       </c>
-      <c r="J27" s="146">
+      <c r="J27" s="155">
         <v>0.25</v>
       </c>
-      <c r="K27" s="98"/>
+      <c r="K27" s="107"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="114">
+      <c r="A28" s="123">
         <v>26</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="131"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
@@ -2858,13 +2961,13 @@
       <c r="F28" s="58"/>
       <c r="H28" s="71"/>
       <c r="I28" s="56"/>
-      <c r="J28" s="126"/>
+      <c r="J28" s="135"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="114">
+      <c r="A29" s="123">
         <v>27</v>
       </c>
-      <c r="B29" s="122"/>
+      <c r="B29" s="131"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
@@ -2873,13 +2976,13 @@
       <c r="F29" s="58"/>
       <c r="H29" s="71"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="126"/>
+      <c r="J29" s="135"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="115">
+      <c r="A30" s="124">
         <v>28</v>
       </c>
-      <c r="B30" s="123"/>
+      <c r="B30" s="132"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
@@ -2889,13 +2992,13 @@
       <c r="G30" s="73"/>
       <c r="H30" s="69"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="129"/>
+      <c r="J30" s="138"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="113">
+      <c r="A31" s="122">
         <v>29</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="130" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -2919,16 +3022,16 @@
       <c r="I31" s="65">
         <v>43121</v>
       </c>
-      <c r="J31" s="146">
+      <c r="J31" s="155">
         <v>0.25</v>
       </c>
-      <c r="K31" s="98"/>
+      <c r="K31" s="107"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="114">
+      <c r="A32" s="123">
         <v>30</v>
       </c>
-      <c r="B32" s="122"/>
+      <c r="B32" s="131"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
@@ -2937,13 +3040,13 @@
       <c r="F32" s="58"/>
       <c r="H32" s="71"/>
       <c r="I32" s="56"/>
-      <c r="J32" s="126"/>
+      <c r="J32" s="135"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="114">
+      <c r="A33" s="123">
         <v>31</v>
       </c>
-      <c r="B33" s="122"/>
+      <c r="B33" s="131"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
@@ -2952,13 +3055,13 @@
       <c r="F33" s="58"/>
       <c r="H33" s="71"/>
       <c r="I33" s="56"/>
-      <c r="J33" s="126"/>
+      <c r="J33" s="135"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="115">
+      <c r="A34" s="124">
         <v>32</v>
       </c>
-      <c r="B34" s="123"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
@@ -2968,13 +3071,13 @@
       <c r="G34" s="73"/>
       <c r="H34" s="69"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="129"/>
+      <c r="J34" s="138"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="113">
+      <c r="A35" s="122">
         <v>33</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="130" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="59" t="s">
@@ -2992,25 +3095,25 @@
       <c r="G35" s="72">
         <v>1</v>
       </c>
-      <c r="H35" s="93">
+      <c r="H35" s="102">
         <v>43121</v>
       </c>
-      <c r="I35" s="94">
+      <c r="I35" s="103">
         <v>43121</v>
       </c>
-      <c r="J35" s="146">
+      <c r="J35" s="155">
         <v>0.25</v>
       </c>
-      <c r="K35" s="98"/>
-      <c r="L35" s="100" t="s">
+      <c r="K35" s="107"/>
+      <c r="L35" s="109" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="114">
+      <c r="A36" s="123">
         <v>34</v>
       </c>
-      <c r="B36" s="122"/>
+      <c r="B36" s="131"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
@@ -3019,16 +3122,16 @@
       <c r="F36" s="54"/>
       <c r="H36" s="71"/>
       <c r="I36" s="56"/>
-      <c r="J36" s="126"/>
-      <c r="L36" s="100" t="s">
+      <c r="J36" s="135"/>
+      <c r="L36" s="109" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="114">
+      <c r="A37" s="123">
         <v>35</v>
       </c>
-      <c r="B37" s="122"/>
+      <c r="B37" s="131"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
@@ -3037,14 +3140,14 @@
       <c r="F37" s="54"/>
       <c r="H37" s="71"/>
       <c r="I37" s="56"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="101"/>
+      <c r="J37" s="135"/>
+      <c r="K37" s="110"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="115">
+      <c r="A38" s="124">
         <v>36</v>
       </c>
-      <c r="B38" s="123"/>
+      <c r="B38" s="132"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
@@ -3054,14 +3157,14 @@
       <c r="G38" s="73"/>
       <c r="H38" s="69"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="129"/>
-      <c r="K38" s="101"/>
+      <c r="J38" s="138"/>
+      <c r="K38" s="110"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="113">
+      <c r="A39" s="122">
         <v>37</v>
       </c>
-      <c r="B39" s="143" t="s">
+      <c r="B39" s="152" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="59" t="s">
@@ -3079,22 +3182,22 @@
       <c r="G39" s="72">
         <v>1</v>
       </c>
-      <c r="H39" s="93">
+      <c r="H39" s="102">
         <v>43121</v>
       </c>
-      <c r="I39" s="94">
+      <c r="I39" s="103">
         <v>43121</v>
       </c>
-      <c r="J39" s="146">
+      <c r="J39" s="155">
         <v>0.25</v>
       </c>
-      <c r="K39" s="98"/>
+      <c r="K39" s="107"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="114">
+      <c r="A40" s="123">
         <v>38</v>
       </c>
-      <c r="B40" s="144"/>
+      <c r="B40" s="153"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
@@ -3104,13 +3207,13 @@
       <c r="G40" s="75"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
-      <c r="J40" s="126"/>
+      <c r="J40" s="135"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="114">
+      <c r="A41" s="123">
         <v>39</v>
       </c>
-      <c r="B41" s="144"/>
+      <c r="B41" s="153"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
@@ -3120,13 +3223,13 @@
       <c r="G41" s="75"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="126"/>
+      <c r="J41" s="135"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="115">
+      <c r="A42" s="124">
         <v>40</v>
       </c>
-      <c r="B42" s="145"/>
+      <c r="B42" s="154"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
@@ -3136,13 +3239,13 @@
       <c r="G42" s="73"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="129"/>
+      <c r="J42" s="138"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="113">
+      <c r="A43" s="122">
         <v>41</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="130" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="59" t="s">
@@ -3160,22 +3263,22 @@
       <c r="G43" s="72">
         <v>1</v>
       </c>
-      <c r="H43" s="93">
+      <c r="H43" s="102">
         <v>43121</v>
       </c>
-      <c r="I43" s="94">
+      <c r="I43" s="103">
         <v>43121</v>
       </c>
-      <c r="J43" s="146">
+      <c r="J43" s="155">
         <v>0.25</v>
       </c>
-      <c r="K43" s="98"/>
+      <c r="K43" s="107"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="114">
+      <c r="A44" s="123">
         <v>42</v>
       </c>
-      <c r="B44" s="122"/>
+      <c r="B44" s="131"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
@@ -3185,13 +3288,13 @@
       <c r="G44" s="75"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="126"/>
+      <c r="J44" s="135"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="114">
+      <c r="A45" s="123">
         <v>43</v>
       </c>
-      <c r="B45" s="122"/>
+      <c r="B45" s="131"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
@@ -3201,13 +3304,13 @@
       <c r="G45" s="75"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="126"/>
+      <c r="J45" s="135"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="115">
+      <c r="A46" s="124">
         <v>44</v>
       </c>
-      <c r="B46" s="123"/>
+      <c r="B46" s="132"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
@@ -3217,13 +3320,13 @@
       <c r="G46" s="73"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="129"/>
+      <c r="J46" s="138"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="113">
+      <c r="A47" s="122">
         <v>45</v>
       </c>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="130" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="59" t="s">
@@ -3241,22 +3344,22 @@
       <c r="G47" s="72">
         <v>1</v>
       </c>
-      <c r="H47" s="93">
+      <c r="H47" s="102">
         <v>43121</v>
       </c>
-      <c r="I47" s="94">
+      <c r="I47" s="103">
         <v>43121</v>
       </c>
-      <c r="J47" s="146">
+      <c r="J47" s="155">
         <v>0.25</v>
       </c>
-      <c r="K47" s="98"/>
+      <c r="K47" s="107"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="114">
+      <c r="A48" s="123">
         <v>46</v>
       </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="131"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
@@ -3266,13 +3369,13 @@
       <c r="G48" s="75"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="126"/>
+      <c r="J48" s="135"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="114">
+      <c r="A49" s="123">
         <v>47</v>
       </c>
-      <c r="B49" s="122"/>
+      <c r="B49" s="131"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
@@ -3282,13 +3385,13 @@
       <c r="G49" s="75"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="126"/>
+      <c r="J49" s="135"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="115">
+      <c r="A50" s="124">
         <v>48</v>
       </c>
-      <c r="B50" s="123"/>
+      <c r="B50" s="132"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
@@ -3298,13 +3401,13 @@
       <c r="G50" s="73"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
-      <c r="J50" s="129"/>
+      <c r="J50" s="138"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="113">
+      <c r="A51" s="122">
         <v>49</v>
       </c>
-      <c r="B51" s="143" t="s">
+      <c r="B51" s="152" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="59" t="s">
@@ -3322,22 +3425,22 @@
       <c r="G51" s="72">
         <v>1</v>
       </c>
-      <c r="H51" s="93">
+      <c r="H51" s="102">
         <v>43121</v>
       </c>
-      <c r="I51" s="94">
+      <c r="I51" s="103">
         <v>43121</v>
       </c>
-      <c r="J51" s="146">
+      <c r="J51" s="155">
         <v>0.25</v>
       </c>
-      <c r="K51" s="98"/>
+      <c r="K51" s="107"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="114">
+      <c r="A52" s="123">
         <v>50</v>
       </c>
-      <c r="B52" s="144"/>
+      <c r="B52" s="153"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
@@ -3347,13 +3450,13 @@
       <c r="G52" s="75"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="126"/>
+      <c r="J52" s="135"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="114">
+      <c r="A53" s="123">
         <v>51</v>
       </c>
-      <c r="B53" s="144"/>
+      <c r="B53" s="153"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
@@ -3363,13 +3466,13 @@
       <c r="G53" s="75"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="126"/>
+      <c r="J53" s="135"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="115">
+      <c r="A54" s="124">
         <v>52</v>
       </c>
-      <c r="B54" s="145"/>
+      <c r="B54" s="154"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
@@ -3379,181 +3482,181 @@
       <c r="G54" s="73"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="129"/>
-    </row>
-    <row r="55" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="113">
+      <c r="J54" s="138"/>
+    </row>
+    <row r="55" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="122">
         <v>53</v>
       </c>
-      <c r="B55" s="143" t="s">
+      <c r="B55" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="95" t="s">
+      <c r="C55" s="104" t="s">
         <v>118</v>
       </c>
       <c r="D55" s="90">
         <v>1</v>
       </c>
-      <c r="E55" s="102">
+      <c r="E55" s="111">
         <v>43121</v>
       </c>
-      <c r="F55" s="102">
+      <c r="F55" s="111">
         <v>43121</v>
       </c>
-      <c r="G55" s="96">
-        <v>1</v>
-      </c>
-      <c r="H55" s="102">
+      <c r="G55" s="105">
+        <v>1</v>
+      </c>
+      <c r="H55" s="111">
         <v>43121</v>
       </c>
-      <c r="I55" s="102">
+      <c r="I55" s="111">
         <v>43121</v>
       </c>
-      <c r="J55" s="146">
+      <c r="J55" s="155">
         <v>0.25</v>
       </c>
-      <c r="K55" s="98"/>
-    </row>
-    <row r="56" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="114">
+      <c r="K55" s="107"/>
+    </row>
+    <row r="56" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="123">
         <v>54</v>
       </c>
-      <c r="B56" s="144"/>
-      <c r="C56" s="105" t="s">
+      <c r="B56" s="153"/>
+      <c r="C56" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D56" s="91"/>
-      <c r="E56" s="106"/>
-      <c r="F56" s="107"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="107"/>
-      <c r="I56" s="107"/>
-      <c r="J56" s="126"/>
-      <c r="K56" s="103"/>
-    </row>
-    <row r="57" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="114">
+      <c r="E56" s="115"/>
+      <c r="F56" s="116"/>
+      <c r="G56" s="117"/>
+      <c r="H56" s="116"/>
+      <c r="I56" s="116"/>
+      <c r="J56" s="135"/>
+      <c r="K56" s="112"/>
+    </row>
+    <row r="57" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="123">
         <v>55</v>
       </c>
-      <c r="B57" s="144"/>
-      <c r="C57" s="105" t="s">
+      <c r="B57" s="153"/>
+      <c r="C57" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D57" s="91"/>
-      <c r="E57" s="106"/>
-      <c r="F57" s="107"/>
-      <c r="G57" s="108"/>
-      <c r="H57" s="107"/>
-      <c r="I57" s="107"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="103"/>
-    </row>
-    <row r="58" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="115">
+      <c r="E57" s="115"/>
+      <c r="F57" s="116"/>
+      <c r="G57" s="117"/>
+      <c r="H57" s="116"/>
+      <c r="I57" s="116"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="112"/>
+    </row>
+    <row r="58" spans="1:11" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="124">
         <v>56</v>
       </c>
-      <c r="B58" s="145"/>
-      <c r="C58" s="109" t="s">
+      <c r="B58" s="154"/>
+      <c r="C58" s="118" t="s">
         <v>121</v>
       </c>
       <c r="D58" s="92"/>
-      <c r="E58" s="110"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="129"/>
-      <c r="K58" s="103"/>
-    </row>
-    <row r="59" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="113">
+      <c r="E58" s="119"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="121"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="138"/>
+      <c r="K58" s="112"/>
+    </row>
+    <row r="59" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="122">
         <v>57</v>
       </c>
-      <c r="B59" s="143" t="s">
+      <c r="B59" s="152" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="95" t="s">
+      <c r="C59" s="104" t="s">
         <v>118</v>
       </c>
       <c r="D59" s="90">
         <v>1</v>
       </c>
-      <c r="E59" s="102">
+      <c r="E59" s="111">
         <v>43121</v>
       </c>
-      <c r="F59" s="102">
+      <c r="F59" s="111">
         <v>43121</v>
       </c>
-      <c r="G59" s="96">
-        <v>1</v>
-      </c>
-      <c r="H59" s="102">
+      <c r="G59" s="105">
+        <v>1</v>
+      </c>
+      <c r="H59" s="111">
         <v>43121</v>
       </c>
-      <c r="I59" s="102">
+      <c r="I59" s="111">
         <v>43121</v>
       </c>
-      <c r="J59" s="146">
+      <c r="J59" s="155">
         <v>0.25</v>
       </c>
-      <c r="K59" s="98"/>
-    </row>
-    <row r="60" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="114">
+      <c r="K59" s="107"/>
+    </row>
+    <row r="60" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="123">
         <v>58</v>
       </c>
-      <c r="B60" s="144"/>
-      <c r="C60" s="105" t="s">
+      <c r="B60" s="153"/>
+      <c r="C60" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D60" s="91"/>
-      <c r="E60" s="106"/>
-      <c r="F60" s="107"/>
-      <c r="G60" s="108"/>
-      <c r="H60" s="107"/>
-      <c r="I60" s="107"/>
-      <c r="J60" s="126"/>
-      <c r="K60" s="103"/>
-    </row>
-    <row r="61" spans="1:11" s="104" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="114">
+      <c r="E60" s="115"/>
+      <c r="F60" s="116"/>
+      <c r="G60" s="117"/>
+      <c r="H60" s="116"/>
+      <c r="I60" s="116"/>
+      <c r="J60" s="135"/>
+      <c r="K60" s="112"/>
+    </row>
+    <row r="61" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="123">
         <v>59</v>
       </c>
-      <c r="B61" s="144"/>
-      <c r="C61" s="105" t="s">
+      <c r="B61" s="153"/>
+      <c r="C61" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D61" s="91"/>
-      <c r="E61" s="106"/>
-      <c r="F61" s="107"/>
-      <c r="G61" s="108"/>
-      <c r="H61" s="107"/>
-      <c r="I61" s="107"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="103"/>
-    </row>
-    <row r="62" spans="1:11" s="104" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="115">
+      <c r="E61" s="115"/>
+      <c r="F61" s="116"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="116"/>
+      <c r="I61" s="116"/>
+      <c r="J61" s="135"/>
+      <c r="K61" s="112"/>
+    </row>
+    <row r="62" spans="1:11" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="124">
         <v>60</v>
       </c>
-      <c r="B62" s="145"/>
-      <c r="C62" s="109" t="s">
+      <c r="B62" s="154"/>
+      <c r="C62" s="118" t="s">
         <v>121</v>
       </c>
       <c r="D62" s="92"/>
-      <c r="E62" s="110"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="112"/>
-      <c r="H62" s="111"/>
-      <c r="I62" s="111"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="103"/>
+      <c r="E62" s="119"/>
+      <c r="F62" s="120"/>
+      <c r="G62" s="121"/>
+      <c r="H62" s="120"/>
+      <c r="I62" s="120"/>
+      <c r="J62" s="138"/>
+      <c r="K62" s="112"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="113">
+      <c r="A63" s="122">
         <v>61</v>
       </c>
-      <c r="B63" s="143" t="s">
+      <c r="B63" s="152" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="59" t="s">
@@ -3562,31 +3665,31 @@
       <c r="D63" s="44">
         <v>1</v>
       </c>
-      <c r="E63" s="102">
+      <c r="E63" s="111">
         <v>43121</v>
       </c>
-      <c r="F63" s="102">
+      <c r="F63" s="111">
         <v>43121</v>
       </c>
-      <c r="G63" s="96">
-        <v>1</v>
-      </c>
-      <c r="H63" s="102">
+      <c r="G63" s="105">
+        <v>1</v>
+      </c>
+      <c r="H63" s="111">
         <v>43121</v>
       </c>
-      <c r="I63" s="102">
+      <c r="I63" s="111">
         <v>43121</v>
       </c>
-      <c r="J63" s="146">
+      <c r="J63" s="155">
         <v>0.25</v>
       </c>
-      <c r="K63" s="98"/>
+      <c r="K63" s="107"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="114">
+      <c r="A64" s="123">
         <v>62</v>
       </c>
-      <c r="B64" s="144"/>
+      <c r="B64" s="153"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
@@ -3596,13 +3699,13 @@
       <c r="G64" s="75"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
-      <c r="J64" s="126"/>
+      <c r="J64" s="135"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="114">
+      <c r="A65" s="123">
         <v>63</v>
       </c>
-      <c r="B65" s="144"/>
+      <c r="B65" s="153"/>
       <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
@@ -3612,13 +3715,13 @@
       <c r="G65" s="75"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
-      <c r="J65" s="126"/>
+      <c r="J65" s="135"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="115">
+      <c r="A66" s="124">
         <v>64</v>
       </c>
-      <c r="B66" s="145"/>
+      <c r="B66" s="154"/>
       <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
@@ -3628,13 +3731,13 @@
       <c r="G66" s="73"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="129"/>
+      <c r="J66" s="138"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="113">
+      <c r="A67" s="122">
         <v>65</v>
       </c>
-      <c r="B67" s="143" t="s">
+      <c r="B67" s="152" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="59" t="s">
@@ -3643,31 +3746,31 @@
       <c r="D67" s="44">
         <v>1</v>
       </c>
-      <c r="E67" s="102">
+      <c r="E67" s="111">
         <v>43121</v>
       </c>
-      <c r="F67" s="102">
+      <c r="F67" s="111">
         <v>43121</v>
       </c>
-      <c r="G67" s="96">
-        <v>1</v>
-      </c>
-      <c r="H67" s="102">
+      <c r="G67" s="105">
+        <v>1</v>
+      </c>
+      <c r="H67" s="111">
         <v>43121</v>
       </c>
-      <c r="I67" s="102">
+      <c r="I67" s="111">
         <v>43121</v>
       </c>
-      <c r="J67" s="146">
+      <c r="J67" s="155">
         <v>0.25</v>
       </c>
-      <c r="K67" s="98"/>
+      <c r="K67" s="107"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="114">
+      <c r="A68" s="123">
         <v>66</v>
       </c>
-      <c r="B68" s="144"/>
+      <c r="B68" s="153"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
@@ -3677,13 +3780,13 @@
       <c r="G68" s="75"/>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
-      <c r="J68" s="126"/>
+      <c r="J68" s="135"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="114">
+      <c r="A69" s="123">
         <v>67</v>
       </c>
-      <c r="B69" s="144"/>
+      <c r="B69" s="153"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
@@ -3693,13 +3796,13 @@
       <c r="G69" s="75"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
-      <c r="J69" s="126"/>
+      <c r="J69" s="135"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="115">
+      <c r="A70" s="124">
         <v>68</v>
       </c>
-      <c r="B70" s="145"/>
+      <c r="B70" s="154"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
@@ -3709,13 +3812,13 @@
       <c r="G70" s="73"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
-      <c r="J70" s="129"/>
+      <c r="J70" s="138"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="113">
+      <c r="A71" s="122">
         <v>69</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="130" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="59" t="s">
@@ -3724,31 +3827,31 @@
       <c r="D71" s="44">
         <v>1</v>
       </c>
-      <c r="E71" s="102">
+      <c r="E71" s="111">
         <v>43121</v>
       </c>
-      <c r="F71" s="102">
+      <c r="F71" s="111">
         <v>43121</v>
       </c>
-      <c r="G71" s="96">
-        <v>1</v>
-      </c>
-      <c r="H71" s="102">
+      <c r="G71" s="105">
+        <v>1</v>
+      </c>
+      <c r="H71" s="111">
         <v>43121</v>
       </c>
-      <c r="I71" s="102">
+      <c r="I71" s="111">
         <v>43121</v>
       </c>
-      <c r="J71" s="146">
+      <c r="J71" s="155">
         <v>0.25</v>
       </c>
-      <c r="K71" s="98"/>
+      <c r="K71" s="107"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="114">
+      <c r="A72" s="123">
         <v>70</v>
       </c>
-      <c r="B72" s="122"/>
+      <c r="B72" s="131"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
@@ -3758,13 +3861,13 @@
       <c r="G72" s="75"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
-      <c r="J72" s="126"/>
+      <c r="J72" s="135"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="114">
+      <c r="A73" s="123">
         <v>71</v>
       </c>
-      <c r="B73" s="122"/>
+      <c r="B73" s="131"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
@@ -3774,13 +3877,13 @@
       <c r="G73" s="75"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
-      <c r="J73" s="126"/>
+      <c r="J73" s="135"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="115">
+      <c r="A74" s="124">
         <v>72</v>
       </c>
-      <c r="B74" s="123"/>
+      <c r="B74" s="132"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
@@ -3790,13 +3893,13 @@
       <c r="G74" s="73"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
-      <c r="J74" s="129"/>
+      <c r="J74" s="138"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="113">
+      <c r="A75" s="122">
         <v>73</v>
       </c>
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="130" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="59" t="s">
@@ -3805,31 +3908,31 @@
       <c r="D75" s="44">
         <v>1</v>
       </c>
-      <c r="E75" s="102">
+      <c r="E75" s="111">
         <v>43121</v>
       </c>
-      <c r="F75" s="102">
+      <c r="F75" s="111">
         <v>43121</v>
       </c>
-      <c r="G75" s="96">
-        <v>1</v>
-      </c>
-      <c r="H75" s="102">
+      <c r="G75" s="105">
+        <v>1</v>
+      </c>
+      <c r="H75" s="111">
         <v>43121</v>
       </c>
-      <c r="I75" s="102">
+      <c r="I75" s="111">
         <v>43121</v>
       </c>
-      <c r="J75" s="146">
+      <c r="J75" s="155">
         <v>0.25</v>
       </c>
-      <c r="K75" s="98"/>
+      <c r="K75" s="107"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="114">
+      <c r="A76" s="123">
         <v>74</v>
       </c>
-      <c r="B76" s="122"/>
+      <c r="B76" s="131"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
@@ -3839,13 +3942,13 @@
       <c r="G76" s="75"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
-      <c r="J76" s="126"/>
+      <c r="J76" s="135"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="114">
+      <c r="A77" s="123">
         <v>75</v>
       </c>
-      <c r="B77" s="122"/>
+      <c r="B77" s="131"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
@@ -3855,13 +3958,13 @@
       <c r="G77" s="75"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
-      <c r="J77" s="126"/>
+      <c r="J77" s="135"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="115">
+      <c r="A78" s="124">
         <v>76</v>
       </c>
-      <c r="B78" s="123"/>
+      <c r="B78" s="132"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
@@ -3871,13 +3974,13 @@
       <c r="G78" s="73"/>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
-      <c r="J78" s="129"/>
+      <c r="J78" s="138"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="113">
+      <c r="A79" s="122">
         <v>77</v>
       </c>
-      <c r="B79" s="121" t="s">
+      <c r="B79" s="130" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="59" t="s">
@@ -3886,31 +3989,31 @@
       <c r="D79" s="44">
         <v>1</v>
       </c>
-      <c r="E79" s="102">
+      <c r="E79" s="111">
         <v>43121</v>
       </c>
-      <c r="F79" s="102">
+      <c r="F79" s="111">
         <v>43121</v>
       </c>
-      <c r="G79" s="96">
-        <v>1</v>
-      </c>
-      <c r="H79" s="102">
+      <c r="G79" s="105">
+        <v>1</v>
+      </c>
+      <c r="H79" s="111">
         <v>43121</v>
       </c>
-      <c r="I79" s="102">
+      <c r="I79" s="111">
         <v>43121</v>
       </c>
-      <c r="J79" s="146">
+      <c r="J79" s="155">
         <v>0.25</v>
       </c>
-      <c r="K79" s="98"/>
+      <c r="K79" s="107"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="114">
+      <c r="A80" s="123">
         <v>78</v>
       </c>
-      <c r="B80" s="122"/>
+      <c r="B80" s="131"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
@@ -3920,13 +4023,13 @@
       <c r="G80" s="75"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
-      <c r="J80" s="126"/>
+      <c r="J80" s="135"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="114">
+      <c r="A81" s="123">
         <v>79</v>
       </c>
-      <c r="B81" s="122"/>
+      <c r="B81" s="131"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
@@ -3936,13 +4039,13 @@
       <c r="G81" s="75"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
-      <c r="J81" s="126"/>
+      <c r="J81" s="135"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="115">
+      <c r="A82" s="124">
         <v>80</v>
       </c>
-      <c r="B82" s="123"/>
+      <c r="B82" s="132"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
@@ -3952,181 +4055,181 @@
       <c r="G82" s="73"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="129"/>
+      <c r="J82" s="138"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="113">
+      <c r="A83" s="122">
         <v>81</v>
       </c>
-      <c r="B83" s="143" t="s">
+      <c r="B83" s="152" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="95" t="s">
+      <c r="C83" s="104" t="s">
         <v>118</v>
       </c>
       <c r="D83" s="90">
         <v>1</v>
       </c>
-      <c r="E83" s="102">
+      <c r="E83" s="111">
         <v>43121</v>
       </c>
-      <c r="F83" s="102">
+      <c r="F83" s="111">
         <v>43121</v>
       </c>
-      <c r="G83" s="96">
-        <v>1</v>
-      </c>
-      <c r="H83" s="102">
+      <c r="G83" s="105">
+        <v>1</v>
+      </c>
+      <c r="H83" s="111">
         <v>43121</v>
       </c>
-      <c r="I83" s="102">
+      <c r="I83" s="111">
         <v>43121</v>
       </c>
-      <c r="J83" s="146">
+      <c r="J83" s="155">
         <v>0.25</v>
       </c>
-      <c r="K83" s="98"/>
+      <c r="K83" s="107"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="114">
+      <c r="A84" s="123">
         <v>82</v>
       </c>
-      <c r="B84" s="144"/>
-      <c r="C84" s="105" t="s">
+      <c r="B84" s="153"/>
+      <c r="C84" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D84" s="91"/>
-      <c r="E84" s="107"/>
-      <c r="F84" s="107"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="107"/>
-      <c r="I84" s="107"/>
-      <c r="J84" s="126"/>
-      <c r="K84" s="103"/>
+      <c r="E84" s="116"/>
+      <c r="F84" s="116"/>
+      <c r="G84" s="117"/>
+      <c r="H84" s="116"/>
+      <c r="I84" s="116"/>
+      <c r="J84" s="135"/>
+      <c r="K84" s="112"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="114">
+      <c r="A85" s="123">
         <v>83</v>
       </c>
-      <c r="B85" s="144"/>
-      <c r="C85" s="105" t="s">
+      <c r="B85" s="153"/>
+      <c r="C85" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D85" s="91"/>
-      <c r="E85" s="107"/>
-      <c r="F85" s="107"/>
-      <c r="G85" s="108"/>
-      <c r="H85" s="107"/>
-      <c r="I85" s="107"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="103"/>
+      <c r="E85" s="116"/>
+      <c r="F85" s="116"/>
+      <c r="G85" s="117"/>
+      <c r="H85" s="116"/>
+      <c r="I85" s="116"/>
+      <c r="J85" s="135"/>
+      <c r="K85" s="112"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="115">
+      <c r="A86" s="124">
         <v>84</v>
       </c>
-      <c r="B86" s="145"/>
-      <c r="C86" s="109" t="s">
+      <c r="B86" s="154"/>
+      <c r="C86" s="118" t="s">
         <v>121</v>
       </c>
       <c r="D86" s="92"/>
-      <c r="E86" s="111"/>
-      <c r="F86" s="111"/>
-      <c r="G86" s="112"/>
-      <c r="H86" s="111"/>
-      <c r="I86" s="111"/>
-      <c r="J86" s="129"/>
-      <c r="K86" s="103"/>
+      <c r="E86" s="120"/>
+      <c r="F86" s="120"/>
+      <c r="G86" s="121"/>
+      <c r="H86" s="120"/>
+      <c r="I86" s="120"/>
+      <c r="J86" s="138"/>
+      <c r="K86" s="112"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="113">
+      <c r="A87" s="122">
         <v>85</v>
       </c>
-      <c r="B87" s="143" t="s">
+      <c r="B87" s="152" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="95" t="s">
+      <c r="C87" s="104" t="s">
         <v>118</v>
       </c>
       <c r="D87" s="90">
         <v>1</v>
       </c>
-      <c r="E87" s="116">
+      <c r="E87" s="125">
         <v>43121</v>
       </c>
-      <c r="F87" s="116">
+      <c r="F87" s="125">
         <v>43121</v>
       </c>
-      <c r="G87" s="117">
-        <v>1</v>
-      </c>
-      <c r="H87" s="116">
+      <c r="G87" s="126">
+        <v>1</v>
+      </c>
+      <c r="H87" s="125">
         <v>43121</v>
       </c>
-      <c r="I87" s="116">
+      <c r="I87" s="125">
         <v>43121</v>
       </c>
-      <c r="J87" s="146">
+      <c r="J87" s="155">
         <v>0.25</v>
       </c>
-      <c r="K87" s="98"/>
+      <c r="K87" s="107"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="114">
+      <c r="A88" s="123">
         <v>86</v>
       </c>
-      <c r="B88" s="144"/>
-      <c r="C88" s="105" t="s">
+      <c r="B88" s="153"/>
+      <c r="C88" s="114" t="s">
         <v>117</v>
       </c>
       <c r="D88" s="91"/>
-      <c r="E88" s="107"/>
-      <c r="F88" s="107"/>
-      <c r="G88" s="108"/>
-      <c r="H88" s="107"/>
-      <c r="I88" s="107"/>
-      <c r="J88" s="126"/>
-      <c r="K88" s="103"/>
+      <c r="E88" s="116"/>
+      <c r="F88" s="116"/>
+      <c r="G88" s="117"/>
+      <c r="H88" s="116"/>
+      <c r="I88" s="116"/>
+      <c r="J88" s="135"/>
+      <c r="K88" s="112"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="114">
+      <c r="A89" s="123">
         <v>87</v>
       </c>
-      <c r="B89" s="144"/>
-      <c r="C89" s="105" t="s">
+      <c r="B89" s="153"/>
+      <c r="C89" s="114" t="s">
         <v>119</v>
       </c>
       <c r="D89" s="91"/>
-      <c r="E89" s="107"/>
-      <c r="F89" s="107"/>
-      <c r="G89" s="108"/>
-      <c r="H89" s="107"/>
-      <c r="I89" s="107"/>
-      <c r="J89" s="126"/>
-      <c r="K89" s="103"/>
+      <c r="E89" s="116"/>
+      <c r="F89" s="116"/>
+      <c r="G89" s="117"/>
+      <c r="H89" s="116"/>
+      <c r="I89" s="116"/>
+      <c r="J89" s="135"/>
+      <c r="K89" s="112"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="115">
+      <c r="A90" s="124">
         <v>88</v>
       </c>
-      <c r="B90" s="145"/>
-      <c r="C90" s="109" t="s">
+      <c r="B90" s="154"/>
+      <c r="C90" s="118" t="s">
         <v>121</v>
       </c>
       <c r="D90" s="92"/>
-      <c r="E90" s="111"/>
-      <c r="F90" s="111"/>
-      <c r="G90" s="112"/>
-      <c r="H90" s="111"/>
-      <c r="I90" s="111"/>
-      <c r="J90" s="129"/>
-      <c r="K90" s="103"/>
+      <c r="E90" s="120"/>
+      <c r="F90" s="120"/>
+      <c r="G90" s="121"/>
+      <c r="H90" s="120"/>
+      <c r="I90" s="120"/>
+      <c r="J90" s="138"/>
+      <c r="K90" s="112"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="113">
+      <c r="A91" s="122">
         <v>89</v>
       </c>
-      <c r="B91" s="121" t="s">
+      <c r="B91" s="130" t="s">
         <v>82</v>
       </c>
       <c r="C91" s="59" t="s">
@@ -4136,27 +4239,28 @@
         <v>1</v>
       </c>
       <c r="E91" s="65">
-        <v>43125</v>
+        <v>43122</v>
       </c>
       <c r="F91" s="65">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="G91" s="74">
         <v>1</v>
       </c>
       <c r="H91" s="65">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="I91" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J91" s="126"/>
+        <v>43123</v>
+      </c>
+      <c r="J91" s="135"/>
+      <c r="K91" s="107"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="114">
+      <c r="A92" s="123">
         <v>90</v>
       </c>
-      <c r="B92" s="122"/>
+      <c r="B92" s="131"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
@@ -4166,13 +4270,13 @@
       <c r="G92" s="75"/>
       <c r="H92" s="56"/>
       <c r="I92" s="56"/>
-      <c r="J92" s="126"/>
+      <c r="J92" s="135"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="114">
+      <c r="A93" s="123">
         <v>91</v>
       </c>
-      <c r="B93" s="122"/>
+      <c r="B93" s="131"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
@@ -4182,13 +4286,13 @@
       <c r="G93" s="75"/>
       <c r="H93" s="56"/>
       <c r="I93" s="56"/>
-      <c r="J93" s="126"/>
+      <c r="J93" s="135"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="115">
+      <c r="A94" s="124">
         <v>92</v>
       </c>
-      <c r="B94" s="123"/>
+      <c r="B94" s="132"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
@@ -4198,13 +4302,13 @@
       <c r="G94" s="73"/>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
-      <c r="J94" s="129"/>
+      <c r="J94" s="138"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="113">
+      <c r="A95" s="122">
         <v>93</v>
       </c>
-      <c r="B95" s="121" t="s">
+      <c r="B95" s="130" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="59" t="s">
@@ -4214,27 +4318,28 @@
         <v>1</v>
       </c>
       <c r="E95" s="65">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="F95" s="65">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="G95" s="74">
         <v>1</v>
       </c>
       <c r="H95" s="65">
-        <v>43125</v>
+        <v>43123</v>
       </c>
       <c r="I95" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J95" s="126"/>
+        <v>43123</v>
+      </c>
+      <c r="J95" s="135"/>
+      <c r="K95" s="107"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="114">
+      <c r="A96" s="123">
         <v>94</v>
       </c>
-      <c r="B96" s="122"/>
+      <c r="B96" s="131"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
@@ -4244,13 +4349,13 @@
       <c r="G96" s="75"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
-      <c r="J96" s="126"/>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A97" s="114">
+      <c r="J96" s="135"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97" s="123">
         <v>95</v>
       </c>
-      <c r="B97" s="122"/>
+      <c r="B97" s="131"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
@@ -4260,13 +4365,13 @@
       <c r="G97" s="75"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
-      <c r="J97" s="126"/>
-    </row>
-    <row r="98" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="115">
+      <c r="J97" s="135"/>
+    </row>
+    <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="124">
         <v>96</v>
       </c>
-      <c r="B98" s="123"/>
+      <c r="B98" s="132"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
@@ -4276,13 +4381,13 @@
       <c r="G98" s="73"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="129"/>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="113">
+      <c r="J98" s="138"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99" s="122">
         <v>97</v>
       </c>
-      <c r="B99" s="143" t="s">
+      <c r="B99" s="152" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="59" t="s">
@@ -4292,27 +4397,28 @@
         <v>1</v>
       </c>
       <c r="E99" s="65">
-        <v>43126</v>
+        <v>43123</v>
       </c>
       <c r="F99" s="65">
-        <v>43126</v>
+        <v>43123</v>
       </c>
       <c r="G99" s="74">
         <v>1</v>
       </c>
       <c r="H99" s="65">
-        <v>43126</v>
+        <v>43123</v>
       </c>
       <c r="I99" s="65">
-        <v>43126</v>
-      </c>
-      <c r="J99" s="126"/>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="114">
+        <v>43123</v>
+      </c>
+      <c r="J99" s="135"/>
+      <c r="K99" s="107"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100" s="123">
         <v>98</v>
       </c>
-      <c r="B100" s="144"/>
+      <c r="B100" s="153"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
@@ -4321,13 +4427,13 @@
       <c r="F100" s="56"/>
       <c r="G100" s="75"/>
       <c r="H100" s="56"/>
-      <c r="J100" s="126"/>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A101" s="114">
+      <c r="J100" s="135"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101" s="123">
         <v>99</v>
       </c>
-      <c r="B101" s="144"/>
+      <c r="B101" s="153"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
@@ -4336,13 +4442,13 @@
       <c r="F101" s="56"/>
       <c r="G101" s="75"/>
       <c r="H101" s="56"/>
-      <c r="J101" s="126"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="115">
+      <c r="J101" s="135"/>
+    </row>
+    <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="124">
         <v>100</v>
       </c>
-      <c r="B102" s="145"/>
+      <c r="B102" s="154"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
@@ -4352,195 +4458,223 @@
       <c r="G102" s="73"/>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
-      <c r="J102" s="129"/>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A103" s="113">
+      <c r="J102" s="138"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103" s="162">
         <v>101</v>
       </c>
-      <c r="B103" s="143" t="s">
+      <c r="B103" s="152" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="52" t="s">
+      <c r="C103" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="88">
-        <v>1</v>
-      </c>
-      <c r="E103" s="65">
-        <v>43126</v>
-      </c>
-      <c r="F103" s="65">
-        <v>43126</v>
-      </c>
-      <c r="G103" s="74">
-        <v>1</v>
-      </c>
-      <c r="H103" s="65">
-        <v>43126</v>
-      </c>
-      <c r="I103" s="65">
-        <v>43126</v>
-      </c>
-      <c r="J103" s="125"/>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A104" s="114">
+      <c r="D103" s="96">
+        <v>1</v>
+      </c>
+      <c r="E103" s="111">
+        <v>43124</v>
+      </c>
+      <c r="F103" s="111">
+        <v>43124</v>
+      </c>
+      <c r="G103" s="105">
+        <v>1</v>
+      </c>
+      <c r="H103" s="111">
+        <v>43124</v>
+      </c>
+      <c r="I103" s="111">
+        <v>43124</v>
+      </c>
+      <c r="J103" s="148"/>
+      <c r="K103" s="107"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104" s="163">
         <v>102</v>
       </c>
-      <c r="B104" s="144"/>
-      <c r="C104" s="52" t="s">
+      <c r="B104" s="153"/>
+      <c r="C104" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="J104" s="126"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A105" s="114">
+      <c r="D104" s="164"/>
+      <c r="E104" s="165"/>
+      <c r="F104" s="165"/>
+      <c r="G104" s="166"/>
+      <c r="H104" s="165"/>
+      <c r="I104" s="165"/>
+      <c r="J104" s="149"/>
+      <c r="K104" s="112"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105" s="163">
         <v>103</v>
       </c>
-      <c r="B105" s="144"/>
-      <c r="C105" s="52" t="s">
+      <c r="B105" s="153"/>
+      <c r="C105" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="J105" s="126"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="115">
+      <c r="D105" s="164"/>
+      <c r="E105" s="165"/>
+      <c r="F105" s="165"/>
+      <c r="G105" s="166"/>
+      <c r="H105" s="165"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="149"/>
+      <c r="K105" s="112"/>
+    </row>
+    <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="167">
         <v>104</v>
       </c>
-      <c r="B106" s="145"/>
-      <c r="C106" s="51" t="s">
+      <c r="B106" s="154"/>
+      <c r="C106" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="46"/>
-      <c r="E106" s="55"/>
-      <c r="F106" s="55"/>
-      <c r="G106" s="73"/>
-      <c r="H106" s="55"/>
-      <c r="I106" s="55"/>
-      <c r="J106" s="129"/>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A107" s="113">
+      <c r="D106" s="97"/>
+      <c r="E106" s="120"/>
+      <c r="F106" s="120"/>
+      <c r="G106" s="121"/>
+      <c r="H106" s="120"/>
+      <c r="I106" s="120"/>
+      <c r="J106" s="150"/>
+      <c r="K106" s="112"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107" s="162">
         <v>105</v>
       </c>
-      <c r="B107" s="143" t="s">
-        <v>102</v>
-      </c>
-      <c r="C107" s="52" t="s">
+      <c r="B107" s="152" t="s">
+        <v>148</v>
+      </c>
+      <c r="C107" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="88">
+      <c r="D107" s="93">
         <v>1</v>
       </c>
       <c r="E107" s="65">
-        <v>43126</v>
+        <v>43124</v>
       </c>
       <c r="F107" s="65">
-        <v>43126</v>
+        <v>43124</v>
       </c>
       <c r="G107" s="74">
         <v>1</v>
       </c>
       <c r="H107" s="65">
-        <v>43126</v>
+        <v>43124</v>
       </c>
       <c r="I107" s="65">
-        <v>43126</v>
-      </c>
-      <c r="J107" s="126"/>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="114">
+        <v>43124</v>
+      </c>
+      <c r="J107" s="135"/>
+      <c r="K107" s="107"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108" s="163">
         <v>106</v>
       </c>
-      <c r="B108" s="144"/>
-      <c r="C108" s="52" t="s">
+      <c r="B108" s="153"/>
+      <c r="C108" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="J108" s="126"/>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="114">
+      <c r="D108" s="94"/>
+      <c r="E108" s="101"/>
+      <c r="F108" s="101"/>
+      <c r="H108" s="101"/>
+      <c r="I108" s="101"/>
+      <c r="J108" s="135"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" s="163">
         <v>107</v>
       </c>
-      <c r="B109" s="144"/>
-      <c r="C109" s="52" t="s">
+      <c r="B109" s="153"/>
+      <c r="C109" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="J109" s="126"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="115">
+      <c r="D109" s="94"/>
+      <c r="E109" s="101"/>
+      <c r="F109" s="101"/>
+      <c r="H109" s="101"/>
+      <c r="I109" s="101"/>
+      <c r="J109" s="135"/>
+    </row>
+    <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="167">
         <v>108</v>
       </c>
-      <c r="B110" s="145"/>
+      <c r="B110" s="154"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="46"/>
+      <c r="D110" s="95"/>
       <c r="E110" s="55"/>
       <c r="F110" s="55"/>
       <c r="G110" s="73"/>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
-      <c r="J110" s="129"/>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="113">
+      <c r="J110" s="138"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111" s="162">
         <v>109</v>
       </c>
-      <c r="B111" s="143" t="s">
-        <v>104</v>
+      <c r="B111" s="130" t="s">
+        <v>105</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="44">
+      <c r="D111" s="88">
         <v>1</v>
       </c>
       <c r="E111" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="F111" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="G111" s="74">
         <v>1</v>
       </c>
       <c r="H111" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="I111" s="65">
-        <v>43127</v>
-      </c>
-      <c r="J111" s="126"/>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="114">
+        <v>43125</v>
+      </c>
+      <c r="J111" s="135"/>
+      <c r="K111" s="107"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112" s="163">
         <v>110</v>
       </c>
-      <c r="B112" s="144"/>
+      <c r="B112" s="131"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J112" s="126"/>
+      <c r="J112" s="135"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="114">
+      <c r="A113" s="163">
         <v>111</v>
       </c>
-      <c r="B113" s="144"/>
+      <c r="B113" s="131"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J113" s="126"/>
+      <c r="J113" s="135"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="115">
+      <c r="A114" s="167">
         <v>112</v>
       </c>
-      <c r="B114" s="145"/>
+      <c r="B114" s="132"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
@@ -4550,75 +4684,64 @@
       <c r="G114" s="73"/>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
-      <c r="J114" s="129"/>
+      <c r="J114" s="138"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="113">
+      <c r="A115" s="162">
         <v>113</v>
       </c>
-      <c r="B115" s="121" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="59" t="s">
+      <c r="B115" s="130" t="s">
+        <v>108</v>
+      </c>
+      <c r="C115" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="88">
+      <c r="D115" s="44">
         <v>1</v>
       </c>
       <c r="E115" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="F115" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="G115" s="74">
         <v>1</v>
       </c>
       <c r="H115" s="65">
-        <v>43127</v>
+        <v>43125</v>
       </c>
       <c r="I115" s="65">
-        <v>43127</v>
-      </c>
-      <c r="J115" s="126"/>
+        <v>43125</v>
+      </c>
+      <c r="J115" s="135"/>
+      <c r="K115" s="107"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="114">
+      <c r="A116" s="163">
         <v>114</v>
       </c>
-      <c r="B116" s="122"/>
+      <c r="B116" s="131"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="49"/>
-      <c r="E116" s="56"/>
-      <c r="F116" s="56"/>
-      <c r="G116" s="75"/>
-      <c r="H116" s="56"/>
-      <c r="I116" s="56"/>
-      <c r="J116" s="126"/>
+      <c r="J116" s="135"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="114">
+      <c r="A117" s="163">
         <v>115</v>
       </c>
-      <c r="B117" s="122"/>
+      <c r="B117" s="131"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="49"/>
-      <c r="E117" s="56"/>
-      <c r="F117" s="56"/>
-      <c r="G117" s="75"/>
-      <c r="H117" s="56"/>
-      <c r="I117" s="56"/>
-      <c r="J117" s="126"/>
+      <c r="J117" s="135"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="115">
+      <c r="A118" s="167">
         <v>116</v>
       </c>
-      <c r="B118" s="123"/>
+      <c r="B118" s="132"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
@@ -4628,63 +4751,67 @@
       <c r="G118" s="73"/>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
-      <c r="J118" s="129"/>
+      <c r="J118" s="138"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="113">
+      <c r="A119" s="162">
         <v>117</v>
       </c>
-      <c r="B119" s="121" t="s">
-        <v>105</v>
+      <c r="B119" s="152" t="s">
+        <v>104</v>
       </c>
       <c r="C119" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="88">
+      <c r="D119" s="44">
         <v>1</v>
       </c>
       <c r="E119" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="F119" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="G119" s="74">
         <v>1</v>
       </c>
       <c r="H119" s="65">
-        <v>43127</v>
+        <v>43126</v>
       </c>
       <c r="I119" s="65">
-        <v>43127</v>
-      </c>
-      <c r="J119" s="126"/>
+        <v>43126</v>
+      </c>
+      <c r="J119" s="135"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="114">
+      <c r="A120" s="163">
         <v>118</v>
       </c>
-      <c r="B120" s="122"/>
+      <c r="B120" s="153"/>
       <c r="C120" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J120" s="126"/>
+      <c r="E120" s="101"/>
+      <c r="F120" s="101"/>
+      <c r="H120" s="101"/>
+      <c r="I120" s="101"/>
+      <c r="J120" s="135"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="114">
+      <c r="A121" s="163">
         <v>119</v>
       </c>
-      <c r="B121" s="122"/>
+      <c r="B121" s="153"/>
       <c r="C121" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J121" s="126"/>
+      <c r="J121" s="135"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="115">
+      <c r="A122" s="167">
         <v>120</v>
       </c>
-      <c r="B122" s="123"/>
+      <c r="B122" s="154"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
@@ -4694,63 +4821,75 @@
       <c r="G122" s="73"/>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
-      <c r="J122" s="129"/>
+      <c r="J122" s="138"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="113">
+      <c r="A123" s="162">
         <v>121</v>
       </c>
-      <c r="B123" s="121" t="s">
-        <v>108</v>
-      </c>
-      <c r="C123" s="52" t="s">
+      <c r="B123" s="130" t="s">
+        <v>103</v>
+      </c>
+      <c r="C123" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="44">
+      <c r="D123" s="88">
         <v>1</v>
       </c>
       <c r="E123" s="65">
-        <v>43129</v>
+        <v>43126</v>
       </c>
       <c r="F123" s="65">
-        <v>43129</v>
+        <v>43126</v>
       </c>
       <c r="G123" s="74">
         <v>1</v>
       </c>
       <c r="H123" s="65">
-        <v>43129</v>
+        <v>43126</v>
       </c>
       <c r="I123" s="65">
-        <v>43129</v>
-      </c>
-      <c r="J123" s="126"/>
+        <v>43126</v>
+      </c>
+      <c r="J123" s="135"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="114">
+      <c r="A124" s="163">
         <v>122</v>
       </c>
-      <c r="B124" s="122"/>
+      <c r="B124" s="131"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J124" s="126"/>
+      <c r="D124" s="49"/>
+      <c r="E124" s="56"/>
+      <c r="F124" s="56"/>
+      <c r="G124" s="75"/>
+      <c r="H124" s="56"/>
+      <c r="I124" s="56"/>
+      <c r="J124" s="135"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="114">
+      <c r="A125" s="163">
         <v>123</v>
       </c>
-      <c r="B125" s="122"/>
+      <c r="B125" s="131"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J125" s="126"/>
+      <c r="D125" s="49"/>
+      <c r="E125" s="56"/>
+      <c r="F125" s="56"/>
+      <c r="G125" s="75"/>
+      <c r="H125" s="56"/>
+      <c r="I125" s="56"/>
+      <c r="J125" s="135"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="115">
+      <c r="A126" s="167">
         <v>124</v>
       </c>
-      <c r="B126" s="123"/>
+      <c r="B126" s="132"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
@@ -4760,151 +4899,151 @@
       <c r="G126" s="73"/>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
-      <c r="J126" s="129"/>
+      <c r="J126" s="138"/>
     </row>
     <row r="127" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="113">
+      <c r="A127" s="162">
         <v>125</v>
       </c>
-      <c r="B127" s="121" t="s">
+      <c r="B127" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="59" t="s">
+      <c r="C127" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="D127" s="44"/>
+      <c r="D127" s="93"/>
       <c r="E127" s="65"/>
       <c r="F127" s="65"/>
       <c r="G127" s="57"/>
       <c r="H127" s="70"/>
       <c r="I127" s="70"/>
-      <c r="J127" s="126"/>
-      <c r="K127" s="99"/>
+      <c r="J127" s="171"/>
+      <c r="K127" s="108"/>
     </row>
     <row r="128" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="114">
+      <c r="A128" s="163">
         <v>126</v>
       </c>
-      <c r="B128" s="122"/>
-      <c r="C128" s="52" t="s">
+      <c r="B128" s="169"/>
+      <c r="C128" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="49"/>
+      <c r="D128" s="98"/>
       <c r="E128" s="54"/>
       <c r="F128" s="58"/>
       <c r="G128" s="57"/>
       <c r="H128" s="71"/>
       <c r="I128" s="56"/>
-      <c r="J128" s="126"/>
-      <c r="K128" s="99"/>
+      <c r="J128" s="156"/>
+      <c r="K128" s="108"/>
     </row>
     <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="114">
+      <c r="A129" s="163">
         <v>127</v>
       </c>
-      <c r="B129" s="122"/>
-      <c r="C129" s="52" t="s">
+      <c r="B129" s="169"/>
+      <c r="C129" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="49"/>
+      <c r="D129" s="98"/>
       <c r="E129" s="54"/>
       <c r="F129" s="58"/>
       <c r="G129" s="57"/>
       <c r="H129" s="71"/>
       <c r="I129" s="56"/>
-      <c r="J129" s="126"/>
-      <c r="K129" s="99"/>
+      <c r="J129" s="156"/>
+      <c r="K129" s="108"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="115">
+      <c r="A130" s="167">
         <v>128</v>
       </c>
-      <c r="B130" s="123"/>
+      <c r="B130" s="170"/>
       <c r="C130" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D130" s="46"/>
+      <c r="D130" s="95"/>
       <c r="E130" s="64"/>
       <c r="F130" s="66"/>
       <c r="G130" s="73"/>
       <c r="H130" s="69"/>
       <c r="I130" s="55"/>
-      <c r="J130" s="129"/>
+      <c r="J130" s="172"/>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="113">
+      <c r="A131" s="162">
         <v>129</v>
       </c>
-      <c r="B131" s="143" t="s">
+      <c r="B131" s="173" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="59" t="s">
+      <c r="C131" s="99" t="s">
         <v>118</v>
       </c>
-      <c r="D131" s="44"/>
+      <c r="D131" s="93"/>
       <c r="E131" s="65"/>
       <c r="F131" s="65"/>
       <c r="G131" s="74"/>
       <c r="H131" s="65"/>
       <c r="I131" s="65"/>
-      <c r="J131" s="126"/>
+      <c r="J131" s="171"/>
       <c r="L131" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="114">
+      <c r="A132" s="163">
         <v>130</v>
       </c>
-      <c r="B132" s="144"/>
-      <c r="C132" s="52" t="s">
+      <c r="B132" s="174"/>
+      <c r="C132" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D132" s="49"/>
+      <c r="D132" s="98"/>
       <c r="E132" s="56"/>
       <c r="F132" s="56"/>
       <c r="G132" s="75"/>
       <c r="H132" s="56"/>
       <c r="I132" s="56"/>
-      <c r="J132" s="126"/>
+      <c r="J132" s="156"/>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="114">
+      <c r="A133" s="163">
         <v>131</v>
       </c>
-      <c r="B133" s="144"/>
-      <c r="C133" s="52" t="s">
+      <c r="B133" s="174"/>
+      <c r="C133" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D133" s="49"/>
+      <c r="D133" s="98"/>
       <c r="E133" s="56"/>
       <c r="F133" s="56"/>
       <c r="G133" s="75"/>
       <c r="H133" s="56"/>
       <c r="I133" s="56"/>
-      <c r="J133" s="126"/>
+      <c r="J133" s="156"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="115">
+      <c r="A134" s="167">
         <v>132</v>
       </c>
-      <c r="B134" s="145"/>
+      <c r="B134" s="175"/>
       <c r="C134" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D134" s="46"/>
+      <c r="D134" s="95"/>
       <c r="E134" s="55"/>
       <c r="F134" s="55"/>
       <c r="G134" s="73"/>
       <c r="H134" s="55"/>
       <c r="I134" s="55"/>
-      <c r="J134" s="129"/>
+      <c r="J134" s="172"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="113">
+      <c r="A135" s="162">
         <v>133</v>
       </c>
-      <c r="B135" s="121" t="s">
+      <c r="B135" s="130" t="s">
         <v>55</v>
       </c>
       <c r="C135" s="59" t="s">
@@ -4916,16 +5055,16 @@
       <c r="G135" s="74"/>
       <c r="H135" s="65"/>
       <c r="I135" s="65"/>
-      <c r="J135" s="126"/>
+      <c r="J135" s="135"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="114">
+      <c r="A136" s="163">
         <v>134</v>
       </c>
-      <c r="B136" s="122"/>
+      <c r="B136" s="131"/>
       <c r="C136" s="52" t="s">
         <v>117</v>
       </c>
@@ -4935,13 +5074,13 @@
       <c r="G136" s="75"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
-      <c r="J136" s="126"/>
+      <c r="J136" s="135"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="114">
+      <c r="A137" s="163">
         <v>135</v>
       </c>
-      <c r="B137" s="122"/>
+      <c r="B137" s="131"/>
       <c r="C137" s="52" t="s">
         <v>119</v>
       </c>
@@ -4951,13 +5090,13 @@
       <c r="G137" s="75"/>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
-      <c r="J137" s="126"/>
+      <c r="J137" s="135"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="115">
+      <c r="A138" s="167">
         <v>136</v>
       </c>
-      <c r="B138" s="123"/>
+      <c r="B138" s="132"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
@@ -4967,13 +5106,13 @@
       <c r="G138" s="73"/>
       <c r="H138" s="55"/>
       <c r="I138" s="55"/>
-      <c r="J138" s="129"/>
+      <c r="J138" s="138"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="113">
+      <c r="A139" s="162">
         <v>137</v>
       </c>
-      <c r="B139" s="149" t="s">
+      <c r="B139" s="158" t="s">
         <v>84</v>
       </c>
       <c r="C139" s="59" t="s">
@@ -4985,13 +5124,13 @@
       <c r="G139" s="74"/>
       <c r="H139" s="65"/>
       <c r="I139" s="65"/>
-      <c r="J139" s="126"/>
+      <c r="J139" s="135"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="114">
+      <c r="A140" s="163">
         <v>138</v>
       </c>
-      <c r="B140" s="150"/>
+      <c r="B140" s="159"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
@@ -5001,13 +5140,13 @@
       <c r="G140" s="75"/>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
-      <c r="J140" s="126"/>
+      <c r="J140" s="135"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="114">
+      <c r="A141" s="163">
         <v>139</v>
       </c>
-      <c r="B141" s="151" t="s">
+      <c r="B141" s="160" t="s">
         <v>134</v>
       </c>
       <c r="C141" s="52" t="s">
@@ -5019,13 +5158,13 @@
       <c r="G141" s="75"/>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
-      <c r="J141" s="126"/>
+      <c r="J141" s="135"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="115">
+      <c r="A142" s="167">
         <v>140</v>
       </c>
-      <c r="B142" s="152"/>
+      <c r="B142" s="161"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
@@ -5035,13 +5174,13 @@
       <c r="G142" s="73"/>
       <c r="H142" s="55"/>
       <c r="I142" s="55"/>
-      <c r="J142" s="129"/>
+      <c r="J142" s="138"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="113">
+      <c r="A143" s="162">
         <v>141</v>
       </c>
-      <c r="B143" s="149" t="s">
+      <c r="B143" s="158" t="s">
         <v>43</v>
       </c>
       <c r="C143" s="59" t="s">
@@ -5053,16 +5192,16 @@
       <c r="G143" s="74"/>
       <c r="H143" s="65"/>
       <c r="I143" s="65"/>
-      <c r="J143" s="126"/>
+      <c r="J143" s="135"/>
       <c r="L143" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="114">
+      <c r="A144" s="163">
         <v>142</v>
       </c>
-      <c r="B144" s="150"/>
+      <c r="B144" s="159"/>
       <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
@@ -5072,13 +5211,13 @@
       <c r="G144" s="75"/>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
-      <c r="J144" s="126"/>
+      <c r="J144" s="135"/>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="114">
+      <c r="A145" s="163">
         <v>143</v>
       </c>
-      <c r="B145" s="151" t="s">
+      <c r="B145" s="160" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
@@ -5090,13 +5229,13 @@
       <c r="G145" s="75"/>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
-      <c r="J145" s="126"/>
+      <c r="J145" s="135"/>
     </row>
     <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="115">
+      <c r="A146" s="167">
         <v>144</v>
       </c>
-      <c r="B146" s="152"/>
+      <c r="B146" s="161"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
@@ -5106,13 +5245,13 @@
       <c r="G146" s="73"/>
       <c r="H146" s="55"/>
       <c r="I146" s="55"/>
-      <c r="J146" s="129"/>
+      <c r="J146" s="138"/>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="113">
+      <c r="A147" s="162">
         <v>145</v>
       </c>
-      <c r="B147" s="121" t="s">
+      <c r="B147" s="130" t="s">
         <v>15</v>
       </c>
       <c r="C147" s="59" t="s">
@@ -5134,13 +5273,13 @@
       <c r="I147" s="65">
         <v>43125</v>
       </c>
-      <c r="J147" s="126"/>
+      <c r="J147" s="135"/>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="114">
+      <c r="A148" s="163">
         <v>146</v>
       </c>
-      <c r="B148" s="122"/>
+      <c r="B148" s="131"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
@@ -5150,13 +5289,13 @@
       <c r="G148" s="75"/>
       <c r="H148" s="56"/>
       <c r="I148" s="56"/>
-      <c r="J148" s="126"/>
+      <c r="J148" s="135"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="114">
+      <c r="A149" s="163">
         <v>147</v>
       </c>
-      <c r="B149" s="122"/>
+      <c r="B149" s="131"/>
       <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
@@ -5166,13 +5305,13 @@
       <c r="G149" s="75"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
-      <c r="J149" s="126"/>
+      <c r="J149" s="135"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="115">
+      <c r="A150" s="167">
         <v>148</v>
       </c>
-      <c r="B150" s="123"/>
+      <c r="B150" s="132"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
@@ -5182,7 +5321,7 @@
       <c r="G150" s="73"/>
       <c r="H150" s="55"/>
       <c r="I150" s="55"/>
-      <c r="J150" s="129"/>
+      <c r="J150" s="138"/>
     </row>
   </sheetData>
   <mergeCells count="82">
@@ -5198,8 +5337,8 @@
     <mergeCell ref="B135:B138"/>
     <mergeCell ref="B99:B102"/>
     <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
     <mergeCell ref="B103:B106"/>
     <mergeCell ref="J139:J142"/>
     <mergeCell ref="J127:J130"/>
@@ -5207,19 +5346,19 @@
     <mergeCell ref="J131:J134"/>
     <mergeCell ref="J135:J138"/>
     <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J118"/>
     <mergeCell ref="J103:J106"/>
     <mergeCell ref="B143:B144"/>
     <mergeCell ref="J99:J102"/>
-    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J123:J126"/>
     <mergeCell ref="J107:J110"/>
-    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J119:J122"/>
     <mergeCell ref="B139:B140"/>
     <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B123:B126"/>
     <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B119:B122"/>
     <mergeCell ref="J47:J50"/>
     <mergeCell ref="J51:J54"/>
     <mergeCell ref="J55:J58"/>
@@ -5290,26 +5429,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="136" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="136" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="148"/>
+      <c r="E1" s="157"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="137"/>
+      <c r="B2" s="137"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -5324,7 +5463,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="134" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5341,7 +5480,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="135"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5350,7 +5489,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="135"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5359,7 +5498,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="135"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -5368,7 +5507,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
+      <c r="A7" s="135"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5377,7 +5516,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
+      <c r="A8" s="135"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5389,7 +5528,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="134" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5397,13 +5536,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="135"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129"/>
+      <c r="A11" s="138"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5433,7 +5572,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="134" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -5441,13 +5580,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="135"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="129"/>
+      <c r="A16" s="138"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -5457,7 +5596,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="134" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5465,25 +5604,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="147"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="147"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="147"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="129"/>
+      <c r="A21" s="138"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5529,7 +5668,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="143" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5537,13 +5676,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="144"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="145"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -5565,7 +5704,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="143" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5573,33 +5712,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
+      <c r="A30" s="146"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="132" t="s">
+      <c r="A31" s="146"/>
+      <c r="B31" s="141" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="146"/>
+      <c r="B32" s="141"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="146"/>
+      <c r="B33" s="141" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="146"/>
+      <c r="B34" s="141"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="145"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -5621,7 +5760,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="143" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5629,19 +5768,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
+      <c r="A38" s="144"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="144"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
+      <c r="A40" s="144"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -5663,7 +5802,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="143" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5671,7 +5810,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
+      <c r="A43" s="145"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -5681,7 +5820,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="143" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5689,25 +5828,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
+      <c r="A45" s="144"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
+      <c r="A46" s="144"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
+      <c r="A47" s="144"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136"/>
+      <c r="A48" s="145"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -5717,7 +5856,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="143" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5725,13 +5864,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="135"/>
+      <c r="A50" s="144"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="136"/>
+      <c r="A51" s="145"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="150">
   <si>
     <t>Página</t>
   </si>
@@ -474,6 +474,9 @@
   </si>
   <si>
     <t>getTeam(Id)</t>
+  </si>
+  <si>
+    <t>getNews(Dates)</t>
   </si>
 </sst>
 </file>
@@ -794,9 +797,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -835,25 +835,46 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -863,66 +884,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -931,9 +895,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -958,9 +919,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -968,9 +926,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -983,17 +938,83 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1004,134 +1025,116 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,37 +1438,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="136" t="s">
+      <c r="C1" s="139" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="136" t="s">
+      <c r="D1" s="139" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="136"/>
-      <c r="F1" s="139" t="s">
+      <c r="E1" s="139"/>
+      <c r="F1" s="141" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
-      <c r="C2" s="137"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="140"/>
+      <c r="F2" s="142"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1485,7 +1488,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1504,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1517,7 +1520,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1536,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1552,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1563,7 +1566,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="126" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1572,7 +1575,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="128" t="s">
+      <c r="D9" s="125" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1583,27 +1586,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="133"/>
+      <c r="D10" s="122"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="129"/>
+      <c r="D11" s="124"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1646,47 +1649,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="148" t="s">
+      <c r="C14" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="127">
+      <c r="E14" s="123">
         <v>0.5</v>
       </c>
-      <c r="F14" s="130" t="s">
+      <c r="F14" s="136" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="149"/>
-      <c r="D15" s="128"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="131"/>
+      <c r="C15" s="130"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="125"/>
+      <c r="F15" s="137"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="150"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="132"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="138"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="126" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1695,7 +1698,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="127" t="s">
+      <c r="D17" s="123" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1706,53 +1709,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="128"/>
+      <c r="D18" s="125"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="128"/>
+      <c r="D19" s="125"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="128"/>
+      <c r="D20" s="125"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="129"/>
+      <c r="D21" s="124"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1818,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="119" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1824,7 +1827,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="127" t="s">
+      <c r="D25" s="123" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1835,27 +1838,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="133"/>
+      <c r="D26" s="122"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="129"/>
+      <c r="D27" s="124"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1882,7 +1885,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="119" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1899,7 +1902,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1914,14 +1917,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="141" t="s">
+      <c r="A31" s="135"/>
+      <c r="B31" s="133" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="133">
+      <c r="D31" s="122">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1932,25 +1935,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
-      <c r="B32" s="141"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="133"/>
+      <c r="D32" s="122"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
-      <c r="B33" s="141" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="133" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="133">
+      <c r="D33" s="122">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1961,12 +1964,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="141"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="133"/>
+      <c r="D34" s="122"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1975,7 +1978,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -2013,7 +2016,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="119" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2033,7 +2036,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -2048,7 +2051,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -2063,8 +2066,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="144"/>
-      <c r="B40" s="141" t="s">
+      <c r="A40" s="120"/>
+      <c r="B40" s="133" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -2078,8 +2081,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="145"/>
-      <c r="B41" s="142"/>
+      <c r="A41" s="121"/>
+      <c r="B41" s="134"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2110,7 +2113,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="143" t="s">
+      <c r="A43" s="119" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2119,7 +2122,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="127" t="s">
+      <c r="D43" s="123" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2130,14 +2133,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="145"/>
+      <c r="A44" s="121"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="129"/>
+      <c r="D44" s="124"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2149,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="143" t="s">
+      <c r="A45" s="119" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2155,7 +2158,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="127" t="s">
+      <c r="D45" s="123" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2163,56 +2166,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="133"/>
-      <c r="E46" s="133" t="s">
+      <c r="D46" s="122"/>
+      <c r="E46" s="122" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
+      <c r="D47" s="122"/>
+      <c r="E47" s="122"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="144"/>
+      <c r="A48" s="120"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="133"/>
-      <c r="E48" s="133"/>
+      <c r="D48" s="122"/>
+      <c r="E48" s="122"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="145"/>
+      <c r="A49" s="121"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="129"/>
+      <c r="D49" s="124"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="143" t="s">
+      <c r="A50" s="119" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2221,7 +2224,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="127" t="s">
+      <c r="D50" s="123" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2229,27 +2232,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="144"/>
+      <c r="A51" s="120"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="133"/>
+      <c r="D51" s="122"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="145"/>
+      <c r="A52" s="121"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="129"/>
+      <c r="D52" s="124"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2330,27 +2333,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2361,6 +2343,27 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2369,60 +2372,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:L155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F153" sqref="F153"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="89"/>
+    <col min="1" max="1" width="11.42578125" style="82"/>
     <col min="2" max="2" width="61" style="53" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="14" style="45" customWidth="1"/>
     <col min="5" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="13.42578125" style="72" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="162" customWidth="1"/>
     <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="11" max="11" width="21.28515625" style="108" customWidth="1"/>
+    <col min="11" max="11" width="21.28515625" style="94" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+      <c r="A1" s="153" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="131" t="s">
+      <c r="B1" s="137" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="131" t="s">
+      <c r="C1" s="137" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="G1" s="72" t="s">
+      <c r="F1" s="161"/>
+      <c r="G1" s="162" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="161"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="151" t="s">
+      <c r="K1" s="160" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="156"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
+      <c r="A2" s="153"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2432,7 +2435,7 @@
       <c r="F2" s="55" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="163" t="s">
         <v>123</v>
       </c>
       <c r="H2" s="55" t="s">
@@ -2444,2780 +2447,2805 @@
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="151"/>
+      <c r="K2" s="160"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122">
+      <c r="A3" s="106">
         <v>1</v>
       </c>
-      <c r="B3" s="130" t="s">
+      <c r="B3" s="136" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="74"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
-      <c r="J3" s="155">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="164"/>
+      <c r="H3" s="59"/>
+      <c r="I3" s="59"/>
+      <c r="J3" s="143">
         <v>1</v>
       </c>
-      <c r="K3" s="106"/>
+      <c r="K3" s="92"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="123">
+      <c r="A4" s="107">
         <v>2</v>
       </c>
-      <c r="B4" s="131"/>
+      <c r="B4" s="137"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="56"/>
       <c r="F4" s="56"/>
-      <c r="G4" s="75"/>
+      <c r="G4" s="165"/>
       <c r="H4" s="56"/>
       <c r="I4" s="56"/>
-      <c r="J4" s="135"/>
-      <c r="K4" s="107"/>
+      <c r="J4" s="132"/>
+      <c r="K4" s="93"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="123">
+      <c r="A5" s="107">
         <v>3</v>
       </c>
-      <c r="B5" s="131"/>
+      <c r="B5" s="137"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="56"/>
       <c r="F5" s="56"/>
-      <c r="G5" s="75"/>
+      <c r="G5" s="165"/>
       <c r="H5" s="56"/>
       <c r="I5" s="56"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="107"/>
+      <c r="J5" s="132"/>
+      <c r="K5" s="93"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="124">
+      <c r="A6" s="108">
         <v>4</v>
       </c>
-      <c r="B6" s="132"/>
+      <c r="B6" s="138"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="55"/>
       <c r="F6" s="55"/>
-      <c r="G6" s="73"/>
+      <c r="G6" s="163"/>
       <c r="H6" s="55"/>
       <c r="I6" s="55"/>
-      <c r="J6" s="138"/>
-      <c r="K6" s="107"/>
-    </row>
-    <row r="7" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="122">
+      <c r="J6" s="128"/>
+      <c r="K6" s="93"/>
+    </row>
+    <row r="7" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="106">
         <v>5</v>
       </c>
-      <c r="B7" s="130" t="s">
+      <c r="B7" s="136" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="86" t="s">
+      <c r="C7" s="80" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="82">
-        <v>1</v>
-      </c>
-      <c r="E7" s="61">
+      <c r="D7" s="76">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="60">
         <v>43121</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="60">
         <v>43121</v>
       </c>
-      <c r="G7" s="74">
-        <v>1</v>
-      </c>
-      <c r="H7" s="61">
+      <c r="G7" s="164">
+        <v>0.04</v>
+      </c>
+      <c r="H7" s="60">
         <v>43121</v>
       </c>
-      <c r="I7" s="61">
+      <c r="I7" s="60">
         <v>43121</v>
       </c>
-      <c r="J7" s="155">
+      <c r="J7" s="143">
         <v>0.25</v>
       </c>
-      <c r="K7" s="106"/>
+      <c r="K7" s="92"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="123">
+      <c r="A8" s="107">
         <v>6</v>
       </c>
-      <c r="B8" s="131"/>
-      <c r="C8" s="87" t="s">
+      <c r="B8" s="137"/>
+      <c r="C8" s="81" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="56"/>
-      <c r="F8" s="56"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
-      <c r="J8" s="135"/>
+      <c r="D8" s="77">
+        <v>0.25</v>
+      </c>
+      <c r="E8" s="61">
+        <v>43126</v>
+      </c>
+      <c r="F8" s="61">
+        <v>43126</v>
+      </c>
+      <c r="G8" s="111">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="61">
+        <v>43126</v>
+      </c>
+      <c r="I8" s="61">
+        <v>43126</v>
+      </c>
+      <c r="J8" s="132"/>
+      <c r="K8" s="93"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="123">
+      <c r="A9" s="107">
         <v>7</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="87" t="s">
+      <c r="B9" s="137"/>
+      <c r="C9" s="81" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="83"/>
+      <c r="D9" s="77"/>
       <c r="E9" s="56"/>
       <c r="F9" s="56"/>
-      <c r="G9" s="75"/>
+      <c r="G9" s="165"/>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
-      <c r="J9" s="135"/>
+      <c r="J9" s="132"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="124">
+      <c r="A10" s="108">
         <v>8</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="138"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="78"/>
       <c r="E10" s="55"/>
       <c r="F10" s="55"/>
-      <c r="G10" s="73"/>
+      <c r="G10" s="163"/>
       <c r="H10" s="55"/>
       <c r="I10" s="55"/>
-      <c r="J10" s="138"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="122">
+      <c r="A11" s="106">
         <v>9</v>
       </c>
-      <c r="B11" s="130" t="s">
+      <c r="B11" s="136" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="44">
-        <v>1</v>
-      </c>
-      <c r="E11" s="58">
+        <v>0.13</v>
+      </c>
+      <c r="E11" s="57">
         <v>43118</v>
       </c>
-      <c r="F11" s="58">
+      <c r="F11" s="57">
         <v>42753</v>
       </c>
-      <c r="G11" s="72">
-        <v>1</v>
-      </c>
-      <c r="H11" s="70">
+      <c r="G11" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="H11" s="69">
         <v>43118</v>
       </c>
-      <c r="I11" s="65">
+      <c r="I11" s="64">
         <v>43118</v>
       </c>
-      <c r="J11" s="155">
+      <c r="J11" s="143">
         <v>0.25</v>
       </c>
-      <c r="K11" s="107"/>
+      <c r="K11" s="93"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="123">
+      <c r="A12" s="107">
         <v>10</v>
       </c>
-      <c r="B12" s="131"/>
+      <c r="B12" s="137"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="58"/>
-      <c r="F12" s="58"/>
-      <c r="H12" s="71"/>
-      <c r="I12" s="58"/>
-      <c r="J12" s="135"/>
+      <c r="D12" s="175">
+        <v>0.25</v>
+      </c>
+      <c r="E12" s="61">
+        <v>43126</v>
+      </c>
+      <c r="F12" s="61">
+        <v>43126</v>
+      </c>
+      <c r="G12" s="111">
+        <v>0.25</v>
+      </c>
+      <c r="H12" s="61">
+        <v>43126</v>
+      </c>
+      <c r="I12" s="61">
+        <v>43126</v>
+      </c>
+      <c r="J12" s="132"/>
+      <c r="K12" s="93"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="123">
+      <c r="A13" s="107">
         <v>11</v>
       </c>
-      <c r="B13" s="131"/>
+      <c r="B13" s="137"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="49"/>
-      <c r="E13" s="58"/>
-      <c r="F13" s="58"/>
-      <c r="H13" s="71"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="135"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="124">
+      <c r="A14" s="108">
         <v>12</v>
       </c>
-      <c r="B14" s="132"/>
+      <c r="B14" s="138"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="73"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="138"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="68"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="128"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="122">
+      <c r="A15" s="106">
         <v>13</v>
       </c>
-      <c r="B15" s="130" t="s">
+      <c r="B15" s="136" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="80" t="s">
+      <c r="C15" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="77">
-        <v>1</v>
-      </c>
-      <c r="E15" s="58">
+      <c r="D15" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="E15" s="57">
         <v>43118</v>
       </c>
-      <c r="F15" s="58">
+      <c r="F15" s="57">
         <v>42753</v>
       </c>
-      <c r="G15" s="72">
-        <v>1</v>
-      </c>
-      <c r="H15" s="70">
+      <c r="G15" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="H15" s="69">
         <v>43118</v>
       </c>
-      <c r="I15" s="65">
+      <c r="I15" s="64">
         <v>43118</v>
       </c>
-      <c r="J15" s="155">
+      <c r="J15" s="143">
         <v>0.25</v>
       </c>
-      <c r="K15" s="107"/>
+      <c r="K15" s="93"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="123">
+      <c r="A16" s="107">
         <v>14</v>
       </c>
-      <c r="B16" s="131"/>
-      <c r="C16" s="81" t="s">
+      <c r="B16" s="137"/>
+      <c r="C16" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="79"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="58"/>
-      <c r="H16" s="71"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="135"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="123">
+      <c r="A17" s="107">
         <v>15</v>
       </c>
-      <c r="B17" s="131"/>
-      <c r="C17" s="81" t="s">
+      <c r="B17" s="137"/>
+      <c r="C17" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="79"/>
-      <c r="E17" s="58"/>
-      <c r="F17" s="58"/>
-      <c r="H17" s="71"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="135"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="57"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="61"/>
+      <c r="J17" s="132"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="124">
+      <c r="A18" s="108">
         <v>16</v>
       </c>
-      <c r="B18" s="132"/>
+      <c r="B18" s="138"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="78"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="73"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="138"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="163"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="122">
+      <c r="A19" s="106">
         <v>17</v>
       </c>
-      <c r="B19" s="130" t="s">
+      <c r="B19" s="136" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="80" t="s">
+      <c r="C19" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="77">
-        <v>1</v>
-      </c>
-      <c r="E19" s="58">
+      <c r="D19" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="E19" s="57">
         <v>43118</v>
       </c>
-      <c r="F19" s="58">
+      <c r="F19" s="57">
         <v>42753</v>
       </c>
-      <c r="G19" s="72">
-        <v>1</v>
-      </c>
-      <c r="H19" s="70">
+      <c r="G19" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="H19" s="69">
         <v>43118</v>
       </c>
-      <c r="I19" s="65">
+      <c r="I19" s="64">
         <v>43118</v>
       </c>
-      <c r="J19" s="155">
+      <c r="J19" s="143">
         <v>0.25</v>
       </c>
-      <c r="K19" s="107"/>
+      <c r="K19" s="93"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="123">
+      <c r="A20" s="107">
         <v>18</v>
       </c>
-      <c r="B20" s="131"/>
-      <c r="C20" s="81" t="s">
+      <c r="B20" s="137"/>
+      <c r="C20" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="79"/>
-      <c r="E20" s="58"/>
-      <c r="F20" s="58"/>
-      <c r="H20" s="71"/>
-      <c r="I20" s="58"/>
-      <c r="J20" s="135"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="57"/>
+      <c r="F20" s="57"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="132"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="123">
+      <c r="A21" s="107">
         <v>19</v>
       </c>
-      <c r="B21" s="131"/>
-      <c r="C21" s="81" t="s">
+      <c r="B21" s="137"/>
+      <c r="C21" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="58"/>
-      <c r="F21" s="58"/>
-      <c r="H21" s="71"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="135"/>
+      <c r="D21" s="73"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="61"/>
+      <c r="J21" s="132"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="124">
+      <c r="A22" s="108">
         <v>20</v>
       </c>
-      <c r="B22" s="132"/>
+      <c r="B22" s="138"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="78"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="138"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="65"/>
+      <c r="F22" s="65"/>
+      <c r="G22" s="163"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="122">
+      <c r="A23" s="106">
         <v>21</v>
       </c>
-      <c r="B23" s="130" t="s">
+      <c r="B23" s="136" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="80" t="s">
+      <c r="C23" s="74" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="77">
-        <v>1</v>
-      </c>
-      <c r="E23" s="58">
+      <c r="D23" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="E23" s="57">
         <v>43118</v>
       </c>
-      <c r="F23" s="58">
+      <c r="F23" s="57">
         <v>42753</v>
       </c>
-      <c r="G23" s="72">
-        <v>1</v>
-      </c>
-      <c r="H23" s="70">
+      <c r="G23" s="110">
+        <v>0.13</v>
+      </c>
+      <c r="H23" s="69">
         <v>43118</v>
       </c>
-      <c r="I23" s="65">
+      <c r="I23" s="64">
         <v>43118</v>
       </c>
-      <c r="J23" s="155">
+      <c r="J23" s="143">
         <v>0.25</v>
       </c>
-      <c r="K23" s="107"/>
+      <c r="K23" s="93"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="123">
+      <c r="A24" s="107">
         <v>22</v>
       </c>
-      <c r="B24" s="131"/>
-      <c r="C24" s="81" t="s">
+      <c r="B24" s="137"/>
+      <c r="C24" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="58"/>
-      <c r="F24" s="58"/>
-      <c r="H24" s="71"/>
-      <c r="I24" s="58"/>
-      <c r="J24" s="135"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="132"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="123">
+      <c r="A25" s="107">
         <v>23</v>
       </c>
-      <c r="B25" s="131"/>
-      <c r="C25" s="81" t="s">
+      <c r="B25" s="137"/>
+      <c r="C25" s="75" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="79"/>
-      <c r="E25" s="58"/>
-      <c r="F25" s="58"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="135"/>
+      <c r="D25" s="73"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="61"/>
+      <c r="J25" s="132"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="124">
+      <c r="A26" s="108">
         <v>24</v>
       </c>
-      <c r="B26" s="132"/>
+      <c r="B26" s="138"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="78"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="73"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="63"/>
-      <c r="J26" s="138"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="163"/>
+      <c r="H26" s="68"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="128"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="122">
+      <c r="A27" s="106">
         <v>25</v>
       </c>
-      <c r="B27" s="130" t="s">
+      <c r="B27" s="136" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="44">
-        <v>1</v>
-      </c>
-      <c r="E27" s="65">
+      <c r="D27" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="E27" s="64">
         <v>43119</v>
       </c>
-      <c r="F27" s="65">
+      <c r="F27" s="64">
         <v>43119</v>
       </c>
-      <c r="G27" s="72">
-        <v>1</v>
-      </c>
-      <c r="H27" s="70">
+      <c r="G27" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H27" s="69">
         <v>43121</v>
       </c>
-      <c r="I27" s="65">
+      <c r="I27" s="64">
         <v>43121</v>
       </c>
-      <c r="J27" s="155">
+      <c r="J27" s="143">
         <v>0.25</v>
       </c>
-      <c r="K27" s="107"/>
+      <c r="K27" s="93"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="123">
+      <c r="A28" s="107">
         <v>26</v>
       </c>
-      <c r="B28" s="131"/>
+      <c r="B28" s="137"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D28" s="49"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58"/>
-      <c r="H28" s="71"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="H28" s="70"/>
       <c r="I28" s="56"/>
-      <c r="J28" s="135"/>
+      <c r="J28" s="132"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="123">
+      <c r="A29" s="107">
         <v>27</v>
       </c>
-      <c r="B29" s="131"/>
+      <c r="B29" s="137"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="49"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="58"/>
-      <c r="H29" s="71"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="H29" s="70"/>
       <c r="I29" s="56"/>
-      <c r="J29" s="135"/>
+      <c r="J29" s="132"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="124">
+      <c r="A30" s="108">
         <v>28</v>
       </c>
-      <c r="B30" s="132"/>
+      <c r="B30" s="138"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="46"/>
-      <c r="E30" s="66"/>
-      <c r="F30" s="66"/>
-      <c r="G30" s="73"/>
-      <c r="H30" s="69"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="65"/>
+      <c r="G30" s="163"/>
+      <c r="H30" s="68"/>
       <c r="I30" s="55"/>
-      <c r="J30" s="138"/>
+      <c r="J30" s="128"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="122">
+      <c r="A31" s="106">
         <v>29</v>
       </c>
-      <c r="B31" s="130" t="s">
+      <c r="B31" s="136" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="44">
-        <v>1</v>
-      </c>
-      <c r="E31" s="65">
+      <c r="D31" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="E31" s="64">
         <v>43119</v>
       </c>
-      <c r="F31" s="65">
+      <c r="F31" s="64">
         <v>43119</v>
       </c>
-      <c r="G31" s="72">
-        <v>1</v>
-      </c>
-      <c r="H31" s="70">
+      <c r="G31" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H31" s="69">
         <v>43121</v>
       </c>
-      <c r="I31" s="65">
+      <c r="I31" s="64">
         <v>43121</v>
       </c>
-      <c r="J31" s="155">
+      <c r="J31" s="143">
         <v>0.25</v>
       </c>
-      <c r="K31" s="107"/>
+      <c r="K31" s="93"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="123">
+      <c r="A32" s="107">
         <v>30</v>
       </c>
-      <c r="B32" s="131"/>
+      <c r="B32" s="137"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="49"/>
-      <c r="E32" s="58"/>
-      <c r="F32" s="58"/>
-      <c r="H32" s="71"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="H32" s="70"/>
       <c r="I32" s="56"/>
-      <c r="J32" s="135"/>
+      <c r="J32" s="132"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="123">
+      <c r="A33" s="107">
         <v>31</v>
       </c>
-      <c r="B33" s="131"/>
+      <c r="B33" s="137"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="58"/>
-      <c r="F33" s="58"/>
-      <c r="H33" s="71"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="H33" s="70"/>
       <c r="I33" s="56"/>
-      <c r="J33" s="135"/>
+      <c r="J33" s="132"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="124">
+      <c r="A34" s="108">
         <v>32</v>
       </c>
-      <c r="B34" s="132"/>
+      <c r="B34" s="138"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D34" s="46"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="73"/>
-      <c r="H34" s="69"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="163"/>
+      <c r="H34" s="68"/>
       <c r="I34" s="55"/>
-      <c r="J34" s="138"/>
+      <c r="J34" s="128"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="122">
+      <c r="A35" s="106">
         <v>33</v>
       </c>
-      <c r="B35" s="130" t="s">
+      <c r="B35" s="136" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="44">
-        <v>1</v>
-      </c>
-      <c r="E35" s="65">
+      <c r="D35" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="E35" s="64">
         <v>43119</v>
       </c>
-      <c r="F35" s="65">
+      <c r="F35" s="64">
         <v>43119</v>
       </c>
-      <c r="G35" s="72">
-        <v>1</v>
-      </c>
-      <c r="H35" s="102">
+      <c r="G35" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H35" s="89">
         <v>43121</v>
       </c>
-      <c r="I35" s="103">
+      <c r="I35" s="90">
         <v>43121</v>
       </c>
-      <c r="J35" s="155">
+      <c r="J35" s="143">
         <v>0.25</v>
       </c>
-      <c r="K35" s="107"/>
-      <c r="L35" s="109" t="s">
+      <c r="K35" s="93"/>
+      <c r="L35" s="95" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="123">
+      <c r="A36" s="107">
         <v>34</v>
       </c>
-      <c r="B36" s="131"/>
+      <c r="B36" s="137"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D36" s="49"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
-      <c r="H36" s="71"/>
+      <c r="H36" s="70"/>
       <c r="I36" s="56"/>
-      <c r="J36" s="135"/>
-      <c r="L36" s="109" t="s">
+      <c r="J36" s="132"/>
+      <c r="L36" s="95" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="123">
+      <c r="A37" s="107">
         <v>35</v>
       </c>
-      <c r="B37" s="131"/>
+      <c r="B37" s="137"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="49"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
-      <c r="H37" s="71"/>
+      <c r="H37" s="70"/>
       <c r="I37" s="56"/>
-      <c r="J37" s="135"/>
-      <c r="K37" s="110"/>
+      <c r="J37" s="132"/>
+      <c r="K37" s="96"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="124">
+      <c r="A38" s="108">
         <v>36</v>
       </c>
-      <c r="B38" s="132"/>
+      <c r="B38" s="138"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="46"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="73"/>
-      <c r="H38" s="69"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="163"/>
+      <c r="H38" s="68"/>
       <c r="I38" s="55"/>
-      <c r="J38" s="138"/>
-      <c r="K38" s="110"/>
+      <c r="J38" s="128"/>
+      <c r="K38" s="96"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="122">
+      <c r="A39" s="106">
         <v>37</v>
       </c>
-      <c r="B39" s="152" t="s">
+      <c r="B39" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="44">
-        <v>1</v>
-      </c>
-      <c r="E39" s="65">
+      <c r="D39" s="110">
+        <v>0.25</v>
+      </c>
+      <c r="E39" s="64">
         <v>43119</v>
       </c>
-      <c r="F39" s="65">
+      <c r="F39" s="64">
         <v>43119</v>
       </c>
-      <c r="G39" s="72">
-        <v>1</v>
-      </c>
-      <c r="H39" s="102">
+      <c r="G39" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H39" s="89">
         <v>43121</v>
       </c>
-      <c r="I39" s="103">
+      <c r="I39" s="90">
         <v>43121</v>
       </c>
-      <c r="J39" s="155">
+      <c r="J39" s="143">
         <v>0.25</v>
       </c>
-      <c r="K39" s="107"/>
+      <c r="K39" s="93"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="123">
+      <c r="A40" s="107">
         <v>38</v>
       </c>
-      <c r="B40" s="153"/>
+      <c r="B40" s="148"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="49"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
-      <c r="G40" s="75"/>
       <c r="H40" s="56"/>
       <c r="I40" s="56"/>
-      <c r="J40" s="135"/>
+      <c r="J40" s="132"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="123">
+      <c r="A41" s="107">
         <v>39</v>
       </c>
-      <c r="B41" s="153"/>
+      <c r="B41" s="148"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="49"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
-      <c r="G41" s="75"/>
       <c r="H41" s="56"/>
       <c r="I41" s="56"/>
-      <c r="J41" s="135"/>
+      <c r="J41" s="132"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="124">
+      <c r="A42" s="108">
         <v>40</v>
       </c>
-      <c r="B42" s="154"/>
+      <c r="B42" s="149"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D42" s="46"/>
-      <c r="E42" s="64"/>
-      <c r="F42" s="64"/>
-      <c r="G42" s="73"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="63"/>
+      <c r="G42" s="163"/>
       <c r="H42" s="55"/>
       <c r="I42" s="55"/>
-      <c r="J42" s="138"/>
+      <c r="J42" s="128"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="122">
+      <c r="A43" s="106">
         <v>41</v>
       </c>
-      <c r="B43" s="130" t="s">
+      <c r="B43" s="136" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="59" t="s">
+      <c r="C43" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D43" s="44">
-        <v>1</v>
-      </c>
-      <c r="E43" s="65">
+        <v>0.33</v>
+      </c>
+      <c r="E43" s="64">
         <v>43120</v>
       </c>
-      <c r="F43" s="65">
+      <c r="F43" s="64">
         <v>43120</v>
       </c>
-      <c r="G43" s="72">
-        <v>1</v>
-      </c>
-      <c r="H43" s="102">
+      <c r="G43" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="89">
         <v>43121</v>
       </c>
-      <c r="I43" s="103">
+      <c r="I43" s="90">
         <v>43121</v>
       </c>
-      <c r="J43" s="155">
+      <c r="J43" s="143">
         <v>0.25</v>
       </c>
-      <c r="K43" s="107"/>
+      <c r="K43" s="93"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="123">
+      <c r="A44" s="107">
         <v>42</v>
       </c>
-      <c r="B44" s="131"/>
+      <c r="B44" s="137"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D44" s="49"/>
-      <c r="E44" s="67"/>
+      <c r="E44" s="66"/>
       <c r="F44" s="56"/>
-      <c r="G44" s="75"/>
       <c r="H44" s="56"/>
       <c r="I44" s="56"/>
-      <c r="J44" s="135"/>
+      <c r="J44" s="132"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="123">
+      <c r="A45" s="107">
         <v>43</v>
       </c>
-      <c r="B45" s="131"/>
+      <c r="B45" s="137"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="49"/>
-      <c r="E45" s="67"/>
+      <c r="E45" s="66"/>
       <c r="F45" s="56"/>
-      <c r="G45" s="75"/>
       <c r="H45" s="56"/>
       <c r="I45" s="56"/>
-      <c r="J45" s="135"/>
+      <c r="J45" s="132"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="124">
+      <c r="A46" s="108">
         <v>44</v>
       </c>
-      <c r="B46" s="132"/>
+      <c r="B46" s="138"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="46"/>
-      <c r="E46" s="68"/>
+      <c r="E46" s="67"/>
       <c r="F46" s="55"/>
-      <c r="G46" s="73"/>
+      <c r="G46" s="163"/>
       <c r="H46" s="55"/>
       <c r="I46" s="55"/>
-      <c r="J46" s="138"/>
+      <c r="J46" s="128"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="122">
+      <c r="A47" s="106">
         <v>45</v>
       </c>
-      <c r="B47" s="130" t="s">
+      <c r="B47" s="136" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="44">
-        <v>1</v>
-      </c>
-      <c r="E47" s="65">
+      <c r="D47" s="110">
+        <v>0.33</v>
+      </c>
+      <c r="E47" s="64">
         <v>43120</v>
       </c>
-      <c r="F47" s="65">
+      <c r="F47" s="64">
         <v>43120</v>
       </c>
-      <c r="G47" s="72">
-        <v>1</v>
-      </c>
-      <c r="H47" s="102">
+      <c r="G47" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H47" s="89">
         <v>43121</v>
       </c>
-      <c r="I47" s="103">
+      <c r="I47" s="90">
         <v>43121</v>
       </c>
-      <c r="J47" s="155">
+      <c r="J47" s="143">
         <v>0.25</v>
       </c>
-      <c r="K47" s="107"/>
+      <c r="K47" s="93"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="123">
+      <c r="A48" s="107">
         <v>46</v>
       </c>
-      <c r="B48" s="131"/>
+      <c r="B48" s="137"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D48" s="49"/>
-      <c r="E48" s="67"/>
+      <c r="E48" s="66"/>
       <c r="F48" s="56"/>
-      <c r="G48" s="75"/>
       <c r="H48" s="56"/>
       <c r="I48" s="56"/>
-      <c r="J48" s="135"/>
+      <c r="J48" s="132"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="123">
+      <c r="A49" s="107">
         <v>47</v>
       </c>
-      <c r="B49" s="131"/>
+      <c r="B49" s="137"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="67"/>
+      <c r="E49" s="66"/>
       <c r="F49" s="56"/>
-      <c r="G49" s="75"/>
       <c r="H49" s="56"/>
       <c r="I49" s="56"/>
-      <c r="J49" s="135"/>
+      <c r="J49" s="132"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="124">
+      <c r="A50" s="108">
         <v>48</v>
       </c>
-      <c r="B50" s="132"/>
+      <c r="B50" s="138"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="46"/>
-      <c r="E50" s="68"/>
+      <c r="E50" s="67"/>
       <c r="F50" s="55"/>
-      <c r="G50" s="73"/>
+      <c r="G50" s="163"/>
       <c r="H50" s="55"/>
       <c r="I50" s="55"/>
-      <c r="J50" s="138"/>
+      <c r="J50" s="128"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="122">
+      <c r="A51" s="106">
         <v>49</v>
       </c>
-      <c r="B51" s="152" t="s">
+      <c r="B51" s="147" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="44">
-        <v>1</v>
-      </c>
-      <c r="E51" s="65">
+      <c r="D51" s="110">
+        <v>0.33</v>
+      </c>
+      <c r="E51" s="64">
         <v>43120</v>
       </c>
-      <c r="F51" s="65">
+      <c r="F51" s="64">
         <v>43120</v>
       </c>
-      <c r="G51" s="72">
-        <v>1</v>
-      </c>
-      <c r="H51" s="102">
+      <c r="G51" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H51" s="89">
         <v>43121</v>
       </c>
-      <c r="I51" s="103">
+      <c r="I51" s="90">
         <v>43121</v>
       </c>
-      <c r="J51" s="155">
+      <c r="J51" s="143">
         <v>0.25</v>
       </c>
-      <c r="K51" s="107"/>
+      <c r="K51" s="93"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="123">
+      <c r="A52" s="107">
         <v>50</v>
       </c>
-      <c r="B52" s="153"/>
+      <c r="B52" s="148"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D52" s="49"/>
       <c r="E52" s="56"/>
       <c r="F52" s="56"/>
-      <c r="G52" s="75"/>
       <c r="H52" s="56"/>
       <c r="I52" s="56"/>
-      <c r="J52" s="135"/>
+      <c r="J52" s="132"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="123">
+      <c r="A53" s="107">
         <v>51</v>
       </c>
-      <c r="B53" s="153"/>
+      <c r="B53" s="148"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="49"/>
       <c r="E53" s="56"/>
       <c r="F53" s="56"/>
-      <c r="G53" s="75"/>
       <c r="H53" s="56"/>
       <c r="I53" s="56"/>
-      <c r="J53" s="135"/>
+      <c r="J53" s="132"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="124">
+      <c r="A54" s="108">
         <v>52</v>
       </c>
-      <c r="B54" s="154"/>
+      <c r="B54" s="149"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="46"/>
       <c r="E54" s="55"/>
       <c r="F54" s="55"/>
-      <c r="G54" s="73"/>
+      <c r="G54" s="163"/>
       <c r="H54" s="55"/>
       <c r="I54" s="55"/>
-      <c r="J54" s="138"/>
-    </row>
-    <row r="55" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="122">
+      <c r="J54" s="128"/>
+    </row>
+    <row r="55" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="106">
         <v>53</v>
       </c>
-      <c r="B55" s="152" t="s">
+      <c r="B55" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="104" t="s">
+      <c r="C55" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="90">
-        <v>1</v>
-      </c>
-      <c r="E55" s="111">
+      <c r="D55" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E55" s="97">
         <v>43121</v>
       </c>
-      <c r="F55" s="111">
+      <c r="F55" s="97">
         <v>43121</v>
       </c>
-      <c r="G55" s="105">
-        <v>1</v>
-      </c>
-      <c r="H55" s="111">
+      <c r="G55" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H55" s="97">
         <v>43121</v>
       </c>
-      <c r="I55" s="111">
+      <c r="I55" s="97">
         <v>43121</v>
       </c>
-      <c r="J55" s="155">
+      <c r="J55" s="143">
         <v>0.25</v>
       </c>
-      <c r="K55" s="107"/>
-    </row>
-    <row r="56" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="123">
+      <c r="K55" s="93"/>
+    </row>
+    <row r="56" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="107">
         <v>54</v>
       </c>
-      <c r="B56" s="153"/>
-      <c r="C56" s="114" t="s">
+      <c r="B56" s="148"/>
+      <c r="C56" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="91"/>
-      <c r="E56" s="115"/>
-      <c r="F56" s="116"/>
-      <c r="G56" s="117"/>
-      <c r="H56" s="116"/>
-      <c r="I56" s="116"/>
-      <c r="J56" s="135"/>
-      <c r="K56" s="112"/>
-    </row>
-    <row r="57" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="123">
+      <c r="D56" s="162"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="162"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="132"/>
+      <c r="K56" s="98"/>
+    </row>
+    <row r="57" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="107">
         <v>55</v>
       </c>
-      <c r="B57" s="153"/>
-      <c r="C57" s="114" t="s">
+      <c r="B57" s="148"/>
+      <c r="C57" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="91"/>
-      <c r="E57" s="115"/>
-      <c r="F57" s="116"/>
-      <c r="G57" s="117"/>
-      <c r="H57" s="116"/>
-      <c r="I57" s="116"/>
-      <c r="J57" s="135"/>
-      <c r="K57" s="112"/>
-    </row>
-    <row r="58" spans="1:11" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="124">
+      <c r="D57" s="162"/>
+      <c r="E57" s="101"/>
+      <c r="F57" s="102"/>
+      <c r="G57" s="162"/>
+      <c r="H57" s="102"/>
+      <c r="I57" s="102"/>
+      <c r="J57" s="132"/>
+      <c r="K57" s="98"/>
+    </row>
+    <row r="58" spans="1:11" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="108">
         <v>56</v>
       </c>
-      <c r="B58" s="154"/>
-      <c r="C58" s="118" t="s">
+      <c r="B58" s="149"/>
+      <c r="C58" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="92"/>
-      <c r="E58" s="119"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="138"/>
-      <c r="K58" s="112"/>
-    </row>
-    <row r="59" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="122">
+      <c r="D58" s="163"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="105"/>
+      <c r="G58" s="163"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
+      <c r="J58" s="128"/>
+      <c r="K58" s="98"/>
+    </row>
+    <row r="59" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="106">
         <v>57</v>
       </c>
-      <c r="B59" s="152" t="s">
+      <c r="B59" s="147" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="104" t="s">
+      <c r="C59" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="90">
-        <v>1</v>
-      </c>
-      <c r="E59" s="111">
+      <c r="D59" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E59" s="97">
         <v>43121</v>
       </c>
-      <c r="F59" s="111">
+      <c r="F59" s="97">
         <v>43121</v>
       </c>
-      <c r="G59" s="105">
-        <v>1</v>
-      </c>
-      <c r="H59" s="111">
+      <c r="G59" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H59" s="97">
         <v>43121</v>
       </c>
-      <c r="I59" s="111">
+      <c r="I59" s="97">
         <v>43121</v>
       </c>
-      <c r="J59" s="155">
+      <c r="J59" s="143">
         <v>0.25</v>
       </c>
-      <c r="K59" s="107"/>
-    </row>
-    <row r="60" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="123">
+      <c r="K59" s="93"/>
+    </row>
+    <row r="60" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="107">
         <v>58</v>
       </c>
-      <c r="B60" s="153"/>
-      <c r="C60" s="114" t="s">
+      <c r="B60" s="148"/>
+      <c r="C60" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="91"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="116"/>
-      <c r="G60" s="117"/>
-      <c r="H60" s="116"/>
-      <c r="I60" s="116"/>
-      <c r="J60" s="135"/>
-      <c r="K60" s="112"/>
-    </row>
-    <row r="61" spans="1:11" s="113" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="123">
+      <c r="D60" s="162"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="102"/>
+      <c r="G60" s="162"/>
+      <c r="H60" s="102"/>
+      <c r="I60" s="102"/>
+      <c r="J60" s="132"/>
+      <c r="K60" s="98"/>
+    </row>
+    <row r="61" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="107">
         <v>59</v>
       </c>
-      <c r="B61" s="153"/>
-      <c r="C61" s="114" t="s">
+      <c r="B61" s="148"/>
+      <c r="C61" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="91"/>
-      <c r="E61" s="115"/>
-      <c r="F61" s="116"/>
-      <c r="G61" s="117"/>
-      <c r="H61" s="116"/>
-      <c r="I61" s="116"/>
-      <c r="J61" s="135"/>
-      <c r="K61" s="112"/>
-    </row>
-    <row r="62" spans="1:11" s="113" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="124">
+      <c r="D61" s="162"/>
+      <c r="E61" s="101"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="162"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="132"/>
+      <c r="K61" s="98"/>
+    </row>
+    <row r="62" spans="1:11" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="108">
         <v>60</v>
       </c>
-      <c r="B62" s="154"/>
-      <c r="C62" s="118" t="s">
+      <c r="B62" s="149"/>
+      <c r="C62" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="92"/>
-      <c r="E62" s="119"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="121"/>
-      <c r="H62" s="120"/>
-      <c r="I62" s="120"/>
-      <c r="J62" s="138"/>
-      <c r="K62" s="112"/>
+      <c r="D62" s="163"/>
+      <c r="E62" s="104"/>
+      <c r="F62" s="105"/>
+      <c r="G62" s="163"/>
+      <c r="H62" s="105"/>
+      <c r="I62" s="105"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="98"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="122">
+      <c r="A63" s="106">
         <v>61</v>
       </c>
-      <c r="B63" s="152" t="s">
+      <c r="B63" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="44">
-        <v>1</v>
-      </c>
-      <c r="E63" s="111">
+      <c r="D63" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E63" s="97">
         <v>43121</v>
       </c>
-      <c r="F63" s="111">
+      <c r="F63" s="97">
         <v>43121</v>
       </c>
-      <c r="G63" s="105">
-        <v>1</v>
-      </c>
-      <c r="H63" s="111">
+      <c r="G63" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H63" s="97">
         <v>43121</v>
       </c>
-      <c r="I63" s="111">
+      <c r="I63" s="97">
         <v>43121</v>
       </c>
-      <c r="J63" s="155">
+      <c r="J63" s="143">
         <v>0.25</v>
       </c>
-      <c r="K63" s="107"/>
+      <c r="K63" s="93"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="123">
+      <c r="A64" s="107">
         <v>62</v>
       </c>
-      <c r="B64" s="153"/>
+      <c r="B64" s="148"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="49"/>
+      <c r="D64" s="162"/>
       <c r="E64" s="56"/>
       <c r="F64" s="56"/>
-      <c r="G64" s="75"/>
       <c r="H64" s="56"/>
       <c r="I64" s="56"/>
-      <c r="J64" s="135"/>
+      <c r="J64" s="132"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="123">
+      <c r="A65" s="107">
         <v>63</v>
       </c>
-      <c r="B65" s="153"/>
+      <c r="B65" s="148"/>
       <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="49"/>
+      <c r="D65" s="162"/>
       <c r="E65" s="56"/>
       <c r="F65" s="56"/>
-      <c r="G65" s="75"/>
       <c r="H65" s="56"/>
       <c r="I65" s="56"/>
-      <c r="J65" s="135"/>
+      <c r="J65" s="132"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="124">
+      <c r="A66" s="108">
         <v>64</v>
       </c>
-      <c r="B66" s="154"/>
+      <c r="B66" s="149"/>
       <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="46"/>
+      <c r="D66" s="163"/>
       <c r="E66" s="55"/>
       <c r="F66" s="55"/>
-      <c r="G66" s="73"/>
+      <c r="G66" s="163"/>
       <c r="H66" s="55"/>
       <c r="I66" s="55"/>
-      <c r="J66" s="138"/>
+      <c r="J66" s="128"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="122">
+      <c r="A67" s="106">
         <v>65</v>
       </c>
-      <c r="B67" s="152" t="s">
+      <c r="B67" s="147" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="59" t="s">
+      <c r="C67" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="44">
-        <v>1</v>
-      </c>
-      <c r="E67" s="111">
+      <c r="D67" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E67" s="97">
         <v>43121</v>
       </c>
-      <c r="F67" s="111">
+      <c r="F67" s="97">
         <v>43121</v>
       </c>
-      <c r="G67" s="105">
-        <v>1</v>
-      </c>
-      <c r="H67" s="111">
+      <c r="G67" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H67" s="97">
         <v>43121</v>
       </c>
-      <c r="I67" s="111">
+      <c r="I67" s="97">
         <v>43121</v>
       </c>
-      <c r="J67" s="155">
+      <c r="J67" s="143">
         <v>0.25</v>
       </c>
-      <c r="K67" s="107"/>
+      <c r="K67" s="93"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="123">
+      <c r="A68" s="107">
         <v>66</v>
       </c>
-      <c r="B68" s="153"/>
+      <c r="B68" s="148"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="49"/>
+      <c r="D68" s="162"/>
       <c r="E68" s="56"/>
       <c r="F68" s="56"/>
-      <c r="G68" s="75"/>
       <c r="H68" s="56"/>
       <c r="I68" s="56"/>
-      <c r="J68" s="135"/>
+      <c r="J68" s="132"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="123">
+      <c r="A69" s="107">
         <v>67</v>
       </c>
-      <c r="B69" s="153"/>
+      <c r="B69" s="148"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="49"/>
+      <c r="D69" s="162"/>
       <c r="E69" s="56"/>
       <c r="F69" s="56"/>
-      <c r="G69" s="75"/>
       <c r="H69" s="56"/>
       <c r="I69" s="56"/>
-      <c r="J69" s="135"/>
+      <c r="J69" s="132"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="124">
+      <c r="A70" s="108">
         <v>68</v>
       </c>
-      <c r="B70" s="154"/>
+      <c r="B70" s="149"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="46"/>
+      <c r="D70" s="163"/>
       <c r="E70" s="55"/>
       <c r="F70" s="55"/>
-      <c r="G70" s="73"/>
+      <c r="G70" s="163"/>
       <c r="H70" s="55"/>
       <c r="I70" s="55"/>
-      <c r="J70" s="138"/>
+      <c r="J70" s="128"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="122">
+      <c r="A71" s="106">
         <v>69</v>
       </c>
-      <c r="B71" s="130" t="s">
+      <c r="B71" s="136" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="44">
-        <v>1</v>
-      </c>
-      <c r="E71" s="111">
+      <c r="D71" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E71" s="97">
         <v>43121</v>
       </c>
-      <c r="F71" s="111">
+      <c r="F71" s="97">
         <v>43121</v>
       </c>
-      <c r="G71" s="105">
-        <v>1</v>
-      </c>
-      <c r="H71" s="111">
+      <c r="G71" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H71" s="97">
         <v>43121</v>
       </c>
-      <c r="I71" s="111">
+      <c r="I71" s="97">
         <v>43121</v>
       </c>
-      <c r="J71" s="155">
+      <c r="J71" s="143">
         <v>0.25</v>
       </c>
-      <c r="K71" s="107"/>
+      <c r="K71" s="93"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="123">
+      <c r="A72" s="107">
         <v>70</v>
       </c>
-      <c r="B72" s="131"/>
+      <c r="B72" s="137"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="49"/>
+      <c r="D72" s="162"/>
       <c r="E72" s="56"/>
       <c r="F72" s="56"/>
-      <c r="G72" s="75"/>
       <c r="H72" s="56"/>
       <c r="I72" s="56"/>
-      <c r="J72" s="135"/>
+      <c r="J72" s="132"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="123">
+      <c r="A73" s="107">
         <v>71</v>
       </c>
-      <c r="B73" s="131"/>
+      <c r="B73" s="137"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="49"/>
+      <c r="D73" s="162"/>
       <c r="E73" s="56"/>
       <c r="F73" s="56"/>
-      <c r="G73" s="75"/>
       <c r="H73" s="56"/>
       <c r="I73" s="56"/>
-      <c r="J73" s="135"/>
+      <c r="J73" s="132"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="124">
+      <c r="A74" s="108">
         <v>72</v>
       </c>
-      <c r="B74" s="132"/>
+      <c r="B74" s="138"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="46"/>
+      <c r="D74" s="163"/>
       <c r="E74" s="55"/>
       <c r="F74" s="55"/>
-      <c r="G74" s="73"/>
+      <c r="G74" s="163"/>
       <c r="H74" s="55"/>
       <c r="I74" s="55"/>
-      <c r="J74" s="138"/>
+      <c r="J74" s="128"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="122">
+      <c r="A75" s="106">
         <v>73</v>
       </c>
-      <c r="B75" s="130" t="s">
+      <c r="B75" s="136" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="59" t="s">
+      <c r="C75" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="44">
-        <v>1</v>
-      </c>
-      <c r="E75" s="111">
+      <c r="D75" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E75" s="97">
         <v>43121</v>
       </c>
-      <c r="F75" s="111">
+      <c r="F75" s="97">
         <v>43121</v>
       </c>
-      <c r="G75" s="105">
-        <v>1</v>
-      </c>
-      <c r="H75" s="111">
+      <c r="G75" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="H75" s="97">
         <v>43121</v>
       </c>
-      <c r="I75" s="111">
+      <c r="I75" s="97">
         <v>43121</v>
       </c>
-      <c r="J75" s="155">
+      <c r="J75" s="143">
         <v>0.25</v>
       </c>
-      <c r="K75" s="107"/>
+      <c r="K75" s="93"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="123">
+      <c r="A76" s="107">
         <v>74</v>
       </c>
-      <c r="B76" s="131"/>
+      <c r="B76" s="137"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="49"/>
+      <c r="D76" s="162"/>
       <c r="E76" s="56"/>
       <c r="F76" s="56"/>
-      <c r="G76" s="75"/>
       <c r="H76" s="56"/>
       <c r="I76" s="56"/>
-      <c r="J76" s="135"/>
+      <c r="J76" s="132"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="123">
+      <c r="A77" s="107">
         <v>75</v>
       </c>
-      <c r="B77" s="131"/>
+      <c r="B77" s="137"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="49"/>
+      <c r="D77" s="162"/>
       <c r="E77" s="56"/>
       <c r="F77" s="56"/>
-      <c r="G77" s="75"/>
       <c r="H77" s="56"/>
       <c r="I77" s="56"/>
-      <c r="J77" s="135"/>
+      <c r="J77" s="132"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="124">
+      <c r="A78" s="108">
         <v>76</v>
       </c>
-      <c r="B78" s="132"/>
+      <c r="B78" s="138"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="46"/>
+      <c r="D78" s="163"/>
       <c r="E78" s="55"/>
       <c r="F78" s="55"/>
-      <c r="G78" s="73"/>
+      <c r="G78" s="163"/>
       <c r="H78" s="55"/>
       <c r="I78" s="55"/>
-      <c r="J78" s="138"/>
+      <c r="J78" s="128"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="122">
+      <c r="A79" s="106">
         <v>77</v>
       </c>
-      <c r="B79" s="130" t="s">
+      <c r="B79" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="44">
-        <v>1</v>
-      </c>
-      <c r="E79" s="111">
+      <c r="D79" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E79" s="97">
         <v>43121</v>
       </c>
-      <c r="F79" s="111">
+      <c r="F79" s="97">
         <v>43121</v>
       </c>
-      <c r="G79" s="105">
-        <v>1</v>
-      </c>
-      <c r="H79" s="111">
+      <c r="G79" s="162">
+        <v>0.04</v>
+      </c>
+      <c r="H79" s="97">
         <v>43121</v>
       </c>
-      <c r="I79" s="111">
+      <c r="I79" s="97">
         <v>43121</v>
       </c>
-      <c r="J79" s="155">
+      <c r="J79" s="143">
         <v>0.25</v>
       </c>
-      <c r="K79" s="107"/>
+      <c r="K79" s="93"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="123">
+      <c r="A80" s="107">
         <v>78</v>
       </c>
-      <c r="B80" s="131"/>
+      <c r="B80" s="137"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="49"/>
+      <c r="D80" s="162"/>
       <c r="E80" s="56"/>
       <c r="F80" s="56"/>
-      <c r="G80" s="75"/>
       <c r="H80" s="56"/>
       <c r="I80" s="56"/>
-      <c r="J80" s="135"/>
+      <c r="J80" s="132"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="123">
+      <c r="A81" s="107">
         <v>79</v>
       </c>
-      <c r="B81" s="131"/>
+      <c r="B81" s="137"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="49"/>
+      <c r="D81" s="162"/>
       <c r="E81" s="56"/>
       <c r="F81" s="56"/>
-      <c r="G81" s="75"/>
       <c r="H81" s="56"/>
       <c r="I81" s="56"/>
-      <c r="J81" s="135"/>
+      <c r="J81" s="132"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="124">
+      <c r="A82" s="108">
         <v>80</v>
       </c>
-      <c r="B82" s="132"/>
+      <c r="B82" s="138"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="46"/>
+      <c r="D82" s="163"/>
       <c r="E82" s="55"/>
       <c r="F82" s="55"/>
-      <c r="G82" s="73"/>
+      <c r="G82" s="163"/>
       <c r="H82" s="55"/>
       <c r="I82" s="55"/>
-      <c r="J82" s="138"/>
+      <c r="J82" s="128"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="122">
+      <c r="A83" s="106">
         <v>81</v>
       </c>
-      <c r="B83" s="152" t="s">
+      <c r="B83" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="104" t="s">
+      <c r="C83" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="90">
+      <c r="D83" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E83" s="97">
+        <v>43121</v>
+      </c>
+      <c r="F83" s="97">
+        <v>43121</v>
+      </c>
+      <c r="G83" s="162">
+        <v>0.04</v>
+      </c>
+      <c r="H83" s="97">
+        <v>43121</v>
+      </c>
+      <c r="I83" s="97">
+        <v>43121</v>
+      </c>
+      <c r="J83" s="143">
+        <v>0.25</v>
+      </c>
+      <c r="K83" s="93"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84" s="107">
+        <v>82</v>
+      </c>
+      <c r="B84" s="148"/>
+      <c r="C84" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D84" s="162"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="H84" s="102"/>
+      <c r="I84" s="102"/>
+      <c r="J84" s="132"/>
+      <c r="K84" s="98"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85" s="107">
+        <v>83</v>
+      </c>
+      <c r="B85" s="148"/>
+      <c r="C85" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D85" s="162"/>
+      <c r="E85" s="102"/>
+      <c r="F85" s="102"/>
+      <c r="H85" s="102"/>
+      <c r="I85" s="102"/>
+      <c r="J85" s="132"/>
+      <c r="K85" s="98"/>
+    </row>
+    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="108">
+        <v>84</v>
+      </c>
+      <c r="B86" s="149"/>
+      <c r="C86" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="163"/>
+      <c r="E86" s="105"/>
+      <c r="F86" s="105"/>
+      <c r="G86" s="163"/>
+      <c r="H86" s="105"/>
+      <c r="I86" s="105"/>
+      <c r="J86" s="128"/>
+      <c r="K86" s="98"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" s="106">
+        <v>85</v>
+      </c>
+      <c r="B87" s="147" t="s">
+        <v>69</v>
+      </c>
+      <c r="C87" s="91" t="s">
+        <v>118</v>
+      </c>
+      <c r="D87" s="110">
+        <v>0.04</v>
+      </c>
+      <c r="E87" s="109">
+        <v>43121</v>
+      </c>
+      <c r="F87" s="109">
+        <v>43121</v>
+      </c>
+      <c r="G87" s="162">
+        <v>0.04</v>
+      </c>
+      <c r="H87" s="109">
+        <v>43121</v>
+      </c>
+      <c r="I87" s="109">
+        <v>43121</v>
+      </c>
+      <c r="J87" s="143">
+        <v>0.25</v>
+      </c>
+      <c r="K87" s="93"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88" s="107">
+        <v>86</v>
+      </c>
+      <c r="B88" s="148"/>
+      <c r="C88" s="100" t="s">
+        <v>117</v>
+      </c>
+      <c r="D88" s="162"/>
+      <c r="E88" s="102"/>
+      <c r="F88" s="102"/>
+      <c r="H88" s="102"/>
+      <c r="I88" s="102"/>
+      <c r="J88" s="132"/>
+      <c r="K88" s="98"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89" s="107">
+        <v>87</v>
+      </c>
+      <c r="B89" s="148"/>
+      <c r="C89" s="100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D89" s="162"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="102"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="132"/>
+      <c r="K89" s="98"/>
+    </row>
+    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="108">
+        <v>88</v>
+      </c>
+      <c r="B90" s="149"/>
+      <c r="C90" s="103" t="s">
+        <v>121</v>
+      </c>
+      <c r="D90" s="163"/>
+      <c r="E90" s="105"/>
+      <c r="F90" s="105"/>
+      <c r="G90" s="163"/>
+      <c r="H90" s="105"/>
+      <c r="I90" s="105"/>
+      <c r="J90" s="128"/>
+      <c r="K90" s="98"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91" s="106">
+        <v>89</v>
+      </c>
+      <c r="B91" s="136" t="s">
+        <v>82</v>
+      </c>
+      <c r="C91" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D91" s="110">
         <v>1</v>
       </c>
-      <c r="E83" s="111">
-        <v>43121</v>
-      </c>
-      <c r="F83" s="111">
-        <v>43121</v>
-      </c>
-      <c r="G83" s="105">
-        <v>1</v>
-      </c>
-      <c r="H83" s="111">
-        <v>43121</v>
-      </c>
-      <c r="I83" s="111">
-        <v>43121</v>
-      </c>
-      <c r="J83" s="155">
-        <v>0.25</v>
-      </c>
-      <c r="K83" s="107"/>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="123">
-        <v>82</v>
-      </c>
-      <c r="B84" s="153"/>
-      <c r="C84" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="D84" s="91"/>
-      <c r="E84" s="116"/>
-      <c r="F84" s="116"/>
-      <c r="G84" s="117"/>
-      <c r="H84" s="116"/>
-      <c r="I84" s="116"/>
-      <c r="J84" s="135"/>
-      <c r="K84" s="112"/>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="123">
-        <v>83</v>
-      </c>
-      <c r="B85" s="153"/>
-      <c r="C85" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="D85" s="91"/>
-      <c r="E85" s="116"/>
-      <c r="F85" s="116"/>
-      <c r="G85" s="117"/>
-      <c r="H85" s="116"/>
-      <c r="I85" s="116"/>
-      <c r="J85" s="135"/>
-      <c r="K85" s="112"/>
-    </row>
-    <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="124">
-        <v>84</v>
-      </c>
-      <c r="B86" s="154"/>
-      <c r="C86" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="D86" s="92"/>
-      <c r="E86" s="120"/>
-      <c r="F86" s="120"/>
-      <c r="G86" s="121"/>
-      <c r="H86" s="120"/>
-      <c r="I86" s="120"/>
-      <c r="J86" s="138"/>
-      <c r="K86" s="112"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="122">
-        <v>85</v>
-      </c>
-      <c r="B87" s="152" t="s">
-        <v>69</v>
-      </c>
-      <c r="C87" s="104" t="s">
-        <v>118</v>
-      </c>
-      <c r="D87" s="90">
-        <v>1</v>
-      </c>
-      <c r="E87" s="125">
-        <v>43121</v>
-      </c>
-      <c r="F87" s="125">
-        <v>43121</v>
-      </c>
-      <c r="G87" s="126">
-        <v>1</v>
-      </c>
-      <c r="H87" s="125">
-        <v>43121</v>
-      </c>
-      <c r="I87" s="125">
-        <v>43121</v>
-      </c>
-      <c r="J87" s="155">
-        <v>0.25</v>
-      </c>
-      <c r="K87" s="107"/>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="123">
-        <v>86</v>
-      </c>
-      <c r="B88" s="153"/>
-      <c r="C88" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="D88" s="91"/>
-      <c r="E88" s="116"/>
-      <c r="F88" s="116"/>
-      <c r="G88" s="117"/>
-      <c r="H88" s="116"/>
-      <c r="I88" s="116"/>
-      <c r="J88" s="135"/>
-      <c r="K88" s="112"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="123">
-        <v>87</v>
-      </c>
-      <c r="B89" s="153"/>
-      <c r="C89" s="114" t="s">
-        <v>119</v>
-      </c>
-      <c r="D89" s="91"/>
-      <c r="E89" s="116"/>
-      <c r="F89" s="116"/>
-      <c r="G89" s="117"/>
-      <c r="H89" s="116"/>
-      <c r="I89" s="116"/>
-      <c r="J89" s="135"/>
-      <c r="K89" s="112"/>
-    </row>
-    <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="124">
-        <v>88</v>
-      </c>
-      <c r="B90" s="154"/>
-      <c r="C90" s="118" t="s">
-        <v>121</v>
-      </c>
-      <c r="D90" s="92"/>
-      <c r="E90" s="120"/>
-      <c r="F90" s="120"/>
-      <c r="G90" s="121"/>
-      <c r="H90" s="120"/>
-      <c r="I90" s="120"/>
-      <c r="J90" s="138"/>
-      <c r="K90" s="112"/>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="122">
-        <v>89</v>
-      </c>
-      <c r="B91" s="130" t="s">
-        <v>82</v>
-      </c>
-      <c r="C91" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D91" s="44">
-        <v>1</v>
-      </c>
-      <c r="E91" s="65">
+      <c r="E91" s="64">
         <v>43122</v>
       </c>
-      <c r="F91" s="65">
+      <c r="F91" s="64">
         <v>43123</v>
       </c>
-      <c r="G91" s="74">
-        <v>1</v>
-      </c>
-      <c r="H91" s="65">
+      <c r="G91" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="H91" s="64">
         <v>43123</v>
       </c>
-      <c r="I91" s="65">
+      <c r="I91" s="64">
         <v>43123</v>
       </c>
-      <c r="J91" s="135"/>
-      <c r="K91" s="107"/>
+      <c r="J91" s="132"/>
+      <c r="K91" s="93"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="123">
+      <c r="A92" s="107">
         <v>90</v>
       </c>
-      <c r="B92" s="131"/>
+      <c r="B92" s="137"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="49"/>
+      <c r="D92" s="162"/>
       <c r="E92" s="56"/>
       <c r="F92" s="56"/>
-      <c r="G92" s="75"/>
+      <c r="G92" s="165"/>
       <c r="H92" s="56"/>
       <c r="I92" s="56"/>
-      <c r="J92" s="135"/>
+      <c r="J92" s="132"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="123">
+      <c r="A93" s="107">
         <v>91</v>
       </c>
-      <c r="B93" s="131"/>
+      <c r="B93" s="137"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="49"/>
+      <c r="D93" s="162"/>
       <c r="E93" s="56"/>
       <c r="F93" s="56"/>
-      <c r="G93" s="75"/>
+      <c r="G93" s="165"/>
       <c r="H93" s="56"/>
       <c r="I93" s="56"/>
-      <c r="J93" s="135"/>
+      <c r="J93" s="132"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="124">
+      <c r="A94" s="108">
         <v>92</v>
       </c>
-      <c r="B94" s="132"/>
+      <c r="B94" s="138"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="46"/>
+      <c r="D94" s="163"/>
       <c r="E94" s="55"/>
       <c r="F94" s="55"/>
-      <c r="G94" s="73"/>
+      <c r="G94" s="163"/>
       <c r="H94" s="55"/>
       <c r="I94" s="55"/>
-      <c r="J94" s="138"/>
+      <c r="J94" s="128"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="122">
+      <c r="A95" s="106">
         <v>93</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="136" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D95" s="44">
-        <v>1</v>
-      </c>
-      <c r="E95" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="E95" s="64">
         <v>43123</v>
       </c>
-      <c r="F95" s="65">
+      <c r="F95" s="64">
         <v>43123</v>
       </c>
-      <c r="G95" s="74">
-        <v>1</v>
-      </c>
-      <c r="H95" s="65">
+      <c r="G95" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="H95" s="64">
         <v>43123</v>
       </c>
-      <c r="I95" s="65">
+      <c r="I95" s="64">
         <v>43123</v>
       </c>
-      <c r="J95" s="135"/>
-      <c r="K95" s="107"/>
+      <c r="J95" s="132"/>
+      <c r="K95" s="93"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="123">
+      <c r="A96" s="107">
         <v>94</v>
       </c>
-      <c r="B96" s="131"/>
+      <c r="B96" s="137"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D96" s="49"/>
       <c r="E96" s="56"/>
       <c r="F96" s="56"/>
-      <c r="G96" s="75"/>
+      <c r="G96" s="165"/>
       <c r="H96" s="56"/>
       <c r="I96" s="56"/>
-      <c r="J96" s="135"/>
+      <c r="J96" s="132"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="123">
+      <c r="A97" s="107">
         <v>95</v>
       </c>
-      <c r="B97" s="131"/>
+      <c r="B97" s="137"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D97" s="49"/>
       <c r="E97" s="56"/>
       <c r="F97" s="56"/>
-      <c r="G97" s="75"/>
+      <c r="G97" s="165"/>
       <c r="H97" s="56"/>
       <c r="I97" s="56"/>
-      <c r="J97" s="135"/>
+      <c r="J97" s="132"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="124">
+      <c r="A98" s="108">
         <v>96</v>
       </c>
-      <c r="B98" s="132"/>
+      <c r="B98" s="138"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D98" s="46"/>
       <c r="E98" s="55"/>
       <c r="F98" s="55"/>
-      <c r="G98" s="73"/>
+      <c r="G98" s="163"/>
       <c r="H98" s="55"/>
       <c r="I98" s="55"/>
-      <c r="J98" s="138"/>
+      <c r="J98" s="128"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="122">
+      <c r="A99" s="106">
         <v>97</v>
       </c>
-      <c r="B99" s="152" t="s">
+      <c r="B99" s="147" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="59" t="s">
+      <c r="C99" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="44">
-        <v>1</v>
-      </c>
-      <c r="E99" s="65">
+        <v>0.2</v>
+      </c>
+      <c r="E99" s="64">
         <v>43123</v>
       </c>
-      <c r="F99" s="65">
+      <c r="F99" s="64">
         <v>43123</v>
       </c>
-      <c r="G99" s="74">
-        <v>1</v>
-      </c>
-      <c r="H99" s="65">
+      <c r="G99" s="164">
+        <v>0.2</v>
+      </c>
+      <c r="H99" s="64">
         <v>43123</v>
       </c>
-      <c r="I99" s="65">
+      <c r="I99" s="64">
         <v>43123</v>
       </c>
-      <c r="J99" s="135"/>
-      <c r="K99" s="107"/>
+      <c r="J99" s="132"/>
+      <c r="K99" s="93"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="123">
+      <c r="A100" s="107">
         <v>98</v>
       </c>
-      <c r="B100" s="153"/>
+      <c r="B100" s="148"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D100" s="49"/>
       <c r="E100" s="56"/>
       <c r="F100" s="56"/>
-      <c r="G100" s="75"/>
+      <c r="G100" s="165"/>
       <c r="H100" s="56"/>
-      <c r="J100" s="135"/>
+      <c r="J100" s="132"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="123">
+      <c r="A101" s="107">
         <v>99</v>
       </c>
-      <c r="B101" s="153"/>
+      <c r="B101" s="148"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="49"/>
       <c r="E101" s="56"/>
       <c r="F101" s="56"/>
-      <c r="G101" s="75"/>
+      <c r="G101" s="165"/>
       <c r="H101" s="56"/>
-      <c r="J101" s="135"/>
+      <c r="J101" s="132"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="124">
+      <c r="A102" s="108">
         <v>100</v>
       </c>
-      <c r="B102" s="154"/>
+      <c r="B102" s="149"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D102" s="46"/>
       <c r="E102" s="55"/>
       <c r="F102" s="55"/>
-      <c r="G102" s="73"/>
+      <c r="G102" s="163"/>
       <c r="H102" s="55"/>
       <c r="I102" s="55"/>
-      <c r="J102" s="138"/>
+      <c r="J102" s="128"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="162">
+      <c r="A103" s="115">
         <v>101</v>
       </c>
-      <c r="B103" s="152" t="s">
+      <c r="B103" s="147" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="114" t="s">
+      <c r="C103" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="96">
-        <v>1</v>
-      </c>
-      <c r="E103" s="111">
+      <c r="D103" s="166">
+        <v>0.25</v>
+      </c>
+      <c r="E103" s="97">
         <v>43124</v>
       </c>
-      <c r="F103" s="111">
+      <c r="F103" s="97">
         <v>43124</v>
       </c>
-      <c r="G103" s="105">
-        <v>1</v>
-      </c>
-      <c r="H103" s="111">
+      <c r="G103" s="166">
+        <v>0.25</v>
+      </c>
+      <c r="H103" s="97">
         <v>43124</v>
       </c>
-      <c r="I103" s="111">
+      <c r="I103" s="97">
         <v>43124</v>
       </c>
-      <c r="J103" s="148"/>
-      <c r="K103" s="107"/>
+      <c r="J103" s="129"/>
+      <c r="K103" s="93"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="163">
+      <c r="A104" s="116">
         <v>102</v>
       </c>
-      <c r="B104" s="153"/>
-      <c r="C104" s="114" t="s">
+      <c r="B104" s="148"/>
+      <c r="C104" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="164"/>
-      <c r="E104" s="165"/>
-      <c r="F104" s="165"/>
-      <c r="G104" s="166"/>
-      <c r="H104" s="165"/>
-      <c r="I104" s="165"/>
-      <c r="J104" s="149"/>
-      <c r="K104" s="112"/>
+      <c r="D104" s="169"/>
+      <c r="E104" s="117"/>
+      <c r="F104" s="117"/>
+      <c r="G104" s="169"/>
+      <c r="H104" s="117"/>
+      <c r="I104" s="117"/>
+      <c r="J104" s="130"/>
+      <c r="K104" s="98"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="163">
+      <c r="A105" s="116">
         <v>103</v>
       </c>
-      <c r="B105" s="153"/>
-      <c r="C105" s="114" t="s">
+      <c r="B105" s="148"/>
+      <c r="C105" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="164"/>
-      <c r="E105" s="165"/>
-      <c r="F105" s="165"/>
-      <c r="G105" s="166"/>
-      <c r="H105" s="165"/>
-      <c r="I105" s="165"/>
-      <c r="J105" s="149"/>
-      <c r="K105" s="112"/>
+      <c r="D105" s="169"/>
+      <c r="E105" s="117"/>
+      <c r="F105" s="117"/>
+      <c r="G105" s="169"/>
+      <c r="H105" s="117"/>
+      <c r="I105" s="117"/>
+      <c r="J105" s="130"/>
+      <c r="K105" s="98"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="167">
+      <c r="A106" s="118">
         <v>104</v>
       </c>
-      <c r="B106" s="154"/>
-      <c r="C106" s="118" t="s">
+      <c r="B106" s="149"/>
+      <c r="C106" s="103" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="97"/>
-      <c r="E106" s="120"/>
-      <c r="F106" s="120"/>
-      <c r="G106" s="121"/>
-      <c r="H106" s="120"/>
-      <c r="I106" s="120"/>
-      <c r="J106" s="150"/>
-      <c r="K106" s="112"/>
+      <c r="D106" s="167"/>
+      <c r="E106" s="105"/>
+      <c r="F106" s="105"/>
+      <c r="G106" s="167"/>
+      <c r="H106" s="105"/>
+      <c r="I106" s="105"/>
+      <c r="J106" s="131"/>
+      <c r="K106" s="98"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="162">
+      <c r="A107" s="115">
         <v>105</v>
       </c>
-      <c r="B107" s="152" t="s">
+      <c r="B107" s="147" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="100" t="s">
+      <c r="C107" s="87" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="93">
-        <v>1</v>
-      </c>
-      <c r="E107" s="65">
+      <c r="D107" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="E107" s="64">
         <v>43124</v>
       </c>
-      <c r="F107" s="65">
+      <c r="F107" s="64">
         <v>43124</v>
       </c>
-      <c r="G107" s="74">
-        <v>1</v>
-      </c>
-      <c r="H107" s="65">
+      <c r="G107" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="H107" s="64">
         <v>43124</v>
       </c>
-      <c r="I107" s="65">
+      <c r="I107" s="64">
         <v>43124</v>
       </c>
-      <c r="J107" s="135"/>
-      <c r="K107" s="107"/>
+      <c r="J107" s="132"/>
+      <c r="K107" s="93"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="163">
+      <c r="A108" s="116">
         <v>106</v>
       </c>
-      <c r="B108" s="153"/>
-      <c r="C108" s="100" t="s">
+      <c r="B108" s="148"/>
+      <c r="C108" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D108" s="94"/>
-      <c r="E108" s="101"/>
-      <c r="F108" s="101"/>
-      <c r="H108" s="101"/>
-      <c r="I108" s="101"/>
-      <c r="J108" s="135"/>
+      <c r="D108" s="162"/>
+      <c r="E108" s="88"/>
+      <c r="F108" s="88"/>
+      <c r="H108" s="88"/>
+      <c r="I108" s="88"/>
+      <c r="J108" s="132"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="163">
+      <c r="A109" s="116">
         <v>107</v>
       </c>
-      <c r="B109" s="153"/>
-      <c r="C109" s="100" t="s">
+      <c r="B109" s="148"/>
+      <c r="C109" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="94"/>
-      <c r="E109" s="101"/>
-      <c r="F109" s="101"/>
-      <c r="H109" s="101"/>
-      <c r="I109" s="101"/>
-      <c r="J109" s="135"/>
+      <c r="D109" s="162"/>
+      <c r="E109" s="88"/>
+      <c r="F109" s="88"/>
+      <c r="H109" s="88"/>
+      <c r="I109" s="88"/>
+      <c r="J109" s="132"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="167">
+      <c r="A110" s="118">
         <v>108</v>
       </c>
-      <c r="B110" s="154"/>
+      <c r="B110" s="149"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="95"/>
+      <c r="D110" s="163"/>
       <c r="E110" s="55"/>
       <c r="F110" s="55"/>
-      <c r="G110" s="73"/>
+      <c r="G110" s="163"/>
       <c r="H110" s="55"/>
       <c r="I110" s="55"/>
-      <c r="J110" s="138"/>
+      <c r="J110" s="128"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="162">
+      <c r="A111" s="115">
         <v>109</v>
       </c>
-      <c r="B111" s="130" t="s">
+      <c r="B111" s="136" t="s">
         <v>105</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="88">
-        <v>1</v>
-      </c>
-      <c r="E111" s="65">
+      <c r="D111" s="166">
+        <v>0.25</v>
+      </c>
+      <c r="E111" s="64">
         <v>43125</v>
       </c>
-      <c r="F111" s="65">
+      <c r="F111" s="64">
         <v>43125</v>
       </c>
-      <c r="G111" s="74">
-        <v>1</v>
-      </c>
-      <c r="H111" s="65">
+      <c r="G111" s="166">
+        <v>0.25</v>
+      </c>
+      <c r="H111" s="64">
         <v>43125</v>
       </c>
-      <c r="I111" s="65">
+      <c r="I111" s="64">
         <v>43125</v>
       </c>
-      <c r="J111" s="135"/>
-      <c r="K111" s="107"/>
+      <c r="J111" s="132"/>
+      <c r="K111" s="93"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="163">
+      <c r="A112" s="116">
         <v>110</v>
       </c>
-      <c r="B112" s="131"/>
+      <c r="B112" s="137"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J112" s="135"/>
+      <c r="D112" s="169"/>
+      <c r="G112" s="169"/>
+      <c r="J112" s="132"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="163">
+      <c r="A113" s="116">
         <v>111</v>
       </c>
-      <c r="B113" s="131"/>
+      <c r="B113" s="137"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J113" s="135"/>
+      <c r="D113" s="169"/>
+      <c r="G113" s="169"/>
+      <c r="J113" s="132"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="167">
+      <c r="A114" s="118">
         <v>112</v>
       </c>
-      <c r="B114" s="132"/>
+      <c r="B114" s="138"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="46"/>
+      <c r="D114" s="167"/>
       <c r="E114" s="55"/>
       <c r="F114" s="55"/>
-      <c r="G114" s="73"/>
+      <c r="G114" s="167"/>
       <c r="H114" s="55"/>
       <c r="I114" s="55"/>
-      <c r="J114" s="138"/>
+      <c r="J114" s="128"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="162">
+      <c r="A115" s="115">
         <v>113</v>
       </c>
-      <c r="B115" s="130" t="s">
+      <c r="B115" s="136" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="44">
-        <v>1</v>
-      </c>
-      <c r="E115" s="65">
+      <c r="D115" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="E115" s="64">
         <v>43125</v>
       </c>
-      <c r="F115" s="65">
+      <c r="F115" s="64">
         <v>43125</v>
       </c>
-      <c r="G115" s="74">
-        <v>1</v>
-      </c>
-      <c r="H115" s="65">
+      <c r="G115" s="164">
+        <v>0.25</v>
+      </c>
+      <c r="H115" s="64">
         <v>43125</v>
       </c>
-      <c r="I115" s="65">
+      <c r="I115" s="64">
         <v>43125</v>
       </c>
-      <c r="J115" s="135"/>
-      <c r="K115" s="107"/>
+      <c r="J115" s="132"/>
+      <c r="K115" s="93"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="163">
+      <c r="A116" s="116">
         <v>114</v>
       </c>
-      <c r="B116" s="131"/>
+      <c r="B116" s="137"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="J116" s="135"/>
+      <c r="D116" s="162"/>
+      <c r="J116" s="132"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="163">
+      <c r="A117" s="116">
         <v>115</v>
       </c>
-      <c r="B117" s="131"/>
+      <c r="B117" s="137"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="J117" s="135"/>
+      <c r="D117" s="162"/>
+      <c r="J117" s="132"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="167">
+      <c r="A118" s="118">
         <v>116</v>
       </c>
-      <c r="B118" s="132"/>
+      <c r="B118" s="138"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="46"/>
+      <c r="D118" s="163"/>
       <c r="E118" s="55"/>
       <c r="F118" s="55"/>
-      <c r="G118" s="73"/>
+      <c r="G118" s="163"/>
       <c r="H118" s="55"/>
       <c r="I118" s="55"/>
-      <c r="J118" s="138"/>
+      <c r="J118" s="128"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="162">
+      <c r="A119" s="115">
         <v>117</v>
       </c>
-      <c r="B119" s="152" t="s">
-        <v>104</v>
-      </c>
-      <c r="C119" s="52" t="s">
+      <c r="B119" s="147" t="s">
+        <v>149</v>
+      </c>
+      <c r="C119" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="44">
-        <v>1</v>
-      </c>
-      <c r="E119" s="65">
+      <c r="D119" s="166">
+        <v>0.17</v>
+      </c>
+      <c r="E119" s="64">
         <v>43126</v>
       </c>
-      <c r="F119" s="65">
+      <c r="F119" s="64">
         <v>43126</v>
       </c>
-      <c r="G119" s="74">
-        <v>1</v>
-      </c>
-      <c r="H119" s="65">
+      <c r="G119" s="168">
+        <v>0.17</v>
+      </c>
+      <c r="H119" s="64">
         <v>43126</v>
       </c>
-      <c r="I119" s="65">
+      <c r="I119" s="64">
         <v>43126</v>
       </c>
-      <c r="J119" s="135"/>
+      <c r="J119" s="132"/>
+      <c r="K119" s="93"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="163">
+      <c r="A120" s="116">
         <v>118</v>
       </c>
-      <c r="B120" s="153"/>
-      <c r="C120" s="52" t="s">
+      <c r="B120" s="148"/>
+      <c r="C120" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="E120" s="101"/>
-      <c r="F120" s="101"/>
-      <c r="H120" s="101"/>
-      <c r="I120" s="101"/>
-      <c r="J120" s="135"/>
+      <c r="D120" s="169"/>
+      <c r="E120" s="113"/>
+      <c r="F120" s="113"/>
+      <c r="G120" s="171"/>
+      <c r="H120" s="113"/>
+      <c r="I120" s="113"/>
+      <c r="J120" s="132"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="163">
+      <c r="A121" s="116">
         <v>119</v>
       </c>
-      <c r="B121" s="153"/>
-      <c r="C121" s="52" t="s">
+      <c r="B121" s="148"/>
+      <c r="C121" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="J121" s="135"/>
+      <c r="D121" s="169"/>
+      <c r="E121" s="113"/>
+      <c r="F121" s="113"/>
+      <c r="G121" s="171"/>
+      <c r="H121" s="113"/>
+      <c r="I121" s="113"/>
+      <c r="J121" s="132"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="167">
+      <c r="A122" s="118">
         <v>120</v>
       </c>
-      <c r="B122" s="154"/>
+      <c r="B122" s="149"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="46"/>
+      <c r="D122" s="167"/>
       <c r="E122" s="55"/>
       <c r="F122" s="55"/>
-      <c r="G122" s="73"/>
+      <c r="G122" s="172"/>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
-      <c r="J122" s="138"/>
+      <c r="J122" s="128"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="162">
-        <v>121</v>
-      </c>
-      <c r="B123" s="130" t="s">
-        <v>103</v>
-      </c>
-      <c r="C123" s="59" t="s">
+      <c r="A123" s="115">
+        <v>117</v>
+      </c>
+      <c r="B123" s="147" t="s">
+        <v>104</v>
+      </c>
+      <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="88">
-        <v>1</v>
-      </c>
-      <c r="E123" s="65">
+      <c r="D123" s="166">
+        <v>0.17</v>
+      </c>
+      <c r="E123" s="64">
         <v>43126</v>
       </c>
-      <c r="F123" s="65">
+      <c r="F123" s="64">
         <v>43126</v>
       </c>
-      <c r="G123" s="74">
-        <v>1</v>
-      </c>
-      <c r="H123" s="65">
+      <c r="G123" s="166">
+        <v>0.17</v>
+      </c>
+      <c r="H123" s="64">
         <v>43126</v>
       </c>
-      <c r="I123" s="65">
+      <c r="I123" s="64">
         <v>43126</v>
       </c>
-      <c r="J123" s="135"/>
+      <c r="J123" s="132"/>
+      <c r="K123" s="93"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="163">
-        <v>122</v>
-      </c>
-      <c r="B124" s="131"/>
+      <c r="A124" s="116">
+        <v>118</v>
+      </c>
+      <c r="B124" s="148"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="49"/>
-      <c r="E124" s="56"/>
-      <c r="F124" s="56"/>
-      <c r="G124" s="75"/>
-      <c r="H124" s="56"/>
-      <c r="I124" s="56"/>
-      <c r="J124" s="135"/>
+      <c r="D124" s="169"/>
+      <c r="E124" s="88"/>
+      <c r="F124" s="88"/>
+      <c r="G124" s="171"/>
+      <c r="H124" s="88"/>
+      <c r="I124" s="88"/>
+      <c r="J124" s="132"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="163">
-        <v>123</v>
-      </c>
-      <c r="B125" s="131"/>
+      <c r="A125" s="116">
+        <v>119</v>
+      </c>
+      <c r="B125" s="148"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="49"/>
-      <c r="E125" s="56"/>
-      <c r="F125" s="56"/>
-      <c r="G125" s="75"/>
-      <c r="H125" s="56"/>
-      <c r="I125" s="56"/>
-      <c r="J125" s="135"/>
+      <c r="D125" s="169"/>
+      <c r="G125" s="171"/>
+      <c r="J125" s="132"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="167">
-        <v>124</v>
-      </c>
-      <c r="B126" s="132"/>
+      <c r="A126" s="118">
+        <v>120</v>
+      </c>
+      <c r="B126" s="149"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="46"/>
+      <c r="D126" s="167"/>
       <c r="E126" s="55"/>
       <c r="F126" s="55"/>
-      <c r="G126" s="73"/>
+      <c r="G126" s="172"/>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
-      <c r="J126" s="138"/>
-    </row>
-    <row r="127" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="162">
+      <c r="J126" s="128"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" s="115">
+        <v>121</v>
+      </c>
+      <c r="B127" s="136" t="s">
+        <v>103</v>
+      </c>
+      <c r="C127" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D127" s="166">
+        <v>0.17</v>
+      </c>
+      <c r="E127" s="64">
+        <v>43126</v>
+      </c>
+      <c r="F127" s="64">
+        <v>43126</v>
+      </c>
+      <c r="G127" s="166">
+        <v>0.17</v>
+      </c>
+      <c r="H127" s="64">
+        <v>43126</v>
+      </c>
+      <c r="I127" s="64">
+        <v>43126</v>
+      </c>
+      <c r="J127" s="132"/>
+      <c r="K127" s="93"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128" s="116">
+        <v>122</v>
+      </c>
+      <c r="B128" s="137"/>
+      <c r="C128" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D128" s="162"/>
+      <c r="E128" s="56"/>
+      <c r="F128" s="56"/>
+      <c r="G128" s="173"/>
+      <c r="H128" s="56"/>
+      <c r="I128" s="56"/>
+      <c r="J128" s="132"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="116">
+        <v>123</v>
+      </c>
+      <c r="B129" s="137"/>
+      <c r="C129" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D129" s="162"/>
+      <c r="E129" s="56"/>
+      <c r="F129" s="56"/>
+      <c r="G129" s="173"/>
+      <c r="H129" s="56"/>
+      <c r="I129" s="56"/>
+      <c r="J129" s="132"/>
+    </row>
+    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="118">
+        <v>124</v>
+      </c>
+      <c r="B130" s="138"/>
+      <c r="C130" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D130" s="163"/>
+      <c r="E130" s="55"/>
+      <c r="F130" s="55"/>
+      <c r="G130" s="174"/>
+      <c r="H130" s="55"/>
+      <c r="I130" s="55"/>
+      <c r="J130" s="128"/>
+    </row>
+    <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="115">
         <v>125</v>
       </c>
-      <c r="B127" s="168" t="s">
+      <c r="B131" s="157" t="s">
         <v>27</v>
       </c>
-      <c r="C127" s="99" t="s">
+      <c r="C131" s="86" t="s">
         <v>121</v>
       </c>
-      <c r="D127" s="93"/>
-      <c r="E127" s="65"/>
-      <c r="F127" s="65"/>
-      <c r="G127" s="57"/>
-      <c r="H127" s="70"/>
-      <c r="I127" s="70"/>
-      <c r="J127" s="171"/>
-      <c r="K127" s="108"/>
-    </row>
-    <row r="128" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="163">
+      <c r="D131" s="83"/>
+      <c r="E131" s="64"/>
+      <c r="F131" s="64"/>
+      <c r="G131" s="170"/>
+      <c r="H131" s="69"/>
+      <c r="I131" s="69"/>
+      <c r="J131" s="152"/>
+      <c r="K131" s="94"/>
+    </row>
+    <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="116">
         <v>126</v>
       </c>
-      <c r="B128" s="169"/>
-      <c r="C128" s="100" t="s">
+      <c r="B132" s="158"/>
+      <c r="C132" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D128" s="98"/>
-      <c r="E128" s="54"/>
-      <c r="F128" s="58"/>
-      <c r="G128" s="57"/>
-      <c r="H128" s="71"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="156"/>
-      <c r="K128" s="108"/>
-    </row>
-    <row r="129" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="163">
+      <c r="D132" s="85"/>
+      <c r="E132" s="54"/>
+      <c r="F132" s="57"/>
+      <c r="G132" s="170"/>
+      <c r="H132" s="70"/>
+      <c r="I132" s="56"/>
+      <c r="J132" s="153"/>
+      <c r="K132" s="94"/>
+    </row>
+    <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="116">
         <v>127</v>
       </c>
-      <c r="B129" s="169"/>
-      <c r="C129" s="100" t="s">
+      <c r="B133" s="158"/>
+      <c r="C133" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D129" s="98"/>
-      <c r="E129" s="54"/>
-      <c r="F129" s="58"/>
-      <c r="G129" s="57"/>
-      <c r="H129" s="71"/>
-      <c r="I129" s="56"/>
-      <c r="J129" s="156"/>
-      <c r="K129" s="108"/>
-    </row>
-    <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="167">
+      <c r="D133" s="85"/>
+      <c r="E133" s="54"/>
+      <c r="F133" s="57"/>
+      <c r="G133" s="170"/>
+      <c r="H133" s="70"/>
+      <c r="I133" s="56"/>
+      <c r="J133" s="153"/>
+      <c r="K133" s="94"/>
+    </row>
+    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="118">
         <v>128</v>
       </c>
-      <c r="B130" s="170"/>
-      <c r="C130" s="51" t="s">
+      <c r="B134" s="159"/>
+      <c r="C134" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D130" s="95"/>
-      <c r="E130" s="64"/>
-      <c r="F130" s="66"/>
-      <c r="G130" s="73"/>
-      <c r="H130" s="69"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="172"/>
-    </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A131" s="162">
+      <c r="D134" s="84"/>
+      <c r="E134" s="63"/>
+      <c r="F134" s="65"/>
+      <c r="G134" s="163"/>
+      <c r="H134" s="68"/>
+      <c r="I134" s="55"/>
+      <c r="J134" s="154"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="115">
         <v>129</v>
       </c>
-      <c r="B131" s="173" t="s">
+      <c r="B135" s="144" t="s">
         <v>54</v>
       </c>
-      <c r="C131" s="99" t="s">
+      <c r="C135" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D131" s="93"/>
-      <c r="E131" s="65"/>
-      <c r="F131" s="65"/>
-      <c r="G131" s="74"/>
-      <c r="H131" s="65"/>
-      <c r="I131" s="65"/>
-      <c r="J131" s="171"/>
-      <c r="L131" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A132" s="163">
-        <v>130</v>
-      </c>
-      <c r="B132" s="174"/>
-      <c r="C132" s="100" t="s">
-        <v>117</v>
-      </c>
-      <c r="D132" s="98"/>
-      <c r="E132" s="56"/>
-      <c r="F132" s="56"/>
-      <c r="G132" s="75"/>
-      <c r="H132" s="56"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="156"/>
-    </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A133" s="163">
-        <v>131</v>
-      </c>
-      <c r="B133" s="174"/>
-      <c r="C133" s="100" t="s">
-        <v>119</v>
-      </c>
-      <c r="D133" s="98"/>
-      <c r="E133" s="56"/>
-      <c r="F133" s="56"/>
-      <c r="G133" s="75"/>
-      <c r="H133" s="56"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="156"/>
-    </row>
-    <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="167">
-        <v>132</v>
-      </c>
-      <c r="B134" s="175"/>
-      <c r="C134" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D134" s="95"/>
-      <c r="E134" s="55"/>
-      <c r="F134" s="55"/>
-      <c r="G134" s="73"/>
-      <c r="H134" s="55"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="172"/>
-    </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="162">
-        <v>133</v>
-      </c>
-      <c r="B135" s="130" t="s">
-        <v>55</v>
-      </c>
-      <c r="C135" s="59" t="s">
-        <v>118</v>
-      </c>
-      <c r="D135" s="44"/>
-      <c r="E135" s="65"/>
-      <c r="F135" s="65"/>
-      <c r="G135" s="74"/>
-      <c r="H135" s="65"/>
-      <c r="I135" s="65"/>
-      <c r="J135" s="135"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="64"/>
+      <c r="F135" s="64"/>
+      <c r="G135" s="164"/>
+      <c r="H135" s="64"/>
+      <c r="I135" s="64"/>
+      <c r="J135" s="152"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="163">
-        <v>134</v>
-      </c>
-      <c r="B136" s="131"/>
-      <c r="C136" s="52" t="s">
+      <c r="A136" s="116">
+        <v>130</v>
+      </c>
+      <c r="B136" s="145"/>
+      <c r="C136" s="87" t="s">
         <v>117</v>
       </c>
-      <c r="D136" s="49"/>
+      <c r="D136" s="85"/>
       <c r="E136" s="56"/>
       <c r="F136" s="56"/>
-      <c r="G136" s="75"/>
+      <c r="G136" s="165"/>
       <c r="H136" s="56"/>
       <c r="I136" s="56"/>
-      <c r="J136" s="135"/>
+      <c r="J136" s="153"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="163">
-        <v>135</v>
-      </c>
-      <c r="B137" s="131"/>
-      <c r="C137" s="52" t="s">
+      <c r="A137" s="116">
+        <v>131</v>
+      </c>
+      <c r="B137" s="145"/>
+      <c r="C137" s="87" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="49"/>
+      <c r="D137" s="85"/>
       <c r="E137" s="56"/>
       <c r="F137" s="56"/>
-      <c r="G137" s="75"/>
+      <c r="G137" s="165"/>
       <c r="H137" s="56"/>
       <c r="I137" s="56"/>
-      <c r="J137" s="135"/>
+      <c r="J137" s="153"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="167">
-        <v>136</v>
-      </c>
-      <c r="B138" s="132"/>
+      <c r="A138" s="118">
+        <v>132</v>
+      </c>
+      <c r="B138" s="146"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="46"/>
+      <c r="D138" s="84"/>
       <c r="E138" s="55"/>
       <c r="F138" s="55"/>
-      <c r="G138" s="73"/>
+      <c r="G138" s="163"/>
       <c r="H138" s="55"/>
       <c r="I138" s="55"/>
-      <c r="J138" s="138"/>
+      <c r="J138" s="154"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="162">
-        <v>137</v>
-      </c>
-      <c r="B139" s="158" t="s">
-        <v>84</v>
-      </c>
-      <c r="C139" s="59" t="s">
+      <c r="A139" s="115">
+        <v>133</v>
+      </c>
+      <c r="B139" s="136" t="s">
+        <v>55</v>
+      </c>
+      <c r="C139" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="44"/>
-      <c r="E139" s="65"/>
-      <c r="F139" s="65"/>
-      <c r="G139" s="74"/>
-      <c r="H139" s="65"/>
-      <c r="I139" s="65"/>
-      <c r="J139" s="135"/>
+      <c r="E139" s="64"/>
+      <c r="F139" s="64"/>
+      <c r="G139" s="164"/>
+      <c r="H139" s="64"/>
+      <c r="I139" s="64"/>
+      <c r="J139" s="132"/>
+      <c r="L139" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="163">
-        <v>138</v>
-      </c>
-      <c r="B140" s="159"/>
+      <c r="A140" s="116">
+        <v>134</v>
+      </c>
+      <c r="B140" s="137"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="56"/>
       <c r="F140" s="56"/>
-      <c r="G140" s="75"/>
+      <c r="G140" s="165"/>
       <c r="H140" s="56"/>
       <c r="I140" s="56"/>
-      <c r="J140" s="135"/>
+      <c r="J140" s="132"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="163">
-        <v>139</v>
-      </c>
-      <c r="B141" s="160" t="s">
-        <v>134</v>
-      </c>
+      <c r="A141" s="116">
+        <v>135</v>
+      </c>
+      <c r="B141" s="137"/>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="56"/>
       <c r="F141" s="56"/>
-      <c r="G141" s="75"/>
+      <c r="G141" s="165"/>
       <c r="H141" s="56"/>
       <c r="I141" s="56"/>
-      <c r="J141" s="135"/>
+      <c r="J141" s="132"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="167">
-        <v>140</v>
-      </c>
-      <c r="B142" s="161"/>
+      <c r="A142" s="118">
+        <v>136</v>
+      </c>
+      <c r="B142" s="138"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D142" s="46"/>
       <c r="E142" s="55"/>
       <c r="F142" s="55"/>
-      <c r="G142" s="73"/>
+      <c r="G142" s="163"/>
       <c r="H142" s="55"/>
       <c r="I142" s="55"/>
-      <c r="J142" s="138"/>
+      <c r="J142" s="128"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="162">
-        <v>141</v>
-      </c>
-      <c r="B143" s="158" t="s">
-        <v>43</v>
-      </c>
-      <c r="C143" s="59" t="s">
+      <c r="A143" s="115">
+        <v>137</v>
+      </c>
+      <c r="B143" s="155" t="s">
+        <v>84</v>
+      </c>
+      <c r="C143" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D143" s="44"/>
-      <c r="E143" s="65"/>
-      <c r="F143" s="65"/>
-      <c r="G143" s="74"/>
-      <c r="H143" s="65"/>
-      <c r="I143" s="65"/>
-      <c r="J143" s="135"/>
-      <c r="L143" t="s">
-        <v>147</v>
-      </c>
+      <c r="E143" s="64"/>
+      <c r="F143" s="64"/>
+      <c r="G143" s="164"/>
+      <c r="H143" s="64"/>
+      <c r="I143" s="64"/>
+      <c r="J143" s="132"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="163">
-        <v>142</v>
-      </c>
-      <c r="B144" s="159"/>
+      <c r="A144" s="116">
+        <v>138</v>
+      </c>
+      <c r="B144" s="156"/>
       <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D144" s="49"/>
       <c r="E144" s="56"/>
       <c r="F144" s="56"/>
-      <c r="G144" s="75"/>
+      <c r="G144" s="165"/>
       <c r="H144" s="56"/>
       <c r="I144" s="56"/>
-      <c r="J144" s="135"/>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A145" s="163">
-        <v>143</v>
-      </c>
-      <c r="B145" s="160" t="s">
+      <c r="J144" s="132"/>
+    </row>
+    <row r="145" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A145" s="116">
+        <v>139</v>
+      </c>
+      <c r="B145" s="150" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
@@ -5226,139 +5254,220 @@
       <c r="D145" s="49"/>
       <c r="E145" s="56"/>
       <c r="F145" s="56"/>
-      <c r="G145" s="75"/>
+      <c r="G145" s="165"/>
       <c r="H145" s="56"/>
       <c r="I145" s="56"/>
-      <c r="J145" s="135"/>
-    </row>
-    <row r="146" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="167">
-        <v>144</v>
-      </c>
-      <c r="B146" s="161"/>
+      <c r="J145" s="132"/>
+    </row>
+    <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="118">
+        <v>140</v>
+      </c>
+      <c r="B146" s="151"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="55"/>
       <c r="F146" s="55"/>
-      <c r="G146" s="73"/>
+      <c r="G146" s="163"/>
       <c r="H146" s="55"/>
       <c r="I146" s="55"/>
-      <c r="J146" s="138"/>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A147" s="162">
-        <v>145</v>
-      </c>
-      <c r="B147" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="C147" s="59" t="s">
+      <c r="J146" s="128"/>
+    </row>
+    <row r="147" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A147" s="115">
+        <v>141</v>
+      </c>
+      <c r="B147" s="155" t="s">
+        <v>43</v>
+      </c>
+      <c r="C147" s="58" t="s">
         <v>118</v>
       </c>
       <c r="D147" s="44"/>
-      <c r="E147" s="65">
-        <v>43125</v>
-      </c>
-      <c r="F147" s="65">
-        <v>43125</v>
-      </c>
-      <c r="G147" s="74">
-        <v>1</v>
-      </c>
-      <c r="H147" s="65">
-        <v>43125</v>
-      </c>
-      <c r="I147" s="65">
-        <v>43125</v>
-      </c>
-      <c r="J147" s="135"/>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A148" s="163">
-        <v>146</v>
-      </c>
-      <c r="B148" s="131"/>
+      <c r="E147" s="64"/>
+      <c r="F147" s="64"/>
+      <c r="G147" s="164"/>
+      <c r="H147" s="64"/>
+      <c r="I147" s="64"/>
+      <c r="J147" s="132"/>
+      <c r="L147" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A148" s="116">
+        <v>142</v>
+      </c>
+      <c r="B148" s="156"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D148" s="49"/>
       <c r="E148" s="56"/>
       <c r="F148" s="56"/>
-      <c r="G148" s="75"/>
+      <c r="G148" s="165"/>
       <c r="H148" s="56"/>
       <c r="I148" s="56"/>
-      <c r="J148" s="135"/>
-    </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="163">
-        <v>147</v>
-      </c>
-      <c r="B149" s="131"/>
+      <c r="J148" s="132"/>
+    </row>
+    <row r="149" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A149" s="116">
+        <v>143</v>
+      </c>
+      <c r="B149" s="150" t="s">
+        <v>134</v>
+      </c>
       <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D149" s="49"/>
       <c r="E149" s="56"/>
       <c r="F149" s="56"/>
-      <c r="G149" s="75"/>
+      <c r="G149" s="165"/>
       <c r="H149" s="56"/>
       <c r="I149" s="56"/>
-      <c r="J149" s="135"/>
-    </row>
-    <row r="150" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="167">
-        <v>148</v>
-      </c>
-      <c r="B150" s="132"/>
+      <c r="J149" s="132"/>
+    </row>
+    <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="118">
+        <v>144</v>
+      </c>
+      <c r="B150" s="151"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="55"/>
       <c r="F150" s="55"/>
-      <c r="G150" s="73"/>
+      <c r="G150" s="163"/>
       <c r="H150" s="55"/>
       <c r="I150" s="55"/>
-      <c r="J150" s="138"/>
+      <c r="J150" s="128"/>
+    </row>
+    <row r="151" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A151" s="115">
+        <v>145</v>
+      </c>
+      <c r="B151" s="136" t="s">
+        <v>15</v>
+      </c>
+      <c r="C151" s="58" t="s">
+        <v>118</v>
+      </c>
+      <c r="D151" s="44"/>
+      <c r="E151" s="64">
+        <v>43125</v>
+      </c>
+      <c r="F151" s="64">
+        <v>43125</v>
+      </c>
+      <c r="G151" s="164">
+        <v>1</v>
+      </c>
+      <c r="H151" s="64">
+        <v>43125</v>
+      </c>
+      <c r="I151" s="64">
+        <v>43125</v>
+      </c>
+      <c r="J151" s="132"/>
+    </row>
+    <row r="152" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A152" s="116">
+        <v>146</v>
+      </c>
+      <c r="B152" s="137"/>
+      <c r="C152" s="52" t="s">
+        <v>117</v>
+      </c>
+      <c r="D152" s="49"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="165"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="132"/>
+    </row>
+    <row r="153" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A153" s="116">
+        <v>147</v>
+      </c>
+      <c r="B153" s="137"/>
+      <c r="C153" s="52" t="s">
+        <v>119</v>
+      </c>
+      <c r="D153" s="49"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="165"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="132"/>
+    </row>
+    <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="118">
+        <v>148</v>
+      </c>
+      <c r="B154" s="138"/>
+      <c r="C154" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D154" s="46"/>
+      <c r="E154" s="55"/>
+      <c r="F154" s="55"/>
+      <c r="G154" s="163"/>
+      <c r="H154" s="55"/>
+      <c r="I154" s="55"/>
+      <c r="J154" s="128"/>
+    </row>
+    <row r="155" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D155" s="45">
+        <f>SUM(D3:D154)</f>
+        <v>6.3800000000000008</v>
+      </c>
+      <c r="E155" s="112"/>
+      <c r="F155" s="112"/>
+      <c r="G155" s="112">
+        <f>SUM(G3:G154)</f>
+        <v>4.8100000000000005</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="82">
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="J147:J150"/>
-    <mergeCell ref="J91:J94"/>
-    <mergeCell ref="J95:J98"/>
+  <mergeCells count="84">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B39:B42"/>
     <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B135:B138"/>
-    <mergeCell ref="B99:B102"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B111:B114"/>
-    <mergeCell ref="B115:B118"/>
-    <mergeCell ref="B103:B106"/>
-    <mergeCell ref="J139:J142"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="J143:J146"/>
-    <mergeCell ref="J131:J134"/>
-    <mergeCell ref="J135:J138"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B119:B122"/>
     <mergeCell ref="J119:J122"/>
-    <mergeCell ref="B139:B140"/>
-    <mergeCell ref="B141:B142"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J43:J46"/>
     <mergeCell ref="J47:J50"/>
     <mergeCell ref="J51:J54"/>
     <mergeCell ref="J55:J58"/>
@@ -5374,39 +5483,43 @@
     <mergeCell ref="B75:B78"/>
     <mergeCell ref="B79:B82"/>
     <mergeCell ref="B67:B70"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J43:J46"/>
     <mergeCell ref="B55:B58"/>
-    <mergeCell ref="B147:B150"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B123:B126"/>
+    <mergeCell ref="J151:J154"/>
+    <mergeCell ref="J91:J94"/>
+    <mergeCell ref="J95:J98"/>
+    <mergeCell ref="B135:B138"/>
+    <mergeCell ref="B139:B142"/>
+    <mergeCell ref="B99:B102"/>
+    <mergeCell ref="B149:B150"/>
+    <mergeCell ref="B111:B114"/>
+    <mergeCell ref="B115:B118"/>
+    <mergeCell ref="B103:B106"/>
+    <mergeCell ref="J143:J146"/>
+    <mergeCell ref="J131:J134"/>
+    <mergeCell ref="J147:J150"/>
+    <mergeCell ref="J135:J138"/>
+    <mergeCell ref="J139:J142"/>
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J15:J18"/>
     <mergeCell ref="B19:B22"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B11:B14"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B51:B54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5429,26 +5542,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="139" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136" t="s">
+      <c r="B1" s="139" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="161" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="157"/>
+      <c r="E1" s="161"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="137"/>
-      <c r="B2" s="137"/>
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -5463,7 +5576,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="134" t="s">
+      <c r="A3" s="126" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5472,15 +5585,15 @@
       <c r="C3" s="30">
         <v>10</v>
       </c>
-      <c r="D3" s="76">
+      <c r="D3" s="71">
         <v>43118</v>
       </c>
-      <c r="E3" s="76">
+      <c r="E3" s="71">
         <v>43128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="135"/>
+      <c r="A4" s="132"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5489,7 +5602,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="135"/>
+      <c r="A5" s="132"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5498,7 +5611,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="135"/>
+      <c r="A6" s="132"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -5507,7 +5620,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="135"/>
+      <c r="A7" s="132"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5516,7 +5629,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="135"/>
+      <c r="A8" s="132"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5528,7 +5641,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="134" t="s">
+      <c r="A9" s="126" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5536,13 +5649,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="135"/>
+      <c r="A10" s="132"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="138"/>
+      <c r="A11" s="128"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5572,7 +5685,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="134" t="s">
+      <c r="A14" s="126" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -5580,13 +5693,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="135"/>
+      <c r="A15" s="132"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="138"/>
+      <c r="A16" s="128"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -5596,7 +5709,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="134" t="s">
+      <c r="A17" s="126" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5604,25 +5717,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="147"/>
+      <c r="A18" s="127"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="147"/>
+      <c r="A19" s="127"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="147"/>
+      <c r="A20" s="127"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="138"/>
+      <c r="A21" s="128"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5668,7 +5781,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="143" t="s">
+      <c r="A25" s="119" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5676,13 +5789,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="144"/>
+      <c r="A26" s="120"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="145"/>
+      <c r="A27" s="121"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -5704,7 +5817,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="143" t="s">
+      <c r="A29" s="119" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5712,33 +5825,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="146"/>
+      <c r="A30" s="135"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="146"/>
-      <c r="B31" s="141" t="s">
+      <c r="A31" s="135"/>
+      <c r="B31" s="133" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="146"/>
-      <c r="B32" s="141"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="133"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="146"/>
-      <c r="B33" s="141" t="s">
+      <c r="A33" s="135"/>
+      <c r="B33" s="133" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="146"/>
-      <c r="B34" s="141"/>
+      <c r="A34" s="135"/>
+      <c r="B34" s="133"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="145"/>
+      <c r="A35" s="121"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -5760,7 +5873,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="143" t="s">
+      <c r="A37" s="119" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5768,19 +5881,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="144"/>
+      <c r="A38" s="120"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="144"/>
+      <c r="A39" s="120"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="144"/>
+      <c r="A40" s="120"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -5802,7 +5915,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="143" t="s">
+      <c r="A42" s="119" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -5810,7 +5923,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="145"/>
+      <c r="A43" s="121"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -5820,7 +5933,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="143" t="s">
+      <c r="A44" s="119" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -5828,25 +5941,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="144"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="144"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="144"/>
+      <c r="A47" s="120"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="145"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -5856,7 +5969,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="143" t="s">
+      <c r="A49" s="119" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -5864,13 +5977,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="144"/>
+      <c r="A50" s="120"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="145"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -5905,6 +6018,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A1:A2"/>
@@ -5915,11 +6033,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="151">
   <si>
     <t>Página</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>getNews(Dates)</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -645,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="176">
+  <cellXfs count="174">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1112,9 +1115,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1131,9 +1131,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2372,10 +2369,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G127" sqref="G127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2563,7 +2560,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="77">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="E8" s="61">
         <v>43126</v>
@@ -2572,7 +2569,7 @@
         <v>43126</v>
       </c>
       <c r="G8" s="111">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H8" s="61">
         <v>43126</v>
@@ -2656,8 +2653,8 @@
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="175">
-        <v>0.25</v>
+      <c r="D12" s="111">
+        <v>0.1</v>
       </c>
       <c r="E12" s="61">
         <v>43126</v>
@@ -2666,7 +2663,7 @@
         <v>43126</v>
       </c>
       <c r="G12" s="111">
-        <v>0.25</v>
+        <v>0.1</v>
       </c>
       <c r="H12" s="61">
         <v>43126</v>
@@ -4507,10 +4504,10 @@
       <c r="C104" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="169"/>
+      <c r="D104" s="168"/>
       <c r="E104" s="117"/>
       <c r="F104" s="117"/>
-      <c r="G104" s="169"/>
+      <c r="G104" s="168"/>
       <c r="H104" s="117"/>
       <c r="I104" s="117"/>
       <c r="J104" s="130"/>
@@ -4524,10 +4521,10 @@
       <c r="C105" s="100" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="169"/>
+      <c r="D105" s="168"/>
       <c r="E105" s="117"/>
       <c r="F105" s="117"/>
-      <c r="G105" s="169"/>
+      <c r="G105" s="168"/>
       <c r="H105" s="117"/>
       <c r="I105" s="117"/>
       <c r="J105" s="130"/>
@@ -4666,8 +4663,8 @@
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="169"/>
-      <c r="G112" s="169"/>
+      <c r="D112" s="168"/>
+      <c r="G112" s="168"/>
       <c r="J112" s="132"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
@@ -4678,8 +4675,8 @@
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="169"/>
-      <c r="G113" s="169"/>
+      <c r="D113" s="168"/>
+      <c r="G113" s="168"/>
       <c r="J113" s="132"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -4777,8 +4774,8 @@
       <c r="C119" s="114" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="166">
-        <v>0.17</v>
+      <c r="D119" s="111">
+        <v>0.1</v>
       </c>
       <c r="E119" s="64">
         <v>43126</v>
@@ -4786,8 +4783,8 @@
       <c r="F119" s="64">
         <v>43126</v>
       </c>
-      <c r="G119" s="168">
-        <v>0.17</v>
+      <c r="G119" s="111">
+        <v>0.1</v>
       </c>
       <c r="H119" s="64">
         <v>43126</v>
@@ -4806,10 +4803,10 @@
       <c r="C120" s="114" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="169"/>
+      <c r="D120" s="168"/>
       <c r="E120" s="113"/>
       <c r="F120" s="113"/>
-      <c r="G120" s="171"/>
+      <c r="G120" s="170"/>
       <c r="H120" s="113"/>
       <c r="I120" s="113"/>
       <c r="J120" s="132"/>
@@ -4822,10 +4819,10 @@
       <c r="C121" s="114" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="169"/>
+      <c r="D121" s="168"/>
       <c r="E121" s="113"/>
       <c r="F121" s="113"/>
-      <c r="G121" s="171"/>
+      <c r="G121" s="170"/>
       <c r="H121" s="113"/>
       <c r="I121" s="113"/>
       <c r="J121" s="132"/>
@@ -4841,14 +4838,14 @@
       <c r="D122" s="167"/>
       <c r="E122" s="55"/>
       <c r="F122" s="55"/>
-      <c r="G122" s="172"/>
+      <c r="G122" s="171"/>
       <c r="H122" s="55"/>
       <c r="I122" s="55"/>
       <c r="J122" s="128"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="115">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B123" s="147" t="s">
         <v>104</v>
@@ -4856,8 +4853,8 @@
       <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="166">
-        <v>0.17</v>
+      <c r="D123" s="111">
+        <v>0.1</v>
       </c>
       <c r="E123" s="64">
         <v>43126</v>
@@ -4865,8 +4862,8 @@
       <c r="F123" s="64">
         <v>43126</v>
       </c>
-      <c r="G123" s="166">
-        <v>0.17</v>
+      <c r="G123" s="111">
+        <v>0.1</v>
       </c>
       <c r="H123" s="64">
         <v>43126</v>
@@ -4879,35 +4876,35 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="116">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="B124" s="148"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="169"/>
+      <c r="D124" s="168"/>
       <c r="E124" s="88"/>
       <c r="F124" s="88"/>
-      <c r="G124" s="171"/>
+      <c r="G124" s="170"/>
       <c r="H124" s="88"/>
       <c r="I124" s="88"/>
       <c r="J124" s="132"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="116">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B125" s="148"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="169"/>
-      <c r="G125" s="171"/>
+      <c r="D125" s="168"/>
+      <c r="G125" s="170"/>
       <c r="J125" s="132"/>
     </row>
     <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="118">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B126" s="149"/>
       <c r="C126" s="51" t="s">
@@ -4916,14 +4913,14 @@
       <c r="D126" s="167"/>
       <c r="E126" s="55"/>
       <c r="F126" s="55"/>
-      <c r="G126" s="172"/>
+      <c r="G126" s="171"/>
       <c r="H126" s="55"/>
       <c r="I126" s="55"/>
       <c r="J126" s="128"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="115">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B127" s="136" t="s">
         <v>103</v>
@@ -4931,8 +4928,8 @@
       <c r="C127" s="58" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="166">
-        <v>0.17</v>
+      <c r="D127" s="111">
+        <v>0.1</v>
       </c>
       <c r="E127" s="64">
         <v>43126</v>
@@ -4940,8 +4937,8 @@
       <c r="F127" s="64">
         <v>43126</v>
       </c>
-      <c r="G127" s="166">
-        <v>0.17</v>
+      <c r="G127" s="111">
+        <v>0.1</v>
       </c>
       <c r="H127" s="64">
         <v>43126</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="116">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B128" s="137"/>
       <c r="C128" s="52" t="s">
@@ -4963,14 +4960,14 @@
       <c r="D128" s="162"/>
       <c r="E128" s="56"/>
       <c r="F128" s="56"/>
-      <c r="G128" s="173"/>
+      <c r="G128" s="172"/>
       <c r="H128" s="56"/>
       <c r="I128" s="56"/>
       <c r="J128" s="132"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A129" s="116">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B129" s="137"/>
       <c r="C129" s="52" t="s">
@@ -4979,14 +4976,14 @@
       <c r="D129" s="162"/>
       <c r="E129" s="56"/>
       <c r="F129" s="56"/>
-      <c r="G129" s="173"/>
+      <c r="G129" s="172"/>
       <c r="H129" s="56"/>
       <c r="I129" s="56"/>
       <c r="J129" s="132"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="118">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B130" s="138"/>
       <c r="C130" s="51" t="s">
@@ -4995,14 +4992,14 @@
       <c r="D130" s="163"/>
       <c r="E130" s="55"/>
       <c r="F130" s="55"/>
-      <c r="G130" s="174"/>
+      <c r="G130" s="173"/>
       <c r="H130" s="55"/>
       <c r="I130" s="55"/>
       <c r="J130" s="128"/>
     </row>
     <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="115">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B131" s="157" t="s">
         <v>27</v>
@@ -5013,7 +5010,7 @@
       <c r="D131" s="83"/>
       <c r="E131" s="64"/>
       <c r="F131" s="64"/>
-      <c r="G131" s="170"/>
+      <c r="G131" s="169"/>
       <c r="H131" s="69"/>
       <c r="I131" s="69"/>
       <c r="J131" s="152"/>
@@ -5021,7 +5018,7 @@
     </row>
     <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A132" s="116">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B132" s="158"/>
       <c r="C132" s="87" t="s">
@@ -5030,7 +5027,7 @@
       <c r="D132" s="85"/>
       <c r="E132" s="54"/>
       <c r="F132" s="57"/>
-      <c r="G132" s="170"/>
+      <c r="G132" s="169"/>
       <c r="H132" s="70"/>
       <c r="I132" s="56"/>
       <c r="J132" s="153"/>
@@ -5038,7 +5035,7 @@
     </row>
     <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B133" s="158"/>
       <c r="C133" s="87" t="s">
@@ -5047,7 +5044,7 @@
       <c r="D133" s="85"/>
       <c r="E133" s="54"/>
       <c r="F133" s="57"/>
-      <c r="G133" s="170"/>
+      <c r="G133" s="169"/>
       <c r="H133" s="70"/>
       <c r="I133" s="56"/>
       <c r="J133" s="153"/>
@@ -5055,7 +5052,7 @@
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="118">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B134" s="159"/>
       <c r="C134" s="51" t="s">
@@ -5071,7 +5068,7 @@
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="115">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B135" s="144" t="s">
         <v>54</v>
@@ -5092,7 +5089,7 @@
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="116">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B136" s="145"/>
       <c r="C136" s="87" t="s">
@@ -5108,7 +5105,7 @@
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A137" s="116">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B137" s="145"/>
       <c r="C137" s="87" t="s">
@@ -5124,7 +5121,7 @@
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="118">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B138" s="146"/>
       <c r="C138" s="51" t="s">
@@ -5140,7 +5137,7 @@
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="115">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B139" s="136" t="s">
         <v>55</v>
@@ -5161,7 +5158,7 @@
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="116">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B140" s="137"/>
       <c r="C140" s="52" t="s">
@@ -5177,7 +5174,7 @@
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A141" s="116">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B141" s="137"/>
       <c r="C141" s="52" t="s">
@@ -5193,7 +5190,7 @@
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="118">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B142" s="138"/>
       <c r="C142" s="51" t="s">
@@ -5209,7 +5206,7 @@
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="115">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B143" s="155" t="s">
         <v>84</v>
@@ -5227,7 +5224,7 @@
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A144" s="116">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B144" s="156"/>
       <c r="C144" s="52" t="s">
@@ -5243,7 +5240,7 @@
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A145" s="116">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B145" s="150" t="s">
         <v>134</v>
@@ -5261,7 +5258,7 @@
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="118">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B146" s="151"/>
       <c r="C146" s="51" t="s">
@@ -5277,7 +5274,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A147" s="115">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B147" s="155" t="s">
         <v>43</v>
@@ -5298,7 +5295,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="116">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B148" s="156"/>
       <c r="C148" s="52" t="s">
@@ -5314,7 +5311,7 @@
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A149" s="116">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B149" s="150" t="s">
         <v>134</v>
@@ -5332,7 +5329,7 @@
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="118">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B150" s="151"/>
       <c r="C150" s="51" t="s">
@@ -5348,7 +5345,7 @@
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A151" s="115">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B151" s="136" t="s">
         <v>15</v>
@@ -5376,7 +5373,7 @@
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A152" s="116">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B152" s="137"/>
       <c r="C152" s="52" t="s">
@@ -5392,7 +5389,7 @@
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A153" s="116">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B153" s="137"/>
       <c r="C153" s="52" t="s">
@@ -5408,7 +5405,7 @@
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="118">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B154" s="138"/>
       <c r="C154" s="51" t="s">
@@ -5425,13 +5422,22 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" s="45">
         <f>SUM(D3:D154)</f>
-        <v>6.3800000000000008</v>
+        <v>5.8699999999999992</v>
       </c>
       <c r="E155" s="112"/>
       <c r="F155" s="112"/>
       <c r="G155" s="112">
         <f>SUM(G3:G154)</f>
-        <v>4.8100000000000005</v>
+        <v>4.3000000000000007</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B157" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="C157" s="53">
+        <f>SUM(D155,G155)</f>
+        <v>10.17</v>
       </c>
     </row>
   </sheetData>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -2371,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G127" sqref="G127"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44:I44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2746,11 +2746,24 @@
       <c r="C16" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="73"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="57"/>
+      <c r="D16" s="73">
+        <v>0.13</v>
+      </c>
+      <c r="E16" s="57">
+        <v>43127</v>
+      </c>
+      <c r="F16" s="57">
+        <v>43127</v>
+      </c>
+      <c r="G16" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="H16" s="57">
+        <v>43127</v>
+      </c>
+      <c r="I16" s="57">
+        <v>43127</v>
+      </c>
       <c r="J16" s="132"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -2825,11 +2838,24 @@
       <c r="C20" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="73"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="57"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="57"/>
+      <c r="D20" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E20" s="57">
+        <v>43127</v>
+      </c>
+      <c r="F20" s="57">
+        <v>43127</v>
+      </c>
+      <c r="G20" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="H20" s="57">
+        <v>43127</v>
+      </c>
+      <c r="I20" s="57">
+        <v>43127</v>
+      </c>
       <c r="J20" s="132"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -2904,11 +2930,24 @@
       <c r="C24" s="75" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="57"/>
+      <c r="D24" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E24" s="57">
+        <v>43127</v>
+      </c>
+      <c r="F24" s="57">
+        <v>43127</v>
+      </c>
+      <c r="G24" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="H24" s="57">
+        <v>43127</v>
+      </c>
+      <c r="I24" s="57">
+        <v>43127</v>
+      </c>
       <c r="J24" s="132"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -2983,11 +3022,24 @@
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="49"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="56"/>
+      <c r="D28" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E28" s="57">
+        <v>43127</v>
+      </c>
+      <c r="F28" s="57">
+        <v>43127</v>
+      </c>
+      <c r="G28" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="H28" s="57">
+        <v>43127</v>
+      </c>
+      <c r="I28" s="57">
+        <v>43127</v>
+      </c>
       <c r="J28" s="132"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -3062,11 +3114,24 @@
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D32" s="49"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="56"/>
+      <c r="D32" s="49">
+        <v>0.13</v>
+      </c>
+      <c r="E32" s="57">
+        <v>43128</v>
+      </c>
+      <c r="F32" s="57">
+        <v>43128</v>
+      </c>
+      <c r="G32" s="162">
+        <v>0.13</v>
+      </c>
+      <c r="H32" s="57">
+        <v>43128</v>
+      </c>
+      <c r="I32" s="57">
+        <v>43128</v>
+      </c>
       <c r="J32" s="132"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -3144,11 +3209,24 @@
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="49"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="54"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="56"/>
+      <c r="D36" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E36" s="57">
+        <v>43128</v>
+      </c>
+      <c r="F36" s="57">
+        <v>43128</v>
+      </c>
+      <c r="G36" s="162">
+        <v>0.13</v>
+      </c>
+      <c r="H36" s="57">
+        <v>43128</v>
+      </c>
+      <c r="I36" s="57">
+        <v>43128</v>
+      </c>
       <c r="J36" s="132"/>
       <c r="L36" s="95" t="s">
         <v>143</v>
@@ -3228,11 +3306,24 @@
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="49"/>
-      <c r="E40" s="54"/>
-      <c r="F40" s="54"/>
-      <c r="H40" s="56"/>
-      <c r="I40" s="56"/>
+      <c r="D40" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E40" s="57">
+        <v>43128</v>
+      </c>
+      <c r="F40" s="57">
+        <v>43128</v>
+      </c>
+      <c r="G40" s="162">
+        <v>0.13</v>
+      </c>
+      <c r="H40" s="57">
+        <v>43128</v>
+      </c>
+      <c r="I40" s="57">
+        <v>43128</v>
+      </c>
       <c r="J40" s="132"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
@@ -3307,11 +3398,24 @@
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="49"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="56"/>
-      <c r="H44" s="56"/>
-      <c r="I44" s="56"/>
+      <c r="D44" s="111">
+        <v>0.13</v>
+      </c>
+      <c r="E44" s="57">
+        <v>43128</v>
+      </c>
+      <c r="F44" s="57">
+        <v>43128</v>
+      </c>
+      <c r="G44" s="162">
+        <v>0.13</v>
+      </c>
+      <c r="H44" s="57">
+        <v>43128</v>
+      </c>
+      <c r="I44" s="57">
+        <v>43128</v>
+      </c>
       <c r="J44" s="132"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
@@ -5422,13 +5526,13 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" s="45">
         <f>SUM(D3:D154)</f>
-        <v>5.8699999999999992</v>
+        <v>6.9099999999999993</v>
       </c>
       <c r="E155" s="112"/>
       <c r="F155" s="112"/>
       <c r="G155" s="112">
         <f>SUM(G3:G154)</f>
-        <v>4.3000000000000007</v>
+        <v>5.34</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5437,7 +5541,7 @@
       </c>
       <c r="C157" s="53">
         <f>SUM(D155,G155)</f>
-        <v>10.17</v>
+        <v>12.25</v>
       </c>
     </row>
   </sheetData>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -2371,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D44" sqref="D44:I44"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K24" activeCellId="2" sqref="K16 K20 K24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,6 +2765,7 @@
         <v>43127</v>
       </c>
       <c r="J16" s="132"/>
+      <c r="K16" s="93"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="107">
@@ -2857,6 +2858,7 @@
         <v>43127</v>
       </c>
       <c r="J20" s="132"/>
+      <c r="K20" s="93"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="107">
@@ -2949,6 +2951,7 @@
         <v>43127</v>
       </c>
       <c r="J24" s="132"/>
+      <c r="K24" s="93"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="107">

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -2371,8 +2371,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L157"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K24" activeCellId="2" sqref="K16 K20 K24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31:B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3044,6 +3044,7 @@
         <v>43127</v>
       </c>
       <c r="J28" s="132"/>
+      <c r="K28" s="93"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="107">

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\Develop\Projects\fantasyleague\src\lagartija\schedules\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\Freelance\FantasyLeague\Project\lagartija\schedules\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -486,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,6 +511,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -648,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="174">
+  <cellXfs count="173">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -791,18 +799,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -818,26 +820,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -886,15 +868,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -910,22 +883,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -938,9 +906,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,170 +913,194 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1132,6 +1121,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1435,37 +1448,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="140" t="s">
+      <c r="C1" s="127" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="140" t="s">
+      <c r="D1" s="127" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="140"/>
-      <c r="F1" s="143" t="s">
+      <c r="E1" s="127"/>
+      <c r="F1" s="130" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
-      <c r="C2" s="141"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="144"/>
+      <c r="F2" s="131"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1485,7 +1498,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1514,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1517,7 +1530,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1533,7 +1546,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1549,7 +1562,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1563,7 +1576,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1572,7 +1585,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="132" t="s">
+      <c r="D9" s="119" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1583,27 +1596,27 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="137"/>
+      <c r="D10" s="124"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="133"/>
+      <c r="D11" s="120"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1646,47 +1659,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="152" t="s">
+      <c r="C14" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="131" t="s">
+      <c r="D14" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="131">
+      <c r="E14" s="118">
         <v>0.5</v>
       </c>
-      <c r="F14" s="134" t="s">
+      <c r="F14" s="121" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="153"/>
-      <c r="D15" s="132"/>
-      <c r="E15" s="132"/>
-      <c r="F15" s="135"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="122"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="154"/>
-      <c r="D16" s="133"/>
-      <c r="E16" s="133"/>
-      <c r="F16" s="136"/>
+      <c r="C16" s="141"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="123"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1695,7 +1708,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="131" t="s">
+      <c r="D17" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1706,53 +1719,53 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="132"/>
+      <c r="D18" s="119"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="132"/>
+      <c r="D19" s="119"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="132"/>
+      <c r="D20" s="119"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="133"/>
+      <c r="D21" s="120"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1815,7 +1828,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1824,7 +1837,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="131" t="s">
+      <c r="D25" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1835,27 +1848,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="137"/>
+      <c r="D26" s="124"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="149"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="133"/>
+      <c r="D27" s="120"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1882,7 +1895,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1899,7 +1912,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1914,14 +1927,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="145" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="137">
+      <c r="D31" s="124">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1932,25 +1945,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="137"/>
+      <c r="D32" s="124"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="145" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="137">
+      <c r="D33" s="124">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1961,12 +1974,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="137"/>
+      <c r="D34" s="124"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1975,7 +1988,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -2013,7 +2026,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2033,7 +2046,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="148"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -2048,7 +2061,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="148"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -2063,8 +2076,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="148"/>
-      <c r="B40" s="145" t="s">
+      <c r="A40" s="135"/>
+      <c r="B40" s="132" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -2078,8 +2091,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="149"/>
-      <c r="B41" s="146"/>
+      <c r="A41" s="136"/>
+      <c r="B41" s="133"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2110,7 +2123,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="147" t="s">
+      <c r="A43" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2119,7 +2132,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="131" t="s">
+      <c r="D43" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2130,14 +2143,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="149"/>
+      <c r="A44" s="136"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="133"/>
+      <c r="D44" s="120"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2146,7 +2159,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="147" t="s">
+      <c r="A45" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2155,7 +2168,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="131" t="s">
+      <c r="D45" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2163,56 +2176,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="148"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="137"/>
-      <c r="E46" s="137" t="s">
+      <c r="D46" s="124"/>
+      <c r="E46" s="124" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="148"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="148"/>
+      <c r="A48" s="135"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="137"/>
-      <c r="E48" s="137"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="149"/>
+      <c r="A49" s="136"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="133"/>
+      <c r="D49" s="120"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="147" t="s">
+      <c r="A50" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2221,7 +2234,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="131" t="s">
+      <c r="D50" s="118" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2229,27 +2242,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="148"/>
+      <c r="A51" s="135"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="137"/>
+      <c r="D51" s="124"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="149"/>
+      <c r="A52" s="136"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="133"/>
+      <c r="D52" s="120"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2372,3171 +2385,3470 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+      <selection activeCell="H133" sqref="H133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="82"/>
+    <col min="1" max="1" width="11.42578125" style="72"/>
     <col min="2" max="2" width="61" style="53" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="14" style="45" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="50"/>
-    <col min="7" max="7" width="13.42578125" style="119" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="50"/>
-    <col min="11" max="11" width="21.28515625" style="94" customWidth="1"/>
+    <col min="5" max="6" width="11.42578125" style="116"/>
+    <col min="7" max="7" width="13.42578125" style="101" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="116"/>
+    <col min="11" max="11" width="21.28515625" style="81" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="135" t="s">
+      <c r="B1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="122" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="157" t="s">
+      <c r="E1" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="157"/>
-      <c r="G1" s="119" t="s">
+      <c r="F1" s="144"/>
+      <c r="G1" s="101" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="157" t="s">
+      <c r="H1" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="157"/>
+      <c r="I1" s="144"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="164" t="s">
+      <c r="K1" s="151" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="155"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
+      <c r="A2" s="142"/>
+      <c r="B2" s="123"/>
+      <c r="C2" s="123"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="102" t="s">
         <v>123</v>
       </c>
-      <c r="H2" s="55" t="s">
+      <c r="H2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="I2" s="55" t="s">
+      <c r="I2" s="54" t="s">
         <v>127</v>
       </c>
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="164"/>
+      <c r="K2" s="151"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106">
+      <c r="A3" s="90">
         <v>1</v>
       </c>
-      <c r="B3" s="134" t="s">
+      <c r="B3" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="58" t="s">
+      <c r="C3" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D3" s="44"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="121"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="156">
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+      <c r="G3" s="103"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="143">
         <v>1</v>
       </c>
-      <c r="K3" s="92"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="107">
+      <c r="A4" s="91">
         <v>2</v>
       </c>
-      <c r="B4" s="135"/>
+      <c r="B4" s="122"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="49"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="56"/>
-      <c r="G4" s="122"/>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="93"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="104"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="126"/>
+      <c r="K4" s="80"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="107">
+      <c r="A5" s="91">
         <v>3</v>
       </c>
-      <c r="B5" s="135"/>
+      <c r="B5" s="122"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="49"/>
-      <c r="E5" s="56"/>
-      <c r="F5" s="56"/>
-      <c r="G5" s="122"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="56"/>
-      <c r="J5" s="139"/>
-      <c r="K5" s="93"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="104"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="126"/>
+      <c r="K5" s="80"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="108">
+      <c r="A6" s="92">
         <v>4</v>
       </c>
-      <c r="B6" s="136"/>
+      <c r="B6" s="123"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="46"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="55"/>
-      <c r="I6" s="55"/>
-      <c r="J6" s="142"/>
-      <c r="K6" s="93"/>
-    </row>
-    <row r="7" spans="1:11" s="79" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="106">
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="102"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
+      <c r="J6" s="129"/>
+      <c r="K6" s="80"/>
+    </row>
+    <row r="7" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="90">
         <v>5</v>
       </c>
-      <c r="B7" s="134" t="s">
+      <c r="B7" s="121" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="80" t="s">
+      <c r="C7" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="76">
+      <c r="D7" s="66">
         <v>0.1</v>
       </c>
-      <c r="E7" s="60">
+      <c r="E7" s="58">
         <v>43121</v>
       </c>
-      <c r="F7" s="60">
+      <c r="F7" s="58">
         <v>43121</v>
       </c>
-      <c r="G7" s="121">
+      <c r="G7" s="103">
         <v>0.04</v>
       </c>
-      <c r="H7" s="60">
+      <c r="H7" s="58">
         <v>43121</v>
       </c>
-      <c r="I7" s="60">
+      <c r="I7" s="58">
         <v>43121</v>
       </c>
-      <c r="J7" s="156">
+      <c r="J7" s="143">
         <v>0.5</v>
       </c>
-      <c r="K7" s="92"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="107">
+      <c r="A8" s="91">
         <v>6</v>
       </c>
-      <c r="B8" s="135"/>
-      <c r="C8" s="81" t="s">
+      <c r="B8" s="122"/>
+      <c r="C8" s="71" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="77">
+      <c r="D8" s="67">
         <v>0.1</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>43126</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="59">
         <v>43126</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="94">
         <v>0.1</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="59">
         <v>43126</v>
       </c>
-      <c r="I8" s="61">
+      <c r="I8" s="59">
         <v>43126</v>
       </c>
-      <c r="J8" s="139"/>
-      <c r="K8" s="93"/>
+      <c r="J8" s="126"/>
+      <c r="K8" s="80"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="107">
+      <c r="A9" s="91">
         <v>7</v>
       </c>
-      <c r="B9" s="135"/>
-      <c r="C9" s="81" t="s">
+      <c r="B9" s="122"/>
+      <c r="C9" s="71" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="77"/>
-      <c r="E9" s="56"/>
-      <c r="F9" s="56"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
-      <c r="J9" s="139"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="126"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="108">
+      <c r="A10" s="92">
         <v>8</v>
       </c>
-      <c r="B10" s="136"/>
+      <c r="B10" s="123"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="78"/>
-      <c r="E10" s="55"/>
-      <c r="F10" s="55"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="55"/>
-      <c r="J10" s="142"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="102"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="129"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="106">
+      <c r="A11" s="90">
         <v>9</v>
       </c>
-      <c r="B11" s="134" t="s">
+      <c r="B11" s="121" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D11" s="44">
         <v>0.13</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="165">
         <v>43118</v>
       </c>
-      <c r="F11" s="57">
+      <c r="F11" s="165">
         <v>42753</v>
       </c>
-      <c r="G11" s="110">
+      <c r="G11" s="93">
         <v>0.13</v>
       </c>
-      <c r="H11" s="69">
+      <c r="H11" s="167">
         <v>43118</v>
       </c>
-      <c r="I11" s="64">
+      <c r="I11" s="167">
         <v>43118</v>
       </c>
-      <c r="J11" s="156">
+      <c r="J11" s="143">
         <v>0.5</v>
       </c>
-      <c r="K11" s="93"/>
+      <c r="K11" s="80"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="107">
+      <c r="A12" s="91">
         <v>10</v>
       </c>
-      <c r="B12" s="135"/>
+      <c r="B12" s="122"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="111">
+      <c r="D12" s="94">
         <v>0.1</v>
       </c>
-      <c r="E12" s="61">
+      <c r="E12" s="59">
         <v>43126</v>
       </c>
-      <c r="F12" s="61">
+      <c r="F12" s="59">
         <v>43126</v>
       </c>
-      <c r="G12" s="111">
+      <c r="G12" s="94">
         <v>0.1</v>
       </c>
-      <c r="H12" s="61">
+      <c r="H12" s="59">
         <v>43126</v>
       </c>
-      <c r="I12" s="61">
+      <c r="I12" s="59">
         <v>43126</v>
       </c>
-      <c r="J12" s="139"/>
-      <c r="K12" s="93"/>
+      <c r="J12" s="126"/>
+      <c r="K12" s="80"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="107">
+      <c r="A13" s="91">
         <v>11</v>
       </c>
-      <c r="B13" s="135"/>
+      <c r="B13" s="122"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D13" s="49"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="57"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="139"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="59"/>
+      <c r="J13" s="126"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="108">
+      <c r="A14" s="92">
         <v>12</v>
       </c>
-      <c r="B14" s="136"/>
+      <c r="B14" s="123"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D14" s="46"/>
-      <c r="E14" s="65"/>
-      <c r="F14" s="65"/>
-      <c r="G14" s="120"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="142"/>
+      <c r="E14" s="166"/>
+      <c r="F14" s="166"/>
+      <c r="G14" s="102"/>
+      <c r="H14" s="166"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="129"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="106">
+      <c r="A15" s="90">
         <v>13</v>
       </c>
-      <c r="B15" s="134" t="s">
+      <c r="B15" s="121" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="74" t="s">
+      <c r="C15" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="110">
+      <c r="D15" s="93">
         <v>0.13</v>
       </c>
-      <c r="E15" s="57">
+      <c r="E15" s="165">
         <v>43118</v>
       </c>
-      <c r="F15" s="57">
+      <c r="F15" s="165">
         <v>42753</v>
       </c>
-      <c r="G15" s="110">
+      <c r="G15" s="93">
         <v>0.13</v>
       </c>
-      <c r="H15" s="69">
+      <c r="H15" s="167">
         <v>43118</v>
       </c>
-      <c r="I15" s="64">
+      <c r="I15" s="167">
         <v>43118</v>
       </c>
-      <c r="J15" s="156">
+      <c r="J15" s="143">
         <v>0.5</v>
       </c>
-      <c r="K15" s="93"/>
+      <c r="K15" s="80"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="107">
+      <c r="A16" s="91">
         <v>14</v>
       </c>
-      <c r="B16" s="135"/>
-      <c r="C16" s="75" t="s">
+      <c r="B16" s="122"/>
+      <c r="C16" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="73">
+      <c r="D16" s="63">
         <v>0.13</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="165">
         <v>43127</v>
       </c>
-      <c r="F16" s="57">
+      <c r="F16" s="165">
         <v>43127</v>
       </c>
-      <c r="G16" s="111">
+      <c r="G16" s="94">
         <v>0.13</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="165">
         <v>43127</v>
       </c>
-      <c r="I16" s="57">
+      <c r="I16" s="165">
         <v>43127</v>
       </c>
-      <c r="J16" s="139"/>
-      <c r="K16" s="93"/>
+      <c r="J16" s="126"/>
+      <c r="K16" s="80"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="107">
+      <c r="A17" s="91">
         <v>15</v>
       </c>
-      <c r="B17" s="135"/>
-      <c r="C17" s="75" t="s">
+      <c r="B17" s="122"/>
+      <c r="C17" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="73"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="61"/>
-      <c r="J17" s="139"/>
+      <c r="D17" s="63"/>
+      <c r="E17" s="165"/>
+      <c r="F17" s="165"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="126"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="108">
+      <c r="A18" s="92">
         <v>16</v>
       </c>
-      <c r="B18" s="136"/>
+      <c r="B18" s="123"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="72"/>
-      <c r="E18" s="65"/>
-      <c r="F18" s="65"/>
-      <c r="G18" s="120"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="142"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="102"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="106">
+      <c r="A19" s="90">
         <v>17</v>
       </c>
-      <c r="B19" s="134" t="s">
+      <c r="B19" s="121" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="74" t="s">
+      <c r="C19" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="110">
+      <c r="D19" s="93">
         <v>0.13</v>
       </c>
-      <c r="E19" s="57">
+      <c r="E19" s="165">
         <v>43118</v>
       </c>
-      <c r="F19" s="57">
+      <c r="F19" s="165">
         <v>42753</v>
       </c>
-      <c r="G19" s="110">
+      <c r="G19" s="93">
         <v>0.13</v>
       </c>
-      <c r="H19" s="69">
+      <c r="H19" s="167">
         <v>43118</v>
       </c>
-      <c r="I19" s="64">
+      <c r="I19" s="167">
         <v>43118</v>
       </c>
-      <c r="J19" s="156">
+      <c r="J19" s="143">
         <v>0.5</v>
       </c>
-      <c r="K19" s="93"/>
+      <c r="K19" s="80"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="107">
+      <c r="A20" s="91">
         <v>18</v>
       </c>
-      <c r="B20" s="135"/>
-      <c r="C20" s="75" t="s">
+      <c r="B20" s="122"/>
+      <c r="C20" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="111">
+      <c r="D20" s="94">
         <v>0.13</v>
       </c>
-      <c r="E20" s="57">
+      <c r="E20" s="165">
         <v>43127</v>
       </c>
-      <c r="F20" s="57">
+      <c r="F20" s="165">
         <v>43127</v>
       </c>
-      <c r="G20" s="111">
+      <c r="G20" s="94">
         <v>0.13</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="165">
         <v>43127</v>
       </c>
-      <c r="I20" s="57">
+      <c r="I20" s="165">
         <v>43127</v>
       </c>
-      <c r="J20" s="139"/>
-      <c r="K20" s="93"/>
+      <c r="J20" s="126"/>
+      <c r="K20" s="80"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="107">
+      <c r="A21" s="91">
         <v>19</v>
       </c>
-      <c r="B21" s="135"/>
-      <c r="C21" s="75" t="s">
+      <c r="B21" s="122"/>
+      <c r="C21" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="57"/>
-      <c r="F21" s="57"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="61"/>
-      <c r="J21" s="139"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="165"/>
+      <c r="F21" s="165"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="126"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="108">
+      <c r="A22" s="92">
         <v>20</v>
       </c>
-      <c r="B22" s="136"/>
+      <c r="B22" s="123"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="72"/>
-      <c r="E22" s="65"/>
-      <c r="F22" s="65"/>
-      <c r="G22" s="120"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="142"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="102"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="129"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="106">
+      <c r="A23" s="90">
         <v>21</v>
       </c>
-      <c r="B23" s="134" t="s">
+      <c r="B23" s="121" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="74" t="s">
+      <c r="C23" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="110">
+      <c r="D23" s="93">
         <v>0.13</v>
       </c>
-      <c r="E23" s="57">
+      <c r="E23" s="165">
         <v>43118</v>
       </c>
-      <c r="F23" s="57">
+      <c r="F23" s="165">
         <v>42753</v>
       </c>
-      <c r="G23" s="110">
+      <c r="G23" s="93">
         <v>0.13</v>
       </c>
-      <c r="H23" s="69">
+      <c r="H23" s="167">
         <v>43118</v>
       </c>
-      <c r="I23" s="64">
+      <c r="I23" s="167">
         <v>43118</v>
       </c>
-      <c r="J23" s="156">
+      <c r="J23" s="143">
         <v>0.5</v>
       </c>
-      <c r="K23" s="93"/>
+      <c r="K23" s="80"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="107">
+      <c r="A24" s="91">
         <v>22</v>
       </c>
-      <c r="B24" s="135"/>
-      <c r="C24" s="75" t="s">
+      <c r="B24" s="122"/>
+      <c r="C24" s="65" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="111">
+      <c r="D24" s="94">
         <v>0.13</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="165">
         <v>43127</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="165">
         <v>43127</v>
       </c>
-      <c r="G24" s="111">
+      <c r="G24" s="94">
         <v>0.13</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="165">
         <v>43127</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="165">
         <v>43127</v>
       </c>
-      <c r="J24" s="139"/>
-      <c r="K24" s="93"/>
+      <c r="J24" s="126"/>
+      <c r="K24" s="80"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="107">
+      <c r="A25" s="91">
         <v>23</v>
       </c>
-      <c r="B25" s="135"/>
-      <c r="C25" s="75" t="s">
+      <c r="B25" s="122"/>
+      <c r="C25" s="65" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="73"/>
-      <c r="E25" s="57"/>
-      <c r="F25" s="57"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="61"/>
-      <c r="J25" s="139"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="165"/>
+      <c r="F25" s="165"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="126"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="108">
+      <c r="A26" s="92">
         <v>24</v>
       </c>
-      <c r="B26" s="136"/>
+      <c r="B26" s="123"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="72"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="142"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="106">
+      <c r="A27" s="90">
         <v>25</v>
       </c>
-      <c r="B27" s="134" t="s">
+      <c r="B27" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="110">
+      <c r="D27" s="93">
         <v>0.25</v>
       </c>
-      <c r="E27" s="64">
+      <c r="E27" s="167">
         <v>43119</v>
       </c>
-      <c r="F27" s="64">
+      <c r="F27" s="167">
         <v>43119</v>
       </c>
-      <c r="G27" s="110">
+      <c r="G27" s="93">
         <v>0.04</v>
       </c>
-      <c r="H27" s="69">
+      <c r="H27" s="167">
         <v>43121</v>
       </c>
-      <c r="I27" s="64">
+      <c r="I27" s="167">
         <v>43121</v>
       </c>
-      <c r="J27" s="156">
+      <c r="J27" s="143">
         <v>0.5</v>
       </c>
-      <c r="K27" s="93"/>
+      <c r="K27" s="80"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="107">
+      <c r="A28" s="91">
         <v>26</v>
       </c>
-      <c r="B28" s="135"/>
+      <c r="B28" s="122"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="111">
+      <c r="D28" s="94">
         <v>0.13</v>
       </c>
-      <c r="E28" s="57">
+      <c r="E28" s="165">
         <v>43127</v>
       </c>
-      <c r="F28" s="57">
+      <c r="F28" s="165">
         <v>43127</v>
       </c>
-      <c r="G28" s="111">
+      <c r="G28" s="94">
         <v>0.13</v>
       </c>
-      <c r="H28" s="57">
+      <c r="H28" s="165">
         <v>43127</v>
       </c>
-      <c r="I28" s="57">
+      <c r="I28" s="165">
         <v>43127</v>
       </c>
-      <c r="J28" s="139"/>
-      <c r="K28" s="93"/>
+      <c r="J28" s="126"/>
+      <c r="K28" s="80"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="107">
+      <c r="A29" s="91">
         <v>27</v>
       </c>
-      <c r="B29" s="135"/>
+      <c r="B29" s="122"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D29" s="49"/>
-      <c r="E29" s="57"/>
-      <c r="F29" s="57"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="56"/>
-      <c r="J29" s="139"/>
+      <c r="E29" s="165"/>
+      <c r="F29" s="165"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="126"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="108">
+      <c r="A30" s="92">
         <v>28</v>
       </c>
-      <c r="B30" s="136"/>
+      <c r="B30" s="123"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D30" s="46"/>
-      <c r="E30" s="65"/>
-      <c r="F30" s="65"/>
-      <c r="G30" s="120"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="55"/>
-      <c r="J30" s="142"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="102"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="54"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="106">
+      <c r="A31" s="90">
         <v>29</v>
       </c>
-      <c r="B31" s="134" t="s">
+      <c r="B31" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="110">
+      <c r="D31" s="93">
         <v>0.25</v>
       </c>
-      <c r="E31" s="64">
+      <c r="E31" s="167">
         <v>43119</v>
       </c>
-      <c r="F31" s="64">
+      <c r="F31" s="167">
         <v>43119</v>
       </c>
-      <c r="G31" s="110">
+      <c r="G31" s="93">
         <v>0.04</v>
       </c>
-      <c r="H31" s="69">
+      <c r="H31" s="167">
         <v>43121</v>
       </c>
-      <c r="I31" s="64">
+      <c r="I31" s="167">
         <v>43121</v>
       </c>
-      <c r="J31" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K31" s="93"/>
+      <c r="J31" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K31" s="80"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="107">
+      <c r="A32" s="91">
         <v>30</v>
       </c>
-      <c r="B32" s="135"/>
+      <c r="B32" s="122"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="49">
         <v>0.13</v>
       </c>
-      <c r="E32" s="57">
+      <c r="E32" s="165">
         <v>43128</v>
       </c>
-      <c r="F32" s="57">
+      <c r="F32" s="165">
         <v>43128</v>
       </c>
-      <c r="G32" s="119">
+      <c r="G32" s="101">
         <v>0.13</v>
       </c>
-      <c r="H32" s="57">
+      <c r="H32" s="165">
         <v>43128</v>
       </c>
-      <c r="I32" s="57">
+      <c r="I32" s="165">
         <v>43128</v>
       </c>
-      <c r="J32" s="139"/>
+      <c r="J32" s="126"/>
+      <c r="K32" s="80"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="107">
+      <c r="A33" s="91">
         <v>31</v>
       </c>
-      <c r="B33" s="135"/>
+      <c r="B33" s="122"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D33" s="49"/>
-      <c r="E33" s="57"/>
-      <c r="F33" s="57"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="56"/>
-      <c r="J33" s="139"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="165"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="55"/>
+      <c r="J33" s="126"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="108">
+      <c r="A34" s="92">
         <v>32</v>
       </c>
-      <c r="B34" s="136"/>
+      <c r="B34" s="123"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D34" s="46"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="120"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="55"/>
-      <c r="J34" s="142"/>
+      <c r="E34" s="166"/>
+      <c r="F34" s="166"/>
+      <c r="G34" s="102"/>
+      <c r="H34" s="166"/>
+      <c r="I34" s="54"/>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="106">
+      <c r="A35" s="90">
         <v>33</v>
       </c>
-      <c r="B35" s="134" t="s">
+      <c r="B35" s="121" t="s">
         <v>14</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="110">
+      <c r="D35" s="93">
         <v>0.25</v>
       </c>
-      <c r="E35" s="64">
+      <c r="E35" s="167">
         <v>43119</v>
       </c>
-      <c r="F35" s="64">
+      <c r="F35" s="167">
         <v>43119</v>
       </c>
-      <c r="G35" s="110">
+      <c r="G35" s="93">
         <v>0.04</v>
       </c>
-      <c r="H35" s="89">
+      <c r="H35" s="171">
         <v>43121</v>
       </c>
-      <c r="I35" s="90">
+      <c r="I35" s="171">
         <v>43121</v>
       </c>
-      <c r="J35" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K35" s="93"/>
-      <c r="L35" s="95" t="s">
+      <c r="J35" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K35" s="80"/>
+      <c r="L35" s="82" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="107">
+      <c r="A36" s="91">
         <v>34</v>
       </c>
-      <c r="B36" s="135"/>
+      <c r="B36" s="122"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="111">
+      <c r="D36" s="94">
         <v>0.13</v>
       </c>
-      <c r="E36" s="57">
+      <c r="E36" s="165">
         <v>43128</v>
       </c>
-      <c r="F36" s="57">
+      <c r="F36" s="165">
         <v>43128</v>
       </c>
-      <c r="G36" s="119">
+      <c r="G36" s="101">
         <v>0.13</v>
       </c>
-      <c r="H36" s="57">
+      <c r="H36" s="165">
         <v>43128</v>
       </c>
-      <c r="I36" s="57">
+      <c r="I36" s="165">
         <v>43128</v>
       </c>
-      <c r="J36" s="139"/>
-      <c r="L36" s="95" t="s">
+      <c r="J36" s="126"/>
+      <c r="K36" s="80"/>
+      <c r="L36" s="82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="107">
+      <c r="A37" s="91">
         <v>35</v>
       </c>
-      <c r="B37" s="135"/>
+      <c r="B37" s="122"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D37" s="49"/>
-      <c r="E37" s="54"/>
-      <c r="F37" s="54"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="56"/>
-      <c r="J37" s="139"/>
-      <c r="K37" s="96"/>
+      <c r="E37" s="115"/>
+      <c r="F37" s="115"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="55"/>
+      <c r="J37" s="126"/>
+      <c r="K37" s="83"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="108">
+      <c r="A38" s="92">
         <v>36</v>
       </c>
-      <c r="B38" s="136"/>
+      <c r="B38" s="123"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D38" s="46"/>
-      <c r="E38" s="63"/>
-      <c r="F38" s="63"/>
-      <c r="G38" s="120"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="55"/>
-      <c r="J38" s="142"/>
-      <c r="K38" s="96"/>
+      <c r="E38" s="114"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="102"/>
+      <c r="H38" s="166"/>
+      <c r="I38" s="54"/>
+      <c r="J38" s="129"/>
+      <c r="K38" s="83"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="106">
+      <c r="A39" s="90">
         <v>37</v>
       </c>
-      <c r="B39" s="158" t="s">
+      <c r="B39" s="145" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="110">
+      <c r="D39" s="93">
         <v>0.25</v>
       </c>
-      <c r="E39" s="64">
+      <c r="E39" s="167">
         <v>43119</v>
       </c>
-      <c r="F39" s="64">
+      <c r="F39" s="167">
         <v>43119</v>
       </c>
-      <c r="G39" s="110">
+      <c r="G39" s="93">
         <v>0.04</v>
       </c>
-      <c r="H39" s="89">
+      <c r="H39" s="171">
         <v>43121</v>
       </c>
-      <c r="I39" s="90">
+      <c r="I39" s="171">
         <v>43121</v>
       </c>
-      <c r="J39" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K39" s="93"/>
+      <c r="J39" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K39" s="80"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="107">
+      <c r="A40" s="91">
         <v>38</v>
       </c>
-      <c r="B40" s="159"/>
+      <c r="B40" s="146"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="111">
+      <c r="D40" s="94">
         <v>0.13</v>
       </c>
-      <c r="E40" s="57">
+      <c r="E40" s="165">
         <v>43128</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="165">
         <v>43128</v>
       </c>
-      <c r="G40" s="119">
+      <c r="G40" s="101">
         <v>0.13</v>
       </c>
-      <c r="H40" s="57">
+      <c r="H40" s="165">
         <v>43128</v>
       </c>
-      <c r="I40" s="57">
+      <c r="I40" s="165">
         <v>43128</v>
       </c>
-      <c r="J40" s="139"/>
+      <c r="J40" s="126"/>
+      <c r="K40" s="80"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="107">
+      <c r="A41" s="91">
         <v>39</v>
       </c>
-      <c r="B41" s="159"/>
+      <c r="B41" s="146"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D41" s="49"/>
-      <c r="E41" s="54"/>
-      <c r="F41" s="54"/>
-      <c r="H41" s="56"/>
-      <c r="I41" s="56"/>
-      <c r="J41" s="139"/>
+      <c r="E41" s="115"/>
+      <c r="F41" s="115"/>
+      <c r="H41" s="55"/>
+      <c r="I41" s="55"/>
+      <c r="J41" s="126"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="108">
+      <c r="A42" s="92">
         <v>40</v>
       </c>
-      <c r="B42" s="160"/>
+      <c r="B42" s="147"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D42" s="46"/>
-      <c r="E42" s="63"/>
-      <c r="F42" s="63"/>
-      <c r="G42" s="120"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="55"/>
-      <c r="J42" s="142"/>
+      <c r="E42" s="114"/>
+      <c r="F42" s="114"/>
+      <c r="G42" s="102"/>
+      <c r="H42" s="54"/>
+      <c r="I42" s="54"/>
+      <c r="J42" s="129"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="106">
+      <c r="A43" s="90">
         <v>41</v>
       </c>
-      <c r="B43" s="134" t="s">
+      <c r="B43" s="121" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="58" t="s">
+      <c r="C43" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D43" s="44">
         <v>0.33</v>
       </c>
-      <c r="E43" s="64">
+      <c r="E43" s="167">
         <v>43120</v>
       </c>
-      <c r="F43" s="64">
+      <c r="F43" s="167">
         <v>43120</v>
       </c>
-      <c r="G43" s="110">
+      <c r="G43" s="93">
         <v>0.04</v>
       </c>
-      <c r="H43" s="89">
+      <c r="H43" s="171">
         <v>43121</v>
       </c>
-      <c r="I43" s="90">
+      <c r="I43" s="171">
         <v>43121</v>
       </c>
-      <c r="J43" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K43" s="93"/>
+      <c r="J43" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K43" s="80"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="107">
+      <c r="A44" s="91">
         <v>42</v>
       </c>
-      <c r="B44" s="135"/>
+      <c r="B44" s="122"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="111">
+      <c r="D44" s="94">
         <v>0.13</v>
       </c>
-      <c r="E44" s="57">
+      <c r="E44" s="165">
         <v>43128</v>
       </c>
-      <c r="F44" s="57">
+      <c r="F44" s="165">
         <v>43128</v>
       </c>
-      <c r="G44" s="119">
+      <c r="G44" s="101">
         <v>0.13</v>
       </c>
-      <c r="H44" s="57">
+      <c r="H44" s="165">
         <v>43128</v>
       </c>
-      <c r="I44" s="57">
+      <c r="I44" s="165">
         <v>43128</v>
       </c>
-      <c r="J44" s="139"/>
+      <c r="J44" s="126"/>
+      <c r="K44" s="80"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="107">
+      <c r="A45" s="91">
         <v>43</v>
       </c>
-      <c r="B45" s="135"/>
+      <c r="B45" s="122"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D45" s="49"/>
-      <c r="E45" s="66"/>
-      <c r="F45" s="56"/>
-      <c r="H45" s="56"/>
-      <c r="I45" s="56"/>
-      <c r="J45" s="139"/>
+      <c r="E45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55"/>
+      <c r="J45" s="126"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="108">
+      <c r="A46" s="92">
         <v>44</v>
       </c>
-      <c r="B46" s="136"/>
+      <c r="B46" s="123"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D46" s="46"/>
-      <c r="E46" s="67"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="120"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="55"/>
-      <c r="J46" s="142"/>
+      <c r="E46" s="54"/>
+      <c r="F46" s="54"/>
+      <c r="G46" s="102"/>
+      <c r="H46" s="54"/>
+      <c r="I46" s="54"/>
+      <c r="J46" s="129"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="106">
+      <c r="A47" s="90">
         <v>45</v>
       </c>
-      <c r="B47" s="134" t="s">
+      <c r="B47" s="121" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="110">
+      <c r="D47" s="93">
         <v>0.33</v>
       </c>
-      <c r="E47" s="64">
+      <c r="E47" s="167">
         <v>43120</v>
       </c>
-      <c r="F47" s="64">
+      <c r="F47" s="167">
         <v>43120</v>
       </c>
-      <c r="G47" s="110">
+      <c r="G47" s="93">
         <v>0.04</v>
       </c>
-      <c r="H47" s="89">
+      <c r="H47" s="171">
         <v>43121</v>
       </c>
-      <c r="I47" s="90">
+      <c r="I47" s="171">
         <v>43121</v>
       </c>
-      <c r="J47" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K47" s="93"/>
+      <c r="J47" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K47" s="80"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="107">
+      <c r="A48" s="91">
         <v>46</v>
       </c>
-      <c r="B48" s="135"/>
+      <c r="B48" s="122"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="49"/>
-      <c r="E48" s="66"/>
-      <c r="F48" s="56"/>
-      <c r="H48" s="56"/>
-      <c r="I48" s="56"/>
-      <c r="J48" s="139"/>
+      <c r="D48" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F48" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G48" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I48" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J48" s="126"/>
+      <c r="K48" s="80"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="107">
+      <c r="A49" s="91">
         <v>47</v>
       </c>
-      <c r="B49" s="135"/>
+      <c r="B49" s="122"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D49" s="49"/>
-      <c r="E49" s="66"/>
-      <c r="F49" s="56"/>
-      <c r="H49" s="56"/>
-      <c r="I49" s="56"/>
-      <c r="J49" s="139"/>
+      <c r="E49" s="55"/>
+      <c r="F49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="55"/>
+      <c r="J49" s="126"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="108">
+      <c r="A50" s="92">
         <v>48</v>
       </c>
-      <c r="B50" s="136"/>
+      <c r="B50" s="123"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D50" s="46"/>
-      <c r="E50" s="67"/>
-      <c r="F50" s="55"/>
-      <c r="G50" s="120"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="55"/>
-      <c r="J50" s="142"/>
+      <c r="E50" s="54"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="102"/>
+      <c r="H50" s="54"/>
+      <c r="I50" s="54"/>
+      <c r="J50" s="129"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="106">
+      <c r="A51" s="90">
         <v>49</v>
       </c>
-      <c r="B51" s="158" t="s">
+      <c r="B51" s="145" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="110">
+      <c r="D51" s="93">
         <v>0.33</v>
       </c>
-      <c r="E51" s="64">
+      <c r="E51" s="167">
         <v>43120</v>
       </c>
-      <c r="F51" s="64">
+      <c r="F51" s="167">
         <v>43120</v>
       </c>
-      <c r="G51" s="110">
+      <c r="G51" s="93">
         <v>0.04</v>
       </c>
-      <c r="H51" s="89">
+      <c r="H51" s="171">
         <v>43121</v>
       </c>
-      <c r="I51" s="90">
+      <c r="I51" s="171">
         <v>43121</v>
       </c>
-      <c r="J51" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K51" s="93"/>
+      <c r="J51" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K51" s="80"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="107">
+      <c r="A52" s="91">
         <v>50</v>
       </c>
-      <c r="B52" s="159"/>
+      <c r="B52" s="146"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="49"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="H52" s="56"/>
-      <c r="I52" s="56"/>
-      <c r="J52" s="139"/>
+      <c r="D52" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F52" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G52" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I52" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J52" s="126"/>
+      <c r="K52" s="80"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="107">
+      <c r="A53" s="91">
         <v>51</v>
       </c>
-      <c r="B53" s="159"/>
+      <c r="B53" s="146"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D53" s="49"/>
-      <c r="E53" s="56"/>
-      <c r="F53" s="56"/>
-      <c r="H53" s="56"/>
-      <c r="I53" s="56"/>
-      <c r="J53" s="139"/>
+      <c r="E53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="H53" s="55"/>
+      <c r="I53" s="55"/>
+      <c r="J53" s="126"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="108">
+      <c r="A54" s="92">
         <v>52</v>
       </c>
-      <c r="B54" s="160"/>
+      <c r="B54" s="147"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D54" s="46"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="120"/>
-      <c r="H54" s="55"/>
-      <c r="I54" s="55"/>
-      <c r="J54" s="142"/>
-    </row>
-    <row r="55" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="106">
+      <c r="E54" s="54"/>
+      <c r="F54" s="54"/>
+      <c r="G54" s="102"/>
+      <c r="H54" s="54"/>
+      <c r="I54" s="54"/>
+      <c r="J54" s="129"/>
+    </row>
+    <row r="55" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="90">
         <v>53</v>
       </c>
-      <c r="B55" s="158" t="s">
+      <c r="B55" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="91" t="s">
+      <c r="C55" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="110">
+      <c r="D55" s="93">
         <v>0.04</v>
       </c>
-      <c r="E55" s="97">
+      <c r="E55" s="169">
         <v>43121</v>
       </c>
-      <c r="F55" s="97">
+      <c r="F55" s="169">
         <v>43121</v>
       </c>
-      <c r="G55" s="110">
+      <c r="G55" s="93">
         <v>0.04</v>
       </c>
-      <c r="H55" s="97">
+      <c r="H55" s="169">
         <v>43121</v>
       </c>
-      <c r="I55" s="97">
+      <c r="I55" s="169">
         <v>43121</v>
       </c>
-      <c r="J55" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K55" s="93"/>
-    </row>
-    <row r="56" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="107">
+      <c r="J55" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K55" s="80"/>
+    </row>
+    <row r="56" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="91">
         <v>54</v>
       </c>
-      <c r="B56" s="159"/>
-      <c r="C56" s="100" t="s">
+      <c r="B56" s="146"/>
+      <c r="C56" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="119"/>
-      <c r="E56" s="101"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="119"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="139"/>
-      <c r="K56" s="98"/>
-    </row>
-    <row r="57" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="107">
+      <c r="D56" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F56" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G56" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I56" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J56" s="126"/>
+      <c r="K56" s="80"/>
+    </row>
+    <row r="57" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="91">
         <v>55</v>
       </c>
-      <c r="B57" s="159"/>
-      <c r="C57" s="100" t="s">
+      <c r="B57" s="146"/>
+      <c r="C57" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="119"/>
-      <c r="E57" s="101"/>
-      <c r="F57" s="102"/>
-      <c r="G57" s="119"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="98"/>
-    </row>
-    <row r="58" spans="1:11" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="108">
+      <c r="D57" s="101"/>
+      <c r="E57" s="87"/>
+      <c r="F57" s="87"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="87"/>
+      <c r="I57" s="87"/>
+      <c r="J57" s="126"/>
+      <c r="K57" s="84"/>
+    </row>
+    <row r="58" spans="1:11" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="92">
         <v>56</v>
       </c>
-      <c r="B58" s="160"/>
-      <c r="C58" s="103" t="s">
+      <c r="B58" s="147"/>
+      <c r="C58" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="120"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="105"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="142"/>
-      <c r="K58" s="98"/>
-    </row>
-    <row r="59" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="106">
+      <c r="D58" s="102"/>
+      <c r="E58" s="89"/>
+      <c r="F58" s="89"/>
+      <c r="G58" s="102"/>
+      <c r="H58" s="89"/>
+      <c r="I58" s="89"/>
+      <c r="J58" s="129"/>
+      <c r="K58" s="84"/>
+    </row>
+    <row r="59" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="90">
         <v>57</v>
       </c>
-      <c r="B59" s="158" t="s">
+      <c r="B59" s="145" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="91" t="s">
+      <c r="C59" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="110">
+      <c r="D59" s="93">
         <v>0.04</v>
       </c>
-      <c r="E59" s="97">
+      <c r="E59" s="169">
         <v>43121</v>
       </c>
-      <c r="F59" s="97">
+      <c r="F59" s="169">
         <v>43121</v>
       </c>
-      <c r="G59" s="110">
+      <c r="G59" s="93">
         <v>0.04</v>
       </c>
-      <c r="H59" s="97">
+      <c r="H59" s="169">
         <v>43121</v>
       </c>
-      <c r="I59" s="97">
+      <c r="I59" s="169">
         <v>43121</v>
       </c>
-      <c r="J59" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K59" s="93"/>
-    </row>
-    <row r="60" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="107">
+      <c r="J59" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K59" s="80"/>
+    </row>
+    <row r="60" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="91">
         <v>58</v>
       </c>
-      <c r="B60" s="159"/>
-      <c r="C60" s="100" t="s">
+      <c r="B60" s="146"/>
+      <c r="C60" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="119"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="102"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
-      <c r="J60" s="139"/>
-      <c r="K60" s="98"/>
-    </row>
-    <row r="61" spans="1:11" s="99" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="107">
+      <c r="D60" s="101">
+        <v>0.13</v>
+      </c>
+      <c r="E60" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F60" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G60" s="101">
+        <v>0.13</v>
+      </c>
+      <c r="H60" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I60" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J60" s="126"/>
+      <c r="K60" s="80"/>
+    </row>
+    <row r="61" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="91">
         <v>59</v>
       </c>
-      <c r="B61" s="159"/>
-      <c r="C61" s="100" t="s">
+      <c r="B61" s="146"/>
+      <c r="C61" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="119"/>
-      <c r="E61" s="101"/>
-      <c r="F61" s="102"/>
-      <c r="G61" s="119"/>
-      <c r="H61" s="102"/>
-      <c r="I61" s="102"/>
-      <c r="J61" s="139"/>
-      <c r="K61" s="98"/>
-    </row>
-    <row r="62" spans="1:11" s="99" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="108">
+      <c r="D61" s="101"/>
+      <c r="E61" s="87"/>
+      <c r="F61" s="87"/>
+      <c r="G61" s="101"/>
+      <c r="H61" s="87"/>
+      <c r="I61" s="87"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="84"/>
+    </row>
+    <row r="62" spans="1:11" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="92">
         <v>60</v>
       </c>
-      <c r="B62" s="160"/>
-      <c r="C62" s="103" t="s">
+      <c r="B62" s="147"/>
+      <c r="C62" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="120"/>
-      <c r="E62" s="104"/>
-      <c r="F62" s="105"/>
-      <c r="G62" s="120"/>
-      <c r="H62" s="105"/>
-      <c r="I62" s="105"/>
-      <c r="J62" s="142"/>
-      <c r="K62" s="98"/>
+      <c r="D62" s="102"/>
+      <c r="E62" s="89"/>
+      <c r="F62" s="89"/>
+      <c r="G62" s="102"/>
+      <c r="H62" s="89"/>
+      <c r="I62" s="89"/>
+      <c r="J62" s="129"/>
+      <c r="K62" s="84"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="106">
+      <c r="A63" s="90">
         <v>61</v>
       </c>
-      <c r="B63" s="158" t="s">
+      <c r="B63" s="145" t="s">
         <v>61</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="110">
+      <c r="D63" s="93">
         <v>0.04</v>
       </c>
-      <c r="E63" s="97">
+      <c r="E63" s="169">
         <v>43121</v>
       </c>
-      <c r="F63" s="97">
+      <c r="F63" s="169">
         <v>43121</v>
       </c>
-      <c r="G63" s="110">
+      <c r="G63" s="93">
         <v>0.04</v>
       </c>
-      <c r="H63" s="97">
+      <c r="H63" s="169">
         <v>43121</v>
       </c>
-      <c r="I63" s="97">
+      <c r="I63" s="169">
         <v>43121</v>
       </c>
-      <c r="J63" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K63" s="93"/>
+      <c r="J63" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K63" s="80"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="107">
+      <c r="A64" s="91">
         <v>62</v>
       </c>
-      <c r="B64" s="159"/>
+      <c r="B64" s="146"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="119"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="H64" s="56"/>
-      <c r="I64" s="56"/>
-      <c r="J64" s="139"/>
+      <c r="D64" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F64" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G64" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H64" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I64" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J64" s="126"/>
+      <c r="K64" s="80"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="107">
+      <c r="A65" s="91">
         <v>63</v>
       </c>
-      <c r="B65" s="159"/>
+      <c r="B65" s="146"/>
       <c r="C65" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="119"/>
-      <c r="E65" s="56"/>
-      <c r="F65" s="56"/>
-      <c r="H65" s="56"/>
-      <c r="I65" s="56"/>
-      <c r="J65" s="139"/>
+      <c r="D65" s="101"/>
+      <c r="E65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="H65" s="55"/>
+      <c r="I65" s="55"/>
+      <c r="J65" s="126"/>
     </row>
     <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="108">
+      <c r="A66" s="92">
         <v>64</v>
       </c>
-      <c r="B66" s="160"/>
+      <c r="B66" s="147"/>
       <c r="C66" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="120"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="120"/>
-      <c r="H66" s="55"/>
-      <c r="I66" s="55"/>
-      <c r="J66" s="142"/>
+      <c r="D66" s="102"/>
+      <c r="E66" s="54"/>
+      <c r="F66" s="54"/>
+      <c r="G66" s="102"/>
+      <c r="H66" s="54"/>
+      <c r="I66" s="54"/>
+      <c r="J66" s="129"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="106">
+      <c r="A67" s="90">
         <v>65</v>
       </c>
-      <c r="B67" s="158" t="s">
+      <c r="B67" s="145" t="s">
         <v>85</v>
       </c>
-      <c r="C67" s="58" t="s">
+      <c r="C67" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="110">
+      <c r="D67" s="93">
         <v>0.04</v>
       </c>
-      <c r="E67" s="97">
+      <c r="E67" s="169">
         <v>43121</v>
       </c>
-      <c r="F67" s="97">
+      <c r="F67" s="169">
         <v>43121</v>
       </c>
-      <c r="G67" s="110">
+      <c r="G67" s="93">
         <v>0.04</v>
       </c>
-      <c r="H67" s="97">
+      <c r="H67" s="169">
         <v>43121</v>
       </c>
-      <c r="I67" s="97">
+      <c r="I67" s="169">
         <v>43121</v>
       </c>
-      <c r="J67" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K67" s="93"/>
+      <c r="J67" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="K67" s="80"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="107">
+      <c r="A68" s="91">
         <v>66</v>
       </c>
-      <c r="B68" s="159"/>
+      <c r="B68" s="146"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="119"/>
-      <c r="E68" s="56"/>
-      <c r="F68" s="56"/>
-      <c r="H68" s="56"/>
-      <c r="I68" s="56"/>
-      <c r="J68" s="139"/>
+      <c r="D68" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="168">
+        <v>43129</v>
+      </c>
+      <c r="F68" s="168">
+        <v>43129</v>
+      </c>
+      <c r="G68" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="168">
+        <v>43129</v>
+      </c>
+      <c r="I68" s="168">
+        <v>43129</v>
+      </c>
+      <c r="J68" s="153"/>
+      <c r="K68" s="80"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="107">
+      <c r="A69" s="91">
         <v>67</v>
       </c>
-      <c r="B69" s="159"/>
+      <c r="B69" s="146"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="119"/>
-      <c r="E69" s="56"/>
-      <c r="F69" s="56"/>
-      <c r="H69" s="56"/>
-      <c r="I69" s="56"/>
-      <c r="J69" s="139"/>
+      <c r="D69" s="101"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="H69" s="55"/>
+      <c r="I69" s="55"/>
+      <c r="J69" s="153"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="108">
+      <c r="A70" s="92">
         <v>68</v>
       </c>
-      <c r="B70" s="160"/>
+      <c r="B70" s="147"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="120"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="120"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="55"/>
-      <c r="J70" s="142"/>
+      <c r="D70" s="102"/>
+      <c r="E70" s="54"/>
+      <c r="F70" s="54"/>
+      <c r="G70" s="102"/>
+      <c r="H70" s="54"/>
+      <c r="I70" s="54"/>
+      <c r="J70" s="154"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="106">
+      <c r="A71" s="90">
         <v>69</v>
       </c>
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="121" t="s">
         <v>62</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="110">
+      <c r="D71" s="93">
         <v>0.04</v>
       </c>
-      <c r="E71" s="97">
+      <c r="E71" s="169">
         <v>43121</v>
       </c>
-      <c r="F71" s="97">
+      <c r="F71" s="169">
         <v>43121</v>
       </c>
-      <c r="G71" s="110">
+      <c r="G71" s="93">
         <v>0.04</v>
       </c>
-      <c r="H71" s="97">
+      <c r="H71" s="169">
         <v>43121</v>
       </c>
-      <c r="I71" s="97">
+      <c r="I71" s="169">
         <v>43121</v>
       </c>
-      <c r="J71" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K71" s="93"/>
+      <c r="J71" s="152">
+        <v>0.5</v>
+      </c>
+      <c r="K71" s="80"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="107">
+      <c r="A72" s="91">
         <v>70</v>
       </c>
-      <c r="B72" s="135"/>
+      <c r="B72" s="122"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="119"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="H72" s="56"/>
-      <c r="I72" s="56"/>
-      <c r="J72" s="139"/>
+      <c r="D72" s="101"/>
+      <c r="E72" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F72" s="59">
+        <v>43131</v>
+      </c>
+      <c r="H72" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I72" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J72" s="153"/>
+      <c r="K72" s="80"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="107">
+      <c r="A73" s="91">
         <v>71</v>
       </c>
-      <c r="B73" s="135"/>
+      <c r="B73" s="122"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="119"/>
-      <c r="E73" s="56"/>
-      <c r="F73" s="56"/>
-      <c r="H73" s="56"/>
-      <c r="I73" s="56"/>
-      <c r="J73" s="139"/>
+      <c r="D73" s="101"/>
+      <c r="E73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="H73" s="55"/>
+      <c r="I73" s="55"/>
+      <c r="J73" s="153"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="108">
+      <c r="A74" s="92">
         <v>72</v>
       </c>
-      <c r="B74" s="136"/>
+      <c r="B74" s="123"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="120"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="120"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="55"/>
-      <c r="J74" s="142"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="54"/>
+      <c r="F74" s="54"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="54"/>
+      <c r="I74" s="54"/>
+      <c r="J74" s="154"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="106">
+      <c r="A75" s="90">
         <v>73</v>
       </c>
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="C75" s="58" t="s">
+      <c r="C75" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="110">
+      <c r="D75" s="93">
         <v>0.04</v>
       </c>
-      <c r="E75" s="97">
+      <c r="E75" s="169">
         <v>43121</v>
       </c>
-      <c r="F75" s="97">
+      <c r="F75" s="169">
         <v>43121</v>
       </c>
-      <c r="G75" s="110">
+      <c r="G75" s="93">
         <v>0.04</v>
       </c>
-      <c r="H75" s="97">
+      <c r="H75" s="169">
         <v>43121</v>
       </c>
-      <c r="I75" s="97">
+      <c r="I75" s="169">
         <v>43121</v>
       </c>
-      <c r="J75" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K75" s="93"/>
+      <c r="J75" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K75" s="80"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="107">
+      <c r="A76" s="91">
         <v>74</v>
       </c>
-      <c r="B76" s="135"/>
+      <c r="B76" s="122"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="119"/>
-      <c r="E76" s="56"/>
-      <c r="F76" s="56"/>
-      <c r="H76" s="56"/>
-      <c r="I76" s="56"/>
-      <c r="J76" s="139"/>
+      <c r="D76" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E76" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F76" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G76" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H76" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I76" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J76" s="126"/>
+      <c r="K76" s="80"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="107">
+      <c r="A77" s="91">
         <v>75</v>
       </c>
-      <c r="B77" s="135"/>
+      <c r="B77" s="122"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="119"/>
-      <c r="E77" s="56"/>
-      <c r="F77" s="56"/>
-      <c r="H77" s="56"/>
-      <c r="I77" s="56"/>
-      <c r="J77" s="139"/>
+      <c r="D77" s="101"/>
+      <c r="E77" s="55"/>
+      <c r="F77" s="55"/>
+      <c r="H77" s="55"/>
+      <c r="I77" s="55"/>
+      <c r="J77" s="126"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="108">
+      <c r="A78" s="92">
         <v>76</v>
       </c>
-      <c r="B78" s="136"/>
+      <c r="B78" s="123"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="120"/>
-      <c r="E78" s="55"/>
-      <c r="F78" s="55"/>
-      <c r="G78" s="120"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="55"/>
-      <c r="J78" s="142"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="54"/>
+      <c r="F78" s="54"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="54"/>
+      <c r="I78" s="54"/>
+      <c r="J78" s="129"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="106">
+      <c r="A79" s="90">
         <v>77</v>
       </c>
-      <c r="B79" s="134" t="s">
+      <c r="B79" s="121" t="s">
         <v>67</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="110">
+      <c r="D79" s="93">
         <v>0.04</v>
       </c>
-      <c r="E79" s="97">
+      <c r="E79" s="169">
         <v>43121</v>
       </c>
-      <c r="F79" s="97">
+      <c r="F79" s="169">
         <v>43121</v>
       </c>
-      <c r="G79" s="119">
+      <c r="G79" s="101">
         <v>0.04</v>
       </c>
-      <c r="H79" s="97">
+      <c r="H79" s="169">
         <v>43121</v>
       </c>
-      <c r="I79" s="97">
+      <c r="I79" s="169">
         <v>43121</v>
       </c>
-      <c r="J79" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K79" s="93"/>
+      <c r="J79" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K79" s="80"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="107">
+      <c r="A80" s="91">
         <v>78</v>
       </c>
-      <c r="B80" s="135"/>
+      <c r="B80" s="122"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="119"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="H80" s="56"/>
-      <c r="I80" s="56"/>
-      <c r="J80" s="139"/>
+      <c r="D80" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E80" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F80" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G80" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H80" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I80" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J80" s="126"/>
+      <c r="K80" s="80"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="107">
+      <c r="A81" s="91">
         <v>79</v>
       </c>
-      <c r="B81" s="135"/>
+      <c r="B81" s="122"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="119"/>
-      <c r="E81" s="56"/>
-      <c r="F81" s="56"/>
-      <c r="H81" s="56"/>
-      <c r="I81" s="56"/>
-      <c r="J81" s="139"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="172"/>
+      <c r="F81" s="55"/>
+      <c r="H81" s="55"/>
+      <c r="I81" s="55"/>
+      <c r="J81" s="126"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="108">
+      <c r="A82" s="92">
         <v>80</v>
       </c>
-      <c r="B82" s="136"/>
+      <c r="B82" s="123"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="120"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="120"/>
-      <c r="H82" s="55"/>
-      <c r="I82" s="55"/>
-      <c r="J82" s="142"/>
+      <c r="D82" s="102"/>
+      <c r="E82" s="54"/>
+      <c r="F82" s="54"/>
+      <c r="G82" s="102"/>
+      <c r="H82" s="54"/>
+      <c r="I82" s="54"/>
+      <c r="J82" s="129"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="106">
+      <c r="A83" s="90">
         <v>81</v>
       </c>
-      <c r="B83" s="158" t="s">
+      <c r="B83" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="91" t="s">
+      <c r="C83" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="110">
+      <c r="D83" s="93">
         <v>0.04</v>
       </c>
-      <c r="E83" s="97">
+      <c r="E83" s="169">
         <v>43121</v>
       </c>
-      <c r="F83" s="97">
+      <c r="F83" s="169">
         <v>43121</v>
       </c>
-      <c r="G83" s="119">
+      <c r="G83" s="101">
         <v>0.04</v>
       </c>
-      <c r="H83" s="97">
+      <c r="H83" s="169">
         <v>43121</v>
       </c>
-      <c r="I83" s="97">
+      <c r="I83" s="169">
         <v>43121</v>
       </c>
-      <c r="J83" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K83" s="93"/>
+      <c r="J83" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K83" s="80"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="107">
+      <c r="A84" s="91">
         <v>82</v>
       </c>
-      <c r="B84" s="159"/>
-      <c r="C84" s="100" t="s">
+      <c r="B84" s="146"/>
+      <c r="C84" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="119"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
-      <c r="H84" s="102"/>
-      <c r="I84" s="102"/>
-      <c r="J84" s="139"/>
-      <c r="K84" s="98"/>
+      <c r="D84" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E84" s="117">
+        <v>43131</v>
+      </c>
+      <c r="F84" s="117">
+        <v>43131</v>
+      </c>
+      <c r="G84" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H84" s="117">
+        <v>43131</v>
+      </c>
+      <c r="I84" s="117">
+        <v>43131</v>
+      </c>
+      <c r="J84" s="126"/>
+      <c r="K84" s="80"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="107">
+      <c r="A85" s="91">
         <v>83</v>
       </c>
-      <c r="B85" s="159"/>
-      <c r="C85" s="100" t="s">
+      <c r="B85" s="146"/>
+      <c r="C85" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="119"/>
-      <c r="E85" s="102"/>
-      <c r="F85" s="102"/>
-      <c r="H85" s="102"/>
-      <c r="I85" s="102"/>
-      <c r="J85" s="139"/>
-      <c r="K85" s="98"/>
+      <c r="D85" s="101"/>
+      <c r="E85" s="87"/>
+      <c r="F85" s="87"/>
+      <c r="H85" s="87"/>
+      <c r="I85" s="87"/>
+      <c r="J85" s="126"/>
+      <c r="K85" s="84"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="108">
+      <c r="A86" s="92">
         <v>84</v>
       </c>
-      <c r="B86" s="160"/>
-      <c r="C86" s="103" t="s">
+      <c r="B86" s="147"/>
+      <c r="C86" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="120"/>
-      <c r="E86" s="105"/>
-      <c r="F86" s="105"/>
-      <c r="G86" s="120"/>
-      <c r="H86" s="105"/>
-      <c r="I86" s="105"/>
-      <c r="J86" s="142"/>
-      <c r="K86" s="98"/>
+      <c r="D86" s="102"/>
+      <c r="E86" s="89"/>
+      <c r="F86" s="89"/>
+      <c r="G86" s="102"/>
+      <c r="H86" s="89"/>
+      <c r="I86" s="89"/>
+      <c r="J86" s="129"/>
+      <c r="K86" s="84"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="106">
+      <c r="A87" s="90">
         <v>85</v>
       </c>
-      <c r="B87" s="158" t="s">
+      <c r="B87" s="145" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="91" t="s">
+      <c r="C87" s="78" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="110">
+      <c r="D87" s="93">
         <v>0.04</v>
       </c>
-      <c r="E87" s="109">
+      <c r="E87" s="170">
         <v>43121</v>
       </c>
-      <c r="F87" s="109">
+      <c r="F87" s="170">
         <v>43121</v>
       </c>
-      <c r="G87" s="119">
+      <c r="G87" s="101">
         <v>0.04</v>
       </c>
-      <c r="H87" s="109">
+      <c r="H87" s="170">
         <v>43121</v>
       </c>
-      <c r="I87" s="109">
+      <c r="I87" s="170">
         <v>43121</v>
       </c>
-      <c r="J87" s="156">
-        <v>0.25</v>
-      </c>
-      <c r="K87" s="93"/>
+      <c r="J87" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K87" s="80"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="107">
+      <c r="A88" s="91">
         <v>86</v>
       </c>
-      <c r="B88" s="159"/>
-      <c r="C88" s="100" t="s">
+      <c r="B88" s="146"/>
+      <c r="C88" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="119"/>
-      <c r="E88" s="102"/>
-      <c r="F88" s="102"/>
-      <c r="H88" s="102"/>
-      <c r="I88" s="102"/>
-      <c r="J88" s="139"/>
-      <c r="K88" s="98"/>
+      <c r="D88" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="117">
+        <v>43131</v>
+      </c>
+      <c r="F88" s="117">
+        <v>43131</v>
+      </c>
+      <c r="G88" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H88" s="117">
+        <v>43131</v>
+      </c>
+      <c r="I88" s="117">
+        <v>43131</v>
+      </c>
+      <c r="J88" s="126"/>
+      <c r="K88" s="80"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="107">
+      <c r="A89" s="91">
         <v>87</v>
       </c>
-      <c r="B89" s="159"/>
-      <c r="C89" s="100" t="s">
+      <c r="B89" s="146"/>
+      <c r="C89" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="119"/>
-      <c r="E89" s="102"/>
-      <c r="F89" s="102"/>
-      <c r="H89" s="102"/>
-      <c r="I89" s="102"/>
-      <c r="J89" s="139"/>
-      <c r="K89" s="98"/>
+      <c r="D89" s="101"/>
+      <c r="E89" s="87"/>
+      <c r="F89" s="87"/>
+      <c r="H89" s="87"/>
+      <c r="I89" s="87"/>
+      <c r="J89" s="126"/>
+      <c r="K89" s="84"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="108">
+      <c r="A90" s="92">
         <v>88</v>
       </c>
-      <c r="B90" s="160"/>
-      <c r="C90" s="103" t="s">
+      <c r="B90" s="147"/>
+      <c r="C90" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="120"/>
-      <c r="E90" s="105"/>
-      <c r="F90" s="105"/>
-      <c r="G90" s="120"/>
-      <c r="H90" s="105"/>
-      <c r="I90" s="105"/>
-      <c r="J90" s="142"/>
-      <c r="K90" s="98"/>
+      <c r="D90" s="102"/>
+      <c r="E90" s="89"/>
+      <c r="F90" s="89"/>
+      <c r="G90" s="102"/>
+      <c r="H90" s="89"/>
+      <c r="I90" s="89"/>
+      <c r="J90" s="129"/>
+      <c r="K90" s="84"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="106">
+      <c r="A91" s="90">
         <v>89</v>
       </c>
-      <c r="B91" s="134" t="s">
+      <c r="B91" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="C91" s="58" t="s">
+      <c r="C91" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="110">
-        <v>1</v>
-      </c>
-      <c r="E91" s="64">
-        <v>43122</v>
-      </c>
-      <c r="F91" s="64">
-        <v>43123</v>
-      </c>
-      <c r="G91" s="121">
-        <v>0.2</v>
-      </c>
-      <c r="H91" s="64">
-        <v>43123</v>
-      </c>
-      <c r="I91" s="64">
-        <v>43123</v>
-      </c>
-      <c r="J91" s="139"/>
-      <c r="K91" s="93"/>
+      <c r="D91" s="93">
+        <v>0.1</v>
+      </c>
+      <c r="E91" s="117">
+        <v>43131</v>
+      </c>
+      <c r="F91" s="117">
+        <v>43131</v>
+      </c>
+      <c r="G91" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H91" s="117">
+        <v>43131</v>
+      </c>
+      <c r="I91" s="117">
+        <v>43131</v>
+      </c>
+      <c r="J91" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K91" s="80"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="107">
+      <c r="A92" s="91">
         <v>90</v>
       </c>
-      <c r="B92" s="135"/>
+      <c r="B92" s="122"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="119"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="56"/>
-      <c r="G92" s="122"/>
-      <c r="H92" s="56"/>
-      <c r="I92" s="56"/>
-      <c r="J92" s="139"/>
+      <c r="D92" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="117">
+        <v>43131</v>
+      </c>
+      <c r="F92" s="117">
+        <v>43131</v>
+      </c>
+      <c r="G92" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H92" s="117">
+        <v>43131</v>
+      </c>
+      <c r="I92" s="117">
+        <v>43131</v>
+      </c>
+      <c r="J92" s="126"/>
+      <c r="K92" s="80"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="107">
+      <c r="A93" s="91">
         <v>91</v>
       </c>
-      <c r="B93" s="135"/>
+      <c r="B93" s="122"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="119"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="56"/>
-      <c r="G93" s="122"/>
-      <c r="H93" s="56"/>
-      <c r="I93" s="56"/>
-      <c r="J93" s="139"/>
+      <c r="D93" s="101"/>
+      <c r="E93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="104"/>
+      <c r="H93" s="55"/>
+      <c r="I93" s="55"/>
+      <c r="J93" s="126"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="108">
+      <c r="A94" s="92">
         <v>92</v>
       </c>
-      <c r="B94" s="136"/>
+      <c r="B94" s="123"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="120"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="120"/>
-      <c r="H94" s="55"/>
-      <c r="I94" s="55"/>
-      <c r="J94" s="142"/>
+      <c r="D94" s="102"/>
+      <c r="E94" s="54"/>
+      <c r="F94" s="54"/>
+      <c r="G94" s="102"/>
+      <c r="H94" s="54"/>
+      <c r="I94" s="54"/>
+      <c r="J94" s="129"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="106">
+      <c r="A95" s="90">
         <v>93</v>
       </c>
-      <c r="B95" s="134" t="s">
+      <c r="B95" s="121" t="s">
         <v>83</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D95" s="44">
         <v>0.2</v>
       </c>
-      <c r="E95" s="64">
+      <c r="E95" s="167">
         <v>43123</v>
       </c>
-      <c r="F95" s="64">
+      <c r="F95" s="167">
         <v>43123</v>
       </c>
-      <c r="G95" s="121">
+      <c r="G95" s="103">
         <v>0.2</v>
       </c>
-      <c r="H95" s="64">
+      <c r="H95" s="167">
         <v>43123</v>
       </c>
-      <c r="I95" s="64">
+      <c r="I95" s="167">
         <v>43123</v>
       </c>
-      <c r="J95" s="139"/>
-      <c r="K95" s="93"/>
+      <c r="J95" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K95" s="80"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="107">
+      <c r="A96" s="91">
         <v>94</v>
       </c>
-      <c r="B96" s="135"/>
+      <c r="B96" s="122"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="49"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="122"/>
-      <c r="H96" s="56"/>
-      <c r="I96" s="56"/>
-      <c r="J96" s="139"/>
+      <c r="D96" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E96" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F96" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G96" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H96" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I96" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J96" s="126"/>
+      <c r="K96" s="80"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="107">
+      <c r="A97" s="91">
         <v>95</v>
       </c>
-      <c r="B97" s="135"/>
+      <c r="B97" s="122"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D97" s="49"/>
-      <c r="E97" s="56"/>
-      <c r="F97" s="56"/>
-      <c r="G97" s="122"/>
-      <c r="H97" s="56"/>
-      <c r="I97" s="56"/>
-      <c r="J97" s="139"/>
+      <c r="E97" s="55"/>
+      <c r="F97" s="55"/>
+      <c r="G97" s="104"/>
+      <c r="H97" s="55"/>
+      <c r="I97" s="55"/>
+      <c r="J97" s="126"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="108">
+      <c r="A98" s="92">
         <v>96</v>
       </c>
-      <c r="B98" s="136"/>
+      <c r="B98" s="123"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D98" s="46"/>
-      <c r="E98" s="55"/>
-      <c r="F98" s="55"/>
-      <c r="G98" s="120"/>
-      <c r="H98" s="55"/>
-      <c r="I98" s="55"/>
-      <c r="J98" s="142"/>
+      <c r="E98" s="54"/>
+      <c r="F98" s="54"/>
+      <c r="G98" s="102"/>
+      <c r="H98" s="54"/>
+      <c r="I98" s="54"/>
+      <c r="J98" s="129"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="106">
+      <c r="A99" s="90">
         <v>97</v>
       </c>
-      <c r="B99" s="158" t="s">
+      <c r="B99" s="145" t="s">
         <v>101</v>
       </c>
-      <c r="C99" s="58" t="s">
+      <c r="C99" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D99" s="44">
         <v>0.2</v>
       </c>
-      <c r="E99" s="64">
+      <c r="E99" s="167">
         <v>43123</v>
       </c>
-      <c r="F99" s="64">
+      <c r="F99" s="167">
         <v>43123</v>
       </c>
-      <c r="G99" s="121">
+      <c r="G99" s="103">
         <v>0.2</v>
       </c>
-      <c r="H99" s="64">
+      <c r="H99" s="167">
         <v>43123</v>
       </c>
-      <c r="I99" s="64">
+      <c r="I99" s="167">
         <v>43123</v>
       </c>
-      <c r="J99" s="139"/>
-      <c r="K99" s="93"/>
+      <c r="J99" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K99" s="80"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="107">
+      <c r="A100" s="91">
         <v>98</v>
       </c>
-      <c r="B100" s="159"/>
+      <c r="B100" s="146"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D100" s="49"/>
-      <c r="E100" s="56"/>
-      <c r="F100" s="56"/>
-      <c r="G100" s="122"/>
-      <c r="H100" s="56"/>
-      <c r="J100" s="139"/>
+      <c r="D100" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E100" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F100" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G100" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H100" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I100" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J100" s="126"/>
+      <c r="K100" s="80"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="107">
+      <c r="A101" s="91">
         <v>99</v>
       </c>
-      <c r="B101" s="159"/>
+      <c r="B101" s="146"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D101" s="49"/>
-      <c r="E101" s="56"/>
-      <c r="F101" s="56"/>
-      <c r="G101" s="122"/>
-      <c r="H101" s="56"/>
-      <c r="J101" s="139"/>
+      <c r="E101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="104"/>
+      <c r="H101" s="55"/>
+      <c r="J101" s="126"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="108">
+      <c r="A102" s="92">
         <v>100</v>
       </c>
-      <c r="B102" s="160"/>
+      <c r="B102" s="147"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D102" s="46"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="120"/>
-      <c r="H102" s="55"/>
-      <c r="I102" s="55"/>
-      <c r="J102" s="142"/>
+      <c r="E102" s="54"/>
+      <c r="F102" s="54"/>
+      <c r="G102" s="102"/>
+      <c r="H102" s="54"/>
+      <c r="I102" s="54"/>
+      <c r="J102" s="129"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="115">
+      <c r="A103" s="97">
         <v>101</v>
       </c>
-      <c r="B103" s="158" t="s">
+      <c r="B103" s="145" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="100" t="s">
+      <c r="C103" s="86" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="123">
+      <c r="D103" s="105">
         <v>0.25</v>
       </c>
-      <c r="E103" s="97">
+      <c r="E103" s="169">
         <v>43124</v>
       </c>
-      <c r="F103" s="97">
+      <c r="F103" s="169">
         <v>43124</v>
       </c>
-      <c r="G103" s="123">
+      <c r="G103" s="105">
         <v>0.25</v>
       </c>
-      <c r="H103" s="97">
+      <c r="H103" s="169">
         <v>43124</v>
       </c>
-      <c r="I103" s="97">
+      <c r="I103" s="169">
         <v>43124</v>
       </c>
-      <c r="J103" s="152"/>
-      <c r="K103" s="93"/>
+      <c r="J103" s="155">
+        <v>0.5</v>
+      </c>
+      <c r="K103" s="80"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="116">
+      <c r="A104" s="98">
         <v>102</v>
       </c>
-      <c r="B104" s="159"/>
-      <c r="C104" s="100" t="s">
+      <c r="B104" s="146"/>
+      <c r="C104" s="86" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="125"/>
-      <c r="E104" s="117"/>
-      <c r="F104" s="117"/>
-      <c r="G104" s="125"/>
-      <c r="H104" s="117"/>
-      <c r="I104" s="117"/>
-      <c r="J104" s="153"/>
-      <c r="K104" s="98"/>
+      <c r="D104" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E104" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F104" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G104" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H104" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I104" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J104" s="140"/>
+      <c r="K104" s="80"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="116">
+      <c r="A105" s="98">
         <v>103</v>
       </c>
-      <c r="B105" s="159"/>
-      <c r="C105" s="100" t="s">
+      <c r="B105" s="146"/>
+      <c r="C105" s="86" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="125"/>
-      <c r="E105" s="117"/>
-      <c r="F105" s="117"/>
-      <c r="G105" s="125"/>
-      <c r="H105" s="117"/>
-      <c r="I105" s="117"/>
-      <c r="J105" s="153"/>
-      <c r="K105" s="98"/>
+      <c r="D105" s="107"/>
+      <c r="E105" s="99"/>
+      <c r="F105" s="99"/>
+      <c r="G105" s="107"/>
+      <c r="H105" s="99"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="140"/>
+      <c r="K105" s="84"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="118">
+      <c r="A106" s="100">
         <v>104</v>
       </c>
-      <c r="B106" s="160"/>
-      <c r="C106" s="103" t="s">
+      <c r="B106" s="147"/>
+      <c r="C106" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="124"/>
-      <c r="E106" s="105"/>
-      <c r="F106" s="105"/>
-      <c r="G106" s="124"/>
-      <c r="H106" s="105"/>
-      <c r="I106" s="105"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="98"/>
+      <c r="D106" s="106"/>
+      <c r="E106" s="89"/>
+      <c r="F106" s="89"/>
+      <c r="G106" s="106"/>
+      <c r="H106" s="89"/>
+      <c r="I106" s="89"/>
+      <c r="J106" s="141"/>
+      <c r="K106" s="84"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="115">
+      <c r="A107" s="97">
         <v>105</v>
       </c>
-      <c r="B107" s="158" t="s">
+      <c r="B107" s="145" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="87" t="s">
+      <c r="C107" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="121">
+      <c r="D107" s="103">
         <v>0.25</v>
       </c>
-      <c r="E107" s="64">
+      <c r="E107" s="167">
         <v>43124</v>
       </c>
-      <c r="F107" s="64">
+      <c r="F107" s="167">
         <v>43124</v>
       </c>
-      <c r="G107" s="121">
+      <c r="G107" s="103">
         <v>0.25</v>
       </c>
-      <c r="H107" s="64">
+      <c r="H107" s="167">
         <v>43124</v>
       </c>
-      <c r="I107" s="64">
+      <c r="I107" s="167">
         <v>43124</v>
       </c>
-      <c r="J107" s="139"/>
-      <c r="K107" s="93"/>
+      <c r="J107" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K107" s="80"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="116">
+      <c r="A108" s="98">
         <v>106</v>
       </c>
-      <c r="B108" s="159"/>
-      <c r="C108" s="87" t="s">
+      <c r="B108" s="146"/>
+      <c r="C108" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="D108" s="119"/>
-      <c r="E108" s="88"/>
-      <c r="F108" s="88"/>
-      <c r="H108" s="88"/>
-      <c r="I108" s="88"/>
-      <c r="J108" s="139"/>
+      <c r="D108" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E108" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F108" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G108" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H108" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I108" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J108" s="126"/>
+      <c r="K108" s="80"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="116">
+      <c r="A109" s="98">
         <v>107</v>
       </c>
-      <c r="B109" s="159"/>
-      <c r="C109" s="87" t="s">
+      <c r="B109" s="146"/>
+      <c r="C109" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="119"/>
-      <c r="E109" s="88"/>
-      <c r="F109" s="88"/>
-      <c r="H109" s="88"/>
-      <c r="I109" s="88"/>
-      <c r="J109" s="139"/>
+      <c r="D109" s="101"/>
+      <c r="J109" s="126"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="118">
+      <c r="A110" s="100">
         <v>108</v>
       </c>
-      <c r="B110" s="160"/>
+      <c r="B110" s="147"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="120"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="120"/>
-      <c r="H110" s="55"/>
-      <c r="I110" s="55"/>
-      <c r="J110" s="142"/>
+      <c r="D110" s="102"/>
+      <c r="E110" s="54"/>
+      <c r="F110" s="54"/>
+      <c r="G110" s="102"/>
+      <c r="H110" s="54"/>
+      <c r="I110" s="54"/>
+      <c r="J110" s="129"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="115">
+      <c r="A111" s="97">
         <v>109</v>
       </c>
-      <c r="B111" s="134" t="s">
+      <c r="B111" s="121" t="s">
         <v>105</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="123">
+      <c r="D111" s="105">
         <v>0.25</v>
       </c>
-      <c r="E111" s="64">
+      <c r="E111" s="167">
         <v>43125</v>
       </c>
-      <c r="F111" s="64">
+      <c r="F111" s="167">
         <v>43125</v>
       </c>
-      <c r="G111" s="123">
+      <c r="G111" s="105">
         <v>0.25</v>
       </c>
-      <c r="H111" s="64">
+      <c r="H111" s="167">
         <v>43125</v>
       </c>
-      <c r="I111" s="64">
+      <c r="I111" s="167">
         <v>43125</v>
       </c>
-      <c r="J111" s="139"/>
-      <c r="K111" s="93"/>
+      <c r="J111" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K111" s="80"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="116">
+      <c r="A112" s="98">
         <v>110</v>
       </c>
-      <c r="B112" s="135"/>
+      <c r="B112" s="122"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="125"/>
-      <c r="G112" s="125"/>
-      <c r="J112" s="139"/>
+      <c r="D112" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E112" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F112" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G112" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H112" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I112" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J112" s="126"/>
+      <c r="K112" s="80"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="116">
+      <c r="A113" s="98">
         <v>111</v>
       </c>
-      <c r="B113" s="135"/>
+      <c r="B113" s="122"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="125"/>
-      <c r="G113" s="125"/>
-      <c r="J113" s="139"/>
+      <c r="D113" s="107"/>
+      <c r="G113" s="107"/>
+      <c r="J113" s="126"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="118">
+      <c r="A114" s="100">
         <v>112</v>
       </c>
-      <c r="B114" s="136"/>
+      <c r="B114" s="123"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="124"/>
-      <c r="E114" s="55"/>
-      <c r="F114" s="55"/>
-      <c r="G114" s="124"/>
-      <c r="H114" s="55"/>
-      <c r="I114" s="55"/>
-      <c r="J114" s="142"/>
+      <c r="D114" s="106"/>
+      <c r="E114" s="54"/>
+      <c r="F114" s="54"/>
+      <c r="G114" s="106"/>
+      <c r="H114" s="54"/>
+      <c r="I114" s="54"/>
+      <c r="J114" s="129"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="115">
+      <c r="A115" s="97">
         <v>113</v>
       </c>
-      <c r="B115" s="134" t="s">
+      <c r="B115" s="121" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="121">
+      <c r="D115" s="103">
         <v>0.25</v>
       </c>
-      <c r="E115" s="64">
+      <c r="E115" s="167">
         <v>43125</v>
       </c>
-      <c r="F115" s="64">
+      <c r="F115" s="167">
         <v>43125</v>
       </c>
-      <c r="G115" s="121">
+      <c r="G115" s="103">
         <v>0.25</v>
       </c>
-      <c r="H115" s="64">
+      <c r="H115" s="167">
         <v>43125</v>
       </c>
-      <c r="I115" s="64">
+      <c r="I115" s="167">
         <v>43125</v>
       </c>
-      <c r="J115" s="139"/>
-      <c r="K115" s="93"/>
+      <c r="J115" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K115" s="80"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="116">
+      <c r="A116" s="98">
         <v>114</v>
       </c>
-      <c r="B116" s="135"/>
+      <c r="B116" s="122"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="119"/>
-      <c r="J116" s="139"/>
+      <c r="D116" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E116" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F116" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G116" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H116" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I116" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J116" s="126"/>
+      <c r="K116" s="80"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="116">
+      <c r="A117" s="98">
         <v>115</v>
       </c>
-      <c r="B117" s="135"/>
+      <c r="B117" s="122"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="119"/>
-      <c r="J117" s="139"/>
+      <c r="D117" s="101"/>
+      <c r="J117" s="126"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="118">
+      <c r="A118" s="100">
         <v>116</v>
       </c>
-      <c r="B118" s="136"/>
+      <c r="B118" s="123"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="120"/>
-      <c r="E118" s="55"/>
-      <c r="F118" s="55"/>
-      <c r="G118" s="120"/>
-      <c r="H118" s="55"/>
-      <c r="I118" s="55"/>
-      <c r="J118" s="142"/>
+      <c r="D118" s="102"/>
+      <c r="E118" s="54"/>
+      <c r="F118" s="54"/>
+      <c r="G118" s="102"/>
+      <c r="H118" s="54"/>
+      <c r="I118" s="54"/>
+      <c r="J118" s="129"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="115">
+      <c r="A119" s="97">
         <v>117</v>
       </c>
-      <c r="B119" s="158" t="s">
+      <c r="B119" s="145" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="114" t="s">
+      <c r="C119" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="111">
+      <c r="D119" s="94">
         <v>0.1</v>
       </c>
-      <c r="E119" s="64">
+      <c r="E119" s="167">
         <v>43126</v>
       </c>
-      <c r="F119" s="64">
+      <c r="F119" s="167">
         <v>43126</v>
       </c>
-      <c r="G119" s="111">
+      <c r="G119" s="94">
         <v>0.1</v>
       </c>
-      <c r="H119" s="64">
+      <c r="H119" s="167">
         <v>43126</v>
       </c>
-      <c r="I119" s="64">
+      <c r="I119" s="167">
         <v>43126</v>
       </c>
-      <c r="J119" s="139"/>
-      <c r="K119" s="93"/>
+      <c r="J119" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K119" s="80"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="116">
+      <c r="A120" s="98">
         <v>118</v>
       </c>
-      <c r="B120" s="159"/>
-      <c r="C120" s="114" t="s">
+      <c r="B120" s="146"/>
+      <c r="C120" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="125"/>
-      <c r="E120" s="113"/>
-      <c r="F120" s="113"/>
-      <c r="G120" s="127"/>
-      <c r="H120" s="113"/>
-      <c r="I120" s="113"/>
-      <c r="J120" s="139"/>
+      <c r="D120" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E120" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F120" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G120" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H120" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I120" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J120" s="126"/>
+      <c r="K120" s="80"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="116">
+      <c r="A121" s="98">
         <v>119</v>
       </c>
-      <c r="B121" s="159"/>
-      <c r="C121" s="114" t="s">
+      <c r="B121" s="146"/>
+      <c r="C121" s="96" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="125"/>
-      <c r="E121" s="113"/>
-      <c r="F121" s="113"/>
-      <c r="G121" s="127"/>
-      <c r="H121" s="113"/>
-      <c r="I121" s="113"/>
-      <c r="J121" s="139"/>
+      <c r="D121" s="107"/>
+      <c r="G121" s="109"/>
+      <c r="J121" s="126"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="118">
+      <c r="A122" s="100">
         <v>120</v>
       </c>
-      <c r="B122" s="160"/>
+      <c r="B122" s="147"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="124"/>
-      <c r="E122" s="55"/>
-      <c r="F122" s="55"/>
-      <c r="G122" s="128"/>
-      <c r="H122" s="55"/>
-      <c r="I122" s="55"/>
-      <c r="J122" s="142"/>
+      <c r="D122" s="106"/>
+      <c r="E122" s="54"/>
+      <c r="F122" s="54"/>
+      <c r="G122" s="110"/>
+      <c r="H122" s="54"/>
+      <c r="I122" s="54"/>
+      <c r="J122" s="129"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="115">
+      <c r="A123" s="97">
         <v>121</v>
       </c>
-      <c r="B123" s="158" t="s">
+      <c r="B123" s="145" t="s">
         <v>104</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="111">
+      <c r="D123" s="94">
         <v>0.1</v>
       </c>
-      <c r="E123" s="64">
+      <c r="E123" s="167">
         <v>43126</v>
       </c>
-      <c r="F123" s="64">
+      <c r="F123" s="167">
         <v>43126</v>
       </c>
-      <c r="G123" s="111">
+      <c r="G123" s="94">
         <v>0.1</v>
       </c>
-      <c r="H123" s="64">
+      <c r="H123" s="167">
         <v>43126</v>
       </c>
-      <c r="I123" s="64">
+      <c r="I123" s="167">
         <v>43126</v>
       </c>
-      <c r="J123" s="139"/>
-      <c r="K123" s="93"/>
+      <c r="J123" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K123" s="80"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="116">
+      <c r="A124" s="98">
         <v>122</v>
       </c>
-      <c r="B124" s="159"/>
+      <c r="B124" s="146"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="125"/>
-      <c r="E124" s="88"/>
-      <c r="F124" s="88"/>
-      <c r="G124" s="127"/>
-      <c r="H124" s="88"/>
-      <c r="I124" s="88"/>
-      <c r="J124" s="139"/>
+      <c r="D124" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E124" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F124" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G124" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H124" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I124" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J124" s="126"/>
+      <c r="K124" s="80"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="116">
+      <c r="A125" s="98">
         <v>123</v>
       </c>
-      <c r="B125" s="159"/>
+      <c r="B125" s="146"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="125"/>
-      <c r="G125" s="127"/>
-      <c r="J125" s="139"/>
-    </row>
-    <row r="126" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="118">
+      <c r="D125" s="107"/>
+      <c r="G125" s="109"/>
+      <c r="J125" s="126"/>
+    </row>
+    <row r="126" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="100">
         <v>124</v>
       </c>
-      <c r="B126" s="160"/>
+      <c r="B126" s="147"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="124"/>
-      <c r="E126" s="55"/>
-      <c r="F126" s="55"/>
-      <c r="G126" s="128"/>
-      <c r="H126" s="55"/>
-      <c r="I126" s="55"/>
-      <c r="J126" s="142"/>
+      <c r="D126" s="106"/>
+      <c r="E126" s="54"/>
+      <c r="F126" s="54"/>
+      <c r="G126" s="110"/>
+      <c r="H126" s="54"/>
+      <c r="I126" s="54"/>
+      <c r="J126" s="129"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="115">
+      <c r="A127" s="97">
         <v>125</v>
       </c>
-      <c r="B127" s="134" t="s">
+      <c r="B127" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="C127" s="58" t="s">
+      <c r="C127" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="111">
+      <c r="D127" s="94">
         <v>0.1</v>
       </c>
-      <c r="E127" s="64">
+      <c r="E127" s="167">
         <v>43126</v>
       </c>
-      <c r="F127" s="64">
+      <c r="F127" s="167">
         <v>43126</v>
       </c>
-      <c r="G127" s="111">
+      <c r="G127" s="94">
         <v>0.1</v>
       </c>
-      <c r="H127" s="64">
+      <c r="H127" s="167">
         <v>43126</v>
       </c>
-      <c r="I127" s="64">
+      <c r="I127" s="167">
         <v>43126</v>
       </c>
-      <c r="J127" s="139"/>
-      <c r="K127" s="93"/>
+      <c r="J127" s="143">
+        <v>0.5</v>
+      </c>
+      <c r="K127" s="80"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="116">
+      <c r="A128" s="98">
         <v>126</v>
       </c>
-      <c r="B128" s="135"/>
+      <c r="B128" s="122"/>
       <c r="C128" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D128" s="119"/>
-      <c r="E128" s="56"/>
-      <c r="F128" s="56"/>
-      <c r="G128" s="129"/>
-      <c r="H128" s="56"/>
-      <c r="I128" s="56"/>
-      <c r="J128" s="139"/>
+      <c r="D128" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E128" s="59">
+        <v>43131</v>
+      </c>
+      <c r="F128" s="59">
+        <v>43131</v>
+      </c>
+      <c r="G128" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="H128" s="59">
+        <v>43131</v>
+      </c>
+      <c r="I128" s="59">
+        <v>43131</v>
+      </c>
+      <c r="J128" s="126"/>
+      <c r="K128" s="80"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="116">
+      <c r="A129" s="98">
         <v>127</v>
       </c>
-      <c r="B129" s="135"/>
+      <c r="B129" s="122"/>
       <c r="C129" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="119"/>
-      <c r="E129" s="56"/>
-      <c r="F129" s="56"/>
-      <c r="G129" s="129"/>
-      <c r="H129" s="56"/>
-      <c r="I129" s="56"/>
-      <c r="J129" s="139"/>
+      <c r="D129" s="101"/>
+      <c r="E129" s="55"/>
+      <c r="F129" s="55"/>
+      <c r="G129" s="111"/>
+      <c r="H129" s="55"/>
+      <c r="I129" s="55"/>
+      <c r="J129" s="126"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="118">
+      <c r="A130" s="100">
         <v>128</v>
       </c>
-      <c r="B130" s="136"/>
+      <c r="B130" s="123"/>
       <c r="C130" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D130" s="120"/>
-      <c r="E130" s="55"/>
-      <c r="F130" s="55"/>
-      <c r="G130" s="130"/>
-      <c r="H130" s="55"/>
-      <c r="I130" s="55"/>
-      <c r="J130" s="142"/>
+      <c r="D130" s="102"/>
+      <c r="E130" s="54"/>
+      <c r="F130" s="54"/>
+      <c r="G130" s="112"/>
+      <c r="H130" s="54"/>
+      <c r="I130" s="54"/>
+      <c r="J130" s="129"/>
     </row>
     <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="115">
+      <c r="A131" s="97">
         <v>129</v>
       </c>
-      <c r="B131" s="161" t="s">
+      <c r="B131" s="148" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="86" t="s">
+      <c r="C131" s="76" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="83"/>
-      <c r="E131" s="64"/>
-      <c r="F131" s="64"/>
-      <c r="G131" s="126"/>
-      <c r="H131" s="69"/>
-      <c r="I131" s="69"/>
-      <c r="J131" s="172"/>
-      <c r="K131" s="94"/>
+      <c r="D131" s="73"/>
+      <c r="E131" s="167"/>
+      <c r="F131" s="167"/>
+      <c r="G131" s="108"/>
+      <c r="H131" s="167"/>
+      <c r="I131" s="167"/>
+      <c r="J131" s="163"/>
+      <c r="K131" s="81"/>
     </row>
     <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="116">
+      <c r="A132" s="98">
         <v>130</v>
       </c>
-      <c r="B132" s="162"/>
-      <c r="C132" s="87" t="s">
+      <c r="B132" s="149"/>
+      <c r="C132" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="85"/>
-      <c r="E132" s="54"/>
-      <c r="F132" s="57"/>
-      <c r="G132" s="126"/>
-      <c r="H132" s="70"/>
-      <c r="I132" s="56"/>
-      <c r="J132" s="155"/>
-      <c r="K132" s="94"/>
+      <c r="D132" s="75"/>
+      <c r="E132" s="115"/>
+      <c r="F132" s="165"/>
+      <c r="G132" s="108"/>
+      <c r="H132" s="165"/>
+      <c r="I132" s="55"/>
+      <c r="J132" s="142"/>
+      <c r="K132" s="81"/>
     </row>
     <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="116">
+      <c r="A133" s="98">
         <v>131</v>
       </c>
-      <c r="B133" s="162"/>
-      <c r="C133" s="87" t="s">
+      <c r="B133" s="149"/>
+      <c r="C133" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="D133" s="85"/>
-      <c r="E133" s="54"/>
-      <c r="F133" s="57"/>
-      <c r="G133" s="126"/>
-      <c r="H133" s="70"/>
-      <c r="I133" s="56"/>
-      <c r="J133" s="155"/>
-      <c r="K133" s="94"/>
+      <c r="D133" s="75"/>
+      <c r="E133" s="115"/>
+      <c r="F133" s="165"/>
+      <c r="G133" s="108"/>
+      <c r="H133" s="165"/>
+      <c r="I133" s="55"/>
+      <c r="J133" s="142"/>
+      <c r="K133" s="81"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="118">
+      <c r="A134" s="100">
         <v>132</v>
       </c>
-      <c r="B134" s="163"/>
+      <c r="B134" s="150"/>
       <c r="C134" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="84"/>
-      <c r="E134" s="63"/>
-      <c r="F134" s="65"/>
-      <c r="G134" s="120"/>
-      <c r="H134" s="68"/>
-      <c r="I134" s="55"/>
-      <c r="J134" s="173"/>
+      <c r="D134" s="74"/>
+      <c r="E134" s="114"/>
+      <c r="F134" s="166"/>
+      <c r="G134" s="102"/>
+      <c r="H134" s="166"/>
+      <c r="I134" s="54"/>
+      <c r="J134" s="164"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="115">
+      <c r="A135" s="97">
         <v>133</v>
       </c>
-      <c r="B135" s="169" t="s">
+      <c r="B135" s="160" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="86" t="s">
+      <c r="C135" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="83"/>
-      <c r="E135" s="64"/>
-      <c r="F135" s="64"/>
-      <c r="G135" s="121"/>
-      <c r="H135" s="64"/>
-      <c r="I135" s="64"/>
-      <c r="J135" s="172"/>
+      <c r="D135" s="73"/>
+      <c r="E135" s="167"/>
+      <c r="F135" s="167"/>
+      <c r="G135" s="103"/>
+      <c r="H135" s="167"/>
+      <c r="I135" s="167"/>
+      <c r="J135" s="163"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="116">
+      <c r="A136" s="98">
         <v>134</v>
       </c>
-      <c r="B136" s="170"/>
-      <c r="C136" s="87" t="s">
+      <c r="B136" s="161"/>
+      <c r="C136" s="77" t="s">
         <v>117</v>
       </c>
-      <c r="D136" s="85"/>
-      <c r="E136" s="56"/>
-      <c r="F136" s="56"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="56"/>
-      <c r="I136" s="56"/>
-      <c r="J136" s="155"/>
+      <c r="D136" s="75"/>
+      <c r="E136" s="55"/>
+      <c r="F136" s="55"/>
+      <c r="G136" s="104"/>
+      <c r="H136" s="55"/>
+      <c r="I136" s="55"/>
+      <c r="J136" s="142"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="116">
+      <c r="A137" s="98">
         <v>135</v>
       </c>
-      <c r="B137" s="170"/>
-      <c r="C137" s="87" t="s">
+      <c r="B137" s="161"/>
+      <c r="C137" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="85"/>
-      <c r="E137" s="56"/>
-      <c r="F137" s="56"/>
-      <c r="G137" s="122"/>
-      <c r="H137" s="56"/>
-      <c r="I137" s="56"/>
-      <c r="J137" s="155"/>
+      <c r="D137" s="75"/>
+      <c r="E137" s="55"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="104"/>
+      <c r="H137" s="55"/>
+      <c r="I137" s="55"/>
+      <c r="J137" s="142"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="118">
+      <c r="A138" s="100">
         <v>136</v>
       </c>
-      <c r="B138" s="171"/>
+      <c r="B138" s="162"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="84"/>
-      <c r="E138" s="55"/>
-      <c r="F138" s="55"/>
-      <c r="G138" s="120"/>
-      <c r="H138" s="55"/>
-      <c r="I138" s="55"/>
-      <c r="J138" s="173"/>
+      <c r="D138" s="74"/>
+      <c r="E138" s="54"/>
+      <c r="F138" s="54"/>
+      <c r="G138" s="102"/>
+      <c r="H138" s="54"/>
+      <c r="I138" s="54"/>
+      <c r="J138" s="164"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="115">
+      <c r="A139" s="97">
         <v>137</v>
       </c>
-      <c r="B139" s="134" t="s">
+      <c r="B139" s="121" t="s">
         <v>55</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="C139" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="44"/>
-      <c r="E139" s="64"/>
-      <c r="F139" s="64"/>
-      <c r="G139" s="121"/>
-      <c r="H139" s="64"/>
-      <c r="I139" s="64"/>
-      <c r="J139" s="139"/>
+      <c r="E139" s="167"/>
+      <c r="F139" s="167"/>
+      <c r="G139" s="103"/>
+      <c r="H139" s="167"/>
+      <c r="I139" s="167"/>
+      <c r="J139" s="126"/>
       <c r="L139" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="116">
+      <c r="A140" s="98">
         <v>138</v>
       </c>
-      <c r="B140" s="135"/>
+      <c r="B140" s="122"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D140" s="49"/>
-      <c r="E140" s="56"/>
-      <c r="F140" s="56"/>
-      <c r="G140" s="122"/>
-      <c r="H140" s="56"/>
-      <c r="I140" s="56"/>
-      <c r="J140" s="139"/>
+      <c r="E140" s="55"/>
+      <c r="F140" s="55"/>
+      <c r="G140" s="104"/>
+      <c r="H140" s="55"/>
+      <c r="I140" s="55"/>
+      <c r="J140" s="126"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="116">
+      <c r="A141" s="98">
         <v>139</v>
       </c>
-      <c r="B141" s="135"/>
+      <c r="B141" s="122"/>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D141" s="49"/>
-      <c r="E141" s="56"/>
-      <c r="F141" s="56"/>
-      <c r="G141" s="122"/>
-      <c r="H141" s="56"/>
-      <c r="I141" s="56"/>
-      <c r="J141" s="139"/>
+      <c r="E141" s="55"/>
+      <c r="F141" s="55"/>
+      <c r="G141" s="104"/>
+      <c r="H141" s="55"/>
+      <c r="I141" s="55"/>
+      <c r="J141" s="126"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="118">
+      <c r="A142" s="100">
         <v>140</v>
       </c>
-      <c r="B142" s="136"/>
+      <c r="B142" s="123"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D142" s="46"/>
-      <c r="E142" s="55"/>
-      <c r="F142" s="55"/>
-      <c r="G142" s="120"/>
-      <c r="H142" s="55"/>
-      <c r="I142" s="55"/>
-      <c r="J142" s="142"/>
+      <c r="E142" s="54"/>
+      <c r="F142" s="54"/>
+      <c r="G142" s="102"/>
+      <c r="H142" s="54"/>
+      <c r="I142" s="54"/>
+      <c r="J142" s="129"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="115">
+      <c r="A143" s="97">
         <v>141</v>
       </c>
-      <c r="B143" s="165" t="s">
+      <c r="B143" s="156" t="s">
         <v>84</v>
       </c>
-      <c r="C143" s="58" t="s">
+      <c r="C143" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D143" s="44"/>
-      <c r="E143" s="64"/>
-      <c r="F143" s="64"/>
-      <c r="G143" s="121"/>
-      <c r="H143" s="64"/>
-      <c r="I143" s="64"/>
-      <c r="J143" s="139"/>
+      <c r="E143" s="167"/>
+      <c r="F143" s="167"/>
+      <c r="G143" s="103"/>
+      <c r="H143" s="167"/>
+      <c r="I143" s="167"/>
+      <c r="J143" s="126"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="116">
+      <c r="A144" s="98">
         <v>142</v>
       </c>
-      <c r="B144" s="166"/>
+      <c r="B144" s="157"/>
       <c r="C144" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D144" s="49"/>
-      <c r="E144" s="56"/>
-      <c r="F144" s="56"/>
-      <c r="G144" s="122"/>
-      <c r="H144" s="56"/>
-      <c r="I144" s="56"/>
-      <c r="J144" s="139"/>
+      <c r="E144" s="55"/>
+      <c r="F144" s="55"/>
+      <c r="G144" s="104"/>
+      <c r="H144" s="55"/>
+      <c r="I144" s="55"/>
+      <c r="J144" s="126"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="116">
+      <c r="A145" s="98">
         <v>143</v>
       </c>
-      <c r="B145" s="167" t="s">
+      <c r="B145" s="158" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D145" s="49"/>
-      <c r="E145" s="56"/>
-      <c r="F145" s="56"/>
-      <c r="G145" s="122"/>
-      <c r="H145" s="56"/>
-      <c r="I145" s="56"/>
-      <c r="J145" s="139"/>
+      <c r="E145" s="55"/>
+      <c r="F145" s="55"/>
+      <c r="G145" s="104"/>
+      <c r="H145" s="55"/>
+      <c r="I145" s="55"/>
+      <c r="J145" s="126"/>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="118">
+      <c r="A146" s="100">
         <v>144</v>
       </c>
-      <c r="B146" s="168"/>
+      <c r="B146" s="159"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D146" s="46"/>
-      <c r="E146" s="55"/>
-      <c r="F146" s="55"/>
-      <c r="G146" s="120"/>
-      <c r="H146" s="55"/>
-      <c r="I146" s="55"/>
-      <c r="J146" s="142"/>
+      <c r="E146" s="54"/>
+      <c r="F146" s="54"/>
+      <c r="G146" s="102"/>
+      <c r="H146" s="54"/>
+      <c r="I146" s="54"/>
+      <c r="J146" s="129"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="115">
+      <c r="A147" s="97">
         <v>145</v>
       </c>
-      <c r="B147" s="165" t="s">
+      <c r="B147" s="156" t="s">
         <v>43</v>
       </c>
-      <c r="C147" s="58" t="s">
+      <c r="C147" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D147" s="44"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="64"/>
-      <c r="G147" s="121"/>
-      <c r="H147" s="64"/>
-      <c r="I147" s="64"/>
-      <c r="J147" s="139"/>
+      <c r="E147" s="167"/>
+      <c r="F147" s="167"/>
+      <c r="G147" s="103"/>
+      <c r="H147" s="167"/>
+      <c r="I147" s="167"/>
+      <c r="J147" s="126"/>
       <c r="L147" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="116">
+      <c r="A148" s="98">
         <v>146</v>
       </c>
-      <c r="B148" s="166"/>
+      <c r="B148" s="157"/>
       <c r="C148" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D148" s="49"/>
-      <c r="E148" s="56"/>
-      <c r="F148" s="56"/>
-      <c r="G148" s="122"/>
-      <c r="H148" s="56"/>
-      <c r="I148" s="56"/>
-      <c r="J148" s="139"/>
+      <c r="E148" s="55"/>
+      <c r="F148" s="55"/>
+      <c r="G148" s="104"/>
+      <c r="H148" s="55"/>
+      <c r="I148" s="55"/>
+      <c r="J148" s="126"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="116">
+      <c r="A149" s="98">
         <v>147</v>
       </c>
-      <c r="B149" s="167" t="s">
+      <c r="B149" s="158" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D149" s="49"/>
-      <c r="E149" s="56"/>
-      <c r="F149" s="56"/>
-      <c r="G149" s="122"/>
-      <c r="H149" s="56"/>
-      <c r="I149" s="56"/>
-      <c r="J149" s="139"/>
+      <c r="E149" s="55"/>
+      <c r="F149" s="55"/>
+      <c r="G149" s="104"/>
+      <c r="H149" s="55"/>
+      <c r="I149" s="55"/>
+      <c r="J149" s="126"/>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="118">
+      <c r="A150" s="100">
         <v>148</v>
       </c>
-      <c r="B150" s="168"/>
+      <c r="B150" s="159"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D150" s="46"/>
-      <c r="E150" s="55"/>
-      <c r="F150" s="55"/>
-      <c r="G150" s="120"/>
-      <c r="H150" s="55"/>
-      <c r="I150" s="55"/>
-      <c r="J150" s="142"/>
+      <c r="E150" s="54"/>
+      <c r="F150" s="54"/>
+      <c r="G150" s="102"/>
+      <c r="H150" s="54"/>
+      <c r="I150" s="54"/>
+      <c r="J150" s="129"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="115">
+      <c r="A151" s="97">
         <v>149</v>
       </c>
-      <c r="B151" s="134" t="s">
+      <c r="B151" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="C151" s="58" t="s">
+      <c r="C151" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D151" s="44"/>
-      <c r="E151" s="64">
+      <c r="E151" s="167">
         <v>43125</v>
       </c>
-      <c r="F151" s="64">
+      <c r="F151" s="167">
         <v>43125</v>
       </c>
-      <c r="G151" s="121">
+      <c r="G151" s="103">
         <v>1</v>
       </c>
-      <c r="H151" s="64">
+      <c r="H151" s="167">
         <v>43125</v>
       </c>
-      <c r="I151" s="64">
+      <c r="I151" s="167">
         <v>43125</v>
       </c>
-      <c r="J151" s="139"/>
+      <c r="J151" s="126"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="116">
+      <c r="A152" s="98">
         <v>150</v>
       </c>
-      <c r="B152" s="135"/>
+      <c r="B152" s="122"/>
       <c r="C152" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D152" s="49"/>
-      <c r="E152" s="56"/>
-      <c r="F152" s="56"/>
-      <c r="G152" s="122"/>
-      <c r="H152" s="56"/>
-      <c r="I152" s="56"/>
-      <c r="J152" s="139"/>
+      <c r="E152" s="55"/>
+      <c r="F152" s="55"/>
+      <c r="G152" s="104"/>
+      <c r="H152" s="55"/>
+      <c r="I152" s="55"/>
+      <c r="J152" s="126"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="116">
+      <c r="A153" s="98">
         <v>151</v>
       </c>
-      <c r="B153" s="135"/>
+      <c r="B153" s="122"/>
       <c r="C153" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D153" s="49"/>
-      <c r="E153" s="56"/>
-      <c r="F153" s="56"/>
-      <c r="G153" s="122"/>
-      <c r="H153" s="56"/>
-      <c r="I153" s="56"/>
-      <c r="J153" s="139"/>
+      <c r="E153" s="55"/>
+      <c r="F153" s="55"/>
+      <c r="G153" s="104"/>
+      <c r="H153" s="55"/>
+      <c r="I153" s="55"/>
+      <c r="J153" s="126"/>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="118">
+      <c r="A154" s="100">
         <v>152</v>
       </c>
-      <c r="B154" s="136"/>
+      <c r="B154" s="123"/>
       <c r="C154" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D154" s="46"/>
-      <c r="E154" s="55"/>
-      <c r="F154" s="55"/>
-      <c r="G154" s="120"/>
-      <c r="H154" s="55"/>
-      <c r="I154" s="55"/>
-      <c r="J154" s="142"/>
+      <c r="E154" s="54"/>
+      <c r="F154" s="54"/>
+      <c r="G154" s="102"/>
+      <c r="H154" s="54"/>
+      <c r="I154" s="54"/>
+      <c r="J154" s="129"/>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" s="45">
         <f>SUM(D3:D154)</f>
-        <v>6.9099999999999993</v>
-      </c>
-      <c r="E155" s="112"/>
-      <c r="F155" s="112"/>
-      <c r="G155" s="112">
+        <v>8.0399999999999938</v>
+      </c>
+      <c r="E155" s="113"/>
+      <c r="F155" s="113"/>
+      <c r="G155" s="95">
         <f>SUM(G3:G154)</f>
-        <v>5.34</v>
+        <v>7.2699999999999969</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5545,7 +5857,7 @@
       </c>
       <c r="C157" s="53">
         <f>SUM(D155,G155)</f>
-        <v>12.25</v>
+        <v>15.309999999999992</v>
       </c>
     </row>
   </sheetData>
@@ -5656,33 +5968,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="140" t="s">
+      <c r="A1" s="127" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="140" t="s">
+      <c r="B1" s="127" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="157" t="s">
+      <c r="D1" s="144" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="157"/>
+      <c r="E1" s="144"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="141"/>
-      <c r="B2" s="141"/>
+      <c r="A2" s="128"/>
+      <c r="B2" s="128"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="54" t="s">
         <v>126</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="54" t="s">
         <v>127</v>
       </c>
       <c r="F2" s="48" t="s">
@@ -5690,7 +6002,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="138" t="s">
+      <c r="A3" s="125" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -5699,15 +6011,15 @@
       <c r="C3" s="30">
         <v>10</v>
       </c>
-      <c r="D3" s="71">
+      <c r="D3" s="61">
         <v>43118</v>
       </c>
-      <c r="E3" s="71">
+      <c r="E3" s="61">
         <v>43128</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="139"/>
+      <c r="A4" s="126"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -5716,7 +6028,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="139"/>
+      <c r="A5" s="126"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -5725,7 +6037,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="139"/>
+      <c r="A6" s="126"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -5734,7 +6046,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="139"/>
+      <c r="A7" s="126"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -5743,7 +6055,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="139"/>
+      <c r="A8" s="126"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -5755,7 +6067,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="138" t="s">
+      <c r="A9" s="125" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -5763,13 +6075,13 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="139"/>
+      <c r="A10" s="126"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="142"/>
+      <c r="A11" s="129"/>
       <c r="B11" s="12" t="s">
         <v>20</v>
       </c>
@@ -5799,7 +6111,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="138" t="s">
+      <c r="A14" s="125" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -5807,13 +6119,13 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="139"/>
+      <c r="A15" s="126"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="142"/>
+      <c r="A16" s="129"/>
       <c r="B16" s="43" t="s">
         <v>32</v>
       </c>
@@ -5823,7 +6135,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="138" t="s">
+      <c r="A17" s="125" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -5831,25 +6143,25 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="151"/>
+      <c r="A18" s="138"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="151"/>
+      <c r="A19" s="138"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="151"/>
+      <c r="A20" s="138"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="142"/>
+      <c r="A21" s="129"/>
       <c r="B21" s="19" t="s">
         <v>40</v>
       </c>
@@ -5895,7 +6207,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="147" t="s">
+      <c r="A25" s="134" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -5903,13 +6215,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="148"/>
+      <c r="A26" s="135"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="149"/>
+      <c r="A27" s="136"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -5931,7 +6243,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="147" t="s">
+      <c r="A29" s="134" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -5939,33 +6251,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="150"/>
+      <c r="A30" s="137"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="150"/>
-      <c r="B31" s="145" t="s">
+      <c r="A31" s="137"/>
+      <c r="B31" s="132" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="150"/>
-      <c r="B32" s="145"/>
+      <c r="A32" s="137"/>
+      <c r="B32" s="132"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="150"/>
-      <c r="B33" s="145" t="s">
+      <c r="A33" s="137"/>
+      <c r="B33" s="132" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="150"/>
-      <c r="B34" s="145"/>
+      <c r="A34" s="137"/>
+      <c r="B34" s="132"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="149"/>
+      <c r="A35" s="136"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -5987,7 +6299,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="147" t="s">
+      <c r="A37" s="134" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5995,19 +6307,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="148"/>
+      <c r="A38" s="135"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="148"/>
+      <c r="A39" s="135"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="148"/>
+      <c r="A40" s="135"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -6029,7 +6341,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="147" t="s">
+      <c r="A42" s="134" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -6037,7 +6349,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="149"/>
+      <c r="A43" s="136"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -6047,7 +6359,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="147" t="s">
+      <c r="A44" s="134" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6055,25 +6367,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="148"/>
+      <c r="A45" s="135"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="148"/>
+      <c r="A46" s="135"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="148"/>
+      <c r="A47" s="135"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="149"/>
+      <c r="A48" s="136"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -6083,7 +6395,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="147" t="s">
+      <c r="A49" s="134" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -6091,13 +6403,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="148"/>
+      <c r="A50" s="135"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="149"/>
+      <c r="A51" s="136"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -486,7 +486,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -511,14 +511,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -656,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="173">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -821,9 +813,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -880,23 +869,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -924,9 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -943,26 +919,11 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -981,14 +942,95 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -999,22 +1041,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1023,128 +1053,106 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1448,37 +1456,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="127" t="s">
+      <c r="C1" s="140" t="s">
         <v>72</v>
       </c>
-      <c r="D1" s="127" t="s">
+      <c r="D1" s="140" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="127"/>
-      <c r="F1" s="130" t="s">
+      <c r="E1" s="140"/>
+      <c r="F1" s="142" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:6" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
+      <c r="C2" s="141"/>
       <c r="D2" s="29" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="131"/>
+      <c r="F2" s="143"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1498,7 +1506,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -1514,7 +1522,7 @@
       <c r="F4" s="7"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="6" t="s">
         <v>139</v>
       </c>
@@ -1530,7 +1538,7 @@
       <c r="F5" s="7"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -1546,7 +1554,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -1562,7 +1570,7 @@
       <c r="F7" s="7"/>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -1576,7 +1584,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="127" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -1585,7 +1593,7 @@
       <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="119" t="s">
+      <c r="D9" s="126" t="s">
         <v>34</v>
       </c>
       <c r="E9" s="33">
@@ -1596,14 +1604,14 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="124"/>
+      <c r="D10" s="123"/>
       <c r="E10" s="33">
         <v>1</v>
       </c>
@@ -1616,7 +1624,7 @@
       <c r="C11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D11" s="120"/>
+      <c r="D11" s="125"/>
       <c r="E11" s="32" t="s">
         <v>24</v>
       </c>
@@ -1659,47 +1667,47 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="127" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="139" t="s">
+      <c r="C14" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="118" t="s">
+      <c r="D14" s="124" t="s">
         <v>42</v>
       </c>
-      <c r="E14" s="118">
+      <c r="E14" s="124">
         <v>0.5</v>
       </c>
-      <c r="F14" s="121" t="s">
+      <c r="F14" s="137" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="140"/>
-      <c r="D15" s="119"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="122"/>
+      <c r="C15" s="131"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="138"/>
     </row>
     <row r="16" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="129"/>
       <c r="B16" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="141"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="120"/>
-      <c r="F16" s="123"/>
+      <c r="C16" s="132"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="125"/>
+      <c r="F16" s="139"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="127" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -1708,7 +1716,7 @@
       <c r="C17" t="s">
         <v>43</v>
       </c>
-      <c r="D17" s="118" t="s">
+      <c r="D17" s="124" t="s">
         <v>34</v>
       </c>
       <c r="E17" s="33">
@@ -1719,40 +1727,40 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" t="s">
         <v>24</v>
       </c>
-      <c r="D18" s="119"/>
+      <c r="D18" s="126"/>
       <c r="E18" s="33" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19" t="s">
         <v>128</v>
       </c>
-      <c r="D19" s="119"/>
+      <c r="D19" s="126"/>
       <c r="E19" s="33">
         <v>0.5</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C20" t="s">
         <v>129</v>
       </c>
-      <c r="D20" s="119"/>
+      <c r="D20" s="126"/>
       <c r="E20" s="33">
         <v>0.5</v>
       </c>
@@ -1765,7 +1773,7 @@
       <c r="C21" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="120"/>
+      <c r="D21" s="125"/>
       <c r="E21" s="32" t="s">
         <v>24</v>
       </c>
@@ -1828,7 +1836,7 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="120" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -1837,7 +1845,7 @@
       <c r="C25" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="D25" s="118" t="s">
+      <c r="D25" s="124" t="s">
         <v>34</v>
       </c>
       <c r="E25" s="33">
@@ -1848,27 +1856,27 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="D26" s="124"/>
+      <c r="D26" s="123"/>
       <c r="E26" s="33">
         <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
       <c r="C27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="120"/>
+      <c r="D27" s="125"/>
       <c r="E27" s="32">
         <v>2</v>
       </c>
@@ -1895,7 +1903,7 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -1912,7 +1920,7 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
@@ -1927,14 +1935,14 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="132" t="s">
+      <c r="A31" s="136"/>
+      <c r="B31" s="134" t="s">
         <v>64</v>
       </c>
       <c r="C31" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D31" s="124">
+      <c r="D31" s="123">
         <v>3</v>
       </c>
       <c r="E31" s="33">
@@ -1945,25 +1953,25 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="134"/>
       <c r="C32" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="D32" s="124"/>
+      <c r="D32" s="123"/>
       <c r="E32" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="134" t="s">
         <v>65</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="124">
+      <c r="D33" s="123">
         <v>3</v>
       </c>
       <c r="E33" s="33">
@@ -1974,12 +1982,12 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="134"/>
       <c r="C34" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="124"/>
+      <c r="D34" s="123"/>
       <c r="E34" s="33">
         <v>1</v>
       </c>
@@ -1988,7 +1996,7 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -2026,7 +2034,7 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="120" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -2046,7 +2054,7 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
@@ -2061,7 +2069,7 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
@@ -2076,8 +2084,8 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="135"/>
-      <c r="B40" s="132" t="s">
+      <c r="A40" s="121"/>
+      <c r="B40" s="134" t="s">
         <v>80</v>
       </c>
       <c r="C40" t="s">
@@ -2091,8 +2099,8 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="136"/>
-      <c r="B41" s="133"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="135"/>
       <c r="C41" s="9" t="s">
         <v>84</v>
       </c>
@@ -2123,7 +2131,7 @@
       <c r="F42" s="15"/>
     </row>
     <row r="43" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="134" t="s">
+      <c r="A43" s="120" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="3" t="s">
@@ -2132,7 +2140,7 @@
       <c r="C43" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="118" t="s">
+      <c r="D43" s="124" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="33">
@@ -2143,14 +2151,14 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="136"/>
+      <c r="A44" s="122"/>
       <c r="B44" s="8" t="s">
         <v>87</v>
       </c>
       <c r="C44" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D44" s="120"/>
+      <c r="D44" s="125"/>
       <c r="E44" s="32" t="s">
         <v>24</v>
       </c>
@@ -2159,7 +2167,7 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="134" t="s">
+      <c r="A45" s="120" t="s">
         <v>93</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -2168,7 +2176,7 @@
       <c r="C45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="D45" s="118" t="s">
+      <c r="D45" s="124" t="s">
         <v>34</v>
       </c>
       <c r="E45" s="33">
@@ -2176,56 +2184,56 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C46" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124" t="s">
+      <c r="D46" s="123"/>
+      <c r="E46" s="123" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C47" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
+      <c r="D47" s="123"/>
+      <c r="E47" s="123"/>
     </row>
     <row r="48" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="135"/>
+      <c r="A48" s="121"/>
       <c r="B48" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
+      <c r="D48" s="123"/>
+      <c r="E48" s="123"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="136"/>
+      <c r="A49" s="122"/>
       <c r="B49" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C49" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D49" s="120"/>
+      <c r="D49" s="125"/>
       <c r="E49" s="32">
         <v>3</v>
       </c>
       <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="134" t="s">
+      <c r="A50" s="120" t="s">
         <v>97</v>
       </c>
       <c r="B50" s="3" t="s">
@@ -2234,7 +2242,7 @@
       <c r="C50" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="D50" s="118" t="s">
+      <c r="D50" s="124" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="33">
@@ -2242,27 +2250,27 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="135"/>
+      <c r="A51" s="121"/>
       <c r="B51" s="3" t="s">
         <v>86</v>
       </c>
       <c r="C51" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="D51" s="124"/>
+      <c r="D51" s="123"/>
       <c r="E51" s="33">
         <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="136"/>
+      <c r="A52" s="122"/>
       <c r="B52" s="8" t="s">
         <v>98</v>
       </c>
       <c r="C52" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D52" s="120"/>
+      <c r="D52" s="125"/>
       <c r="E52" s="32">
         <v>2</v>
       </c>
@@ -2343,27 +2351,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="D45:D49"/>
-    <mergeCell ref="D50:D52"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A49"/>
-    <mergeCell ref="D17:D21"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="C14:C16"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="E46:E48"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="A25:A27"/>
-    <mergeCell ref="A29:A35"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D25:D27"/>
-    <mergeCell ref="A37:A41"/>
     <mergeCell ref="E14:E16"/>
     <mergeCell ref="F14:F16"/>
     <mergeCell ref="D9:D11"/>
@@ -2374,6 +2361,27 @@
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="A9:A11"/>
     <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E46:E48"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A29:A35"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D25:D27"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="D17:D21"/>
+    <mergeCell ref="A17:A21"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="D14:D16"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="D45:D49"/>
+    <mergeCell ref="D50:D52"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2385,57 +2393,58 @@
   <dimension ref="A1:L157"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H133" sqref="H133"/>
+      <selection activeCell="D101" sqref="D101:I102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="72"/>
+    <col min="1" max="1" width="11.42578125" style="71"/>
     <col min="2" max="2" width="61" style="53" customWidth="1"/>
     <col min="3" max="3" width="29.85546875" style="53" customWidth="1"/>
     <col min="4" max="4" width="14" style="45" customWidth="1"/>
-    <col min="5" max="6" width="11.42578125" style="116"/>
-    <col min="7" max="7" width="13.42578125" style="101" customWidth="1"/>
-    <col min="8" max="9" width="11.42578125" style="116"/>
-    <col min="11" max="11" width="21.28515625" style="81" customWidth="1"/>
+    <col min="5" max="5" width="12.28515625" style="105" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" style="105"/>
+    <col min="7" max="7" width="13.42578125" style="95" customWidth="1"/>
+    <col min="8" max="9" width="11.42578125" style="105"/>
+    <col min="11" max="11" width="21.28515625" style="80" customWidth="1"/>
     <col min="12" max="12" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="154" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="138" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="122" t="s">
+      <c r="C1" s="138" t="s">
         <v>120</v>
       </c>
       <c r="D1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="144" t="s">
+      <c r="E1" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="F1" s="144"/>
-      <c r="G1" s="101" t="s">
+      <c r="F1" s="165"/>
+      <c r="G1" s="95" t="s">
         <v>124</v>
       </c>
-      <c r="H1" s="144" t="s">
+      <c r="H1" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="I1" s="144"/>
+      <c r="I1" s="165"/>
       <c r="J1" s="47" t="s">
         <v>132</v>
       </c>
-      <c r="K1" s="151" t="s">
+      <c r="K1" s="164" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="142"/>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="139"/>
+      <c r="C2" s="139"/>
       <c r="D2" s="46" t="s">
         <v>122</v>
       </c>
@@ -2445,7 +2454,7 @@
       <c r="F2" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="G2" s="102" t="s">
+      <c r="G2" s="96" t="s">
         <v>123</v>
       </c>
       <c r="H2" s="54" t="s">
@@ -2457,13 +2466,13 @@
       <c r="J2" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="K2" s="151"/>
+      <c r="K2" s="164"/>
     </row>
     <row r="3" spans="1:11" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90">
+      <c r="A3" s="85">
         <v>1</v>
       </c>
-      <c r="B3" s="121" t="s">
+      <c r="B3" s="137" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="56" t="s">
@@ -2472,76 +2481,76 @@
       <c r="D3" s="44"/>
       <c r="E3" s="57"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="103"/>
+      <c r="G3" s="97"/>
       <c r="H3" s="57"/>
       <c r="I3" s="57"/>
-      <c r="J3" s="143">
+      <c r="J3" s="144">
         <v>1</v>
       </c>
-      <c r="K3" s="79"/>
+      <c r="K3" s="78"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="91">
+      <c r="A4" s="86">
         <v>2</v>
       </c>
-      <c r="B4" s="122"/>
+      <c r="B4" s="138"/>
       <c r="C4" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="49"/>
       <c r="E4" s="55"/>
       <c r="F4" s="55"/>
-      <c r="G4" s="104"/>
+      <c r="G4" s="98"/>
       <c r="H4" s="55"/>
       <c r="I4" s="55"/>
-      <c r="J4" s="126"/>
-      <c r="K4" s="80"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="91">
+      <c r="A5" s="86">
         <v>3</v>
       </c>
-      <c r="B5" s="122"/>
+      <c r="B5" s="138"/>
       <c r="C5" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D5" s="49"/>
       <c r="E5" s="55"/>
       <c r="F5" s="55"/>
-      <c r="G5" s="104"/>
+      <c r="G5" s="98"/>
       <c r="H5" s="55"/>
       <c r="I5" s="55"/>
-      <c r="J5" s="126"/>
-      <c r="K5" s="80"/>
+      <c r="J5" s="133"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="92">
+      <c r="A6" s="87">
         <v>4</v>
       </c>
-      <c r="B6" s="123"/>
+      <c r="B6" s="139"/>
       <c r="C6" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D6" s="46"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="102"/>
+      <c r="G6" s="96"/>
       <c r="H6" s="54"/>
       <c r="I6" s="54"/>
       <c r="J6" s="129"/>
-      <c r="K6" s="80"/>
-    </row>
-    <row r="7" spans="1:11" s="69" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="90">
+      <c r="K6" s="79"/>
+    </row>
+    <row r="7" spans="1:11" s="68" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="85">
         <v>5</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="137" t="s">
         <v>141</v>
       </c>
-      <c r="C7" s="70" t="s">
+      <c r="C7" s="69" t="s">
         <v>118</v>
       </c>
-      <c r="D7" s="66">
+      <c r="D7" s="65">
         <v>0.1</v>
       </c>
       <c r="E7" s="58">
@@ -2550,7 +2559,7 @@
       <c r="F7" s="58">
         <v>43121</v>
       </c>
-      <c r="G7" s="103">
+      <c r="G7" s="97">
         <v>0.04</v>
       </c>
       <c r="H7" s="58">
@@ -2559,20 +2568,20 @@
       <c r="I7" s="58">
         <v>43121</v>
       </c>
-      <c r="J7" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K7" s="79"/>
+      <c r="J7" s="144">
+        <v>1</v>
+      </c>
+      <c r="K7" s="78"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="91">
+      <c r="A8" s="86">
         <v>6</v>
       </c>
-      <c r="B8" s="122"/>
-      <c r="C8" s="71" t="s">
+      <c r="B8" s="138"/>
+      <c r="C8" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="66">
         <v>0.1</v>
       </c>
       <c r="E8" s="59">
@@ -2581,7 +2590,7 @@
       <c r="F8" s="59">
         <v>43126</v>
       </c>
-      <c r="G8" s="94">
+      <c r="G8" s="89">
         <v>0.1</v>
       </c>
       <c r="H8" s="59">
@@ -2590,46 +2599,72 @@
       <c r="I8" s="59">
         <v>43126</v>
       </c>
-      <c r="J8" s="126"/>
-      <c r="K8" s="80"/>
+      <c r="J8" s="133"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="91">
+      <c r="A9" s="86">
         <v>7</v>
       </c>
-      <c r="B9" s="122"/>
-      <c r="C9" s="71" t="s">
+      <c r="B9" s="138"/>
+      <c r="C9" s="70" t="s">
         <v>119</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="104"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="55"/>
-      <c r="J9" s="126"/>
+      <c r="D9" s="66">
+        <v>0.13</v>
+      </c>
+      <c r="E9" s="59">
+        <v>43253</v>
+      </c>
+      <c r="F9" s="59">
+        <v>43253</v>
+      </c>
+      <c r="G9" s="115">
+        <v>0.13</v>
+      </c>
+      <c r="H9" s="59">
+        <v>43253</v>
+      </c>
+      <c r="I9" s="59">
+        <v>43253</v>
+      </c>
+      <c r="J9" s="133"/>
+      <c r="K9" s="79"/>
     </row>
     <row r="10" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="92">
+      <c r="A10" s="87">
         <v>8</v>
       </c>
-      <c r="B10" s="123"/>
+      <c r="B10" s="139"/>
       <c r="C10" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="102"/>
-      <c r="H10" s="54"/>
-      <c r="I10" s="54"/>
+      <c r="D10" s="67">
+        <v>0.13</v>
+      </c>
+      <c r="E10" s="109">
+        <v>43253</v>
+      </c>
+      <c r="F10" s="109">
+        <v>43253</v>
+      </c>
+      <c r="G10" s="107">
+        <v>0.13</v>
+      </c>
+      <c r="H10" s="109">
+        <v>43253</v>
+      </c>
+      <c r="I10" s="109">
+        <v>43253</v>
+      </c>
       <c r="J10" s="129"/>
+      <c r="K10" s="79"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="90">
+      <c r="A11" s="85">
         <v>9</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="137" t="s">
         <v>137</v>
       </c>
       <c r="C11" s="56" t="s">
@@ -2638,35 +2673,35 @@
       <c r="D11" s="44">
         <v>0.13</v>
       </c>
-      <c r="E11" s="165">
+      <c r="E11" s="108">
         <v>43118</v>
       </c>
-      <c r="F11" s="165">
+      <c r="F11" s="108">
         <v>42753</v>
       </c>
-      <c r="G11" s="93">
+      <c r="G11" s="88">
         <v>0.13</v>
       </c>
-      <c r="H11" s="167">
+      <c r="H11" s="110">
         <v>43118</v>
       </c>
-      <c r="I11" s="167">
+      <c r="I11" s="110">
         <v>43118</v>
       </c>
-      <c r="J11" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K11" s="80"/>
+      <c r="J11" s="144">
+        <v>1</v>
+      </c>
+      <c r="K11" s="79"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="91">
+      <c r="A12" s="86">
         <v>10</v>
       </c>
-      <c r="B12" s="122"/>
+      <c r="B12" s="138"/>
       <c r="C12" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D12" s="94">
+      <c r="D12" s="89">
         <v>0.1</v>
       </c>
       <c r="E12" s="59">
@@ -2675,7 +2710,7 @@
       <c r="F12" s="59">
         <v>43126</v>
       </c>
-      <c r="G12" s="94">
+      <c r="G12" s="89">
         <v>0.1</v>
       </c>
       <c r="H12" s="59">
@@ -2684,704 +2719,915 @@
       <c r="I12" s="59">
         <v>43126</v>
       </c>
-      <c r="J12" s="126"/>
-      <c r="K12" s="80"/>
+      <c r="J12" s="133"/>
+      <c r="K12" s="79"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="91">
+      <c r="A13" s="86">
         <v>11</v>
       </c>
-      <c r="B13" s="122"/>
+      <c r="B13" s="138"/>
       <c r="C13" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="59"/>
-      <c r="J13" s="126"/>
+      <c r="D13" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F13" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G13" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H13" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I13" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J13" s="133"/>
+      <c r="K13" s="79"/>
     </row>
     <row r="14" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="92">
+      <c r="A14" s="87">
         <v>12</v>
       </c>
-      <c r="B14" s="123"/>
+      <c r="B14" s="139"/>
       <c r="C14" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D14" s="46"/>
-      <c r="E14" s="166"/>
-      <c r="F14" s="166"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="166"/>
-      <c r="I14" s="60"/>
+      <c r="D14" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F14" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G14" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H14" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I14" s="109">
+        <v>43159</v>
+      </c>
       <c r="J14" s="129"/>
+      <c r="K14" s="79"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+      <c r="A15" s="85">
         <v>13</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="137" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="64" t="s">
+      <c r="C15" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D15" s="93">
+      <c r="D15" s="173">
         <v>0.13</v>
       </c>
-      <c r="E15" s="165">
+      <c r="E15" s="108">
         <v>43118</v>
       </c>
-      <c r="F15" s="165">
+      <c r="F15" s="108">
         <v>42753</v>
       </c>
-      <c r="G15" s="93">
+      <c r="G15" s="88">
         <v>0.13</v>
       </c>
-      <c r="H15" s="167">
+      <c r="H15" s="110">
         <v>43118</v>
       </c>
-      <c r="I15" s="167">
+      <c r="I15" s="110">
         <v>43118</v>
       </c>
-      <c r="J15" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K15" s="80"/>
+      <c r="J15" s="144">
+        <v>1</v>
+      </c>
+      <c r="K15" s="79"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="86">
         <v>14</v>
       </c>
-      <c r="B16" s="122"/>
-      <c r="C16" s="65" t="s">
+      <c r="B16" s="138"/>
+      <c r="C16" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="63">
+      <c r="D16" s="62">
         <v>0.13</v>
       </c>
-      <c r="E16" s="165">
+      <c r="E16" s="108">
         <v>43127</v>
       </c>
-      <c r="F16" s="165">
+      <c r="F16" s="108">
         <v>43127</v>
       </c>
-      <c r="G16" s="94">
+      <c r="G16" s="89">
         <v>0.13</v>
       </c>
-      <c r="H16" s="165">
+      <c r="H16" s="108">
         <v>43127</v>
       </c>
-      <c r="I16" s="165">
+      <c r="I16" s="108">
         <v>43127</v>
       </c>
-      <c r="J16" s="126"/>
-      <c r="K16" s="80"/>
+      <c r="J16" s="133"/>
+      <c r="K16" s="79"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="91">
+      <c r="A17" s="86">
         <v>15</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="65" t="s">
+      <c r="B17" s="138"/>
+      <c r="C17" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="165"/>
-      <c r="F17" s="165"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="59"/>
-      <c r="J17" s="126"/>
+      <c r="D17" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F17" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G17" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I17" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J17" s="133"/>
+      <c r="K17" s="79"/>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="92">
+      <c r="A18" s="87">
         <v>16</v>
       </c>
-      <c r="B18" s="123"/>
+      <c r="B18" s="139"/>
       <c r="C18" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D18" s="62"/>
-      <c r="E18" s="166"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="166"/>
-      <c r="I18" s="60"/>
+      <c r="D18" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F18" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G18" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H18" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I18" s="109">
+        <v>43159</v>
+      </c>
       <c r="J18" s="129"/>
+      <c r="K18" s="79"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="90">
+      <c r="A19" s="85">
         <v>17</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="137" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C19" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D19" s="93">
+      <c r="D19" s="88">
         <v>0.13</v>
       </c>
-      <c r="E19" s="165">
+      <c r="E19" s="108">
         <v>43118</v>
       </c>
-      <c r="F19" s="165">
+      <c r="F19" s="108">
         <v>42753</v>
       </c>
-      <c r="G19" s="93">
+      <c r="G19" s="88">
         <v>0.13</v>
       </c>
-      <c r="H19" s="167">
+      <c r="H19" s="110">
         <v>43118</v>
       </c>
-      <c r="I19" s="167">
+      <c r="I19" s="110">
         <v>43118</v>
       </c>
-      <c r="J19" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K19" s="80"/>
+      <c r="J19" s="144">
+        <v>1</v>
+      </c>
+      <c r="K19" s="79"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="91">
+      <c r="A20" s="86">
         <v>18</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="65" t="s">
+      <c r="B20" s="138"/>
+      <c r="C20" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="94">
+      <c r="D20" s="89">
         <v>0.13</v>
       </c>
-      <c r="E20" s="165">
+      <c r="E20" s="108">
         <v>43127</v>
       </c>
-      <c r="F20" s="165">
+      <c r="F20" s="108">
         <v>43127</v>
       </c>
-      <c r="G20" s="94">
+      <c r="G20" s="89">
         <v>0.13</v>
       </c>
-      <c r="H20" s="165">
+      <c r="H20" s="108">
         <v>43127</v>
       </c>
-      <c r="I20" s="165">
+      <c r="I20" s="108">
         <v>43127</v>
       </c>
-      <c r="J20" s="126"/>
-      <c r="K20" s="80"/>
+      <c r="J20" s="133"/>
+      <c r="K20" s="79"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="91">
+      <c r="A21" s="86">
         <v>19</v>
       </c>
-      <c r="B21" s="122"/>
-      <c r="C21" s="65" t="s">
+      <c r="B21" s="138"/>
+      <c r="C21" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="165"/>
-      <c r="F21" s="165"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="126"/>
+      <c r="D21" s="62">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F21" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G21" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I21" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J21" s="133"/>
+      <c r="K21" s="79"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="92">
+      <c r="A22" s="87">
         <v>20</v>
       </c>
-      <c r="B22" s="123"/>
+      <c r="B22" s="139"/>
       <c r="C22" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="62"/>
-      <c r="E22" s="166"/>
-      <c r="F22" s="166"/>
-      <c r="G22" s="102"/>
-      <c r="H22" s="166"/>
-      <c r="I22" s="60"/>
+      <c r="D22" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F22" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G22" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H22" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I22" s="109">
+        <v>43159</v>
+      </c>
       <c r="J22" s="129"/>
+      <c r="K22" s="79"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="90">
+      <c r="A23" s="85">
         <v>21</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="137" t="s">
         <v>136</v>
       </c>
-      <c r="C23" s="64" t="s">
+      <c r="C23" s="63" t="s">
         <v>118</v>
       </c>
-      <c r="D23" s="93">
+      <c r="D23" s="88">
         <v>0.13</v>
       </c>
-      <c r="E23" s="165">
+      <c r="E23" s="108">
         <v>43118</v>
       </c>
-      <c r="F23" s="165">
+      <c r="F23" s="108">
         <v>42753</v>
       </c>
-      <c r="G23" s="93">
+      <c r="G23" s="88">
         <v>0.13</v>
       </c>
-      <c r="H23" s="167">
+      <c r="H23" s="110">
         <v>43118</v>
       </c>
-      <c r="I23" s="167">
+      <c r="I23" s="110">
         <v>43118</v>
       </c>
-      <c r="J23" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K23" s="80"/>
+      <c r="J23" s="144">
+        <v>1</v>
+      </c>
+      <c r="K23" s="79"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="91">
+      <c r="A24" s="86">
         <v>22</v>
       </c>
-      <c r="B24" s="122"/>
-      <c r="C24" s="65" t="s">
+      <c r="B24" s="138"/>
+      <c r="C24" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="D24" s="94">
+      <c r="D24" s="89">
         <v>0.13</v>
       </c>
-      <c r="E24" s="165">
+      <c r="E24" s="108">
         <v>43127</v>
       </c>
-      <c r="F24" s="165">
+      <c r="F24" s="108">
         <v>43127</v>
       </c>
-      <c r="G24" s="94">
+      <c r="G24" s="89">
         <v>0.13</v>
       </c>
-      <c r="H24" s="165">
+      <c r="H24" s="108">
         <v>43127</v>
       </c>
-      <c r="I24" s="165">
+      <c r="I24" s="108">
         <v>43127</v>
       </c>
-      <c r="J24" s="126"/>
-      <c r="K24" s="80"/>
+      <c r="J24" s="133"/>
+      <c r="K24" s="79"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="91">
+      <c r="A25" s="86">
         <v>23</v>
       </c>
-      <c r="B25" s="122"/>
-      <c r="C25" s="65" t="s">
+      <c r="B25" s="138"/>
+      <c r="C25" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="63"/>
-      <c r="E25" s="165"/>
-      <c r="F25" s="165"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="126"/>
+      <c r="D25" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E25" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F25" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G25" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H25" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I25" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J25" s="133"/>
+      <c r="K25" s="79"/>
     </row>
     <row r="26" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="92">
+      <c r="A26" s="87">
         <v>24</v>
       </c>
-      <c r="B26" s="123"/>
+      <c r="B26" s="139"/>
       <c r="C26" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="62"/>
-      <c r="E26" s="166"/>
-      <c r="F26" s="166"/>
-      <c r="G26" s="102"/>
-      <c r="H26" s="166"/>
-      <c r="I26" s="60"/>
+      <c r="D26" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E26" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F26" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G26" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H26" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I26" s="109">
+        <v>43159</v>
+      </c>
       <c r="J26" s="129"/>
+      <c r="K26" s="79"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="90">
+      <c r="A27" s="85">
         <v>25</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="137" t="s">
         <v>12</v>
       </c>
       <c r="C27" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D27" s="93">
+      <c r="D27" s="88">
         <v>0.25</v>
       </c>
-      <c r="E27" s="167">
+      <c r="E27" s="110">
         <v>43119</v>
       </c>
-      <c r="F27" s="167">
+      <c r="F27" s="110">
         <v>43119</v>
       </c>
-      <c r="G27" s="93">
+      <c r="G27" s="88">
         <v>0.04</v>
       </c>
-      <c r="H27" s="167">
+      <c r="H27" s="110">
         <v>43121</v>
       </c>
-      <c r="I27" s="167">
+      <c r="I27" s="110">
         <v>43121</v>
       </c>
-      <c r="J27" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K27" s="80"/>
+      <c r="J27" s="144">
+        <v>1</v>
+      </c>
+      <c r="K27" s="79"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="91">
+      <c r="A28" s="86">
         <v>26</v>
       </c>
-      <c r="B28" s="122"/>
+      <c r="B28" s="138"/>
       <c r="C28" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="94">
+      <c r="D28" s="89">
         <v>0.13</v>
       </c>
-      <c r="E28" s="165">
+      <c r="E28" s="108">
         <v>43127</v>
       </c>
-      <c r="F28" s="165">
+      <c r="F28" s="108">
         <v>43127</v>
       </c>
-      <c r="G28" s="94">
+      <c r="G28" s="89">
         <v>0.13</v>
       </c>
-      <c r="H28" s="165">
+      <c r="H28" s="108">
         <v>43127</v>
       </c>
-      <c r="I28" s="165">
+      <c r="I28" s="108">
         <v>43127</v>
       </c>
-      <c r="J28" s="126"/>
-      <c r="K28" s="80"/>
+      <c r="J28" s="133"/>
+      <c r="K28" s="79"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="91">
+      <c r="A29" s="86">
         <v>27</v>
       </c>
-      <c r="B29" s="122"/>
+      <c r="B29" s="138"/>
       <c r="C29" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="49"/>
-      <c r="E29" s="165"/>
-      <c r="F29" s="165"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="55"/>
-      <c r="J29" s="126"/>
+      <c r="D29" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E29" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F29" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G29" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H29" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I29" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J29" s="133"/>
+      <c r="K29" s="79"/>
     </row>
     <row r="30" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="92">
+      <c r="A30" s="87">
         <v>28</v>
       </c>
-      <c r="B30" s="123"/>
+      <c r="B30" s="139"/>
       <c r="C30" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="46"/>
-      <c r="E30" s="166"/>
-      <c r="F30" s="166"/>
-      <c r="G30" s="102"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="54"/>
+      <c r="D30" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E30" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F30" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G30" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H30" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I30" s="109">
+        <v>43159</v>
+      </c>
       <c r="J30" s="129"/>
+      <c r="K30" s="79"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="90">
+      <c r="A31" s="85">
         <v>29</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="137" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D31" s="93">
+      <c r="D31" s="88">
         <v>0.25</v>
       </c>
-      <c r="E31" s="167">
+      <c r="E31" s="110">
         <v>43119</v>
       </c>
-      <c r="F31" s="167">
+      <c r="F31" s="110">
         <v>43119</v>
       </c>
-      <c r="G31" s="93">
+      <c r="G31" s="88">
         <v>0.04</v>
       </c>
-      <c r="H31" s="167">
+      <c r="H31" s="110">
         <v>43121</v>
       </c>
-      <c r="I31" s="167">
+      <c r="I31" s="110">
         <v>43121</v>
       </c>
-      <c r="J31" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K31" s="80"/>
+      <c r="J31" s="144">
+        <v>1</v>
+      </c>
+      <c r="K31" s="79"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A32" s="91">
+      <c r="A32" s="86">
         <v>30</v>
       </c>
-      <c r="B32" s="122"/>
+      <c r="B32" s="138"/>
       <c r="C32" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D32" s="49">
         <v>0.13</v>
       </c>
-      <c r="E32" s="165">
+      <c r="E32" s="108">
         <v>43128</v>
       </c>
-      <c r="F32" s="165">
+      <c r="F32" s="108">
         <v>43128</v>
       </c>
-      <c r="G32" s="101">
+      <c r="G32" s="95">
         <v>0.13</v>
       </c>
-      <c r="H32" s="165">
+      <c r="H32" s="108">
         <v>43128</v>
       </c>
-      <c r="I32" s="165">
+      <c r="I32" s="108">
         <v>43128</v>
       </c>
-      <c r="J32" s="126"/>
-      <c r="K32" s="80"/>
+      <c r="J32" s="133"/>
+      <c r="K32" s="79"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A33" s="91">
+      <c r="A33" s="86">
         <v>31</v>
       </c>
-      <c r="B33" s="122"/>
+      <c r="B33" s="138"/>
       <c r="C33" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D33" s="49"/>
-      <c r="E33" s="165"/>
-      <c r="F33" s="165"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="55"/>
-      <c r="J33" s="126"/>
+      <c r="D33" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E33" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F33" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G33" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H33" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I33" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J33" s="133"/>
+      <c r="K33" s="79"/>
     </row>
     <row r="34" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="92">
+      <c r="A34" s="87">
         <v>32</v>
       </c>
-      <c r="B34" s="123"/>
+      <c r="B34" s="139"/>
       <c r="C34" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D34" s="46"/>
-      <c r="E34" s="166"/>
-      <c r="F34" s="166"/>
-      <c r="G34" s="102"/>
-      <c r="H34" s="166"/>
-      <c r="I34" s="54"/>
+      <c r="D34" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E34" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F34" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G34" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H34" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I34" s="109">
+        <v>43159</v>
+      </c>
       <c r="J34" s="129"/>
+      <c r="K34" s="79"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="90">
+      <c r="A35" s="85">
         <v>33</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="137" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D35" s="93">
+      <c r="D35" s="88">
         <v>0.25</v>
       </c>
-      <c r="E35" s="167">
+      <c r="E35" s="110">
         <v>43119</v>
       </c>
-      <c r="F35" s="167">
+      <c r="F35" s="110">
         <v>43119</v>
       </c>
-      <c r="G35" s="93">
+      <c r="G35" s="88">
         <v>0.04</v>
       </c>
-      <c r="H35" s="171">
+      <c r="H35" s="114">
         <v>43121</v>
       </c>
-      <c r="I35" s="171">
+      <c r="I35" s="114">
         <v>43121</v>
       </c>
-      <c r="J35" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K35" s="80"/>
-      <c r="L35" s="82" t="s">
+      <c r="J35" s="144">
+        <v>1</v>
+      </c>
+      <c r="K35" s="79"/>
+      <c r="L35" s="81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="91">
+      <c r="A36" s="86">
         <v>34</v>
       </c>
-      <c r="B36" s="122"/>
+      <c r="B36" s="138"/>
       <c r="C36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D36" s="94">
+      <c r="D36" s="89">
         <v>0.13</v>
       </c>
-      <c r="E36" s="165">
+      <c r="E36" s="108">
         <v>43128</v>
       </c>
-      <c r="F36" s="165">
+      <c r="F36" s="108">
         <v>43128</v>
       </c>
-      <c r="G36" s="101">
+      <c r="G36" s="95">
         <v>0.13</v>
       </c>
-      <c r="H36" s="165">
+      <c r="H36" s="108">
         <v>43128</v>
       </c>
-      <c r="I36" s="165">
+      <c r="I36" s="108">
         <v>43128</v>
       </c>
-      <c r="J36" s="126"/>
-      <c r="K36" s="80"/>
-      <c r="L36" s="82" t="s">
+      <c r="J36" s="133"/>
+      <c r="K36" s="79"/>
+      <c r="L36" s="81" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="91">
+      <c r="A37" s="86">
         <v>35</v>
       </c>
-      <c r="B37" s="122"/>
+      <c r="B37" s="138"/>
       <c r="C37" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="49"/>
-      <c r="E37" s="115"/>
-      <c r="F37" s="115"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="55"/>
-      <c r="J37" s="126"/>
-      <c r="K37" s="83"/>
+      <c r="D37" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E37" s="108">
+        <v>43159</v>
+      </c>
+      <c r="F37" s="108">
+        <v>43159</v>
+      </c>
+      <c r="G37" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H37" s="108">
+        <v>43159</v>
+      </c>
+      <c r="I37" s="108">
+        <v>43159</v>
+      </c>
+      <c r="J37" s="133"/>
+      <c r="K37" s="174"/>
     </row>
     <row r="38" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92">
+      <c r="A38" s="87">
         <v>36</v>
       </c>
-      <c r="B38" s="123"/>
+      <c r="B38" s="139"/>
       <c r="C38" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D38" s="46"/>
-      <c r="E38" s="114"/>
-      <c r="F38" s="114"/>
-      <c r="G38" s="102"/>
-      <c r="H38" s="166"/>
-      <c r="I38" s="54"/>
+      <c r="D38" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E38" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F38" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G38" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I38" s="109">
+        <v>43159</v>
+      </c>
       <c r="J38" s="129"/>
-      <c r="K38" s="83"/>
+      <c r="K38" s="174"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="90">
+      <c r="A39" s="85">
         <v>37</v>
       </c>
-      <c r="B39" s="145" t="s">
+      <c r="B39" s="148" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="93">
+      <c r="D39" s="88">
         <v>0.25</v>
       </c>
-      <c r="E39" s="167">
+      <c r="E39" s="110">
         <v>43119</v>
       </c>
-      <c r="F39" s="167">
+      <c r="F39" s="110">
         <v>43119</v>
       </c>
-      <c r="G39" s="93">
+      <c r="G39" s="88">
         <v>0.04</v>
       </c>
-      <c r="H39" s="171">
+      <c r="H39" s="114">
         <v>43121</v>
       </c>
-      <c r="I39" s="171">
+      <c r="I39" s="114">
         <v>43121</v>
       </c>
-      <c r="J39" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K39" s="80"/>
+      <c r="J39" s="144">
+        <v>1</v>
+      </c>
+      <c r="K39" s="79"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A40" s="91">
+      <c r="A40" s="86">
         <v>38</v>
       </c>
-      <c r="B40" s="146"/>
+      <c r="B40" s="149"/>
       <c r="C40" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D40" s="94">
+      <c r="D40" s="89">
         <v>0.13</v>
       </c>
-      <c r="E40" s="165">
+      <c r="E40" s="108">
         <v>43128</v>
       </c>
-      <c r="F40" s="165">
+      <c r="F40" s="108">
         <v>43128</v>
       </c>
-      <c r="G40" s="101">
+      <c r="G40" s="95">
         <v>0.13</v>
       </c>
-      <c r="H40" s="165">
+      <c r="H40" s="108">
         <v>43128</v>
       </c>
-      <c r="I40" s="165">
+      <c r="I40" s="108">
         <v>43128</v>
       </c>
-      <c r="J40" s="126"/>
-      <c r="K40" s="80"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="79"/>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A41" s="91">
+      <c r="A41" s="86">
         <v>39</v>
       </c>
-      <c r="B41" s="146"/>
+      <c r="B41" s="149"/>
       <c r="C41" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D41" s="49"/>
-      <c r="E41" s="115"/>
-      <c r="F41" s="115"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="55"/>
-      <c r="J41" s="126"/>
+      <c r="D41" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E41" s="59">
+        <v>43128</v>
+      </c>
+      <c r="F41" s="59">
+        <v>43128</v>
+      </c>
+      <c r="H41" s="59">
+        <v>43128</v>
+      </c>
+      <c r="I41" s="59">
+        <v>43128</v>
+      </c>
+      <c r="J41" s="133"/>
+      <c r="K41" s="79"/>
     </row>
     <row r="42" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="92">
+      <c r="A42" s="87">
         <v>40</v>
       </c>
-      <c r="B42" s="147"/>
+      <c r="B42" s="150"/>
       <c r="C42" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="46"/>
-      <c r="E42" s="114"/>
-      <c r="F42" s="114"/>
-      <c r="G42" s="102"/>
-      <c r="H42" s="54"/>
-      <c r="I42" s="54"/>
+      <c r="D42" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E42" s="109">
+        <v>43159</v>
+      </c>
+      <c r="F42" s="109">
+        <v>43159</v>
+      </c>
+      <c r="G42" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H42" s="109">
+        <v>43159</v>
+      </c>
+      <c r="I42" s="109">
+        <v>43159</v>
+      </c>
       <c r="J42" s="129"/>
+      <c r="K42" s="79"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A43" s="90">
+      <c r="A43" s="85">
         <v>41</v>
       </c>
-      <c r="B43" s="121" t="s">
+      <c r="B43" s="137" t="s">
         <v>128</v>
       </c>
       <c r="C43" s="56" t="s">
@@ -3390,780 +3636,995 @@
       <c r="D43" s="44">
         <v>0.33</v>
       </c>
-      <c r="E43" s="167">
+      <c r="E43" s="110">
         <v>43120</v>
       </c>
-      <c r="F43" s="167">
+      <c r="F43" s="110">
         <v>43120</v>
       </c>
-      <c r="G43" s="93">
+      <c r="G43" s="88">
         <v>0.04</v>
       </c>
-      <c r="H43" s="171">
+      <c r="H43" s="114">
         <v>43121</v>
       </c>
-      <c r="I43" s="171">
+      <c r="I43" s="114">
         <v>43121</v>
       </c>
-      <c r="J43" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K43" s="80"/>
+      <c r="J43" s="144">
+        <v>1</v>
+      </c>
+      <c r="K43" s="79"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A44" s="91">
+      <c r="A44" s="86">
         <v>42</v>
       </c>
-      <c r="B44" s="122"/>
+      <c r="B44" s="138"/>
       <c r="C44" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D44" s="94">
+      <c r="D44" s="89">
         <v>0.13</v>
       </c>
-      <c r="E44" s="165">
+      <c r="E44" s="108">
         <v>43128</v>
       </c>
-      <c r="F44" s="165">
+      <c r="F44" s="108">
         <v>43128</v>
       </c>
-      <c r="G44" s="101">
+      <c r="G44" s="95">
         <v>0.13</v>
       </c>
-      <c r="H44" s="165">
+      <c r="H44" s="108">
         <v>43128</v>
       </c>
-      <c r="I44" s="165">
+      <c r="I44" s="108">
         <v>43128</v>
       </c>
-      <c r="J44" s="126"/>
-      <c r="K44" s="80"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="79"/>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A45" s="91">
+      <c r="A45" s="86">
         <v>43</v>
       </c>
-      <c r="B45" s="122"/>
+      <c r="B45" s="138"/>
       <c r="C45" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D45" s="49"/>
-      <c r="E45" s="55"/>
-      <c r="F45" s="55"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="55"/>
-      <c r="J45" s="126"/>
+      <c r="D45" s="49">
+        <v>0.1</v>
+      </c>
+      <c r="E45" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F45" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G45" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H45" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I45" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J45" s="133"/>
+      <c r="K45" s="79"/>
     </row>
     <row r="46" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="92">
+      <c r="A46" s="87">
         <v>44</v>
       </c>
-      <c r="B46" s="123"/>
+      <c r="B46" s="139"/>
       <c r="C46" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D46" s="46"/>
-      <c r="E46" s="54"/>
-      <c r="F46" s="54"/>
-      <c r="G46" s="102"/>
-      <c r="H46" s="54"/>
-      <c r="I46" s="54"/>
+      <c r="D46" s="46">
+        <v>0.1</v>
+      </c>
+      <c r="E46" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F46" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G46" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I46" s="60">
+        <v>43103</v>
+      </c>
       <c r="J46" s="129"/>
+      <c r="K46" s="79"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A47" s="90">
+      <c r="A47" s="85">
         <v>45</v>
       </c>
-      <c r="B47" s="121" t="s">
+      <c r="B47" s="137" t="s">
         <v>129</v>
       </c>
       <c r="C47" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D47" s="93">
+      <c r="D47" s="88">
         <v>0.33</v>
       </c>
-      <c r="E47" s="167">
+      <c r="E47" s="110">
         <v>43120</v>
       </c>
-      <c r="F47" s="167">
+      <c r="F47" s="110">
         <v>43120</v>
       </c>
-      <c r="G47" s="93">
+      <c r="G47" s="88">
         <v>0.04</v>
       </c>
-      <c r="H47" s="171">
+      <c r="H47" s="114">
         <v>43121</v>
       </c>
-      <c r="I47" s="171">
+      <c r="I47" s="114">
         <v>43121</v>
       </c>
-      <c r="J47" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K47" s="80"/>
+      <c r="J47" s="144">
+        <v>1</v>
+      </c>
+      <c r="K47" s="79"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A48" s="91">
+      <c r="A48" s="86">
         <v>46</v>
       </c>
-      <c r="B48" s="122"/>
+      <c r="B48" s="138"/>
       <c r="C48" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D48" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E48" s="168">
+      <c r="D48" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E48" s="111">
         <v>43129</v>
       </c>
-      <c r="F48" s="168">
+      <c r="F48" s="111">
         <v>43129</v>
       </c>
-      <c r="G48" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H48" s="168">
+      <c r="G48" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H48" s="111">
         <v>43129</v>
       </c>
-      <c r="I48" s="168">
+      <c r="I48" s="111">
         <v>43129</v>
       </c>
-      <c r="J48" s="126"/>
-      <c r="K48" s="80"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="79"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A49" s="91">
+      <c r="A49" s="86">
         <v>47</v>
       </c>
-      <c r="B49" s="122"/>
+      <c r="B49" s="138"/>
       <c r="C49" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D49" s="49"/>
-      <c r="E49" s="55"/>
-      <c r="F49" s="55"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="55"/>
-      <c r="J49" s="126"/>
+      <c r="D49" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E49" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F49" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G49" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I49" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J49" s="133"/>
+      <c r="K49" s="79"/>
     </row>
     <row r="50" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="92">
+      <c r="A50" s="87">
         <v>48</v>
       </c>
-      <c r="B50" s="123"/>
+      <c r="B50" s="139"/>
       <c r="C50" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D50" s="46"/>
-      <c r="E50" s="54"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="54"/>
-      <c r="I50" s="54"/>
+      <c r="D50" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E50" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F50" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G50" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H50" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I50" s="60">
+        <v>43103</v>
+      </c>
       <c r="J50" s="129"/>
+      <c r="K50" s="79"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" s="90">
+      <c r="A51" s="85">
         <v>49</v>
       </c>
-      <c r="B51" s="145" t="s">
+      <c r="B51" s="148" t="s">
         <v>46</v>
       </c>
       <c r="C51" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="93">
+      <c r="D51" s="88">
         <v>0.33</v>
       </c>
-      <c r="E51" s="167">
+      <c r="E51" s="110">
         <v>43120</v>
       </c>
-      <c r="F51" s="167">
+      <c r="F51" s="110">
         <v>43120</v>
       </c>
-      <c r="G51" s="93">
+      <c r="G51" s="88">
         <v>0.04</v>
       </c>
-      <c r="H51" s="171">
+      <c r="H51" s="114">
         <v>43121</v>
       </c>
-      <c r="I51" s="171">
+      <c r="I51" s="114">
         <v>43121</v>
       </c>
-      <c r="J51" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K51" s="80"/>
+      <c r="J51" s="144">
+        <v>1</v>
+      </c>
+      <c r="K51" s="79"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A52" s="91">
+      <c r="A52" s="86">
         <v>50</v>
       </c>
-      <c r="B52" s="146"/>
+      <c r="B52" s="149"/>
       <c r="C52" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D52" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E52" s="168">
+      <c r="D52" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E52" s="111">
         <v>43129</v>
       </c>
-      <c r="F52" s="168">
+      <c r="F52" s="111">
         <v>43129</v>
       </c>
-      <c r="G52" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H52" s="168">
+      <c r="G52" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H52" s="111">
         <v>43129</v>
       </c>
-      <c r="I52" s="168">
+      <c r="I52" s="111">
         <v>43129</v>
       </c>
-      <c r="J52" s="126"/>
-      <c r="K52" s="80"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="79"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" s="91">
+      <c r="A53" s="86">
         <v>51</v>
       </c>
-      <c r="B53" s="146"/>
+      <c r="B53" s="149"/>
       <c r="C53" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="49"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="55"/>
-      <c r="H53" s="55"/>
-      <c r="I53" s="55"/>
-      <c r="J53" s="126"/>
+      <c r="D53" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E53" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F53" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G53" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H53" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I53" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J53" s="133"/>
+      <c r="K53" s="79"/>
     </row>
     <row r="54" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="92">
+      <c r="A54" s="87">
         <v>52</v>
       </c>
-      <c r="B54" s="147"/>
+      <c r="B54" s="150"/>
       <c r="C54" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="46"/>
-      <c r="E54" s="54"/>
-      <c r="F54" s="54"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="54"/>
-      <c r="I54" s="54"/>
+      <c r="D54" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E54" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F54" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G54" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H54" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I54" s="60">
+        <v>43103</v>
+      </c>
       <c r="J54" s="129"/>
-    </row>
-    <row r="55" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="90">
+      <c r="K54" s="79"/>
+    </row>
+    <row r="55" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="85">
         <v>53</v>
       </c>
-      <c r="B55" s="145" t="s">
+      <c r="B55" s="148" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="78" t="s">
+      <c r="C55" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="93">
+      <c r="D55" s="88">
         <v>0.04</v>
       </c>
-      <c r="E55" s="169">
+      <c r="E55" s="112">
         <v>43121</v>
       </c>
-      <c r="F55" s="169">
+      <c r="F55" s="112">
         <v>43121</v>
       </c>
-      <c r="G55" s="93">
+      <c r="G55" s="88">
         <v>0.04</v>
       </c>
-      <c r="H55" s="169">
+      <c r="H55" s="112">
         <v>43121</v>
       </c>
-      <c r="I55" s="169">
+      <c r="I55" s="112">
         <v>43121</v>
       </c>
-      <c r="J55" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K55" s="80"/>
-    </row>
-    <row r="56" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="91">
+      <c r="J55" s="144">
+        <v>1</v>
+      </c>
+      <c r="K55" s="79"/>
+    </row>
+    <row r="56" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="86">
         <v>54</v>
       </c>
-      <c r="B56" s="146"/>
-      <c r="C56" s="86" t="s">
+      <c r="B56" s="149"/>
+      <c r="C56" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D56" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E56" s="168">
+      <c r="D56" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E56" s="111">
         <v>43129</v>
       </c>
-      <c r="F56" s="168">
+      <c r="F56" s="111">
         <v>43129</v>
       </c>
-      <c r="G56" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H56" s="168">
+      <c r="G56" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H56" s="111">
         <v>43129</v>
       </c>
-      <c r="I56" s="168">
+      <c r="I56" s="111">
         <v>43129</v>
       </c>
-      <c r="J56" s="126"/>
-      <c r="K56" s="80"/>
-    </row>
-    <row r="57" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="91">
+      <c r="J56" s="133"/>
+      <c r="K56" s="79"/>
+    </row>
+    <row r="57" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="86">
         <v>55</v>
       </c>
-      <c r="B57" s="146"/>
-      <c r="C57" s="86" t="s">
+      <c r="B57" s="149"/>
+      <c r="C57" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D57" s="101"/>
-      <c r="E57" s="87"/>
-      <c r="F57" s="87"/>
-      <c r="G57" s="101"/>
-      <c r="H57" s="87"/>
-      <c r="I57" s="87"/>
-      <c r="J57" s="126"/>
-      <c r="K57" s="84"/>
-    </row>
-    <row r="58" spans="1:11" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="92">
+      <c r="D57" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E57" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F57" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G57" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H57" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I57" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J57" s="133"/>
+      <c r="K57" s="79"/>
+    </row>
+    <row r="58" spans="1:11" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="87">
         <v>56</v>
       </c>
-      <c r="B58" s="147"/>
-      <c r="C58" s="88" t="s">
+      <c r="B58" s="150"/>
+      <c r="C58" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D58" s="102"/>
-      <c r="E58" s="89"/>
-      <c r="F58" s="89"/>
-      <c r="G58" s="102"/>
-      <c r="H58" s="89"/>
-      <c r="I58" s="89"/>
+      <c r="D58" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E58" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F58" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G58" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H58" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I58" s="60">
+        <v>43103</v>
+      </c>
       <c r="J58" s="129"/>
-      <c r="K58" s="84"/>
-    </row>
-    <row r="59" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="90">
+      <c r="K58" s="79"/>
+    </row>
+    <row r="59" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="85">
         <v>57</v>
       </c>
-      <c r="B59" s="145" t="s">
+      <c r="B59" s="148" t="s">
         <v>145</v>
       </c>
-      <c r="C59" s="78" t="s">
+      <c r="C59" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D59" s="93">
+      <c r="D59" s="88">
         <v>0.04</v>
       </c>
-      <c r="E59" s="169">
+      <c r="E59" s="112">
         <v>43121</v>
       </c>
-      <c r="F59" s="169">
+      <c r="F59" s="112">
         <v>43121</v>
       </c>
-      <c r="G59" s="93">
+      <c r="G59" s="88">
         <v>0.04</v>
       </c>
-      <c r="H59" s="169">
+      <c r="H59" s="112">
         <v>43121</v>
       </c>
-      <c r="I59" s="169">
+      <c r="I59" s="112">
         <v>43121</v>
       </c>
-      <c r="J59" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K59" s="80"/>
-    </row>
-    <row r="60" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="91">
+      <c r="J59" s="176">
+        <v>1</v>
+      </c>
+      <c r="K59" s="79"/>
+    </row>
+    <row r="60" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="86">
         <v>58</v>
       </c>
-      <c r="B60" s="146"/>
-      <c r="C60" s="86" t="s">
+      <c r="B60" s="149"/>
+      <c r="C60" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="101">
+      <c r="D60" s="95">
         <v>0.13</v>
       </c>
-      <c r="E60" s="168">
+      <c r="E60" s="111">
         <v>43129</v>
       </c>
-      <c r="F60" s="168">
+      <c r="F60" s="111">
         <v>43129</v>
       </c>
-      <c r="G60" s="101">
+      <c r="G60" s="95">
         <v>0.13</v>
       </c>
-      <c r="H60" s="168">
+      <c r="H60" s="111">
         <v>43129</v>
       </c>
-      <c r="I60" s="168">
+      <c r="I60" s="111">
         <v>43129</v>
       </c>
-      <c r="J60" s="126"/>
-      <c r="K60" s="80"/>
-    </row>
-    <row r="61" spans="1:11" s="85" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="91">
+      <c r="J60" s="177"/>
+      <c r="K60" s="79"/>
+    </row>
+    <row r="61" spans="1:11" s="82" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="86">
         <v>59</v>
       </c>
-      <c r="B61" s="146"/>
-      <c r="C61" s="86" t="s">
+      <c r="B61" s="149"/>
+      <c r="C61" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D61" s="101"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="101"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="84"/>
-    </row>
-    <row r="62" spans="1:11" s="85" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="92">
+      <c r="D61" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E61" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F61" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G61" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H61" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I61" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J61" s="177"/>
+      <c r="K61" s="79"/>
+    </row>
+    <row r="62" spans="1:11" s="82" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="87">
         <v>60</v>
       </c>
-      <c r="B62" s="147"/>
-      <c r="C62" s="88" t="s">
+      <c r="B62" s="150"/>
+      <c r="C62" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D62" s="102"/>
-      <c r="E62" s="89"/>
-      <c r="F62" s="89"/>
-      <c r="G62" s="102"/>
-      <c r="H62" s="89"/>
-      <c r="I62" s="89"/>
-      <c r="J62" s="129"/>
-      <c r="K62" s="84"/>
+      <c r="D62" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E62" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F62" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G62" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H62" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I62" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J62" s="178"/>
+      <c r="K62" s="79"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A63" s="90">
+      <c r="A63" s="85">
         <v>61</v>
       </c>
-      <c r="B63" s="145" t="s">
+      <c r="B63" s="148" t="s">
         <v>61</v>
       </c>
       <c r="C63" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D63" s="93">
+      <c r="D63" s="88">
         <v>0.04</v>
       </c>
-      <c r="E63" s="169">
+      <c r="E63" s="112">
         <v>43121</v>
       </c>
-      <c r="F63" s="169">
+      <c r="F63" s="112">
         <v>43121</v>
       </c>
-      <c r="G63" s="93">
+      <c r="G63" s="88">
         <v>0.04</v>
       </c>
-      <c r="H63" s="169">
+      <c r="H63" s="112">
         <v>43121</v>
       </c>
-      <c r="I63" s="169">
+      <c r="I63" s="112">
         <v>43121</v>
       </c>
-      <c r="J63" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K63" s="80"/>
+      <c r="J63" s="144">
+        <v>1</v>
+      </c>
+      <c r="K63" s="79"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" s="91">
+      <c r="A64" s="86">
         <v>62</v>
       </c>
-      <c r="B64" s="146"/>
+      <c r="B64" s="149"/>
       <c r="C64" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D64" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E64" s="168">
+      <c r="D64" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E64" s="111">
         <v>43129</v>
       </c>
-      <c r="F64" s="168">
+      <c r="F64" s="111">
         <v>43129</v>
       </c>
-      <c r="G64" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H64" s="168">
+      <c r="G64" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H64" s="111">
         <v>43129</v>
       </c>
-      <c r="I64" s="168">
+      <c r="I64" s="111">
         <v>43129</v>
       </c>
-      <c r="J64" s="126"/>
-      <c r="K64" s="80"/>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" s="91">
+      <c r="J64" s="133"/>
+      <c r="K64" s="79"/>
+    </row>
+    <row r="65" spans="1:11" s="169" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="166">
         <v>63</v>
       </c>
-      <c r="B65" s="146"/>
-      <c r="C65" s="52" t="s">
+      <c r="B65" s="149"/>
+      <c r="C65" s="167" t="s">
         <v>119</v>
       </c>
-      <c r="D65" s="101"/>
-      <c r="E65" s="55"/>
-      <c r="F65" s="55"/>
-      <c r="H65" s="55"/>
-      <c r="I65" s="55"/>
-      <c r="J65" s="126"/>
-    </row>
-    <row r="66" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="92">
+      <c r="D65" s="118">
+        <v>0.13</v>
+      </c>
+      <c r="E65" s="106">
+        <v>43158</v>
+      </c>
+      <c r="F65" s="106">
+        <v>43253</v>
+      </c>
+      <c r="G65" s="118">
+        <v>0.13</v>
+      </c>
+      <c r="H65" s="106">
+        <v>43158</v>
+      </c>
+      <c r="I65" s="106">
+        <v>43253</v>
+      </c>
+      <c r="J65" s="133"/>
+      <c r="K65" s="168"/>
+    </row>
+    <row r="66" spans="1:11" s="169" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="170">
         <v>64</v>
       </c>
-      <c r="B66" s="147"/>
-      <c r="C66" s="51" t="s">
+      <c r="B66" s="150"/>
+      <c r="C66" s="171" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="102"/>
-      <c r="E66" s="54"/>
-      <c r="F66" s="54"/>
-      <c r="G66" s="102"/>
-      <c r="H66" s="54"/>
-      <c r="I66" s="54"/>
+      <c r="D66" s="119">
+        <v>0.13</v>
+      </c>
+      <c r="E66" s="172">
+        <v>43158</v>
+      </c>
+      <c r="F66" s="172">
+        <v>43253</v>
+      </c>
+      <c r="G66" s="118">
+        <v>0.13</v>
+      </c>
+      <c r="H66" s="172">
+        <v>43158</v>
+      </c>
+      <c r="I66" s="172">
+        <v>43253</v>
+      </c>
       <c r="J66" s="129"/>
+      <c r="K66" s="168"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="90">
+      <c r="A67" s="85">
         <v>65</v>
       </c>
-      <c r="B67" s="145" t="s">
+      <c r="B67" s="148" t="s">
         <v>85</v>
       </c>
       <c r="C67" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D67" s="93">
+      <c r="D67" s="88">
         <v>0.04</v>
       </c>
-      <c r="E67" s="169">
+      <c r="E67" s="112">
         <v>43121</v>
       </c>
-      <c r="F67" s="169">
+      <c r="F67" s="112">
         <v>43121</v>
       </c>
-      <c r="G67" s="93">
+      <c r="G67" s="88">
         <v>0.04</v>
       </c>
-      <c r="H67" s="169">
+      <c r="H67" s="112">
         <v>43121</v>
       </c>
-      <c r="I67" s="169">
+      <c r="I67" s="112">
         <v>43121</v>
       </c>
-      <c r="J67" s="152">
-        <v>0.5</v>
-      </c>
-      <c r="K67" s="80"/>
+      <c r="J67" s="158">
+        <v>1</v>
+      </c>
+      <c r="K67" s="79"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="91">
+      <c r="A68" s="86">
         <v>66</v>
       </c>
-      <c r="B68" s="146"/>
+      <c r="B68" s="149"/>
       <c r="C68" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D68" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E68" s="168">
+      <c r="D68" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E68" s="111">
         <v>43129</v>
       </c>
-      <c r="F68" s="168">
+      <c r="F68" s="111">
         <v>43129</v>
       </c>
-      <c r="G68" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H68" s="168">
+      <c r="G68" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H68" s="111">
         <v>43129</v>
       </c>
-      <c r="I68" s="168">
+      <c r="I68" s="111">
         <v>43129</v>
       </c>
-      <c r="J68" s="153"/>
-      <c r="K68" s="80"/>
+      <c r="J68" s="159"/>
+      <c r="K68" s="79"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A69" s="91">
+      <c r="A69" s="86">
         <v>67</v>
       </c>
-      <c r="B69" s="146"/>
+      <c r="B69" s="149"/>
       <c r="C69" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D69" s="101"/>
-      <c r="E69" s="55"/>
-      <c r="F69" s="55"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="55"/>
-      <c r="J69" s="153"/>
+      <c r="D69" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E69" s="59">
+        <v>43159</v>
+      </c>
+      <c r="F69" s="59">
+        <v>43159</v>
+      </c>
+      <c r="G69" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H69" s="59">
+        <v>43159</v>
+      </c>
+      <c r="I69" s="59">
+        <v>43159</v>
+      </c>
+      <c r="J69" s="159"/>
+      <c r="K69" s="79"/>
     </row>
     <row r="70" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="92">
+      <c r="A70" s="87">
         <v>68</v>
       </c>
-      <c r="B70" s="147"/>
+      <c r="B70" s="150"/>
       <c r="C70" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D70" s="102"/>
-      <c r="E70" s="54"/>
-      <c r="F70" s="54"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="54"/>
-      <c r="I70" s="54"/>
-      <c r="J70" s="154"/>
+      <c r="D70" s="101">
+        <v>0.1</v>
+      </c>
+      <c r="E70" s="60">
+        <v>43159</v>
+      </c>
+      <c r="F70" s="60">
+        <v>43159</v>
+      </c>
+      <c r="G70" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H70" s="60">
+        <v>43159</v>
+      </c>
+      <c r="I70" s="60">
+        <v>43159</v>
+      </c>
+      <c r="J70" s="160"/>
+      <c r="K70" s="79"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" s="90">
+      <c r="A71" s="85">
         <v>69</v>
       </c>
-      <c r="B71" s="121" t="s">
+      <c r="B71" s="137" t="s">
         <v>62</v>
       </c>
       <c r="C71" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D71" s="93">
+      <c r="D71" s="88">
         <v>0.04</v>
       </c>
-      <c r="E71" s="169">
+      <c r="E71" s="112">
         <v>43121</v>
       </c>
-      <c r="F71" s="169">
+      <c r="F71" s="112">
         <v>43121</v>
       </c>
-      <c r="G71" s="93">
+      <c r="G71" s="88">
         <v>0.04</v>
       </c>
-      <c r="H71" s="169">
+      <c r="H71" s="112">
         <v>43121</v>
       </c>
-      <c r="I71" s="169">
+      <c r="I71" s="112">
         <v>43121</v>
       </c>
-      <c r="J71" s="152">
-        <v>0.5</v>
-      </c>
-      <c r="K71" s="80"/>
+      <c r="J71" s="158">
+        <v>1</v>
+      </c>
+      <c r="K71" s="79"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" s="91">
+      <c r="A72" s="86">
         <v>70</v>
       </c>
-      <c r="B72" s="122"/>
+      <c r="B72" s="138"/>
       <c r="C72" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D72" s="101"/>
+      <c r="D72" s="95">
+        <v>0.1</v>
+      </c>
       <c r="E72" s="59">
         <v>43131</v>
       </c>
       <c r="F72" s="59">
         <v>43131</v>
       </c>
+      <c r="G72" s="95">
+        <v>0.1</v>
+      </c>
       <c r="H72" s="59">
         <v>43131</v>
       </c>
       <c r="I72" s="59">
         <v>43131</v>
       </c>
-      <c r="J72" s="153"/>
-      <c r="K72" s="80"/>
+      <c r="J72" s="159"/>
+      <c r="K72" s="79"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" s="91">
+      <c r="A73" s="86">
         <v>71</v>
       </c>
-      <c r="B73" s="122"/>
+      <c r="B73" s="138"/>
       <c r="C73" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D73" s="101"/>
-      <c r="E73" s="55"/>
-      <c r="F73" s="55"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="55"/>
-      <c r="J73" s="153"/>
+      <c r="D73" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E73" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F73" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G73" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H73" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I73" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J73" s="159"/>
+      <c r="K73" s="79"/>
     </row>
     <row r="74" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="92">
+      <c r="A74" s="87">
         <v>72</v>
       </c>
-      <c r="B74" s="123"/>
+      <c r="B74" s="139"/>
       <c r="C74" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="102"/>
-      <c r="E74" s="54"/>
-      <c r="F74" s="54"/>
-      <c r="G74" s="102"/>
-      <c r="H74" s="54"/>
-      <c r="I74" s="54"/>
-      <c r="J74" s="154"/>
+      <c r="D74" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E74" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F74" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G74" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H74" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I74" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J74" s="160"/>
+      <c r="K74" s="79"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" s="90">
+      <c r="A75" s="85">
         <v>73</v>
       </c>
-      <c r="B75" s="121" t="s">
+      <c r="B75" s="137" t="s">
         <v>66</v>
       </c>
       <c r="C75" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D75" s="93">
+      <c r="D75" s="88">
         <v>0.04</v>
       </c>
-      <c r="E75" s="169">
+      <c r="E75" s="112">
         <v>43121</v>
       </c>
-      <c r="F75" s="169">
+      <c r="F75" s="112">
         <v>43121</v>
       </c>
-      <c r="G75" s="93">
+      <c r="G75" s="88">
         <v>0.04</v>
       </c>
-      <c r="H75" s="169">
+      <c r="H75" s="112">
         <v>43121</v>
       </c>
-      <c r="I75" s="169">
+      <c r="I75" s="112">
         <v>43121</v>
       </c>
-      <c r="J75" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K75" s="80"/>
+      <c r="J75" s="144">
+        <v>1</v>
+      </c>
+      <c r="K75" s="79"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" s="91">
+      <c r="A76" s="86">
         <v>74</v>
       </c>
-      <c r="B76" s="122"/>
+      <c r="B76" s="138"/>
       <c r="C76" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D76" s="101">
+      <c r="D76" s="95">
         <v>0.1</v>
       </c>
       <c r="E76" s="59">
@@ -4172,7 +4633,7 @@
       <c r="F76" s="59">
         <v>43131</v>
       </c>
-      <c r="G76" s="101">
+      <c r="G76" s="95">
         <v>0.1</v>
       </c>
       <c r="H76" s="59">
@@ -4181,82 +4642,109 @@
       <c r="I76" s="59">
         <v>43131</v>
       </c>
-      <c r="J76" s="126"/>
-      <c r="K76" s="80"/>
+      <c r="J76" s="133"/>
+      <c r="K76" s="79"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A77" s="91">
+      <c r="A77" s="86">
         <v>75</v>
       </c>
-      <c r="B77" s="122"/>
+      <c r="B77" s="138"/>
       <c r="C77" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D77" s="101"/>
-      <c r="E77" s="55"/>
-      <c r="F77" s="55"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="55"/>
-      <c r="J77" s="126"/>
+      <c r="D77" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F77" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G77" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H77" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I77" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J77" s="133"/>
+      <c r="K77" s="79"/>
     </row>
     <row r="78" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="92">
+      <c r="A78" s="87">
         <v>76</v>
       </c>
-      <c r="B78" s="123"/>
+      <c r="B78" s="139"/>
       <c r="C78" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D78" s="102"/>
-      <c r="E78" s="54"/>
-      <c r="F78" s="54"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="54"/>
-      <c r="I78" s="54"/>
+      <c r="D78" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E78" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F78" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G78" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H78" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I78" s="60">
+        <v>43103</v>
+      </c>
       <c r="J78" s="129"/>
+      <c r="K78" s="79"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="90">
+      <c r="A79" s="85">
         <v>77</v>
       </c>
-      <c r="B79" s="121" t="s">
+      <c r="B79" s="137" t="s">
         <v>67</v>
       </c>
       <c r="C79" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D79" s="93">
+      <c r="D79" s="88">
         <v>0.04</v>
       </c>
-      <c r="E79" s="169">
+      <c r="E79" s="112">
         <v>43121</v>
       </c>
-      <c r="F79" s="169">
+      <c r="F79" s="112">
         <v>43121</v>
       </c>
-      <c r="G79" s="101">
+      <c r="G79" s="95">
         <v>0.04</v>
       </c>
-      <c r="H79" s="169">
+      <c r="H79" s="112">
         <v>43121</v>
       </c>
-      <c r="I79" s="169">
+      <c r="I79" s="112">
         <v>43121</v>
       </c>
-      <c r="J79" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K79" s="80"/>
+      <c r="J79" s="144">
+        <v>1</v>
+      </c>
+      <c r="K79" s="79"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="91">
+      <c r="A80" s="86">
         <v>78</v>
       </c>
-      <c r="B80" s="122"/>
+      <c r="B80" s="138"/>
       <c r="C80" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="101">
+      <c r="D80" s="95">
         <v>0.1</v>
       </c>
       <c r="E80" s="59">
@@ -4265,7 +4753,7 @@
       <c r="F80" s="59">
         <v>43131</v>
       </c>
-      <c r="G80" s="101">
+      <c r="G80" s="95">
         <v>0.1</v>
       </c>
       <c r="H80" s="59">
@@ -4274,329 +4762,432 @@
       <c r="I80" s="59">
         <v>43131</v>
       </c>
-      <c r="J80" s="126"/>
-      <c r="K80" s="80"/>
+      <c r="J80" s="133"/>
+      <c r="K80" s="79"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="91">
+      <c r="A81" s="86">
         <v>79</v>
       </c>
-      <c r="B81" s="122"/>
+      <c r="B81" s="138"/>
       <c r="C81" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D81" s="101"/>
-      <c r="E81" s="172"/>
-      <c r="F81" s="55"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="55"/>
-      <c r="J81" s="126"/>
+      <c r="D81" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E81" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F81" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G81" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H81" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I81" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J81" s="133"/>
+      <c r="K81" s="79"/>
     </row>
     <row r="82" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="92">
+      <c r="A82" s="87">
         <v>80</v>
       </c>
-      <c r="B82" s="123"/>
+      <c r="B82" s="139"/>
       <c r="C82" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D82" s="102"/>
-      <c r="E82" s="54"/>
-      <c r="F82" s="54"/>
-      <c r="G82" s="102"/>
-      <c r="H82" s="54"/>
-      <c r="I82" s="54"/>
+      <c r="D82" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E82" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F82" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G82" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H82" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I82" s="60">
+        <v>43103</v>
+      </c>
       <c r="J82" s="129"/>
+      <c r="K82" s="79"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="90">
+      <c r="A83" s="85">
         <v>81</v>
       </c>
-      <c r="B83" s="145" t="s">
+      <c r="B83" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="C83" s="78" t="s">
+      <c r="C83" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D83" s="93">
+      <c r="D83" s="88">
         <v>0.04</v>
       </c>
-      <c r="E83" s="169">
+      <c r="E83" s="112">
         <v>43121</v>
       </c>
-      <c r="F83" s="169">
+      <c r="F83" s="112">
         <v>43121</v>
       </c>
-      <c r="G83" s="101">
+      <c r="G83" s="95">
         <v>0.04</v>
       </c>
-      <c r="H83" s="169">
+      <c r="H83" s="112">
         <v>43121</v>
       </c>
-      <c r="I83" s="169">
+      <c r="I83" s="112">
         <v>43121</v>
       </c>
-      <c r="J83" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K83" s="80"/>
+      <c r="J83" s="144">
+        <v>1</v>
+      </c>
+      <c r="K83" s="79"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="91">
+      <c r="A84" s="86">
         <v>82</v>
       </c>
-      <c r="B84" s="146"/>
-      <c r="C84" s="86" t="s">
+      <c r="B84" s="149"/>
+      <c r="C84" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D84" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E84" s="117">
+      <c r="D84" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E84" s="106">
         <v>43131</v>
       </c>
-      <c r="F84" s="117">
+      <c r="F84" s="106">
         <v>43131</v>
       </c>
-      <c r="G84" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H84" s="117">
+      <c r="G84" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H84" s="106">
         <v>43131</v>
       </c>
-      <c r="I84" s="117">
+      <c r="I84" s="106">
         <v>43131</v>
       </c>
-      <c r="J84" s="126"/>
-      <c r="K84" s="80"/>
+      <c r="J84" s="133"/>
+      <c r="K84" s="79"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="91">
+      <c r="A85" s="86">
         <v>83</v>
       </c>
-      <c r="B85" s="146"/>
-      <c r="C85" s="86" t="s">
+      <c r="B85" s="149"/>
+      <c r="C85" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D85" s="101"/>
-      <c r="E85" s="87"/>
-      <c r="F85" s="87"/>
-      <c r="H85" s="87"/>
-      <c r="I85" s="87"/>
-      <c r="J85" s="126"/>
-      <c r="K85" s="84"/>
+      <c r="D85" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E85" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F85" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G85" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H85" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I85" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J85" s="133"/>
+      <c r="K85" s="79"/>
     </row>
     <row r="86" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="92">
+      <c r="A86" s="87">
         <v>84</v>
       </c>
-      <c r="B86" s="147"/>
-      <c r="C86" s="88" t="s">
+      <c r="B86" s="150"/>
+      <c r="C86" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D86" s="102"/>
-      <c r="E86" s="89"/>
-      <c r="F86" s="89"/>
-      <c r="G86" s="102"/>
-      <c r="H86" s="89"/>
-      <c r="I86" s="89"/>
+      <c r="D86" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E86" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F86" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G86" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H86" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I86" s="60">
+        <v>43103</v>
+      </c>
       <c r="J86" s="129"/>
-      <c r="K86" s="84"/>
+      <c r="K86" s="79"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="90">
+      <c r="A87" s="85">
         <v>85</v>
       </c>
-      <c r="B87" s="145" t="s">
+      <c r="B87" s="148" t="s">
         <v>69</v>
       </c>
-      <c r="C87" s="78" t="s">
+      <c r="C87" s="77" t="s">
         <v>118</v>
       </c>
-      <c r="D87" s="93">
+      <c r="D87" s="88">
         <v>0.04</v>
       </c>
-      <c r="E87" s="170">
+      <c r="E87" s="113">
         <v>43121</v>
       </c>
-      <c r="F87" s="170">
+      <c r="F87" s="113">
         <v>43121</v>
       </c>
-      <c r="G87" s="101">
+      <c r="G87" s="95">
         <v>0.04</v>
       </c>
-      <c r="H87" s="170">
+      <c r="H87" s="113">
         <v>43121</v>
       </c>
-      <c r="I87" s="170">
+      <c r="I87" s="113">
         <v>43121</v>
       </c>
-      <c r="J87" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K87" s="80"/>
+      <c r="J87" s="144">
+        <v>1</v>
+      </c>
+      <c r="K87" s="79"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="91">
+      <c r="A88" s="86">
         <v>86</v>
       </c>
-      <c r="B88" s="146"/>
-      <c r="C88" s="86" t="s">
+      <c r="B88" s="149"/>
+      <c r="C88" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D88" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E88" s="117">
+      <c r="D88" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E88" s="106">
         <v>43131</v>
       </c>
-      <c r="F88" s="117">
+      <c r="F88" s="106">
         <v>43131</v>
       </c>
-      <c r="G88" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H88" s="117">
+      <c r="G88" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H88" s="106">
         <v>43131</v>
       </c>
-      <c r="I88" s="117">
+      <c r="I88" s="106">
         <v>43131</v>
       </c>
-      <c r="J88" s="126"/>
-      <c r="K88" s="80"/>
+      <c r="J88" s="133"/>
+      <c r="K88" s="79"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="91">
+      <c r="A89" s="86">
         <v>87</v>
       </c>
-      <c r="B89" s="146"/>
-      <c r="C89" s="86" t="s">
+      <c r="B89" s="149"/>
+      <c r="C89" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D89" s="101"/>
-      <c r="E89" s="87"/>
-      <c r="F89" s="87"/>
-      <c r="H89" s="87"/>
-      <c r="I89" s="87"/>
-      <c r="J89" s="126"/>
-      <c r="K89" s="84"/>
+      <c r="D89" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E89" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F89" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G89" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H89" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I89" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J89" s="133"/>
+      <c r="K89" s="79"/>
     </row>
     <row r="90" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="92">
+      <c r="A90" s="87">
         <v>88</v>
       </c>
-      <c r="B90" s="147"/>
-      <c r="C90" s="88" t="s">
+      <c r="B90" s="150"/>
+      <c r="C90" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D90" s="102"/>
-      <c r="E90" s="89"/>
-      <c r="F90" s="89"/>
-      <c r="G90" s="102"/>
-      <c r="H90" s="89"/>
-      <c r="I90" s="89"/>
+      <c r="D90" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E90" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F90" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G90" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H90" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I90" s="60">
+        <v>43103</v>
+      </c>
       <c r="J90" s="129"/>
-      <c r="K90" s="84"/>
+      <c r="K90" s="79"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="90">
+      <c r="A91" s="85">
         <v>89</v>
       </c>
-      <c r="B91" s="121" t="s">
+      <c r="B91" s="137" t="s">
         <v>82</v>
       </c>
       <c r="C91" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D91" s="93">
-        <v>0.1</v>
-      </c>
-      <c r="E91" s="117">
+      <c r="D91" s="88">
+        <v>0.1</v>
+      </c>
+      <c r="E91" s="106">
         <v>43131</v>
       </c>
-      <c r="F91" s="117">
+      <c r="F91" s="106">
         <v>43131</v>
       </c>
-      <c r="G91" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H91" s="117">
+      <c r="G91" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H91" s="106">
         <v>43131</v>
       </c>
-      <c r="I91" s="117">
+      <c r="I91" s="106">
         <v>43131</v>
       </c>
-      <c r="J91" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K91" s="80"/>
+      <c r="J91" s="176">
+        <v>1</v>
+      </c>
+      <c r="K91" s="79"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="91">
+      <c r="A92" s="86">
         <v>90</v>
       </c>
-      <c r="B92" s="122"/>
+      <c r="B92" s="138"/>
       <c r="C92" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D92" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="E92" s="117">
+      <c r="D92" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="E92" s="106">
         <v>43131</v>
       </c>
-      <c r="F92" s="117">
+      <c r="F92" s="106">
         <v>43131</v>
       </c>
-      <c r="G92" s="101">
-        <v>0.1</v>
-      </c>
-      <c r="H92" s="117">
+      <c r="G92" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H92" s="106">
         <v>43131</v>
       </c>
-      <c r="I92" s="117">
+      <c r="I92" s="106">
         <v>43131</v>
       </c>
-      <c r="J92" s="126"/>
-      <c r="K92" s="80"/>
+      <c r="J92" s="177"/>
+      <c r="K92" s="79"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="91">
+      <c r="A93" s="86">
         <v>91</v>
       </c>
-      <c r="B93" s="122"/>
+      <c r="B93" s="138"/>
       <c r="C93" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D93" s="101"/>
-      <c r="E93" s="55"/>
-      <c r="F93" s="55"/>
-      <c r="G93" s="104"/>
-      <c r="H93" s="55"/>
-      <c r="I93" s="55"/>
-      <c r="J93" s="126"/>
+      <c r="D93" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E93" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F93" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G93" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H93" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I93" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J93" s="177"/>
+      <c r="K93" s="79"/>
     </row>
     <row r="94" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="92">
+      <c r="A94" s="87">
         <v>92</v>
       </c>
-      <c r="B94" s="123"/>
+      <c r="B94" s="139"/>
       <c r="C94" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D94" s="102"/>
-      <c r="E94" s="54"/>
-      <c r="F94" s="54"/>
-      <c r="G94" s="102"/>
-      <c r="H94" s="54"/>
-      <c r="I94" s="54"/>
-      <c r="J94" s="129"/>
+      <c r="D94" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E94" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F94" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G94" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H94" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I94" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J94" s="178"/>
+      <c r="K94" s="79"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="90">
+      <c r="A95" s="85">
         <v>93</v>
       </c>
-      <c r="B95" s="121" t="s">
+      <c r="B95" s="137" t="s">
         <v>83</v>
       </c>
       <c r="C95" s="56" t="s">
@@ -4605,35 +5196,35 @@
       <c r="D95" s="44">
         <v>0.2</v>
       </c>
-      <c r="E95" s="167">
+      <c r="E95" s="110">
         <v>43123</v>
       </c>
-      <c r="F95" s="167">
+      <c r="F95" s="110">
         <v>43123</v>
       </c>
-      <c r="G95" s="103">
+      <c r="G95" s="97">
         <v>0.2</v>
       </c>
-      <c r="H95" s="167">
+      <c r="H95" s="110">
         <v>43123</v>
       </c>
-      <c r="I95" s="167">
+      <c r="I95" s="110">
         <v>43123</v>
       </c>
-      <c r="J95" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K95" s="80"/>
+      <c r="J95" s="144">
+        <v>1</v>
+      </c>
+      <c r="K95" s="79"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="91">
+      <c r="A96" s="86">
         <v>94</v>
       </c>
-      <c r="B96" s="122"/>
+      <c r="B96" s="138"/>
       <c r="C96" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="101">
+      <c r="D96" s="95">
         <v>0.1</v>
       </c>
       <c r="E96" s="59">
@@ -4642,7 +5233,7 @@
       <c r="F96" s="59">
         <v>43131</v>
       </c>
-      <c r="G96" s="101">
+      <c r="G96" s="95">
         <v>0.1</v>
       </c>
       <c r="H96" s="59">
@@ -4651,46 +5242,72 @@
       <c r="I96" s="59">
         <v>43131</v>
       </c>
-      <c r="J96" s="126"/>
-      <c r="K96" s="80"/>
+      <c r="J96" s="133"/>
+      <c r="K96" s="79"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="91">
+      <c r="A97" s="86">
         <v>95</v>
       </c>
-      <c r="B97" s="122"/>
+      <c r="B97" s="138"/>
       <c r="C97" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D97" s="49"/>
-      <c r="E97" s="55"/>
-      <c r="F97" s="55"/>
-      <c r="G97" s="104"/>
-      <c r="H97" s="55"/>
-      <c r="I97" s="55"/>
-      <c r="J97" s="126"/>
+      <c r="D97" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E97" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F97" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G97" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H97" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I97" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J97" s="133"/>
+      <c r="K97" s="79"/>
     </row>
     <row r="98" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="92">
+      <c r="A98" s="87">
         <v>96</v>
       </c>
-      <c r="B98" s="123"/>
+      <c r="B98" s="139"/>
       <c r="C98" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D98" s="46"/>
-      <c r="E98" s="54"/>
-      <c r="F98" s="54"/>
-      <c r="G98" s="102"/>
-      <c r="H98" s="54"/>
-      <c r="I98" s="54"/>
+      <c r="D98" s="119">
+        <v>0.1</v>
+      </c>
+      <c r="E98" s="60">
+        <v>43159</v>
+      </c>
+      <c r="F98" s="60">
+        <v>43159</v>
+      </c>
+      <c r="G98" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H98" s="60">
+        <v>43159</v>
+      </c>
+      <c r="I98" s="60">
+        <v>43159</v>
+      </c>
       <c r="J98" s="129"/>
+      <c r="K98" s="79"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" s="90">
+      <c r="A99" s="85">
         <v>97</v>
       </c>
-      <c r="B99" s="145" t="s">
+      <c r="B99" s="148" t="s">
         <v>101</v>
       </c>
       <c r="C99" s="56" t="s">
@@ -4699,35 +5316,35 @@
       <c r="D99" s="44">
         <v>0.2</v>
       </c>
-      <c r="E99" s="167">
+      <c r="E99" s="110">
         <v>43123</v>
       </c>
-      <c r="F99" s="167">
+      <c r="F99" s="110">
         <v>43123</v>
       </c>
-      <c r="G99" s="103">
+      <c r="G99" s="97">
         <v>0.2</v>
       </c>
-      <c r="H99" s="167">
+      <c r="H99" s="110">
         <v>43123</v>
       </c>
-      <c r="I99" s="167">
+      <c r="I99" s="110">
         <v>43123</v>
       </c>
-      <c r="J99" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K99" s="80"/>
+      <c r="J99" s="144">
+        <v>1</v>
+      </c>
+      <c r="K99" s="79"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" s="91">
+      <c r="A100" s="86">
         <v>98</v>
       </c>
-      <c r="B100" s="146"/>
+      <c r="B100" s="149"/>
       <c r="C100" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D100" s="101">
+      <c r="D100" s="95">
         <v>0.1</v>
       </c>
       <c r="E100" s="59">
@@ -4736,7 +5353,7 @@
       <c r="F100" s="59">
         <v>43131</v>
       </c>
-      <c r="G100" s="101">
+      <c r="G100" s="95">
         <v>0.1</v>
       </c>
       <c r="H100" s="59">
@@ -4745,82 +5362,109 @@
       <c r="I100" s="59">
         <v>43131</v>
       </c>
-      <c r="J100" s="126"/>
-      <c r="K100" s="80"/>
+      <c r="J100" s="133"/>
+      <c r="K100" s="79"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" s="91">
+      <c r="A101" s="86">
         <v>99</v>
       </c>
-      <c r="B101" s="146"/>
+      <c r="B101" s="149"/>
       <c r="C101" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D101" s="49"/>
-      <c r="E101" s="55"/>
-      <c r="F101" s="55"/>
-      <c r="G101" s="104"/>
-      <c r="H101" s="55"/>
-      <c r="J101" s="126"/>
+      <c r="D101" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E101" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F101" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G101" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H101" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I101" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J101" s="133"/>
+      <c r="K101" s="79"/>
     </row>
     <row r="102" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="92">
+      <c r="A102" s="87">
         <v>100</v>
       </c>
-      <c r="B102" s="147"/>
+      <c r="B102" s="150"/>
       <c r="C102" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D102" s="46"/>
-      <c r="E102" s="54"/>
-      <c r="F102" s="54"/>
-      <c r="G102" s="102"/>
-      <c r="H102" s="54"/>
-      <c r="I102" s="54"/>
+      <c r="D102" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E102" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F102" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G102" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H102" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I102" s="60">
+        <v>43103</v>
+      </c>
       <c r="J102" s="129"/>
+      <c r="K102" s="79"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" s="97">
+      <c r="A103" s="92">
         <v>101</v>
       </c>
-      <c r="B103" s="145" t="s">
+      <c r="B103" s="148" t="s">
         <v>109</v>
       </c>
-      <c r="C103" s="86" t="s">
+      <c r="C103" s="83" t="s">
         <v>118</v>
       </c>
-      <c r="D103" s="105">
+      <c r="D103" s="99">
         <v>0.25</v>
       </c>
-      <c r="E103" s="169">
+      <c r="E103" s="112">
         <v>43124</v>
       </c>
-      <c r="F103" s="169">
+      <c r="F103" s="112">
         <v>43124</v>
       </c>
-      <c r="G103" s="105">
+      <c r="G103" s="99">
         <v>0.25</v>
       </c>
-      <c r="H103" s="169">
+      <c r="H103" s="112">
         <v>43124</v>
       </c>
-      <c r="I103" s="169">
+      <c r="I103" s="112">
         <v>43124</v>
       </c>
-      <c r="J103" s="155">
-        <v>0.5</v>
-      </c>
-      <c r="K103" s="80"/>
+      <c r="J103" s="144">
+        <v>1</v>
+      </c>
+      <c r="K103" s="79"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A104" s="98">
+      <c r="A104" s="93">
         <v>102</v>
       </c>
-      <c r="B104" s="146"/>
-      <c r="C104" s="86" t="s">
+      <c r="B104" s="149"/>
+      <c r="C104" s="83" t="s">
         <v>117</v>
       </c>
-      <c r="D104" s="101">
+      <c r="D104" s="95">
         <v>0.1</v>
       </c>
       <c r="E104" s="59">
@@ -4829,7 +5473,7 @@
       <c r="F104" s="59">
         <v>43131</v>
       </c>
-      <c r="G104" s="101">
+      <c r="G104" s="95">
         <v>0.1</v>
       </c>
       <c r="H104" s="59">
@@ -4838,85 +5482,109 @@
       <c r="I104" s="59">
         <v>43131</v>
       </c>
-      <c r="J104" s="140"/>
-      <c r="K104" s="80"/>
+      <c r="J104" s="133"/>
+      <c r="K104" s="79"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A105" s="98">
+      <c r="A105" s="93">
         <v>103</v>
       </c>
-      <c r="B105" s="146"/>
-      <c r="C105" s="86" t="s">
+      <c r="B105" s="149"/>
+      <c r="C105" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="D105" s="107"/>
-      <c r="E105" s="99"/>
-      <c r="F105" s="99"/>
-      <c r="G105" s="107"/>
-      <c r="H105" s="99"/>
-      <c r="I105" s="99"/>
-      <c r="J105" s="140"/>
-      <c r="K105" s="84"/>
+      <c r="D105" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E105" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F105" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G105" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H105" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I105" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J105" s="133"/>
+      <c r="K105" s="79"/>
     </row>
     <row r="106" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="100">
+      <c r="A106" s="94">
         <v>104</v>
       </c>
-      <c r="B106" s="147"/>
-      <c r="C106" s="88" t="s">
+      <c r="B106" s="150"/>
+      <c r="C106" s="84" t="s">
         <v>121</v>
       </c>
-      <c r="D106" s="106"/>
-      <c r="E106" s="89"/>
-      <c r="F106" s="89"/>
-      <c r="G106" s="106"/>
-      <c r="H106" s="89"/>
-      <c r="I106" s="89"/>
-      <c r="J106" s="141"/>
-      <c r="K106" s="84"/>
+      <c r="D106" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E106" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F106" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G106" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H106" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I106" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J106" s="129"/>
+      <c r="K106" s="79"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A107" s="97">
+      <c r="A107" s="92">
         <v>105</v>
       </c>
-      <c r="B107" s="145" t="s">
+      <c r="B107" s="148" t="s">
         <v>148</v>
       </c>
-      <c r="C107" s="77" t="s">
+      <c r="C107" s="76" t="s">
         <v>118</v>
       </c>
-      <c r="D107" s="103">
+      <c r="D107" s="97">
         <v>0.25</v>
       </c>
-      <c r="E107" s="167">
+      <c r="E107" s="110">
         <v>43124</v>
       </c>
-      <c r="F107" s="167">
+      <c r="F107" s="110">
         <v>43124</v>
       </c>
-      <c r="G107" s="103">
+      <c r="G107" s="97">
         <v>0.25</v>
       </c>
-      <c r="H107" s="167">
+      <c r="H107" s="110">
         <v>43124</v>
       </c>
-      <c r="I107" s="167">
+      <c r="I107" s="110">
         <v>43124</v>
       </c>
-      <c r="J107" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K107" s="80"/>
+      <c r="J107" s="158">
+        <v>1</v>
+      </c>
+      <c r="K107" s="79"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A108" s="98">
+      <c r="A108" s="93">
         <v>106</v>
       </c>
-      <c r="B108" s="146"/>
-      <c r="C108" s="77" t="s">
+      <c r="B108" s="149"/>
+      <c r="C108" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D108" s="101">
+      <c r="D108" s="95">
         <v>0.1</v>
       </c>
       <c r="E108" s="59">
@@ -4925,7 +5593,7 @@
       <c r="F108" s="59">
         <v>43131</v>
       </c>
-      <c r="G108" s="101">
+      <c r="G108" s="95">
         <v>0.1</v>
       </c>
       <c r="H108" s="59">
@@ -4934,78 +5602,109 @@
       <c r="I108" s="59">
         <v>43131</v>
       </c>
-      <c r="J108" s="126"/>
-      <c r="K108" s="80"/>
+      <c r="J108" s="159"/>
+      <c r="K108" s="79"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" s="98">
+      <c r="A109" s="93">
         <v>107</v>
       </c>
-      <c r="B109" s="146"/>
-      <c r="C109" s="77" t="s">
+      <c r="B109" s="149"/>
+      <c r="C109" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D109" s="101"/>
-      <c r="J109" s="126"/>
+      <c r="D109" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E109" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F109" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G109" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H109" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I109" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J109" s="159"/>
+      <c r="K109" s="79"/>
     </row>
     <row r="110" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="100">
+      <c r="A110" s="94">
         <v>108</v>
       </c>
-      <c r="B110" s="147"/>
+      <c r="B110" s="150"/>
       <c r="C110" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D110" s="102"/>
-      <c r="E110" s="54"/>
-      <c r="F110" s="54"/>
-      <c r="G110" s="102"/>
-      <c r="H110" s="54"/>
-      <c r="I110" s="54"/>
-      <c r="J110" s="129"/>
+      <c r="D110" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E110" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F110" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G110" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H110" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I110" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J110" s="160"/>
+      <c r="K110" s="79"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A111" s="97">
+      <c r="A111" s="92">
         <v>109</v>
       </c>
-      <c r="B111" s="121" t="s">
+      <c r="B111" s="137" t="s">
         <v>105</v>
       </c>
       <c r="C111" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D111" s="105">
+      <c r="D111" s="99">
         <v>0.25</v>
       </c>
-      <c r="E111" s="167">
+      <c r="E111" s="110">
         <v>43125</v>
       </c>
-      <c r="F111" s="167">
+      <c r="F111" s="110">
         <v>43125</v>
       </c>
-      <c r="G111" s="105">
+      <c r="G111" s="99">
         <v>0.25</v>
       </c>
-      <c r="H111" s="167">
+      <c r="H111" s="110">
         <v>43125</v>
       </c>
-      <c r="I111" s="167">
+      <c r="I111" s="110">
         <v>43125</v>
       </c>
-      <c r="J111" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K111" s="80"/>
+      <c r="J111" s="158">
+        <v>1</v>
+      </c>
+      <c r="K111" s="79"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A112" s="98">
+      <c r="A112" s="93">
         <v>110</v>
       </c>
-      <c r="B112" s="122"/>
+      <c r="B112" s="138"/>
       <c r="C112" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D112" s="101">
+      <c r="D112" s="95">
         <v>0.1</v>
       </c>
       <c r="E112" s="59">
@@ -5014,7 +5713,7 @@
       <c r="F112" s="59">
         <v>43131</v>
       </c>
-      <c r="G112" s="101">
+      <c r="G112" s="95">
         <v>0.1</v>
       </c>
       <c r="H112" s="59">
@@ -5023,79 +5722,109 @@
       <c r="I112" s="59">
         <v>43131</v>
       </c>
-      <c r="J112" s="126"/>
-      <c r="K112" s="80"/>
+      <c r="J112" s="159"/>
+      <c r="K112" s="79"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A113" s="98">
+      <c r="A113" s="93">
         <v>111</v>
       </c>
-      <c r="B113" s="122"/>
+      <c r="B113" s="138"/>
       <c r="C113" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D113" s="107"/>
-      <c r="G113" s="107"/>
-      <c r="J113" s="126"/>
+      <c r="D113" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E113" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F113" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G113" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H113" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I113" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J113" s="159"/>
+      <c r="K113" s="79"/>
     </row>
     <row r="114" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="100">
+      <c r="A114" s="94">
         <v>112</v>
       </c>
-      <c r="B114" s="123"/>
+      <c r="B114" s="139"/>
       <c r="C114" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D114" s="106"/>
-      <c r="E114" s="54"/>
-      <c r="F114" s="54"/>
-      <c r="G114" s="106"/>
-      <c r="H114" s="54"/>
-      <c r="I114" s="54"/>
-      <c r="J114" s="129"/>
+      <c r="D114" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E114" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F114" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G114" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H114" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I114" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J114" s="160"/>
+      <c r="K114" s="79"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A115" s="97">
+      <c r="A115" s="92">
         <v>113</v>
       </c>
-      <c r="B115" s="121" t="s">
+      <c r="B115" s="137" t="s">
         <v>108</v>
       </c>
       <c r="C115" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D115" s="103">
+      <c r="D115" s="97">
         <v>0.25</v>
       </c>
-      <c r="E115" s="167">
+      <c r="E115" s="110">
         <v>43125</v>
       </c>
-      <c r="F115" s="167">
+      <c r="F115" s="110">
         <v>43125</v>
       </c>
-      <c r="G115" s="103">
+      <c r="G115" s="97">
         <v>0.25</v>
       </c>
-      <c r="H115" s="167">
+      <c r="H115" s="110">
         <v>43125</v>
       </c>
-      <c r="I115" s="167">
+      <c r="I115" s="110">
         <v>43125</v>
       </c>
-      <c r="J115" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K115" s="80"/>
+      <c r="J115" s="158">
+        <v>1</v>
+      </c>
+      <c r="K115" s="79"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A116" s="98">
+      <c r="A116" s="93">
         <v>114</v>
       </c>
-      <c r="B116" s="122"/>
+      <c r="B116" s="138"/>
       <c r="C116" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D116" s="101">
+      <c r="D116" s="95">
         <v>0.1</v>
       </c>
       <c r="E116" s="59">
@@ -5104,7 +5833,7 @@
       <c r="F116" s="59">
         <v>43131</v>
       </c>
-      <c r="G116" s="101">
+      <c r="G116" s="95">
         <v>0.1</v>
       </c>
       <c r="H116" s="59">
@@ -5113,78 +5842,109 @@
       <c r="I116" s="59">
         <v>43131</v>
       </c>
-      <c r="J116" s="126"/>
-      <c r="K116" s="80"/>
+      <c r="J116" s="159"/>
+      <c r="K116" s="79"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A117" s="98">
+      <c r="A117" s="93">
         <v>115</v>
       </c>
-      <c r="B117" s="122"/>
+      <c r="B117" s="138"/>
       <c r="C117" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D117" s="101"/>
-      <c r="J117" s="126"/>
+      <c r="D117" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E117" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F117" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G117" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H117" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I117" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J117" s="159"/>
+      <c r="K117" s="79"/>
     </row>
     <row r="118" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="100">
+      <c r="A118" s="94">
         <v>116</v>
       </c>
-      <c r="B118" s="123"/>
+      <c r="B118" s="139"/>
       <c r="C118" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D118" s="102"/>
-      <c r="E118" s="54"/>
-      <c r="F118" s="54"/>
-      <c r="G118" s="102"/>
-      <c r="H118" s="54"/>
-      <c r="I118" s="54"/>
-      <c r="J118" s="129"/>
+      <c r="D118" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E118" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F118" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G118" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H118" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I118" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J118" s="160"/>
+      <c r="K118" s="79"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A119" s="97">
+      <c r="A119" s="92">
         <v>117</v>
       </c>
-      <c r="B119" s="145" t="s">
+      <c r="B119" s="148" t="s">
         <v>149</v>
       </c>
-      <c r="C119" s="96" t="s">
+      <c r="C119" s="91" t="s">
         <v>118</v>
       </c>
-      <c r="D119" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="E119" s="167">
+      <c r="D119" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="E119" s="110">
         <v>43126</v>
       </c>
-      <c r="F119" s="167">
+      <c r="F119" s="110">
         <v>43126</v>
       </c>
-      <c r="G119" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="H119" s="167">
+      <c r="G119" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="H119" s="110">
         <v>43126</v>
       </c>
-      <c r="I119" s="167">
+      <c r="I119" s="110">
         <v>43126</v>
       </c>
-      <c r="J119" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K119" s="80"/>
+      <c r="J119" s="158">
+        <v>1</v>
+      </c>
+      <c r="K119" s="79"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A120" s="98">
+      <c r="A120" s="93">
         <v>118</v>
       </c>
-      <c r="B120" s="146"/>
-      <c r="C120" s="96" t="s">
+      <c r="B120" s="149"/>
+      <c r="C120" s="91" t="s">
         <v>117</v>
       </c>
-      <c r="D120" s="101">
+      <c r="D120" s="95">
         <v>0.1</v>
       </c>
       <c r="E120" s="59">
@@ -5193,7 +5953,7 @@
       <c r="F120" s="59">
         <v>43131</v>
       </c>
-      <c r="G120" s="101">
+      <c r="G120" s="95">
         <v>0.1</v>
       </c>
       <c r="H120" s="59">
@@ -5202,79 +5962,109 @@
       <c r="I120" s="59">
         <v>43131</v>
       </c>
-      <c r="J120" s="126"/>
-      <c r="K120" s="80"/>
+      <c r="J120" s="159"/>
+      <c r="K120" s="79"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="98">
+      <c r="A121" s="93">
         <v>119</v>
       </c>
-      <c r="B121" s="146"/>
-      <c r="C121" s="96" t="s">
+      <c r="B121" s="149"/>
+      <c r="C121" s="91" t="s">
         <v>119</v>
       </c>
-      <c r="D121" s="107"/>
-      <c r="G121" s="109"/>
-      <c r="J121" s="126"/>
+      <c r="D121" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E121" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F121" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G121" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H121" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I121" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J121" s="159"/>
+      <c r="K121" s="79"/>
     </row>
     <row r="122" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="100">
+      <c r="A122" s="94">
         <v>120</v>
       </c>
-      <c r="B122" s="147"/>
+      <c r="B122" s="150"/>
       <c r="C122" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D122" s="106"/>
-      <c r="E122" s="54"/>
-      <c r="F122" s="54"/>
-      <c r="G122" s="110"/>
-      <c r="H122" s="54"/>
-      <c r="I122" s="54"/>
-      <c r="J122" s="129"/>
+      <c r="D122" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E122" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F122" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G122" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H122" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I122" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J122" s="160"/>
+      <c r="K122" s="79"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A123" s="97">
+      <c r="A123" s="92">
         <v>121</v>
       </c>
-      <c r="B123" s="145" t="s">
+      <c r="B123" s="148" t="s">
         <v>104</v>
       </c>
       <c r="C123" s="52" t="s">
         <v>118</v>
       </c>
-      <c r="D123" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="E123" s="167">
+      <c r="D123" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="E123" s="110">
         <v>43126</v>
       </c>
-      <c r="F123" s="167">
+      <c r="F123" s="110">
         <v>43126</v>
       </c>
-      <c r="G123" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="H123" s="167">
+      <c r="G123" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="H123" s="110">
         <v>43126</v>
       </c>
-      <c r="I123" s="167">
+      <c r="I123" s="110">
         <v>43126</v>
       </c>
-      <c r="J123" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K123" s="80"/>
+      <c r="J123" s="158">
+        <v>1</v>
+      </c>
+      <c r="K123" s="79"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A124" s="98">
+      <c r="A124" s="93">
         <v>122</v>
       </c>
-      <c r="B124" s="146"/>
+      <c r="B124" s="149"/>
       <c r="C124" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D124" s="101">
+      <c r="D124" s="95">
         <v>0.1</v>
       </c>
       <c r="E124" s="59">
@@ -5283,7 +6073,7 @@
       <c r="F124" s="59">
         <v>43131</v>
       </c>
-      <c r="G124" s="101">
+      <c r="G124" s="95">
         <v>0.1</v>
       </c>
       <c r="H124" s="59">
@@ -5292,79 +6082,109 @@
       <c r="I124" s="59">
         <v>43131</v>
       </c>
-      <c r="J124" s="126"/>
-      <c r="K124" s="80"/>
+      <c r="J124" s="159"/>
+      <c r="K124" s="79"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A125" s="98">
+      <c r="A125" s="93">
         <v>123</v>
       </c>
-      <c r="B125" s="146"/>
+      <c r="B125" s="149"/>
       <c r="C125" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D125" s="107"/>
-      <c r="G125" s="109"/>
-      <c r="J125" s="126"/>
+      <c r="D125" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E125" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F125" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G125" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H125" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I125" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J125" s="159"/>
+      <c r="K125" s="79"/>
     </row>
     <row r="126" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="100">
+      <c r="A126" s="94">
         <v>124</v>
       </c>
-      <c r="B126" s="147"/>
+      <c r="B126" s="150"/>
       <c r="C126" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D126" s="106"/>
-      <c r="E126" s="54"/>
-      <c r="F126" s="54"/>
-      <c r="G126" s="110"/>
-      <c r="H126" s="54"/>
-      <c r="I126" s="54"/>
-      <c r="J126" s="129"/>
+      <c r="D126" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E126" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F126" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G126" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H126" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I126" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J126" s="160"/>
+      <c r="K126" s="79"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A127" s="97">
+      <c r="A127" s="92">
         <v>125</v>
       </c>
-      <c r="B127" s="121" t="s">
+      <c r="B127" s="137" t="s">
         <v>103</v>
       </c>
       <c r="C127" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="D127" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="E127" s="167">
+      <c r="D127" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="E127" s="110">
         <v>43126</v>
       </c>
-      <c r="F127" s="167">
+      <c r="F127" s="110">
         <v>43126</v>
       </c>
-      <c r="G127" s="94">
-        <v>0.1</v>
-      </c>
-      <c r="H127" s="167">
+      <c r="G127" s="89">
+        <v>0.1</v>
+      </c>
+      <c r="H127" s="110">
         <v>43126</v>
       </c>
-      <c r="I127" s="167">
+      <c r="I127" s="110">
         <v>43126</v>
       </c>
-      <c r="J127" s="143">
-        <v>0.5</v>
-      </c>
-      <c r="K127" s="80"/>
+      <c r="J127" s="158">
+        <v>1</v>
+      </c>
+      <c r="K127" s="79"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A128" s="98">
+      <c r="A128" s="93">
         <v>126</v>
       </c>
-      <c r="B128" s="122"/>
+      <c r="B128" s="138"/>
       <c r="C128" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="D128" s="101">
+      <c r="D128" s="95">
         <v>0.1</v>
       </c>
       <c r="E128" s="59">
@@ -5373,7 +6193,7 @@
       <c r="F128" s="59">
         <v>43131</v>
       </c>
-      <c r="G128" s="101">
+      <c r="G128" s="95">
         <v>0.1</v>
       </c>
       <c r="H128" s="59">
@@ -5382,250 +6202,276 @@
       <c r="I128" s="59">
         <v>43131</v>
       </c>
-      <c r="J128" s="126"/>
-      <c r="K128" s="80"/>
+      <c r="J128" s="159"/>
+      <c r="K128" s="79"/>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A129" s="98">
+      <c r="A129" s="93">
         <v>127</v>
       </c>
-      <c r="B129" s="122"/>
+      <c r="B129" s="138"/>
       <c r="C129" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="D129" s="101"/>
-      <c r="E129" s="55"/>
-      <c r="F129" s="55"/>
-      <c r="G129" s="111"/>
-      <c r="H129" s="55"/>
-      <c r="I129" s="55"/>
-      <c r="J129" s="126"/>
+      <c r="D129" s="116">
+        <v>0.1</v>
+      </c>
+      <c r="E129" s="175">
+        <v>43103</v>
+      </c>
+      <c r="F129" s="175">
+        <v>43103</v>
+      </c>
+      <c r="G129" s="95">
+        <v>0.1</v>
+      </c>
+      <c r="H129" s="175">
+        <v>43103</v>
+      </c>
+      <c r="I129" s="175">
+        <v>43103</v>
+      </c>
+      <c r="J129" s="159"/>
+      <c r="K129" s="79"/>
     </row>
     <row r="130" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="100">
+      <c r="A130" s="94">
         <v>128</v>
       </c>
-      <c r="B130" s="123"/>
+      <c r="B130" s="139"/>
       <c r="C130" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D130" s="102"/>
-      <c r="E130" s="54"/>
-      <c r="F130" s="54"/>
-      <c r="G130" s="112"/>
-      <c r="H130" s="54"/>
-      <c r="I130" s="54"/>
-      <c r="J130" s="129"/>
+      <c r="D130" s="117">
+        <v>0.1</v>
+      </c>
+      <c r="E130" s="60">
+        <v>43103</v>
+      </c>
+      <c r="F130" s="60">
+        <v>43103</v>
+      </c>
+      <c r="G130" s="96">
+        <v>0.1</v>
+      </c>
+      <c r="H130" s="60">
+        <v>43103</v>
+      </c>
+      <c r="I130" s="60">
+        <v>43103</v>
+      </c>
+      <c r="J130" s="160"/>
+      <c r="K130" s="79"/>
     </row>
     <row r="131" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="97">
+      <c r="A131" s="92">
         <v>129</v>
       </c>
-      <c r="B131" s="148" t="s">
+      <c r="B131" s="161" t="s">
         <v>27</v>
       </c>
-      <c r="C131" s="76" t="s">
+      <c r="C131" s="75" t="s">
         <v>121</v>
       </c>
-      <c r="D131" s="73"/>
-      <c r="E131" s="167"/>
-      <c r="F131" s="167"/>
-      <c r="G131" s="108"/>
-      <c r="H131" s="167"/>
-      <c r="I131" s="167"/>
-      <c r="J131" s="163"/>
-      <c r="K131" s="81"/>
+      <c r="D131" s="72"/>
+      <c r="E131" s="110"/>
+      <c r="F131" s="110"/>
+      <c r="G131" s="100"/>
+      <c r="H131" s="110"/>
+      <c r="I131" s="110"/>
+      <c r="J131" s="153"/>
+      <c r="K131" s="80"/>
     </row>
     <row r="132" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="98">
+      <c r="A132" s="93">
         <v>130</v>
       </c>
-      <c r="B132" s="149"/>
-      <c r="C132" s="77" t="s">
+      <c r="B132" s="162"/>
+      <c r="C132" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D132" s="75"/>
-      <c r="E132" s="115"/>
-      <c r="F132" s="165"/>
-      <c r="G132" s="108"/>
-      <c r="H132" s="165"/>
+      <c r="D132" s="74"/>
+      <c r="E132" s="104"/>
+      <c r="F132" s="108"/>
+      <c r="G132" s="100"/>
+      <c r="H132" s="108"/>
       <c r="I132" s="55"/>
-      <c r="J132" s="142"/>
-      <c r="K132" s="81"/>
+      <c r="J132" s="154"/>
+      <c r="K132" s="80"/>
     </row>
     <row r="133" spans="1:12" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="98">
+      <c r="A133" s="93">
         <v>131</v>
       </c>
-      <c r="B133" s="149"/>
-      <c r="C133" s="77" t="s">
+      <c r="B133" s="162"/>
+      <c r="C133" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D133" s="75"/>
-      <c r="E133" s="115"/>
-      <c r="F133" s="165"/>
-      <c r="G133" s="108"/>
-      <c r="H133" s="165"/>
+      <c r="D133" s="74"/>
+      <c r="E133" s="104"/>
+      <c r="F133" s="108"/>
+      <c r="G133" s="100"/>
+      <c r="H133" s="108"/>
       <c r="I133" s="55"/>
-      <c r="J133" s="142"/>
-      <c r="K133" s="81"/>
+      <c r="J133" s="154"/>
+      <c r="K133" s="80"/>
     </row>
     <row r="134" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="100">
+      <c r="A134" s="94">
         <v>132</v>
       </c>
-      <c r="B134" s="150"/>
+      <c r="B134" s="163"/>
       <c r="C134" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D134" s="74"/>
-      <c r="E134" s="114"/>
-      <c r="F134" s="166"/>
-      <c r="G134" s="102"/>
-      <c r="H134" s="166"/>
+      <c r="D134" s="73"/>
+      <c r="E134" s="103"/>
+      <c r="F134" s="109"/>
+      <c r="G134" s="96"/>
+      <c r="H134" s="109"/>
       <c r="I134" s="54"/>
-      <c r="J134" s="164"/>
+      <c r="J134" s="155"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A135" s="97">
+      <c r="A135" s="92">
         <v>133</v>
       </c>
-      <c r="B135" s="160" t="s">
+      <c r="B135" s="145" t="s">
         <v>54</v>
       </c>
-      <c r="C135" s="76" t="s">
+      <c r="C135" s="75" t="s">
         <v>118</v>
       </c>
-      <c r="D135" s="73"/>
-      <c r="E135" s="167"/>
-      <c r="F135" s="167"/>
-      <c r="G135" s="103"/>
-      <c r="H135" s="167"/>
-      <c r="I135" s="167"/>
-      <c r="J135" s="163"/>
+      <c r="D135" s="72"/>
+      <c r="E135" s="110"/>
+      <c r="F135" s="110"/>
+      <c r="G135" s="97"/>
+      <c r="H135" s="110"/>
+      <c r="I135" s="110"/>
+      <c r="J135" s="153"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A136" s="98">
+      <c r="A136" s="93">
         <v>134</v>
       </c>
-      <c r="B136" s="161"/>
-      <c r="C136" s="77" t="s">
+      <c r="B136" s="146"/>
+      <c r="C136" s="76" t="s">
         <v>117</v>
       </c>
-      <c r="D136" s="75"/>
+      <c r="D136" s="74"/>
       <c r="E136" s="55"/>
       <c r="F136" s="55"/>
-      <c r="G136" s="104"/>
+      <c r="G136" s="98"/>
       <c r="H136" s="55"/>
       <c r="I136" s="55"/>
-      <c r="J136" s="142"/>
+      <c r="J136" s="154"/>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A137" s="98">
+      <c r="A137" s="93">
         <v>135</v>
       </c>
-      <c r="B137" s="161"/>
-      <c r="C137" s="77" t="s">
+      <c r="B137" s="146"/>
+      <c r="C137" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="D137" s="75"/>
+      <c r="D137" s="74"/>
       <c r="E137" s="55"/>
       <c r="F137" s="55"/>
-      <c r="G137" s="104"/>
+      <c r="G137" s="98"/>
       <c r="H137" s="55"/>
       <c r="I137" s="55"/>
-      <c r="J137" s="142"/>
+      <c r="J137" s="154"/>
     </row>
     <row r="138" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="100">
+      <c r="A138" s="94">
         <v>136</v>
       </c>
-      <c r="B138" s="162"/>
+      <c r="B138" s="147"/>
       <c r="C138" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D138" s="74"/>
+      <c r="D138" s="73"/>
       <c r="E138" s="54"/>
       <c r="F138" s="54"/>
-      <c r="G138" s="102"/>
+      <c r="G138" s="96"/>
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
-      <c r="J138" s="164"/>
+      <c r="J138" s="155"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A139" s="97">
+      <c r="A139" s="92">
         <v>137</v>
       </c>
-      <c r="B139" s="121" t="s">
+      <c r="B139" s="137" t="s">
         <v>55</v>
       </c>
       <c r="C139" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D139" s="44"/>
-      <c r="E139" s="167"/>
-      <c r="F139" s="167"/>
-      <c r="G139" s="103"/>
-      <c r="H139" s="167"/>
-      <c r="I139" s="167"/>
-      <c r="J139" s="126"/>
+      <c r="E139" s="110"/>
+      <c r="F139" s="110"/>
+      <c r="G139" s="97"/>
+      <c r="H139" s="110"/>
+      <c r="I139" s="110"/>
+      <c r="J139" s="133"/>
       <c r="L139" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A140" s="98">
+      <c r="A140" s="93">
         <v>138</v>
       </c>
-      <c r="B140" s="122"/>
+      <c r="B140" s="138"/>
       <c r="C140" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D140" s="49"/>
       <c r="E140" s="55"/>
       <c r="F140" s="55"/>
-      <c r="G140" s="104"/>
+      <c r="G140" s="98"/>
       <c r="H140" s="55"/>
       <c r="I140" s="55"/>
-      <c r="J140" s="126"/>
+      <c r="J140" s="133"/>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A141" s="98">
+      <c r="A141" s="93">
         <v>139</v>
       </c>
-      <c r="B141" s="122"/>
+      <c r="B141" s="138"/>
       <c r="C141" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D141" s="49"/>
       <c r="E141" s="55"/>
       <c r="F141" s="55"/>
-      <c r="G141" s="104"/>
+      <c r="G141" s="98"/>
       <c r="H141" s="55"/>
       <c r="I141" s="55"/>
-      <c r="J141" s="126"/>
+      <c r="J141" s="133"/>
     </row>
     <row r="142" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="100">
+      <c r="A142" s="94">
         <v>140</v>
       </c>
-      <c r="B142" s="123"/>
+      <c r="B142" s="139"/>
       <c r="C142" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D142" s="46"/>
       <c r="E142" s="54"/>
       <c r="F142" s="54"/>
-      <c r="G142" s="102"/>
+      <c r="G142" s="96"/>
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
       <c r="J142" s="129"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A143" s="97">
+      <c r="A143" s="92">
         <v>141</v>
       </c>
       <c r="B143" s="156" t="s">
@@ -5635,15 +6481,15 @@
         <v>118</v>
       </c>
       <c r="D143" s="44"/>
-      <c r="E143" s="167"/>
-      <c r="F143" s="167"/>
-      <c r="G143" s="103"/>
-      <c r="H143" s="167"/>
-      <c r="I143" s="167"/>
-      <c r="J143" s="126"/>
+      <c r="E143" s="110"/>
+      <c r="F143" s="110"/>
+      <c r="G143" s="97"/>
+      <c r="H143" s="110"/>
+      <c r="I143" s="110"/>
+      <c r="J143" s="133"/>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A144" s="98">
+      <c r="A144" s="93">
         <v>142</v>
       </c>
       <c r="B144" s="157"/>
@@ -5653,16 +6499,16 @@
       <c r="D144" s="49"/>
       <c r="E144" s="55"/>
       <c r="F144" s="55"/>
-      <c r="G144" s="104"/>
+      <c r="G144" s="98"/>
       <c r="H144" s="55"/>
       <c r="I144" s="55"/>
-      <c r="J144" s="126"/>
+      <c r="J144" s="133"/>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A145" s="98">
+      <c r="A145" s="93">
         <v>143</v>
       </c>
-      <c r="B145" s="158" t="s">
+      <c r="B145" s="151" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="52" t="s">
@@ -5671,29 +6517,29 @@
       <c r="D145" s="49"/>
       <c r="E145" s="55"/>
       <c r="F145" s="55"/>
-      <c r="G145" s="104"/>
+      <c r="G145" s="98"/>
       <c r="H145" s="55"/>
       <c r="I145" s="55"/>
-      <c r="J145" s="126"/>
+      <c r="J145" s="133"/>
     </row>
     <row r="146" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="100">
+      <c r="A146" s="94">
         <v>144</v>
       </c>
-      <c r="B146" s="159"/>
+      <c r="B146" s="152"/>
       <c r="C146" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D146" s="46"/>
       <c r="E146" s="54"/>
       <c r="F146" s="54"/>
-      <c r="G146" s="102"/>
+      <c r="G146" s="96"/>
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
       <c r="J146" s="129"/>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A147" s="97">
+      <c r="A147" s="92">
         <v>145</v>
       </c>
       <c r="B147" s="156" t="s">
@@ -5703,18 +6549,18 @@
         <v>118</v>
       </c>
       <c r="D147" s="44"/>
-      <c r="E147" s="167"/>
-      <c r="F147" s="167"/>
-      <c r="G147" s="103"/>
-      <c r="H147" s="167"/>
-      <c r="I147" s="167"/>
-      <c r="J147" s="126"/>
+      <c r="E147" s="110"/>
+      <c r="F147" s="110"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="110"/>
+      <c r="I147" s="110"/>
+      <c r="J147" s="133"/>
       <c r="L147" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A148" s="98">
+      <c r="A148" s="93">
         <v>146</v>
       </c>
       <c r="B148" s="157"/>
@@ -5724,16 +6570,16 @@
       <c r="D148" s="49"/>
       <c r="E148" s="55"/>
       <c r="F148" s="55"/>
-      <c r="G148" s="104"/>
+      <c r="G148" s="98"/>
       <c r="H148" s="55"/>
       <c r="I148" s="55"/>
-      <c r="J148" s="126"/>
+      <c r="J148" s="133"/>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A149" s="98">
+      <c r="A149" s="93">
         <v>147</v>
       </c>
-      <c r="B149" s="158" t="s">
+      <c r="B149" s="151" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="52" t="s">
@@ -5742,99 +6588,99 @@
       <c r="D149" s="49"/>
       <c r="E149" s="55"/>
       <c r="F149" s="55"/>
-      <c r="G149" s="104"/>
+      <c r="G149" s="98"/>
       <c r="H149" s="55"/>
       <c r="I149" s="55"/>
-      <c r="J149" s="126"/>
+      <c r="J149" s="133"/>
     </row>
     <row r="150" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="100">
+      <c r="A150" s="94">
         <v>148</v>
       </c>
-      <c r="B150" s="159"/>
+      <c r="B150" s="152"/>
       <c r="C150" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D150" s="46"/>
       <c r="E150" s="54"/>
       <c r="F150" s="54"/>
-      <c r="G150" s="102"/>
+      <c r="G150" s="96"/>
       <c r="H150" s="54"/>
       <c r="I150" s="54"/>
       <c r="J150" s="129"/>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A151" s="97">
+      <c r="A151" s="92">
         <v>149</v>
       </c>
-      <c r="B151" s="121" t="s">
+      <c r="B151" s="137" t="s">
         <v>15</v>
       </c>
       <c r="C151" s="56" t="s">
         <v>118</v>
       </c>
       <c r="D151" s="44"/>
-      <c r="E151" s="167">
+      <c r="E151" s="110">
         <v>43125</v>
       </c>
-      <c r="F151" s="167">
+      <c r="F151" s="110">
         <v>43125</v>
       </c>
-      <c r="G151" s="103">
+      <c r="G151" s="97">
         <v>1</v>
       </c>
-      <c r="H151" s="167">
+      <c r="H151" s="110">
         <v>43125</v>
       </c>
-      <c r="I151" s="167">
+      <c r="I151" s="110">
         <v>43125</v>
       </c>
-      <c r="J151" s="126"/>
+      <c r="J151" s="133"/>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A152" s="98">
+      <c r="A152" s="93">
         <v>150</v>
       </c>
-      <c r="B152" s="122"/>
+      <c r="B152" s="138"/>
       <c r="C152" s="52" t="s">
         <v>117</v>
       </c>
       <c r="D152" s="49"/>
       <c r="E152" s="55"/>
       <c r="F152" s="55"/>
-      <c r="G152" s="104"/>
+      <c r="G152" s="98"/>
       <c r="H152" s="55"/>
       <c r="I152" s="55"/>
-      <c r="J152" s="126"/>
+      <c r="J152" s="133"/>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A153" s="98">
+      <c r="A153" s="93">
         <v>151</v>
       </c>
-      <c r="B153" s="122"/>
+      <c r="B153" s="138"/>
       <c r="C153" s="52" t="s">
         <v>119</v>
       </c>
       <c r="D153" s="49"/>
       <c r="E153" s="55"/>
       <c r="F153" s="55"/>
-      <c r="G153" s="104"/>
+      <c r="G153" s="98"/>
       <c r="H153" s="55"/>
       <c r="I153" s="55"/>
-      <c r="J153" s="126"/>
+      <c r="J153" s="133"/>
     </row>
     <row r="154" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="100">
+      <c r="A154" s="94">
         <v>152</v>
       </c>
-      <c r="B154" s="123"/>
+      <c r="B154" s="139"/>
       <c r="C154" s="51" t="s">
         <v>121</v>
       </c>
       <c r="D154" s="46"/>
       <c r="E154" s="54"/>
       <c r="F154" s="54"/>
-      <c r="G154" s="102"/>
+      <c r="G154" s="96"/>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
       <c r="J154" s="129"/>
@@ -5842,13 +6688,13 @@
     <row r="155" spans="1:12" x14ac:dyDescent="0.25">
       <c r="D155" s="45">
         <f>SUM(D3:D154)</f>
-        <v>8.0399999999999938</v>
-      </c>
-      <c r="E155" s="113"/>
-      <c r="F155" s="113"/>
-      <c r="G155" s="95">
+        <v>14.459999999999971</v>
+      </c>
+      <c r="E155" s="102"/>
+      <c r="F155" s="102"/>
+      <c r="G155" s="90">
         <f>SUM(G3:G154)</f>
-        <v>7.2699999999999969</v>
+        <v>13.589999999999977</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.25">
@@ -5857,17 +6703,73 @@
       </c>
       <c r="C157" s="53">
         <f>SUM(D155,G155)</f>
-        <v>15.309999999999992</v>
+        <v>28.049999999999947</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="84">
-    <mergeCell ref="J19:J22"/>
-    <mergeCell ref="B23:B26"/>
-    <mergeCell ref="J23:J26"/>
-    <mergeCell ref="B15:B18"/>
-    <mergeCell ref="J15:J18"/>
-    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="J3:J6"/>
+    <mergeCell ref="J11:J14"/>
+    <mergeCell ref="B7:B10"/>
+    <mergeCell ref="J7:J10"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B6"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B39:B42"/>
+    <mergeCell ref="B131:B134"/>
+    <mergeCell ref="B31:B34"/>
+    <mergeCell ref="B35:B38"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="B59:B62"/>
+    <mergeCell ref="J59:J62"/>
+    <mergeCell ref="B27:B30"/>
+    <mergeCell ref="B51:B54"/>
+    <mergeCell ref="B119:B122"/>
+    <mergeCell ref="J119:J122"/>
+    <mergeCell ref="B43:B46"/>
+    <mergeCell ref="B47:B50"/>
+    <mergeCell ref="B87:B90"/>
+    <mergeCell ref="B95:B98"/>
+    <mergeCell ref="B91:B94"/>
+    <mergeCell ref="J27:J30"/>
+    <mergeCell ref="J31:J34"/>
+    <mergeCell ref="J35:J38"/>
+    <mergeCell ref="J39:J42"/>
+    <mergeCell ref="J43:J46"/>
+    <mergeCell ref="J47:J50"/>
+    <mergeCell ref="J51:J54"/>
+    <mergeCell ref="J55:J58"/>
+    <mergeCell ref="J63:J66"/>
+    <mergeCell ref="B83:B86"/>
+    <mergeCell ref="J67:J70"/>
+    <mergeCell ref="J71:J74"/>
+    <mergeCell ref="J75:J78"/>
+    <mergeCell ref="J79:J82"/>
+    <mergeCell ref="J83:J86"/>
+    <mergeCell ref="B63:B66"/>
+    <mergeCell ref="B71:B74"/>
+    <mergeCell ref="B75:B78"/>
+    <mergeCell ref="B79:B82"/>
+    <mergeCell ref="B67:B70"/>
+    <mergeCell ref="B55:B58"/>
+    <mergeCell ref="J87:J90"/>
+    <mergeCell ref="J111:J114"/>
+    <mergeCell ref="J115:J118"/>
+    <mergeCell ref="J103:J106"/>
+    <mergeCell ref="B147:B148"/>
+    <mergeCell ref="J99:J102"/>
+    <mergeCell ref="J127:J130"/>
+    <mergeCell ref="J107:J110"/>
+    <mergeCell ref="J123:J126"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="B127:B130"/>
+    <mergeCell ref="B107:B110"/>
+    <mergeCell ref="B123:B126"/>
     <mergeCell ref="J151:J154"/>
     <mergeCell ref="J91:J94"/>
     <mergeCell ref="J95:J98"/>
@@ -5884,68 +6786,12 @@
     <mergeCell ref="J135:J138"/>
     <mergeCell ref="J139:J142"/>
     <mergeCell ref="B151:B154"/>
-    <mergeCell ref="J87:J90"/>
-    <mergeCell ref="J111:J114"/>
-    <mergeCell ref="J115:J118"/>
-    <mergeCell ref="J103:J106"/>
-    <mergeCell ref="B147:B148"/>
-    <mergeCell ref="J99:J102"/>
-    <mergeCell ref="J127:J130"/>
-    <mergeCell ref="J107:J110"/>
-    <mergeCell ref="J123:J126"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="B127:B130"/>
-    <mergeCell ref="B107:B110"/>
-    <mergeCell ref="B123:B126"/>
-    <mergeCell ref="J47:J50"/>
-    <mergeCell ref="J51:J54"/>
-    <mergeCell ref="J55:J58"/>
-    <mergeCell ref="J63:J66"/>
-    <mergeCell ref="B83:B86"/>
-    <mergeCell ref="J67:J70"/>
-    <mergeCell ref="J71:J74"/>
-    <mergeCell ref="J75:J78"/>
-    <mergeCell ref="J79:J82"/>
-    <mergeCell ref="J83:J86"/>
-    <mergeCell ref="B63:B66"/>
-    <mergeCell ref="B71:B74"/>
-    <mergeCell ref="B75:B78"/>
-    <mergeCell ref="B79:B82"/>
-    <mergeCell ref="B67:B70"/>
-    <mergeCell ref="B55:B58"/>
-    <mergeCell ref="J27:J30"/>
-    <mergeCell ref="J31:J34"/>
-    <mergeCell ref="J35:J38"/>
-    <mergeCell ref="J39:J42"/>
-    <mergeCell ref="J43:J46"/>
-    <mergeCell ref="B39:B42"/>
-    <mergeCell ref="B131:B134"/>
-    <mergeCell ref="B31:B34"/>
-    <mergeCell ref="B35:B38"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="B59:B62"/>
-    <mergeCell ref="J59:J62"/>
-    <mergeCell ref="B27:B30"/>
-    <mergeCell ref="B51:B54"/>
-    <mergeCell ref="B119:B122"/>
-    <mergeCell ref="J119:J122"/>
-    <mergeCell ref="B43:B46"/>
-    <mergeCell ref="B47:B50"/>
-    <mergeCell ref="B87:B90"/>
-    <mergeCell ref="B95:B98"/>
-    <mergeCell ref="B91:B94"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J3:J6"/>
-    <mergeCell ref="J11:J14"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="J7:J10"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:B6"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="J19:J22"/>
+    <mergeCell ref="B23:B26"/>
+    <mergeCell ref="J23:J26"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="J15:J18"/>
+    <mergeCell ref="B19:B22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5968,26 +6814,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="127" t="s">
+      <c r="A1" s="140" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="127" t="s">
+      <c r="B1" s="140" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="45" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="144" t="s">
+      <c r="D1" s="165" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="144"/>
+      <c r="E1" s="165"/>
       <c r="F1" s="47" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="128"/>
-      <c r="B2" s="128"/>
+      <c r="A2" s="141"/>
+      <c r="B2" s="141"/>
       <c r="C2" s="46" t="s">
         <v>122</v>
       </c>
@@ -6002,7 +6848,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="125" t="s">
+      <c r="A3" s="127" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -6019,7 +6865,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="126"/>
+      <c r="A4" s="133"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
@@ -6028,7 +6874,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="126"/>
+      <c r="A5" s="133"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
       </c>
@@ -6037,7 +6883,7 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="126"/>
+      <c r="A6" s="133"/>
       <c r="B6" s="6" t="s">
         <v>6</v>
       </c>
@@ -6046,7 +6892,7 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="126"/>
+      <c r="A7" s="133"/>
       <c r="B7" s="6" t="s">
         <v>7</v>
       </c>
@@ -6055,7 +6901,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="126"/>
+      <c r="A8" s="133"/>
       <c r="B8" s="8" t="s">
         <v>115</v>
       </c>
@@ -6067,7 +6913,7 @@
       <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="127" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="10" t="s">
@@ -6075,7 +6921,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="126"/>
+      <c r="A10" s="133"/>
       <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
@@ -6111,7 +6957,7 @@
       <c r="F13" s="15"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="127" t="s">
         <v>29</v>
       </c>
       <c r="B14" s="42" t="s">
@@ -6119,7 +6965,7 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="126"/>
+      <c r="A15" s="133"/>
       <c r="B15" s="42" t="s">
         <v>31</v>
       </c>
@@ -6135,7 +6981,7 @@
       <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="125" t="s">
+      <c r="A17" s="127" t="s">
         <v>36</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -6143,19 +6989,19 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="138"/>
+      <c r="A18" s="128"/>
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="138"/>
+      <c r="A19" s="128"/>
       <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="138"/>
+      <c r="A20" s="128"/>
       <c r="B20" s="2" t="s">
         <v>39</v>
       </c>
@@ -6207,7 +7053,7 @@
       <c r="F24" s="15"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="134" t="s">
+      <c r="A25" s="120" t="s">
         <v>48</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -6215,13 +7061,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="135"/>
+      <c r="A26" s="121"/>
       <c r="B26" s="2" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="136"/>
+      <c r="A27" s="122"/>
       <c r="B27" s="19" t="s">
         <v>53</v>
       </c>
@@ -6243,7 +7089,7 @@
       <c r="F28" s="9"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="134" t="s">
+      <c r="A29" s="120" t="s">
         <v>60</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -6251,33 +7097,33 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="137"/>
+      <c r="A30" s="136"/>
       <c r="B30" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="137"/>
-      <c r="B31" s="132" t="s">
+      <c r="A31" s="136"/>
+      <c r="B31" s="134" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="137"/>
-      <c r="B32" s="132"/>
+      <c r="A32" s="136"/>
+      <c r="B32" s="134"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="137"/>
-      <c r="B33" s="132" t="s">
+      <c r="A33" s="136"/>
+      <c r="B33" s="134" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="137"/>
-      <c r="B34" s="132"/>
+      <c r="A34" s="136"/>
+      <c r="B34" s="134"/>
     </row>
     <row r="35" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="136"/>
+      <c r="A35" s="122"/>
       <c r="B35" s="9" t="s">
         <v>59</v>
       </c>
@@ -6299,7 +7145,7 @@
       <c r="F36" s="15"/>
     </row>
     <row r="37" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="134" t="s">
+      <c r="A37" s="120" t="s">
         <v>76</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -6307,19 +7153,19 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="135"/>
+      <c r="A38" s="121"/>
       <c r="B38" s="3" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="135"/>
+      <c r="A39" s="121"/>
       <c r="B39" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="135"/>
+      <c r="A40" s="121"/>
       <c r="B40" s="3" t="s">
         <v>80</v>
       </c>
@@ -6341,7 +7187,7 @@
       <c r="F41" s="15"/>
     </row>
     <row r="42" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="134" t="s">
+      <c r="A42" s="120" t="s">
         <v>92</v>
       </c>
       <c r="B42" s="3" t="s">
@@ -6349,7 +7195,7 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="136"/>
+      <c r="A43" s="122"/>
       <c r="B43" s="8" t="s">
         <v>87</v>
       </c>
@@ -6359,7 +7205,7 @@
       <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="134" t="s">
+      <c r="A44" s="120" t="s">
         <v>93</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -6367,25 +7213,25 @@
       </c>
     </row>
     <row r="45" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
+      <c r="A45" s="121"/>
       <c r="B45" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="135"/>
+      <c r="A46" s="121"/>
       <c r="B46" s="2" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="135"/>
+      <c r="A47" s="121"/>
       <c r="B47" s="2" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="136"/>
+      <c r="A48" s="122"/>
       <c r="B48" s="9" t="s">
         <v>86</v>
       </c>
@@ -6395,7 +7241,7 @@
       <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="134" t="s">
+      <c r="A49" s="120" t="s">
         <v>97</v>
       </c>
       <c r="B49" s="3" t="s">
@@ -6403,13 +7249,13 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="135"/>
+      <c r="A50" s="121"/>
       <c r="B50" s="3" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="136"/>
+      <c r="A51" s="122"/>
       <c r="B51" s="8" t="s">
         <v>98</v>
       </c>
@@ -6444,6 +7290,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="A42:A43"/>
     <mergeCell ref="A44:A48"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A1:A2"/>
@@ -6454,11 +7305,6 @@
     <mergeCell ref="A25:A27"/>
     <mergeCell ref="A29:A35"/>
     <mergeCell ref="A37:A40"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="A42:A43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/schedules/Time Estimations.xlsx
+++ b/schedules/Time Estimations.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="718" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="210">
   <si>
     <t>Página</t>
   </si>
@@ -642,6 +642,21 @@
   </si>
   <si>
     <t>detelteContest(Contest)</t>
+  </si>
+  <si>
+    <t>getSport(id)</t>
+  </si>
+  <si>
+    <t>getPosition(id)</t>
+  </si>
+  <si>
+    <t>getClimaCondition(id)</t>
+  </si>
+  <si>
+    <t>getVenue(id)</t>
+  </si>
+  <si>
+    <t>getContestType(id)</t>
   </si>
 </sst>
 </file>
@@ -678,7 +693,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,8 +706,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -834,11 +855,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="183">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1343,6 +1388,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1352,6 +1398,35 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2588,10 +2663,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L365"/>
+  <dimension ref="A1:L385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D372" sqref="D372"/>
+    <sheetView tabSelected="1" topLeftCell="A344" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6529,6 +6604,7 @@
       <c r="H134" s="54"/>
       <c r="I134" s="54"/>
       <c r="J134" s="177"/>
+      <c r="K134" s="179"/>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A135" s="88">
@@ -6547,6 +6623,7 @@
       <c r="H135" s="103"/>
       <c r="I135" s="103"/>
       <c r="J135" s="140"/>
+      <c r="K135" s="178"/>
       <c r="L135" t="s">
         <v>147</v>
       </c>
@@ -6598,6 +6675,7 @@
       <c r="H138" s="54"/>
       <c r="I138" s="54"/>
       <c r="J138" s="143"/>
+      <c r="K138" s="179"/>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A139" s="88">
@@ -6616,6 +6694,7 @@
       <c r="H139" s="103"/>
       <c r="I139" s="103"/>
       <c r="J139" s="140"/>
+      <c r="K139" s="178"/>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A140" s="89">
@@ -6666,6 +6745,7 @@
       <c r="H142" s="54"/>
       <c r="I142" s="54"/>
       <c r="J142" s="143"/>
+      <c r="K142" s="179"/>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A143" s="88">
@@ -6684,6 +6764,7 @@
       <c r="H143" s="103"/>
       <c r="I143" s="103"/>
       <c r="J143" s="140"/>
+      <c r="K143" s="178"/>
       <c r="L143" t="s">
         <v>147</v>
       </c>
@@ -6737,36 +6818,38 @@
       <c r="H146" s="54"/>
       <c r="I146" s="54"/>
       <c r="J146" s="143"/>
-    </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A147" s="88">
+      <c r="K146" s="179"/>
+    </row>
+    <row r="147" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="184">
         <v>145</v>
       </c>
       <c r="B147" s="162" t="s">
-        <v>151</v>
-      </c>
-      <c r="C147" s="119" t="s">
+        <v>205</v>
+      </c>
+      <c r="C147" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D147" s="44">
-        <v>1</v>
-      </c>
-      <c r="E147" s="103">
-        <v>43172</v>
-      </c>
-      <c r="F147" s="103">
-        <v>43172</v>
-      </c>
-      <c r="G147" s="94">
-        <v>0.5</v>
-      </c>
-      <c r="H147" s="103">
-        <v>43172</v>
-      </c>
-      <c r="I147" s="103">
+      <c r="D147" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E147" s="187">
         <v>43173</v>
       </c>
+      <c r="F147" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G147" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H147" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I147" s="187">
+        <v>43174</v>
+      </c>
       <c r="J147" s="176"/>
+      <c r="K147" s="192"/>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="89">
@@ -6817,32 +6900,36 @@
       <c r="J150" s="177"/>
       <c r="K150" s="179"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A151" s="88">
+    <row r="151" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="184">
         <v>149</v>
       </c>
-      <c r="B151" s="162" t="s">
-        <v>152</v>
-      </c>
-      <c r="C151" s="119" t="s">
+      <c r="B151" s="163" t="s">
+        <v>206</v>
+      </c>
+      <c r="C151" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D151" s="115"/>
-      <c r="E151" s="103">
+      <c r="D151" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E151" s="187">
         <v>43173</v>
       </c>
-      <c r="F151" s="103">
+      <c r="F151" s="187">
         <v>43173</v>
       </c>
-      <c r="G151" s="94"/>
-      <c r="H151" s="103">
+      <c r="G151" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H151" s="187">
         <v>43173</v>
       </c>
-      <c r="I151" s="103">
+      <c r="I151" s="187">
         <v>43173</v>
       </c>
-      <c r="J151" s="176"/>
-      <c r="K151" s="178"/>
+      <c r="J151" s="191"/>
+      <c r="K151" s="192"/>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="89">
@@ -6858,7 +6945,7 @@
       <c r="G152" s="94"/>
       <c r="H152" s="55"/>
       <c r="I152" s="55"/>
-      <c r="J152" s="156"/>
+      <c r="J152" s="117"/>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="89">
@@ -6874,7 +6961,7 @@
       <c r="G153" s="94"/>
       <c r="H153" s="55"/>
       <c r="I153" s="55"/>
-      <c r="J153" s="156"/>
+      <c r="J153" s="117"/>
     </row>
     <row r="154" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="90">
@@ -6890,34 +6977,39 @@
       <c r="G154" s="92"/>
       <c r="H154" s="54"/>
       <c r="I154" s="54"/>
-      <c r="J154" s="177"/>
+      <c r="J154" s="118"/>
       <c r="K154" s="179"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="88">
+    <row r="155" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="184">
         <v>153</v>
       </c>
       <c r="B155" s="162" t="s">
-        <v>153</v>
-      </c>
-      <c r="C155" s="119" t="s">
+        <v>207</v>
+      </c>
+      <c r="C155" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="E155" s="103">
+      <c r="D155" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E155" s="187">
         <v>43173</v>
       </c>
-      <c r="F155" s="103">
+      <c r="F155" s="187">
         <v>43173</v>
       </c>
-      <c r="G155" s="94"/>
-      <c r="H155" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I155" s="103">
-        <v>43173</v>
-      </c>
-      <c r="J155" s="180"/>
-      <c r="K155" s="178"/>
+      <c r="G155" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H155" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I155" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J155" s="181"/>
+      <c r="K155" s="192"/>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="89">
@@ -6927,7 +7019,7 @@
       <c r="C156" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="J156" s="181"/>
+      <c r="J156" s="182"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="89">
@@ -6937,7 +7029,7 @@
       <c r="C157" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="J157" s="181"/>
+      <c r="J157" s="182"/>
     </row>
     <row r="158" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="90">
@@ -6953,34 +7045,39 @@
       <c r="G158" s="92"/>
       <c r="H158" s="54"/>
       <c r="I158" s="54"/>
-      <c r="J158" s="182"/>
+      <c r="J158" s="183"/>
       <c r="K158" s="179"/>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A159" s="88">
+      <c r="A159" s="184">
         <v>157</v>
       </c>
       <c r="B159" s="162" t="s">
-        <v>156</v>
-      </c>
-      <c r="C159" s="119" t="s">
+        <v>209</v>
+      </c>
+      <c r="C159" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D159" s="115"/>
-      <c r="E159" s="103">
+      <c r="D159" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E159" s="187">
         <v>43173</v>
       </c>
-      <c r="F159" s="103">
+      <c r="F159" s="187">
         <v>43173</v>
       </c>
-      <c r="G159" s="94"/>
-      <c r="H159" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I159" s="103">
-        <v>43173</v>
-      </c>
-      <c r="J159" s="176"/>
+      <c r="G159" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H159" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I159" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J159" s="181"/>
+      <c r="K159" s="196"/>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="89">
@@ -6996,7 +7093,8 @@
       <c r="G160" s="94"/>
       <c r="H160" s="55"/>
       <c r="I160" s="55"/>
-      <c r="J160" s="156"/>
+      <c r="J160" s="182"/>
+      <c r="K160" s="180"/>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="89">
@@ -7012,7 +7110,8 @@
       <c r="G161" s="94"/>
       <c r="H161" s="55"/>
       <c r="I161" s="55"/>
-      <c r="J161" s="156"/>
+      <c r="J161" s="182"/>
+      <c r="K161" s="180"/>
     </row>
     <row r="162" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="90">
@@ -7028,35 +7127,39 @@
       <c r="G162" s="92"/>
       <c r="H162" s="54"/>
       <c r="I162" s="54"/>
-      <c r="J162" s="177"/>
-      <c r="K162" s="179"/>
-    </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A163" s="88">
+      <c r="J162" s="183"/>
+      <c r="K162" s="195"/>
+    </row>
+    <row r="163" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="184">
         <v>161</v>
       </c>
       <c r="B163" s="162" t="s">
-        <v>155</v>
-      </c>
-      <c r="C163" s="119" t="s">
+        <v>208</v>
+      </c>
+      <c r="C163" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D163" s="115"/>
-      <c r="E163" s="103">
+      <c r="D163" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E163" s="187">
         <v>43173</v>
       </c>
-      <c r="F163" s="103">
+      <c r="F163" s="187">
         <v>43173</v>
       </c>
-      <c r="G163" s="94"/>
-      <c r="H163" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I163" s="103">
-        <v>43173</v>
-      </c>
-      <c r="J163" s="176"/>
-      <c r="K163" s="178"/>
+      <c r="G163" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H163" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I163" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J163" s="181"/>
+      <c r="K163" s="192"/>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="89">
@@ -7066,13 +7169,12 @@
       <c r="C164" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D164" s="115"/>
-      <c r="E164" s="55"/>
-      <c r="F164" s="55"/>
-      <c r="G164" s="94"/>
-      <c r="H164" s="55"/>
-      <c r="I164" s="55"/>
-      <c r="J164" s="156"/>
+      <c r="D164" s="113"/>
+      <c r="E164" s="121"/>
+      <c r="F164" s="121"/>
+      <c r="H164" s="121"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="182"/>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="89">
@@ -7082,13 +7184,12 @@
       <c r="C165" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D165" s="115"/>
-      <c r="E165" s="55"/>
-      <c r="F165" s="55"/>
-      <c r="G165" s="94"/>
-      <c r="H165" s="55"/>
-      <c r="I165" s="55"/>
-      <c r="J165" s="156"/>
+      <c r="D165" s="113"/>
+      <c r="E165" s="121"/>
+      <c r="F165" s="121"/>
+      <c r="H165" s="121"/>
+      <c r="I165" s="121"/>
+      <c r="J165" s="182"/>
     </row>
     <row r="166" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="90">
@@ -7098,41 +7199,45 @@
       <c r="C166" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D166" s="114"/>
-      <c r="E166" s="54"/>
-      <c r="F166" s="54"/>
+      <c r="D166" s="113"/>
+      <c r="E166" s="121"/>
+      <c r="F166" s="121"/>
       <c r="G166" s="92"/>
       <c r="H166" s="54"/>
       <c r="I166" s="54"/>
-      <c r="J166" s="177"/>
+      <c r="J166" s="183"/>
       <c r="K166" s="179"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A167" s="88">
+    <row r="167" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="184">
         <v>165</v>
       </c>
       <c r="B167" s="162" t="s">
-        <v>154</v>
-      </c>
-      <c r="C167" s="119" t="s">
+        <v>151</v>
+      </c>
+      <c r="C167" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D167" s="113"/>
-      <c r="E167" s="103">
+      <c r="D167" s="193">
+        <v>1</v>
+      </c>
+      <c r="E167" s="187">
+        <v>43172</v>
+      </c>
+      <c r="F167" s="187">
+        <v>43172</v>
+      </c>
+      <c r="G167" s="188">
+        <v>0.5</v>
+      </c>
+      <c r="H167" s="194">
+        <v>43172</v>
+      </c>
+      <c r="I167" s="194">
         <v>43173</v>
       </c>
-      <c r="F167" s="103">
-        <v>43173</v>
-      </c>
-      <c r="G167" s="94"/>
-      <c r="H167" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I167" s="103">
-        <v>43173</v>
-      </c>
-      <c r="J167" s="180"/>
-      <c r="K167" s="178"/>
+      <c r="J167" s="156"/>
+      <c r="K167" s="192"/>
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="89">
@@ -7142,12 +7247,13 @@
       <c r="C168" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D168" s="113"/>
-      <c r="E168" s="121"/>
-      <c r="F168" s="121"/>
-      <c r="H168" s="121"/>
-      <c r="I168" s="121"/>
-      <c r="J168" s="181"/>
+      <c r="D168" s="115"/>
+      <c r="E168" s="55"/>
+      <c r="F168" s="55"/>
+      <c r="G168" s="94"/>
+      <c r="H168" s="55"/>
+      <c r="I168" s="55"/>
+      <c r="J168" s="156"/>
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="89">
@@ -7157,12 +7263,13 @@
       <c r="C169" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D169" s="113"/>
-      <c r="E169" s="121"/>
-      <c r="F169" s="121"/>
-      <c r="H169" s="121"/>
-      <c r="I169" s="121"/>
-      <c r="J169" s="181"/>
+      <c r="D169" s="115"/>
+      <c r="E169" s="55"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="94"/>
+      <c r="H169" s="55"/>
+      <c r="I169" s="55"/>
+      <c r="J169" s="156"/>
     </row>
     <row r="170" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="90">
@@ -7178,34 +7285,39 @@
       <c r="G170" s="92"/>
       <c r="H170" s="54"/>
       <c r="I170" s="54"/>
-      <c r="J170" s="182"/>
+      <c r="J170" s="177"/>
       <c r="K170" s="179"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A171" s="88">
         <v>169</v>
       </c>
       <c r="B171" s="162" t="s">
-        <v>157</v>
-      </c>
-      <c r="C171" s="119" t="s">
+        <v>152</v>
+      </c>
+      <c r="C171" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D171" s="115"/>
-      <c r="E171" s="103">
+      <c r="D171" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E171" s="187">
         <v>43173</v>
       </c>
-      <c r="F171" s="103">
+      <c r="F171" s="187">
         <v>43173</v>
       </c>
-      <c r="G171" s="94"/>
-      <c r="H171" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I171" s="103">
-        <v>43173</v>
+      <c r="G171" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H171" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I171" s="187">
+        <v>43174</v>
       </c>
       <c r="J171" s="176"/>
+      <c r="K171" s="192"/>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="89">
@@ -7216,10 +7328,11 @@
         <v>117</v>
       </c>
       <c r="D172" s="115"/>
-      <c r="E172" s="121"/>
-      <c r="F172" s="121"/>
-      <c r="H172" s="121"/>
-      <c r="I172" s="121"/>
+      <c r="E172" s="55"/>
+      <c r="F172" s="55"/>
+      <c r="G172" s="94"/>
+      <c r="H172" s="55"/>
+      <c r="I172" s="55"/>
       <c r="J172" s="156"/>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
@@ -7255,24 +7368,36 @@
       <c r="J174" s="177"/>
       <c r="K174" s="179"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="88">
         <v>173</v>
       </c>
       <c r="B175" s="162" t="s">
-        <v>158</v>
-      </c>
-      <c r="C175" s="119" t="s">
+        <v>153</v>
+      </c>
+      <c r="C175" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D175" s="115"/>
-      <c r="E175" s="55"/>
-      <c r="F175" s="55"/>
-      <c r="G175" s="94"/>
-      <c r="H175" s="55"/>
-      <c r="I175" s="55"/>
-      <c r="J175" s="176"/>
-      <c r="K175" s="178"/>
+      <c r="D175" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E175" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F175" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G175" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H175" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I175" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J175" s="181"/>
+      <c r="K175" s="192"/>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="89">
@@ -7282,13 +7407,7 @@
       <c r="C176" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D176" s="115"/>
-      <c r="E176" s="55"/>
-      <c r="F176" s="55"/>
-      <c r="G176" s="94"/>
-      <c r="H176" s="55"/>
-      <c r="I176" s="55"/>
-      <c r="J176" s="156"/>
+      <c r="J176" s="182"/>
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="89">
@@ -7298,13 +7417,7 @@
       <c r="C177" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D177" s="115"/>
-      <c r="E177" s="55"/>
-      <c r="F177" s="55"/>
-      <c r="G177" s="94"/>
-      <c r="H177" s="55"/>
-      <c r="I177" s="55"/>
-      <c r="J177" s="156"/>
+      <c r="J177" s="182"/>
     </row>
     <row r="178" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="90">
@@ -7320,26 +7433,39 @@
       <c r="G178" s="92"/>
       <c r="H178" s="54"/>
       <c r="I178" s="54"/>
-      <c r="J178" s="177"/>
+      <c r="J178" s="183"/>
       <c r="K178" s="179"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A179" s="88">
+    <row r="179" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A179" s="184">
         <v>177</v>
       </c>
       <c r="B179" s="162" t="s">
-        <v>159</v>
-      </c>
-      <c r="C179" s="119" t="s">
+        <v>156</v>
+      </c>
+      <c r="C179" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D179" s="113"/>
-      <c r="E179" s="121"/>
-      <c r="F179" s="121"/>
-      <c r="H179" s="113"/>
-      <c r="I179" s="121"/>
-      <c r="J179" s="180"/>
-      <c r="K179" s="178"/>
+      <c r="D179" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E179" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F179" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G179" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H179" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I179" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J179" s="176"/>
+      <c r="K179" s="189"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="89">
@@ -7349,12 +7475,13 @@
       <c r="C180" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D180" s="113"/>
-      <c r="E180" s="121"/>
-      <c r="F180" s="121"/>
-      <c r="H180" s="121"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="181"/>
+      <c r="D180" s="115"/>
+      <c r="E180" s="55"/>
+      <c r="F180" s="55"/>
+      <c r="G180" s="94"/>
+      <c r="H180" s="55"/>
+      <c r="I180" s="55"/>
+      <c r="J180" s="156"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="89">
@@ -7364,12 +7491,13 @@
       <c r="C181" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D181" s="113"/>
-      <c r="E181" s="121"/>
-      <c r="F181" s="121"/>
-      <c r="H181" s="121"/>
-      <c r="I181" s="121"/>
-      <c r="J181" s="181"/>
+      <c r="D181" s="115"/>
+      <c r="E181" s="55"/>
+      <c r="F181" s="55"/>
+      <c r="G181" s="94"/>
+      <c r="H181" s="55"/>
+      <c r="I181" s="55"/>
+      <c r="J181" s="156"/>
     </row>
     <row r="182" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="90">
@@ -7385,34 +7513,39 @@
       <c r="G182" s="92"/>
       <c r="H182" s="54"/>
       <c r="I182" s="54"/>
-      <c r="J182" s="182"/>
+      <c r="J182" s="177"/>
       <c r="K182" s="179"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A183" s="88">
         <v>181</v>
       </c>
       <c r="B183" s="162" t="s">
-        <v>160</v>
-      </c>
-      <c r="C183" s="119" t="s">
+        <v>155</v>
+      </c>
+      <c r="C183" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D183" s="115"/>
-      <c r="E183" s="103">
+      <c r="D183" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E183" s="187">
         <v>43173</v>
       </c>
-      <c r="F183" s="103">
+      <c r="F183" s="187">
         <v>43173</v>
       </c>
-      <c r="G183" s="94"/>
-      <c r="H183" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I183" s="103">
-        <v>43173</v>
+      <c r="G183" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H183" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I183" s="187">
+        <v>43174</v>
       </c>
       <c r="J183" s="176"/>
+      <c r="K183" s="192"/>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="89">
@@ -7463,24 +7596,36 @@
       <c r="J186" s="177"/>
       <c r="K186" s="179"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" s="88">
+    <row r="187" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="184">
         <v>185</v>
       </c>
       <c r="B187" s="162" t="s">
-        <v>161</v>
-      </c>
-      <c r="C187" s="119" t="s">
+        <v>154</v>
+      </c>
+      <c r="C187" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D187" s="115"/>
-      <c r="E187" s="55"/>
-      <c r="F187" s="55"/>
-      <c r="G187" s="94"/>
-      <c r="H187" s="55"/>
-      <c r="I187" s="55"/>
-      <c r="J187" s="176"/>
-      <c r="K187" s="178"/>
+      <c r="D187" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E187" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F187" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G187" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H187" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I187" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J187" s="181"/>
+      <c r="K187" s="192"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="89">
@@ -7490,13 +7635,12 @@
       <c r="C188" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D188" s="115"/>
-      <c r="E188" s="55"/>
-      <c r="F188" s="55"/>
-      <c r="G188" s="94"/>
-      <c r="H188" s="55"/>
-      <c r="I188" s="55"/>
-      <c r="J188" s="156"/>
+      <c r="D188" s="113"/>
+      <c r="E188" s="121"/>
+      <c r="F188" s="121"/>
+      <c r="H188" s="121"/>
+      <c r="I188" s="121"/>
+      <c r="J188" s="182"/>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="89">
@@ -7506,13 +7650,12 @@
       <c r="C189" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D189" s="115"/>
-      <c r="E189" s="55"/>
-      <c r="F189" s="55"/>
-      <c r="G189" s="94"/>
-      <c r="H189" s="55"/>
-      <c r="I189" s="55"/>
-      <c r="J189" s="156"/>
+      <c r="D189" s="113"/>
+      <c r="E189" s="121"/>
+      <c r="F189" s="121"/>
+      <c r="H189" s="121"/>
+      <c r="I189" s="121"/>
+      <c r="J189" s="182"/>
     </row>
     <row r="190" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="90">
@@ -7528,26 +7671,39 @@
       <c r="G190" s="92"/>
       <c r="H190" s="54"/>
       <c r="I190" s="54"/>
-      <c r="J190" s="177"/>
+      <c r="J190" s="183"/>
       <c r="K190" s="179"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A191" s="88">
+    <row r="191" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A191" s="184">
         <v>189</v>
       </c>
       <c r="B191" s="162" t="s">
-        <v>162</v>
-      </c>
-      <c r="C191" s="119" t="s">
+        <v>157</v>
+      </c>
+      <c r="C191" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D191" s="113"/>
-      <c r="E191" s="121"/>
-      <c r="F191" s="121"/>
-      <c r="H191" s="113"/>
-      <c r="I191" s="121"/>
-      <c r="J191" s="180"/>
-      <c r="K191" s="178"/>
+      <c r="D191" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E191" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F191" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G191" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H191" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I191" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J191" s="176"/>
+      <c r="K191" s="189"/>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="89">
@@ -7557,12 +7713,12 @@
       <c r="C192" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D192" s="113"/>
+      <c r="D192" s="115"/>
       <c r="E192" s="121"/>
       <c r="F192" s="121"/>
       <c r="H192" s="121"/>
       <c r="I192" s="121"/>
-      <c r="J192" s="181"/>
+      <c r="J192" s="156"/>
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="89">
@@ -7572,12 +7728,13 @@
       <c r="C193" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D193" s="113"/>
-      <c r="E193" s="121"/>
-      <c r="F193" s="121"/>
-      <c r="H193" s="121"/>
-      <c r="I193" s="121"/>
-      <c r="J193" s="181"/>
+      <c r="D193" s="115"/>
+      <c r="E193" s="55"/>
+      <c r="F193" s="55"/>
+      <c r="G193" s="94"/>
+      <c r="H193" s="55"/>
+      <c r="I193" s="55"/>
+      <c r="J193" s="156"/>
     </row>
     <row r="194" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="90">
@@ -7593,7 +7750,7 @@
       <c r="G194" s="92"/>
       <c r="H194" s="54"/>
       <c r="I194" s="54"/>
-      <c r="J194" s="182"/>
+      <c r="J194" s="177"/>
       <c r="K194" s="179"/>
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
@@ -7601,26 +7758,19 @@
         <v>193</v>
       </c>
       <c r="B195" s="162" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C195" s="119" t="s">
         <v>118</v>
       </c>
       <c r="D195" s="115"/>
-      <c r="E195" s="103">
-        <v>43173</v>
-      </c>
-      <c r="F195" s="103">
-        <v>43173</v>
-      </c>
+      <c r="E195" s="55"/>
+      <c r="F195" s="55"/>
       <c r="G195" s="94"/>
-      <c r="H195" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I195" s="103">
-        <v>43173</v>
-      </c>
+      <c r="H195" s="55"/>
+      <c r="I195" s="55"/>
       <c r="J195" s="176"/>
+      <c r="K195" s="178"/>
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="89">
@@ -7676,18 +7826,17 @@
         <v>197</v>
       </c>
       <c r="B199" s="162" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C199" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D199" s="115"/>
-      <c r="E199" s="55"/>
-      <c r="F199" s="55"/>
-      <c r="G199" s="94"/>
-      <c r="H199" s="55"/>
-      <c r="I199" s="55"/>
-      <c r="J199" s="176"/>
+      <c r="D199" s="113"/>
+      <c r="E199" s="121"/>
+      <c r="F199" s="121"/>
+      <c r="H199" s="113"/>
+      <c r="I199" s="121"/>
+      <c r="J199" s="181"/>
       <c r="K199" s="178"/>
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
@@ -7698,13 +7847,12 @@
       <c r="C200" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D200" s="115"/>
-      <c r="E200" s="55"/>
-      <c r="F200" s="55"/>
-      <c r="G200" s="94"/>
-      <c r="H200" s="55"/>
-      <c r="I200" s="55"/>
-      <c r="J200" s="156"/>
+      <c r="D200" s="113"/>
+      <c r="E200" s="121"/>
+      <c r="F200" s="121"/>
+      <c r="H200" s="121"/>
+      <c r="I200" s="121"/>
+      <c r="J200" s="182"/>
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="89">
@@ -7714,13 +7862,12 @@
       <c r="C201" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D201" s="115"/>
-      <c r="E201" s="55"/>
-      <c r="F201" s="55"/>
-      <c r="G201" s="94"/>
-      <c r="H201" s="55"/>
-      <c r="I201" s="55"/>
-      <c r="J201" s="156"/>
+      <c r="D201" s="113"/>
+      <c r="E201" s="121"/>
+      <c r="F201" s="121"/>
+      <c r="H201" s="121"/>
+      <c r="I201" s="121"/>
+      <c r="J201" s="182"/>
     </row>
     <row r="202" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="90">
@@ -7736,26 +7883,39 @@
       <c r="G202" s="92"/>
       <c r="H202" s="54"/>
       <c r="I202" s="54"/>
-      <c r="J202" s="177"/>
+      <c r="J202" s="183"/>
       <c r="K202" s="179"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A203" s="88">
+    <row r="203" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="184">
         <v>201</v>
       </c>
       <c r="B203" s="162" t="s">
-        <v>165</v>
-      </c>
-      <c r="C203" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="C203" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D203" s="113"/>
-      <c r="E203" s="121"/>
-      <c r="F203" s="121"/>
-      <c r="H203" s="113"/>
-      <c r="I203" s="121"/>
-      <c r="J203" s="180"/>
-      <c r="K203" s="178"/>
+      <c r="D203" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E203" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F203" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G203" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H203" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I203" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J203" s="176"/>
+      <c r="K203" s="189"/>
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="89">
@@ -7765,12 +7925,13 @@
       <c r="C204" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D204" s="113"/>
-      <c r="E204" s="121"/>
-      <c r="F204" s="121"/>
-      <c r="H204" s="121"/>
-      <c r="I204" s="121"/>
-      <c r="J204" s="181"/>
+      <c r="D204" s="115"/>
+      <c r="E204" s="55"/>
+      <c r="F204" s="55"/>
+      <c r="G204" s="94"/>
+      <c r="H204" s="55"/>
+      <c r="I204" s="55"/>
+      <c r="J204" s="156"/>
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="89">
@@ -7780,12 +7941,13 @@
       <c r="C205" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D205" s="113"/>
-      <c r="E205" s="121"/>
-      <c r="F205" s="121"/>
-      <c r="H205" s="121"/>
-      <c r="I205" s="121"/>
-      <c r="J205" s="181"/>
+      <c r="D205" s="115"/>
+      <c r="E205" s="55"/>
+      <c r="F205" s="55"/>
+      <c r="G205" s="94"/>
+      <c r="H205" s="55"/>
+      <c r="I205" s="55"/>
+      <c r="J205" s="156"/>
     </row>
     <row r="206" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="90">
@@ -7801,7 +7963,7 @@
       <c r="G206" s="92"/>
       <c r="H206" s="54"/>
       <c r="I206" s="54"/>
-      <c r="J206" s="182"/>
+      <c r="J206" s="177"/>
       <c r="K206" s="179"/>
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
@@ -7809,26 +7971,19 @@
         <v>205</v>
       </c>
       <c r="B207" s="162" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C207" s="119" t="s">
         <v>118</v>
       </c>
       <c r="D207" s="115"/>
-      <c r="E207" s="103">
-        <v>43173</v>
-      </c>
-      <c r="F207" s="103">
-        <v>43173</v>
-      </c>
+      <c r="E207" s="55"/>
+      <c r="F207" s="55"/>
       <c r="G207" s="94"/>
-      <c r="H207" s="103">
-        <v>43173</v>
-      </c>
-      <c r="I207" s="103">
-        <v>43173</v>
-      </c>
+      <c r="H207" s="55"/>
+      <c r="I207" s="55"/>
       <c r="J207" s="176"/>
+      <c r="K207" s="178"/>
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="89">
@@ -7884,18 +8039,17 @@
         <v>209</v>
       </c>
       <c r="B211" s="162" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C211" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D211" s="115"/>
-      <c r="E211" s="55"/>
-      <c r="F211" s="55"/>
-      <c r="G211" s="94"/>
-      <c r="H211" s="55"/>
-      <c r="I211" s="55"/>
-      <c r="J211" s="176"/>
+      <c r="D211" s="113"/>
+      <c r="E211" s="121"/>
+      <c r="F211" s="121"/>
+      <c r="H211" s="113"/>
+      <c r="I211" s="121"/>
+      <c r="J211" s="181"/>
       <c r="K211" s="178"/>
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
@@ -7906,13 +8060,12 @@
       <c r="C212" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D212" s="115"/>
-      <c r="E212" s="55"/>
-      <c r="F212" s="55"/>
-      <c r="G212" s="94"/>
-      <c r="H212" s="55"/>
-      <c r="I212" s="55"/>
-      <c r="J212" s="156"/>
+      <c r="D212" s="113"/>
+      <c r="E212" s="121"/>
+      <c r="F212" s="121"/>
+      <c r="H212" s="121"/>
+      <c r="I212" s="121"/>
+      <c r="J212" s="182"/>
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="89">
@@ -7922,13 +8075,12 @@
       <c r="C213" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D213" s="115"/>
-      <c r="E213" s="55"/>
-      <c r="F213" s="55"/>
-      <c r="G213" s="94"/>
-      <c r="H213" s="55"/>
-      <c r="I213" s="55"/>
-      <c r="J213" s="156"/>
+      <c r="D213" s="113"/>
+      <c r="E213" s="121"/>
+      <c r="F213" s="121"/>
+      <c r="H213" s="121"/>
+      <c r="I213" s="121"/>
+      <c r="J213" s="182"/>
     </row>
     <row r="214" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="90">
@@ -7944,26 +8096,39 @@
       <c r="G214" s="92"/>
       <c r="H214" s="54"/>
       <c r="I214" s="54"/>
-      <c r="J214" s="177"/>
+      <c r="J214" s="183"/>
       <c r="K214" s="179"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A215" s="88">
+    <row r="215" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A215" s="184">
         <v>213</v>
       </c>
       <c r="B215" s="162" t="s">
-        <v>168</v>
-      </c>
-      <c r="C215" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="C215" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D215" s="113"/>
-      <c r="E215" s="121"/>
-      <c r="F215" s="121"/>
-      <c r="H215" s="113"/>
-      <c r="I215" s="121"/>
-      <c r="J215" s="180"/>
-      <c r="K215" s="178"/>
+      <c r="D215" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E215" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F215" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G215" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H215" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I215" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J215" s="176"/>
+      <c r="K215" s="189"/>
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="89">
@@ -7973,12 +8138,13 @@
       <c r="C216" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D216" s="113"/>
-      <c r="E216" s="121"/>
-      <c r="F216" s="121"/>
-      <c r="H216" s="121"/>
-      <c r="I216" s="121"/>
-      <c r="J216" s="181"/>
+      <c r="D216" s="115"/>
+      <c r="E216" s="55"/>
+      <c r="F216" s="55"/>
+      <c r="G216" s="94"/>
+      <c r="H216" s="55"/>
+      <c r="I216" s="55"/>
+      <c r="J216" s="156"/>
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="89">
@@ -7988,12 +8154,13 @@
       <c r="C217" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D217" s="113"/>
-      <c r="E217" s="121"/>
-      <c r="F217" s="121"/>
-      <c r="H217" s="121"/>
-      <c r="I217" s="121"/>
-      <c r="J217" s="181"/>
+      <c r="D217" s="115"/>
+      <c r="E217" s="55"/>
+      <c r="F217" s="55"/>
+      <c r="G217" s="94"/>
+      <c r="H217" s="55"/>
+      <c r="I217" s="55"/>
+      <c r="J217" s="156"/>
     </row>
     <row r="218" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="90">
@@ -8009,7 +8176,7 @@
       <c r="G218" s="92"/>
       <c r="H218" s="54"/>
       <c r="I218" s="54"/>
-      <c r="J218" s="182"/>
+      <c r="J218" s="177"/>
       <c r="K218" s="179"/>
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
@@ -8017,7 +8184,7 @@
         <v>217</v>
       </c>
       <c r="B219" s="162" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C219" s="119" t="s">
         <v>118</v>
@@ -8029,6 +8196,7 @@
       <c r="H219" s="55"/>
       <c r="I219" s="55"/>
       <c r="J219" s="176"/>
+      <c r="K219" s="178"/>
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="89">
@@ -8084,18 +8252,17 @@
         <v>221</v>
       </c>
       <c r="B223" s="162" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C223" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D223" s="115"/>
-      <c r="E223" s="55"/>
-      <c r="F223" s="55"/>
-      <c r="G223" s="94"/>
-      <c r="H223" s="55"/>
-      <c r="I223" s="55"/>
-      <c r="J223" s="176"/>
+      <c r="D223" s="113"/>
+      <c r="E223" s="121"/>
+      <c r="F223" s="121"/>
+      <c r="H223" s="113"/>
+      <c r="I223" s="121"/>
+      <c r="J223" s="181"/>
       <c r="K223" s="178"/>
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.25">
@@ -8106,13 +8273,12 @@
       <c r="C224" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D224" s="115"/>
-      <c r="E224" s="55"/>
-      <c r="F224" s="55"/>
-      <c r="G224" s="94"/>
-      <c r="H224" s="55"/>
-      <c r="I224" s="55"/>
-      <c r="J224" s="156"/>
+      <c r="D224" s="113"/>
+      <c r="E224" s="121"/>
+      <c r="F224" s="121"/>
+      <c r="H224" s="121"/>
+      <c r="I224" s="121"/>
+      <c r="J224" s="182"/>
     </row>
     <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="89">
@@ -8122,13 +8288,12 @@
       <c r="C225" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D225" s="115"/>
-      <c r="E225" s="55"/>
-      <c r="F225" s="55"/>
-      <c r="G225" s="94"/>
-      <c r="H225" s="55"/>
-      <c r="I225" s="55"/>
-      <c r="J225" s="156"/>
+      <c r="D225" s="113"/>
+      <c r="E225" s="121"/>
+      <c r="F225" s="121"/>
+      <c r="H225" s="121"/>
+      <c r="I225" s="121"/>
+      <c r="J225" s="182"/>
     </row>
     <row r="226" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="90">
@@ -8144,26 +8309,39 @@
       <c r="G226" s="92"/>
       <c r="H226" s="54"/>
       <c r="I226" s="54"/>
-      <c r="J226" s="177"/>
+      <c r="J226" s="183"/>
       <c r="K226" s="179"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A227" s="88">
+    <row r="227" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="184">
         <v>225</v>
       </c>
       <c r="B227" s="162" t="s">
-        <v>171</v>
-      </c>
-      <c r="C227" s="119" t="s">
+        <v>166</v>
+      </c>
+      <c r="C227" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D227" s="113"/>
-      <c r="E227" s="121"/>
-      <c r="F227" s="121"/>
-      <c r="H227" s="113"/>
-      <c r="I227" s="121"/>
-      <c r="J227" s="180"/>
-      <c r="K227" s="178"/>
+      <c r="D227" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E227" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F227" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G227" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H227" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I227" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J227" s="176"/>
+      <c r="K227" s="189"/>
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="89">
@@ -8173,12 +8351,13 @@
       <c r="C228" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D228" s="113"/>
-      <c r="E228" s="121"/>
-      <c r="F228" s="121"/>
-      <c r="H228" s="121"/>
-      <c r="I228" s="121"/>
-      <c r="J228" s="181"/>
+      <c r="D228" s="115"/>
+      <c r="E228" s="55"/>
+      <c r="F228" s="55"/>
+      <c r="G228" s="94"/>
+      <c r="H228" s="55"/>
+      <c r="I228" s="55"/>
+      <c r="J228" s="156"/>
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="89">
@@ -8188,12 +8367,13 @@
       <c r="C229" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D229" s="113"/>
-      <c r="E229" s="121"/>
-      <c r="F229" s="121"/>
-      <c r="H229" s="121"/>
-      <c r="I229" s="121"/>
-      <c r="J229" s="181"/>
+      <c r="D229" s="115"/>
+      <c r="E229" s="55"/>
+      <c r="F229" s="55"/>
+      <c r="G229" s="94"/>
+      <c r="H229" s="55"/>
+      <c r="I229" s="55"/>
+      <c r="J229" s="156"/>
     </row>
     <row r="230" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="90">
@@ -8209,7 +8389,7 @@
       <c r="G230" s="92"/>
       <c r="H230" s="54"/>
       <c r="I230" s="54"/>
-      <c r="J230" s="182"/>
+      <c r="J230" s="177"/>
       <c r="K230" s="179"/>
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
@@ -8217,7 +8397,7 @@
         <v>229</v>
       </c>
       <c r="B231" s="162" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="C231" s="119" t="s">
         <v>118</v>
@@ -8229,6 +8409,7 @@
       <c r="H231" s="55"/>
       <c r="I231" s="55"/>
       <c r="J231" s="176"/>
+      <c r="K231" s="178"/>
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="89">
@@ -8284,18 +8465,17 @@
         <v>233</v>
       </c>
       <c r="B235" s="162" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C235" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D235" s="115"/>
-      <c r="E235" s="55"/>
-      <c r="F235" s="55"/>
-      <c r="G235" s="94"/>
-      <c r="H235" s="55"/>
-      <c r="I235" s="55"/>
-      <c r="J235" s="176"/>
+      <c r="D235" s="113"/>
+      <c r="E235" s="121"/>
+      <c r="F235" s="121"/>
+      <c r="H235" s="113"/>
+      <c r="I235" s="121"/>
+      <c r="J235" s="181"/>
       <c r="K235" s="178"/>
     </row>
     <row r="236" spans="1:11" x14ac:dyDescent="0.25">
@@ -8306,13 +8486,12 @@
       <c r="C236" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D236" s="115"/>
-      <c r="E236" s="55"/>
-      <c r="F236" s="55"/>
-      <c r="G236" s="94"/>
-      <c r="H236" s="55"/>
-      <c r="I236" s="55"/>
-      <c r="J236" s="156"/>
+      <c r="D236" s="113"/>
+      <c r="E236" s="121"/>
+      <c r="F236" s="121"/>
+      <c r="H236" s="121"/>
+      <c r="I236" s="121"/>
+      <c r="J236" s="182"/>
     </row>
     <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="89">
@@ -8322,13 +8501,12 @@
       <c r="C237" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D237" s="115"/>
-      <c r="E237" s="55"/>
-      <c r="F237" s="55"/>
-      <c r="G237" s="94"/>
-      <c r="H237" s="55"/>
-      <c r="I237" s="55"/>
-      <c r="J237" s="156"/>
+      <c r="D237" s="113"/>
+      <c r="E237" s="121"/>
+      <c r="F237" s="121"/>
+      <c r="H237" s="121"/>
+      <c r="I237" s="121"/>
+      <c r="J237" s="182"/>
     </row>
     <row r="238" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="90">
@@ -8344,26 +8522,39 @@
       <c r="G238" s="92"/>
       <c r="H238" s="54"/>
       <c r="I238" s="54"/>
-      <c r="J238" s="177"/>
+      <c r="J238" s="183"/>
       <c r="K238" s="179"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A239" s="88">
+    <row r="239" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A239" s="184">
         <v>237</v>
       </c>
       <c r="B239" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="C239" s="119" t="s">
+        <v>169</v>
+      </c>
+      <c r="C239" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D239" s="113"/>
-      <c r="E239" s="121"/>
-      <c r="F239" s="121"/>
-      <c r="H239" s="113"/>
-      <c r="I239" s="121"/>
-      <c r="J239" s="180"/>
-      <c r="K239" s="178"/>
+      <c r="D239" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E239" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F239" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G239" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H239" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I239" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J239" s="176"/>
+      <c r="K239" s="189"/>
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="89">
@@ -8373,12 +8564,13 @@
       <c r="C240" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D240" s="113"/>
-      <c r="E240" s="121"/>
-      <c r="F240" s="121"/>
-      <c r="H240" s="121"/>
-      <c r="I240" s="121"/>
-      <c r="J240" s="181"/>
+      <c r="D240" s="115"/>
+      <c r="E240" s="55"/>
+      <c r="F240" s="55"/>
+      <c r="G240" s="94"/>
+      <c r="H240" s="55"/>
+      <c r="I240" s="55"/>
+      <c r="J240" s="156"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="89">
@@ -8388,12 +8580,13 @@
       <c r="C241" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D241" s="113"/>
-      <c r="E241" s="121"/>
-      <c r="F241" s="121"/>
-      <c r="H241" s="121"/>
-      <c r="I241" s="121"/>
-      <c r="J241" s="181"/>
+      <c r="D241" s="115"/>
+      <c r="E241" s="55"/>
+      <c r="F241" s="55"/>
+      <c r="G241" s="94"/>
+      <c r="H241" s="55"/>
+      <c r="I241" s="55"/>
+      <c r="J241" s="156"/>
     </row>
     <row r="242" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="90">
@@ -8409,7 +8602,7 @@
       <c r="G242" s="92"/>
       <c r="H242" s="54"/>
       <c r="I242" s="54"/>
-      <c r="J242" s="182"/>
+      <c r="J242" s="177"/>
       <c r="K242" s="179"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
@@ -8417,7 +8610,7 @@
         <v>241</v>
       </c>
       <c r="B243" s="162" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C243" s="119" t="s">
         <v>118</v>
@@ -8429,6 +8622,7 @@
       <c r="H243" s="55"/>
       <c r="I243" s="55"/>
       <c r="J243" s="176"/>
+      <c r="K243" s="178"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="89">
@@ -8484,18 +8678,17 @@
         <v>245</v>
       </c>
       <c r="B247" s="162" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C247" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D247" s="115"/>
-      <c r="E247" s="55"/>
-      <c r="F247" s="55"/>
-      <c r="G247" s="94"/>
-      <c r="H247" s="55"/>
-      <c r="I247" s="55"/>
-      <c r="J247" s="176"/>
+      <c r="D247" s="113"/>
+      <c r="E247" s="121"/>
+      <c r="F247" s="121"/>
+      <c r="H247" s="113"/>
+      <c r="I247" s="121"/>
+      <c r="J247" s="181"/>
       <c r="K247" s="178"/>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
@@ -8506,13 +8699,12 @@
       <c r="C248" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D248" s="115"/>
-      <c r="E248" s="55"/>
-      <c r="F248" s="55"/>
-      <c r="G248" s="94"/>
-      <c r="H248" s="55"/>
-      <c r="I248" s="55"/>
-      <c r="J248" s="156"/>
+      <c r="D248" s="113"/>
+      <c r="E248" s="121"/>
+      <c r="F248" s="121"/>
+      <c r="H248" s="121"/>
+      <c r="I248" s="121"/>
+      <c r="J248" s="182"/>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="89">
@@ -8522,13 +8714,12 @@
       <c r="C249" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D249" s="115"/>
-      <c r="E249" s="55"/>
-      <c r="F249" s="55"/>
-      <c r="G249" s="94"/>
-      <c r="H249" s="55"/>
-      <c r="I249" s="55"/>
-      <c r="J249" s="156"/>
+      <c r="D249" s="113"/>
+      <c r="E249" s="121"/>
+      <c r="F249" s="121"/>
+      <c r="H249" s="121"/>
+      <c r="I249" s="121"/>
+      <c r="J249" s="182"/>
     </row>
     <row r="250" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="90">
@@ -8544,26 +8735,39 @@
       <c r="G250" s="92"/>
       <c r="H250" s="54"/>
       <c r="I250" s="54"/>
-      <c r="J250" s="177"/>
+      <c r="J250" s="183"/>
       <c r="K250" s="179"/>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A251" s="88">
+    <row r="251" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A251" s="184">
         <v>249</v>
       </c>
       <c r="B251" s="162" t="s">
-        <v>177</v>
-      </c>
-      <c r="C251" s="119" t="s">
+        <v>172</v>
+      </c>
+      <c r="C251" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D251" s="113"/>
-      <c r="E251" s="121"/>
-      <c r="F251" s="121"/>
-      <c r="H251" s="113"/>
-      <c r="I251" s="121"/>
-      <c r="J251" s="180"/>
-      <c r="K251" s="178"/>
+      <c r="D251" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E251" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F251" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G251" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H251" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I251" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J251" s="176"/>
+      <c r="K251" s="189"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="89">
@@ -8573,12 +8777,13 @@
       <c r="C252" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D252" s="113"/>
-      <c r="E252" s="121"/>
-      <c r="F252" s="121"/>
-      <c r="H252" s="121"/>
-      <c r="I252" s="121"/>
-      <c r="J252" s="181"/>
+      <c r="D252" s="115"/>
+      <c r="E252" s="55"/>
+      <c r="F252" s="55"/>
+      <c r="G252" s="94"/>
+      <c r="H252" s="55"/>
+      <c r="I252" s="55"/>
+      <c r="J252" s="156"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="89">
@@ -8588,12 +8793,13 @@
       <c r="C253" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D253" s="113"/>
-      <c r="E253" s="121"/>
-      <c r="F253" s="121"/>
-      <c r="H253" s="121"/>
-      <c r="I253" s="121"/>
-      <c r="J253" s="181"/>
+      <c r="D253" s="115"/>
+      <c r="E253" s="55"/>
+      <c r="F253" s="55"/>
+      <c r="G253" s="94"/>
+      <c r="H253" s="55"/>
+      <c r="I253" s="55"/>
+      <c r="J253" s="156"/>
     </row>
     <row r="254" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="90">
@@ -8609,7 +8815,7 @@
       <c r="G254" s="92"/>
       <c r="H254" s="54"/>
       <c r="I254" s="54"/>
-      <c r="J254" s="182"/>
+      <c r="J254" s="177"/>
       <c r="K254" s="179"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
@@ -8617,7 +8823,7 @@
         <v>253</v>
       </c>
       <c r="B255" s="162" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C255" s="119" t="s">
         <v>118</v>
@@ -8629,6 +8835,7 @@
       <c r="H255" s="55"/>
       <c r="I255" s="55"/>
       <c r="J255" s="176"/>
+      <c r="K255" s="178"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="89">
@@ -8684,18 +8891,17 @@
         <v>257</v>
       </c>
       <c r="B259" s="162" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C259" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D259" s="115"/>
-      <c r="E259" s="55"/>
-      <c r="F259" s="55"/>
-      <c r="G259" s="94"/>
-      <c r="H259" s="55"/>
-      <c r="I259" s="55"/>
-      <c r="J259" s="176"/>
+      <c r="D259" s="113"/>
+      <c r="E259" s="121"/>
+      <c r="F259" s="121"/>
+      <c r="H259" s="113"/>
+      <c r="I259" s="121"/>
+      <c r="J259" s="181"/>
       <c r="K259" s="178"/>
     </row>
     <row r="260" spans="1:11" x14ac:dyDescent="0.25">
@@ -8706,13 +8912,12 @@
       <c r="C260" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D260" s="115"/>
-      <c r="E260" s="55"/>
-      <c r="F260" s="55"/>
-      <c r="G260" s="94"/>
-      <c r="H260" s="55"/>
-      <c r="I260" s="55"/>
-      <c r="J260" s="156"/>
+      <c r="D260" s="113"/>
+      <c r="E260" s="121"/>
+      <c r="F260" s="121"/>
+      <c r="H260" s="121"/>
+      <c r="I260" s="121"/>
+      <c r="J260" s="182"/>
     </row>
     <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="89">
@@ -8722,13 +8927,12 @@
       <c r="C261" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D261" s="115"/>
-      <c r="E261" s="55"/>
-      <c r="F261" s="55"/>
-      <c r="G261" s="94"/>
-      <c r="H261" s="55"/>
-      <c r="I261" s="55"/>
-      <c r="J261" s="156"/>
+      <c r="D261" s="113"/>
+      <c r="E261" s="121"/>
+      <c r="F261" s="121"/>
+      <c r="H261" s="121"/>
+      <c r="I261" s="121"/>
+      <c r="J261" s="182"/>
     </row>
     <row r="262" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="90">
@@ -8744,26 +8948,39 @@
       <c r="G262" s="92"/>
       <c r="H262" s="54"/>
       <c r="I262" s="54"/>
-      <c r="J262" s="177"/>
+      <c r="J262" s="183"/>
       <c r="K262" s="179"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A263" s="88">
+    <row r="263" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="184">
         <v>261</v>
       </c>
       <c r="B263" s="162" t="s">
-        <v>180</v>
-      </c>
-      <c r="C263" s="119" t="s">
+        <v>175</v>
+      </c>
+      <c r="C263" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D263" s="113"/>
-      <c r="E263" s="121"/>
-      <c r="F263" s="121"/>
-      <c r="H263" s="113"/>
-      <c r="I263" s="121"/>
-      <c r="J263" s="180"/>
-      <c r="K263" s="178"/>
+      <c r="D263" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E263" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F263" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G263" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H263" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I263" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J263" s="176"/>
+      <c r="K263" s="189"/>
     </row>
     <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="89">
@@ -8773,12 +8990,13 @@
       <c r="C264" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D264" s="113"/>
-      <c r="E264" s="121"/>
-      <c r="F264" s="121"/>
-      <c r="H264" s="121"/>
-      <c r="I264" s="121"/>
-      <c r="J264" s="181"/>
+      <c r="D264" s="115"/>
+      <c r="E264" s="55"/>
+      <c r="F264" s="55"/>
+      <c r="G264" s="94"/>
+      <c r="H264" s="55"/>
+      <c r="I264" s="55"/>
+      <c r="J264" s="156"/>
     </row>
     <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="89">
@@ -8788,12 +9006,13 @@
       <c r="C265" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D265" s="113"/>
-      <c r="E265" s="121"/>
-      <c r="F265" s="121"/>
-      <c r="H265" s="121"/>
-      <c r="I265" s="121"/>
-      <c r="J265" s="181"/>
+      <c r="D265" s="115"/>
+      <c r="E265" s="55"/>
+      <c r="F265" s="55"/>
+      <c r="G265" s="94"/>
+      <c r="H265" s="55"/>
+      <c r="I265" s="55"/>
+      <c r="J265" s="156"/>
     </row>
     <row r="266" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="90">
@@ -8809,7 +9028,7 @@
       <c r="G266" s="92"/>
       <c r="H266" s="54"/>
       <c r="I266" s="54"/>
-      <c r="J266" s="182"/>
+      <c r="J266" s="177"/>
       <c r="K266" s="179"/>
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
@@ -8817,7 +9036,7 @@
         <v>265</v>
       </c>
       <c r="B267" s="162" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C267" s="119" t="s">
         <v>118</v>
@@ -8829,6 +9048,7 @@
       <c r="H267" s="55"/>
       <c r="I267" s="55"/>
       <c r="J267" s="176"/>
+      <c r="K267" s="178"/>
     </row>
     <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="89">
@@ -8884,18 +9104,17 @@
         <v>269</v>
       </c>
       <c r="B271" s="162" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C271" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D271" s="115"/>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-      <c r="G271" s="94"/>
-      <c r="H271" s="55"/>
-      <c r="I271" s="55"/>
-      <c r="J271" s="176"/>
+      <c r="D271" s="113"/>
+      <c r="E271" s="121"/>
+      <c r="F271" s="121"/>
+      <c r="H271" s="113"/>
+      <c r="I271" s="121"/>
+      <c r="J271" s="181"/>
       <c r="K271" s="178"/>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
@@ -8906,13 +9125,12 @@
       <c r="C272" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D272" s="115"/>
-      <c r="E272" s="55"/>
-      <c r="F272" s="55"/>
-      <c r="G272" s="94"/>
-      <c r="H272" s="55"/>
-      <c r="I272" s="55"/>
-      <c r="J272" s="156"/>
+      <c r="D272" s="113"/>
+      <c r="E272" s="121"/>
+      <c r="F272" s="121"/>
+      <c r="H272" s="121"/>
+      <c r="I272" s="121"/>
+      <c r="J272" s="182"/>
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="89">
@@ -8922,13 +9140,12 @@
       <c r="C273" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D273" s="115"/>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-      <c r="G273" s="94"/>
-      <c r="H273" s="55"/>
-      <c r="I273" s="55"/>
-      <c r="J273" s="156"/>
+      <c r="D273" s="113"/>
+      <c r="E273" s="121"/>
+      <c r="F273" s="121"/>
+      <c r="H273" s="121"/>
+      <c r="I273" s="121"/>
+      <c r="J273" s="182"/>
     </row>
     <row r="274" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="90">
@@ -8944,26 +9161,39 @@
       <c r="G274" s="92"/>
       <c r="H274" s="54"/>
       <c r="I274" s="54"/>
-      <c r="J274" s="177"/>
+      <c r="J274" s="183"/>
       <c r="K274" s="179"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A275" s="88">
+    <row r="275" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="184">
         <v>273</v>
       </c>
       <c r="B275" s="162" t="s">
-        <v>183</v>
-      </c>
-      <c r="C275" s="119" t="s">
+        <v>178</v>
+      </c>
+      <c r="C275" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D275" s="113"/>
-      <c r="E275" s="121"/>
-      <c r="F275" s="121"/>
-      <c r="H275" s="113"/>
-      <c r="I275" s="121"/>
-      <c r="J275" s="180"/>
-      <c r="K275" s="178"/>
+      <c r="D275" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E275" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F275" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G275" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H275" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I275" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J275" s="176"/>
+      <c r="K275" s="189"/>
     </row>
     <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="89">
@@ -8973,12 +9203,13 @@
       <c r="C276" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D276" s="113"/>
-      <c r="E276" s="121"/>
-      <c r="F276" s="121"/>
-      <c r="H276" s="121"/>
-      <c r="I276" s="121"/>
-      <c r="J276" s="181"/>
+      <c r="D276" s="115"/>
+      <c r="E276" s="55"/>
+      <c r="F276" s="55"/>
+      <c r="G276" s="94"/>
+      <c r="H276" s="55"/>
+      <c r="I276" s="55"/>
+      <c r="J276" s="156"/>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="89">
@@ -8988,12 +9219,13 @@
       <c r="C277" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D277" s="113"/>
-      <c r="E277" s="121"/>
-      <c r="F277" s="121"/>
-      <c r="H277" s="121"/>
-      <c r="I277" s="121"/>
-      <c r="J277" s="181"/>
+      <c r="D277" s="115"/>
+      <c r="E277" s="55"/>
+      <c r="F277" s="55"/>
+      <c r="G277" s="94"/>
+      <c r="H277" s="55"/>
+      <c r="I277" s="55"/>
+      <c r="J277" s="156"/>
     </row>
     <row r="278" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="90">
@@ -9009,7 +9241,7 @@
       <c r="G278" s="92"/>
       <c r="H278" s="54"/>
       <c r="I278" s="54"/>
-      <c r="J278" s="182"/>
+      <c r="J278" s="177"/>
       <c r="K278" s="179"/>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -9017,7 +9249,7 @@
         <v>277</v>
       </c>
       <c r="B279" s="162" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C279" s="119" t="s">
         <v>118</v>
@@ -9029,6 +9261,7 @@
       <c r="H279" s="55"/>
       <c r="I279" s="55"/>
       <c r="J279" s="176"/>
+      <c r="K279" s="178"/>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="89">
@@ -9084,18 +9317,17 @@
         <v>281</v>
       </c>
       <c r="B283" s="162" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="C283" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D283" s="115"/>
-      <c r="E283" s="55"/>
-      <c r="F283" s="55"/>
-      <c r="G283" s="94"/>
-      <c r="H283" s="55"/>
-      <c r="I283" s="55"/>
-      <c r="J283" s="176"/>
+      <c r="D283" s="113"/>
+      <c r="E283" s="121"/>
+      <c r="F283" s="121"/>
+      <c r="H283" s="113"/>
+      <c r="I283" s="121"/>
+      <c r="J283" s="181"/>
       <c r="K283" s="178"/>
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
@@ -9106,13 +9338,12 @@
       <c r="C284" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D284" s="115"/>
-      <c r="E284" s="55"/>
-      <c r="F284" s="55"/>
-      <c r="G284" s="94"/>
-      <c r="H284" s="55"/>
-      <c r="I284" s="55"/>
-      <c r="J284" s="156"/>
+      <c r="D284" s="113"/>
+      <c r="E284" s="121"/>
+      <c r="F284" s="121"/>
+      <c r="H284" s="121"/>
+      <c r="I284" s="121"/>
+      <c r="J284" s="182"/>
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="89">
@@ -9122,13 +9353,12 @@
       <c r="C285" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D285" s="115"/>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-      <c r="G285" s="94"/>
-      <c r="H285" s="55"/>
-      <c r="I285" s="55"/>
-      <c r="J285" s="156"/>
+      <c r="D285" s="113"/>
+      <c r="E285" s="121"/>
+      <c r="F285" s="121"/>
+      <c r="H285" s="121"/>
+      <c r="I285" s="121"/>
+      <c r="J285" s="182"/>
     </row>
     <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="90">
@@ -9144,26 +9374,39 @@
       <c r="G286" s="92"/>
       <c r="H286" s="54"/>
       <c r="I286" s="54"/>
-      <c r="J286" s="177"/>
+      <c r="J286" s="183"/>
       <c r="K286" s="179"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A287" s="88">
+    <row r="287" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="184">
         <v>285</v>
       </c>
       <c r="B287" s="162" t="s">
-        <v>186</v>
-      </c>
-      <c r="C287" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="C287" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D287" s="113"/>
-      <c r="E287" s="121"/>
-      <c r="F287" s="121"/>
-      <c r="H287" s="113"/>
-      <c r="I287" s="121"/>
-      <c r="J287" s="180"/>
-      <c r="K287" s="178"/>
+      <c r="D287" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E287" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F287" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G287" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H287" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I287" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J287" s="176"/>
+      <c r="K287" s="189"/>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="89">
@@ -9173,12 +9416,13 @@
       <c r="C288" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D288" s="113"/>
-      <c r="E288" s="121"/>
-      <c r="F288" s="121"/>
-      <c r="H288" s="121"/>
-      <c r="I288" s="121"/>
-      <c r="J288" s="181"/>
+      <c r="D288" s="115"/>
+      <c r="E288" s="55"/>
+      <c r="F288" s="55"/>
+      <c r="G288" s="94"/>
+      <c r="H288" s="55"/>
+      <c r="I288" s="55"/>
+      <c r="J288" s="156"/>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="89">
@@ -9188,12 +9432,13 @@
       <c r="C289" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D289" s="113"/>
-      <c r="E289" s="121"/>
-      <c r="F289" s="121"/>
-      <c r="H289" s="121"/>
-      <c r="I289" s="121"/>
-      <c r="J289" s="181"/>
+      <c r="D289" s="115"/>
+      <c r="E289" s="55"/>
+      <c r="F289" s="55"/>
+      <c r="G289" s="94"/>
+      <c r="H289" s="55"/>
+      <c r="I289" s="55"/>
+      <c r="J289" s="156"/>
     </row>
     <row r="290" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="90">
@@ -9209,7 +9454,7 @@
       <c r="G290" s="92"/>
       <c r="H290" s="54"/>
       <c r="I290" s="54"/>
-      <c r="J290" s="182"/>
+      <c r="J290" s="177"/>
       <c r="K290" s="179"/>
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
@@ -9217,7 +9462,7 @@
         <v>289</v>
       </c>
       <c r="B291" s="162" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="C291" s="119" t="s">
         <v>118</v>
@@ -9229,6 +9474,7 @@
       <c r="H291" s="55"/>
       <c r="I291" s="55"/>
       <c r="J291" s="176"/>
+      <c r="K291" s="178"/>
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="89">
@@ -9284,18 +9530,17 @@
         <v>293</v>
       </c>
       <c r="B295" s="162" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C295" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D295" s="115"/>
-      <c r="E295" s="55"/>
-      <c r="F295" s="55"/>
-      <c r="G295" s="94"/>
-      <c r="H295" s="55"/>
-      <c r="I295" s="55"/>
-      <c r="J295" s="176"/>
+      <c r="D295" s="113"/>
+      <c r="E295" s="121"/>
+      <c r="F295" s="121"/>
+      <c r="H295" s="113"/>
+      <c r="I295" s="121"/>
+      <c r="J295" s="181"/>
       <c r="K295" s="178"/>
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
@@ -9306,13 +9551,12 @@
       <c r="C296" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D296" s="115"/>
-      <c r="E296" s="55"/>
-      <c r="F296" s="55"/>
-      <c r="G296" s="94"/>
-      <c r="H296" s="55"/>
-      <c r="I296" s="55"/>
-      <c r="J296" s="156"/>
+      <c r="D296" s="113"/>
+      <c r="E296" s="121"/>
+      <c r="F296" s="121"/>
+      <c r="H296" s="121"/>
+      <c r="I296" s="121"/>
+      <c r="J296" s="182"/>
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="89">
@@ -9322,13 +9566,12 @@
       <c r="C297" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D297" s="115"/>
-      <c r="E297" s="55"/>
-      <c r="F297" s="55"/>
-      <c r="G297" s="94"/>
-      <c r="H297" s="55"/>
-      <c r="I297" s="55"/>
-      <c r="J297" s="156"/>
+      <c r="D297" s="113"/>
+      <c r="E297" s="121"/>
+      <c r="F297" s="121"/>
+      <c r="H297" s="121"/>
+      <c r="I297" s="121"/>
+      <c r="J297" s="182"/>
     </row>
     <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="90">
@@ -9344,26 +9587,39 @@
       <c r="G298" s="92"/>
       <c r="H298" s="54"/>
       <c r="I298" s="54"/>
-      <c r="J298" s="177"/>
+      <c r="J298" s="183"/>
       <c r="K298" s="179"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A299" s="88">
+    <row r="299" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="184">
         <v>297</v>
       </c>
       <c r="B299" s="162" t="s">
-        <v>189</v>
-      </c>
-      <c r="C299" s="119" t="s">
+        <v>184</v>
+      </c>
+      <c r="C299" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D299" s="113"/>
-      <c r="E299" s="121"/>
-      <c r="F299" s="121"/>
-      <c r="H299" s="113"/>
-      <c r="I299" s="121"/>
-      <c r="J299" s="180"/>
-      <c r="K299" s="178"/>
+      <c r="D299" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E299" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F299" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G299" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H299" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I299" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J299" s="176"/>
+      <c r="K299" s="189"/>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="89">
@@ -9373,12 +9629,13 @@
       <c r="C300" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D300" s="113"/>
-      <c r="E300" s="121"/>
-      <c r="F300" s="121"/>
-      <c r="H300" s="121"/>
-      <c r="I300" s="121"/>
-      <c r="J300" s="181"/>
+      <c r="D300" s="115"/>
+      <c r="E300" s="55"/>
+      <c r="F300" s="55"/>
+      <c r="G300" s="94"/>
+      <c r="H300" s="55"/>
+      <c r="I300" s="55"/>
+      <c r="J300" s="156"/>
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="89">
@@ -9388,12 +9645,13 @@
       <c r="C301" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D301" s="113"/>
-      <c r="E301" s="121"/>
-      <c r="F301" s="121"/>
-      <c r="H301" s="121"/>
-      <c r="I301" s="121"/>
-      <c r="J301" s="181"/>
+      <c r="D301" s="115"/>
+      <c r="E301" s="55"/>
+      <c r="F301" s="55"/>
+      <c r="G301" s="94"/>
+      <c r="H301" s="55"/>
+      <c r="I301" s="55"/>
+      <c r="J301" s="156"/>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="90">
@@ -9409,7 +9667,7 @@
       <c r="G302" s="92"/>
       <c r="H302" s="54"/>
       <c r="I302" s="54"/>
-      <c r="J302" s="182"/>
+      <c r="J302" s="177"/>
       <c r="K302" s="179"/>
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
@@ -9417,7 +9675,7 @@
         <v>301</v>
       </c>
       <c r="B303" s="162" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C303" s="119" t="s">
         <v>118</v>
@@ -9429,6 +9687,7 @@
       <c r="H303" s="55"/>
       <c r="I303" s="55"/>
       <c r="J303" s="176"/>
+      <c r="K303" s="178"/>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="89">
@@ -9484,18 +9743,17 @@
         <v>305</v>
       </c>
       <c r="B307" s="162" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C307" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D307" s="115"/>
-      <c r="E307" s="55"/>
-      <c r="F307" s="55"/>
-      <c r="G307" s="94"/>
-      <c r="H307" s="55"/>
-      <c r="I307" s="55"/>
-      <c r="J307" s="176"/>
+      <c r="D307" s="113"/>
+      <c r="E307" s="121"/>
+      <c r="F307" s="121"/>
+      <c r="H307" s="113"/>
+      <c r="I307" s="121"/>
+      <c r="J307" s="181"/>
       <c r="K307" s="178"/>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
@@ -9506,13 +9764,12 @@
       <c r="C308" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D308" s="115"/>
-      <c r="E308" s="55"/>
-      <c r="F308" s="55"/>
-      <c r="G308" s="94"/>
-      <c r="H308" s="55"/>
-      <c r="I308" s="55"/>
-      <c r="J308" s="156"/>
+      <c r="D308" s="113"/>
+      <c r="E308" s="121"/>
+      <c r="F308" s="121"/>
+      <c r="H308" s="121"/>
+      <c r="I308" s="121"/>
+      <c r="J308" s="182"/>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="89">
@@ -9522,13 +9779,12 @@
       <c r="C309" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D309" s="115"/>
-      <c r="E309" s="55"/>
-      <c r="F309" s="55"/>
-      <c r="G309" s="94"/>
-      <c r="H309" s="55"/>
-      <c r="I309" s="55"/>
-      <c r="J309" s="156"/>
+      <c r="D309" s="113"/>
+      <c r="E309" s="121"/>
+      <c r="F309" s="121"/>
+      <c r="H309" s="121"/>
+      <c r="I309" s="121"/>
+      <c r="J309" s="182"/>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="90">
@@ -9544,26 +9800,39 @@
       <c r="G310" s="92"/>
       <c r="H310" s="54"/>
       <c r="I310" s="54"/>
-      <c r="J310" s="177"/>
+      <c r="J310" s="183"/>
       <c r="K310" s="179"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A311" s="88">
+    <row r="311" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="184">
         <v>309</v>
       </c>
       <c r="B311" s="162" t="s">
-        <v>192</v>
-      </c>
-      <c r="C311" s="119" t="s">
+        <v>187</v>
+      </c>
+      <c r="C311" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D311" s="113"/>
-      <c r="E311" s="121"/>
-      <c r="F311" s="121"/>
-      <c r="H311" s="113"/>
-      <c r="I311" s="121"/>
-      <c r="J311" s="180"/>
-      <c r="K311" s="178"/>
+      <c r="D311" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E311" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F311" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G311" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H311" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I311" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J311" s="176"/>
+      <c r="K311" s="189"/>
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="89">
@@ -9573,12 +9842,13 @@
       <c r="C312" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D312" s="113"/>
-      <c r="E312" s="121"/>
-      <c r="F312" s="121"/>
-      <c r="H312" s="121"/>
-      <c r="I312" s="121"/>
-      <c r="J312" s="181"/>
+      <c r="D312" s="115"/>
+      <c r="E312" s="55"/>
+      <c r="F312" s="55"/>
+      <c r="G312" s="94"/>
+      <c r="H312" s="55"/>
+      <c r="I312" s="55"/>
+      <c r="J312" s="156"/>
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="89">
@@ -9588,12 +9858,13 @@
       <c r="C313" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D313" s="113"/>
-      <c r="E313" s="121"/>
-      <c r="F313" s="121"/>
-      <c r="H313" s="121"/>
-      <c r="I313" s="121"/>
-      <c r="J313" s="181"/>
+      <c r="D313" s="115"/>
+      <c r="E313" s="55"/>
+      <c r="F313" s="55"/>
+      <c r="G313" s="94"/>
+      <c r="H313" s="55"/>
+      <c r="I313" s="55"/>
+      <c r="J313" s="156"/>
     </row>
     <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="90">
@@ -9609,7 +9880,7 @@
       <c r="G314" s="92"/>
       <c r="H314" s="54"/>
       <c r="I314" s="54"/>
-      <c r="J314" s="182"/>
+      <c r="J314" s="177"/>
       <c r="K314" s="179"/>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -9617,7 +9888,7 @@
         <v>313</v>
       </c>
       <c r="B315" s="162" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C315" s="119" t="s">
         <v>118</v>
@@ -9629,6 +9900,7 @@
       <c r="H315" s="55"/>
       <c r="I315" s="55"/>
       <c r="J315" s="176"/>
+      <c r="K315" s="178"/>
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="89">
@@ -9684,18 +9956,17 @@
         <v>317</v>
       </c>
       <c r="B319" s="162" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="C319" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D319" s="115"/>
-      <c r="E319" s="55"/>
-      <c r="F319" s="55"/>
-      <c r="G319" s="94"/>
-      <c r="H319" s="55"/>
-      <c r="I319" s="55"/>
-      <c r="J319" s="176"/>
+      <c r="D319" s="113"/>
+      <c r="E319" s="121"/>
+      <c r="F319" s="121"/>
+      <c r="H319" s="113"/>
+      <c r="I319" s="121"/>
+      <c r="J319" s="181"/>
       <c r="K319" s="178"/>
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
@@ -9706,13 +9977,12 @@
       <c r="C320" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D320" s="115"/>
-      <c r="E320" s="55"/>
-      <c r="F320" s="55"/>
-      <c r="G320" s="94"/>
-      <c r="H320" s="55"/>
-      <c r="I320" s="55"/>
-      <c r="J320" s="156"/>
+      <c r="D320" s="113"/>
+      <c r="E320" s="121"/>
+      <c r="F320" s="121"/>
+      <c r="H320" s="121"/>
+      <c r="I320" s="121"/>
+      <c r="J320" s="182"/>
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="89">
@@ -9722,13 +9992,12 @@
       <c r="C321" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D321" s="115"/>
-      <c r="E321" s="55"/>
-      <c r="F321" s="55"/>
-      <c r="G321" s="94"/>
-      <c r="H321" s="55"/>
-      <c r="I321" s="55"/>
-      <c r="J321" s="156"/>
+      <c r="D321" s="113"/>
+      <c r="E321" s="121"/>
+      <c r="F321" s="121"/>
+      <c r="H321" s="121"/>
+      <c r="I321" s="121"/>
+      <c r="J321" s="182"/>
     </row>
     <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="90">
@@ -9744,26 +10013,39 @@
       <c r="G322" s="92"/>
       <c r="H322" s="54"/>
       <c r="I322" s="54"/>
-      <c r="J322" s="177"/>
+      <c r="J322" s="183"/>
       <c r="K322" s="179"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A323" s="88">
+    <row r="323" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A323" s="184">
         <v>321</v>
       </c>
       <c r="B323" s="162" t="s">
-        <v>195</v>
-      </c>
-      <c r="C323" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="C323" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D323" s="113"/>
-      <c r="E323" s="121"/>
-      <c r="F323" s="121"/>
-      <c r="H323" s="113"/>
-      <c r="I323" s="121"/>
-      <c r="J323" s="180"/>
-      <c r="K323" s="178"/>
+      <c r="D323" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E323" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F323" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G323" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H323" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I323" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J323" s="176"/>
+      <c r="K323" s="189"/>
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="89">
@@ -9773,12 +10055,13 @@
       <c r="C324" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D324" s="113"/>
-      <c r="E324" s="121"/>
-      <c r="F324" s="121"/>
-      <c r="H324" s="121"/>
-      <c r="I324" s="121"/>
-      <c r="J324" s="181"/>
+      <c r="D324" s="115"/>
+      <c r="E324" s="55"/>
+      <c r="F324" s="55"/>
+      <c r="G324" s="94"/>
+      <c r="H324" s="55"/>
+      <c r="I324" s="55"/>
+      <c r="J324" s="156"/>
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="89">
@@ -9788,12 +10071,13 @@
       <c r="C325" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D325" s="113"/>
-      <c r="E325" s="121"/>
-      <c r="F325" s="121"/>
-      <c r="H325" s="121"/>
-      <c r="I325" s="121"/>
-      <c r="J325" s="181"/>
+      <c r="D325" s="115"/>
+      <c r="E325" s="55"/>
+      <c r="F325" s="55"/>
+      <c r="G325" s="94"/>
+      <c r="H325" s="55"/>
+      <c r="I325" s="55"/>
+      <c r="J325" s="156"/>
     </row>
     <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="90">
@@ -9809,7 +10093,7 @@
       <c r="G326" s="92"/>
       <c r="H326" s="54"/>
       <c r="I326" s="54"/>
-      <c r="J326" s="182"/>
+      <c r="J326" s="177"/>
       <c r="K326" s="179"/>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
@@ -9817,7 +10101,7 @@
         <v>325</v>
       </c>
       <c r="B327" s="162" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="C327" s="119" t="s">
         <v>118</v>
@@ -9829,6 +10113,7 @@
       <c r="H327" s="55"/>
       <c r="I327" s="55"/>
       <c r="J327" s="176"/>
+      <c r="K327" s="178"/>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="89">
@@ -9884,18 +10169,17 @@
         <v>329</v>
       </c>
       <c r="B331" s="162" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C331" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D331" s="115"/>
-      <c r="E331" s="55"/>
-      <c r="F331" s="55"/>
-      <c r="G331" s="94"/>
-      <c r="H331" s="55"/>
-      <c r="I331" s="55"/>
-      <c r="J331" s="176"/>
+      <c r="D331" s="113"/>
+      <c r="E331" s="121"/>
+      <c r="F331" s="121"/>
+      <c r="H331" s="113"/>
+      <c r="I331" s="121"/>
+      <c r="J331" s="181"/>
       <c r="K331" s="178"/>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
@@ -9906,13 +10190,12 @@
       <c r="C332" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D332" s="115"/>
-      <c r="E332" s="55"/>
-      <c r="F332" s="55"/>
-      <c r="G332" s="94"/>
-      <c r="H332" s="55"/>
-      <c r="I332" s="55"/>
-      <c r="J332" s="156"/>
+      <c r="D332" s="113"/>
+      <c r="E332" s="121"/>
+      <c r="F332" s="121"/>
+      <c r="H332" s="121"/>
+      <c r="I332" s="121"/>
+      <c r="J332" s="182"/>
     </row>
     <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="89">
@@ -9922,13 +10205,12 @@
       <c r="C333" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D333" s="115"/>
-      <c r="E333" s="55"/>
-      <c r="F333" s="55"/>
-      <c r="G333" s="94"/>
-      <c r="H333" s="55"/>
-      <c r="I333" s="55"/>
-      <c r="J333" s="156"/>
+      <c r="D333" s="113"/>
+      <c r="E333" s="121"/>
+      <c r="F333" s="121"/>
+      <c r="H333" s="121"/>
+      <c r="I333" s="121"/>
+      <c r="J333" s="182"/>
     </row>
     <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="90">
@@ -9944,26 +10226,39 @@
       <c r="G334" s="92"/>
       <c r="H334" s="54"/>
       <c r="I334" s="54"/>
-      <c r="J334" s="177"/>
+      <c r="J334" s="183"/>
       <c r="K334" s="179"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A335" s="88">
+    <row r="335" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A335" s="184">
         <v>333</v>
       </c>
       <c r="B335" s="162" t="s">
-        <v>198</v>
-      </c>
-      <c r="C335" s="119" t="s">
+        <v>193</v>
+      </c>
+      <c r="C335" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D335" s="113"/>
-      <c r="E335" s="121"/>
-      <c r="F335" s="121"/>
-      <c r="H335" s="113"/>
-      <c r="I335" s="121"/>
-      <c r="J335" s="180"/>
-      <c r="K335" s="178"/>
+      <c r="D335" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E335" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F335" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G335" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H335" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I335" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J335" s="176"/>
+      <c r="K335" s="189"/>
     </row>
     <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="89">
@@ -9973,12 +10268,13 @@
       <c r="C336" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D336" s="113"/>
-      <c r="E336" s="121"/>
-      <c r="F336" s="121"/>
-      <c r="H336" s="121"/>
-      <c r="I336" s="121"/>
-      <c r="J336" s="181"/>
+      <c r="D336" s="115"/>
+      <c r="E336" s="55"/>
+      <c r="F336" s="55"/>
+      <c r="G336" s="94"/>
+      <c r="H336" s="55"/>
+      <c r="I336" s="55"/>
+      <c r="J336" s="156"/>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="89">
@@ -9988,12 +10284,13 @@
       <c r="C337" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D337" s="113"/>
-      <c r="E337" s="121"/>
-      <c r="F337" s="121"/>
-      <c r="H337" s="121"/>
-      <c r="I337" s="121"/>
-      <c r="J337" s="181"/>
+      <c r="D337" s="115"/>
+      <c r="E337" s="55"/>
+      <c r="F337" s="55"/>
+      <c r="G337" s="94"/>
+      <c r="H337" s="55"/>
+      <c r="I337" s="55"/>
+      <c r="J337" s="156"/>
     </row>
     <row r="338" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A338" s="90">
@@ -10009,7 +10306,7 @@
       <c r="G338" s="92"/>
       <c r="H338" s="54"/>
       <c r="I338" s="54"/>
-      <c r="J338" s="182"/>
+      <c r="J338" s="177"/>
       <c r="K338" s="179"/>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
@@ -10017,7 +10314,7 @@
         <v>337</v>
       </c>
       <c r="B339" s="162" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C339" s="119" t="s">
         <v>118</v>
@@ -10029,6 +10326,7 @@
       <c r="H339" s="55"/>
       <c r="I339" s="55"/>
       <c r="J339" s="176"/>
+      <c r="K339" s="178"/>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="89">
@@ -10084,18 +10382,17 @@
         <v>341</v>
       </c>
       <c r="B343" s="162" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="C343" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D343" s="115"/>
-      <c r="E343" s="55"/>
-      <c r="F343" s="55"/>
-      <c r="G343" s="94"/>
-      <c r="H343" s="55"/>
-      <c r="I343" s="55"/>
-      <c r="J343" s="176"/>
+      <c r="D343" s="113"/>
+      <c r="E343" s="121"/>
+      <c r="F343" s="121"/>
+      <c r="H343" s="113"/>
+      <c r="I343" s="121"/>
+      <c r="J343" s="181"/>
       <c r="K343" s="178"/>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
@@ -10106,13 +10403,12 @@
       <c r="C344" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D344" s="115"/>
-      <c r="E344" s="55"/>
-      <c r="F344" s="55"/>
-      <c r="G344" s="94"/>
-      <c r="H344" s="55"/>
-      <c r="I344" s="55"/>
-      <c r="J344" s="156"/>
+      <c r="D344" s="113"/>
+      <c r="E344" s="121"/>
+      <c r="F344" s="121"/>
+      <c r="H344" s="121"/>
+      <c r="I344" s="121"/>
+      <c r="J344" s="182"/>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="89">
@@ -10122,13 +10418,12 @@
       <c r="C345" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D345" s="115"/>
-      <c r="E345" s="55"/>
-      <c r="F345" s="55"/>
-      <c r="G345" s="94"/>
-      <c r="H345" s="55"/>
-      <c r="I345" s="55"/>
-      <c r="J345" s="156"/>
+      <c r="D345" s="113"/>
+      <c r="E345" s="121"/>
+      <c r="F345" s="121"/>
+      <c r="H345" s="121"/>
+      <c r="I345" s="121"/>
+      <c r="J345" s="182"/>
     </row>
     <row r="346" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A346" s="90">
@@ -10144,26 +10439,39 @@
       <c r="G346" s="92"/>
       <c r="H346" s="54"/>
       <c r="I346" s="54"/>
-      <c r="J346" s="177"/>
+      <c r="J346" s="183"/>
       <c r="K346" s="179"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A347" s="88">
+    <row r="347" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A347" s="184">
         <v>345</v>
       </c>
       <c r="B347" s="162" t="s">
-        <v>201</v>
-      </c>
-      <c r="C347" s="119" t="s">
+        <v>197</v>
+      </c>
+      <c r="C347" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D347" s="113"/>
-      <c r="E347" s="121"/>
-      <c r="F347" s="121"/>
-      <c r="H347" s="113"/>
-      <c r="I347" s="121"/>
-      <c r="J347" s="180"/>
-      <c r="K347" s="178"/>
+      <c r="D347" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E347" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F347" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G347" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H347" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I347" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J347" s="176"/>
+      <c r="K347" s="189"/>
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="89">
@@ -10173,12 +10481,13 @@
       <c r="C348" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D348" s="113"/>
-      <c r="E348" s="121"/>
-      <c r="F348" s="121"/>
-      <c r="H348" s="121"/>
-      <c r="I348" s="121"/>
-      <c r="J348" s="181"/>
+      <c r="D348" s="115"/>
+      <c r="E348" s="55"/>
+      <c r="F348" s="55"/>
+      <c r="G348" s="94"/>
+      <c r="H348" s="55"/>
+      <c r="I348" s="55"/>
+      <c r="J348" s="156"/>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="89">
@@ -10188,12 +10497,13 @@
       <c r="C349" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D349" s="113"/>
-      <c r="E349" s="121"/>
-      <c r="F349" s="121"/>
-      <c r="H349" s="121"/>
-      <c r="I349" s="121"/>
-      <c r="J349" s="181"/>
+      <c r="D349" s="115"/>
+      <c r="E349" s="55"/>
+      <c r="F349" s="55"/>
+      <c r="G349" s="94"/>
+      <c r="H349" s="55"/>
+      <c r="I349" s="55"/>
+      <c r="J349" s="156"/>
     </row>
     <row r="350" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A350" s="90">
@@ -10209,7 +10519,7 @@
       <c r="G350" s="92"/>
       <c r="H350" s="54"/>
       <c r="I350" s="54"/>
-      <c r="J350" s="182"/>
+      <c r="J350" s="177"/>
       <c r="K350" s="179"/>
     </row>
     <row r="351" spans="1:11" x14ac:dyDescent="0.25">
@@ -10217,7 +10527,7 @@
         <v>349</v>
       </c>
       <c r="B351" s="162" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="C351" s="119" t="s">
         <v>118</v>
@@ -10229,6 +10539,7 @@
       <c r="H351" s="55"/>
       <c r="I351" s="55"/>
       <c r="J351" s="176"/>
+      <c r="K351" s="178"/>
     </row>
     <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="89">
@@ -10284,18 +10595,17 @@
         <v>353</v>
       </c>
       <c r="B355" s="162" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C355" s="119" t="s">
         <v>118</v>
       </c>
-      <c r="D355" s="115"/>
-      <c r="E355" s="55"/>
-      <c r="F355" s="55"/>
-      <c r="G355" s="94"/>
-      <c r="H355" s="55"/>
-      <c r="I355" s="55"/>
-      <c r="J355" s="176"/>
+      <c r="D355" s="113"/>
+      <c r="E355" s="121"/>
+      <c r="F355" s="121"/>
+      <c r="H355" s="113"/>
+      <c r="I355" s="121"/>
+      <c r="J355" s="181"/>
       <c r="K355" s="178"/>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -10306,13 +10616,12 @@
       <c r="C356" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D356" s="115"/>
-      <c r="E356" s="55"/>
-      <c r="F356" s="55"/>
-      <c r="G356" s="94"/>
-      <c r="H356" s="55"/>
-      <c r="I356" s="55"/>
-      <c r="J356" s="156"/>
+      <c r="D356" s="113"/>
+      <c r="E356" s="121"/>
+      <c r="F356" s="121"/>
+      <c r="H356" s="121"/>
+      <c r="I356" s="121"/>
+      <c r="J356" s="182"/>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="89">
@@ -10322,13 +10631,12 @@
       <c r="C357" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D357" s="115"/>
-      <c r="E357" s="55"/>
-      <c r="F357" s="55"/>
-      <c r="G357" s="94"/>
-      <c r="H357" s="55"/>
-      <c r="I357" s="55"/>
-      <c r="J357" s="156"/>
+      <c r="D357" s="113"/>
+      <c r="E357" s="121"/>
+      <c r="F357" s="121"/>
+      <c r="H357" s="121"/>
+      <c r="I357" s="121"/>
+      <c r="J357" s="182"/>
     </row>
     <row r="358" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A358" s="90">
@@ -10344,26 +10652,39 @@
       <c r="G358" s="92"/>
       <c r="H358" s="54"/>
       <c r="I358" s="54"/>
-      <c r="J358" s="177"/>
+      <c r="J358" s="183"/>
       <c r="K358" s="179"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A359" s="88">
+    <row r="359" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A359" s="184">
         <v>357</v>
       </c>
       <c r="B359" s="162" t="s">
-        <v>204</v>
-      </c>
-      <c r="C359" s="119" t="s">
+        <v>199</v>
+      </c>
+      <c r="C359" s="185" t="s">
         <v>118</v>
       </c>
-      <c r="D359" s="113"/>
-      <c r="E359" s="121"/>
-      <c r="F359" s="121"/>
-      <c r="H359" s="113"/>
-      <c r="I359" s="121"/>
-      <c r="J359" s="180"/>
-      <c r="K359" s="178"/>
+      <c r="D359" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E359" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F359" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G359" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H359" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I359" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J359" s="176"/>
+      <c r="K359" s="189"/>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="89">
@@ -10373,12 +10694,13 @@
       <c r="C360" s="120" t="s">
         <v>117</v>
       </c>
-      <c r="D360" s="113"/>
-      <c r="E360" s="121"/>
-      <c r="F360" s="121"/>
-      <c r="H360" s="121"/>
-      <c r="I360" s="121"/>
-      <c r="J360" s="181"/>
+      <c r="D360" s="115"/>
+      <c r="E360" s="55"/>
+      <c r="F360" s="55"/>
+      <c r="G360" s="94"/>
+      <c r="H360" s="55"/>
+      <c r="I360" s="55"/>
+      <c r="J360" s="156"/>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="89">
@@ -10388,12 +10710,13 @@
       <c r="C361" s="120" t="s">
         <v>119</v>
       </c>
-      <c r="D361" s="113"/>
-      <c r="E361" s="121"/>
-      <c r="F361" s="121"/>
-      <c r="H361" s="121"/>
-      <c r="I361" s="121"/>
-      <c r="J361" s="181"/>
+      <c r="D361" s="115"/>
+      <c r="E361" s="55"/>
+      <c r="F361" s="55"/>
+      <c r="G361" s="94"/>
+      <c r="H361" s="55"/>
+      <c r="I361" s="55"/>
+      <c r="J361" s="156"/>
     </row>
     <row r="362" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A362" s="90">
@@ -10409,93 +10732,451 @@
       <c r="G362" s="92"/>
       <c r="H362" s="54"/>
       <c r="I362" s="54"/>
-      <c r="J362" s="182"/>
+      <c r="J362" s="177"/>
       <c r="K362" s="179"/>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D363" s="45">
-        <f>SUM(D3:D362)</f>
-        <v>15.459999999999971</v>
-      </c>
-      <c r="E363" s="97"/>
-      <c r="F363" s="97"/>
-      <c r="G363" s="86">
-        <f>SUM(G3:G362)</f>
-        <v>13.089999999999977</v>
-      </c>
+      <c r="A363" s="88">
+        <v>361</v>
+      </c>
+      <c r="B363" s="162" t="s">
+        <v>200</v>
+      </c>
+      <c r="C363" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D363" s="115"/>
+      <c r="E363" s="55"/>
+      <c r="F363" s="55"/>
+      <c r="G363" s="94"/>
+      <c r="H363" s="55"/>
+      <c r="I363" s="55"/>
+      <c r="J363" s="176"/>
       <c r="K363" s="178"/>
     </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A364" s="89">
+        <v>362</v>
+      </c>
+      <c r="B364" s="163"/>
+      <c r="C364" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D364" s="115"/>
+      <c r="E364" s="55"/>
+      <c r="F364" s="55"/>
+      <c r="G364" s="94"/>
+      <c r="H364" s="55"/>
+      <c r="I364" s="55"/>
+      <c r="J364" s="156"/>
+    </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B365" s="53" t="s">
+      <c r="A365" s="89">
+        <v>363</v>
+      </c>
+      <c r="B365" s="163"/>
+      <c r="C365" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D365" s="115"/>
+      <c r="E365" s="55"/>
+      <c r="F365" s="55"/>
+      <c r="G365" s="94"/>
+      <c r="H365" s="55"/>
+      <c r="I365" s="55"/>
+      <c r="J365" s="156"/>
+    </row>
+    <row r="366" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A366" s="90">
+        <v>364</v>
+      </c>
+      <c r="B366" s="164"/>
+      <c r="C366" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D366" s="114"/>
+      <c r="E366" s="54"/>
+      <c r="F366" s="54"/>
+      <c r="G366" s="92"/>
+      <c r="H366" s="54"/>
+      <c r="I366" s="54"/>
+      <c r="J366" s="177"/>
+      <c r="K366" s="179"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A367" s="88">
+        <v>365</v>
+      </c>
+      <c r="B367" s="162" t="s">
+        <v>201</v>
+      </c>
+      <c r="C367" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D367" s="113"/>
+      <c r="E367" s="121"/>
+      <c r="F367" s="121"/>
+      <c r="H367" s="113"/>
+      <c r="I367" s="121"/>
+      <c r="J367" s="181"/>
+      <c r="K367" s="178"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A368" s="89">
+        <v>366</v>
+      </c>
+      <c r="B368" s="163"/>
+      <c r="C368" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D368" s="113"/>
+      <c r="E368" s="121"/>
+      <c r="F368" s="121"/>
+      <c r="H368" s="121"/>
+      <c r="I368" s="121"/>
+      <c r="J368" s="182"/>
+    </row>
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A369" s="89">
+        <v>367</v>
+      </c>
+      <c r="B369" s="163"/>
+      <c r="C369" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D369" s="113"/>
+      <c r="E369" s="121"/>
+      <c r="F369" s="121"/>
+      <c r="H369" s="121"/>
+      <c r="I369" s="121"/>
+      <c r="J369" s="182"/>
+    </row>
+    <row r="370" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A370" s="90">
+        <v>368</v>
+      </c>
+      <c r="B370" s="164"/>
+      <c r="C370" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D370" s="114"/>
+      <c r="E370" s="54"/>
+      <c r="F370" s="54"/>
+      <c r="G370" s="92"/>
+      <c r="H370" s="54"/>
+      <c r="I370" s="54"/>
+      <c r="J370" s="183"/>
+      <c r="K370" s="179"/>
+    </row>
+    <row r="371" spans="1:11" s="190" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A371" s="184">
+        <v>369</v>
+      </c>
+      <c r="B371" s="162" t="s">
+        <v>202</v>
+      </c>
+      <c r="C371" s="185" t="s">
+        <v>118</v>
+      </c>
+      <c r="D371" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="E371" s="187">
+        <v>43173</v>
+      </c>
+      <c r="F371" s="187">
+        <v>43173</v>
+      </c>
+      <c r="G371" s="186">
+        <v>0.1</v>
+      </c>
+      <c r="H371" s="187">
+        <v>43174</v>
+      </c>
+      <c r="I371" s="187">
+        <v>43174</v>
+      </c>
+      <c r="J371" s="176"/>
+      <c r="K371" s="189"/>
+    </row>
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A372" s="89">
+        <v>370</v>
+      </c>
+      <c r="B372" s="163"/>
+      <c r="C372" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D372" s="115"/>
+      <c r="E372" s="55"/>
+      <c r="F372" s="55"/>
+      <c r="G372" s="94"/>
+      <c r="H372" s="55"/>
+      <c r="I372" s="55"/>
+      <c r="J372" s="156"/>
+    </row>
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A373" s="89">
+        <v>371</v>
+      </c>
+      <c r="B373" s="163"/>
+      <c r="C373" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D373" s="115"/>
+      <c r="E373" s="55"/>
+      <c r="F373" s="55"/>
+      <c r="G373" s="94"/>
+      <c r="H373" s="55"/>
+      <c r="I373" s="55"/>
+      <c r="J373" s="156"/>
+    </row>
+    <row r="374" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A374" s="90">
+        <v>372</v>
+      </c>
+      <c r="B374" s="164"/>
+      <c r="C374" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D374" s="114"/>
+      <c r="E374" s="54"/>
+      <c r="F374" s="54"/>
+      <c r="G374" s="92"/>
+      <c r="H374" s="54"/>
+      <c r="I374" s="54"/>
+      <c r="J374" s="177"/>
+      <c r="K374" s="179"/>
+    </row>
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A375" s="88">
+        <v>373</v>
+      </c>
+      <c r="B375" s="162" t="s">
+        <v>203</v>
+      </c>
+      <c r="C375" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D375" s="115"/>
+      <c r="E375" s="55"/>
+      <c r="F375" s="55"/>
+      <c r="G375" s="94"/>
+      <c r="H375" s="55"/>
+      <c r="I375" s="55"/>
+      <c r="J375" s="176"/>
+      <c r="K375" s="178"/>
+    </row>
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A376" s="89">
+        <v>374</v>
+      </c>
+      <c r="B376" s="163"/>
+      <c r="C376" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D376" s="115"/>
+      <c r="E376" s="55"/>
+      <c r="F376" s="55"/>
+      <c r="G376" s="94"/>
+      <c r="H376" s="55"/>
+      <c r="I376" s="55"/>
+      <c r="J376" s="156"/>
+    </row>
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A377" s="89">
+        <v>375</v>
+      </c>
+      <c r="B377" s="163"/>
+      <c r="C377" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D377" s="115"/>
+      <c r="E377" s="55"/>
+      <c r="F377" s="55"/>
+      <c r="G377" s="94"/>
+      <c r="H377" s="55"/>
+      <c r="I377" s="55"/>
+      <c r="J377" s="156"/>
+    </row>
+    <row r="378" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A378" s="90">
+        <v>376</v>
+      </c>
+      <c r="B378" s="164"/>
+      <c r="C378" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D378" s="114"/>
+      <c r="E378" s="54"/>
+      <c r="F378" s="54"/>
+      <c r="G378" s="92"/>
+      <c r="H378" s="54"/>
+      <c r="I378" s="54"/>
+      <c r="J378" s="177"/>
+      <c r="K378" s="179"/>
+    </row>
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A379" s="88">
+        <v>377</v>
+      </c>
+      <c r="B379" s="162" t="s">
+        <v>204</v>
+      </c>
+      <c r="C379" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="D379" s="113"/>
+      <c r="E379" s="121"/>
+      <c r="F379" s="121"/>
+      <c r="H379" s="113"/>
+      <c r="I379" s="121"/>
+      <c r="J379" s="181"/>
+      <c r="K379" s="178"/>
+    </row>
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A380" s="89">
+        <v>378</v>
+      </c>
+      <c r="B380" s="163"/>
+      <c r="C380" s="120" t="s">
+        <v>117</v>
+      </c>
+      <c r="D380" s="113"/>
+      <c r="E380" s="121"/>
+      <c r="F380" s="121"/>
+      <c r="H380" s="121"/>
+      <c r="I380" s="121"/>
+      <c r="J380" s="182"/>
+    </row>
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A381" s="89">
+        <v>379</v>
+      </c>
+      <c r="B381" s="163"/>
+      <c r="C381" s="120" t="s">
+        <v>119</v>
+      </c>
+      <c r="D381" s="113"/>
+      <c r="E381" s="121"/>
+      <c r="F381" s="121"/>
+      <c r="H381" s="121"/>
+      <c r="I381" s="121"/>
+      <c r="J381" s="182"/>
+    </row>
+    <row r="382" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A382" s="90">
+        <v>380</v>
+      </c>
+      <c r="B382" s="164"/>
+      <c r="C382" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="D382" s="114"/>
+      <c r="E382" s="54"/>
+      <c r="F382" s="54"/>
+      <c r="G382" s="92"/>
+      <c r="H382" s="54"/>
+      <c r="I382" s="54"/>
+      <c r="J382" s="183"/>
+      <c r="K382" s="179"/>
+    </row>
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D383" s="45">
+        <f>SUM(D3:D382)</f>
+        <v>18.059999999999999</v>
+      </c>
+      <c r="E383" s="97"/>
+      <c r="F383" s="97"/>
+      <c r="G383" s="86">
+        <f>SUM(G3:G382)</f>
+        <v>15.689999999999968</v>
+      </c>
+      <c r="K383" s="178"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B385" s="53" t="s">
         <v>150</v>
       </c>
-      <c r="C365" s="53">
-        <f>SUM(D363,G363)</f>
-        <v>28.549999999999947</v>
+      <c r="C385" s="53">
+        <f>SUM(D383,G383)</f>
+        <v>33.749999999999964</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="188">
+  <mergeCells count="197">
+    <mergeCell ref="B151:B154"/>
+    <mergeCell ref="B155:B158"/>
+    <mergeCell ref="J155:J158"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="J163:J166"/>
+    <mergeCell ref="B159:B162"/>
+    <mergeCell ref="J159:J162"/>
+    <mergeCell ref="B371:B374"/>
+    <mergeCell ref="J371:J374"/>
+    <mergeCell ref="B375:B378"/>
+    <mergeCell ref="J375:J378"/>
+    <mergeCell ref="B379:B382"/>
+    <mergeCell ref="J379:J382"/>
+    <mergeCell ref="B359:B362"/>
+    <mergeCell ref="J359:J362"/>
+    <mergeCell ref="B363:B366"/>
+    <mergeCell ref="J363:J366"/>
+    <mergeCell ref="B367:B370"/>
+    <mergeCell ref="J367:J370"/>
+    <mergeCell ref="B347:B350"/>
+    <mergeCell ref="J347:J350"/>
     <mergeCell ref="B351:B354"/>
     <mergeCell ref="J351:J354"/>
     <mergeCell ref="B355:B358"/>
     <mergeCell ref="J355:J358"/>
-    <mergeCell ref="B359:B362"/>
-    <mergeCell ref="J359:J362"/>
+    <mergeCell ref="B335:B338"/>
+    <mergeCell ref="J335:J338"/>
     <mergeCell ref="B339:B342"/>
     <mergeCell ref="J339:J342"/>
     <mergeCell ref="B343:B346"/>
     <mergeCell ref="J343:J346"/>
-    <mergeCell ref="B347:B350"/>
-    <mergeCell ref="J347:J350"/>
+    <mergeCell ref="B323:B326"/>
+    <mergeCell ref="J323:J326"/>
     <mergeCell ref="B327:B330"/>
     <mergeCell ref="J327:J330"/>
     <mergeCell ref="B331:B334"/>
     <mergeCell ref="J331:J334"/>
-    <mergeCell ref="B335:B338"/>
-    <mergeCell ref="J335:J338"/>
+    <mergeCell ref="B311:B314"/>
+    <mergeCell ref="J311:J314"/>
     <mergeCell ref="B315:B318"/>
     <mergeCell ref="J315:J318"/>
     <mergeCell ref="B319:B322"/>
     <mergeCell ref="J319:J322"/>
-    <mergeCell ref="B323:B326"/>
-    <mergeCell ref="J323:J326"/>
+    <mergeCell ref="B299:B302"/>
+    <mergeCell ref="J299:J302"/>
     <mergeCell ref="B303:B306"/>
     <mergeCell ref="J303:J306"/>
     <mergeCell ref="B307:B310"/>
     <mergeCell ref="J307:J310"/>
-    <mergeCell ref="B311:B314"/>
-    <mergeCell ref="J311:J314"/>
+    <mergeCell ref="B287:B290"/>
+    <mergeCell ref="J287:J290"/>
     <mergeCell ref="B291:B294"/>
     <mergeCell ref="J291:J294"/>
     <mergeCell ref="B295:B298"/>
     <mergeCell ref="J295:J298"/>
-    <mergeCell ref="B299:B302"/>
-    <mergeCell ref="J299:J302"/>
+    <mergeCell ref="B275:B278"/>
+    <mergeCell ref="J275:J278"/>
     <mergeCell ref="B279:B282"/>
     <mergeCell ref="J279:J282"/>
     <mergeCell ref="B283:B286"/>
     <mergeCell ref="J283:J286"/>
-    <mergeCell ref="B287:B290"/>
-    <mergeCell ref="J287:J290"/>
+    <mergeCell ref="B263:B266"/>
+    <mergeCell ref="J263:J266"/>
     <mergeCell ref="B267:B270"/>
     <mergeCell ref="J267:J270"/>
     <mergeCell ref="B271:B274"/>
     <mergeCell ref="J271:J274"/>
-    <mergeCell ref="B275:B278"/>
-    <mergeCell ref="J275:J278"/>
-    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="J243:J246"/>
+    <mergeCell ref="J247:J250"/>
+    <mergeCell ref="J251:J254"/>
     <mergeCell ref="J255:J258"/>
-    <mergeCell ref="B259:B262"/>
     <mergeCell ref="J259:J262"/>
-    <mergeCell ref="B263:B266"/>
-    <mergeCell ref="J263:J266"/>
-    <mergeCell ref="B243:B246"/>
-    <mergeCell ref="J243:J246"/>
-    <mergeCell ref="B247:B250"/>
-    <mergeCell ref="J247:J250"/>
-    <mergeCell ref="B251:B254"/>
-    <mergeCell ref="J251:J254"/>
     <mergeCell ref="J223:J226"/>
     <mergeCell ref="J227:J230"/>
     <mergeCell ref="J231:J234"/>
@@ -10506,11 +11187,11 @@
     <mergeCell ref="J211:J214"/>
     <mergeCell ref="J215:J218"/>
     <mergeCell ref="J219:J222"/>
-    <mergeCell ref="J183:J186"/>
-    <mergeCell ref="J187:J190"/>
-    <mergeCell ref="J191:J194"/>
-    <mergeCell ref="J195:J198"/>
-    <mergeCell ref="J199:J202"/>
+    <mergeCell ref="B243:B246"/>
+    <mergeCell ref="B247:B250"/>
+    <mergeCell ref="B251:B254"/>
+    <mergeCell ref="B255:B258"/>
+    <mergeCell ref="B259:B262"/>
     <mergeCell ref="B223:B226"/>
     <mergeCell ref="B227:B230"/>
     <mergeCell ref="B231:B234"/>
@@ -10521,35 +11202,31 @@
     <mergeCell ref="B211:B214"/>
     <mergeCell ref="B215:B218"/>
     <mergeCell ref="B219:B222"/>
-    <mergeCell ref="B183:B186"/>
-    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="J191:J194"/>
+    <mergeCell ref="J195:J198"/>
+    <mergeCell ref="J199:J202"/>
     <mergeCell ref="B191:B194"/>
     <mergeCell ref="B195:B198"/>
     <mergeCell ref="B199:B202"/>
+    <mergeCell ref="B187:B190"/>
+    <mergeCell ref="J167:J170"/>
     <mergeCell ref="J171:J174"/>
     <mergeCell ref="J175:J178"/>
     <mergeCell ref="J179:J182"/>
+    <mergeCell ref="J183:J186"/>
+    <mergeCell ref="J187:J190"/>
+    <mergeCell ref="B167:B170"/>
+    <mergeCell ref="B175:B178"/>
     <mergeCell ref="B171:B174"/>
-    <mergeCell ref="B175:B178"/>
     <mergeCell ref="B179:B182"/>
-    <mergeCell ref="B167:B170"/>
-    <mergeCell ref="J147:J150"/>
-    <mergeCell ref="J151:J154"/>
-    <mergeCell ref="J155:J158"/>
-    <mergeCell ref="J159:J162"/>
-    <mergeCell ref="J163:J166"/>
-    <mergeCell ref="J167:J170"/>
-    <mergeCell ref="B147:B150"/>
-    <mergeCell ref="B155:B158"/>
-    <mergeCell ref="B151:B154"/>
-    <mergeCell ref="B159:B162"/>
-    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="B183:B186"/>
     <mergeCell ref="J19:J22"/>
     <mergeCell ref="B23:B26"/>
     <mergeCell ref="J23:J26"/>
     <mergeCell ref="B15:B18"/>
     <mergeCell ref="J15:J18"/>
     <mergeCell ref="B19:B22"/>
+    <mergeCell ref="J147:J150"/>
     <mergeCell ref="J91:J94"/>
     <mergeCell ref="J95:J98"/>
     <mergeCell ref="B131:B134"/>
@@ -10563,6 +11240,7 @@
     <mergeCell ref="J143:J146"/>
     <mergeCell ref="J131:J134"/>
     <mergeCell ref="J135:J138"/>
+    <mergeCell ref="B147:B150"/>
     <mergeCell ref="J87:J90"/>
     <mergeCell ref="J111:J114"/>
     <mergeCell ref="J115:J118"/>
